--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/sme016_csiro_au/Documents/1. FWPA Next Gen Resource Assessment/APSIM Pinus/Pinus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="995" documentId="11_ED06679721B701E191ED5A9D7F069183952703B5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F0302861-D9E8-408B-B80D-6E69CD5F78F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE880C-84D1-4818-83AC-06F4173CAB3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,21 +141,6 @@
     <t>NContentTotal (kg/ha)</t>
   </si>
   <si>
-    <t>Pinus.Stem.Ht (m)</t>
-  </si>
-  <si>
-    <t>Pinus.Stem.DBH (cm)</t>
-  </si>
-  <si>
-    <t>Pinus.Stem.BA (m2/ha)</t>
-  </si>
-  <si>
-    <t>Pinus.Stem.Vol (m3/ha)</t>
-  </si>
-  <si>
-    <t>Pinus.StemWood.BasicDensity (kg/m3)</t>
-  </si>
-  <si>
     <t>LiveFoliarN (kg/ha)</t>
   </si>
   <si>
@@ -186,49 +171,7 @@
     <t>SETRESFI</t>
   </si>
   <si>
-    <t>Stocking(stems/ha)</t>
-  </si>
-  <si>
-    <t>Pinus.AboveGround.Wt (g/m2)</t>
-  </si>
-  <si>
-    <t>LeafWt (g/m2)</t>
-  </si>
-  <si>
-    <t>Pinus.Leaf.Dead.Wt (g/m2)</t>
-  </si>
-  <si>
-    <t>BranchWt (g/m2)</t>
-  </si>
-  <si>
-    <t>StemBarkWt (g/m2)</t>
-  </si>
-  <si>
-    <t>StemWoodWt (g/m2)</t>
-  </si>
-  <si>
-    <t>StemWt (g/m2)</t>
-  </si>
-  <si>
-    <t>WoodTotalWt (g/m2)</t>
-  </si>
-  <si>
-    <t>Pinus.CoarseRoot.Live.Wt (g/m2)</t>
-  </si>
-  <si>
-    <t>Pinus.FineRoot.Live.Wt (g/m2)</t>
-  </si>
-  <si>
-    <t>Pinus.BelowGround.Wt (g/m2)</t>
-  </si>
-  <si>
     <t>Albaugh et al 1998, 2004</t>
-  </si>
-  <si>
-    <t>VolUB(m3/ha)</t>
-  </si>
-  <si>
-    <t>BarkThicknessBH(mm)</t>
   </si>
   <si>
     <t>MAIub</t>
@@ -342,10 +285,67 @@
     <t>TowerHillF</t>
   </si>
   <si>
-    <t>Pinus.Fruit.Wt (g/m2)</t>
+    <t>Pinus.Foliar.Nconc (g/g)</t>
   </si>
   <si>
-    <t>Pinus.Foliar.Nconc (g/g)</t>
+    <t>stemspha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinus.AboveGround.Wt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinus.Fruit.Wt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeafWt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinus.Leaf.Dead.Wt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BranchWt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StemBarkWt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StemWoodWt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StemWt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WoodTotalWt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinus.CoarseRoot.Live.Wt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinus.FineRoot.Live.Wt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinus.BelowGround.Wt </t>
+  </si>
+  <si>
+    <t>Pinus.Stem.Ht</t>
+  </si>
+  <si>
+    <t>Pinus.Stem.DBH</t>
+  </si>
+  <si>
+    <t>Pinus.Stem.BA</t>
+  </si>
+  <si>
+    <t>Pinus.Stem.Vol</t>
+  </si>
+  <si>
+    <t>BarkThickness</t>
+  </si>
+  <si>
+    <t>VolUB</t>
+  </si>
+  <si>
+    <t>Pinus.Stem.WoodDensity</t>
   </si>
 </sst>
 </file>
@@ -924,10 +924,10 @@
   <dimension ref="A1:BQ982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D896" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A946" sqref="A946"/>
+      <selection pane="bottomRight" activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -969,49 +969,49 @@
         <v>25</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="R1" s="30" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="S1" s="30" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="T1" s="30" t="s">
         <v>3</v>
@@ -1020,16 +1020,16 @@
         <v>7</v>
       </c>
       <c r="V1" s="30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="W1" s="30" t="s">
         <v>27</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="Y1" s="30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="30" t="s">
         <v>2</v>
@@ -1038,96 +1038,96 @@
         <v>8</v>
       </c>
       <c r="AB1" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD1" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE1" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AN1" s="30" t="s">
         <v>29</v>
-      </c>
-      <c r="AD1" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" s="30" t="s">
-        <v>34</v>
       </c>
       <c r="AO1" s="30" t="s">
         <v>13</v>
       </c>
       <c r="AP1" s="30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ1" s="29"/>
       <c r="AR1" s="29"/>
       <c r="BC1" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="BF1" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="BG1" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="BJ1" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="BK1" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="BM1" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="BN1" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="BO1" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="BP1" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="BQ1" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:69">
@@ -7400,7 +7400,7 @@
       <c r="AJ156" s="1"/>
       <c r="AK156" s="1"/>
       <c r="AO156" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:41" ht="15">
@@ -7460,7 +7460,7 @@
       <c r="AJ157" s="1"/>
       <c r="AK157" s="1"/>
       <c r="AO157" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:41" ht="15">
@@ -7520,7 +7520,7 @@
       <c r="AJ158" s="1"/>
       <c r="AK158" s="1"/>
       <c r="AO158" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:41" ht="15">
@@ -7580,7 +7580,7 @@
       <c r="AJ159" s="1"/>
       <c r="AK159" s="1"/>
       <c r="AO159" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:41" ht="15">
@@ -7640,7 +7640,7 @@
       <c r="AJ160" s="1"/>
       <c r="AK160" s="1"/>
       <c r="AO160" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:41" ht="15">
@@ -7693,7 +7693,7 @@
       <c r="AJ161" s="1"/>
       <c r="AK161" s="1"/>
       <c r="AO161" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:41" ht="15">
@@ -7748,7 +7748,7 @@
       <c r="AJ162" s="1"/>
       <c r="AK162" s="1"/>
       <c r="AO162" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:41" ht="15">
@@ -7810,7 +7810,7 @@
       <c r="AJ163" s="1"/>
       <c r="AK163" s="1"/>
       <c r="AO163" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:41" ht="15">
@@ -7855,7 +7855,7 @@
       <c r="AJ164" s="1"/>
       <c r="AK164" s="1"/>
       <c r="AO164" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:41" ht="15">
@@ -7900,7 +7900,7 @@
       <c r="AJ165" s="1"/>
       <c r="AK165" s="1"/>
       <c r="AO165" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:41" ht="15">
@@ -7945,7 +7945,7 @@
       <c r="AJ166" s="1"/>
       <c r="AK166" s="1"/>
       <c r="AO166" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:41" ht="15">
@@ -7990,7 +7990,7 @@
       <c r="AJ167" s="1"/>
       <c r="AK167" s="1"/>
       <c r="AO167" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="1:41" ht="15">
@@ -8035,7 +8035,7 @@
       <c r="AJ168" s="1"/>
       <c r="AK168" s="1"/>
       <c r="AO168" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:41" ht="15">
@@ -8080,7 +8080,7 @@
       <c r="AJ169" s="1"/>
       <c r="AK169" s="1"/>
       <c r="AO169" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="1:41" ht="15">
@@ -8125,7 +8125,7 @@
       <c r="AJ170" s="1"/>
       <c r="AK170" s="1"/>
       <c r="AO170" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:41" ht="15">
@@ -8185,7 +8185,7 @@
       <c r="AJ171" s="1"/>
       <c r="AK171" s="1"/>
       <c r="AO171" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172" spans="1:41" ht="15">
@@ -8245,7 +8245,7 @@
       <c r="AJ172" s="1"/>
       <c r="AK172" s="1"/>
       <c r="AO172" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:41" ht="15">
@@ -8305,7 +8305,7 @@
       <c r="AJ173" s="1"/>
       <c r="AK173" s="1"/>
       <c r="AO173" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:41" ht="15">
@@ -8365,7 +8365,7 @@
       <c r="AJ174" s="1"/>
       <c r="AK174" s="1"/>
       <c r="AO174" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175" spans="1:41" ht="15">
@@ -8425,7 +8425,7 @@
       <c r="AJ175" s="1"/>
       <c r="AK175" s="1"/>
       <c r="AO175" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:41" ht="15">
@@ -8478,7 +8478,7 @@
       <c r="AJ176" s="1"/>
       <c r="AK176" s="1"/>
       <c r="AO176" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:41" ht="15">
@@ -8531,7 +8531,7 @@
       <c r="AJ177" s="1"/>
       <c r="AK177" s="1"/>
       <c r="AO177" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="178" spans="1:41" ht="15">
@@ -8586,7 +8586,7 @@
       <c r="AJ178" s="1"/>
       <c r="AK178" s="1"/>
       <c r="AO178" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:41" ht="15">
@@ -8631,7 +8631,7 @@
       <c r="AJ179" s="1"/>
       <c r="AK179" s="1"/>
       <c r="AO179" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:41" ht="15">
@@ -8676,7 +8676,7 @@
       <c r="AJ180" s="1"/>
       <c r="AK180" s="1"/>
       <c r="AO180" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:41" ht="15">
@@ -8721,7 +8721,7 @@
       <c r="AJ181" s="1"/>
       <c r="AK181" s="1"/>
       <c r="AO181" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:41" ht="15">
@@ -8766,7 +8766,7 @@
       <c r="AJ182" s="1"/>
       <c r="AK182" s="1"/>
       <c r="AO182" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:41" ht="15">
@@ -8811,7 +8811,7 @@
       <c r="AJ183" s="1"/>
       <c r="AK183" s="1"/>
       <c r="AO183" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:41" ht="15">
@@ -8856,7 +8856,7 @@
       <c r="AJ184" s="1"/>
       <c r="AK184" s="1"/>
       <c r="AO184" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:41" ht="15">
@@ -8901,7 +8901,7 @@
       <c r="AJ185" s="1"/>
       <c r="AK185" s="1"/>
       <c r="AO185" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186" spans="1:41" ht="15">
@@ -8961,7 +8961,7 @@
       <c r="AJ186" s="1"/>
       <c r="AK186" s="1"/>
       <c r="AO186" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187" spans="1:41" ht="15">
@@ -9021,7 +9021,7 @@
       <c r="AJ187" s="1"/>
       <c r="AK187" s="1"/>
       <c r="AO187" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:41" ht="15">
@@ -9081,7 +9081,7 @@
       <c r="AJ188" s="1"/>
       <c r="AK188" s="1"/>
       <c r="AO188" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="1:41" ht="15">
@@ -9141,7 +9141,7 @@
       <c r="AJ189" s="1"/>
       <c r="AK189" s="1"/>
       <c r="AO189" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190" spans="1:41" ht="15">
@@ -9201,7 +9201,7 @@
       <c r="AJ190" s="1"/>
       <c r="AK190" s="1"/>
       <c r="AO190" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191" spans="1:41" ht="15">
@@ -9255,7 +9255,7 @@
       <c r="AJ191" s="1"/>
       <c r="AK191" s="1"/>
       <c r="AO191" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:41" ht="15">
@@ -9311,7 +9311,7 @@
       <c r="AJ192" s="1"/>
       <c r="AK192" s="1"/>
       <c r="AO192" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:41" ht="15">
@@ -9373,7 +9373,7 @@
       <c r="AJ193" s="1"/>
       <c r="AK193" s="1"/>
       <c r="AO193" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:41" ht="15">
@@ -9418,7 +9418,7 @@
       <c r="AJ194" s="1"/>
       <c r="AK194" s="1"/>
       <c r="AO194" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:41" ht="15">
@@ -9463,7 +9463,7 @@
       <c r="AJ195" s="1"/>
       <c r="AK195" s="1"/>
       <c r="AO195" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:41" ht="15">
@@ -9508,7 +9508,7 @@
       <c r="AJ196" s="1"/>
       <c r="AK196" s="1"/>
       <c r="AO196" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:41" ht="15">
@@ -9553,7 +9553,7 @@
       <c r="AJ197" s="1"/>
       <c r="AK197" s="1"/>
       <c r="AO197" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="198" spans="1:41" ht="15">
@@ -9598,7 +9598,7 @@
       <c r="AJ198" s="1"/>
       <c r="AK198" s="1"/>
       <c r="AO198" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="199" spans="1:41" ht="15">
@@ -9643,7 +9643,7 @@
       <c r="AJ199" s="1"/>
       <c r="AK199" s="1"/>
       <c r="AO199" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200" spans="1:41" ht="15">
@@ -9688,7 +9688,7 @@
       <c r="AJ200" s="1"/>
       <c r="AK200" s="1"/>
       <c r="AO200" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="201" spans="1:41" ht="15">
@@ -9746,7 +9746,7 @@
       <c r="AJ201" s="1"/>
       <c r="AK201" s="1"/>
       <c r="AO201" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="202" spans="1:41" ht="15">
@@ -9804,7 +9804,7 @@
       <c r="AJ202" s="1"/>
       <c r="AK202" s="1"/>
       <c r="AO202" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203" spans="1:41" ht="15">
@@ -9862,7 +9862,7 @@
       <c r="AJ203" s="1"/>
       <c r="AK203" s="1"/>
       <c r="AO203" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:41" ht="15">
@@ -9920,7 +9920,7 @@
       <c r="AJ204" s="1"/>
       <c r="AK204" s="1"/>
       <c r="AO204" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205" spans="1:41" ht="15">
@@ -9978,7 +9978,7 @@
       <c r="AJ205" s="1"/>
       <c r="AK205" s="1"/>
       <c r="AO205" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="206" spans="1:41" ht="15">
@@ -10030,7 +10030,7 @@
       <c r="AJ206" s="1"/>
       <c r="AK206" s="1"/>
       <c r="AO206" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="1:41" ht="15">
@@ -10081,7 +10081,7 @@
       <c r="AJ207" s="1"/>
       <c r="AK207" s="1"/>
       <c r="AO207" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208" spans="1:41" ht="15">
@@ -10134,7 +10134,7 @@
       <c r="AJ208" s="1"/>
       <c r="AK208" s="1"/>
       <c r="AO208" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209" spans="1:41" ht="15">
@@ -10178,7 +10178,7 @@
       <c r="AJ209" s="1"/>
       <c r="AK209" s="1"/>
       <c r="AO209" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210" spans="1:41" ht="15">
@@ -10221,7 +10221,7 @@
       <c r="AJ210" s="1"/>
       <c r="AK210" s="1"/>
       <c r="AO210" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211" spans="1:41" ht="15">
@@ -10264,7 +10264,7 @@
       <c r="AJ211" s="1"/>
       <c r="AK211" s="1"/>
       <c r="AO211" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:41" ht="15">
@@ -10307,7 +10307,7 @@
       <c r="AJ212" s="1"/>
       <c r="AK212" s="1"/>
       <c r="AO212" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:41" ht="15">
@@ -10350,7 +10350,7 @@
       <c r="AJ213" s="1"/>
       <c r="AK213" s="1"/>
       <c r="AO213" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:41" ht="15">
@@ -10393,7 +10393,7 @@
       <c r="AJ214" s="1"/>
       <c r="AK214" s="1"/>
       <c r="AO214" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:41" ht="15">
@@ -10436,7 +10436,7 @@
       <c r="AJ215" s="1"/>
       <c r="AK215" s="1"/>
       <c r="AO215" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:41" ht="15">
@@ -10494,7 +10494,7 @@
       <c r="AJ216" s="1"/>
       <c r="AK216" s="1"/>
       <c r="AO216" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="1:41" ht="15">
@@ -10552,7 +10552,7 @@
       <c r="AJ217" s="1"/>
       <c r="AK217" s="1"/>
       <c r="AO217" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="218" spans="1:41" ht="15">
@@ -10610,7 +10610,7 @@
       <c r="AJ218" s="1"/>
       <c r="AK218" s="1"/>
       <c r="AO218" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:41" ht="15">
@@ -10668,7 +10668,7 @@
       <c r="AJ219" s="1"/>
       <c r="AK219" s="1"/>
       <c r="AO219" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:41" ht="15">
@@ -10726,7 +10726,7 @@
       <c r="AJ220" s="1"/>
       <c r="AK220" s="1"/>
       <c r="AO220" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:41" ht="15">
@@ -10777,7 +10777,7 @@
       <c r="AJ221" s="1"/>
       <c r="AK221" s="1"/>
       <c r="AO221" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="1:41" ht="15">
@@ -10828,7 +10828,7 @@
       <c r="AJ222" s="1"/>
       <c r="AK222" s="1"/>
       <c r="AO222" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223" spans="1:41" ht="15">
@@ -10879,7 +10879,7 @@
       <c r="AJ223" s="1"/>
       <c r="AK223" s="1"/>
       <c r="AO223" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224" spans="1:41" ht="15">
@@ -10922,7 +10922,7 @@
       <c r="AJ224" s="1"/>
       <c r="AK224" s="1"/>
       <c r="AO224" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="225" spans="1:41" ht="15">
@@ -10965,7 +10965,7 @@
       <c r="AJ225" s="1"/>
       <c r="AK225" s="1"/>
       <c r="AO225" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="226" spans="1:41" ht="15">
@@ -11008,7 +11008,7 @@
       <c r="AJ226" s="1"/>
       <c r="AK226" s="1"/>
       <c r="AO226" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="227" spans="1:41" ht="15">
@@ -11051,7 +11051,7 @@
       <c r="AJ227" s="1"/>
       <c r="AK227" s="1"/>
       <c r="AO227" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="228" spans="1:41" ht="15">
@@ -11094,7 +11094,7 @@
       <c r="AJ228" s="1"/>
       <c r="AK228" s="1"/>
       <c r="AO228" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="229" spans="1:41" ht="15">
@@ -11137,7 +11137,7 @@
       <c r="AJ229" s="1"/>
       <c r="AK229" s="1"/>
       <c r="AO229" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="230" spans="1:41" ht="15">
@@ -11180,7 +11180,7 @@
       <c r="AJ230" s="1"/>
       <c r="AK230" s="1"/>
       <c r="AO230" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="1:41" ht="15">
@@ -11240,7 +11240,7 @@
       <c r="AJ231" s="1"/>
       <c r="AK231" s="1"/>
       <c r="AO231" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="232" spans="1:41" ht="15">
@@ -11300,7 +11300,7 @@
       <c r="AJ232" s="1"/>
       <c r="AK232" s="1"/>
       <c r="AO232" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="233" spans="1:41" ht="15">
@@ -11360,7 +11360,7 @@
       <c r="AJ233" s="1"/>
       <c r="AK233" s="1"/>
       <c r="AO233" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="234" spans="1:41" ht="15">
@@ -11420,7 +11420,7 @@
       <c r="AJ234" s="1"/>
       <c r="AK234" s="1"/>
       <c r="AO234" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="235" spans="1:41" ht="15">
@@ -11480,7 +11480,7 @@
       <c r="AJ235" s="1"/>
       <c r="AK235" s="1"/>
       <c r="AO235" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="236" spans="1:41" ht="15">
@@ -11534,7 +11534,7 @@
       <c r="AJ236" s="1"/>
       <c r="AK236" s="1"/>
       <c r="AO236" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="237" spans="1:41" ht="15">
@@ -11590,7 +11590,7 @@
       <c r="AJ237" s="1"/>
       <c r="AK237" s="1"/>
       <c r="AO237" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="238" spans="1:41" ht="15">
@@ -11652,7 +11652,7 @@
       <c r="AJ238" s="1"/>
       <c r="AK238" s="1"/>
       <c r="AO238" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239" spans="1:41" ht="15">
@@ -11699,7 +11699,7 @@
       <c r="AJ239" s="1"/>
       <c r="AK239" s="1"/>
       <c r="AO239" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="240" spans="1:41" ht="15">
@@ -11744,7 +11744,7 @@
       <c r="AJ240" s="1"/>
       <c r="AK240" s="1"/>
       <c r="AO240" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="241" spans="1:41" ht="15">
@@ -11789,7 +11789,7 @@
       <c r="AJ241" s="1"/>
       <c r="AK241" s="1"/>
       <c r="AO241" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="242" spans="1:41" ht="15">
@@ -11834,7 +11834,7 @@
       <c r="AJ242" s="1"/>
       <c r="AK242" s="1"/>
       <c r="AO242" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243" spans="1:41" ht="15">
@@ -11879,7 +11879,7 @@
       <c r="AJ243" s="1"/>
       <c r="AK243" s="1"/>
       <c r="AO243" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244" spans="1:41" ht="15">
@@ -11924,7 +11924,7 @@
       <c r="AJ244" s="1"/>
       <c r="AK244" s="1"/>
       <c r="AO244" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245" spans="1:41" ht="15">
@@ -11969,7 +11969,7 @@
       <c r="AJ245" s="1"/>
       <c r="AK245" s="1"/>
       <c r="AO245" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="246" spans="1:41" ht="15">
@@ -12027,7 +12027,7 @@
       <c r="AJ246" s="1"/>
       <c r="AK246" s="1"/>
       <c r="AO246" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="247" spans="1:41" ht="15">
@@ -12085,7 +12085,7 @@
       <c r="AJ247" s="1"/>
       <c r="AK247" s="1"/>
       <c r="AO247" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="248" spans="1:41" ht="15">
@@ -12143,7 +12143,7 @@
       <c r="AJ248" s="1"/>
       <c r="AK248" s="1"/>
       <c r="AO248" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="249" spans="1:41" ht="15">
@@ -12201,7 +12201,7 @@
       <c r="AJ249" s="1"/>
       <c r="AK249" s="1"/>
       <c r="AO249" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="1:41" ht="15">
@@ -12259,7 +12259,7 @@
       <c r="AJ250" s="1"/>
       <c r="AK250" s="1"/>
       <c r="AO250" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="1:41" ht="15">
@@ -12310,7 +12310,7 @@
       <c r="AJ251" s="1"/>
       <c r="AK251" s="1"/>
       <c r="AO251" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252" spans="1:41" ht="15">
@@ -12361,7 +12361,7 @@
       <c r="AJ252" s="1"/>
       <c r="AK252" s="1"/>
       <c r="AO252" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="253" spans="1:41" ht="15">
@@ -12411,7 +12411,7 @@
       <c r="AJ253" s="1"/>
       <c r="AK253" s="1"/>
       <c r="AO253" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="254" spans="1:41" ht="15">
@@ -12454,7 +12454,7 @@
       <c r="AJ254" s="1"/>
       <c r="AK254" s="1"/>
       <c r="AO254" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255" spans="1:41" ht="15">
@@ -12497,7 +12497,7 @@
       <c r="AJ255" s="1"/>
       <c r="AK255" s="1"/>
       <c r="AO255" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="256" spans="1:41" ht="15">
@@ -12540,7 +12540,7 @@
       <c r="AJ256" s="1"/>
       <c r="AK256" s="1"/>
       <c r="AO256" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="1:41" ht="15">
@@ -12583,7 +12583,7 @@
       <c r="AJ257" s="1"/>
       <c r="AK257" s="1"/>
       <c r="AO257" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258" spans="1:41" ht="15">
@@ -12626,7 +12626,7 @@
       <c r="AJ258" s="1"/>
       <c r="AK258" s="1"/>
       <c r="AO258" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="259" spans="1:41" ht="15">
@@ -12669,7 +12669,7 @@
       <c r="AJ259" s="1"/>
       <c r="AK259" s="1"/>
       <c r="AO259" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="260" spans="1:41" ht="15">
@@ -12712,7 +12712,7 @@
       <c r="AJ260" s="1"/>
       <c r="AK260" s="1"/>
       <c r="AO260" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="261" spans="1:41" ht="15">
@@ -12768,7 +12768,7 @@
       <c r="AJ261" s="1"/>
       <c r="AK261" s="1"/>
       <c r="AO261" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262" spans="1:41" ht="15">
@@ -12824,7 +12824,7 @@
       <c r="AJ262" s="1"/>
       <c r="AK262" s="1"/>
       <c r="AO262" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="263" spans="1:41" ht="15">
@@ -12880,7 +12880,7 @@
       <c r="AJ263" s="1"/>
       <c r="AK263" s="1"/>
       <c r="AO263" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="264" spans="1:41" ht="15">
@@ -12936,7 +12936,7 @@
       <c r="AJ264" s="1"/>
       <c r="AK264" s="1"/>
       <c r="AO264" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="265" spans="1:41" ht="15">
@@ -12992,7 +12992,7 @@
       <c r="AJ265" s="1"/>
       <c r="AK265" s="1"/>
       <c r="AO265" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="266" spans="1:41" ht="15">
@@ -13042,7 +13042,7 @@
       <c r="AJ266" s="1"/>
       <c r="AK266" s="1"/>
       <c r="AO266" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267" spans="1:41" ht="15">
@@ -13092,7 +13092,7 @@
       <c r="AJ267" s="1"/>
       <c r="AK267" s="1"/>
       <c r="AO267" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="268" spans="1:41" ht="15">
@@ -13144,7 +13144,7 @@
       <c r="AJ268" s="1"/>
       <c r="AK268" s="1"/>
       <c r="AO268" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="269" spans="1:41" ht="15">
@@ -13187,7 +13187,7 @@
       <c r="AJ269" s="1"/>
       <c r="AK269" s="1"/>
       <c r="AO269" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="270" spans="1:41" ht="15">
@@ -13230,7 +13230,7 @@
       <c r="AJ270" s="1"/>
       <c r="AK270" s="1"/>
       <c r="AO270" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="271" spans="1:41" ht="15">
@@ -13273,7 +13273,7 @@
       <c r="AJ271" s="1"/>
       <c r="AK271" s="1"/>
       <c r="AO271" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="272" spans="1:41" ht="15">
@@ -13316,7 +13316,7 @@
       <c r="AJ272" s="1"/>
       <c r="AK272" s="1"/>
       <c r="AO272" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="273" spans="1:41" ht="15">
@@ -13359,7 +13359,7 @@
       <c r="AJ273" s="1"/>
       <c r="AK273" s="1"/>
       <c r="AO273" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="274" spans="1:41" ht="15">
@@ -13402,7 +13402,7 @@
       <c r="AJ274" s="1"/>
       <c r="AK274" s="1"/>
       <c r="AO274" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275" spans="1:41" ht="15">
@@ -13445,7 +13445,7 @@
       <c r="AJ275" s="1"/>
       <c r="AK275" s="1"/>
       <c r="AO275" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="276" spans="1:41" ht="15">
@@ -28150,7 +28150,7 @@
     </row>
     <row r="828" spans="1:41">
       <c r="A828" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B828" s="16">
         <v>26860</v>
@@ -28170,7 +28170,7 @@
     </row>
     <row r="829" spans="1:41">
       <c r="A829" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B829" s="5">
         <v>27590.484400000001</v>
@@ -28229,7 +28229,7 @@
     </row>
     <row r="830" spans="1:41">
       <c r="A830" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B830" s="5">
         <v>27955.726600000002</v>
@@ -28288,7 +28288,7 @@
     </row>
     <row r="831" spans="1:41">
       <c r="A831" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B831" s="5">
         <v>28320.968799999999</v>
@@ -28347,7 +28347,7 @@
     </row>
     <row r="832" spans="1:41">
       <c r="A832" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B832" s="5">
         <v>28686.210999999999</v>
@@ -28410,7 +28410,7 @@
     </row>
     <row r="833" spans="1:41">
       <c r="A833" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B833" s="5">
         <v>29047.800778000001</v>
@@ -28473,7 +28473,7 @@
     </row>
     <row r="834" spans="1:41">
       <c r="A834" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B834" s="5">
         <v>29051.4532</v>
@@ -28536,7 +28536,7 @@
     </row>
     <row r="835" spans="1:41">
       <c r="A835" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B835" s="5">
         <v>29416.695400000001</v>
@@ -28599,7 +28599,7 @@
     </row>
     <row r="836" spans="1:41">
       <c r="A836" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B836" s="5">
         <v>29781.937600000001</v>
@@ -28662,7 +28662,7 @@
     </row>
     <row r="837" spans="1:41">
       <c r="A837" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B837" s="5">
         <v>30147.179800000002</v>
@@ -28725,7 +28725,7 @@
     </row>
     <row r="838" spans="1:41">
       <c r="A838" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B838" s="5">
         <v>30508.769577999999</v>
@@ -28788,7 +28788,7 @@
     </row>
     <row r="839" spans="1:41">
       <c r="A839" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B839" s="5">
         <v>30512.421999999999</v>
@@ -28851,7 +28851,7 @@
     </row>
     <row r="840" spans="1:41">
       <c r="A840" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B840" s="5">
         <v>30877.664199999999</v>
@@ -28914,7 +28914,7 @@
     </row>
     <row r="841" spans="1:41">
       <c r="A841" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B841" s="5">
         <v>31242.9064</v>
@@ -29381,7 +29381,7 @@
     </row>
     <row r="854" spans="1:41">
       <c r="A854" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B854" s="5">
         <v>31093</v>
@@ -29393,12 +29393,12 @@
         <v>1260</v>
       </c>
       <c r="AO854" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="855" spans="1:41">
       <c r="A855" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B855" s="5">
         <v>33649.695399999997</v>
@@ -29429,12 +29429,12 @@
         <v>9.8999999999999991E-3</v>
       </c>
       <c r="AO855" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="856" spans="1:41">
       <c r="A856" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B856" s="5">
         <v>34014.937599999997</v>
@@ -29468,12 +29468,12 @@
         <v>9.8999999999999991E-3</v>
       </c>
       <c r="AO856" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="857" spans="1:41">
       <c r="A857" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B857" s="5">
         <v>34380.179799999998</v>
@@ -29507,12 +29507,12 @@
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="AO857" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="858" spans="1:41">
       <c r="A858" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B858" s="5">
         <v>34745.421999999999</v>
@@ -29549,12 +29549,12 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="AO858" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="859" spans="1:41">
       <c r="A859" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B859" s="5">
         <v>35110.664199999999</v>
@@ -29591,12 +29591,12 @@
         <v>9.300000000000001E-3</v>
       </c>
       <c r="AO859" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="860" spans="1:41">
       <c r="A860" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B860" s="5">
         <v>35475.9064</v>
@@ -29633,12 +29633,12 @@
         <v>9.8999999999999991E-3</v>
       </c>
       <c r="AO860" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="861" spans="1:41">
       <c r="A861" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B861" s="5">
         <v>35841.1486</v>
@@ -29672,12 +29672,12 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="AO861" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="862" spans="1:41">
       <c r="A862" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B862" s="5">
         <v>36206.390800000001</v>
@@ -29711,12 +29711,12 @@
         <v>1.03E-2</v>
       </c>
       <c r="AO862" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="863" spans="1:41">
       <c r="A863" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B863" s="5">
         <v>36571.633000000002</v>
@@ -29750,12 +29750,12 @@
         <v>1.03E-2</v>
       </c>
       <c r="AO863" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="864" spans="1:41">
       <c r="A864" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B864" s="5">
         <v>36936.875200000002</v>
@@ -29789,12 +29789,12 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="AO864" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="865" spans="1:41">
       <c r="A865" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B865" s="5">
         <v>31062</v>
@@ -29810,12 +29810,12 @@
         <v>1260</v>
       </c>
       <c r="AO865" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="866" spans="1:41">
       <c r="A866" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B866" s="5">
         <v>33649.695399999997</v>
@@ -29846,12 +29846,12 @@
         <v>9.8999999999999991E-3</v>
       </c>
       <c r="AO866" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="867" spans="1:41">
       <c r="A867" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B867" s="5">
         <v>34014.937599999997</v>
@@ -29885,12 +29885,12 @@
         <v>1.0700000000000001E-2</v>
       </c>
       <c r="AO867" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="868" spans="1:41">
       <c r="A868" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B868" s="5">
         <v>34380.179799999998</v>
@@ -29924,12 +29924,12 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="AO868" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="869" spans="1:41">
       <c r="A869" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B869" s="5">
         <v>34745.421999999999</v>
@@ -29966,12 +29966,12 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="AO869" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="870" spans="1:41">
       <c r="A870" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B870" s="5">
         <v>35110.664199999999</v>
@@ -30008,12 +30008,12 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="AO870" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="871" spans="1:41">
       <c r="A871" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B871" s="5">
         <v>35475.9064</v>
@@ -30050,12 +30050,12 @@
         <v>1.06E-2</v>
       </c>
       <c r="AO871" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="872" spans="1:41">
       <c r="A872" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B872" s="5">
         <v>35841.1486</v>
@@ -30089,12 +30089,12 @@
         <v>1.06E-2</v>
       </c>
       <c r="AO872" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="873" spans="1:41">
       <c r="A873" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B873" s="5">
         <v>36206.390800000001</v>
@@ -30128,12 +30128,12 @@
         <v>1.06E-2</v>
       </c>
       <c r="AO873" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="874" spans="1:41">
       <c r="A874" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B874" s="5">
         <v>36571.633000000002</v>
@@ -30167,12 +30167,12 @@
         <v>1.03E-2</v>
       </c>
       <c r="AO874" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="875" spans="1:41">
       <c r="A875" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B875" s="5">
         <v>36936.875200000002</v>
@@ -30206,12 +30206,12 @@
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="AO875" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="876" spans="1:41">
       <c r="A876" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B876" s="5">
         <v>31062</v>
@@ -30227,12 +30227,12 @@
         <v>1260</v>
       </c>
       <c r="AO876" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="877" spans="1:41">
       <c r="A877" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B877" s="5">
         <v>33649.695399999997</v>
@@ -30263,12 +30263,12 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="AO877" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="878" spans="1:41">
       <c r="A878" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B878" s="5">
         <v>34014.937599999997</v>
@@ -30302,12 +30302,12 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="AO878" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="879" spans="1:41">
       <c r="A879" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B879" s="5">
         <v>34380.179799999998</v>
@@ -30341,12 +30341,12 @@
         <v>1.18E-2</v>
       </c>
       <c r="AO879" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="880" spans="1:41">
       <c r="A880" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B880" s="5">
         <v>34745.421999999999</v>
@@ -30383,12 +30383,12 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="AO880" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="881" spans="1:41">
       <c r="A881" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B881" s="5">
         <v>35110.664199999999</v>
@@ -30425,12 +30425,12 @@
         <v>1.24E-2</v>
       </c>
       <c r="AO881" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="882" spans="1:41">
       <c r="A882" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B882" s="5">
         <v>35475.9064</v>
@@ -30467,12 +30467,12 @@
         <v>1.4499999999999999E-2</v>
       </c>
       <c r="AO882" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="883" spans="1:41">
       <c r="A883" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B883" s="5">
         <v>35841.1486</v>
@@ -30506,12 +30506,12 @@
         <v>1.54E-2</v>
       </c>
       <c r="AO883" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="884" spans="1:41">
       <c r="A884" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B884" s="5">
         <v>36206.390800000001</v>
@@ -30545,12 +30545,12 @@
         <v>1.44E-2</v>
       </c>
       <c r="AO884" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="885" spans="1:41">
       <c r="A885" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B885" s="5">
         <v>36571.633000000002</v>
@@ -30584,12 +30584,12 @@
         <v>1.47E-2</v>
       </c>
       <c r="AO885" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="886" spans="1:41">
       <c r="A886" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B886" s="5">
         <v>36936.875200000002</v>
@@ -30623,12 +30623,12 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="AO886" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="887" spans="1:41">
       <c r="A887" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B887" s="5">
         <v>31093</v>
@@ -30644,12 +30644,12 @@
         <v>1260</v>
       </c>
       <c r="AO887" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="888" spans="1:41">
       <c r="A888" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B888" s="5">
         <v>33649.695399999997</v>
@@ -30680,12 +30680,12 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="AO888" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="889" spans="1:41">
       <c r="A889" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B889" s="5">
         <v>34014.937599999997</v>
@@ -30719,12 +30719,12 @@
         <v>1.29E-2</v>
       </c>
       <c r="AO889" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="890" spans="1:41">
       <c r="A890" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B890" s="5">
         <v>34380.179799999998</v>
@@ -30758,12 +30758,12 @@
         <v>1.11E-2</v>
       </c>
       <c r="AO890" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="891" spans="1:41">
       <c r="A891" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B891" s="5">
         <v>34745.421999999999</v>
@@ -30800,12 +30800,12 @@
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="AO891" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="892" spans="1:41">
       <c r="A892" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B892" s="5">
         <v>35110.664199999999</v>
@@ -30842,12 +30842,12 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="AO892" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="893" spans="1:41">
       <c r="A893" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B893" s="5">
         <v>35475.9064</v>
@@ -30884,12 +30884,12 @@
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="AO893" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="894" spans="1:41">
       <c r="A894" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B894" s="5">
         <v>35841.1486</v>
@@ -30923,12 +30923,12 @@
         <v>1.38E-2</v>
       </c>
       <c r="AO894" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="895" spans="1:41">
       <c r="A895" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B895" s="5">
         <v>36206.390800000001</v>
@@ -30962,12 +30962,12 @@
         <v>1.32E-2</v>
       </c>
       <c r="AO895" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="896" spans="1:41">
       <c r="A896" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B896" s="5">
         <v>36571.633000000002</v>
@@ -31001,12 +31001,12 @@
         <v>1.3600000000000001E-2</v>
       </c>
       <c r="AO896" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="897" spans="1:41" hidden="1">
       <c r="A897" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B897" s="5">
         <v>36936.875200000002</v>
@@ -31040,12 +31040,12 @@
         <v>1.47E-2</v>
       </c>
       <c r="AO897" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="898" spans="1:41" hidden="1">
       <c r="A898" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B898" s="5">
         <v>34014.937604166669</v>
@@ -31085,12 +31085,12 @@
         <v>320</v>
       </c>
       <c r="AO898" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="899" spans="1:41" hidden="1">
       <c r="A899" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B899" s="5">
         <v>34014.937604166669</v>
@@ -31130,12 +31130,12 @@
         <v>270</v>
       </c>
       <c r="AO899" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="900" spans="1:41" hidden="1">
       <c r="A900" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B900" s="5">
         <v>34014.937604166669</v>
@@ -31175,12 +31175,12 @@
         <v>470</v>
       </c>
       <c r="AO900" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="901" spans="1:41" hidden="1">
       <c r="A901" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B901" s="5">
         <v>34014.937604166669</v>
@@ -31220,12 +31220,12 @@
         <v>350</v>
       </c>
       <c r="AO901" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="902" spans="1:41" hidden="1">
       <c r="A902" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B902" s="5">
         <v>35017.937604166669</v>
@@ -31262,12 +31262,12 @@
         <v>610</v>
       </c>
       <c r="AO902" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="903" spans="1:41" hidden="1">
       <c r="A903" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B903" s="5">
         <v>35017.937604166669</v>
@@ -31304,12 +31304,12 @@
         <v>700</v>
       </c>
       <c r="AO903" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="904" spans="1:41" hidden="1">
       <c r="A904" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B904" s="5">
         <v>35017.937604166669</v>
@@ -31346,12 +31346,12 @@
         <v>1239.9999999999998</v>
       </c>
       <c r="AO904" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="905" spans="1:41" hidden="1">
       <c r="A905" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B905" s="5">
         <v>35017.937604166669</v>
@@ -31388,12 +31388,12 @@
         <v>1350</v>
       </c>
       <c r="AO905" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="906" spans="1:41" hidden="1">
       <c r="A906" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B906" s="5">
         <v>36936.875196759262</v>
@@ -31433,12 +31433,12 @@
         <v>1110</v>
       </c>
       <c r="AO906" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="907" spans="1:41" hidden="1">
       <c r="A907" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B907" s="5">
         <v>36936.875196759262</v>
@@ -31478,12 +31478,12 @@
         <v>1250</v>
       </c>
       <c r="AO907" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="908" spans="1:41" hidden="1">
       <c r="A908" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B908" s="5">
         <v>36936.875196759262</v>
@@ -31523,12 +31523,12 @@
         <v>2570</v>
       </c>
       <c r="AO908" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="909" spans="1:41" hidden="1">
       <c r="A909" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B909" s="5">
         <v>36936.875196759262</v>
@@ -31568,12 +31568,12 @@
         <v>2860</v>
       </c>
       <c r="AO909" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="910" spans="1:41" hidden="1">
       <c r="A910" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B910" s="5">
         <v>35581.421999999999</v>
@@ -31594,12 +31594,12 @@
         <v>13.2</v>
       </c>
       <c r="AO910" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="911" spans="1:41" hidden="1">
       <c r="A911" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B911" s="5">
         <v>35581.421999999999</v>
@@ -31620,12 +31620,12 @@
         <v>17.100000000000001</v>
       </c>
       <c r="AO911" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="912" spans="1:41" hidden="1">
       <c r="A912" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B912" s="5">
         <v>35581.421999999999</v>
@@ -31646,12 +31646,12 @@
         <v>20</v>
       </c>
       <c r="AO912" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="913" spans="1:41" hidden="1">
       <c r="A913" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B913" s="5">
         <v>35581.421999999999</v>
@@ -31672,12 +31672,12 @@
         <v>18.899999999999999</v>
       </c>
       <c r="AO913" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="914" spans="1:41" hidden="1">
       <c r="A914" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B914" s="5">
         <v>35534.421999999999</v>
@@ -31698,12 +31698,12 @@
         <v>11.3</v>
       </c>
       <c r="AO914" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="915" spans="1:41" hidden="1">
       <c r="A915" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B915" s="5">
         <v>35534.421999999999</v>
@@ -31724,12 +31724,12 @@
         <v>18.8</v>
       </c>
       <c r="AO915" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="916" spans="1:41" hidden="1">
       <c r="A916" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B916" s="5">
         <v>35534.421999999999</v>
@@ -31750,12 +31750,12 @@
         <v>16.899999999999999</v>
       </c>
       <c r="AO916" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="917" spans="1:41" hidden="1">
       <c r="A917" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B917" s="5">
         <v>35534.421999999999</v>
@@ -31776,12 +31776,12 @@
         <v>16.3</v>
       </c>
       <c r="AO917" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="918" spans="1:41" hidden="1">
       <c r="A918" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B918" s="5">
         <v>35550.421999999999</v>
@@ -31802,12 +31802,12 @@
         <v>10.6</v>
       </c>
       <c r="AO918" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="919" spans="1:41" hidden="1">
       <c r="A919" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B919" s="5">
         <v>35550.421999999999</v>
@@ -31828,12 +31828,12 @@
         <v>14.2</v>
       </c>
       <c r="AO919" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="920" spans="1:41" hidden="1">
       <c r="A920" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B920" s="5">
         <v>35550.421999999999</v>
@@ -31854,12 +31854,12 @@
         <v>14.6</v>
       </c>
       <c r="AO920" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="921" spans="1:41" hidden="1">
       <c r="A921" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B921" s="5">
         <v>35550.421999999999</v>
@@ -31880,12 +31880,12 @@
         <v>13.5</v>
       </c>
       <c r="AO921" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="922" spans="1:41" hidden="1">
       <c r="A922" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B922" s="5">
         <v>37407.633000000002</v>
@@ -31918,12 +31918,12 @@
         <v>18.600000000000001</v>
       </c>
       <c r="AO922" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="923" spans="1:41" hidden="1">
       <c r="A923" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B923" s="5">
         <v>37407.633000000002</v>
@@ -31956,12 +31956,12 @@
         <v>22.7</v>
       </c>
       <c r="AO923" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="924" spans="1:41" hidden="1">
       <c r="A924" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B924" s="5">
         <v>37407.633000000002</v>
@@ -31994,12 +31994,12 @@
         <v>25.4</v>
       </c>
       <c r="AO924" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="925" spans="1:41" hidden="1">
       <c r="A925" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B925" s="5">
         <v>37407.633000000002</v>
@@ -32032,12 +32032,12 @@
         <v>25.1</v>
       </c>
       <c r="AO925" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="926" spans="1:41" hidden="1">
       <c r="A926" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B926" s="5">
         <v>37360.633000000002</v>
@@ -32070,12 +32070,12 @@
         <v>16.8</v>
       </c>
       <c r="AO926" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="927" spans="1:41" hidden="1">
       <c r="A927" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B927" s="5">
         <v>37360.633000000002</v>
@@ -32108,12 +32108,12 @@
         <v>24.9</v>
       </c>
       <c r="AO927" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="928" spans="1:41" hidden="1">
       <c r="A928" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B928" s="5">
         <v>37360.633000000002</v>
@@ -32146,12 +32146,12 @@
         <v>22</v>
       </c>
       <c r="AO928" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="929" spans="1:41" hidden="1">
       <c r="A929" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B929" s="5">
         <v>37360.633000000002</v>
@@ -32184,12 +32184,12 @@
         <v>22.1</v>
       </c>
       <c r="AO929" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="930" spans="1:41" hidden="1">
       <c r="A930" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B930" s="5">
         <v>37376.633000000002</v>
@@ -32222,12 +32222,12 @@
         <v>14.1</v>
       </c>
       <c r="AO930" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="931" spans="1:41" hidden="1">
       <c r="A931" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B931" s="5">
         <v>37376.633000000002</v>
@@ -32260,12 +32260,12 @@
         <v>19.2</v>
       </c>
       <c r="AO931" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="932" spans="1:41" hidden="1">
       <c r="A932" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B932" s="5">
         <v>37376.633000000002</v>
@@ -32298,12 +32298,12 @@
         <v>18.8</v>
       </c>
       <c r="AO932" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="933" spans="1:41" hidden="1">
       <c r="A933" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B933" s="5">
         <v>37376.633000000002</v>
@@ -32336,12 +32336,12 @@
         <v>17.7</v>
       </c>
       <c r="AO933" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="934" spans="1:41" hidden="1">
       <c r="A934" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B934" s="5">
         <v>36022.211000000003</v>
@@ -32358,7 +32358,7 @@
     </row>
     <row r="935" spans="1:41" hidden="1">
       <c r="A935" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B935" s="5">
         <v>36752.695400000004</v>
@@ -32387,7 +32387,7 @@
     </row>
     <row r="936" spans="1:41" hidden="1">
       <c r="A936" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B936" s="5">
         <v>37117.937600000005</v>
@@ -32416,7 +32416,7 @@
     </row>
     <row r="937" spans="1:41" hidden="1">
       <c r="A937" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B937" s="5">
         <v>37483.179800000005</v>
@@ -32445,7 +32445,7 @@
     </row>
     <row r="938" spans="1:41" hidden="1">
       <c r="A938" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B938" s="5">
         <v>37848.422000000006</v>
@@ -32474,7 +32474,7 @@
     </row>
     <row r="939" spans="1:41" hidden="1">
       <c r="A939" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B939" s="5">
         <v>38578.9064</v>
@@ -32503,7 +32503,7 @@
     </row>
     <row r="940" spans="1:41" hidden="1">
       <c r="A940" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B940" s="5">
         <v>38944.1486</v>
@@ -32532,7 +32532,7 @@
     </row>
     <row r="941" spans="1:41" hidden="1">
       <c r="A941" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B941" s="5">
         <v>39309.390800000001</v>
@@ -32561,7 +32561,7 @@
     </row>
     <row r="942" spans="1:41" hidden="1">
       <c r="A942" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B942" s="5">
         <v>39674.633000000002</v>
@@ -32593,7 +32593,7 @@
     <row r="945" spans="1:69" hidden="1"/>
     <row r="946" spans="1:69">
       <c r="A946" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B946" s="5">
         <v>22812</v>
@@ -32610,7 +32610,7 @@
     </row>
     <row r="947" spans="1:69">
       <c r="A947" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B947" s="5">
         <v>29021.117399999999</v>
@@ -32637,7 +32637,7 @@
     </row>
     <row r="948" spans="1:69">
       <c r="A948" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B948" s="5">
         <v>29386.3596</v>
@@ -32664,7 +32664,7 @@
     </row>
     <row r="949" spans="1:69">
       <c r="A949" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B949" s="5">
         <v>29751.6018</v>
@@ -32691,7 +32691,7 @@
     </row>
     <row r="950" spans="1:69">
       <c r="A950" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B950" s="5">
         <v>30116.844000000001</v>
@@ -32718,7 +32718,7 @@
     </row>
     <row r="951" spans="1:69">
       <c r="A951" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B951" s="5">
         <v>30482.086200000002</v>
@@ -32745,7 +32745,7 @@
     </row>
     <row r="952" spans="1:69">
       <c r="A952" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B952" s="5">
         <v>30847.328399999999</v>
@@ -32772,7 +32772,7 @@
     </row>
     <row r="953" spans="1:69">
       <c r="A953" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B953" s="5">
         <v>31212.570599999999</v>
@@ -32799,7 +32799,7 @@
     </row>
     <row r="954" spans="1:69">
       <c r="A954" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B954" s="5">
         <v>31577.8128</v>
@@ -32826,7 +32826,7 @@
     </row>
     <row r="955" spans="1:69">
       <c r="A955" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B955" s="5">
         <v>31943.055</v>
@@ -32919,7 +32919,7 @@
     </row>
     <row r="956" spans="1:69">
       <c r="A956" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B956" s="5">
         <v>32308.297200000001</v>
@@ -32943,7 +32943,7 @@
     </row>
     <row r="957" spans="1:69">
       <c r="A957" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B957" s="5">
         <v>32673.539400000001</v>
@@ -32970,7 +32970,7 @@
     </row>
     <row r="958" spans="1:69">
       <c r="A958" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B958" s="5">
         <v>33038.781600000002</v>
@@ -32997,7 +32997,7 @@
     </row>
     <row r="959" spans="1:69">
       <c r="A959" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B959" s="5">
         <v>33404.023800000003</v>
@@ -33072,7 +33072,7 @@
     </row>
     <row r="960" spans="1:69">
       <c r="A960" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B960" s="5">
         <v>33769.266000000003</v>
@@ -33099,7 +33099,7 @@
     </row>
     <row r="961" spans="1:69">
       <c r="A961" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B961" s="5">
         <v>34134.508199999997</v>
@@ -33126,7 +33126,7 @@
     </row>
     <row r="962" spans="1:69">
       <c r="A962" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B962" s="5">
         <v>34499.750400000004</v>
@@ -33153,7 +33153,7 @@
     </row>
     <row r="963" spans="1:69">
       <c r="A963" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B963" s="5">
         <v>34864.992599999998</v>
@@ -33180,7 +33180,7 @@
     </row>
     <row r="964" spans="1:69">
       <c r="A964" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B964" s="5">
         <v>35230.234799999998</v>
@@ -33255,7 +33255,7 @@
     </row>
     <row r="965" spans="1:69">
       <c r="A965" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B965" s="5">
         <v>29021.117399999999</v>
@@ -33282,7 +33282,7 @@
     </row>
     <row r="966" spans="1:69">
       <c r="A966" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B966" s="5">
         <v>29386.3596</v>
@@ -33309,7 +33309,7 @@
     </row>
     <row r="967" spans="1:69">
       <c r="A967" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B967" s="5">
         <v>29751.6018</v>
@@ -33336,7 +33336,7 @@
     </row>
     <row r="968" spans="1:69">
       <c r="A968" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B968" s="5">
         <v>30116.844000000001</v>
@@ -33363,7 +33363,7 @@
     </row>
     <row r="969" spans="1:69">
       <c r="A969" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B969" s="5">
         <v>30482.086200000002</v>
@@ -33390,7 +33390,7 @@
     </row>
     <row r="970" spans="1:69">
       <c r="A970" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B970" s="5">
         <v>30847.328399999999</v>
@@ -33417,7 +33417,7 @@
     </row>
     <row r="971" spans="1:69">
       <c r="A971" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B971" s="5">
         <v>31212.570599999999</v>
@@ -33444,7 +33444,7 @@
     </row>
     <row r="972" spans="1:69">
       <c r="A972" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B972" s="5">
         <v>31577.8128</v>
@@ -33471,7 +33471,7 @@
     </row>
     <row r="973" spans="1:69">
       <c r="A973" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B973" s="5">
         <v>31943.055</v>
@@ -33564,7 +33564,7 @@
     </row>
     <row r="974" spans="1:69">
       <c r="A974" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B974" s="5">
         <v>32308.297200000001</v>
@@ -33588,7 +33588,7 @@
     </row>
     <row r="975" spans="1:69">
       <c r="A975" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B975" s="5">
         <v>32673.539400000001</v>
@@ -33615,7 +33615,7 @@
     </row>
     <row r="976" spans="1:69">
       <c r="A976" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B976" s="5">
         <v>33038.781600000002</v>
@@ -33642,7 +33642,7 @@
     </row>
     <row r="977" spans="1:69">
       <c r="A977" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B977" s="5">
         <v>33404.023800000003</v>
@@ -33717,7 +33717,7 @@
     </row>
     <row r="978" spans="1:69">
       <c r="A978" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B978" s="5">
         <v>33769.266000000003</v>
@@ -33744,7 +33744,7 @@
     </row>
     <row r="979" spans="1:69">
       <c r="A979" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B979" s="5">
         <v>34134.508199999997</v>
@@ -33771,7 +33771,7 @@
     </row>
     <row r="980" spans="1:69">
       <c r="A980" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B980" s="5">
         <v>34499.750400000004</v>
@@ -33798,7 +33798,7 @@
     </row>
     <row r="981" spans="1:69">
       <c r="A981" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B981" s="5">
         <v>34864.992599999998</v>
@@ -33825,7 +33825,7 @@
     </row>
     <row r="982" spans="1:69">
       <c r="A982" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B982" s="5">
         <v>35230.234799999998</v>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE880C-84D1-4818-83AC-06F4173CAB3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD0AC49-4C79-4FE8-A03F-E9F1712571CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -924,10 +924,10 @@
   <dimension ref="A1:BQ982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL1" sqref="AL1"/>
+      <selection pane="bottomRight" activeCell="B151" sqref="B151:C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -5597,7 +5597,12 @@
       <c r="E121" s="20">
         <v>625</v>
       </c>
-      <c r="I121" s="6"/>
+      <c r="I121" s="6">
+        <v>30482.42</v>
+      </c>
+      <c r="J121" s="3">
+        <v>10</v>
+      </c>
       <c r="L121" s="6"/>
       <c r="R121" s="38"/>
       <c r="S121" s="6"/>
@@ -5635,7 +5640,7 @@
         <v>4</v>
       </c>
       <c r="B122" s="5">
-        <v>32600.8236</v>
+        <v>32382.68144</v>
       </c>
       <c r="C122" s="8">
         <v>15.2</v>
@@ -5647,7 +5652,12 @@
       <c r="E122" s="20">
         <v>625</v>
       </c>
-      <c r="I122" s="6"/>
+      <c r="I122" s="6">
+        <v>32382.68144</v>
+      </c>
+      <c r="J122" s="3">
+        <v>15.2</v>
+      </c>
       <c r="L122" s="6"/>
       <c r="R122" s="38"/>
       <c r="S122" s="6"/>
@@ -5685,7 +5695,7 @@
         <v>4</v>
       </c>
       <c r="B123" s="5">
-        <v>37056.775999999998</v>
+        <v>32601.82676</v>
       </c>
       <c r="C123" s="8">
         <v>15.8</v>
@@ -5697,7 +5707,12 @@
       <c r="E123" s="20">
         <v>275</v>
       </c>
-      <c r="I123" s="6"/>
+      <c r="I123" s="6">
+        <v>32601.82676</v>
+      </c>
+      <c r="J123" s="3">
+        <v>15.8</v>
+      </c>
       <c r="L123" s="6"/>
       <c r="R123" s="38"/>
       <c r="S123" s="6"/>
@@ -5735,7 +5750,7 @@
         <v>4</v>
       </c>
       <c r="B124" s="5">
-        <v>32381.678400000001</v>
+        <v>34135.843999999997</v>
       </c>
       <c r="C124" s="8">
         <v>20</v>
@@ -5747,7 +5762,12 @@
       <c r="E124" s="20">
         <v>275</v>
       </c>
-      <c r="I124" s="6"/>
+      <c r="I124" s="6">
+        <v>34135.843999999997</v>
+      </c>
+      <c r="J124" s="3">
+        <v>20</v>
+      </c>
       <c r="L124" s="6"/>
       <c r="R124" s="38"/>
       <c r="S124" s="6"/>
@@ -5785,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="B125" s="5">
-        <v>34134.839999999997</v>
+        <v>37057.781600000002</v>
       </c>
       <c r="C125" s="8">
         <v>28</v>
@@ -5797,7 +5817,12 @@
       <c r="E125" s="20">
         <v>275</v>
       </c>
-      <c r="I125" s="6"/>
+      <c r="I125" s="6">
+        <v>37057.781600000002</v>
+      </c>
+      <c r="J125" s="3">
+        <v>28</v>
+      </c>
       <c r="L125" s="6"/>
       <c r="R125" s="38"/>
       <c r="S125" s="6"/>
@@ -5835,7 +5860,7 @@
         <v>5</v>
       </c>
       <c r="B126" s="5">
-        <v>32381.678400000001</v>
+        <v>30482.42</v>
       </c>
       <c r="C126" s="8">
         <v>10</v>
@@ -5885,7 +5910,7 @@
         <v>5</v>
       </c>
       <c r="B127" s="5">
-        <v>34134.839999999997</v>
+        <v>32382.68144</v>
       </c>
       <c r="C127" s="8">
         <v>15.2</v>
@@ -5935,7 +5960,7 @@
         <v>5</v>
       </c>
       <c r="B128" s="5">
-        <v>30482.42</v>
+        <v>32601.82676</v>
       </c>
       <c r="C128" s="8">
         <v>15.8</v>
@@ -5985,7 +6010,7 @@
         <v>5</v>
       </c>
       <c r="B129" s="5">
-        <v>32600.8236</v>
+        <v>34135.843999999997</v>
       </c>
       <c r="C129" s="8">
         <v>20</v>
@@ -6035,7 +6060,7 @@
         <v>5</v>
       </c>
       <c r="B130" s="5">
-        <v>37056.775999999998</v>
+        <v>37057.781600000002</v>
       </c>
       <c r="C130" s="8">
         <v>28</v>
@@ -6085,7 +6110,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="5">
-        <v>32600.8236</v>
+        <v>30482.42</v>
       </c>
       <c r="C131" s="8">
         <v>10</v>
@@ -6135,7 +6160,7 @@
         <v>6</v>
       </c>
       <c r="B132" s="5">
-        <v>37056.775999999998</v>
+        <v>32382.68144</v>
       </c>
       <c r="C132" s="8">
         <v>15.2</v>
@@ -6185,7 +6210,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="5">
-        <v>32381.678400000001</v>
+        <v>32601.82676</v>
       </c>
       <c r="C133" s="8">
         <v>15.8</v>
@@ -6235,7 +6260,7 @@
         <v>6</v>
       </c>
       <c r="B134" s="5">
-        <v>34134.839999999997</v>
+        <v>34135.843999999997</v>
       </c>
       <c r="C134" s="8">
         <v>20</v>
@@ -6285,7 +6310,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="5">
-        <v>30482.42</v>
+        <v>37057.781600000002</v>
       </c>
       <c r="C135" s="8">
         <v>28</v>
@@ -6335,7 +6360,7 @@
         <v>9</v>
       </c>
       <c r="B136" s="5">
-        <v>34134.839999999997</v>
+        <v>30482.42</v>
       </c>
       <c r="C136" s="8">
         <v>10</v>
@@ -6385,7 +6410,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="5">
-        <v>30482.42</v>
+        <v>32382.68144</v>
       </c>
       <c r="C137" s="8">
         <v>15.2</v>
@@ -6435,7 +6460,7 @@
         <v>9</v>
       </c>
       <c r="B138" s="5">
-        <v>32600.8236</v>
+        <v>32601.82676</v>
       </c>
       <c r="C138" s="8">
         <v>15.8</v>
@@ -6485,7 +6510,7 @@
         <v>9</v>
       </c>
       <c r="B139" s="5">
-        <v>37056.775999999998</v>
+        <v>34135.843999999997</v>
       </c>
       <c r="C139" s="8">
         <v>20</v>
@@ -6535,7 +6560,7 @@
         <v>9</v>
       </c>
       <c r="B140" s="5">
-        <v>32381.678400000001</v>
+        <v>37057.781600000002</v>
       </c>
       <c r="C140" s="8">
         <v>28</v>
@@ -6585,7 +6610,7 @@
         <v>11</v>
       </c>
       <c r="B141" s="5">
-        <v>37056.775999999998</v>
+        <v>30482.42</v>
       </c>
       <c r="C141" s="24">
         <v>10</v>
@@ -6635,7 +6660,7 @@
         <v>11</v>
       </c>
       <c r="B142" s="5">
-        <v>32381.678400000001</v>
+        <v>32382.68144</v>
       </c>
       <c r="C142" s="24">
         <v>15.2</v>
@@ -6685,7 +6710,7 @@
         <v>11</v>
       </c>
       <c r="B143" s="5">
-        <v>34134.839999999997</v>
+        <v>32601.82676</v>
       </c>
       <c r="C143" s="25">
         <v>15.8</v>
@@ -6736,7 +6761,7 @@
         <v>11</v>
       </c>
       <c r="B144" s="5">
-        <v>30482.42</v>
+        <v>34135.843999999997</v>
       </c>
       <c r="C144" s="25">
         <v>20</v>
@@ -6787,7 +6812,7 @@
         <v>11</v>
       </c>
       <c r="B145" s="5">
-        <v>32600.8236</v>
+        <v>37057.781600000002</v>
       </c>
       <c r="C145" s="25">
         <v>28</v>
@@ -6889,7 +6914,7 @@
         <v>10</v>
       </c>
       <c r="B147" s="5">
-        <v>32600.8236</v>
+        <v>32382.68144</v>
       </c>
       <c r="C147" s="25">
         <v>15.2</v>
@@ -6940,7 +6965,7 @@
         <v>10</v>
       </c>
       <c r="B148" s="5">
-        <v>37056.775999999998</v>
+        <v>32601.82676</v>
       </c>
       <c r="C148" s="25">
         <v>15.8</v>
@@ -6991,7 +7016,7 @@
         <v>10</v>
       </c>
       <c r="B149" s="18">
-        <v>32381.678400000001</v>
+        <v>34135.843999999997</v>
       </c>
       <c r="C149" s="25">
         <v>20</v>
@@ -7042,7 +7067,7 @@
         <v>10</v>
       </c>
       <c r="B150" s="18">
-        <v>34134.839999999997</v>
+        <v>37057.781600000002</v>
       </c>
       <c r="C150" s="25">
         <v>28</v>
@@ -7093,7 +7118,7 @@
         <v>12</v>
       </c>
       <c r="B151" s="18">
-        <v>32381.678400000001</v>
+        <v>30482.42</v>
       </c>
       <c r="C151" s="25">
         <v>10</v>
@@ -7144,7 +7169,7 @@
         <v>12</v>
       </c>
       <c r="B152" s="18">
-        <v>34134.839999999997</v>
+        <v>32382.68144</v>
       </c>
       <c r="C152" s="25">
         <v>15.2</v>
@@ -7195,7 +7220,7 @@
         <v>12</v>
       </c>
       <c r="B153" s="18">
-        <v>30482.42</v>
+        <v>32601.82676</v>
       </c>
       <c r="C153" s="25">
         <v>15.8</v>
@@ -7246,7 +7271,7 @@
         <v>12</v>
       </c>
       <c r="B154" s="18">
-        <v>32600.8236</v>
+        <v>34135.843999999997</v>
       </c>
       <c r="C154" s="25">
         <v>20</v>
@@ -7297,7 +7322,7 @@
         <v>12</v>
       </c>
       <c r="B155" s="18">
-        <v>37056.775999999998</v>
+        <v>37057.781600000002</v>
       </c>
       <c r="C155" s="25">
         <v>28</v>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3728368-8A73-4FF6-84CD-44D97AB2CFE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67908916-C8B9-4A41-B15F-B621AC2B2309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Age(y)</t>
-  </si>
-  <si>
-    <t>NContentTotal (kg/ha)</t>
   </si>
   <si>
     <t>LiveFoliarN (kg/ha)</t>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>Pinus.AboveGround.Wt</t>
+  </si>
+  <si>
+    <t>Pinus.Aboveground.N</t>
   </si>
 </sst>
 </file>
@@ -921,10 +921,10 @@
   <dimension ref="A1:BP982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D817" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="U829" sqref="U829:U853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -968,46 +968,46 @@
         <v>25</v>
       </c>
       <c r="E1" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>81</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>82</v>
       </c>
       <c r="S1" s="30" t="s">
         <v>3</v>
@@ -1016,16 +1016,16 @@
         <v>7</v>
       </c>
       <c r="U1" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V1" s="30" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X1" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="30" t="s">
         <v>2</v>
@@ -1034,96 +1034,96 @@
         <v>8</v>
       </c>
       <c r="AA1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AC1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AD1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AE1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ1" s="30" t="s">
-        <v>89</v>
-      </c>
       <c r="AK1" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" s="30" t="s">
         <v>28</v>
-      </c>
-      <c r="AM1" s="30" t="s">
-        <v>29</v>
       </c>
       <c r="AN1" s="30" t="s">
         <v>13</v>
       </c>
       <c r="AO1" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP1" s="29"/>
       <c r="AQ1" s="29"/>
       <c r="BB1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:68">
@@ -7302,7 +7302,7 @@
       <c r="AI156" s="1"/>
       <c r="AJ156" s="1"/>
       <c r="AN156" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:40" ht="15">
@@ -7362,7 +7362,7 @@
       <c r="AI157" s="1"/>
       <c r="AJ157" s="1"/>
       <c r="AN157" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:40" ht="15">
@@ -7422,7 +7422,7 @@
       <c r="AI158" s="1"/>
       <c r="AJ158" s="1"/>
       <c r="AN158" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:40" ht="15">
@@ -7482,7 +7482,7 @@
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
       <c r="AN159" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:40" ht="15">
@@ -7542,7 +7542,7 @@
       <c r="AI160" s="1"/>
       <c r="AJ160" s="1"/>
       <c r="AN160" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:40" ht="15">
@@ -7595,7 +7595,7 @@
       <c r="AI161" s="1"/>
       <c r="AJ161" s="1"/>
       <c r="AN161" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:40" ht="15">
@@ -7650,7 +7650,7 @@
       <c r="AI162" s="1"/>
       <c r="AJ162" s="1"/>
       <c r="AN162" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:40" ht="15">
@@ -7712,7 +7712,7 @@
       <c r="AI163" s="1"/>
       <c r="AJ163" s="1"/>
       <c r="AN163" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:40" ht="15">
@@ -7757,7 +7757,7 @@
       <c r="AI164" s="1"/>
       <c r="AJ164" s="1"/>
       <c r="AN164" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="1:40" ht="15">
@@ -7802,7 +7802,7 @@
       <c r="AI165" s="1"/>
       <c r="AJ165" s="1"/>
       <c r="AN165" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:40" ht="15">
@@ -7847,7 +7847,7 @@
       <c r="AI166" s="1"/>
       <c r="AJ166" s="1"/>
       <c r="AN166" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:40" ht="15">
@@ -7892,7 +7892,7 @@
       <c r="AI167" s="1"/>
       <c r="AJ167" s="1"/>
       <c r="AN167" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:40" ht="15">
@@ -7937,7 +7937,7 @@
       <c r="AI168" s="1"/>
       <c r="AJ168" s="1"/>
       <c r="AN168" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:40" ht="15">
@@ -7982,7 +7982,7 @@
       <c r="AI169" s="1"/>
       <c r="AJ169" s="1"/>
       <c r="AN169" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:40" ht="15">
@@ -8027,7 +8027,7 @@
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
       <c r="AN170" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:40" ht="15">
@@ -8087,7 +8087,7 @@
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
       <c r="AN171" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:40" ht="15">
@@ -8147,7 +8147,7 @@
       <c r="AI172" s="1"/>
       <c r="AJ172" s="1"/>
       <c r="AN172" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:40" ht="15">
@@ -8207,7 +8207,7 @@
       <c r="AI173" s="1"/>
       <c r="AJ173" s="1"/>
       <c r="AN173" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174" spans="1:40" ht="15">
@@ -8267,7 +8267,7 @@
       <c r="AI174" s="1"/>
       <c r="AJ174" s="1"/>
       <c r="AN174" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:40" ht="15">
@@ -8327,7 +8327,7 @@
       <c r="AI175" s="1"/>
       <c r="AJ175" s="1"/>
       <c r="AN175" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:40" ht="15">
@@ -8380,7 +8380,7 @@
       <c r="AI176" s="1"/>
       <c r="AJ176" s="1"/>
       <c r="AN176" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:40" ht="15">
@@ -8433,7 +8433,7 @@
       <c r="AI177" s="1"/>
       <c r="AJ177" s="1"/>
       <c r="AN177" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:40" ht="15">
@@ -8488,7 +8488,7 @@
       <c r="AI178" s="1"/>
       <c r="AJ178" s="1"/>
       <c r="AN178" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:40" ht="15">
@@ -8533,7 +8533,7 @@
       <c r="AI179" s="1"/>
       <c r="AJ179" s="1"/>
       <c r="AN179" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180" spans="1:40" ht="15">
@@ -8578,7 +8578,7 @@
       <c r="AI180" s="1"/>
       <c r="AJ180" s="1"/>
       <c r="AN180" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181" spans="1:40" ht="15">
@@ -8623,7 +8623,7 @@
       <c r="AI181" s="1"/>
       <c r="AJ181" s="1"/>
       <c r="AN181" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="182" spans="1:40" ht="15">
@@ -8668,7 +8668,7 @@
       <c r="AI182" s="1"/>
       <c r="AJ182" s="1"/>
       <c r="AN182" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="1:40" ht="15">
@@ -8713,7 +8713,7 @@
       <c r="AI183" s="1"/>
       <c r="AJ183" s="1"/>
       <c r="AN183" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184" spans="1:40" ht="15">
@@ -8758,7 +8758,7 @@
       <c r="AI184" s="1"/>
       <c r="AJ184" s="1"/>
       <c r="AN184" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:40" ht="15">
@@ -8803,7 +8803,7 @@
       <c r="AI185" s="1"/>
       <c r="AJ185" s="1"/>
       <c r="AN185" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="1:40" ht="15">
@@ -8863,7 +8863,7 @@
       <c r="AI186" s="1"/>
       <c r="AJ186" s="1"/>
       <c r="AN186" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:40" ht="15">
@@ -8923,7 +8923,7 @@
       <c r="AI187" s="1"/>
       <c r="AJ187" s="1"/>
       <c r="AN187" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:40" ht="15">
@@ -8983,7 +8983,7 @@
       <c r="AI188" s="1"/>
       <c r="AJ188" s="1"/>
       <c r="AN188" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:40" ht="15">
@@ -9043,7 +9043,7 @@
       <c r="AI189" s="1"/>
       <c r="AJ189" s="1"/>
       <c r="AN189" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:40" ht="15">
@@ -9103,7 +9103,7 @@
       <c r="AI190" s="1"/>
       <c r="AJ190" s="1"/>
       <c r="AN190" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:40" ht="15">
@@ -9157,7 +9157,7 @@
       <c r="AI191" s="1"/>
       <c r="AJ191" s="1"/>
       <c r="AN191" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:40" ht="15">
@@ -9213,7 +9213,7 @@
       <c r="AI192" s="1"/>
       <c r="AJ192" s="1"/>
       <c r="AN192" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="1:40" ht="15">
@@ -9275,7 +9275,7 @@
       <c r="AI193" s="1"/>
       <c r="AJ193" s="1"/>
       <c r="AN193" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:40" ht="15">
@@ -9320,7 +9320,7 @@
       <c r="AI194" s="1"/>
       <c r="AJ194" s="1"/>
       <c r="AN194" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:40" ht="15">
@@ -9365,7 +9365,7 @@
       <c r="AI195" s="1"/>
       <c r="AJ195" s="1"/>
       <c r="AN195" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196" spans="1:40" ht="15">
@@ -9410,7 +9410,7 @@
       <c r="AI196" s="1"/>
       <c r="AJ196" s="1"/>
       <c r="AN196" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:40" ht="15">
@@ -9455,7 +9455,7 @@
       <c r="AI197" s="1"/>
       <c r="AJ197" s="1"/>
       <c r="AN197" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:40" ht="15">
@@ -9500,7 +9500,7 @@
       <c r="AI198" s="1"/>
       <c r="AJ198" s="1"/>
       <c r="AN198" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:40" ht="15">
@@ -9545,7 +9545,7 @@
       <c r="AI199" s="1"/>
       <c r="AJ199" s="1"/>
       <c r="AN199" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200" spans="1:40" ht="15">
@@ -9590,7 +9590,7 @@
       <c r="AI200" s="1"/>
       <c r="AJ200" s="1"/>
       <c r="AN200" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201" spans="1:40" ht="15">
@@ -9648,7 +9648,7 @@
       <c r="AI201" s="1"/>
       <c r="AJ201" s="1"/>
       <c r="AN201" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202" spans="1:40" ht="15">
@@ -9706,7 +9706,7 @@
       <c r="AI202" s="1"/>
       <c r="AJ202" s="1"/>
       <c r="AN202" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:40" ht="15">
@@ -9764,7 +9764,7 @@
       <c r="AI203" s="1"/>
       <c r="AJ203" s="1"/>
       <c r="AN203" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204" spans="1:40" ht="15">
@@ -9822,7 +9822,7 @@
       <c r="AI204" s="1"/>
       <c r="AJ204" s="1"/>
       <c r="AN204" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205" spans="1:40" ht="15">
@@ -9880,7 +9880,7 @@
       <c r="AI205" s="1"/>
       <c r="AJ205" s="1"/>
       <c r="AN205" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206" spans="1:40" ht="15">
@@ -9932,7 +9932,7 @@
       <c r="AI206" s="1"/>
       <c r="AJ206" s="1"/>
       <c r="AN206" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207" spans="1:40" ht="15">
@@ -9983,7 +9983,7 @@
       <c r="AI207" s="1"/>
       <c r="AJ207" s="1"/>
       <c r="AN207" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:40" ht="15">
@@ -10036,7 +10036,7 @@
       <c r="AI208" s="1"/>
       <c r="AJ208" s="1"/>
       <c r="AN208" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:40" ht="15">
@@ -10080,7 +10080,7 @@
       <c r="AI209" s="1"/>
       <c r="AJ209" s="1"/>
       <c r="AN209" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210" spans="1:40" ht="15">
@@ -10123,7 +10123,7 @@
       <c r="AI210" s="1"/>
       <c r="AJ210" s="1"/>
       <c r="AN210" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:40" ht="15">
@@ -10166,7 +10166,7 @@
       <c r="AI211" s="1"/>
       <c r="AJ211" s="1"/>
       <c r="AN211" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:40" ht="15">
@@ -10209,7 +10209,7 @@
       <c r="AI212" s="1"/>
       <c r="AJ212" s="1"/>
       <c r="AN212" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:40" ht="15">
@@ -10252,7 +10252,7 @@
       <c r="AI213" s="1"/>
       <c r="AJ213" s="1"/>
       <c r="AN213" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="1:40" ht="15">
@@ -10295,7 +10295,7 @@
       <c r="AI214" s="1"/>
       <c r="AJ214" s="1"/>
       <c r="AN214" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:40" ht="15">
@@ -10338,7 +10338,7 @@
       <c r="AI215" s="1"/>
       <c r="AJ215" s="1"/>
       <c r="AN215" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:40" ht="15">
@@ -10396,7 +10396,7 @@
       <c r="AI216" s="1"/>
       <c r="AJ216" s="1"/>
       <c r="AN216" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:40" ht="15">
@@ -10454,7 +10454,7 @@
       <c r="AI217" s="1"/>
       <c r="AJ217" s="1"/>
       <c r="AN217" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:40" ht="15">
@@ -10512,7 +10512,7 @@
       <c r="AI218" s="1"/>
       <c r="AJ218" s="1"/>
       <c r="AN218" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219" spans="1:40" ht="15">
@@ -10570,7 +10570,7 @@
       <c r="AI219" s="1"/>
       <c r="AJ219" s="1"/>
       <c r="AN219" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220" spans="1:40" ht="15">
@@ -10628,7 +10628,7 @@
       <c r="AI220" s="1"/>
       <c r="AJ220" s="1"/>
       <c r="AN220" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221" spans="1:40" ht="15">
@@ -10679,7 +10679,7 @@
       <c r="AI221" s="1"/>
       <c r="AJ221" s="1"/>
       <c r="AN221" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222" spans="1:40" ht="15">
@@ -10730,7 +10730,7 @@
       <c r="AI222" s="1"/>
       <c r="AJ222" s="1"/>
       <c r="AN222" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223" spans="1:40" ht="15">
@@ -10781,7 +10781,7 @@
       <c r="AI223" s="1"/>
       <c r="AJ223" s="1"/>
       <c r="AN223" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224" spans="1:40" ht="15">
@@ -10824,7 +10824,7 @@
       <c r="AI224" s="1"/>
       <c r="AJ224" s="1"/>
       <c r="AN224" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:40" ht="15">
@@ -10867,7 +10867,7 @@
       <c r="AI225" s="1"/>
       <c r="AJ225" s="1"/>
       <c r="AN225" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:40" ht="15">
@@ -10910,7 +10910,7 @@
       <c r="AI226" s="1"/>
       <c r="AJ226" s="1"/>
       <c r="AN226" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:40" ht="15">
@@ -10953,7 +10953,7 @@
       <c r="AI227" s="1"/>
       <c r="AJ227" s="1"/>
       <c r="AN227" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:40" ht="15">
@@ -10996,7 +10996,7 @@
       <c r="AI228" s="1"/>
       <c r="AJ228" s="1"/>
       <c r="AN228" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229" spans="1:40" ht="15">
@@ -11039,7 +11039,7 @@
       <c r="AI229" s="1"/>
       <c r="AJ229" s="1"/>
       <c r="AN229" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:40" ht="15">
@@ -11082,7 +11082,7 @@
       <c r="AI230" s="1"/>
       <c r="AJ230" s="1"/>
       <c r="AN230" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231" spans="1:40" ht="15">
@@ -11142,7 +11142,7 @@
       <c r="AI231" s="1"/>
       <c r="AJ231" s="1"/>
       <c r="AN231" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232" spans="1:40" ht="15">
@@ -11202,7 +11202,7 @@
       <c r="AI232" s="1"/>
       <c r="AJ232" s="1"/>
       <c r="AN232" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233" spans="1:40" ht="15">
@@ -11262,7 +11262,7 @@
       <c r="AI233" s="1"/>
       <c r="AJ233" s="1"/>
       <c r="AN233" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234" spans="1:40" ht="15">
@@ -11322,7 +11322,7 @@
       <c r="AI234" s="1"/>
       <c r="AJ234" s="1"/>
       <c r="AN234" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:40" ht="15">
@@ -11382,7 +11382,7 @@
       <c r="AI235" s="1"/>
       <c r="AJ235" s="1"/>
       <c r="AN235" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236" spans="1:40" ht="15">
@@ -11436,7 +11436,7 @@
       <c r="AI236" s="1"/>
       <c r="AJ236" s="1"/>
       <c r="AN236" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237" spans="1:40" ht="15">
@@ -11492,7 +11492,7 @@
       <c r="AI237" s="1"/>
       <c r="AJ237" s="1"/>
       <c r="AN237" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238" spans="1:40" ht="15">
@@ -11554,7 +11554,7 @@
       <c r="AI238" s="1"/>
       <c r="AJ238" s="1"/>
       <c r="AN238" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239" spans="1:40" ht="15">
@@ -11601,7 +11601,7 @@
       <c r="AI239" s="1"/>
       <c r="AJ239" s="1"/>
       <c r="AN239" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240" spans="1:40" ht="15">
@@ -11646,7 +11646,7 @@
       <c r="AI240" s="1"/>
       <c r="AJ240" s="1"/>
       <c r="AN240" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:40" ht="15">
@@ -11691,7 +11691,7 @@
       <c r="AI241" s="1"/>
       <c r="AJ241" s="1"/>
       <c r="AN241" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:40" ht="15">
@@ -11736,7 +11736,7 @@
       <c r="AI242" s="1"/>
       <c r="AJ242" s="1"/>
       <c r="AN242" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="243" spans="1:40" ht="15">
@@ -11781,7 +11781,7 @@
       <c r="AI243" s="1"/>
       <c r="AJ243" s="1"/>
       <c r="AN243" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244" spans="1:40" ht="15">
@@ -11826,7 +11826,7 @@
       <c r="AI244" s="1"/>
       <c r="AJ244" s="1"/>
       <c r="AN244" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245" spans="1:40" ht="15">
@@ -11871,7 +11871,7 @@
       <c r="AI245" s="1"/>
       <c r="AJ245" s="1"/>
       <c r="AN245" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246" spans="1:40" ht="15">
@@ -11929,7 +11929,7 @@
       <c r="AI246" s="1"/>
       <c r="AJ246" s="1"/>
       <c r="AN246" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247" spans="1:40" ht="15">
@@ -11987,7 +11987,7 @@
       <c r="AI247" s="1"/>
       <c r="AJ247" s="1"/>
       <c r="AN247" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248" spans="1:40" ht="15">
@@ -12045,7 +12045,7 @@
       <c r="AI248" s="1"/>
       <c r="AJ248" s="1"/>
       <c r="AN248" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:40" ht="15">
@@ -12103,7 +12103,7 @@
       <c r="AI249" s="1"/>
       <c r="AJ249" s="1"/>
       <c r="AN249" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250" spans="1:40" ht="15">
@@ -12161,7 +12161,7 @@
       <c r="AI250" s="1"/>
       <c r="AJ250" s="1"/>
       <c r="AN250" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251" spans="1:40" ht="15">
@@ -12212,7 +12212,7 @@
       <c r="AI251" s="1"/>
       <c r="AJ251" s="1"/>
       <c r="AN251" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="252" spans="1:40" ht="15">
@@ -12263,7 +12263,7 @@
       <c r="AI252" s="1"/>
       <c r="AJ252" s="1"/>
       <c r="AN252" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:40" ht="15">
@@ -12313,7 +12313,7 @@
       <c r="AI253" s="1"/>
       <c r="AJ253" s="1"/>
       <c r="AN253" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="254" spans="1:40" ht="15">
@@ -12356,7 +12356,7 @@
       <c r="AI254" s="1"/>
       <c r="AJ254" s="1"/>
       <c r="AN254" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255" spans="1:40" ht="15">
@@ -12399,7 +12399,7 @@
       <c r="AI255" s="1"/>
       <c r="AJ255" s="1"/>
       <c r="AN255" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256" spans="1:40" ht="15">
@@ -12442,7 +12442,7 @@
       <c r="AI256" s="1"/>
       <c r="AJ256" s="1"/>
       <c r="AN256" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="257" spans="1:40" ht="15">
@@ -12485,7 +12485,7 @@
       <c r="AI257" s="1"/>
       <c r="AJ257" s="1"/>
       <c r="AN257" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258" spans="1:40" ht="15">
@@ -12528,7 +12528,7 @@
       <c r="AI258" s="1"/>
       <c r="AJ258" s="1"/>
       <c r="AN258" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:40" ht="15">
@@ -12571,7 +12571,7 @@
       <c r="AI259" s="1"/>
       <c r="AJ259" s="1"/>
       <c r="AN259" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="260" spans="1:40" ht="15">
@@ -12614,7 +12614,7 @@
       <c r="AI260" s="1"/>
       <c r="AJ260" s="1"/>
       <c r="AN260" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="261" spans="1:40" ht="15">
@@ -12670,7 +12670,7 @@
       <c r="AI261" s="1"/>
       <c r="AJ261" s="1"/>
       <c r="AN261" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="262" spans="1:40" ht="15">
@@ -12726,7 +12726,7 @@
       <c r="AI262" s="1"/>
       <c r="AJ262" s="1"/>
       <c r="AN262" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263" spans="1:40" ht="15">
@@ -12782,7 +12782,7 @@
       <c r="AI263" s="1"/>
       <c r="AJ263" s="1"/>
       <c r="AN263" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="264" spans="1:40" ht="15">
@@ -12838,7 +12838,7 @@
       <c r="AI264" s="1"/>
       <c r="AJ264" s="1"/>
       <c r="AN264" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:40" ht="15">
@@ -12894,7 +12894,7 @@
       <c r="AI265" s="1"/>
       <c r="AJ265" s="1"/>
       <c r="AN265" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:40" ht="15">
@@ -12944,7 +12944,7 @@
       <c r="AI266" s="1"/>
       <c r="AJ266" s="1"/>
       <c r="AN266" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:40" ht="15">
@@ -12994,7 +12994,7 @@
       <c r="AI267" s="1"/>
       <c r="AJ267" s="1"/>
       <c r="AN267" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:40" ht="15">
@@ -13046,7 +13046,7 @@
       <c r="AI268" s="1"/>
       <c r="AJ268" s="1"/>
       <c r="AN268" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="269" spans="1:40" ht="15">
@@ -13089,7 +13089,7 @@
       <c r="AI269" s="1"/>
       <c r="AJ269" s="1"/>
       <c r="AN269" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="270" spans="1:40" ht="15">
@@ -13132,7 +13132,7 @@
       <c r="AI270" s="1"/>
       <c r="AJ270" s="1"/>
       <c r="AN270" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271" spans="1:40" ht="15">
@@ -13175,7 +13175,7 @@
       <c r="AI271" s="1"/>
       <c r="AJ271" s="1"/>
       <c r="AN271" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272" spans="1:40" ht="15">
@@ -13218,7 +13218,7 @@
       <c r="AI272" s="1"/>
       <c r="AJ272" s="1"/>
       <c r="AN272" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="273" spans="1:40" ht="15">
@@ -13261,7 +13261,7 @@
       <c r="AI273" s="1"/>
       <c r="AJ273" s="1"/>
       <c r="AN273" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274" spans="1:40" ht="15">
@@ -13304,7 +13304,7 @@
       <c r="AI274" s="1"/>
       <c r="AJ274" s="1"/>
       <c r="AN274" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275" spans="1:40" ht="15">
@@ -13347,7 +13347,7 @@
       <c r="AI275" s="1"/>
       <c r="AJ275" s="1"/>
       <c r="AN275" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="276" spans="1:40" ht="15">
@@ -27881,7 +27881,7 @@
     </row>
     <row r="828" spans="1:40">
       <c r="A828" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B828" s="16">
         <v>26860</v>
@@ -27901,7 +27901,7 @@
     </row>
     <row r="829" spans="1:40">
       <c r="A829" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B829" s="5">
         <v>27590.484400000001</v>
@@ -27935,7 +27935,7 @@
       <c r="T829" s="39"/>
       <c r="U829" s="39"/>
       <c r="V829" s="28">
-        <v>23.86</v>
+        <v>2.3860000000000001</v>
       </c>
       <c r="W829" s="28"/>
       <c r="AA829" s="17">
@@ -27960,7 +27960,7 @@
     </row>
     <row r="830" spans="1:40">
       <c r="A830" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B830" s="5">
         <v>27955.726600000002</v>
@@ -27994,7 +27994,7 @@
       <c r="T830" s="39"/>
       <c r="U830" s="39"/>
       <c r="V830" s="28">
-        <v>57.77</v>
+        <v>5.777000000000001</v>
       </c>
       <c r="W830" s="28"/>
       <c r="AA830" s="17">
@@ -28019,7 +28019,7 @@
     </row>
     <row r="831" spans="1:40">
       <c r="A831" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B831" s="5">
         <v>28320.968799999999</v>
@@ -28053,7 +28053,7 @@
       <c r="T831" s="39"/>
       <c r="U831" s="39"/>
       <c r="V831" s="28">
-        <v>170.87</v>
+        <v>17.087</v>
       </c>
       <c r="W831" s="28"/>
       <c r="AA831" s="17">
@@ -28078,7 +28078,7 @@
     </row>
     <row r="832" spans="1:40">
       <c r="A832" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B832" s="5">
         <v>28686.210999999999</v>
@@ -28112,7 +28112,7 @@
       <c r="T832" s="39"/>
       <c r="U832" s="39"/>
       <c r="V832" s="28">
-        <v>280.95</v>
+        <v>28.094999999999999</v>
       </c>
       <c r="W832" s="28"/>
       <c r="AA832" s="17">
@@ -28141,7 +28141,7 @@
     </row>
     <row r="833" spans="1:40">
       <c r="A833" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B833" s="5">
         <v>29047.800778000001</v>
@@ -28175,7 +28175,7 @@
       <c r="T833" s="39"/>
       <c r="U833" s="39"/>
       <c r="V833" s="28">
-        <v>367.58</v>
+        <v>36.758000000000003</v>
       </c>
       <c r="W833" s="28"/>
       <c r="AA833" s="17">
@@ -28204,7 +28204,7 @@
     </row>
     <row r="834" spans="1:40">
       <c r="A834" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B834" s="5">
         <v>29051.4532</v>
@@ -28238,7 +28238,7 @@
       <c r="T834" s="39"/>
       <c r="U834" s="39"/>
       <c r="V834" s="28">
-        <v>89.95</v>
+        <v>8.995000000000001</v>
       </c>
       <c r="W834" s="28"/>
       <c r="AA834" s="17">
@@ -28267,7 +28267,7 @@
     </row>
     <row r="835" spans="1:40">
       <c r="A835" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B835" s="5">
         <v>29416.695400000001</v>
@@ -28301,7 +28301,7 @@
       <c r="T835" s="39"/>
       <c r="U835" s="39"/>
       <c r="V835" s="28">
-        <v>155.59</v>
+        <v>15.559000000000001</v>
       </c>
       <c r="W835" s="28"/>
       <c r="AA835" s="17">
@@ -28330,7 +28330,7 @@
     </row>
     <row r="836" spans="1:40">
       <c r="A836" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B836" s="5">
         <v>29781.937600000001</v>
@@ -28364,7 +28364,7 @@
       <c r="T836" s="39"/>
       <c r="U836" s="39"/>
       <c r="V836" s="28">
-        <v>238.24</v>
+        <v>23.824000000000002</v>
       </c>
       <c r="W836" s="28"/>
       <c r="AA836" s="17">
@@ -28393,7 +28393,7 @@
     </row>
     <row r="837" spans="1:40">
       <c r="A837" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B837" s="5">
         <v>30147.179800000002</v>
@@ -28427,7 +28427,7 @@
       <c r="T837" s="39"/>
       <c r="U837" s="39"/>
       <c r="V837" s="28">
-        <v>287.86</v>
+        <v>28.786000000000001</v>
       </c>
       <c r="W837" s="28"/>
       <c r="AA837" s="17">
@@ -28456,7 +28456,7 @@
     </row>
     <row r="838" spans="1:40">
       <c r="A838" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B838" s="5">
         <v>30508.769577999999</v>
@@ -28490,7 +28490,7 @@
       <c r="T838" s="39"/>
       <c r="U838" s="39"/>
       <c r="V838" s="28">
-        <v>327.52</v>
+        <v>32.752000000000002</v>
       </c>
       <c r="W838" s="28"/>
       <c r="AA838" s="17">
@@ -28519,7 +28519,7 @@
     </row>
     <row r="839" spans="1:40">
       <c r="A839" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B839" s="5">
         <v>30512.421999999999</v>
@@ -28553,7 +28553,7 @@
       <c r="T839" s="39"/>
       <c r="U839" s="39"/>
       <c r="V839" s="28">
-        <v>108.8</v>
+        <v>10.88</v>
       </c>
       <c r="W839" s="28"/>
       <c r="AA839" s="17">
@@ -28582,7 +28582,7 @@
     </row>
     <row r="840" spans="1:40">
       <c r="A840" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B840" s="5">
         <v>30877.664199999999</v>
@@ -28616,7 +28616,7 @@
       <c r="T840" s="39"/>
       <c r="U840" s="39"/>
       <c r="V840" s="28">
-        <v>163.93</v>
+        <v>16.393000000000001</v>
       </c>
       <c r="W840" s="28"/>
       <c r="AA840" s="17">
@@ -28645,7 +28645,7 @@
     </row>
     <row r="841" spans="1:40">
       <c r="A841" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B841" s="5">
         <v>31242.9064</v>
@@ -28679,7 +28679,7 @@
       <c r="T841" s="39"/>
       <c r="U841" s="39"/>
       <c r="V841" s="28">
-        <v>213.97</v>
+        <v>21.397000000000002</v>
       </c>
       <c r="W841" s="28"/>
       <c r="AA841" s="17">
@@ -28722,6 +28722,7 @@
       <c r="E842" s="3">
         <v>2220</v>
       </c>
+      <c r="U842" s="39"/>
       <c r="AN842" s="1" t="s">
         <v>24</v>
       </c>
@@ -28743,6 +28744,7 @@
       <c r="E843">
         <v>1975</v>
       </c>
+      <c r="U843" s="39"/>
       <c r="AA843" s="17">
         <v>1.8</v>
       </c>
@@ -28770,6 +28772,7 @@
       <c r="E844">
         <v>1935</v>
       </c>
+      <c r="U844" s="39"/>
       <c r="AA844" s="17">
         <v>2.9</v>
       </c>
@@ -28797,6 +28800,7 @@
       <c r="E845">
         <v>1930</v>
       </c>
+      <c r="U845" s="39"/>
       <c r="AA845" s="17">
         <v>4.3</v>
       </c>
@@ -28824,6 +28828,7 @@
       <c r="E846">
         <v>1930</v>
       </c>
+      <c r="U846" s="39"/>
       <c r="AA846" s="17">
         <v>6.3</v>
       </c>
@@ -28859,6 +28864,7 @@
       <c r="E847">
         <v>1910</v>
       </c>
+      <c r="U847" s="39"/>
       <c r="AA847" s="17">
         <v>8.3000000000000007</v>
       </c>
@@ -28894,6 +28900,7 @@
       <c r="E848">
         <v>1905</v>
       </c>
+      <c r="U848" s="39"/>
       <c r="AA848" s="17">
         <v>9.6</v>
       </c>
@@ -28929,6 +28936,7 @@
       <c r="E849">
         <v>1875</v>
       </c>
+      <c r="U849" s="39"/>
       <c r="AA849" s="17">
         <v>10.9</v>
       </c>
@@ -28964,6 +28972,7 @@
       <c r="E850">
         <v>1750</v>
       </c>
+      <c r="U850" s="39"/>
       <c r="AA850" s="17">
         <v>12.4</v>
       </c>
@@ -28999,6 +29008,7 @@
       <c r="E851">
         <v>1645</v>
       </c>
+      <c r="U851" s="39"/>
       <c r="AA851" s="17">
         <v>13.9</v>
       </c>
@@ -29034,6 +29044,7 @@
       <c r="E852">
         <v>1610</v>
       </c>
+      <c r="U852" s="39"/>
       <c r="AA852" s="17">
         <v>15.3</v>
       </c>
@@ -29087,7 +29098,7 @@
       <c r="T853" s="39"/>
       <c r="U853" s="39"/>
       <c r="V853" s="3">
-        <v>560.6</v>
+        <v>56.06</v>
       </c>
       <c r="AA853" s="17">
         <v>17.8</v>
@@ -29112,7 +29123,7 @@
     </row>
     <row r="854" spans="1:40">
       <c r="A854" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B854" s="5">
         <v>31093</v>
@@ -29124,12 +29135,12 @@
         <v>1260</v>
       </c>
       <c r="AN854" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="855" spans="1:40">
       <c r="A855" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B855" s="5">
         <v>33649.695399999997</v>
@@ -29160,12 +29171,12 @@
         <v>9.8999999999999991E-3</v>
       </c>
       <c r="AN855" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="856" spans="1:40">
       <c r="A856" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B856" s="5">
         <v>34014.937599999997</v>
@@ -29199,12 +29210,12 @@
         <v>9.8999999999999991E-3</v>
       </c>
       <c r="AN856" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="857" spans="1:40">
       <c r="A857" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B857" s="5">
         <v>34380.179799999998</v>
@@ -29238,12 +29249,12 @@
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="AN857" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="858" spans="1:40">
       <c r="A858" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B858" s="5">
         <v>34745.421999999999</v>
@@ -29280,12 +29291,12 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="AN858" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="859" spans="1:40">
       <c r="A859" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B859" s="5">
         <v>35110.664199999999</v>
@@ -29322,12 +29333,12 @@
         <v>9.300000000000001E-3</v>
       </c>
       <c r="AN859" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="860" spans="1:40">
       <c r="A860" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B860" s="5">
         <v>35475.9064</v>
@@ -29364,12 +29375,12 @@
         <v>9.8999999999999991E-3</v>
       </c>
       <c r="AN860" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="861" spans="1:40">
       <c r="A861" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B861" s="5">
         <v>35841.1486</v>
@@ -29403,12 +29414,12 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="AN861" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="862" spans="1:40">
       <c r="A862" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B862" s="5">
         <v>36206.390800000001</v>
@@ -29442,12 +29453,12 @@
         <v>1.03E-2</v>
       </c>
       <c r="AN862" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="863" spans="1:40">
       <c r="A863" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B863" s="5">
         <v>36571.633000000002</v>
@@ -29481,12 +29492,12 @@
         <v>1.03E-2</v>
       </c>
       <c r="AN863" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="864" spans="1:40">
       <c r="A864" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B864" s="5">
         <v>36936.875200000002</v>
@@ -29520,12 +29531,12 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="AN864" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="865" spans="1:40">
       <c r="A865" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B865" s="5">
         <v>31062</v>
@@ -29541,12 +29552,12 @@
         <v>1260</v>
       </c>
       <c r="AN865" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="866" spans="1:40">
       <c r="A866" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B866" s="5">
         <v>33649.695399999997</v>
@@ -29577,12 +29588,12 @@
         <v>9.8999999999999991E-3</v>
       </c>
       <c r="AN866" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="867" spans="1:40">
       <c r="A867" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B867" s="5">
         <v>34014.937599999997</v>
@@ -29616,12 +29627,12 @@
         <v>1.0700000000000001E-2</v>
       </c>
       <c r="AN867" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="868" spans="1:40">
       <c r="A868" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B868" s="5">
         <v>34380.179799999998</v>
@@ -29655,12 +29666,12 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="AN868" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="869" spans="1:40">
       <c r="A869" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B869" s="5">
         <v>34745.421999999999</v>
@@ -29697,12 +29708,12 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="AN869" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="870" spans="1:40">
       <c r="A870" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B870" s="5">
         <v>35110.664199999999</v>
@@ -29739,12 +29750,12 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="AN870" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="871" spans="1:40">
       <c r="A871" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B871" s="5">
         <v>35475.9064</v>
@@ -29781,12 +29792,12 @@
         <v>1.06E-2</v>
       </c>
       <c r="AN871" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="872" spans="1:40">
       <c r="A872" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B872" s="5">
         <v>35841.1486</v>
@@ -29820,12 +29831,12 @@
         <v>1.06E-2</v>
       </c>
       <c r="AN872" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="873" spans="1:40">
       <c r="A873" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B873" s="5">
         <v>36206.390800000001</v>
@@ -29859,12 +29870,12 @@
         <v>1.06E-2</v>
       </c>
       <c r="AN873" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="874" spans="1:40">
       <c r="A874" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B874" s="5">
         <v>36571.633000000002</v>
@@ -29898,12 +29909,12 @@
         <v>1.03E-2</v>
       </c>
       <c r="AN874" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="875" spans="1:40">
       <c r="A875" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B875" s="5">
         <v>36936.875200000002</v>
@@ -29937,12 +29948,12 @@
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="AN875" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="876" spans="1:40">
       <c r="A876" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B876" s="5">
         <v>31062</v>
@@ -29958,12 +29969,12 @@
         <v>1260</v>
       </c>
       <c r="AN876" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="877" spans="1:40">
       <c r="A877" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B877" s="5">
         <v>33649.695399999997</v>
@@ -29994,12 +30005,12 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="AN877" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="878" spans="1:40">
       <c r="A878" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B878" s="5">
         <v>34014.937599999997</v>
@@ -30033,12 +30044,12 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="AN878" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="879" spans="1:40">
       <c r="A879" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B879" s="5">
         <v>34380.179799999998</v>
@@ -30072,12 +30083,12 @@
         <v>1.18E-2</v>
       </c>
       <c r="AN879" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="880" spans="1:40">
       <c r="A880" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B880" s="5">
         <v>34745.421999999999</v>
@@ -30114,12 +30125,12 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="AN880" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="881" spans="1:40">
       <c r="A881" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B881" s="5">
         <v>35110.664199999999</v>
@@ -30156,12 +30167,12 @@
         <v>1.24E-2</v>
       </c>
       <c r="AN881" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="882" spans="1:40">
       <c r="A882" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B882" s="5">
         <v>35475.9064</v>
@@ -30198,12 +30209,12 @@
         <v>1.4499999999999999E-2</v>
       </c>
       <c r="AN882" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="883" spans="1:40">
       <c r="A883" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B883" s="5">
         <v>35841.1486</v>
@@ -30237,12 +30248,12 @@
         <v>1.54E-2</v>
       </c>
       <c r="AN883" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="884" spans="1:40">
       <c r="A884" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B884" s="5">
         <v>36206.390800000001</v>
@@ -30276,12 +30287,12 @@
         <v>1.44E-2</v>
       </c>
       <c r="AN884" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="885" spans="1:40">
       <c r="A885" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B885" s="5">
         <v>36571.633000000002</v>
@@ -30315,12 +30326,12 @@
         <v>1.47E-2</v>
       </c>
       <c r="AN885" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="886" spans="1:40">
       <c r="A886" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B886" s="5">
         <v>36936.875200000002</v>
@@ -30354,12 +30365,12 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="AN886" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="887" spans="1:40">
       <c r="A887" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B887" s="5">
         <v>31093</v>
@@ -30375,12 +30386,12 @@
         <v>1260</v>
       </c>
       <c r="AN887" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="888" spans="1:40">
       <c r="A888" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B888" s="5">
         <v>33649.695399999997</v>
@@ -30411,12 +30422,12 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="AN888" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="889" spans="1:40">
       <c r="A889" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B889" s="5">
         <v>34014.937599999997</v>
@@ -30450,12 +30461,12 @@
         <v>1.29E-2</v>
       </c>
       <c r="AN889" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="890" spans="1:40">
       <c r="A890" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B890" s="5">
         <v>34380.179799999998</v>
@@ -30489,12 +30500,12 @@
         <v>1.11E-2</v>
       </c>
       <c r="AN890" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="891" spans="1:40">
       <c r="A891" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B891" s="5">
         <v>34745.421999999999</v>
@@ -30531,12 +30542,12 @@
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="AN891" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="892" spans="1:40">
       <c r="A892" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B892" s="5">
         <v>35110.664199999999</v>
@@ -30573,12 +30584,12 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="AN892" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="893" spans="1:40">
       <c r="A893" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B893" s="5">
         <v>35475.9064</v>
@@ -30615,12 +30626,12 @@
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="AN893" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="894" spans="1:40">
       <c r="A894" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B894" s="5">
         <v>35841.1486</v>
@@ -30654,12 +30665,12 @@
         <v>1.38E-2</v>
       </c>
       <c r="AN894" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="895" spans="1:40">
       <c r="A895" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B895" s="5">
         <v>36206.390800000001</v>
@@ -30693,12 +30704,12 @@
         <v>1.32E-2</v>
       </c>
       <c r="AN895" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="896" spans="1:40">
       <c r="A896" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B896" s="5">
         <v>36571.633000000002</v>
@@ -30732,12 +30743,12 @@
         <v>1.3600000000000001E-2</v>
       </c>
       <c r="AN896" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="897" spans="1:40" hidden="1">
       <c r="A897" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B897" s="5">
         <v>36936.875200000002</v>
@@ -30771,12 +30782,12 @@
         <v>1.47E-2</v>
       </c>
       <c r="AN897" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="898" spans="1:40" hidden="1">
       <c r="A898" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B898" s="5">
         <v>34014.937604166669</v>
@@ -30813,12 +30824,12 @@
         <v>320</v>
       </c>
       <c r="AN898" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="899" spans="1:40" hidden="1">
       <c r="A899" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B899" s="5">
         <v>34014.937604166669</v>
@@ -30855,12 +30866,12 @@
         <v>270</v>
       </c>
       <c r="AN899" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="900" spans="1:40" hidden="1">
       <c r="A900" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B900" s="5">
         <v>34014.937604166669</v>
@@ -30897,12 +30908,12 @@
         <v>470</v>
       </c>
       <c r="AN900" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="901" spans="1:40" hidden="1">
       <c r="A901" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B901" s="5">
         <v>34014.937604166669</v>
@@ -30939,12 +30950,12 @@
         <v>350</v>
       </c>
       <c r="AN901" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="902" spans="1:40" hidden="1">
       <c r="A902" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B902" s="5">
         <v>35017.937604166669</v>
@@ -30981,12 +30992,12 @@
         <v>610</v>
       </c>
       <c r="AN902" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="903" spans="1:40" hidden="1">
       <c r="A903" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B903" s="5">
         <v>35017.937604166669</v>
@@ -31023,12 +31034,12 @@
         <v>700</v>
       </c>
       <c r="AN903" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="904" spans="1:40" hidden="1">
       <c r="A904" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B904" s="5">
         <v>35017.937604166669</v>
@@ -31065,12 +31076,12 @@
         <v>1239.9999999999998</v>
       </c>
       <c r="AN904" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="905" spans="1:40" hidden="1">
       <c r="A905" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B905" s="5">
         <v>35017.937604166669</v>
@@ -31107,12 +31118,12 @@
         <v>1350</v>
       </c>
       <c r="AN905" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="906" spans="1:40" hidden="1">
       <c r="A906" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B906" s="5">
         <v>36936.875196759262</v>
@@ -31149,12 +31160,12 @@
         <v>1110</v>
       </c>
       <c r="AN906" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="907" spans="1:40" hidden="1">
       <c r="A907" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B907" s="5">
         <v>36936.875196759262</v>
@@ -31191,12 +31202,12 @@
         <v>1250</v>
       </c>
       <c r="AN907" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="908" spans="1:40" hidden="1">
       <c r="A908" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B908" s="5">
         <v>36936.875196759262</v>
@@ -31233,12 +31244,12 @@
         <v>2570</v>
       </c>
       <c r="AN908" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="909" spans="1:40" hidden="1">
       <c r="A909" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B909" s="5">
         <v>36936.875196759262</v>
@@ -31275,12 +31286,12 @@
         <v>2860</v>
       </c>
       <c r="AN909" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="910" spans="1:40" hidden="1">
       <c r="A910" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B910" s="5">
         <v>35581.421999999999</v>
@@ -31301,12 +31312,12 @@
         <v>13.2</v>
       </c>
       <c r="AN910" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="911" spans="1:40" hidden="1">
       <c r="A911" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B911" s="5">
         <v>35581.421999999999</v>
@@ -31327,12 +31338,12 @@
         <v>17.100000000000001</v>
       </c>
       <c r="AN911" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="912" spans="1:40" hidden="1">
       <c r="A912" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B912" s="5">
         <v>35581.421999999999</v>
@@ -31353,12 +31364,12 @@
         <v>20</v>
       </c>
       <c r="AN912" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="913" spans="1:40" hidden="1">
       <c r="A913" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B913" s="5">
         <v>35581.421999999999</v>
@@ -31379,12 +31390,12 @@
         <v>18.899999999999999</v>
       </c>
       <c r="AN913" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="914" spans="1:40" hidden="1">
       <c r="A914" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B914" s="5">
         <v>35534.421999999999</v>
@@ -31405,12 +31416,12 @@
         <v>11.3</v>
       </c>
       <c r="AN914" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="915" spans="1:40" hidden="1">
       <c r="A915" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B915" s="5">
         <v>35534.421999999999</v>
@@ -31431,12 +31442,12 @@
         <v>18.8</v>
       </c>
       <c r="AN915" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="916" spans="1:40" hidden="1">
       <c r="A916" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B916" s="5">
         <v>35534.421999999999</v>
@@ -31457,12 +31468,12 @@
         <v>16.899999999999999</v>
       </c>
       <c r="AN916" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="917" spans="1:40" hidden="1">
       <c r="A917" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B917" s="5">
         <v>35534.421999999999</v>
@@ -31483,12 +31494,12 @@
         <v>16.3</v>
       </c>
       <c r="AN917" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="918" spans="1:40" hidden="1">
       <c r="A918" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B918" s="5">
         <v>35550.421999999999</v>
@@ -31509,12 +31520,12 @@
         <v>10.6</v>
       </c>
       <c r="AN918" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="919" spans="1:40" hidden="1">
       <c r="A919" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B919" s="5">
         <v>35550.421999999999</v>
@@ -31535,12 +31546,12 @@
         <v>14.2</v>
       </c>
       <c r="AN919" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="920" spans="1:40" hidden="1">
       <c r="A920" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B920" s="5">
         <v>35550.421999999999</v>
@@ -31561,12 +31572,12 @@
         <v>14.6</v>
       </c>
       <c r="AN920" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="921" spans="1:40" hidden="1">
       <c r="A921" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B921" s="5">
         <v>35550.421999999999</v>
@@ -31587,12 +31598,12 @@
         <v>13.5</v>
       </c>
       <c r="AN921" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="922" spans="1:40" hidden="1">
       <c r="A922" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B922" s="5">
         <v>37407.633000000002</v>
@@ -31625,12 +31636,12 @@
         <v>18.600000000000001</v>
       </c>
       <c r="AN922" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="923" spans="1:40" hidden="1">
       <c r="A923" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B923" s="5">
         <v>37407.633000000002</v>
@@ -31663,12 +31674,12 @@
         <v>22.7</v>
       </c>
       <c r="AN923" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="924" spans="1:40" hidden="1">
       <c r="A924" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B924" s="5">
         <v>37407.633000000002</v>
@@ -31701,12 +31712,12 @@
         <v>25.4</v>
       </c>
       <c r="AN924" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="925" spans="1:40" hidden="1">
       <c r="A925" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B925" s="5">
         <v>37407.633000000002</v>
@@ -31739,12 +31750,12 @@
         <v>25.1</v>
       </c>
       <c r="AN925" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="926" spans="1:40" hidden="1">
       <c r="A926" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B926" s="5">
         <v>37360.633000000002</v>
@@ -31777,12 +31788,12 @@
         <v>16.8</v>
       </c>
       <c r="AN926" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="927" spans="1:40" hidden="1">
       <c r="A927" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B927" s="5">
         <v>37360.633000000002</v>
@@ -31815,12 +31826,12 @@
         <v>24.9</v>
       </c>
       <c r="AN927" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="928" spans="1:40" hidden="1">
       <c r="A928" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B928" s="5">
         <v>37360.633000000002</v>
@@ -31853,12 +31864,12 @@
         <v>22</v>
       </c>
       <c r="AN928" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="929" spans="1:40" hidden="1">
       <c r="A929" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B929" s="5">
         <v>37360.633000000002</v>
@@ -31891,12 +31902,12 @@
         <v>22.1</v>
       </c>
       <c r="AN929" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="930" spans="1:40" hidden="1">
       <c r="A930" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B930" s="5">
         <v>37376.633000000002</v>
@@ -31929,12 +31940,12 @@
         <v>14.1</v>
       </c>
       <c r="AN930" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="931" spans="1:40" hidden="1">
       <c r="A931" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B931" s="5">
         <v>37376.633000000002</v>
@@ -31967,12 +31978,12 @@
         <v>19.2</v>
       </c>
       <c r="AN931" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="932" spans="1:40" hidden="1">
       <c r="A932" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B932" s="5">
         <v>37376.633000000002</v>
@@ -32005,12 +32016,12 @@
         <v>18.8</v>
       </c>
       <c r="AN932" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="933" spans="1:40" hidden="1">
       <c r="A933" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B933" s="5">
         <v>37376.633000000002</v>
@@ -32043,12 +32054,12 @@
         <v>17.7</v>
       </c>
       <c r="AN933" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="934" spans="1:40" hidden="1">
       <c r="A934" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B934" s="5">
         <v>36022.211000000003</v>
@@ -32065,7 +32076,7 @@
     </row>
     <row r="935" spans="1:40" hidden="1">
       <c r="A935" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B935" s="5">
         <v>36752.695400000004</v>
@@ -32094,7 +32105,7 @@
     </row>
     <row r="936" spans="1:40" hidden="1">
       <c r="A936" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B936" s="5">
         <v>37117.937600000005</v>
@@ -32123,7 +32134,7 @@
     </row>
     <row r="937" spans="1:40" hidden="1">
       <c r="A937" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B937" s="5">
         <v>37483.179800000005</v>
@@ -32152,7 +32163,7 @@
     </row>
     <row r="938" spans="1:40" hidden="1">
       <c r="A938" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B938" s="5">
         <v>37848.422000000006</v>
@@ -32181,7 +32192,7 @@
     </row>
     <row r="939" spans="1:40" hidden="1">
       <c r="A939" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B939" s="5">
         <v>38578.9064</v>
@@ -32210,7 +32221,7 @@
     </row>
     <row r="940" spans="1:40" hidden="1">
       <c r="A940" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B940" s="5">
         <v>38944.1486</v>
@@ -32239,7 +32250,7 @@
     </row>
     <row r="941" spans="1:40" hidden="1">
       <c r="A941" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B941" s="5">
         <v>39309.390800000001</v>
@@ -32268,7 +32279,7 @@
     </row>
     <row r="942" spans="1:40" hidden="1">
       <c r="A942" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B942" s="5">
         <v>39674.633000000002</v>
@@ -32300,7 +32311,7 @@
     <row r="945" spans="1:68" hidden="1"/>
     <row r="946" spans="1:68">
       <c r="A946" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B946" s="5">
         <v>22812</v>
@@ -32317,7 +32328,7 @@
     </row>
     <row r="947" spans="1:68">
       <c r="A947" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B947" s="5">
         <v>29021.117399999999</v>
@@ -32344,7 +32355,7 @@
     </row>
     <row r="948" spans="1:68">
       <c r="A948" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B948" s="5">
         <v>29386.3596</v>
@@ -32371,7 +32382,7 @@
     </row>
     <row r="949" spans="1:68">
       <c r="A949" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B949" s="5">
         <v>29751.6018</v>
@@ -32398,7 +32409,7 @@
     </row>
     <row r="950" spans="1:68">
       <c r="A950" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B950" s="5">
         <v>30116.844000000001</v>
@@ -32425,7 +32436,7 @@
     </row>
     <row r="951" spans="1:68">
       <c r="A951" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B951" s="5">
         <v>30482.086200000002</v>
@@ -32452,7 +32463,7 @@
     </row>
     <row r="952" spans="1:68">
       <c r="A952" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B952" s="5">
         <v>30847.328399999999</v>
@@ -32479,7 +32490,7 @@
     </row>
     <row r="953" spans="1:68">
       <c r="A953" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B953" s="5">
         <v>31212.570599999999</v>
@@ -32506,7 +32517,7 @@
     </row>
     <row r="954" spans="1:68">
       <c r="A954" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B954" s="5">
         <v>31577.8128</v>
@@ -32533,7 +32544,7 @@
     </row>
     <row r="955" spans="1:68">
       <c r="A955" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B955" s="5">
         <v>31943.055</v>
@@ -32626,7 +32637,7 @@
     </row>
     <row r="956" spans="1:68">
       <c r="A956" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B956" s="5">
         <v>32308.297200000001</v>
@@ -32650,7 +32661,7 @@
     </row>
     <row r="957" spans="1:68">
       <c r="A957" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B957" s="5">
         <v>32673.539400000001</v>
@@ -32677,7 +32688,7 @@
     </row>
     <row r="958" spans="1:68">
       <c r="A958" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B958" s="5">
         <v>33038.781600000002</v>
@@ -32704,7 +32715,7 @@
     </row>
     <row r="959" spans="1:68">
       <c r="A959" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B959" s="5">
         <v>33404.023800000003</v>
@@ -32779,7 +32790,7 @@
     </row>
     <row r="960" spans="1:68">
       <c r="A960" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B960" s="5">
         <v>33769.266000000003</v>
@@ -32806,7 +32817,7 @@
     </row>
     <row r="961" spans="1:68">
       <c r="A961" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B961" s="5">
         <v>34134.508199999997</v>
@@ -32833,7 +32844,7 @@
     </row>
     <row r="962" spans="1:68">
       <c r="A962" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B962" s="5">
         <v>34499.750400000004</v>
@@ -32860,7 +32871,7 @@
     </row>
     <row r="963" spans="1:68">
       <c r="A963" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B963" s="5">
         <v>34864.992599999998</v>
@@ -32887,7 +32898,7 @@
     </row>
     <row r="964" spans="1:68">
       <c r="A964" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B964" s="5">
         <v>35230.234799999998</v>
@@ -32962,7 +32973,7 @@
     </row>
     <row r="965" spans="1:68">
       <c r="A965" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B965" s="5">
         <v>29021.117399999999</v>
@@ -32989,7 +33000,7 @@
     </row>
     <row r="966" spans="1:68">
       <c r="A966" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B966" s="5">
         <v>29386.3596</v>
@@ -33016,7 +33027,7 @@
     </row>
     <row r="967" spans="1:68">
       <c r="A967" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B967" s="5">
         <v>29751.6018</v>
@@ -33043,7 +33054,7 @@
     </row>
     <row r="968" spans="1:68">
       <c r="A968" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B968" s="5">
         <v>30116.844000000001</v>
@@ -33070,7 +33081,7 @@
     </row>
     <row r="969" spans="1:68">
       <c r="A969" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B969" s="5">
         <v>30482.086200000002</v>
@@ -33097,7 +33108,7 @@
     </row>
     <row r="970" spans="1:68">
       <c r="A970" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B970" s="5">
         <v>30847.328399999999</v>
@@ -33124,7 +33135,7 @@
     </row>
     <row r="971" spans="1:68">
       <c r="A971" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B971" s="5">
         <v>31212.570599999999</v>
@@ -33151,7 +33162,7 @@
     </row>
     <row r="972" spans="1:68">
       <c r="A972" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B972" s="5">
         <v>31577.8128</v>
@@ -33178,7 +33189,7 @@
     </row>
     <row r="973" spans="1:68">
       <c r="A973" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B973" s="5">
         <v>31943.055</v>
@@ -33271,7 +33282,7 @@
     </row>
     <row r="974" spans="1:68">
       <c r="A974" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B974" s="5">
         <v>32308.297200000001</v>
@@ -33295,7 +33306,7 @@
     </row>
     <row r="975" spans="1:68">
       <c r="A975" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B975" s="5">
         <v>32673.539400000001</v>
@@ -33322,7 +33333,7 @@
     </row>
     <row r="976" spans="1:68">
       <c r="A976" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B976" s="5">
         <v>33038.781600000002</v>
@@ -33349,7 +33360,7 @@
     </row>
     <row r="977" spans="1:68">
       <c r="A977" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B977" s="5">
         <v>33404.023800000003</v>
@@ -33424,7 +33435,7 @@
     </row>
     <row r="978" spans="1:68">
       <c r="A978" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B978" s="5">
         <v>33769.266000000003</v>
@@ -33451,7 +33462,7 @@
     </row>
     <row r="979" spans="1:68">
       <c r="A979" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B979" s="5">
         <v>34134.508199999997</v>
@@ -33478,7 +33489,7 @@
     </row>
     <row r="980" spans="1:68">
       <c r="A980" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B980" s="5">
         <v>34499.750400000004</v>
@@ -33505,7 +33516,7 @@
     </row>
     <row r="981" spans="1:68">
       <c r="A981" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B981" s="5">
         <v>34864.992599999998</v>
@@ -33532,7 +33543,7 @@
     </row>
     <row r="982" spans="1:68">
       <c r="A982" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B982" s="5">
         <v>35230.234799999998</v>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67908916-C8B9-4A41-B15F-B621AC2B2309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2384AEB9-5B4E-41A4-A274-D50476ECF076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,24 +285,6 @@
     <t>stemspha</t>
   </si>
   <si>
-    <t xml:space="preserve">Pinus.Fruit.Wt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinus.Leaf.Dead.Wt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WoodTotalWt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinus.CoarseRoot.Live.Wt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinus.FineRoot.Live.Wt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinus.BelowGround.Wt </t>
-  </si>
-  <si>
     <t>Pinus.Stem.Ht</t>
   </si>
   <si>
@@ -324,25 +306,43 @@
     <t>Pinus.Stem.WoodDensity</t>
   </si>
   <si>
-    <t xml:space="preserve">Pinus.Stem.BarkWt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinus.Stem.WoodWt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinus.Stem.Wt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinus.Branch.Wt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinus.Leaf.Wt </t>
-  </si>
-  <si>
     <t>Pinus.AboveGround.Wt</t>
   </si>
   <si>
     <t>Pinus.Aboveground.N</t>
+  </si>
+  <si>
+    <t>Pinus.Fruit.Wt</t>
+  </si>
+  <si>
+    <t>Pinus.Leaf.Wt</t>
+  </si>
+  <si>
+    <t>Pinus.Leaf.Dead.Wt</t>
+  </si>
+  <si>
+    <t>Pinus.Branch.Wt</t>
+  </si>
+  <si>
+    <t>Pinus.Stem.BarkWt</t>
+  </si>
+  <si>
+    <t>Pinus.Stem.WoodWt</t>
+  </si>
+  <si>
+    <t>Pinus.Stem.Wt</t>
+  </si>
+  <si>
+    <t>WoodTotalWt</t>
+  </si>
+  <si>
+    <t>Pinus.CoarseRoot.Live.Wt</t>
+  </si>
+  <si>
+    <t>Pinus.FineRoot.Live.Wt</t>
+  </si>
+  <si>
+    <t>Pinus.BelowGround.Wt</t>
   </si>
 </sst>
 </file>
@@ -921,10 +921,10 @@
   <dimension ref="A1:BP982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D817" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG783" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U829" sqref="U829:U853"/>
+      <selection pane="bottomRight" activeCell="AJ832" sqref="AJ832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -971,21 +971,21 @@
         <v>75</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="30" t="s">
@@ -998,16 +998,16 @@
         <v>91</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="R1" s="30" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="S1" s="30" t="s">
         <v>3</v>
@@ -1019,9 +1019,9 @@
         <v>31</v>
       </c>
       <c r="V1" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="X1" s="30" t="s">
@@ -1034,22 +1034,22 @@
         <v>8</v>
       </c>
       <c r="AA1" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AB1" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AC1" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AD1" s="30" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AG1" s="30" t="s">
         <v>54</v>
@@ -1061,7 +1061,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" s="30" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK1" s="30" t="s">
         <v>74</v>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55414AE-ABB0-48B1-86CE-214AB30939B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF1E46-5BF1-4887-B80A-C6D280B44B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,16 +294,10 @@
     <t>BarkThickness</t>
   </si>
   <si>
-    <t>VolUB</t>
-  </si>
-  <si>
     <t>Pinus.Stem.WoodDensity</t>
   </si>
   <si>
     <t>Pinus.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Pinus.Aboveground.N</t>
   </si>
   <si>
     <t>Pinus.Fruit.Wt</t>
@@ -343,6 +337,12 @@
   </si>
   <si>
     <t>PurukiSInviolate</t>
+  </si>
+  <si>
+    <t>Pinus.Stem.Volub</t>
+  </si>
+  <si>
+    <t>Pinus.AboveGround.N</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +445,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -461,7 +467,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -531,6 +537,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="0.0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -913,10 +922,10 @@
   <dimension ref="A1:BP982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D809" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A829" sqref="A829"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -963,43 +972,43 @@
         <v>73</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="L1" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="Q1" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="R1" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="S1" s="29" t="s">
         <v>3</v>
@@ -1011,7 +1020,7 @@
         <v>30</v>
       </c>
       <c r="V1" s="29" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>54</v>
@@ -1041,7 +1050,7 @@
         <v>78</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AG1" s="29" t="s">
         <v>52</v>
@@ -1053,7 +1062,7 @@
         <v>36</v>
       </c>
       <c r="AJ1" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK1" s="29" t="s">
         <v>72</v>
@@ -27873,7 +27882,7 @@
     </row>
     <row r="828" spans="1:46">
       <c r="A828" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B828" s="16">
         <v>26860</v>
@@ -27933,7 +27942,7 @@
     </row>
     <row r="829" spans="1:46">
       <c r="A829" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B829" s="5">
         <v>27590.484400000001</v>
@@ -27948,16 +27957,24 @@
       <c r="E829" s="2">
         <v>1970</v>
       </c>
-      <c r="F829" s="6"/>
-      <c r="G829" s="6"/>
+      <c r="F829" s="6">
+        <f>G829+H829+J829+N829</f>
+        <v>210</v>
+      </c>
+      <c r="G829" s="6">
+        <v>0</v>
+      </c>
       <c r="H829" s="37">
         <v>90</v>
       </c>
       <c r="I829" s="38"/>
       <c r="J829" s="37">
-        <v>90</v>
-      </c>
-      <c r="K829" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="K829" s="37">
+        <f>J829+G829</f>
+        <v>50</v>
+      </c>
       <c r="L829" s="37">
         <v>20</v>
       </c>
@@ -27967,12 +27984,17 @@
       <c r="N829" s="38">
         <v>70</v>
       </c>
-      <c r="O829" s="38"/>
+      <c r="O829" s="38">
+        <f>N829+J829</f>
+        <v>120</v>
+      </c>
       <c r="P829" s="38"/>
       <c r="Q829" s="38"/>
       <c r="R829" s="38"/>
       <c r="S829" s="38"/>
-      <c r="T829" s="37"/>
+      <c r="T829" s="39">
+        <v>0.57295779513082323</v>
+      </c>
       <c r="U829" s="37"/>
       <c r="V829" s="37">
         <v>2.3860000000000001</v>
@@ -27984,13 +28006,15 @@
       <c r="AA829" s="2">
         <v>1.6</v>
       </c>
-      <c r="AB829" s="6"/>
+      <c r="AB829" s="6">
+        <v>1.3452442528293005</v>
+      </c>
       <c r="AC829" s="2">
         <v>0.28000000000000003</v>
       </c>
       <c r="AD829" s="2"/>
       <c r="AE829" s="2"/>
-      <c r="AF829" s="2"/>
+      <c r="AF829" s="40"/>
       <c r="AG829" s="2"/>
       <c r="AH829" s="2"/>
       <c r="AI829" s="2"/>
@@ -28012,7 +28036,7 @@
     </row>
     <row r="830" spans="1:46">
       <c r="A830" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B830" s="5">
         <v>27955.726600000002</v>
@@ -28027,16 +28051,24 @@
       <c r="E830" s="2">
         <v>1960</v>
       </c>
-      <c r="F830" s="6"/>
-      <c r="G830" s="6"/>
+      <c r="F830" s="6">
+        <f t="shared" ref="F830:F841" si="8">G830+H830+J830+N830</f>
+        <v>700</v>
+      </c>
+      <c r="G830" s="6">
+        <v>0</v>
+      </c>
       <c r="H830" s="37">
         <v>240</v>
       </c>
       <c r="I830" s="38"/>
       <c r="J830" s="37">
-        <v>240</v>
-      </c>
-      <c r="K830" s="37"/>
+        <v>170.00000000000003</v>
+      </c>
+      <c r="K830" s="37">
+        <f t="shared" ref="K830:K841" si="9">J830+G830</f>
+        <v>170.00000000000003</v>
+      </c>
       <c r="L830" s="37">
         <v>40</v>
       </c>
@@ -28046,12 +28078,17 @@
       <c r="N830" s="38">
         <v>290</v>
       </c>
-      <c r="O830" s="38"/>
+      <c r="O830" s="38">
+        <f t="shared" ref="O830:O841" si="10">N830+J830</f>
+        <v>460</v>
+      </c>
       <c r="P830" s="38"/>
       <c r="Q830" s="38"/>
       <c r="R830" s="38"/>
       <c r="S830" s="38"/>
-      <c r="T830" s="37"/>
+      <c r="T830" s="39">
+        <v>1.3369015219719209</v>
+      </c>
       <c r="U830" s="37"/>
       <c r="V830" s="37">
         <v>5.777000000000001</v>
@@ -28063,13 +28100,15 @@
       <c r="AA830" s="2">
         <v>2.6</v>
       </c>
-      <c r="AB830" s="6"/>
+      <c r="AB830" s="6">
+        <v>3.7975516930514694</v>
+      </c>
       <c r="AC830" s="2">
         <v>2.2200000000000002</v>
       </c>
       <c r="AD830" s="2"/>
       <c r="AE830" s="2"/>
-      <c r="AF830" s="2"/>
+      <c r="AF830" s="40"/>
       <c r="AG830" s="2"/>
       <c r="AH830" s="2"/>
       <c r="AI830" s="2"/>
@@ -28091,7 +28130,7 @@
     </row>
     <row r="831" spans="1:46">
       <c r="A831" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B831" s="5">
         <v>28320.968799999999</v>
@@ -28106,16 +28145,24 @@
       <c r="E831" s="2">
         <v>1960</v>
       </c>
-      <c r="F831" s="6"/>
-      <c r="G831" s="6"/>
+      <c r="F831" s="6">
+        <f t="shared" si="8"/>
+        <v>2360</v>
+      </c>
+      <c r="G831" s="6">
+        <v>0</v>
+      </c>
       <c r="H831" s="37">
         <v>800</v>
       </c>
       <c r="I831" s="38"/>
       <c r="J831" s="37">
-        <v>800</v>
-      </c>
-      <c r="K831" s="37"/>
+        <v>700</v>
+      </c>
+      <c r="K831" s="37">
+        <f t="shared" si="9"/>
+        <v>700</v>
+      </c>
       <c r="L831" s="37">
         <v>130</v>
       </c>
@@ -28125,12 +28172,17 @@
       <c r="N831" s="38">
         <v>860</v>
       </c>
-      <c r="O831" s="38"/>
+      <c r="O831" s="38">
+        <f t="shared" si="10"/>
+        <v>1560</v>
+      </c>
       <c r="P831" s="38"/>
       <c r="Q831" s="38"/>
       <c r="R831" s="38"/>
       <c r="S831" s="38"/>
-      <c r="T831" s="37"/>
+      <c r="T831" s="39">
+        <v>4.45633840657307</v>
+      </c>
       <c r="U831" s="37"/>
       <c r="V831" s="37">
         <v>17.087</v>
@@ -28142,13 +28194,15 @@
       <c r="AA831" s="2">
         <v>3.8</v>
       </c>
-      <c r="AB831" s="6"/>
+      <c r="AB831" s="6">
+        <v>6.6316491464530074</v>
+      </c>
       <c r="AC831" s="2">
         <v>6.77</v>
       </c>
       <c r="AD831" s="2"/>
       <c r="AE831" s="2"/>
-      <c r="AF831" s="2"/>
+      <c r="AF831" s="40"/>
       <c r="AG831" s="2"/>
       <c r="AH831" s="2"/>
       <c r="AI831" s="2"/>
@@ -28170,7 +28224,7 @@
     </row>
     <row r="832" spans="1:46">
       <c r="A832" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B832" s="5">
         <v>28686.210999999999</v>
@@ -28185,16 +28239,24 @@
       <c r="E832" s="2">
         <v>1950</v>
       </c>
-      <c r="F832" s="6"/>
-      <c r="G832" s="6"/>
+      <c r="F832" s="6">
+        <f t="shared" si="8"/>
+        <v>4380</v>
+      </c>
+      <c r="G832" s="6">
+        <v>10</v>
+      </c>
       <c r="H832" s="37">
         <v>1250</v>
       </c>
       <c r="I832" s="38"/>
       <c r="J832" s="37">
-        <v>1250</v>
-      </c>
-      <c r="K832" s="37"/>
+        <v>1410</v>
+      </c>
+      <c r="K832" s="37">
+        <f t="shared" si="9"/>
+        <v>1420</v>
+      </c>
       <c r="L832" s="37">
         <v>200</v>
       </c>
@@ -28204,12 +28266,17 @@
       <c r="N832" s="38">
         <v>1710.0000000000002</v>
       </c>
-      <c r="O832" s="38"/>
+      <c r="O832" s="38">
+        <f t="shared" si="10"/>
+        <v>3120</v>
+      </c>
       <c r="P832" s="38"/>
       <c r="Q832" s="38"/>
       <c r="R832" s="38"/>
       <c r="S832" s="38"/>
-      <c r="T832" s="37"/>
+      <c r="T832" s="39">
+        <v>6.3980287122941935</v>
+      </c>
       <c r="U832" s="37"/>
       <c r="V832" s="37">
         <v>28.094999999999999</v>
@@ -28221,15 +28288,17 @@
       <c r="AA832" s="2">
         <v>5.7</v>
       </c>
-      <c r="AB832" s="6"/>
+      <c r="AB832" s="6">
+        <v>10.157024044040933</v>
+      </c>
       <c r="AC832" s="2">
         <v>15.8</v>
       </c>
-      <c r="AD832" s="2">
+      <c r="AD832" s="2"/>
+      <c r="AE832" s="2"/>
+      <c r="AF832" s="41">
         <v>47.7</v>
       </c>
-      <c r="AE832" s="2"/>
-      <c r="AF832" s="2"/>
       <c r="AG832" s="2"/>
       <c r="AH832" s="2"/>
       <c r="AI832" s="2"/>
@@ -28253,7 +28322,7 @@
     </row>
     <row r="833" spans="1:46">
       <c r="A833" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B833" s="5">
         <v>29047.800778000001</v>
@@ -28268,16 +28337,24 @@
       <c r="E833" s="2">
         <v>1950</v>
       </c>
-      <c r="F833" s="6"/>
-      <c r="G833" s="6"/>
+      <c r="F833" s="6">
+        <f t="shared" si="8"/>
+        <v>6860</v>
+      </c>
+      <c r="G833" s="6">
+        <v>0</v>
+      </c>
       <c r="H833" s="37">
         <v>1889.9999999999998</v>
       </c>
       <c r="I833" s="38"/>
       <c r="J833" s="37">
-        <v>1889.9999999999998</v>
-      </c>
-      <c r="K833" s="37"/>
+        <v>2150</v>
+      </c>
+      <c r="K833" s="37">
+        <f t="shared" si="9"/>
+        <v>2150</v>
+      </c>
       <c r="L833" s="37">
         <v>380</v>
       </c>
@@ -28287,12 +28364,17 @@
       <c r="N833" s="38">
         <v>2820</v>
       </c>
-      <c r="O833" s="38"/>
+      <c r="O833" s="38">
+        <f t="shared" si="10"/>
+        <v>4970</v>
+      </c>
       <c r="P833" s="38"/>
       <c r="Q833" s="38"/>
       <c r="R833" s="38"/>
       <c r="S833" s="38"/>
-      <c r="T833" s="37"/>
+      <c r="T833" s="39">
+        <v>9.899437460315891</v>
+      </c>
       <c r="U833" s="37"/>
       <c r="V833" s="37">
         <v>36.758000000000003</v>
@@ -28304,15 +28386,17 @@
       <c r="AA833" s="2">
         <v>8.4</v>
       </c>
-      <c r="AB833" s="6"/>
+      <c r="AB833" s="6">
+        <v>12.570299347501685</v>
+      </c>
       <c r="AC833" s="2">
         <v>24.2</v>
       </c>
-      <c r="AD833" s="2">
+      <c r="AD833" s="2"/>
+      <c r="AE833" s="2"/>
+      <c r="AF833" s="41">
         <v>84.3</v>
       </c>
-      <c r="AE833" s="2"/>
-      <c r="AF833" s="2"/>
       <c r="AG833" s="2"/>
       <c r="AH833" s="2"/>
       <c r="AI833" s="2"/>
@@ -28336,7 +28420,7 @@
     </row>
     <row r="834" spans="1:46">
       <c r="A834" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B834" s="5">
         <v>29051.4532</v>
@@ -28351,16 +28435,24 @@
       <c r="E834" s="2">
         <v>495</v>
       </c>
-      <c r="F834" s="6"/>
-      <c r="G834" s="6"/>
+      <c r="F834" s="6">
+        <f t="shared" si="8"/>
+        <v>1810</v>
+      </c>
+      <c r="G834" s="6">
+        <v>0</v>
+      </c>
       <c r="H834" s="37">
         <v>360</v>
       </c>
       <c r="I834" s="38"/>
       <c r="J834" s="37">
-        <v>360</v>
-      </c>
-      <c r="K834" s="37"/>
+        <v>459.99999999999994</v>
+      </c>
+      <c r="K834" s="37">
+        <f t="shared" si="9"/>
+        <v>459.99999999999994</v>
+      </c>
       <c r="L834" s="37">
         <v>130</v>
       </c>
@@ -28370,12 +28462,17 @@
       <c r="N834" s="38">
         <v>990</v>
       </c>
-      <c r="O834" s="38"/>
+      <c r="O834" s="38">
+        <f t="shared" si="10"/>
+        <v>1450</v>
+      </c>
       <c r="P834" s="38"/>
       <c r="Q834" s="38"/>
       <c r="R834" s="38"/>
       <c r="S834" s="38"/>
-      <c r="T834" s="37"/>
+      <c r="T834" s="39">
+        <v>2.1645072260497766</v>
+      </c>
       <c r="U834" s="37"/>
       <c r="V834" s="37">
         <v>8.995000000000001</v>
@@ -28387,15 +28484,17 @@
       <c r="AA834" s="2">
         <v>8.4</v>
       </c>
-      <c r="AB834" s="6"/>
+      <c r="AB834" s="6">
+        <v>14.838483756073707</v>
+      </c>
       <c r="AC834" s="2">
         <v>8.56</v>
       </c>
-      <c r="AD834" s="2">
+      <c r="AD834" s="2"/>
+      <c r="AE834" s="2"/>
+      <c r="AF834" s="41">
         <v>29.8</v>
       </c>
-      <c r="AE834" s="2"/>
-      <c r="AF834" s="2"/>
       <c r="AG834" s="2"/>
       <c r="AH834" s="2"/>
       <c r="AI834" s="2"/>
@@ -28419,7 +28518,7 @@
     </row>
     <row r="835" spans="1:46">
       <c r="A835" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B835" s="5">
         <v>29416.695400000001</v>
@@ -28434,16 +28533,24 @@
       <c r="E835" s="2">
         <v>495</v>
       </c>
-      <c r="F835" s="6"/>
-      <c r="G835" s="6"/>
+      <c r="F835" s="6">
+        <f t="shared" si="8"/>
+        <v>3120</v>
+      </c>
+      <c r="G835" s="6">
+        <v>10</v>
+      </c>
       <c r="H835" s="37">
         <v>480</v>
       </c>
       <c r="I835" s="38"/>
       <c r="J835" s="37">
-        <v>480</v>
-      </c>
-      <c r="K835" s="37"/>
+        <v>800</v>
+      </c>
+      <c r="K835" s="37">
+        <f t="shared" si="9"/>
+        <v>810</v>
+      </c>
       <c r="L835" s="37">
         <v>200</v>
       </c>
@@ -28453,12 +28560,17 @@
       <c r="N835" s="38">
         <v>1830</v>
       </c>
-      <c r="O835" s="38"/>
+      <c r="O835" s="38">
+        <f t="shared" si="10"/>
+        <v>2630</v>
+      </c>
       <c r="P835" s="38"/>
       <c r="Q835" s="38"/>
       <c r="R835" s="38"/>
       <c r="S835" s="38"/>
-      <c r="T835" s="37"/>
+      <c r="T835" s="39">
+        <v>2.5783100780887045</v>
+      </c>
       <c r="U835" s="37"/>
       <c r="V835" s="37">
         <v>15.559000000000001</v>
@@ -28470,15 +28582,17 @@
       <c r="AA835" s="2">
         <v>9.6</v>
       </c>
-      <c r="AB835" s="6"/>
+      <c r="AB835" s="6">
+        <v>18.426362420514121</v>
+      </c>
       <c r="AC835" s="2">
         <v>13.2</v>
       </c>
-      <c r="AD835" s="2">
+      <c r="AD835" s="2"/>
+      <c r="AE835" s="2"/>
+      <c r="AF835" s="41">
         <v>55.1</v>
       </c>
-      <c r="AE835" s="2"/>
-      <c r="AF835" s="2"/>
       <c r="AG835" s="2"/>
       <c r="AH835" s="2"/>
       <c r="AI835" s="2"/>
@@ -28502,7 +28616,7 @@
     </row>
     <row r="836" spans="1:46">
       <c r="A836" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B836" s="5">
         <v>29781.937600000001</v>
@@ -28517,16 +28631,24 @@
       <c r="E836" s="2">
         <v>495</v>
       </c>
-      <c r="F836" s="6"/>
-      <c r="G836" s="6"/>
+      <c r="F836" s="6">
+        <f t="shared" si="8"/>
+        <v>5560</v>
+      </c>
+      <c r="G836" s="6">
+        <v>0</v>
+      </c>
       <c r="H836" s="37">
         <v>860</v>
       </c>
       <c r="I836" s="38"/>
       <c r="J836" s="37">
-        <v>860</v>
-      </c>
-      <c r="K836" s="37"/>
+        <v>1480</v>
+      </c>
+      <c r="K836" s="37">
+        <f t="shared" si="9"/>
+        <v>1480</v>
+      </c>
       <c r="L836" s="37">
         <v>340</v>
       </c>
@@ -28536,12 +28658,17 @@
       <c r="N836" s="38">
         <v>3220.0000000000005</v>
       </c>
-      <c r="O836" s="38"/>
+      <c r="O836" s="38">
+        <f t="shared" si="10"/>
+        <v>4700</v>
+      </c>
       <c r="P836" s="38"/>
       <c r="Q836" s="38"/>
       <c r="R836" s="38"/>
       <c r="S836" s="38"/>
-      <c r="T836" s="37"/>
+      <c r="T836" s="39">
+        <v>4.5836623610465859</v>
+      </c>
       <c r="U836" s="37"/>
       <c r="V836" s="37">
         <v>23.824000000000002</v>
@@ -28553,15 +28680,17 @@
       <c r="AA836" s="2">
         <v>11.3</v>
       </c>
-      <c r="AB836" s="6"/>
+      <c r="AB836" s="6">
+        <v>22.22302923634555</v>
+      </c>
       <c r="AC836" s="2">
         <v>19.2</v>
       </c>
-      <c r="AD836" s="2">
+      <c r="AD836" s="2"/>
+      <c r="AE836" s="2"/>
+      <c r="AF836" s="41">
         <v>93.9</v>
       </c>
-      <c r="AE836" s="2"/>
-      <c r="AF836" s="2"/>
       <c r="AG836" s="2"/>
       <c r="AH836" s="2"/>
       <c r="AI836" s="2"/>
@@ -28585,7 +28714,7 @@
     </row>
     <row r="837" spans="1:46">
       <c r="A837" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B837" s="5">
         <v>30147.179800000002</v>
@@ -28600,16 +28729,24 @@
       <c r="E837" s="2">
         <v>495</v>
       </c>
-      <c r="F837" s="6"/>
-      <c r="G837" s="6"/>
+      <c r="F837" s="6">
+        <f t="shared" si="8"/>
+        <v>8430</v>
+      </c>
+      <c r="G837" s="6">
+        <v>50</v>
+      </c>
       <c r="H837" s="37">
         <v>1170</v>
       </c>
       <c r="I837" s="38"/>
       <c r="J837" s="37">
-        <v>1170</v>
-      </c>
-      <c r="K837" s="37"/>
+        <v>2150</v>
+      </c>
+      <c r="K837" s="37">
+        <f t="shared" si="9"/>
+        <v>2200</v>
+      </c>
       <c r="L837" s="37">
         <v>500</v>
       </c>
@@ -28619,12 +28756,17 @@
       <c r="N837" s="38">
         <v>5060</v>
       </c>
-      <c r="O837" s="38"/>
+      <c r="O837" s="38">
+        <f t="shared" si="10"/>
+        <v>7210</v>
+      </c>
       <c r="P837" s="38"/>
       <c r="Q837" s="38"/>
       <c r="R837" s="38"/>
       <c r="S837" s="38"/>
-      <c r="T837" s="37"/>
+      <c r="T837" s="39">
+        <v>5.5704230082163368</v>
+      </c>
       <c r="U837" s="37"/>
       <c r="V837" s="37">
         <v>28.786000000000001</v>
@@ -28636,15 +28778,17 @@
       <c r="AA837" s="2">
         <v>13.2</v>
       </c>
-      <c r="AB837" s="6"/>
+      <c r="AB837" s="6">
+        <v>25.205836793512571</v>
+      </c>
       <c r="AC837" s="2">
         <v>24.7</v>
       </c>
-      <c r="AD837" s="2">
+      <c r="AD837" s="2"/>
+      <c r="AE837" s="2"/>
+      <c r="AF837" s="41">
         <v>132.6</v>
       </c>
-      <c r="AE837" s="2"/>
-      <c r="AF837" s="2"/>
       <c r="AG837" s="2"/>
       <c r="AH837" s="2"/>
       <c r="AI837" s="2"/>
@@ -28668,7 +28812,7 @@
     </row>
     <row r="838" spans="1:46">
       <c r="A838" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B838" s="5">
         <v>30508.769577999999</v>
@@ -28683,16 +28827,24 @@
       <c r="E838" s="2">
         <v>495</v>
       </c>
-      <c r="F838" s="6"/>
-      <c r="G838" s="6"/>
+      <c r="F838" s="6">
+        <f t="shared" si="8"/>
+        <v>10560</v>
+      </c>
+      <c r="G838" s="6">
+        <v>60</v>
+      </c>
       <c r="H838" s="37">
         <v>1140</v>
       </c>
       <c r="I838" s="38"/>
       <c r="J838" s="37">
-        <v>1140</v>
-      </c>
-      <c r="K838" s="37"/>
+        <v>3270.0000000000005</v>
+      </c>
+      <c r="K838" s="37">
+        <f t="shared" si="9"/>
+        <v>3330.0000000000005</v>
+      </c>
       <c r="L838" s="37">
         <v>610</v>
       </c>
@@ -28702,12 +28854,17 @@
       <c r="N838" s="38">
         <v>6090</v>
       </c>
-      <c r="O838" s="38"/>
+      <c r="O838" s="38">
+        <f t="shared" si="10"/>
+        <v>9360</v>
+      </c>
       <c r="P838" s="38"/>
       <c r="Q838" s="38"/>
       <c r="R838" s="38"/>
       <c r="S838" s="38"/>
-      <c r="T838" s="37"/>
+      <c r="T838" s="39">
+        <v>5.79323992854499</v>
+      </c>
       <c r="U838" s="37"/>
       <c r="V838" s="37">
         <v>32.752000000000002</v>
@@ -28719,15 +28876,17 @@
       <c r="AA838" s="2">
         <v>15.4</v>
       </c>
-      <c r="AB838" s="6"/>
+      <c r="AB838" s="6">
+        <v>27.871228686279956</v>
+      </c>
       <c r="AC838" s="2">
         <v>30.2</v>
       </c>
-      <c r="AD838" s="2">
+      <c r="AD838" s="2"/>
+      <c r="AE838" s="2"/>
+      <c r="AF838" s="41">
         <v>160.1</v>
       </c>
-      <c r="AE838" s="2"/>
-      <c r="AF838" s="2"/>
       <c r="AG838" s="2"/>
       <c r="AH838" s="2"/>
       <c r="AI838" s="2"/>
@@ -28751,7 +28910,7 @@
     </row>
     <row r="839" spans="1:46">
       <c r="A839" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B839" s="5">
         <v>30512.421999999999</v>
@@ -28766,16 +28925,24 @@
       <c r="E839" s="2">
         <v>159</v>
       </c>
-      <c r="F839" s="6"/>
-      <c r="G839" s="6"/>
+      <c r="F839" s="6">
+        <f t="shared" si="8"/>
+        <v>3510</v>
+      </c>
+      <c r="G839" s="6">
+        <v>20</v>
+      </c>
       <c r="H839" s="37">
         <v>380</v>
       </c>
       <c r="I839" s="38"/>
       <c r="J839" s="37">
-        <v>380</v>
-      </c>
-      <c r="K839" s="37"/>
+        <v>1090</v>
+      </c>
+      <c r="K839" s="37">
+        <f t="shared" si="9"/>
+        <v>1110</v>
+      </c>
       <c r="L839" s="37">
         <v>200</v>
       </c>
@@ -28785,12 +28952,17 @@
       <c r="N839" s="38">
         <v>2020</v>
       </c>
-      <c r="O839" s="38"/>
+      <c r="O839" s="38">
+        <f t="shared" si="10"/>
+        <v>3110</v>
+      </c>
       <c r="P839" s="38"/>
       <c r="Q839" s="38"/>
       <c r="R839" s="38"/>
       <c r="S839" s="38"/>
-      <c r="T839" s="37"/>
+      <c r="T839" s="39">
+        <v>1.941690305721123</v>
+      </c>
       <c r="U839" s="37"/>
       <c r="V839" s="37">
         <v>10.88</v>
@@ -28802,15 +28974,17 @@
       <c r="AA839" s="2">
         <v>15.4</v>
       </c>
-      <c r="AB839" s="6"/>
+      <c r="AB839" s="6">
+        <v>28.298061139836122</v>
+      </c>
       <c r="AC839" s="2">
         <v>10</v>
       </c>
-      <c r="AD839" s="2">
+      <c r="AD839" s="2"/>
+      <c r="AE839" s="2"/>
+      <c r="AF839" s="41">
         <v>53.2</v>
       </c>
-      <c r="AE839" s="2"/>
-      <c r="AF839" s="2"/>
       <c r="AG839" s="2"/>
       <c r="AH839" s="2"/>
       <c r="AI839" s="2"/>
@@ -28834,7 +29008,7 @@
     </row>
     <row r="840" spans="1:46">
       <c r="A840" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B840" s="5">
         <v>30877.664199999999</v>
@@ -28849,16 +29023,24 @@
       <c r="E840" s="2">
         <v>156</v>
       </c>
-      <c r="F840" s="6"/>
-      <c r="G840" s="6"/>
+      <c r="F840" s="6">
+        <f t="shared" si="8"/>
+        <v>5340</v>
+      </c>
+      <c r="G840" s="6">
+        <v>50</v>
+      </c>
       <c r="H840" s="37">
         <v>440.00000000000006</v>
       </c>
       <c r="I840" s="38"/>
       <c r="J840" s="37">
-        <v>440.00000000000006</v>
-      </c>
-      <c r="K840" s="37"/>
+        <v>1520</v>
+      </c>
+      <c r="K840" s="37">
+        <f t="shared" si="9"/>
+        <v>1570</v>
+      </c>
       <c r="L840" s="37">
         <v>300</v>
       </c>
@@ -28868,12 +29050,17 @@
       <c r="N840" s="38">
         <v>3329.9999999999995</v>
       </c>
-      <c r="O840" s="38"/>
+      <c r="O840" s="38">
+        <f t="shared" si="10"/>
+        <v>4850</v>
+      </c>
       <c r="P840" s="38"/>
       <c r="Q840" s="38"/>
       <c r="R840" s="38"/>
       <c r="S840" s="38"/>
-      <c r="T840" s="37"/>
+      <c r="T840" s="39">
+        <v>1.9735212943395024</v>
+      </c>
       <c r="U840" s="37"/>
       <c r="V840" s="37">
         <v>16.393000000000001</v>
@@ -28885,15 +29072,17 @@
       <c r="AA840" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="AB840" s="6"/>
+      <c r="AB840" s="6">
+        <v>32.573514550366255</v>
+      </c>
       <c r="AC840" s="2">
         <v>13</v>
       </c>
-      <c r="AD840" s="2">
+      <c r="AD840" s="2"/>
+      <c r="AE840" s="2"/>
+      <c r="AF840" s="41">
         <v>86.7</v>
       </c>
-      <c r="AE840" s="2"/>
-      <c r="AF840" s="2"/>
       <c r="AG840" s="2"/>
       <c r="AH840" s="2"/>
       <c r="AI840" s="2"/>
@@ -28917,7 +29106,7 @@
     </row>
     <row r="841" spans="1:46">
       <c r="A841" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B841" s="5">
         <v>31242.9064</v>
@@ -28932,16 +29121,24 @@
       <c r="E841" s="2">
         <v>156</v>
       </c>
-      <c r="F841" s="6"/>
-      <c r="G841" s="6"/>
+      <c r="F841" s="6">
+        <f t="shared" si="8"/>
+        <v>7200</v>
+      </c>
+      <c r="G841" s="6">
+        <v>80</v>
+      </c>
       <c r="H841" s="37">
         <v>700</v>
       </c>
       <c r="I841" s="38"/>
       <c r="J841" s="37">
-        <v>700</v>
-      </c>
-      <c r="K841" s="37"/>
+        <v>1940.0000000000002</v>
+      </c>
+      <c r="K841" s="37">
+        <f t="shared" si="9"/>
+        <v>2020.0000000000002</v>
+      </c>
       <c r="L841" s="37">
         <v>450</v>
       </c>
@@ -28951,12 +29148,17 @@
       <c r="N841" s="38">
         <v>4480</v>
       </c>
-      <c r="O841" s="38"/>
+      <c r="O841" s="38">
+        <f t="shared" si="10"/>
+        <v>6420</v>
+      </c>
       <c r="P841" s="38"/>
       <c r="Q841" s="38"/>
       <c r="R841" s="38"/>
       <c r="S841" s="38"/>
-      <c r="T841" s="37"/>
+      <c r="T841" s="39">
+        <v>3.3740847935481812</v>
+      </c>
       <c r="U841" s="37"/>
       <c r="V841" s="37">
         <v>21.397000000000002</v>
@@ -28968,15 +29170,17 @@
       <c r="AA841" s="2">
         <v>19.3</v>
       </c>
-      <c r="AB841" s="6"/>
+      <c r="AB841" s="6">
+        <v>36.585994738079251</v>
+      </c>
       <c r="AC841" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="AD841" s="2">
+      <c r="AD841" s="2"/>
+      <c r="AE841" s="2"/>
+      <c r="AF841" s="41">
         <v>111.6</v>
       </c>
-      <c r="AE841" s="2"/>
-      <c r="AF841" s="2"/>
       <c r="AG841" s="2"/>
       <c r="AH841" s="2"/>
       <c r="AI841" s="2"/>
@@ -29000,7 +29204,7 @@
     </row>
     <row r="842" spans="1:46">
       <c r="A842" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B842" s="16">
         <v>26860</v>
@@ -29015,10 +29219,9 @@
         <v>2220</v>
       </c>
       <c r="F842" s="6"/>
-      <c r="G842" s="6"/>
       <c r="H842" s="38"/>
       <c r="I842" s="38"/>
-      <c r="J842" s="38"/>
+      <c r="J842" s="37"/>
       <c r="K842" s="38"/>
       <c r="L842" s="38"/>
       <c r="M842" s="38"/>
@@ -29028,7 +29231,6 @@
       <c r="Q842" s="38"/>
       <c r="R842" s="38"/>
       <c r="S842" s="38"/>
-      <c r="T842" s="38"/>
       <c r="U842" s="37"/>
       <c r="V842" s="38"/>
       <c r="W842" s="38"/>
@@ -29060,7 +29262,7 @@
     </row>
     <row r="843" spans="1:46">
       <c r="A843" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B843" s="5">
         <v>27590.484400000001</v>
@@ -29069,14 +29271,13 @@
         <v>2</v>
       </c>
       <c r="D843" s="6">
-        <f t="shared" ref="D843:D853" si="8">E843*100/2220</f>
+        <f t="shared" ref="D843:D853" si="11">E843*100/2220</f>
         <v>88.963963963963963</v>
       </c>
       <c r="E843" s="2">
         <v>1975</v>
       </c>
       <c r="F843" s="6"/>
-      <c r="G843" s="6"/>
       <c r="H843" s="38"/>
       <c r="I843" s="38"/>
       <c r="J843" s="38"/>
@@ -29099,7 +29300,9 @@
       <c r="AA843" s="2">
         <v>1.8</v>
       </c>
-      <c r="AB843" s="6"/>
+      <c r="AB843" s="6">
+        <v>1.9169426521686781</v>
+      </c>
       <c r="AC843" s="2">
         <v>0.56999999999999995</v>
       </c>
@@ -29125,7 +29328,7 @@
     </row>
     <row r="844" spans="1:46">
       <c r="A844" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B844" s="5">
         <v>27955.726600000002</v>
@@ -29134,14 +29337,13 @@
         <v>3</v>
       </c>
       <c r="D844" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>87.162162162162161</v>
       </c>
       <c r="E844" s="2">
         <v>1935</v>
       </c>
       <c r="F844" s="6"/>
-      <c r="G844" s="6"/>
       <c r="H844" s="38"/>
       <c r="I844" s="38"/>
       <c r="J844" s="38"/>
@@ -29164,7 +29366,9 @@
       <c r="AA844" s="2">
         <v>2.9</v>
       </c>
-      <c r="AB844" s="6"/>
+      <c r="AB844" s="6">
+        <v>4.7714767002648442</v>
+      </c>
       <c r="AC844" s="2">
         <v>3.46</v>
       </c>
@@ -29190,7 +29394,7 @@
     </row>
     <row r="845" spans="1:46">
       <c r="A845" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B845" s="5">
         <v>28320.968799999999</v>
@@ -29199,14 +29403,13 @@
         <v>4</v>
       </c>
       <c r="D845" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>86.936936936936931</v>
       </c>
       <c r="E845" s="2">
         <v>1930</v>
       </c>
       <c r="F845" s="6"/>
-      <c r="G845" s="6"/>
       <c r="H845" s="38"/>
       <c r="I845" s="38"/>
       <c r="J845" s="38"/>
@@ -29229,7 +29432,9 @@
       <c r="AA845" s="2">
         <v>4.3</v>
       </c>
-      <c r="AB845" s="6"/>
+      <c r="AB845" s="6">
+        <v>8.0488221679828911</v>
+      </c>
       <c r="AC845" s="2">
         <v>9.82</v>
       </c>
@@ -29255,7 +29460,7 @@
     </row>
     <row r="846" spans="1:46">
       <c r="A846" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B846" s="5">
         <v>28686.210999999999</v>
@@ -29264,14 +29469,13 @@
         <v>5</v>
       </c>
       <c r="D846" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>86.936936936936931</v>
       </c>
       <c r="E846" s="2">
         <v>1930</v>
       </c>
       <c r="F846" s="6"/>
-      <c r="G846" s="6"/>
       <c r="H846" s="38"/>
       <c r="I846" s="38"/>
       <c r="J846" s="38"/>
@@ -29294,15 +29498,16 @@
       <c r="AA846" s="2">
         <v>6.3</v>
       </c>
-      <c r="AB846" s="6"/>
+      <c r="AB846" s="6">
+        <v>11.543892476660128</v>
+      </c>
       <c r="AC846" s="2">
         <v>20.2</v>
       </c>
-      <c r="AD846" s="2">
+      <c r="AE846" s="2"/>
+      <c r="AF846" s="2">
         <v>69.5</v>
       </c>
-      <c r="AE846" s="2"/>
-      <c r="AF846" s="2"/>
       <c r="AG846" s="2"/>
       <c r="AH846" s="2"/>
       <c r="AI846" s="2"/>
@@ -29322,7 +29527,7 @@
     </row>
     <row r="847" spans="1:46">
       <c r="A847" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B847" s="5">
         <v>29051.4532</v>
@@ -29331,14 +29536,13 @@
         <v>6</v>
       </c>
       <c r="D847" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>86.036036036036037</v>
       </c>
       <c r="E847" s="2">
         <v>1910</v>
       </c>
       <c r="F847" s="6"/>
-      <c r="G847" s="6"/>
       <c r="H847" s="38"/>
       <c r="I847" s="38"/>
       <c r="J847" s="38"/>
@@ -29361,15 +29565,16 @@
       <c r="AA847" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB847" s="6"/>
+      <c r="AB847" s="6">
+        <v>13.975661374215719</v>
+      </c>
       <c r="AC847" s="2">
         <v>29.3</v>
       </c>
-      <c r="AD847" s="2">
+      <c r="AE847" s="2"/>
+      <c r="AF847" s="2">
         <v>119.6</v>
       </c>
-      <c r="AE847" s="2"/>
-      <c r="AF847" s="2"/>
       <c r="AG847" s="2"/>
       <c r="AH847" s="2"/>
       <c r="AI847" s="2"/>
@@ -29389,7 +29594,7 @@
     </row>
     <row r="848" spans="1:46">
       <c r="A848" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B848" s="5">
         <v>29416.695400000001</v>
@@ -29398,14 +29603,13 @@
         <v>7</v>
       </c>
       <c r="D848" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>85.810810810810807</v>
       </c>
       <c r="E848" s="2">
         <v>1905</v>
       </c>
       <c r="F848" s="6"/>
-      <c r="G848" s="6"/>
       <c r="H848" s="38"/>
       <c r="I848" s="38"/>
       <c r="J848" s="38"/>
@@ -29428,15 +29632,16 @@
       <c r="AA848" s="2">
         <v>9.6</v>
       </c>
-      <c r="AB848" s="6"/>
+      <c r="AB848" s="6">
+        <v>15.915759123580655</v>
+      </c>
       <c r="AC848" s="2">
         <v>37.9</v>
       </c>
-      <c r="AD848" s="2">
+      <c r="AE848" s="2"/>
+      <c r="AF848" s="2">
         <v>172.5</v>
       </c>
-      <c r="AE848" s="2"/>
-      <c r="AF848" s="2"/>
       <c r="AG848" s="2"/>
       <c r="AH848" s="2"/>
       <c r="AI848" s="2"/>
@@ -29456,7 +29661,7 @@
     </row>
     <row r="849" spans="1:46">
       <c r="A849" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B849" s="5">
         <v>29781.937600000001</v>
@@ -29465,14 +29670,13 @@
         <v>8</v>
       </c>
       <c r="D849" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>84.459459459459453</v>
       </c>
       <c r="E849" s="2">
         <v>1875</v>
       </c>
       <c r="F849" s="6"/>
-      <c r="G849" s="6"/>
       <c r="H849" s="38"/>
       <c r="I849" s="38"/>
       <c r="J849" s="38"/>
@@ -29495,15 +29699,16 @@
       <c r="AA849" s="2">
         <v>10.9</v>
       </c>
-      <c r="AB849" s="6"/>
+      <c r="AB849" s="6">
+        <v>17.048119903280465</v>
+      </c>
       <c r="AC849" s="2">
         <v>42.8</v>
       </c>
-      <c r="AD849" s="2">
+      <c r="AE849" s="2"/>
+      <c r="AF849" s="2">
         <v>217.3</v>
       </c>
-      <c r="AE849" s="2"/>
-      <c r="AF849" s="2"/>
       <c r="AG849" s="2"/>
       <c r="AH849" s="2"/>
       <c r="AI849" s="2"/>
@@ -29523,7 +29728,7 @@
     </row>
     <row r="850" spans="1:46">
       <c r="A850" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B850" s="5">
         <v>30147.179800000002</v>
@@ -29532,14 +29737,13 @@
         <v>9</v>
       </c>
       <c r="D850" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>78.828828828828833</v>
       </c>
       <c r="E850" s="2">
         <v>1750</v>
       </c>
       <c r="F850" s="6"/>
-      <c r="G850" s="6"/>
       <c r="H850" s="38"/>
       <c r="I850" s="38"/>
       <c r="J850" s="38"/>
@@ -29562,15 +29766,16 @@
       <c r="AA850" s="2">
         <v>12.4</v>
       </c>
-      <c r="AB850" s="6"/>
+      <c r="AB850" s="6">
+        <v>18.353830384971328</v>
+      </c>
       <c r="AC850" s="2">
         <v>46.3</v>
       </c>
-      <c r="AD850" s="2">
+      <c r="AE850" s="2"/>
+      <c r="AF850" s="2">
         <v>259.89999999999998</v>
       </c>
-      <c r="AE850" s="2"/>
-      <c r="AF850" s="2"/>
       <c r="AG850" s="2"/>
       <c r="AH850" s="2"/>
       <c r="AI850" s="2"/>
@@ -29590,7 +29795,7 @@
     </row>
     <row r="851" spans="1:46">
       <c r="A851" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B851" s="5">
         <v>30512.421999999999</v>
@@ -29599,14 +29804,13 @@
         <v>10</v>
       </c>
       <c r="D851" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>74.099099099099092</v>
       </c>
       <c r="E851" s="2">
         <v>1645</v>
       </c>
       <c r="F851" s="6"/>
-      <c r="G851" s="6"/>
       <c r="H851" s="38"/>
       <c r="I851" s="38"/>
       <c r="J851" s="38"/>
@@ -29629,15 +29833,16 @@
       <c r="AA851" s="2">
         <v>13.9</v>
       </c>
-      <c r="AB851" s="6"/>
+      <c r="AB851" s="6">
+        <v>19.984677413450651</v>
+      </c>
       <c r="AC851" s="2">
         <v>51.6</v>
       </c>
-      <c r="AD851" s="2">
+      <c r="AE851" s="2"/>
+      <c r="AF851" s="2">
         <v>318.8</v>
       </c>
-      <c r="AE851" s="2"/>
-      <c r="AF851" s="2"/>
       <c r="AG851" s="2"/>
       <c r="AH851" s="2"/>
       <c r="AI851" s="2"/>
@@ -29657,7 +29862,7 @@
     </row>
     <row r="852" spans="1:46">
       <c r="A852" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B852" s="5">
         <v>30877.664199999999</v>
@@ -29666,14 +29871,13 @@
         <v>11</v>
       </c>
       <c r="D852" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>72.522522522522522</v>
       </c>
       <c r="E852" s="2">
         <v>1610</v>
       </c>
       <c r="F852" s="6"/>
-      <c r="G852" s="6"/>
       <c r="H852" s="38"/>
       <c r="I852" s="38"/>
       <c r="J852" s="38"/>
@@ -29696,15 +29900,16 @@
       <c r="AA852" s="2">
         <v>15.3</v>
       </c>
-      <c r="AB852" s="6"/>
+      <c r="AB852" s="6">
+        <v>20.987944268713981</v>
+      </c>
       <c r="AC852" s="2">
         <v>55.7</v>
       </c>
-      <c r="AD852" s="2">
+      <c r="AE852" s="2"/>
+      <c r="AF852" s="2">
         <v>365.2</v>
       </c>
-      <c r="AE852" s="2"/>
-      <c r="AF852" s="2"/>
       <c r="AG852" s="2"/>
       <c r="AH852" s="2"/>
       <c r="AI852" s="2"/>
@@ -29724,7 +29929,7 @@
     </row>
     <row r="853" spans="1:46">
       <c r="A853" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B853" s="5">
         <v>31242.9064</v>
@@ -29733,20 +29938,30 @@
         <v>12</v>
       </c>
       <c r="D853" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>69.819819819819813</v>
       </c>
       <c r="E853" s="2">
         <v>1550</v>
       </c>
-      <c r="F853" s="6"/>
-      <c r="G853" s="6"/>
+      <c r="F853" s="6">
+        <f t="shared" ref="F853" si="12">G853+H853+J853+N853</f>
+        <v>23020</v>
+      </c>
+      <c r="G853" s="6">
+        <v>110.00000000000001</v>
+      </c>
       <c r="H853" s="37">
         <v>1350</v>
       </c>
       <c r="I853" s="38"/>
-      <c r="J853" s="37"/>
-      <c r="K853" s="37"/>
+      <c r="J853" s="37">
+        <v>5290</v>
+      </c>
+      <c r="K853" s="37">
+        <f t="shared" ref="K853" si="13">J853+G853</f>
+        <v>5400</v>
+      </c>
       <c r="L853" s="37">
         <v>1500</v>
       </c>
@@ -29756,12 +29971,17 @@
       <c r="N853" s="38">
         <v>16269.999999999998</v>
       </c>
-      <c r="O853" s="38"/>
+      <c r="O853" s="38">
+        <f t="shared" ref="O853" si="14">N853+J853</f>
+        <v>21560</v>
+      </c>
       <c r="P853" s="38"/>
       <c r="Q853" s="38"/>
       <c r="R853" s="38"/>
       <c r="S853" s="38"/>
-      <c r="T853" s="37"/>
+      <c r="T853" s="39">
+        <v>6.6208456326228466</v>
+      </c>
       <c r="U853" s="37"/>
       <c r="V853" s="38">
         <v>56.06</v>
@@ -29773,15 +29993,16 @@
       <c r="AA853" s="2">
         <v>17.8</v>
       </c>
-      <c r="AB853" s="6"/>
+      <c r="AB853" s="6">
+        <v>22.014833209354752</v>
+      </c>
       <c r="AC853" s="2">
         <v>59</v>
       </c>
-      <c r="AD853" s="2">
+      <c r="AE853" s="2"/>
+      <c r="AF853" s="2">
         <v>427.4</v>
       </c>
-      <c r="AE853" s="2"/>
-      <c r="AF853" s="2"/>
       <c r="AG853" s="2"/>
       <c r="AH853" s="2"/>
       <c r="AI853" s="2"/>
@@ -29814,6 +30035,7 @@
       <c r="E854" s="3">
         <v>1260</v>
       </c>
+      <c r="G854" s="6"/>
       <c r="AN854" s="1" t="s">
         <v>35</v>
       </c>
@@ -29829,12 +30051,13 @@
         <v>7</v>
       </c>
       <c r="D855" s="20">
-        <f t="shared" ref="D855:D897" si="9">E855/E$854*100</f>
+        <f t="shared" ref="D855:D897" si="15">E855/E$854*100</f>
         <v>92.393650793650806</v>
       </c>
       <c r="E855" s="3">
         <v>1164.1600000000001</v>
       </c>
+      <c r="G855" s="6"/>
       <c r="M855" s="1">
         <v>288</v>
       </c>
@@ -29865,12 +30088,13 @@
         <v>8</v>
       </c>
       <c r="D856" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>92.392857142857153</v>
       </c>
       <c r="E856" s="3">
         <v>1164.1500000000001</v>
       </c>
+      <c r="G856" s="6"/>
       <c r="M856" s="3">
         <v>429</v>
       </c>
@@ -29904,12 +30128,13 @@
         <v>9</v>
       </c>
       <c r="D857" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>92.257936507936506</v>
       </c>
       <c r="E857" s="3">
         <v>1162.45</v>
       </c>
+      <c r="G857" s="6"/>
       <c r="M857" s="3">
         <v>630</v>
       </c>
@@ -29943,12 +30168,13 @@
         <v>10</v>
       </c>
       <c r="D858" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>91.326190476190476</v>
       </c>
       <c r="E858" s="3">
         <v>1150.71</v>
       </c>
+      <c r="G858" s="6"/>
       <c r="M858" s="3">
         <v>877.99999999999989</v>
       </c>
@@ -29985,12 +30211,13 @@
         <v>11</v>
       </c>
       <c r="D859" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>91.325396825396837</v>
       </c>
       <c r="E859" s="3">
         <v>1150.7</v>
       </c>
+      <c r="G859" s="6"/>
       <c r="M859" s="3">
         <v>1112</v>
       </c>
@@ -30027,12 +30254,13 @@
         <v>12</v>
       </c>
       <c r="D860" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>90.381746031746019</v>
       </c>
       <c r="E860" s="3">
         <v>1138.81</v>
       </c>
+      <c r="G860" s="6"/>
       <c r="M860" s="3">
         <v>1374</v>
       </c>
@@ -30069,12 +30297,13 @@
         <v>13</v>
       </c>
       <c r="D861" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>90.381746031746019</v>
       </c>
       <c r="E861" s="3">
         <v>1138.81</v>
       </c>
+      <c r="G861" s="6"/>
       <c r="M861" s="3">
         <v>1709</v>
       </c>
@@ -30108,12 +30337,13 @@
         <v>14</v>
       </c>
       <c r="D862" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>89.927777777777777</v>
       </c>
       <c r="E862" s="3">
         <v>1133.0899999999999</v>
       </c>
+      <c r="G862" s="6"/>
       <c r="M862" s="3">
         <v>1923</v>
       </c>
@@ -30147,12 +30377,13 @@
         <v>15</v>
       </c>
       <c r="D863" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>89.547619047619037</v>
       </c>
       <c r="E863" s="3">
         <v>1128.3</v>
       </c>
+      <c r="G863" s="6"/>
       <c r="M863" s="3">
         <v>2191</v>
       </c>
@@ -30186,12 +30417,13 @@
         <v>16</v>
       </c>
       <c r="D864" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>89.547619047619037</v>
       </c>
       <c r="E864" s="3">
         <v>1128.3</v>
       </c>
+      <c r="G864" s="6"/>
       <c r="M864" s="3">
         <v>2600</v>
       </c>
@@ -30225,7 +30457,7 @@
         <v>0</v>
       </c>
       <c r="D865" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="E865" s="3">
@@ -30246,7 +30478,7 @@
         <v>7</v>
       </c>
       <c r="D866" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>94.30396825396825</v>
       </c>
       <c r="E866" s="3">
@@ -30282,7 +30514,7 @@
         <v>8</v>
       </c>
       <c r="D867" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>94.315873015873024</v>
       </c>
       <c r="E867" s="3">
@@ -30321,7 +30553,7 @@
         <v>9</v>
       </c>
       <c r="D868" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>94.315079365079356</v>
       </c>
       <c r="E868" s="3">
@@ -30360,7 +30592,7 @@
         <v>10</v>
       </c>
       <c r="D869" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>93.481746031746027</v>
       </c>
       <c r="E869" s="3">
@@ -30402,7 +30634,7 @@
         <v>11</v>
       </c>
       <c r="D870" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>93.248412698412707</v>
       </c>
       <c r="E870" s="3">
@@ -30444,7 +30676,7 @@
         <v>12</v>
       </c>
       <c r="D871" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>91.93730158730159</v>
       </c>
       <c r="E871" s="3">
@@ -30486,7 +30718,7 @@
         <v>13</v>
       </c>
       <c r="D872" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>91.715873015873001</v>
       </c>
       <c r="E872" s="3">
@@ -30525,7 +30757,7 @@
         <v>14</v>
       </c>
       <c r="D873" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>91.017460317460305</v>
       </c>
       <c r="E873" s="3">
@@ -30564,7 +30796,7 @@
         <v>15</v>
       </c>
       <c r="D874" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>90.575396825396822</v>
       </c>
       <c r="E874" s="3">
@@ -30603,7 +30835,7 @@
         <v>16</v>
       </c>
       <c r="D875" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>90.183333333333323</v>
       </c>
       <c r="E875" s="3">
@@ -30642,7 +30874,7 @@
         <v>0</v>
       </c>
       <c r="D876" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="E876" s="3">
@@ -30663,7 +30895,7 @@
         <v>7</v>
       </c>
       <c r="D877" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>95.075396825396837</v>
       </c>
       <c r="E877" s="3">
@@ -30699,7 +30931,7 @@
         <v>8</v>
       </c>
       <c r="D878" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>94.842063492063488</v>
       </c>
       <c r="E878" s="3">
@@ -30738,7 +30970,7 @@
         <v>9</v>
       </c>
       <c r="D879" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>94.841269841269835</v>
       </c>
       <c r="E879" s="3">
@@ -30777,7 +31009,7 @@
         <v>10</v>
       </c>
       <c r="D880" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>93.933333333333323</v>
       </c>
       <c r="E880" s="3">
@@ -30819,7 +31051,7 @@
         <v>11</v>
       </c>
       <c r="D881" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>93.932539682539684</v>
       </c>
       <c r="E881" s="3">
@@ -30861,7 +31093,7 @@
         <v>12</v>
       </c>
       <c r="D882" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>93.098412698412687</v>
       </c>
       <c r="E882" s="3">
@@ -30903,7 +31135,7 @@
         <v>13</v>
       </c>
       <c r="D883" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>92.619841269841274</v>
       </c>
       <c r="E883" s="3">
@@ -30942,7 +31174,7 @@
         <v>14</v>
       </c>
       <c r="D884" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>92.385714285714286</v>
       </c>
       <c r="E884" s="3">
@@ -30981,7 +31213,7 @@
         <v>15</v>
       </c>
       <c r="D885" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>91.760317460317466</v>
       </c>
       <c r="E885" s="3">
@@ -31020,7 +31252,7 @@
         <v>16</v>
       </c>
       <c r="D886" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>90.865873015873021</v>
       </c>
       <c r="E886" s="3">
@@ -31059,7 +31291,7 @@
         <v>0</v>
       </c>
       <c r="D887" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="E887" s="3">
@@ -31080,7 +31312,7 @@
         <v>7</v>
       </c>
       <c r="D888" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>91.487301587301587</v>
       </c>
       <c r="E888" s="3">
@@ -31116,7 +31348,7 @@
         <v>8</v>
       </c>
       <c r="D889" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>91.265873015873026</v>
       </c>
       <c r="E889" s="3">
@@ -31155,7 +31387,7 @@
         <v>9</v>
       </c>
       <c r="D890" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>91.031746031746025</v>
       </c>
       <c r="E890" s="3">
@@ -31194,7 +31426,7 @@
         <v>10</v>
       </c>
       <c r="D891" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>90.123809523809513</v>
       </c>
       <c r="E891" s="3">
@@ -31236,7 +31468,7 @@
         <v>11</v>
       </c>
       <c r="D892" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>89.730952380952374</v>
       </c>
       <c r="E892" s="3">
@@ -31278,7 +31510,7 @@
         <v>12</v>
       </c>
       <c r="D893" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>88.811111111111103</v>
       </c>
       <c r="E893" s="3">
@@ -31320,7 +31552,7 @@
         <v>13</v>
       </c>
       <c r="D894" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>88.810317460317449</v>
       </c>
       <c r="E894" s="3">
@@ -31359,7 +31591,7 @@
         <v>14</v>
       </c>
       <c r="D895" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>87.890476190476193</v>
       </c>
       <c r="E895" s="3">
@@ -31398,7 +31630,7 @@
         <v>15</v>
       </c>
       <c r="D896" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>87.876984126984127</v>
       </c>
       <c r="E896" s="3">
@@ -31437,7 +31669,7 @@
         <v>16</v>
       </c>
       <c r="D897" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>87.656349206349205</v>
       </c>
       <c r="E897" s="3">
@@ -33044,7 +33276,7 @@
         <v>18</v>
       </c>
       <c r="D948" s="20">
-        <f t="shared" ref="D948:D982" si="10">E948/E$946*100</f>
+        <f t="shared" ref="D948:D982" si="16">E948/E$946*100</f>
         <v>41.80602006688963</v>
       </c>
       <c r="E948" s="3">
@@ -33071,7 +33303,7 @@
         <v>19</v>
       </c>
       <c r="D949" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E949" s="3">
@@ -33098,7 +33330,7 @@
         <v>20</v>
       </c>
       <c r="D950" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E950" s="3">
@@ -33125,7 +33357,7 @@
         <v>21</v>
       </c>
       <c r="D951" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E951" s="3">
@@ -33152,7 +33384,7 @@
         <v>22</v>
       </c>
       <c r="D952" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E952" s="3">
@@ -33179,7 +33411,7 @@
         <v>23</v>
       </c>
       <c r="D953" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E953" s="3">
@@ -33206,7 +33438,7 @@
         <v>24</v>
       </c>
       <c r="D954" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E954" s="3">
@@ -33233,7 +33465,7 @@
         <v>25</v>
       </c>
       <c r="D955" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E955" s="3">
@@ -33326,7 +33558,7 @@
         <v>26</v>
       </c>
       <c r="D956" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E956" s="3">
@@ -33350,7 +33582,7 @@
         <v>27</v>
       </c>
       <c r="D957" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E957" s="3">
@@ -33377,7 +33609,7 @@
         <v>28</v>
       </c>
       <c r="D958" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E958" s="3">
@@ -33404,7 +33636,7 @@
         <v>29</v>
       </c>
       <c r="D959" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E959" s="3">
@@ -33479,7 +33711,7 @@
         <v>30</v>
       </c>
       <c r="D960" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E960" s="3">
@@ -33506,7 +33738,7 @@
         <v>31</v>
       </c>
       <c r="D961" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E961" s="3">
@@ -33533,7 +33765,7 @@
         <v>32</v>
       </c>
       <c r="D962" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E962" s="3">
@@ -33560,7 +33792,7 @@
         <v>33</v>
       </c>
       <c r="D963" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E963" s="3">
@@ -33587,7 +33819,7 @@
         <v>34</v>
       </c>
       <c r="D964" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E964" s="3">
@@ -33662,7 +33894,7 @@
         <v>17</v>
       </c>
       <c r="D965" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E965" s="3">
@@ -33689,7 +33921,7 @@
         <v>18</v>
       </c>
       <c r="D966" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E966" s="3">
@@ -33716,7 +33948,7 @@
         <v>19</v>
       </c>
       <c r="D967" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E967" s="3">
@@ -33743,7 +33975,7 @@
         <v>20</v>
       </c>
       <c r="D968" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E968" s="3">
@@ -33770,7 +34002,7 @@
         <v>21</v>
       </c>
       <c r="D969" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E969" s="3">
@@ -33797,7 +34029,7 @@
         <v>22</v>
       </c>
       <c r="D970" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E970" s="3">
@@ -33824,7 +34056,7 @@
         <v>23</v>
       </c>
       <c r="D971" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E971" s="3">
@@ -33851,7 +34083,7 @@
         <v>24</v>
       </c>
       <c r="D972" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E972" s="3">
@@ -33878,7 +34110,7 @@
         <v>25</v>
       </c>
       <c r="D973" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E973" s="3">
@@ -33971,7 +34203,7 @@
         <v>26</v>
       </c>
       <c r="D974" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E974" s="3">
@@ -33995,7 +34227,7 @@
         <v>27</v>
       </c>
       <c r="D975" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E975" s="3">
@@ -34022,7 +34254,7 @@
         <v>28</v>
       </c>
       <c r="D976" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E976" s="3">
@@ -34049,7 +34281,7 @@
         <v>29</v>
       </c>
       <c r="D977" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E977" s="3">
@@ -34124,7 +34356,7 @@
         <v>30</v>
       </c>
       <c r="D978" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E978" s="3">
@@ -34151,7 +34383,7 @@
         <v>31</v>
       </c>
       <c r="D979" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E979" s="3">
@@ -34178,7 +34410,7 @@
         <v>32</v>
       </c>
       <c r="D980" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E980" s="3">
@@ -34205,7 +34437,7 @@
         <v>33</v>
       </c>
       <c r="D981" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E981" s="3">
@@ -34232,7 +34464,7 @@
         <v>34</v>
       </c>
       <c r="D982" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>41.80602006688963</v>
       </c>
       <c r="E982" s="3">

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF1E46-5BF1-4887-B80A-C6D280B44B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6BB5BB-BEE1-42CB-93F2-BDFF3E26C351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,9 +270,6 @@
     <t>TowerHillC</t>
   </si>
   <si>
-    <t>TowerHillF</t>
-  </si>
-  <si>
     <t>Pinus.Foliar.Nconc (g/g)</t>
   </si>
   <si>
@@ -333,16 +330,19 @@
     <t>Pinus.BelowGround.Wt</t>
   </si>
   <si>
-    <t>PurukiSTahi</t>
-  </si>
-  <si>
-    <t>PurukiSInviolate</t>
-  </si>
-  <si>
     <t>Pinus.Stem.Volub</t>
   </si>
   <si>
     <t>Pinus.AboveGround.N</t>
+  </si>
+  <si>
+    <t>PurukiTahi</t>
+  </si>
+  <si>
+    <t>PurukiInviolate</t>
+  </si>
+  <si>
+    <t>TowerHillN</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
     <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -419,6 +419,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -467,7 +474,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -540,6 +547,7 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="0.0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -922,10 +930,10 @@
   <dimension ref="A1:BP982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D886" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomRight" activeCell="V982" sqref="V982"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -969,46 +977,46 @@
         <v>24</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>83</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="L1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="Q1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="R1" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>91</v>
       </c>
       <c r="S1" s="29" t="s">
         <v>3</v>
@@ -1020,7 +1028,7 @@
         <v>30</v>
       </c>
       <c r="V1" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>54</v>
@@ -1035,22 +1043,22 @@
         <v>8</v>
       </c>
       <c r="AA1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AC1" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AD1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AE1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="AF1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AG1" s="29" t="s">
         <v>52</v>
@@ -1062,10 +1070,10 @@
         <v>36</v>
       </c>
       <c r="AJ1" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK1" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL1" s="29" t="s">
         <v>26</v>
@@ -27882,7 +27890,7 @@
     </row>
     <row r="828" spans="1:46">
       <c r="A828" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B828" s="16">
         <v>26860</v>
@@ -27942,7 +27950,7 @@
     </row>
     <row r="829" spans="1:46">
       <c r="A829" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B829" s="5">
         <v>27590.484400000001</v>
@@ -28036,7 +28044,7 @@
     </row>
     <row r="830" spans="1:46">
       <c r="A830" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B830" s="5">
         <v>27955.726600000002</v>
@@ -28130,7 +28138,7 @@
     </row>
     <row r="831" spans="1:46">
       <c r="A831" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B831" s="5">
         <v>28320.968799999999</v>
@@ -28224,7 +28232,7 @@
     </row>
     <row r="832" spans="1:46">
       <c r="A832" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B832" s="5">
         <v>28686.210999999999</v>
@@ -28322,7 +28330,7 @@
     </row>
     <row r="833" spans="1:46">
       <c r="A833" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B833" s="5">
         <v>29047.800778000001</v>
@@ -28420,7 +28428,7 @@
     </row>
     <row r="834" spans="1:46">
       <c r="A834" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B834" s="5">
         <v>29051.4532</v>
@@ -28518,7 +28526,7 @@
     </row>
     <row r="835" spans="1:46">
       <c r="A835" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B835" s="5">
         <v>29416.695400000001</v>
@@ -28616,7 +28624,7 @@
     </row>
     <row r="836" spans="1:46">
       <c r="A836" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B836" s="5">
         <v>29781.937600000001</v>
@@ -28714,7 +28722,7 @@
     </row>
     <row r="837" spans="1:46">
       <c r="A837" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B837" s="5">
         <v>30147.179800000002</v>
@@ -28812,7 +28820,7 @@
     </row>
     <row r="838" spans="1:46">
       <c r="A838" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B838" s="5">
         <v>30508.769577999999</v>
@@ -28910,7 +28918,7 @@
     </row>
     <row r="839" spans="1:46">
       <c r="A839" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B839" s="5">
         <v>30512.421999999999</v>
@@ -29008,7 +29016,7 @@
     </row>
     <row r="840" spans="1:46">
       <c r="A840" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B840" s="5">
         <v>30877.664199999999</v>
@@ -29106,7 +29114,7 @@
     </row>
     <row r="841" spans="1:46">
       <c r="A841" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B841" s="5">
         <v>31242.9064</v>
@@ -29204,7 +29212,7 @@
     </row>
     <row r="842" spans="1:46">
       <c r="A842" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B842" s="16">
         <v>26860</v>
@@ -29262,7 +29270,7 @@
     </row>
     <row r="843" spans="1:46">
       <c r="A843" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B843" s="5">
         <v>27590.484400000001</v>
@@ -29328,7 +29336,7 @@
     </row>
     <row r="844" spans="1:46">
       <c r="A844" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B844" s="5">
         <v>27955.726600000002</v>
@@ -29394,7 +29402,7 @@
     </row>
     <row r="845" spans="1:46">
       <c r="A845" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B845" s="5">
         <v>28320.968799999999</v>
@@ -29460,7 +29468,7 @@
     </row>
     <row r="846" spans="1:46">
       <c r="A846" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B846" s="5">
         <v>28686.210999999999</v>
@@ -29527,7 +29535,7 @@
     </row>
     <row r="847" spans="1:46">
       <c r="A847" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B847" s="5">
         <v>29051.4532</v>
@@ -29594,7 +29602,7 @@
     </row>
     <row r="848" spans="1:46">
       <c r="A848" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B848" s="5">
         <v>29416.695400000001</v>
@@ -29661,7 +29669,7 @@
     </row>
     <row r="849" spans="1:46">
       <c r="A849" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B849" s="5">
         <v>29781.937600000001</v>
@@ -29728,7 +29736,7 @@
     </row>
     <row r="850" spans="1:46">
       <c r="A850" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B850" s="5">
         <v>30147.179800000002</v>
@@ -29795,7 +29803,7 @@
     </row>
     <row r="851" spans="1:46">
       <c r="A851" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B851" s="5">
         <v>30512.421999999999</v>
@@ -29862,7 +29870,7 @@
     </row>
     <row r="852" spans="1:46">
       <c r="A852" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B852" s="5">
         <v>30877.664199999999</v>
@@ -29929,7 +29937,7 @@
     </row>
     <row r="853" spans="1:46">
       <c r="A853" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B853" s="5">
         <v>31242.9064</v>
@@ -33235,7 +33243,7 @@
         <v>100</v>
       </c>
       <c r="E946" s="3">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="947" spans="1:68">
@@ -33250,12 +33258,12 @@
       </c>
       <c r="D947" s="20">
         <f>E947/E$946*100</f>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E947" s="3">
         <v>625</v>
       </c>
-      <c r="AF947" s="3">
+      <c r="AD947" s="3">
         <v>110.6</v>
       </c>
       <c r="AG947" s="3">
@@ -33277,12 +33285,12 @@
       </c>
       <c r="D948" s="20">
         <f t="shared" ref="D948:D982" si="16">E948/E$946*100</f>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E948" s="3">
         <v>625</v>
       </c>
-      <c r="AF948" s="3">
+      <c r="AD948" s="3">
         <v>119.16</v>
       </c>
       <c r="AG948" s="3">
@@ -33304,12 +33312,12 @@
       </c>
       <c r="D949" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E949" s="3">
         <v>625</v>
       </c>
-      <c r="AF949" s="3">
+      <c r="AD949" s="3">
         <v>127.61</v>
       </c>
       <c r="AG949" s="3">
@@ -33331,12 +33339,12 @@
       </c>
       <c r="D950" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E950" s="3">
         <v>625</v>
       </c>
-      <c r="AF950" s="3">
+      <c r="AD950" s="3">
         <v>136.59</v>
       </c>
       <c r="AG950" s="3">
@@ -33358,12 +33366,12 @@
       </c>
       <c r="D951" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E951" s="3">
         <v>625</v>
       </c>
-      <c r="AF951" s="3">
+      <c r="AD951" s="3">
         <v>147.47</v>
       </c>
       <c r="AG951" s="3">
@@ -33385,12 +33393,12 @@
       </c>
       <c r="D952" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E952" s="3">
         <v>625</v>
       </c>
-      <c r="AF952" s="3">
+      <c r="AD952" s="3">
         <v>156.59</v>
       </c>
       <c r="AG952" s="3">
@@ -33412,12 +33420,12 @@
       </c>
       <c r="D953" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E953" s="3">
         <v>625</v>
       </c>
-      <c r="AF953" s="3">
+      <c r="AD953" s="3">
         <v>165.34</v>
       </c>
       <c r="AG953" s="3">
@@ -33439,12 +33447,12 @@
       </c>
       <c r="D954" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E954" s="3">
         <v>625</v>
       </c>
-      <c r="AF954" s="3">
+      <c r="AD954" s="3">
         <v>175.29</v>
       </c>
       <c r="AG954" s="3">
@@ -33466,7 +33474,7 @@
       </c>
       <c r="D955" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E955" s="3">
         <v>625</v>
@@ -33477,12 +33485,16 @@
       <c r="G955" s="3">
         <v>631</v>
       </c>
-      <c r="I955" s="3">
+      <c r="H955" s="3">
         <v>545</v>
       </c>
       <c r="J955" s="3">
         <v>1205</v>
       </c>
+      <c r="K955" s="3">
+        <f>G955+J955</f>
+        <v>1836</v>
+      </c>
       <c r="L955" s="3">
         <v>1518</v>
       </c>
@@ -33492,10 +33504,17 @@
       <c r="N955" s="3">
         <v>10602</v>
       </c>
+      <c r="O955" s="3">
+        <f>N955+J955</f>
+        <v>11807</v>
+      </c>
+      <c r="V955" s="3">
+        <v>12.965</v>
+      </c>
       <c r="W955" s="3">
         <v>1457</v>
       </c>
-      <c r="AF955" s="3">
+      <c r="AD955" s="3">
         <v>184.82999999999998</v>
       </c>
       <c r="AG955" s="3">
@@ -33547,7 +33566,7 @@
         <v>15.000000000000002</v>
       </c>
     </row>
-    <row r="956" spans="1:68">
+    <row r="956" spans="1:68" ht="15">
       <c r="A956" s="3" t="s">
         <v>70</v>
       </c>
@@ -33559,19 +33578,20 @@
       </c>
       <c r="D956" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E956" s="3">
         <v>625</v>
       </c>
-      <c r="AF956" s="3">
+      <c r="K956" s="42"/>
+      <c r="AD956" s="3">
         <v>193.64</v>
       </c>
       <c r="AG956" s="3">
         <v>7.4476923076923072</v>
       </c>
     </row>
-    <row r="957" spans="1:68">
+    <row r="957" spans="1:68" ht="15">
       <c r="A957" s="3" t="s">
         <v>70</v>
       </c>
@@ -33583,12 +33603,13 @@
       </c>
       <c r="D957" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E957" s="3">
         <v>625</v>
       </c>
-      <c r="AF957" s="3">
+      <c r="K957" s="42"/>
+      <c r="AD957" s="3">
         <v>201.92</v>
       </c>
       <c r="AG957" s="3">
@@ -33610,12 +33631,13 @@
       </c>
       <c r="D958" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E958" s="3">
         <v>625</v>
       </c>
-      <c r="AF958" s="3">
+      <c r="V958"/>
+      <c r="AD958" s="3">
         <v>205.76</v>
       </c>
       <c r="AG958" s="3">
@@ -33637,7 +33659,7 @@
       </c>
       <c r="D959" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E959" s="3">
         <v>625</v>
@@ -33645,7 +33667,7 @@
       <c r="F959" s="3">
         <v>13777</v>
       </c>
-      <c r="I959" s="3">
+      <c r="H959" s="3">
         <v>423.00000000000006</v>
       </c>
       <c r="K959" s="3">
@@ -33660,10 +33682,13 @@
       <c r="N959" s="3">
         <v>11145</v>
       </c>
+      <c r="V959">
+        <v>11.751000000000001</v>
+      </c>
       <c r="W959" s="3">
         <v>3927.0000000000005</v>
       </c>
-      <c r="AF959" s="3">
+      <c r="AD959" s="3">
         <v>215.7</v>
       </c>
       <c r="AG959" s="3">
@@ -33712,12 +33737,12 @@
       </c>
       <c r="D960" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E960" s="3">
         <v>625</v>
       </c>
-      <c r="AF960" s="3">
+      <c r="AD960" s="3">
         <v>227.14999999999998</v>
       </c>
       <c r="AG960" s="3">
@@ -33739,12 +33764,12 @@
       </c>
       <c r="D961" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E961" s="3">
         <v>625</v>
       </c>
-      <c r="AF961" s="3">
+      <c r="AD961" s="3">
         <v>233.27999999999997</v>
       </c>
       <c r="AG961" s="3">
@@ -33766,12 +33791,12 @@
       </c>
       <c r="D962" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E962" s="3">
         <v>625</v>
       </c>
-      <c r="AF962" s="3">
+      <c r="AD962" s="3">
         <v>240.28999999999996</v>
       </c>
       <c r="AG962" s="3">
@@ -33793,12 +33818,12 @@
       </c>
       <c r="D963" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E963" s="3">
         <v>625</v>
       </c>
-      <c r="AF963" s="3">
+      <c r="AD963" s="3">
         <v>245.75999999999996</v>
       </c>
       <c r="AG963" s="3">
@@ -33820,7 +33845,7 @@
       </c>
       <c r="D964" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E964" s="3">
         <v>625</v>
@@ -33828,7 +33853,7 @@
       <c r="F964" s="3">
         <v>17651</v>
       </c>
-      <c r="I964" s="3">
+      <c r="H964" s="3">
         <v>528</v>
       </c>
       <c r="K964" s="3">
@@ -33843,10 +33868,13 @@
       <c r="N964" s="3">
         <v>13838</v>
       </c>
+      <c r="V964">
+        <v>15.704000000000001</v>
+      </c>
       <c r="W964" s="3">
         <v>3336.9999999999995</v>
       </c>
-      <c r="AF964" s="3">
+      <c r="AD964" s="3">
         <v>256.16999999999996</v>
       </c>
       <c r="AG964" s="3">
@@ -33885,7 +33913,7 @@
     </row>
     <row r="965" spans="1:68">
       <c r="A965" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B965" s="5">
         <v>29021.117399999999</v>
@@ -33895,12 +33923,12 @@
       </c>
       <c r="D965" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E965" s="3">
         <v>625</v>
       </c>
-      <c r="AF965" s="3">
+      <c r="AD965" s="3">
         <v>110.3</v>
       </c>
       <c r="AG965" s="3">
@@ -33912,7 +33940,7 @@
     </row>
     <row r="966" spans="1:68">
       <c r="A966" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B966" s="5">
         <v>29386.3596</v>
@@ -33922,12 +33950,12 @@
       </c>
       <c r="D966" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E966" s="3">
         <v>625</v>
       </c>
-      <c r="AF966" s="3">
+      <c r="AD966" s="3">
         <v>121.94</v>
       </c>
       <c r="AG966" s="3">
@@ -33939,7 +33967,7 @@
     </row>
     <row r="967" spans="1:68">
       <c r="A967" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B967" s="5">
         <v>29751.6018</v>
@@ -33949,12 +33977,12 @@
       </c>
       <c r="D967" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E967" s="3">
         <v>625</v>
       </c>
-      <c r="AF967" s="3">
+      <c r="AD967" s="3">
         <v>135.66</v>
       </c>
       <c r="AG967" s="3">
@@ -33966,7 +33994,7 @@
     </row>
     <row r="968" spans="1:68">
       <c r="A968" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B968" s="5">
         <v>30116.844000000001</v>
@@ -33976,12 +34004,12 @@
       </c>
       <c r="D968" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E968" s="3">
         <v>625</v>
       </c>
-      <c r="AF968" s="3">
+      <c r="AD968" s="3">
         <v>152.26999999999998</v>
       </c>
       <c r="AG968" s="3">
@@ -33993,7 +34021,7 @@
     </row>
     <row r="969" spans="1:68">
       <c r="A969" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B969" s="5">
         <v>30482.086200000002</v>
@@ -34003,12 +34031,12 @@
       </c>
       <c r="D969" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E969" s="3">
         <v>625</v>
       </c>
-      <c r="AF969" s="3">
+      <c r="AD969" s="3">
         <v>174.11999999999998</v>
       </c>
       <c r="AG969" s="3">
@@ -34020,7 +34048,7 @@
     </row>
     <row r="970" spans="1:68">
       <c r="A970" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B970" s="5">
         <v>30847.328399999999</v>
@@ -34030,12 +34058,12 @@
       </c>
       <c r="D970" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E970" s="3">
         <v>625</v>
       </c>
-      <c r="AF970" s="3">
+      <c r="AD970" s="3">
         <v>192.77999999999997</v>
       </c>
       <c r="AG970" s="3">
@@ -34047,7 +34075,7 @@
     </row>
     <row r="971" spans="1:68">
       <c r="A971" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B971" s="5">
         <v>31212.570599999999</v>
@@ -34057,12 +34085,12 @@
       </c>
       <c r="D971" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E971" s="3">
         <v>625</v>
       </c>
-      <c r="AF971" s="3">
+      <c r="AD971" s="3">
         <v>219.14</v>
       </c>
       <c r="AG971" s="3">
@@ -34074,7 +34102,7 @@
     </row>
     <row r="972" spans="1:68">
       <c r="A972" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B972" s="5">
         <v>31577.8128</v>
@@ -34084,12 +34112,12 @@
       </c>
       <c r="D972" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E972" s="3">
         <v>625</v>
       </c>
-      <c r="AF972" s="3">
+      <c r="AD972" s="3">
         <v>252.42999999999998</v>
       </c>
       <c r="AG972" s="3">
@@ -34101,7 +34129,7 @@
     </row>
     <row r="973" spans="1:68">
       <c r="A973" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B973" s="5">
         <v>31943.055</v>
@@ -34111,7 +34139,7 @@
       </c>
       <c r="D973" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E973" s="3">
         <v>625</v>
@@ -34122,12 +34150,16 @@
       <c r="G973" s="3">
         <v>667</v>
       </c>
-      <c r="I973" s="3">
+      <c r="H973" s="3">
         <v>1057</v>
       </c>
       <c r="J973" s="3">
         <v>1805</v>
       </c>
+      <c r="K973" s="3">
+        <f>G973+J973</f>
+        <v>2472</v>
+      </c>
       <c r="L973" s="3">
         <v>2456</v>
       </c>
@@ -34137,10 +34169,17 @@
       <c r="N973" s="3">
         <v>15190</v>
       </c>
+      <c r="O973" s="3">
+        <f>N973+J973</f>
+        <v>16995</v>
+      </c>
+      <c r="V973" s="3">
+        <v>26.013000000000005</v>
+      </c>
       <c r="W973" s="3">
         <v>1257</v>
       </c>
-      <c r="AF973" s="3">
+      <c r="AD973" s="3">
         <v>283.27999999999997</v>
       </c>
       <c r="AG973" s="3">
@@ -34194,7 +34233,7 @@
     </row>
     <row r="974" spans="1:68">
       <c r="A974" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B974" s="5">
         <v>32308.297200000001</v>
@@ -34204,12 +34243,12 @@
       </c>
       <c r="D974" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E974" s="3">
         <v>625</v>
       </c>
-      <c r="AF974" s="3">
+      <c r="AD974" s="3">
         <v>310.58999999999997</v>
       </c>
       <c r="AG974" s="3">
@@ -34218,7 +34257,7 @@
     </row>
     <row r="975" spans="1:68">
       <c r="A975" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B975" s="5">
         <v>32673.539400000001</v>
@@ -34228,12 +34267,12 @@
       </c>
       <c r="D975" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E975" s="3">
         <v>625</v>
       </c>
-      <c r="AF975" s="3">
+      <c r="AD975" s="3">
         <v>344</v>
       </c>
       <c r="AG975" s="3">
@@ -34245,7 +34284,7 @@
     </row>
     <row r="976" spans="1:68">
       <c r="A976" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B976" s="5">
         <v>33038.781600000002</v>
@@ -34255,12 +34294,12 @@
       </c>
       <c r="D976" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E976" s="3">
         <v>625</v>
       </c>
-      <c r="AF976" s="3">
+      <c r="AD976" s="3">
         <v>374.32</v>
       </c>
       <c r="AG976" s="3">
@@ -34272,7 +34311,7 @@
     </row>
     <row r="977" spans="1:68">
       <c r="A977" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B977" s="5">
         <v>33404.023800000003</v>
@@ -34282,7 +34321,7 @@
       </c>
       <c r="D977" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E977" s="3">
         <v>625</v>
@@ -34290,7 +34329,7 @@
       <c r="F977" s="3">
         <v>25530</v>
       </c>
-      <c r="I977" s="3">
+      <c r="H977" s="3">
         <v>1050</v>
       </c>
       <c r="K977" s="3">
@@ -34305,10 +34344,13 @@
       <c r="N977" s="3">
         <v>21086</v>
       </c>
+      <c r="V977" s="3">
+        <v>35.235999999999997</v>
+      </c>
       <c r="W977" s="3">
         <v>4821</v>
       </c>
-      <c r="AF977" s="3">
+      <c r="AD977" s="3">
         <v>407.74</v>
       </c>
       <c r="AG977" s="3">
@@ -34347,7 +34389,7 @@
     </row>
     <row r="978" spans="1:68">
       <c r="A978" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B978" s="5">
         <v>33769.266000000003</v>
@@ -34357,12 +34399,12 @@
       </c>
       <c r="D978" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E978" s="3">
         <v>625</v>
       </c>
-      <c r="AF978" s="3">
+      <c r="AD978" s="3">
         <v>438.73</v>
       </c>
       <c r="AG978" s="3">
@@ -34374,7 +34416,7 @@
     </row>
     <row r="979" spans="1:68">
       <c r="A979" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B979" s="5">
         <v>34134.508199999997</v>
@@ -34384,12 +34426,12 @@
       </c>
       <c r="D979" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E979" s="3">
         <v>625</v>
       </c>
-      <c r="AF979" s="3">
+      <c r="AD979" s="3">
         <v>468.61</v>
       </c>
       <c r="AG979" s="3">
@@ -34401,7 +34443,7 @@
     </row>
     <row r="980" spans="1:68">
       <c r="A980" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B980" s="5">
         <v>34499.750400000004</v>
@@ -34411,12 +34453,12 @@
       </c>
       <c r="D980" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E980" s="3">
         <v>625</v>
       </c>
-      <c r="AF980" s="3">
+      <c r="AD980" s="3">
         <v>495.43</v>
       </c>
       <c r="AG980" s="3">
@@ -34428,7 +34470,7 @@
     </row>
     <row r="981" spans="1:68">
       <c r="A981" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B981" s="5">
         <v>34864.992599999998</v>
@@ -34438,12 +34480,12 @@
       </c>
       <c r="D981" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E981" s="3">
         <v>625</v>
       </c>
-      <c r="AF981" s="3">
+      <c r="AD981" s="3">
         <v>512.85</v>
       </c>
       <c r="AG981" s="3">
@@ -34455,7 +34497,7 @@
     </row>
     <row r="982" spans="1:68">
       <c r="A982" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B982" s="5">
         <v>35230.234799999998</v>
@@ -34465,7 +34507,7 @@
       </c>
       <c r="D982" s="20">
         <f t="shared" si="16"/>
-        <v>41.80602006688963</v>
+        <v>41.778074866310163</v>
       </c>
       <c r="E982" s="3">
         <v>625</v>
@@ -34473,7 +34515,7 @@
       <c r="F982" s="3">
         <v>34106</v>
       </c>
-      <c r="I982" s="3">
+      <c r="H982" s="3">
         <v>1071</v>
       </c>
       <c r="K982" s="3">
@@ -34488,10 +34530,13 @@
       <c r="N982" s="3">
         <v>28390</v>
       </c>
+      <c r="V982" s="3">
+        <v>30.543000000000003</v>
+      </c>
       <c r="W982" s="3">
         <v>4924</v>
       </c>
-      <c r="AF982" s="3">
+      <c r="AD982" s="3">
         <v>528.84</v>
       </c>
       <c r="AG982" s="3">

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6BB5BB-BEE1-42CB-93F2-BDFF3E26C351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF8F4F9-7FBC-46B8-9827-C3A12CF4C9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,10 +930,10 @@
   <dimension ref="A1:BP982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D886" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AF854" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V982" sqref="V982"/>
+      <selection pane="bottomRight" activeCell="AI858" sqref="AI858:AI894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -30041,7 +30041,7 @@
         <v>0</v>
       </c>
       <c r="E854" s="3">
-        <v>1260</v>
+        <v>1667</v>
       </c>
       <c r="G854" s="6"/>
       <c r="AN854" s="1" t="s">
@@ -30060,7 +30060,7 @@
       </c>
       <c r="D855" s="20">
         <f t="shared" ref="D855:D897" si="15">E855/E$854*100</f>
-        <v>92.393650793650806</v>
+        <v>69.835632873425325</v>
       </c>
       <c r="E855" s="3">
         <v>1164.1600000000001</v>
@@ -30097,7 +30097,7 @@
       </c>
       <c r="D856" s="20">
         <f t="shared" si="15"/>
-        <v>92.392857142857153</v>
+        <v>69.835032993401327</v>
       </c>
       <c r="E856" s="3">
         <v>1164.1500000000001</v>
@@ -30137,7 +30137,7 @@
       </c>
       <c r="D857" s="20">
         <f t="shared" si="15"/>
-        <v>92.257936507936506</v>
+        <v>69.733053389322137</v>
       </c>
       <c r="E857" s="3">
         <v>1162.45</v>
@@ -30177,7 +30177,7 @@
       </c>
       <c r="D858" s="20">
         <f t="shared" si="15"/>
-        <v>91.326190476190476</v>
+        <v>69.028794241151772</v>
       </c>
       <c r="E858" s="3">
         <v>1150.71</v>
@@ -30199,7 +30199,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AJ858" s="3">
-        <v>0.49</v>
+        <v>490</v>
       </c>
       <c r="AK858" s="3">
         <v>9.4999999999999998E-3</v>
@@ -30220,7 +30220,7 @@
       </c>
       <c r="D859" s="20">
         <f t="shared" si="15"/>
-        <v>91.325396825396837</v>
+        <v>69.028194361127788</v>
       </c>
       <c r="E859" s="3">
         <v>1150.7</v>
@@ -30242,7 +30242,7 @@
         <v>10.1</v>
       </c>
       <c r="AJ859" s="3">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="AK859" s="3">
         <v>9.300000000000001E-3</v>
@@ -30263,7 +30263,7 @@
       </c>
       <c r="D860" s="20">
         <f t="shared" si="15"/>
-        <v>90.381746031746019</v>
+        <v>68.314937012597483</v>
       </c>
       <c r="E860" s="3">
         <v>1138.81</v>
@@ -30285,7 +30285,7 @@
         <v>11.7</v>
       </c>
       <c r="AJ860" s="3">
-        <v>0.53</v>
+        <v>530</v>
       </c>
       <c r="AK860" s="3">
         <v>9.8999999999999991E-3</v>
@@ -30306,7 +30306,7 @@
       </c>
       <c r="D861" s="20">
         <f t="shared" si="15"/>
-        <v>90.381746031746019</v>
+        <v>68.314937012597483</v>
       </c>
       <c r="E861" s="3">
         <v>1138.81</v>
@@ -30346,7 +30346,7 @@
       </c>
       <c r="D862" s="20">
         <f t="shared" si="15"/>
-        <v>89.927777777777777</v>
+        <v>67.971805638872212</v>
       </c>
       <c r="E862" s="3">
         <v>1133.0899999999999</v>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="D863" s="20">
         <f t="shared" si="15"/>
-        <v>89.547619047619037</v>
+        <v>67.684463107378519</v>
       </c>
       <c r="E863" s="3">
         <v>1128.3</v>
@@ -30426,7 +30426,7 @@
       </c>
       <c r="D864" s="20">
         <f t="shared" si="15"/>
-        <v>89.547619047619037</v>
+        <v>67.684463107378519</v>
       </c>
       <c r="E864" s="3">
         <v>1128.3</v>
@@ -30469,7 +30469,7 @@
         <v>100</v>
       </c>
       <c r="E865" s="3">
-        <v>1260</v>
+        <v>1667</v>
       </c>
       <c r="AN865" s="1" t="s">
         <v>35</v>
@@ -30487,7 +30487,7 @@
       </c>
       <c r="D866" s="20">
         <f t="shared" si="15"/>
-        <v>94.30396825396825</v>
+        <v>71.279544091181762</v>
       </c>
       <c r="E866" s="3">
         <v>1188.23</v>
@@ -30523,7 +30523,7 @@
       </c>
       <c r="D867" s="20">
         <f t="shared" si="15"/>
-        <v>94.315873015873024</v>
+        <v>71.288542291541702</v>
       </c>
       <c r="E867" s="3">
         <v>1188.3800000000001</v>
@@ -30562,7 +30562,7 @@
       </c>
       <c r="D868" s="20">
         <f t="shared" si="15"/>
-        <v>94.315079365079356</v>
+        <v>71.28794241151769</v>
       </c>
       <c r="E868" s="3">
         <v>1188.3699999999999</v>
@@ -30601,7 +30601,7 @@
       </c>
       <c r="D869" s="20">
         <f t="shared" si="15"/>
-        <v>93.481746031746027</v>
+        <v>70.658068386322725</v>
       </c>
       <c r="E869" s="3">
         <v>1177.8699999999999</v>
@@ -30622,7 +30622,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ869" s="3">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="AK869" s="3">
         <v>9.7000000000000003E-3</v>
@@ -30643,7 +30643,7 @@
       </c>
       <c r="D870" s="20">
         <f t="shared" si="15"/>
-        <v>93.248412698412707</v>
+        <v>70.481703659268149</v>
       </c>
       <c r="E870" s="3">
         <v>1174.93</v>
@@ -30664,7 +30664,7 @@
         <v>11</v>
       </c>
       <c r="AJ870" s="3">
-        <v>0.49</v>
+        <v>490</v>
       </c>
       <c r="AK870" s="3">
         <v>1.0500000000000001E-2</v>
@@ -30685,7 +30685,7 @@
       </c>
       <c r="D871" s="20">
         <f t="shared" si="15"/>
-        <v>91.93730158730159</v>
+        <v>69.490701859628075</v>
       </c>
       <c r="E871" s="3">
         <v>1158.4100000000001</v>
@@ -30706,7 +30706,7 @@
         <v>12.9</v>
       </c>
       <c r="AJ871" s="3">
-        <v>0.54</v>
+        <v>540</v>
       </c>
       <c r="AK871" s="3">
         <v>1.06E-2</v>
@@ -30727,7 +30727,7 @@
       </c>
       <c r="D872" s="20">
         <f t="shared" si="15"/>
-        <v>91.715873015873001</v>
+        <v>69.323335332933411</v>
       </c>
       <c r="E872" s="3">
         <v>1155.6199999999999</v>
@@ -30766,7 +30766,7 @@
       </c>
       <c r="D873" s="20">
         <f t="shared" si="15"/>
-        <v>91.017460317460305</v>
+        <v>68.795440911817636</v>
       </c>
       <c r="E873" s="3">
         <v>1146.82</v>
@@ -30805,7 +30805,7 @@
       </c>
       <c r="D874" s="20">
         <f t="shared" si="15"/>
-        <v>90.575396825396822</v>
+        <v>68.461307738452319</v>
       </c>
       <c r="E874" s="3">
         <v>1141.25</v>
@@ -30844,7 +30844,7 @@
       </c>
       <c r="D875" s="20">
         <f t="shared" si="15"/>
-        <v>90.183333333333323</v>
+        <v>68.164967006598673</v>
       </c>
       <c r="E875" s="3">
         <v>1136.31</v>
@@ -30886,7 +30886,7 @@
         <v>100</v>
       </c>
       <c r="E876" s="3">
-        <v>1260</v>
+        <v>1667</v>
       </c>
       <c r="AN876" s="1" t="s">
         <v>35</v>
@@ -30904,7 +30904,7 @@
       </c>
       <c r="D877" s="20">
         <f t="shared" si="15"/>
-        <v>95.075396825396837</v>
+        <v>71.862627474505103</v>
       </c>
       <c r="E877" s="3">
         <v>1197.95</v>
@@ -30940,7 +30940,7 @@
       </c>
       <c r="D878" s="20">
         <f t="shared" si="15"/>
-        <v>94.842063492063488</v>
+        <v>71.686262747450513</v>
       </c>
       <c r="E878" s="3">
         <v>1195.01</v>
@@ -30979,7 +30979,7 @@
       </c>
       <c r="D879" s="20">
         <f t="shared" si="15"/>
-        <v>94.841269841269835</v>
+        <v>71.685662867426515</v>
       </c>
       <c r="E879" s="3">
         <v>1195</v>
@@ -31018,7 +31018,7 @@
       </c>
       <c r="D880" s="20">
         <f t="shared" si="15"/>
-        <v>93.933333333333323</v>
+        <v>70.999400119976002</v>
       </c>
       <c r="E880" s="3">
         <v>1183.56</v>
@@ -31039,7 +31039,7 @@
         <v>13.1</v>
       </c>
       <c r="AJ880" s="3">
-        <v>0.45</v>
+        <v>450</v>
       </c>
       <c r="AK880" s="3">
         <v>1.3100000000000001E-2</v>
@@ -31060,7 +31060,7 @@
       </c>
       <c r="D881" s="20">
         <f t="shared" si="15"/>
-        <v>93.932539682539684</v>
+        <v>70.998800239952004</v>
       </c>
       <c r="E881" s="3">
         <v>1183.55</v>
@@ -31081,7 +31081,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="AJ881" s="3">
-        <v>0.46</v>
+        <v>460</v>
       </c>
       <c r="AK881" s="3">
         <v>1.24E-2</v>
@@ -31102,7 +31102,7 @@
       </c>
       <c r="D882" s="20">
         <f t="shared" si="15"/>
-        <v>93.098412698412687</v>
+        <v>70.368326334733055</v>
       </c>
       <c r="E882" s="3">
         <v>1173.04</v>
@@ -31123,7 +31123,7 @@
         <v>20.3</v>
       </c>
       <c r="AJ882" s="3">
-        <v>0.49</v>
+        <v>490</v>
       </c>
       <c r="AK882" s="3">
         <v>1.4499999999999999E-2</v>
@@ -31144,7 +31144,7 @@
       </c>
       <c r="D883" s="20">
         <f t="shared" si="15"/>
-        <v>92.619841269841274</v>
+        <v>70.006598680263949</v>
       </c>
       <c r="E883" s="3">
         <v>1167.01</v>
@@ -31183,7 +31183,7 @@
       </c>
       <c r="D884" s="20">
         <f t="shared" si="15"/>
-        <v>92.385714285714286</v>
+        <v>69.82963407318536</v>
       </c>
       <c r="E884" s="3">
         <v>1164.06</v>
@@ -31222,7 +31222,7 @@
       </c>
       <c r="D885" s="20">
         <f t="shared" si="15"/>
-        <v>91.760317460317466</v>
+        <v>69.356928614277152</v>
       </c>
       <c r="E885" s="3">
         <v>1156.18</v>
@@ -31261,7 +31261,7 @@
       </c>
       <c r="D886" s="20">
         <f t="shared" si="15"/>
-        <v>90.865873015873021</v>
+        <v>68.68086382723456</v>
       </c>
       <c r="E886" s="3">
         <v>1144.9100000000001</v>
@@ -31303,7 +31303,7 @@
         <v>100</v>
       </c>
       <c r="E887" s="3">
-        <v>1260</v>
+        <v>1667</v>
       </c>
       <c r="AN887" s="1" t="s">
         <v>35</v>
@@ -31321,7 +31321,7 @@
       </c>
       <c r="D888" s="20">
         <f t="shared" si="15"/>
-        <v>91.487301587301587</v>
+        <v>69.150569886022794</v>
       </c>
       <c r="E888" s="3">
         <v>1152.74</v>
@@ -31357,7 +31357,7 @@
       </c>
       <c r="D889" s="20">
         <f t="shared" si="15"/>
-        <v>91.265873015873026</v>
+        <v>68.983203359328144</v>
       </c>
       <c r="E889" s="3">
         <v>1149.95</v>
@@ -31396,7 +31396,7 @@
       </c>
       <c r="D890" s="20">
         <f t="shared" si="15"/>
-        <v>91.031746031746025</v>
+        <v>68.806238752249556</v>
       </c>
       <c r="E890" s="3">
         <v>1147</v>
@@ -31435,7 +31435,7 @@
       </c>
       <c r="D891" s="20">
         <f t="shared" si="15"/>
-        <v>90.123809523809513</v>
+        <v>68.119976004799028</v>
       </c>
       <c r="E891" s="3">
         <v>1135.56</v>
@@ -31456,7 +31456,7 @@
         <v>13.9</v>
       </c>
       <c r="AJ891" s="3">
-        <v>0.45</v>
+        <v>450</v>
       </c>
       <c r="AK891" s="3">
         <v>1.3000000000000001E-2</v>
@@ -31477,7 +31477,7 @@
       </c>
       <c r="D892" s="20">
         <f t="shared" si="15"/>
-        <v>89.730952380952374</v>
+        <v>67.823035392921412</v>
       </c>
       <c r="E892" s="3">
         <v>1130.6099999999999</v>
@@ -31498,7 +31498,7 @@
         <v>18.3</v>
       </c>
       <c r="AJ892" s="3">
-        <v>0.46</v>
+        <v>460</v>
       </c>
       <c r="AK892" s="3">
         <v>1.1299999999999999E-2</v>
@@ -31519,7 +31519,7 @@
       </c>
       <c r="D893" s="20">
         <f t="shared" si="15"/>
-        <v>88.811111111111103</v>
+        <v>67.127774445110973</v>
       </c>
       <c r="E893" s="3">
         <v>1119.02</v>
@@ -31540,7 +31540,7 @@
         <v>21.7</v>
       </c>
       <c r="AJ893" s="3">
-        <v>0.51</v>
+        <v>510</v>
       </c>
       <c r="AK893" s="3">
         <v>1.3999999999999999E-2</v>
@@ -31561,7 +31561,7 @@
       </c>
       <c r="D894" s="20">
         <f t="shared" si="15"/>
-        <v>88.810317460317449</v>
+        <v>67.127174565086975</v>
       </c>
       <c r="E894" s="3">
         <v>1119.01</v>
@@ -31600,7 +31600,7 @@
       </c>
       <c r="D895" s="20">
         <f t="shared" si="15"/>
-        <v>87.890476190476193</v>
+        <v>66.43191361727655</v>
       </c>
       <c r="E895" s="3">
         <v>1107.42</v>
@@ -31639,7 +31639,7 @@
       </c>
       <c r="D896" s="20">
         <f t="shared" si="15"/>
-        <v>87.876984126984127</v>
+        <v>66.421715656868628</v>
       </c>
       <c r="E896" s="3">
         <v>1107.25</v>
@@ -31678,7 +31678,7 @@
       </c>
       <c r="D897" s="20">
         <f t="shared" si="15"/>
-        <v>87.656349206349205</v>
+        <v>66.254949010197961</v>
       </c>
       <c r="E897" s="3">
         <v>1104.47</v>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E4F4F-1715-4868-BE03-BD98EE333DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D3CE1-00FF-450A-BCA0-3EB295B7AC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="104">
   <si>
     <t>SimulationName</t>
   </si>
@@ -343,6 +343,30 @@
   </si>
   <si>
     <t>TowerHillN</t>
+  </si>
+  <si>
+    <t>IMPACLF0H0</t>
+  </si>
+  <si>
+    <t>IMPACLF0H1</t>
+  </si>
+  <si>
+    <t>IMPACLF1H0</t>
+  </si>
+  <si>
+    <t>IMPACLF1H1</t>
+  </si>
+  <si>
+    <t>IMPACSF0H0</t>
+  </si>
+  <si>
+    <t>IMPACSF0H1</t>
+  </si>
+  <si>
+    <t>IMPACSF1H0</t>
+  </si>
+  <si>
+    <t>IMPACSF1H1</t>
   </si>
 </sst>
 </file>
@@ -930,26 +954,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:BP1204"/>
+  <dimension ref="A1:BP1436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D1387" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="B1436" sqref="B1436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="9.28515625" style="3"/>
+    <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="3"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
-    <col min="7" max="16" width="9.28515625" style="3"/>
+    <col min="7" max="7" width="9.28515625" style="3"/>
+    <col min="8" max="8" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="3"/>
+    <col min="10" max="10" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.28515625" style="3"/>
+    <col min="14" max="14" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.28515625" style="3"/>
     <col min="17" max="17" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.28515625" style="3"/>
     <col min="19" max="19" width="5.28515625" style="3" customWidth="1"/>
-    <col min="20" max="23" width="9.28515625" style="3"/>
+    <col min="20" max="21" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.28515625" style="3"/>
     <col min="24" max="24" width="14.85546875" style="3" customWidth="1"/>
     <col min="25" max="25" width="9.28515625" style="3"/>
     <col min="26" max="26" width="17.28515625" style="3" customWidth="1"/>
@@ -45646,6 +45679,6330 @@
         <v>18.2</v>
       </c>
     </row>
+    <row r="1205" spans="1:68" s="20" customFormat="1">
+      <c r="A1205" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1205" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1205" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1205" s="3">
+        <v>100</v>
+      </c>
+      <c r="E1205" s="20">
+        <v>1851.85</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:68" s="20" customFormat="1">
+      <c r="A1206" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1206" s="5">
+        <v>31792</v>
+      </c>
+      <c r="C1206" s="20">
+        <v>4.0000854227687812</v>
+      </c>
+      <c r="D1206" s="3">
+        <v>77.767208332208341</v>
+      </c>
+      <c r="E1206" s="20">
+        <v>1440.1320475</v>
+      </c>
+      <c r="F1206" s="20">
+        <v>166.7019998442276</v>
+      </c>
+      <c r="H1206" s="20">
+        <v>112.74537970676542</v>
+      </c>
+      <c r="J1206" s="20">
+        <v>21.761142962356551</v>
+      </c>
+      <c r="N1206" s="20">
+        <v>32.19547717510563</v>
+      </c>
+      <c r="AB1206" s="20">
+        <v>1.9501867255516743</v>
+      </c>
+      <c r="AC1206" s="20">
+        <v>0.43017543228998234</v>
+      </c>
+      <c r="AD1206" s="20">
+        <v>0.67692307692307685</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:68" s="20" customFormat="1">
+      <c r="A1207" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1207" s="5">
+        <v>32157.242200000001</v>
+      </c>
+      <c r="C1207" s="20">
+        <v>5.000085422768783</v>
+      </c>
+      <c r="D1207" s="3">
+        <v>77.767208332208341</v>
+      </c>
+      <c r="E1207" s="20">
+        <v>1440.1320475</v>
+      </c>
+      <c r="F1207" s="20">
+        <v>325.93599396375362</v>
+      </c>
+      <c r="H1207" s="20">
+        <v>147.9026026255828</v>
+      </c>
+      <c r="J1207" s="20">
+        <v>53.714923212495918</v>
+      </c>
+      <c r="N1207" s="20">
+        <v>124.31846812567485</v>
+      </c>
+      <c r="AB1207" s="20">
+        <v>3.230488381655241</v>
+      </c>
+      <c r="AC1207" s="20">
+        <v>1.1804010272184902</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:68" s="20" customFormat="1">
+      <c r="A1208" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1208" s="5">
+        <v>32522.484400000001</v>
+      </c>
+      <c r="C1208" s="20">
+        <v>6.0000854227687848</v>
+      </c>
+      <c r="D1208" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1208" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1208" s="20">
+        <v>649.99852354022107</v>
+      </c>
+      <c r="H1208" s="20">
+        <v>188.38296885673418</v>
+      </c>
+      <c r="J1208" s="20">
+        <v>110.04468420111527</v>
+      </c>
+      <c r="N1208" s="20">
+        <v>351.57087048237162</v>
+      </c>
+      <c r="AB1208" s="20">
+        <v>4.7795165479101689</v>
+      </c>
+      <c r="AC1208" s="20">
+        <v>2.5607459522564411</v>
+      </c>
+      <c r="AD1208" s="20">
+        <v>6.2573426573426572</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:68" s="20" customFormat="1">
+      <c r="A1209" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1209" s="5">
+        <v>32887.726600000002</v>
+      </c>
+      <c r="C1209" s="20">
+        <v>7.0000854227687865</v>
+      </c>
+      <c r="D1209" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1209" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1209" s="20">
+        <v>1160.1845792901352</v>
+      </c>
+      <c r="H1209" s="20">
+        <v>230.50094107556532</v>
+      </c>
+      <c r="J1209" s="20">
+        <v>187.2461096158942</v>
+      </c>
+      <c r="N1209" s="20">
+        <v>742.4375285986755</v>
+      </c>
+      <c r="AB1209" s="20">
+        <v>6.3192298187461668</v>
+      </c>
+      <c r="AC1209" s="20">
+        <v>4.4763790654386408</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:68" s="20" customFormat="1">
+      <c r="A1210" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1210" s="5">
+        <v>33618.211000000003</v>
+      </c>
+      <c r="C1210" s="20">
+        <v>9.0000854227687892</v>
+      </c>
+      <c r="D1210" s="3">
+        <v>75.68415624915626</v>
+      </c>
+      <c r="E1210" s="20">
+        <v>1401.5570475</v>
+      </c>
+      <c r="F1210" s="20">
+        <v>2197.7501378951115</v>
+      </c>
+      <c r="H1210" s="20">
+        <v>279.1833681513869</v>
+      </c>
+      <c r="J1210" s="20">
+        <v>320.35647596778114</v>
+      </c>
+      <c r="N1210" s="20">
+        <v>1598.2102937759432</v>
+      </c>
+      <c r="AB1210" s="20">
+        <v>8.4723749081914619</v>
+      </c>
+      <c r="AC1210" s="20">
+        <v>7.9015448061830256</v>
+      </c>
+      <c r="AD1210" s="20">
+        <v>27.827972027972027</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:68" s="20" customFormat="1">
+      <c r="A1211" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1211" s="5">
+        <v>33983.453200000004</v>
+      </c>
+      <c r="C1211" s="20">
+        <v>10.000085422768791</v>
+      </c>
+      <c r="D1211" s="3">
+        <v>75.68415624915626</v>
+      </c>
+      <c r="E1211" s="20">
+        <v>1401.5570475</v>
+      </c>
+      <c r="F1211" s="20">
+        <v>2938.5136903232574</v>
+      </c>
+      <c r="H1211" s="20">
+        <v>309.90422222129575</v>
+      </c>
+      <c r="J1211" s="20">
+        <v>408.40130995582092</v>
+      </c>
+      <c r="N1211" s="20">
+        <v>2220.2081581461407</v>
+      </c>
+      <c r="AB1211" s="20">
+        <v>9.5793649569387682</v>
+      </c>
+      <c r="AC1211" s="20">
+        <v>10.101249896264184</v>
+      </c>
+      <c r="AD1211" s="20">
+        <v>38.250349650349648</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:68" s="20" customFormat="1">
+      <c r="A1212" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1212" s="5">
+        <v>34348.695400000004</v>
+      </c>
+      <c r="C1212" s="20">
+        <v>11.000085422768793</v>
+      </c>
+      <c r="D1212" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1212" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1212" s="20">
+        <v>3501.616391440275</v>
+      </c>
+      <c r="H1212" s="20">
+        <v>329.16414044503546</v>
+      </c>
+      <c r="J1212" s="20">
+        <v>469.87754205106637</v>
+      </c>
+      <c r="N1212" s="20">
+        <v>2702.5747089441729</v>
+      </c>
+      <c r="AB1212" s="20">
+        <v>10.239624135402295</v>
+      </c>
+      <c r="AC1212" s="20">
+        <v>11.753483078789225</v>
+      </c>
+      <c r="AD1212" s="20">
+        <v>46.579020979020981</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:68" s="20" customFormat="1">
+      <c r="A1213" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1213" s="5">
+        <v>35079.179800000005</v>
+      </c>
+      <c r="C1213" s="20">
+        <v>13.000085422768796</v>
+      </c>
+      <c r="D1213" s="3">
+        <v>74.989874989874991</v>
+      </c>
+      <c r="E1213" s="20">
+        <v>1388.7</v>
+      </c>
+      <c r="F1213" s="20">
+        <v>4787.160905592199</v>
+      </c>
+      <c r="H1213" s="20">
+        <v>360.21668014865361</v>
+      </c>
+      <c r="J1213" s="20">
+        <v>601.92554301178814</v>
+      </c>
+      <c r="N1213" s="20">
+        <v>3825.018682431757</v>
+      </c>
+      <c r="AB1213" s="20">
+        <v>11.77837360251894</v>
+      </c>
+      <c r="AC1213" s="20">
+        <v>15.13108196787932</v>
+      </c>
+      <c r="AD1213" s="20">
+        <v>65.127272727272725</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:68" s="20" customFormat="1">
+      <c r="A1214" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1214" s="5">
+        <v>35444.422000000006</v>
+      </c>
+      <c r="C1214" s="20">
+        <v>14.000085422768798</v>
+      </c>
+      <c r="D1214" s="3">
+        <v>74.295593730593737</v>
+      </c>
+      <c r="E1214" s="20">
+        <v>1375.8429524999999</v>
+      </c>
+      <c r="F1214" s="20">
+        <v>5236.0663049317527</v>
+      </c>
+      <c r="H1214" s="20">
+        <v>365.87887009067668</v>
+      </c>
+      <c r="J1214" s="20">
+        <v>642.16340264832706</v>
+      </c>
+      <c r="N1214" s="20">
+        <v>4228.0240321927486</v>
+      </c>
+      <c r="AB1214" s="20">
+        <v>12.270051836260292</v>
+      </c>
+      <c r="AC1214" s="20">
+        <v>16.268688939312305</v>
+      </c>
+      <c r="AD1214" s="20">
+        <v>70.700699300699299</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:68" s="20" customFormat="1">
+      <c r="A1215" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1215" s="5">
+        <v>35809.664200000007</v>
+      </c>
+      <c r="C1215" s="20">
+        <v>15.000085422768798</v>
+      </c>
+      <c r="D1215" s="3">
+        <v>75.68415624915626</v>
+      </c>
+      <c r="E1215" s="20">
+        <v>1401.5570475</v>
+      </c>
+      <c r="F1215" s="20">
+        <v>5667.4184159496835</v>
+      </c>
+      <c r="H1215" s="20">
+        <v>374.56375918261449</v>
+      </c>
+      <c r="J1215" s="20">
+        <v>680.37325821797299</v>
+      </c>
+      <c r="N1215" s="20">
+        <v>4612.4813985490964</v>
+      </c>
+      <c r="AB1215" s="20">
+        <v>12.588159457717961</v>
+      </c>
+      <c r="AC1215" s="20">
+        <v>17.443199490616795</v>
+      </c>
+      <c r="AD1215" s="20">
+        <v>75.386713286713288</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:68" s="20" customFormat="1">
+      <c r="A1216" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1216" s="5">
+        <v>36174.906400000007</v>
+      </c>
+      <c r="C1216" s="20">
+        <v>16.000085422768802</v>
+      </c>
+      <c r="D1216" s="3">
+        <v>74.295593730593737</v>
+      </c>
+      <c r="E1216" s="20">
+        <v>1375.8429524999999</v>
+      </c>
+      <c r="F1216" s="20">
+        <v>6274.7866034708122</v>
+      </c>
+      <c r="H1216" s="20">
+        <v>384.47597132831481</v>
+      </c>
+      <c r="J1216" s="20">
+        <v>736.25173056374649</v>
+      </c>
+      <c r="N1216" s="20">
+        <v>5154.0589015787509</v>
+      </c>
+      <c r="AB1216" s="20">
+        <v>13.212297623709555</v>
+      </c>
+      <c r="AC1216" s="20">
+        <v>18.863247230234098</v>
+      </c>
+      <c r="AD1216" s="20">
+        <v>84.896503496503485</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:30" s="20" customFormat="1">
+      <c r="A1217" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1217" s="5">
+        <v>36905.390800000008</v>
+      </c>
+      <c r="C1217" s="20">
+        <v>18.000085422768805</v>
+      </c>
+      <c r="D1217" s="3">
+        <v>74.295593730593737</v>
+      </c>
+      <c r="E1217" s="20">
+        <v>1375.8429524999999</v>
+      </c>
+      <c r="F1217" s="20">
+        <v>6917.0272944791586</v>
+      </c>
+      <c r="H1217" s="20">
+        <v>387.23751710654648</v>
+      </c>
+      <c r="J1217" s="20">
+        <v>783.1964514902362</v>
+      </c>
+      <c r="N1217" s="20">
+        <v>5746.5933258823752</v>
+      </c>
+      <c r="AB1217" s="20">
+        <v>13.760491066677757</v>
+      </c>
+      <c r="AC1217" s="20">
+        <v>20.461036304610374</v>
+      </c>
+      <c r="AD1217" s="20">
+        <v>101.10069930069929</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:30" s="20" customFormat="1">
+      <c r="A1218" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1218" s="5">
+        <v>38366.359600000011</v>
+      </c>
+      <c r="C1218" s="20">
+        <v>22.000085422768809</v>
+      </c>
+      <c r="D1218" s="3">
+        <v>72.90682290682291</v>
+      </c>
+      <c r="E1218" s="20">
+        <v>1350.125</v>
+      </c>
+      <c r="F1218" s="20">
+        <v>8961.0609147280957</v>
+      </c>
+      <c r="H1218" s="20">
+        <v>416.05487400684569</v>
+      </c>
+      <c r="J1218" s="20">
+        <v>953.25288120738969</v>
+      </c>
+      <c r="N1218" s="20">
+        <v>7591.7531595138598</v>
+      </c>
+      <c r="AB1218" s="20">
+        <v>15.377028897193838</v>
+      </c>
+      <c r="AC1218" s="20">
+        <v>25.073198391759014</v>
+      </c>
+      <c r="AD1218" s="20">
+        <v>143.07972027972028</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:30" s="20" customFormat="1">
+      <c r="A1219" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1219" s="5">
+        <v>39462.086200000012</v>
+      </c>
+      <c r="C1219" s="20">
+        <v>25.000085422768816</v>
+      </c>
+      <c r="D1219" s="3">
+        <v>70.823770823770829</v>
+      </c>
+      <c r="E1219" s="20">
+        <v>1311.55</v>
+      </c>
+      <c r="F1219" s="20">
+        <v>9523.9973945820893</v>
+      </c>
+      <c r="H1219" s="20">
+        <v>405.1815451926239</v>
+      </c>
+      <c r="J1219" s="20">
+        <v>976.75664654677223</v>
+      </c>
+      <c r="N1219" s="20">
+        <v>8142.0592028426936</v>
+      </c>
+      <c r="AB1219" s="20">
+        <v>15.956189784087831</v>
+      </c>
+      <c r="AC1219" s="20">
+        <v>26.22612549999117</v>
+      </c>
+      <c r="AD1219" s="20">
+        <v>179.52797202797203</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:30" s="20" customFormat="1">
+      <c r="A1220" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1220" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1220" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1220" s="3">
+        <v>100</v>
+      </c>
+      <c r="E1220" s="20">
+        <v>1851.85</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:30" s="20" customFormat="1">
+      <c r="A1221" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1221" s="5">
+        <v>31792</v>
+      </c>
+      <c r="C1221" s="20">
+        <v>4.0000854227687812</v>
+      </c>
+      <c r="D1221" s="3">
+        <v>77.767208332208341</v>
+      </c>
+      <c r="E1221" s="20">
+        <v>1440.1320475</v>
+      </c>
+      <c r="F1221" s="20">
+        <v>1556.5697001784056</v>
+      </c>
+      <c r="H1221" s="20">
+        <v>339.40125348412369</v>
+      </c>
+      <c r="J1221" s="20">
+        <v>273.94707109716461</v>
+      </c>
+      <c r="N1221" s="20">
+        <v>943.22137559711734</v>
+      </c>
+      <c r="AB1221" s="20">
+        <v>6.8872169742077656</v>
+      </c>
+      <c r="AC1221" s="20">
+        <v>5.365136085181538</v>
+      </c>
+      <c r="AD1221" s="20">
+        <v>13.033146853146851</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:30" s="20" customFormat="1">
+      <c r="A1222" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1222" s="5">
+        <v>32157.242200000001</v>
+      </c>
+      <c r="C1222" s="20">
+        <v>5.000085422768783</v>
+      </c>
+      <c r="D1222" s="3">
+        <v>77.767208332208341</v>
+      </c>
+      <c r="E1222" s="20">
+        <v>1440.1320475</v>
+      </c>
+      <c r="F1222" s="20">
+        <v>2776.0965589066714</v>
+      </c>
+      <c r="H1222" s="20">
+        <v>414.8270132811611</v>
+      </c>
+      <c r="J1222" s="20">
+        <v>454.28783810333255</v>
+      </c>
+      <c r="N1222" s="20">
+        <v>1906.9817075221777</v>
+      </c>
+      <c r="AB1222" s="20">
+        <v>8.9589700862819797</v>
+      </c>
+      <c r="AC1222" s="20">
+        <v>9.0784014786635172</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:30" s="20" customFormat="1">
+      <c r="A1223" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1223" s="5">
+        <v>32522.484400000001</v>
+      </c>
+      <c r="C1223" s="20">
+        <v>6.0000854227687848</v>
+      </c>
+      <c r="D1223" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1223" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1223" s="20">
+        <v>4046.0499494508817</v>
+      </c>
+      <c r="H1223" s="20">
+        <v>469.14274411571159</v>
+      </c>
+      <c r="J1223" s="20">
+        <v>622.03439245998231</v>
+      </c>
+      <c r="N1223" s="20">
+        <v>2954.8728128751877</v>
+      </c>
+      <c r="AB1223" s="20">
+        <v>10.586787770834141</v>
+      </c>
+      <c r="AC1223" s="20">
+        <v>12.563972287797831</v>
+      </c>
+      <c r="AD1223" s="20">
+        <v>43.774125874125872</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:30" s="20" customFormat="1">
+      <c r="A1224" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1224" s="5">
+        <v>32887.726600000002</v>
+      </c>
+      <c r="C1224" s="20">
+        <v>7.0000854227687865</v>
+      </c>
+      <c r="D1224" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1224" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1224" s="20">
+        <v>5345.1703045793111</v>
+      </c>
+      <c r="H1224" s="20">
+        <v>515.42400161734145</v>
+      </c>
+      <c r="J1224" s="20">
+        <v>781.28548495190546</v>
+      </c>
+      <c r="N1224" s="20">
+        <v>4048.4608180100645</v>
+      </c>
+      <c r="AB1224" s="20">
+        <v>11.908336190958067</v>
+      </c>
+      <c r="AC1224" s="20">
+        <v>15.89647127668481</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:30" s="20" customFormat="1">
+      <c r="A1225" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1225" s="5">
+        <v>33618.211000000003</v>
+      </c>
+      <c r="C1225" s="20">
+        <v>9.0000854227687892</v>
+      </c>
+      <c r="D1225" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1225" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1225" s="20">
+        <v>7825.0368606041884</v>
+      </c>
+      <c r="H1225" s="20">
+        <v>584.23055983500535</v>
+      </c>
+      <c r="J1225" s="20">
+        <v>1059.7248314103413</v>
+      </c>
+      <c r="N1225" s="20">
+        <v>6181.0814693588418</v>
+      </c>
+      <c r="AB1225" s="20">
+        <v>13.947769117732118</v>
+      </c>
+      <c r="AC1225" s="20">
+        <v>21.807609167741369</v>
+      </c>
+      <c r="AD1225" s="20">
+        <v>101.14545454545454</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:30" s="20" customFormat="1">
+      <c r="A1226" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1226" s="5">
+        <v>33983.453200000004</v>
+      </c>
+      <c r="C1226" s="20">
+        <v>10.000085422768791</v>
+      </c>
+      <c r="D1226" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1226" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1226" s="20">
+        <v>9399.480166154608</v>
+      </c>
+      <c r="H1226" s="20">
+        <v>629.3249960382451</v>
+      </c>
+      <c r="J1226" s="20">
+        <v>1234.5820228481323</v>
+      </c>
+      <c r="N1226" s="20">
+        <v>7535.573147268231</v>
+      </c>
+      <c r="AB1226" s="20">
+        <v>15.019366086012218</v>
+      </c>
+      <c r="AC1226" s="20">
+        <v>25.287259293392896</v>
+      </c>
+      <c r="AD1226" s="20">
+        <v>123.17132867132865</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:30" s="20" customFormat="1">
+      <c r="A1227" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1227" s="5">
+        <v>34348.695400000004</v>
+      </c>
+      <c r="C1227" s="20">
+        <v>11.000085422768793</v>
+      </c>
+      <c r="D1227" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1227" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1227" s="20">
+        <v>10527.27492188774</v>
+      </c>
+      <c r="H1227" s="20">
+        <v>651.60258737072968</v>
+      </c>
+      <c r="J1227" s="20">
+        <v>1347.5839281443991</v>
+      </c>
+      <c r="N1227" s="20">
+        <v>8528.0884063726116</v>
+      </c>
+      <c r="AB1227" s="20">
+        <v>15.729895374031754</v>
+      </c>
+      <c r="AC1227" s="20">
+        <v>27.736408417350344</v>
+      </c>
+      <c r="AD1227" s="20">
+        <v>139.41538461538462</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:30" s="20" customFormat="1">
+      <c r="A1228" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1228" s="5">
+        <v>35079.179800000005</v>
+      </c>
+      <c r="C1228" s="20">
+        <v>13.000085422768796</v>
+      </c>
+      <c r="D1228" s="3">
+        <v>76.378645813645818</v>
+      </c>
+      <c r="E1228" s="20">
+        <v>1414.4179525</v>
+      </c>
+      <c r="F1228" s="20">
+        <v>12952.142434792931</v>
+      </c>
+      <c r="H1228" s="20">
+        <v>698.84344755954521</v>
+      </c>
+      <c r="J1228" s="20">
+        <v>1588.2865502737766</v>
+      </c>
+      <c r="N1228" s="20">
+        <v>10665.012436959609</v>
+      </c>
+      <c r="AB1228" s="20">
+        <v>17.158200693260646</v>
+      </c>
+      <c r="AC1228" s="20">
+        <v>32.704848639995078</v>
+      </c>
+      <c r="AD1228" s="20">
+        <v>174.11748251748253</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:30" s="20" customFormat="1">
+      <c r="A1229" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1229" s="5">
+        <v>35444.422000000006</v>
+      </c>
+      <c r="C1229" s="20">
+        <v>14.000085422768798</v>
+      </c>
+      <c r="D1229" s="3">
+        <v>76.378645813645818</v>
+      </c>
+      <c r="E1229" s="20">
+        <v>1414.4179525</v>
+      </c>
+      <c r="F1229" s="20">
+        <v>13502.875258027239</v>
+      </c>
+      <c r="H1229" s="20">
+        <v>696.70836675960936</v>
+      </c>
+      <c r="J1229" s="20">
+        <v>1624.6005126230486</v>
+      </c>
+      <c r="N1229" s="20">
+        <v>11181.566378644582</v>
+      </c>
+      <c r="AB1229" s="20">
+        <v>17.464069960694079</v>
+      </c>
+      <c r="AC1229" s="20">
+        <v>33.88126226813332</v>
+      </c>
+      <c r="AD1229" s="20">
+        <v>195.93706293706293</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:30" s="20" customFormat="1">
+      <c r="A1230" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1230" s="5">
+        <v>35809.664200000007</v>
+      </c>
+      <c r="C1230" s="20">
+        <v>15.000085422768798</v>
+      </c>
+      <c r="D1230" s="3">
+        <v>75.68415624915626</v>
+      </c>
+      <c r="E1230" s="20">
+        <v>1401.5570475</v>
+      </c>
+      <c r="F1230" s="20">
+        <v>14035.566722551504</v>
+      </c>
+      <c r="H1230" s="20">
+        <v>693.29262645195547</v>
+      </c>
+      <c r="J1230" s="20">
+        <v>1659.4273005368759</v>
+      </c>
+      <c r="N1230" s="20">
+        <v>11682.846795562673</v>
+      </c>
+      <c r="AB1230" s="20">
+        <v>17.813225329003668</v>
+      </c>
+      <c r="AC1230" s="20">
+        <v>34.92905206836474</v>
+      </c>
+      <c r="AD1230" s="20">
+        <v>194.05734265734264</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:30" s="20" customFormat="1">
+      <c r="A1231" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1231" s="5">
+        <v>36174.906400000007</v>
+      </c>
+      <c r="C1231" s="20">
+        <v>16.000085422768802</v>
+      </c>
+      <c r="D1231" s="3">
+        <v>75.68415624915626</v>
+      </c>
+      <c r="E1231" s="20">
+        <v>1401.5570475</v>
+      </c>
+      <c r="F1231" s="20">
+        <v>14961.288582595032</v>
+      </c>
+      <c r="H1231" s="20">
+        <v>706.55032231530993</v>
+      </c>
+      <c r="J1231" s="20">
+        <v>1741.3259744680661</v>
+      </c>
+      <c r="N1231" s="20">
+        <v>12513.412285811657</v>
+      </c>
+      <c r="AB1231" s="20">
+        <v>18.276171521790044</v>
+      </c>
+      <c r="AC1231" s="20">
+        <v>36.768179478992067</v>
+      </c>
+      <c r="AD1231" s="20">
+        <v>218.51538461538459</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:30" s="20" customFormat="1">
+      <c r="A1232" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1232" s="5">
+        <v>36905.390800000008</v>
+      </c>
+      <c r="C1232" s="20">
+        <v>18.000085422768805</v>
+      </c>
+      <c r="D1232" s="3">
+        <v>73.601104166104179</v>
+      </c>
+      <c r="E1232" s="20">
+        <v>1362.9820475000001</v>
+      </c>
+      <c r="F1232" s="20">
+        <v>15255.322894389094</v>
+      </c>
+      <c r="H1232" s="20">
+        <v>675.08983338659993</v>
+      </c>
+      <c r="J1232" s="20">
+        <v>1722.3915604987506</v>
+      </c>
+      <c r="N1232" s="20">
+        <v>12857.841500503742</v>
+      </c>
+      <c r="AB1232" s="20">
+        <v>18.655999471369</v>
+      </c>
+      <c r="AC1232" s="20">
+        <v>37.257874376642953</v>
+      </c>
+      <c r="AD1232" s="20">
+        <v>235.18041958041957</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:30" s="20" customFormat="1">
+      <c r="A1233" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1233" s="5">
+        <v>38366.359600000011</v>
+      </c>
+      <c r="C1233" s="20">
+        <v>22.000085422768809</v>
+      </c>
+      <c r="D1233" s="3">
+        <v>66.657666657666667</v>
+      </c>
+      <c r="E1233" s="20">
+        <v>1234.4000000000001</v>
+      </c>
+      <c r="F1233" s="20">
+        <v>16297.177814212386</v>
+      </c>
+      <c r="H1233" s="20">
+        <v>635.3909718323514</v>
+      </c>
+      <c r="J1233" s="20">
+        <v>1754.229338094809</v>
+      </c>
+      <c r="N1233" s="20">
+        <v>13907.557504285225</v>
+      </c>
+      <c r="AB1233" s="20">
+        <v>19.935519179371862</v>
+      </c>
+      <c r="AC1233" s="20">
+        <v>38.530257450826291</v>
+      </c>
+      <c r="AD1233" s="20">
+        <v>256.84895104895105</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:30" s="20" customFormat="1">
+      <c r="A1234" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1234" s="5">
+        <v>39462.086200000012</v>
+      </c>
+      <c r="C1234" s="20">
+        <v>25.000085422768816</v>
+      </c>
+      <c r="D1234" s="3">
+        <v>60.408510408510409</v>
+      </c>
+      <c r="E1234" s="20">
+        <v>1118.675</v>
+      </c>
+      <c r="F1234" s="20">
+        <v>15455.584652728659</v>
+      </c>
+      <c r="H1234" s="20">
+        <v>563.23579983876857</v>
+      </c>
+      <c r="J1234" s="20">
+        <v>1609.9064860878987</v>
+      </c>
+      <c r="N1234" s="20">
+        <v>13282.442366801992</v>
+      </c>
+      <c r="AB1234" s="20">
+        <v>20.329993884919617</v>
+      </c>
+      <c r="AC1234" s="20">
+        <v>36.313601683770372</v>
+      </c>
+      <c r="AD1234" s="20">
+        <v>278.52377622377622</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:30" s="20" customFormat="1">
+      <c r="A1235" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1235" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1235" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1235" s="3">
+        <v>100</v>
+      </c>
+      <c r="E1235" s="20">
+        <v>1851.85</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:30" s="20" customFormat="1">
+      <c r="A1236" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1236" s="5">
+        <v>31792</v>
+      </c>
+      <c r="C1236" s="20">
+        <v>4.0000854227687812</v>
+      </c>
+      <c r="D1236" s="3">
+        <v>79.155979155979153</v>
+      </c>
+      <c r="E1236" s="20">
+        <v>1465.85</v>
+      </c>
+      <c r="F1236" s="20">
+        <v>1593.4691991160598</v>
+      </c>
+      <c r="H1236" s="20">
+        <v>346.44601533582977</v>
+      </c>
+      <c r="J1236" s="20">
+        <v>280.37840690417681</v>
+      </c>
+      <c r="N1236" s="20">
+        <v>966.64477687605324</v>
+      </c>
+      <c r="AB1236" s="20">
+        <v>6.9048112589042265</v>
+      </c>
+      <c r="AC1236" s="20">
+        <v>5.4888839891211028</v>
+      </c>
+      <c r="AD1236" s="20">
+        <v>13.274615384615384</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:30" s="20" customFormat="1">
+      <c r="A1237" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1237" s="5">
+        <v>32157.242200000001</v>
+      </c>
+      <c r="C1237" s="20">
+        <v>5.000085422768783</v>
+      </c>
+      <c r="D1237" s="3">
+        <v>77.767208332208341</v>
+      </c>
+      <c r="E1237" s="20">
+        <v>1440.1320475</v>
+      </c>
+      <c r="F1237" s="20">
+        <v>2703.7303781388568</v>
+      </c>
+      <c r="H1237" s="20">
+        <v>409.03186110858917</v>
+      </c>
+      <c r="J1237" s="20">
+        <v>443.12364581769651</v>
+      </c>
+      <c r="N1237" s="20">
+        <v>1851.5748712125715</v>
+      </c>
+      <c r="AB1237" s="20">
+        <v>8.8608290736543633</v>
+      </c>
+      <c r="AC1237" s="20">
+        <v>8.8805922490385303</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:30" s="20" customFormat="1">
+      <c r="A1238" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1238" s="5">
+        <v>32522.484400000001</v>
+      </c>
+      <c r="C1238" s="20">
+        <v>6.0000854227687848</v>
+      </c>
+      <c r="D1238" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1238" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1238" s="20">
+        <v>4335.9119967673441</v>
+      </c>
+      <c r="H1238" s="20">
+        <v>488.13756513152504</v>
+      </c>
+      <c r="J1238" s="20">
+        <v>664.13422554017347</v>
+      </c>
+      <c r="N1238" s="20">
+        <v>3183.6402060956452</v>
+      </c>
+      <c r="AB1238" s="20">
+        <v>10.885854377421458</v>
+      </c>
+      <c r="AC1238" s="20">
+        <v>13.28383879043715</v>
+      </c>
+      <c r="AD1238" s="20">
+        <v>48.78671328671328</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:30" s="20" customFormat="1">
+      <c r="A1239" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1239" s="5">
+        <v>32887.726600000002</v>
+      </c>
+      <c r="C1239" s="20">
+        <v>7.0000854227687865</v>
+      </c>
+      <c r="D1239" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1239" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1239" s="20">
+        <v>6192.2994411396912</v>
+      </c>
+      <c r="H1239" s="20">
+        <v>563.87593317685764</v>
+      </c>
+      <c r="J1239" s="20">
+        <v>899.49937215018963</v>
+      </c>
+      <c r="N1239" s="20">
+        <v>4728.9241358126437</v>
+      </c>
+      <c r="AB1239" s="20">
+        <v>12.619935219502711</v>
+      </c>
+      <c r="AC1239" s="20">
+        <v>17.853065853145935</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:30" s="20" customFormat="1">
+      <c r="A1240" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1240" s="5">
+        <v>33618.211000000003</v>
+      </c>
+      <c r="C1240" s="20">
+        <v>9.0000854227687892</v>
+      </c>
+      <c r="D1240" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1240" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1240" s="20">
+        <v>9357.2793069105282</v>
+      </c>
+      <c r="H1240" s="20">
+        <v>658.12128429366601</v>
+      </c>
+      <c r="J1240" s="20">
+        <v>1262.7282910900358</v>
+      </c>
+      <c r="N1240" s="20">
+        <v>7436.4297315268268</v>
+      </c>
+      <c r="AB1240" s="20">
+        <v>14.945239090967405</v>
+      </c>
+      <c r="AC1240" s="20">
+        <v>25.038268373048446</v>
+      </c>
+      <c r="AD1240" s="20">
+        <v>121.56153846153845</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:30" s="20" customFormat="1">
+      <c r="A1241" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1241" s="5">
+        <v>33983.453200000004</v>
+      </c>
+      <c r="C1241" s="20">
+        <v>10.000085422768791</v>
+      </c>
+      <c r="D1241" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1241" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1241" s="20">
+        <v>11231.623904755488</v>
+      </c>
+      <c r="H1241" s="20">
+        <v>712.22171344322453</v>
+      </c>
+      <c r="J1241" s="20">
+        <v>1473.5528794259417</v>
+      </c>
+      <c r="N1241" s="20">
+        <v>9045.8493118863225</v>
+      </c>
+      <c r="AB1241" s="20">
+        <v>16.080090586719926</v>
+      </c>
+      <c r="AC1241" s="20">
+        <v>28.98514903436088</v>
+      </c>
+      <c r="AD1241" s="20">
+        <v>147.86223776223775</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:30" s="20" customFormat="1">
+      <c r="A1242" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1242" s="5">
+        <v>34348.695400000004</v>
+      </c>
+      <c r="C1242" s="20">
+        <v>11.000085422768793</v>
+      </c>
+      <c r="D1242" s="3">
+        <v>74.295593730593737</v>
+      </c>
+      <c r="E1242" s="20">
+        <v>1375.8429524999999</v>
+      </c>
+      <c r="F1242" s="20">
+        <v>12401.459828333693</v>
+      </c>
+      <c r="H1242" s="20">
+        <v>725.10902366985124</v>
+      </c>
+      <c r="J1242" s="20">
+        <v>1588.7256962994911</v>
+      </c>
+      <c r="N1242" s="20">
+        <v>10087.625108364351</v>
+      </c>
+      <c r="AB1242" s="20">
+        <v>16.979611304103834</v>
+      </c>
+      <c r="AC1242" s="20">
+        <v>31.15410281941406</v>
+      </c>
+      <c r="AD1242" s="20">
+        <v>164.89720279720279</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:30" s="20" customFormat="1">
+      <c r="A1243" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1243" s="5">
+        <v>35079.179800000005</v>
+      </c>
+      <c r="C1243" s="20">
+        <v>13.000085422768796</v>
+      </c>
+      <c r="D1243" s="3">
+        <v>72.212541647541642</v>
+      </c>
+      <c r="E1243" s="20">
+        <v>1337.2679524999999</v>
+      </c>
+      <c r="F1243" s="20">
+        <v>14885.546171166081</v>
+      </c>
+      <c r="H1243" s="20">
+        <v>765.62270673300247</v>
+      </c>
+      <c r="J1243" s="20">
+        <v>1833.7748299326238</v>
+      </c>
+      <c r="N1243" s="20">
+        <v>12286.148634500456</v>
+      </c>
+      <c r="AB1243" s="20">
+        <v>18.472668988866875</v>
+      </c>
+      <c r="AC1243" s="20">
+        <v>35.840051927926496</v>
+      </c>
+      <c r="AD1243" s="20">
+        <v>200.20769230769227</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:30" s="20" customFormat="1">
+      <c r="A1244" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1244" s="5">
+        <v>35444.422000000006</v>
+      </c>
+      <c r="C1244" s="20">
+        <v>14.000085422768798</v>
+      </c>
+      <c r="D1244" s="3">
+        <v>72.212541647541642</v>
+      </c>
+      <c r="E1244" s="20">
+        <v>1337.2679524999999</v>
+      </c>
+      <c r="F1244" s="20">
+        <v>15556.589042432184</v>
+      </c>
+      <c r="H1244" s="20">
+        <v>765.99010939848665</v>
+      </c>
+      <c r="J1244" s="20">
+        <v>1882.0233798380928</v>
+      </c>
+      <c r="N1244" s="20">
+        <v>12908.575553195606</v>
+      </c>
+      <c r="AB1244" s="20">
+        <v>18.81687645529442</v>
+      </c>
+      <c r="AC1244" s="20">
+        <v>37.188135169496988</v>
+      </c>
+      <c r="AD1244" s="20">
+        <v>240.66993006993005</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:30" s="20" customFormat="1">
+      <c r="A1245" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1245" s="5">
+        <v>35809.664200000007</v>
+      </c>
+      <c r="C1245" s="20">
+        <v>15.000085422768798</v>
+      </c>
+      <c r="D1245" s="3">
+        <v>70.823770823770829</v>
+      </c>
+      <c r="E1245" s="20">
+        <v>1311.55</v>
+      </c>
+      <c r="F1245" s="20">
+        <v>16033.547697384927</v>
+      </c>
+      <c r="H1245" s="20">
+        <v>756.94239716303866</v>
+      </c>
+      <c r="J1245" s="20">
+        <v>1908.1333312682134</v>
+      </c>
+      <c r="N1245" s="20">
+        <v>13368.471968953676</v>
+      </c>
+      <c r="AB1245" s="20">
+        <v>19.203383298086688</v>
+      </c>
+      <c r="AC1245" s="20">
+        <v>37.98667225045444</v>
+      </c>
+      <c r="AD1245" s="20">
+        <v>241.17972027972027</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:30" s="20" customFormat="1">
+      <c r="A1246" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1246" s="5">
+        <v>36174.906400000007</v>
+      </c>
+      <c r="C1246" s="20">
+        <v>16.000085422768802</v>
+      </c>
+      <c r="D1246" s="3">
+        <v>70.823770823770829</v>
+      </c>
+      <c r="E1246" s="20">
+        <v>1311.55</v>
+      </c>
+      <c r="F1246" s="20">
+        <v>16963.801308385333</v>
+      </c>
+      <c r="H1246" s="20">
+        <v>768.76320435666969</v>
+      </c>
+      <c r="J1246" s="20">
+        <v>1989.3622968418845</v>
+      </c>
+      <c r="N1246" s="20">
+        <v>14205.675807186777</v>
+      </c>
+      <c r="AB1246" s="20">
+        <v>19.64412643987032</v>
+      </c>
+      <c r="AC1246" s="20">
+        <v>39.75037136181372</v>
+      </c>
+      <c r="AD1246" s="20">
+        <v>258.27762237762238</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:30" s="20" customFormat="1">
+      <c r="A1247" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1247" s="5">
+        <v>36905.390800000008</v>
+      </c>
+      <c r="C1247" s="20">
+        <v>18.000085422768805</v>
+      </c>
+      <c r="D1247" s="3">
+        <v>67.351947916947921</v>
+      </c>
+      <c r="E1247" s="20">
+        <v>1247.2570475</v>
+      </c>
+      <c r="F1247" s="20">
+        <v>16994.883004095056</v>
+      </c>
+      <c r="H1247" s="20">
+        <v>722.51134812033183</v>
+      </c>
+      <c r="J1247" s="20">
+        <v>1935.8778788500235</v>
+      </c>
+      <c r="N1247" s="20">
+        <v>14336.493777124701</v>
+      </c>
+      <c r="AB1247" s="20">
+        <v>20.085131571305016</v>
+      </c>
+      <c r="AC1247" s="20">
+        <v>39.518115434578803</v>
+      </c>
+      <c r="AD1247" s="20">
+        <v>278.39160839160837</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:30" s="20" customFormat="1">
+      <c r="A1248" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1248" s="5">
+        <v>38366.359600000011</v>
+      </c>
+      <c r="C1248" s="20">
+        <v>22.000085422768809</v>
+      </c>
+      <c r="D1248" s="3">
+        <v>50.687531252531258</v>
+      </c>
+      <c r="E1248" s="20">
+        <v>938.65704750000009</v>
+      </c>
+      <c r="F1248" s="20">
+        <v>17532.945377722994</v>
+      </c>
+      <c r="H1248" s="20">
+        <v>648.52995417253067</v>
+      </c>
+      <c r="J1248" s="20">
+        <v>1936.1217974750671</v>
+      </c>
+      <c r="N1248" s="20">
+        <v>14948.293626075396</v>
+      </c>
+      <c r="AB1248" s="20">
+        <v>22.686740871324051</v>
+      </c>
+      <c r="AC1248" s="20">
+        <v>37.943908402237724</v>
+      </c>
+      <c r="AD1248" s="20">
+        <v>297.75314685314686</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:30" s="20" customFormat="1">
+      <c r="A1249" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1249" s="5">
+        <v>39462.086200000012</v>
+      </c>
+      <c r="C1249" s="20">
+        <v>25.000085422768816</v>
+      </c>
+      <c r="D1249" s="3">
+        <v>44.438375003375</v>
+      </c>
+      <c r="E1249" s="20">
+        <v>822.93204749999995</v>
+      </c>
+      <c r="F1249" s="20">
+        <v>16161.113459942659</v>
+      </c>
+      <c r="H1249" s="20">
+        <v>560.71289474302898</v>
+      </c>
+      <c r="J1249" s="20">
+        <v>1731.6428747642422</v>
+      </c>
+      <c r="N1249" s="20">
+        <v>13868.757690435388</v>
+      </c>
+      <c r="AB1249" s="20">
+        <v>23.171701498256411</v>
+      </c>
+      <c r="AC1249" s="20">
+        <v>34.703295857431939</v>
+      </c>
+      <c r="AD1249" s="20">
+        <v>319.10209790209785</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:30" s="20" customFormat="1">
+      <c r="A1250" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1250" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1250" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1250" s="3">
+        <v>100</v>
+      </c>
+      <c r="E1250" s="20">
+        <v>1851.85</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:30" s="20" customFormat="1">
+      <c r="A1251" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1251" s="5">
+        <v>31792</v>
+      </c>
+      <c r="C1251" s="20">
+        <v>4.0000854227687812</v>
+      </c>
+      <c r="D1251" s="3">
+        <v>78.461697896697899</v>
+      </c>
+      <c r="E1251" s="20">
+        <v>1452.9929525</v>
+      </c>
+      <c r="F1251" s="20">
+        <v>3352.2158908401648</v>
+      </c>
+      <c r="H1251" s="20">
+        <v>508.53996124651866</v>
+      </c>
+      <c r="J1251" s="20">
+        <v>569.32869763972883</v>
+      </c>
+      <c r="N1251" s="20">
+        <v>2274.3472319539173</v>
+      </c>
+      <c r="AB1251" s="20">
+        <v>9.5366971786116341</v>
+      </c>
+      <c r="AC1251" s="20">
+        <v>10.378877591821327</v>
+      </c>
+      <c r="AD1251" s="20">
+        <v>28.433846153846151</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:30" s="20" customFormat="1">
+      <c r="A1252" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1252" s="5">
+        <v>32157.242200000001</v>
+      </c>
+      <c r="C1252" s="20">
+        <v>5.000085422768783</v>
+      </c>
+      <c r="D1252" s="3">
+        <v>78.461697896697899</v>
+      </c>
+      <c r="E1252" s="20">
+        <v>1452.9929525</v>
+      </c>
+      <c r="F1252" s="20">
+        <v>4978.1229308492993</v>
+      </c>
+      <c r="H1252" s="20">
+        <v>577.99256347346659</v>
+      </c>
+      <c r="J1252" s="20">
+        <v>790.50061146626251</v>
+      </c>
+      <c r="N1252" s="20">
+        <v>3609.6297559095701</v>
+      </c>
+      <c r="AB1252" s="20">
+        <v>11.33285779588163</v>
+      </c>
+      <c r="AC1252" s="20">
+        <v>14.656601615708871</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:30" s="20" customFormat="1">
+      <c r="A1253" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1253" s="5">
+        <v>32522.484400000001</v>
+      </c>
+      <c r="C1253" s="20">
+        <v>6.0000854227687848</v>
+      </c>
+      <c r="D1253" s="3">
+        <v>78.461697896697899</v>
+      </c>
+      <c r="E1253" s="20">
+        <v>1452.9929525</v>
+      </c>
+      <c r="F1253" s="20">
+        <v>6896.9625784870414</v>
+      </c>
+      <c r="H1253" s="20">
+        <v>650.62136208923971</v>
+      </c>
+      <c r="J1253" s="20">
+        <v>1036.5791089788881</v>
+      </c>
+      <c r="N1253" s="20">
+        <v>5209.7621074189137</v>
+      </c>
+      <c r="AB1253" s="20">
+        <v>12.997824008646582</v>
+      </c>
+      <c r="AC1253" s="20">
+        <v>19.279497458967473</v>
+      </c>
+      <c r="AD1253" s="20">
+        <v>78.37342657342657</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:30" s="20" customFormat="1">
+      <c r="A1254" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1254" s="5">
+        <v>32887.726600000002</v>
+      </c>
+      <c r="C1254" s="20">
+        <v>7.0000854227687865</v>
+      </c>
+      <c r="D1254" s="3">
+        <v>78.461697896697899</v>
+      </c>
+      <c r="E1254" s="20">
+        <v>1452.9929525</v>
+      </c>
+      <c r="F1254" s="20">
+        <v>8838.9106724768608</v>
+      </c>
+      <c r="H1254" s="20">
+        <v>713.42312908343024</v>
+      </c>
+      <c r="J1254" s="20">
+        <v>1271.8265617517204</v>
+      </c>
+      <c r="N1254" s="20">
+        <v>6853.6609816417094</v>
+      </c>
+      <c r="AB1254" s="20">
+        <v>14.40009180456757</v>
+      </c>
+      <c r="AC1254" s="20">
+        <v>23.663823993114097</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:30" s="20" customFormat="1">
+      <c r="A1255" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1255" s="5">
+        <v>33618.211000000003</v>
+      </c>
+      <c r="C1255" s="20">
+        <v>9.0000854227687892</v>
+      </c>
+      <c r="D1255" s="3">
+        <v>77.767208332208341</v>
+      </c>
+      <c r="E1255" s="20">
+        <v>1440.1320475</v>
+      </c>
+      <c r="F1255" s="20">
+        <v>11739.037704570897</v>
+      </c>
+      <c r="H1255" s="20">
+        <v>772.87935845556865</v>
+      </c>
+      <c r="J1255" s="20">
+        <v>1582.5270783445235</v>
+      </c>
+      <c r="N1255" s="20">
+        <v>9383.6312677708065</v>
+      </c>
+      <c r="AB1255" s="20">
+        <v>16.247309630127091</v>
+      </c>
+      <c r="AC1255" s="20">
+        <v>29.857684589663673</v>
+      </c>
+      <c r="AD1255" s="20">
+        <v>151.83636363636364</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:30" s="20" customFormat="1">
+      <c r="A1256" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1256" s="5">
+        <v>33983.453200000004</v>
+      </c>
+      <c r="C1256" s="20">
+        <v>10.000085422768791</v>
+      </c>
+      <c r="D1256" s="3">
+        <v>77.767208332208341</v>
+      </c>
+      <c r="E1256" s="20">
+        <v>1440.1320475</v>
+      </c>
+      <c r="F1256" s="20">
+        <v>13460.744544810848</v>
+      </c>
+      <c r="H1256" s="20">
+        <v>813.97302903440664</v>
+      </c>
+      <c r="J1256" s="20">
+        <v>1768.5799258999803</v>
+      </c>
+      <c r="N1256" s="20">
+        <v>10878.191589876462</v>
+      </c>
+      <c r="AB1256" s="20">
+        <v>17.169580674362049</v>
+      </c>
+      <c r="AC1256" s="20">
+        <v>33.343607820433881</v>
+      </c>
+      <c r="AD1256" s="20">
+        <v>175.99230769230769</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:30" s="20" customFormat="1">
+      <c r="A1257" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1257" s="5">
+        <v>34348.695400000004</v>
+      </c>
+      <c r="C1257" s="20">
+        <v>11.000085422768793</v>
+      </c>
+      <c r="D1257" s="3">
+        <v>77.767208332208341</v>
+      </c>
+      <c r="E1257" s="20">
+        <v>1440.1320475</v>
+      </c>
+      <c r="F1257" s="20">
+        <v>15099.395916581572</v>
+      </c>
+      <c r="H1257" s="20">
+        <v>849.67112924025389</v>
+      </c>
+      <c r="J1257" s="20">
+        <v>1940.1478815135415</v>
+      </c>
+      <c r="N1257" s="20">
+        <v>12309.576905827776</v>
+      </c>
+      <c r="AB1257" s="20">
+        <v>17.981073710675542</v>
+      </c>
+      <c r="AC1257" s="20">
+        <v>36.569957412593617</v>
+      </c>
+      <c r="AD1257" s="20">
+        <v>198.97692307692307</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:30" s="20" customFormat="1">
+      <c r="A1258" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1258" s="5">
+        <v>35079.179800000005</v>
+      </c>
+      <c r="C1258" s="20">
+        <v>13.000085422768796</v>
+      </c>
+      <c r="D1258" s="3">
+        <v>76.378645813645818</v>
+      </c>
+      <c r="E1258" s="20">
+        <v>1414.4179525</v>
+      </c>
+      <c r="F1258" s="20">
+        <v>17446.134777541381</v>
+      </c>
+      <c r="H1258" s="20">
+        <v>877.52955362699072</v>
+      </c>
+      <c r="J1258" s="20">
+        <v>2157.7074505290311</v>
+      </c>
+      <c r="N1258" s="20">
+        <v>14410.897773385359</v>
+      </c>
+      <c r="AB1258" s="20">
+        <v>19.200350062851641</v>
+      </c>
+      <c r="AC1258" s="20">
+        <v>40.953115920747045</v>
+      </c>
+      <c r="AD1258" s="20">
+        <v>232.70139860139861</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:30" s="20" customFormat="1">
+      <c r="A1259" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1259" s="5">
+        <v>35444.422000000006</v>
+      </c>
+      <c r="C1259" s="20">
+        <v>14.000085422768798</v>
+      </c>
+      <c r="D1259" s="3">
+        <v>74.989874989874991</v>
+      </c>
+      <c r="E1259" s="20">
+        <v>1388.7</v>
+      </c>
+      <c r="F1259" s="20">
+        <v>17566.389579770075</v>
+      </c>
+      <c r="H1259" s="20">
+        <v>849.87567937275367</v>
+      </c>
+      <c r="J1259" s="20">
+        <v>2132.6986752335688</v>
+      </c>
+      <c r="N1259" s="20">
+        <v>14583.815225163751</v>
+      </c>
+      <c r="AB1259" s="20">
+        <v>19.418758278200833</v>
+      </c>
+      <c r="AC1259" s="20">
+        <v>41.128440650002844</v>
+      </c>
+      <c r="AD1259" s="20">
+        <v>264.79860139860136</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:30" s="20" customFormat="1">
+      <c r="A1260" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1260" s="5">
+        <v>35809.664200000007</v>
+      </c>
+      <c r="C1260" s="20">
+        <v>15.000085422768798</v>
+      </c>
+      <c r="D1260" s="3">
+        <v>73.601104166104179</v>
+      </c>
+      <c r="E1260" s="20">
+        <v>1362.9820475000001</v>
+      </c>
+      <c r="F1260" s="20">
+        <v>17841.96767459</v>
+      </c>
+      <c r="H1260" s="20">
+        <v>830.81756440227696</v>
+      </c>
+      <c r="J1260" s="20">
+        <v>2130.1791402837675</v>
+      </c>
+      <c r="N1260" s="20">
+        <v>14880.970969903956</v>
+      </c>
+      <c r="AB1260" s="20">
+        <v>19.702748723628371</v>
+      </c>
+      <c r="AC1260" s="20">
+        <v>41.556089201359555</v>
+      </c>
+      <c r="AD1260" s="20">
+        <v>264.07202797202797</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:30" s="20" customFormat="1">
+      <c r="A1261" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1261" s="5">
+        <v>36174.906400000007</v>
+      </c>
+      <c r="C1261" s="20">
+        <v>16.000085422768802</v>
+      </c>
+      <c r="D1261" s="3">
+        <v>75.68415624915626</v>
+      </c>
+      <c r="E1261" s="20">
+        <v>1401.5570475</v>
+      </c>
+      <c r="F1261" s="20">
+        <v>19116.01698679967</v>
+      </c>
+      <c r="H1261" s="20">
+        <v>857.58086159568268</v>
+      </c>
+      <c r="J1261" s="20">
+        <v>2248.0095563284094</v>
+      </c>
+      <c r="N1261" s="20">
+        <v>16010.426568875579</v>
+      </c>
+      <c r="AB1261" s="20">
+        <v>20.038626343495711</v>
+      </c>
+      <c r="AC1261" s="20">
+        <v>44.201557314881697</v>
+      </c>
+      <c r="AD1261" s="20">
+        <v>285.80069930069925</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:30" s="20" customFormat="1">
+      <c r="A1262" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1262" s="5">
+        <v>36905.390800000008</v>
+      </c>
+      <c r="C1262" s="20">
+        <v>18.000085422768805</v>
+      </c>
+      <c r="D1262" s="3">
+        <v>72.212541647541642</v>
+      </c>
+      <c r="E1262" s="20">
+        <v>1337.2679524999999</v>
+      </c>
+      <c r="F1262" s="20">
+        <v>19581.76327303315</v>
+      </c>
+      <c r="H1262" s="20">
+        <v>821.96567496520004</v>
+      </c>
+      <c r="J1262" s="20">
+        <v>2240.1993437908122</v>
+      </c>
+      <c r="N1262" s="20">
+        <v>16519.598254277138</v>
+      </c>
+      <c r="AB1262" s="20">
+        <v>20.633142405724396</v>
+      </c>
+      <c r="AC1262" s="20">
+        <v>44.713646090195404</v>
+      </c>
+      <c r="AD1262" s="20">
+        <v>320.47762237762237</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:30" s="20" customFormat="1">
+      <c r="A1263" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1263" s="5">
+        <v>38366.359600000011</v>
+      </c>
+      <c r="C1263" s="20">
+        <v>22.000085422768809</v>
+      </c>
+      <c r="D1263" s="3">
+        <v>59.714229149229162</v>
+      </c>
+      <c r="E1263" s="20">
+        <v>1105.8179525</v>
+      </c>
+      <c r="F1263" s="20">
+        <v>20061.163065494042</v>
+      </c>
+      <c r="H1263" s="20">
+        <v>744.58171651736643</v>
+      </c>
+      <c r="J1263" s="20">
+        <v>2209.3001943767872</v>
+      </c>
+      <c r="N1263" s="20">
+        <v>17107.281154599888</v>
+      </c>
+      <c r="AB1263" s="20">
+        <v>22.442425738219335</v>
+      </c>
+      <c r="AC1263" s="20">
+        <v>43.743560226080859</v>
+      </c>
+      <c r="AD1263" s="20">
+        <v>342.53916083916084</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:30" s="20" customFormat="1">
+      <c r="A1264" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1264" s="5">
+        <v>39462.086200000012</v>
+      </c>
+      <c r="C1264" s="20">
+        <v>25.000085422768816</v>
+      </c>
+      <c r="D1264" s="3">
+        <v>52.770583335583346</v>
+      </c>
+      <c r="E1264" s="20">
+        <v>977.23204750000014</v>
+      </c>
+      <c r="F1264" s="20">
+        <v>18502.7822863824</v>
+      </c>
+      <c r="H1264" s="20">
+        <v>644.41278876720992</v>
+      </c>
+      <c r="J1264" s="20">
+        <v>1975.3167378342655</v>
+      </c>
+      <c r="N1264" s="20">
+        <v>15883.052759780923</v>
+      </c>
+      <c r="AB1264" s="20">
+        <v>22.860138254121857</v>
+      </c>
+      <c r="AC1264" s="20">
+        <v>40.109412709716104</v>
+      </c>
+      <c r="AD1264" s="20">
+        <v>368.04965034965034</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:30" s="20" customFormat="1">
+      <c r="A1265" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1265" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1265" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1265" s="3">
+        <v>100</v>
+      </c>
+      <c r="E1265" s="20">
+        <v>1851.85</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:30" s="20" customFormat="1">
+      <c r="A1266" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1266" s="5">
+        <v>31792</v>
+      </c>
+      <c r="C1266" s="20">
+        <v>4.0000854227687812</v>
+      </c>
+      <c r="D1266" s="3">
+        <v>78.461697896697899</v>
+      </c>
+      <c r="E1266" s="20">
+        <v>1452.9929525</v>
+      </c>
+      <c r="F1266" s="20">
+        <v>433.15200057133603</v>
+      </c>
+      <c r="H1266" s="20">
+        <v>186.49076112408525</v>
+      </c>
+      <c r="J1266" s="20">
+        <v>22.415255646192854</v>
+      </c>
+      <c r="N1266" s="20">
+        <v>224.24598380105795</v>
+      </c>
+      <c r="AB1266" s="20">
+        <v>3.782093842448897</v>
+      </c>
+      <c r="AC1266" s="20">
+        <v>1.6323715076437588</v>
+      </c>
+      <c r="AD1266" s="20">
+        <v>2.7808391608391605</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:30" s="20" customFormat="1">
+      <c r="A1267" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1267" s="5">
+        <v>32157.242200000001</v>
+      </c>
+      <c r="C1267" s="20">
+        <v>5.000085422768783</v>
+      </c>
+      <c r="D1267" s="3">
+        <v>77.767208332208341</v>
+      </c>
+      <c r="E1267" s="20">
+        <v>1440.1320475</v>
+      </c>
+      <c r="F1267" s="20">
+        <v>928.85886167005265</v>
+      </c>
+      <c r="H1267" s="20">
+        <v>242.57138824301995</v>
+      </c>
+      <c r="J1267" s="20">
+        <v>65.490733318806832</v>
+      </c>
+      <c r="N1267" s="20">
+        <v>620.79674010822589</v>
+      </c>
+      <c r="AB1267" s="20">
+        <v>5.5157059145715177</v>
+      </c>
+      <c r="AC1267" s="20">
+        <v>3.4410851294965896</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:30" s="20" customFormat="1">
+      <c r="A1268" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1268" s="5">
+        <v>32522.484400000001</v>
+      </c>
+      <c r="C1268" s="20">
+        <v>6.0000854227687848</v>
+      </c>
+      <c r="D1268" s="3">
+        <v>77.767208332208341</v>
+      </c>
+      <c r="E1268" s="20">
+        <v>1440.1320475</v>
+      </c>
+      <c r="F1268" s="20">
+        <v>1508.0468314925961</v>
+      </c>
+      <c r="H1268" s="20">
+        <v>286.40680513599023</v>
+      </c>
+      <c r="J1268" s="20">
+        <v>117.74137668214928</v>
+      </c>
+      <c r="N1268" s="20">
+        <v>1103.8986496744567</v>
+      </c>
+      <c r="AB1268" s="20">
+        <v>6.8144480451180662</v>
+      </c>
+      <c r="AC1268" s="20">
+        <v>5.2523611616997457</v>
+      </c>
+      <c r="AD1268" s="20">
+        <v>14.029370629370629</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:30" s="20" customFormat="1">
+      <c r="A1269" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1269" s="5">
+        <v>32887.726600000002</v>
+      </c>
+      <c r="C1269" s="20">
+        <v>7.0000854227687865</v>
+      </c>
+      <c r="D1269" s="3">
+        <v>76.378645813645818</v>
+      </c>
+      <c r="E1269" s="20">
+        <v>1414.4179525</v>
+      </c>
+      <c r="F1269" s="20">
+        <v>2349.6640725805887</v>
+      </c>
+      <c r="H1269" s="20">
+        <v>336.37941026595809</v>
+      </c>
+      <c r="J1269" s="20">
+        <v>197.54154633172217</v>
+      </c>
+      <c r="N1269" s="20">
+        <v>1815.7431159829084</v>
+      </c>
+      <c r="AB1269" s="20">
+        <v>8.2356558794332759</v>
+      </c>
+      <c r="AC1269" s="20">
+        <v>7.5346839524209139</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:30" s="20" customFormat="1">
+      <c r="A1270" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1270" s="5">
+        <v>33618.211000000003</v>
+      </c>
+      <c r="C1270" s="20">
+        <v>9.0000854227687892</v>
+      </c>
+      <c r="D1270" s="3">
+        <v>73.601104166104179</v>
+      </c>
+      <c r="E1270" s="20">
+        <v>1362.9820475000001</v>
+      </c>
+      <c r="F1270" s="20">
+        <v>4016.8609531955472</v>
+      </c>
+      <c r="H1270" s="20">
+        <v>409.25735459585786</v>
+      </c>
+      <c r="J1270" s="20">
+        <v>354.66384671811653</v>
+      </c>
+      <c r="N1270" s="20">
+        <v>3252.9397518815726</v>
+      </c>
+      <c r="AB1270" s="20">
+        <v>10.342568705359797</v>
+      </c>
+      <c r="AC1270" s="20">
+        <v>11.450853585463751</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:30" s="20" customFormat="1">
+      <c r="A1271" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1271" s="5">
+        <v>33983.453200000004</v>
+      </c>
+      <c r="C1271" s="20">
+        <v>10.000085422768791</v>
+      </c>
+      <c r="D1271" s="3">
+        <v>73.601104166104179</v>
+      </c>
+      <c r="E1271" s="20">
+        <v>1362.9820475000001</v>
+      </c>
+      <c r="F1271" s="20">
+        <v>5113.1719150496065</v>
+      </c>
+      <c r="H1271" s="20">
+        <v>457.10150194357414</v>
+      </c>
+      <c r="J1271" s="20">
+        <v>459.07373917541508</v>
+      </c>
+      <c r="N1271" s="20">
+        <v>4196.9966739306165</v>
+      </c>
+      <c r="AB1271" s="20">
+        <v>11.357430990714644</v>
+      </c>
+      <c r="AC1271" s="20">
+        <v>13.808332807333858</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:30" s="20" customFormat="1">
+      <c r="A1272" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1272" s="5">
+        <v>34348.695400000004</v>
+      </c>
+      <c r="C1272" s="20">
+        <v>11.000085422768793</v>
+      </c>
+      <c r="D1272" s="3">
+        <v>71.518052083052083</v>
+      </c>
+      <c r="E1272" s="20">
+        <v>1324.4070475000001</v>
+      </c>
+      <c r="F1272" s="20">
+        <v>6043.832714306277</v>
+      </c>
+      <c r="H1272" s="20">
+        <v>487.47057191265611</v>
+      </c>
+      <c r="J1272" s="20">
+        <v>547.55926422025072</v>
+      </c>
+      <c r="N1272" s="20">
+        <v>5008.8028781733701</v>
+      </c>
+      <c r="AB1272" s="20">
+        <v>12.248165640973106</v>
+      </c>
+      <c r="AC1272" s="20">
+        <v>15.60466616217567</v>
+      </c>
+      <c r="AD1272" s="20">
+        <v>49.739160839160839</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:30" s="20" customFormat="1">
+      <c r="A1273" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1273" s="5">
+        <v>35079.179800000005</v>
+      </c>
+      <c r="C1273" s="20">
+        <v>13.000085422768796</v>
+      </c>
+      <c r="D1273" s="3">
+        <v>70.823770823770829</v>
+      </c>
+      <c r="E1273" s="20">
+        <v>1311.55</v>
+      </c>
+      <c r="F1273" s="20">
+        <v>7812.068119660953</v>
+      </c>
+      <c r="H1273" s="20">
+        <v>547.01345327482898</v>
+      </c>
+      <c r="J1273" s="20">
+        <v>705.93850514092344</v>
+      </c>
+      <c r="N1273" s="20">
+        <v>6559.1161612452006</v>
+      </c>
+      <c r="AB1273" s="20">
+        <v>13.572129874517456</v>
+      </c>
+      <c r="AC1273" s="20">
+        <v>18.974562121224384</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:30" s="20" customFormat="1">
+      <c r="A1274" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1274" s="5">
+        <v>35444.422000000006</v>
+      </c>
+      <c r="C1274" s="20">
+        <v>14.000085422768798</v>
+      </c>
+      <c r="D1274" s="3">
+        <v>68.046437481437479</v>
+      </c>
+      <c r="E1274" s="20">
+        <v>1260.1179525</v>
+      </c>
+      <c r="F1274" s="20">
+        <v>8262.7959191204864</v>
+      </c>
+      <c r="H1274" s="20">
+        <v>549.1610454280742</v>
+      </c>
+      <c r="J1274" s="20">
+        <v>741.96704688800469</v>
+      </c>
+      <c r="N1274" s="20">
+        <v>6971.667826804407</v>
+      </c>
+      <c r="AB1274" s="20">
+        <v>14.085158396589925</v>
+      </c>
+      <c r="AC1274" s="20">
+        <v>19.63475860631431</v>
+      </c>
+      <c r="AD1274" s="20">
+        <v>93.132167832167823</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:30" s="20" customFormat="1">
+      <c r="A1275" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1275" s="5">
+        <v>35809.664200000007</v>
+      </c>
+      <c r="C1275" s="20">
+        <v>15.000085422768798</v>
+      </c>
+      <c r="D1275" s="3">
+        <v>66.657666657666667</v>
+      </c>
+      <c r="E1275" s="20">
+        <v>1234.4000000000001</v>
+      </c>
+      <c r="F1275" s="20">
+        <v>9091.450588926924</v>
+      </c>
+      <c r="H1275" s="20">
+        <v>572.23101138367792</v>
+      </c>
+      <c r="J1275" s="20">
+        <v>816.58624160144643</v>
+      </c>
+      <c r="N1275" s="20">
+        <v>7702.6333359418004</v>
+      </c>
+      <c r="AB1275" s="20">
+        <v>14.721719715351663</v>
+      </c>
+      <c r="AC1275" s="20">
+        <v>21.011831044733366</v>
+      </c>
+      <c r="AD1275" s="20">
+        <v>99.876223776223767</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:30" s="20" customFormat="1">
+      <c r="A1276" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1276" s="5">
+        <v>36174.906400000007</v>
+      </c>
+      <c r="C1276" s="20">
+        <v>16.000085422768802</v>
+      </c>
+      <c r="D1276" s="3">
+        <v>65.963385398385398</v>
+      </c>
+      <c r="E1276" s="20">
+        <v>1221.5429525</v>
+      </c>
+      <c r="F1276" s="20">
+        <v>9851.9287706016257</v>
+      </c>
+      <c r="H1276" s="20">
+        <v>593.44333580347939</v>
+      </c>
+      <c r="J1276" s="20">
+        <v>881.51384329855114</v>
+      </c>
+      <c r="N1276" s="20">
+        <v>8376.9715914995941</v>
+      </c>
+      <c r="AB1276" s="20">
+        <v>15.241158304551655</v>
+      </c>
+      <c r="AC1276" s="20">
+        <v>22.286177610888032</v>
+      </c>
+      <c r="AD1276" s="20">
+        <v>113.2965034965035</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:30" s="20" customFormat="1">
+      <c r="A1277" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1277" s="5">
+        <v>36905.390800000008</v>
+      </c>
+      <c r="C1277" s="20">
+        <v>18.000085422768805</v>
+      </c>
+      <c r="D1277" s="3">
+        <v>65.26889583389584</v>
+      </c>
+      <c r="E1277" s="20">
+        <v>1208.6820475</v>
+      </c>
+      <c r="F1277" s="20">
+        <v>11050.032967942456</v>
+      </c>
+      <c r="H1277" s="20">
+        <v>622.70898595516007</v>
+      </c>
+      <c r="J1277" s="20">
+        <v>972.75453256114429</v>
+      </c>
+      <c r="N1277" s="20">
+        <v>9454.5694494261516</v>
+      </c>
+      <c r="AB1277" s="20">
+        <v>15.996037866636632</v>
+      </c>
+      <c r="AC1277" s="20">
+        <v>24.290016824936352</v>
+      </c>
+      <c r="AD1277" s="20">
+        <v>137.3965034965035</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:30" s="20" customFormat="1">
+      <c r="A1278" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1278" s="5">
+        <v>38366.359600000011</v>
+      </c>
+      <c r="C1278" s="20">
+        <v>22.000085422768809</v>
+      </c>
+      <c r="D1278" s="3">
+        <v>59.019739584739597</v>
+      </c>
+      <c r="E1278" s="20">
+        <v>1092.9570475</v>
+      </c>
+      <c r="F1278" s="20">
+        <v>13235.369169161248</v>
+      </c>
+      <c r="H1278" s="20">
+        <v>663.27336339479314</v>
+      </c>
+      <c r="J1278" s="20">
+        <v>1152.2359091762964</v>
+      </c>
+      <c r="N1278" s="20">
+        <v>11419.859896590158</v>
+      </c>
+      <c r="AB1278" s="20">
+        <v>17.790917984772715</v>
+      </c>
+      <c r="AC1278" s="20">
+        <v>27.170066848490222</v>
+      </c>
+      <c r="AD1278" s="20">
+        <v>178.81398601398601</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:30" s="20" customFormat="1">
+      <c r="A1279" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1279" s="5">
+        <v>39462.086200000012</v>
+      </c>
+      <c r="C1279" s="20">
+        <v>25.000085422768816</v>
+      </c>
+      <c r="D1279" s="3">
+        <v>52.076302076302085</v>
+      </c>
+      <c r="E1279" s="20">
+        <v>964.375</v>
+      </c>
+      <c r="F1279" s="20">
+        <v>12822.717613877829</v>
+      </c>
+      <c r="H1279" s="20">
+        <v>609.11476306985242</v>
+      </c>
+      <c r="J1279" s="20">
+        <v>1086.2660660019485</v>
+      </c>
+      <c r="N1279" s="20">
+        <v>11127.336784806028</v>
+      </c>
+      <c r="AB1279" s="20">
+        <v>18.451280300448524</v>
+      </c>
+      <c r="AC1279" s="20">
+        <v>25.786348820637279</v>
+      </c>
+      <c r="AD1279" s="20">
+        <v>195.52027972027972</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:30" s="20" customFormat="1">
+      <c r="A1280" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1280" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1280" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1280" s="3">
+        <v>100</v>
+      </c>
+      <c r="E1280" s="20">
+        <v>1851.85</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:30" s="20" customFormat="1">
+      <c r="A1281" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1281" s="5">
+        <v>31792</v>
+      </c>
+      <c r="C1281" s="20">
+        <v>4.0000854227687812</v>
+      </c>
+      <c r="D1281" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1281" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1281" s="20">
+        <v>2108.4900843314745</v>
+      </c>
+      <c r="H1281" s="20">
+        <v>379.02059567900739</v>
+      </c>
+      <c r="J1281" s="20">
+        <v>207.45008178732672</v>
+      </c>
+      <c r="N1281" s="20">
+        <v>1522.0194068651404</v>
+      </c>
+      <c r="AB1281" s="20">
+        <v>7.6931308845664752</v>
+      </c>
+      <c r="AC1281" s="20">
+        <v>6.6344480565379067</v>
+      </c>
+      <c r="AD1281" s="20">
+        <v>14.970419580419579</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:30" s="20" customFormat="1">
+      <c r="A1282" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1282" s="5">
+        <v>32157.242200000001</v>
+      </c>
+      <c r="C1282" s="20">
+        <v>5.000085422768783</v>
+      </c>
+      <c r="D1282" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1282" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1282" s="20">
+        <v>3480.9024835121886</v>
+      </c>
+      <c r="H1282" s="20">
+        <v>460.82732183065639</v>
+      </c>
+      <c r="J1282" s="20">
+        <v>362.25536123937724</v>
+      </c>
+      <c r="N1282" s="20">
+        <v>2657.8198004421552</v>
+      </c>
+      <c r="AB1282" s="20">
+        <v>9.4414793212488313</v>
+      </c>
+      <c r="AC1282" s="20">
+        <v>9.9926033405169932</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:30" s="20" customFormat="1">
+      <c r="A1283" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1283" s="5">
+        <v>32522.484400000001</v>
+      </c>
+      <c r="C1283" s="20">
+        <v>6.0000854227687848</v>
+      </c>
+      <c r="D1283" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1283" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1283" s="20">
+        <v>5130.1190419199902</v>
+      </c>
+      <c r="H1283" s="20">
+        <v>544.9552219775137</v>
+      </c>
+      <c r="J1283" s="20">
+        <v>549.34672192227072</v>
+      </c>
+      <c r="N1283" s="20">
+        <v>4035.8170980202049</v>
+      </c>
+      <c r="AB1283" s="20">
+        <v>11.007258493632097</v>
+      </c>
+      <c r="AC1283" s="20">
+        <v>13.581786110600211</v>
+      </c>
+      <c r="AD1283" s="20">
+        <v>46.205594405594404</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:30" s="20" customFormat="1">
+      <c r="A1284" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1284" s="5">
+        <v>32887.726600000002</v>
+      </c>
+      <c r="C1284" s="20">
+        <v>7.0000854227687865</v>
+      </c>
+      <c r="D1284" s="3">
+        <v>77.072927072927072</v>
+      </c>
+      <c r="E1284" s="20">
+        <v>1427.2750000000001</v>
+      </c>
+      <c r="F1284" s="20">
+        <v>6748.3477901519127</v>
+      </c>
+      <c r="H1284" s="20">
+        <v>616.57342188828318</v>
+      </c>
+      <c r="J1284" s="20">
+        <v>728.24453836272789</v>
+      </c>
+      <c r="N1284" s="20">
+        <v>5403.5298299009009</v>
+      </c>
+      <c r="AB1284" s="20">
+        <v>12.252905659360447</v>
+      </c>
+      <c r="AC1284" s="20">
+        <v>16.829713976065435</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:30" s="20" customFormat="1">
+      <c r="A1285" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1285" s="5">
+        <v>33618.211000000003</v>
+      </c>
+      <c r="C1285" s="20">
+        <v>9.0000854227687892</v>
+      </c>
+      <c r="D1285" s="3">
+        <v>75.68415624915626</v>
+      </c>
+      <c r="E1285" s="20">
+        <v>1401.5570475</v>
+      </c>
+      <c r="F1285" s="20">
+        <v>9340.9621832662542</v>
+      </c>
+      <c r="H1285" s="20">
+        <v>706.47070262328816</v>
+      </c>
+      <c r="J1285" s="20">
+        <v>994.14023931530357</v>
+      </c>
+      <c r="N1285" s="20">
+        <v>7640.3512413276621</v>
+      </c>
+      <c r="AB1285" s="20">
+        <v>14.008843377298108</v>
+      </c>
+      <c r="AC1285" s="20">
+        <v>21.602610536744422</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:30" s="20" customFormat="1">
+      <c r="A1286" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1286" s="5">
+        <v>33983.453200000004</v>
+      </c>
+      <c r="C1286" s="20">
+        <v>10.000085422768791</v>
+      </c>
+      <c r="D1286" s="3">
+        <v>73.601104166104179</v>
+      </c>
+      <c r="E1286" s="20">
+        <v>1362.9820475000001</v>
+      </c>
+      <c r="F1286" s="20">
+        <v>11042.975086347033</v>
+      </c>
+      <c r="H1286" s="20">
+        <v>765.86936818172876</v>
+      </c>
+      <c r="J1286" s="20">
+        <v>1181.8098441065208</v>
+      </c>
+      <c r="N1286" s="20">
+        <v>9095.2958740587819</v>
+      </c>
+      <c r="AB1286" s="20">
+        <v>15.089133823354013</v>
+      </c>
+      <c r="AC1286" s="20">
+        <v>24.373037293160223</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:30" s="20" customFormat="1">
+      <c r="A1287" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1287" s="5">
+        <v>34348.695400000004</v>
+      </c>
+      <c r="C1287" s="20">
+        <v>11.000085422768793</v>
+      </c>
+      <c r="D1287" s="3">
+        <v>72.90682290682291</v>
+      </c>
+      <c r="E1287" s="20">
+        <v>1350.125</v>
+      </c>
+      <c r="F1287" s="20">
+        <v>12549.465349378566</v>
+      </c>
+      <c r="H1287" s="20">
+        <v>817.44198337547687</v>
+      </c>
+      <c r="J1287" s="20">
+        <v>1337.8089498875988</v>
+      </c>
+      <c r="N1287" s="20">
+        <v>10394.21441611549</v>
+      </c>
+      <c r="AB1287" s="20">
+        <v>15.902789728530299</v>
+      </c>
+      <c r="AC1287" s="20">
+        <v>26.817081337992207</v>
+      </c>
+      <c r="AD1287" s="20">
+        <v>100.19510489510489</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:30" s="20" customFormat="1">
+      <c r="A1288" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1288" s="5">
+        <v>35079.179800000005</v>
+      </c>
+      <c r="C1288" s="20">
+        <v>13.000085422768796</v>
+      </c>
+      <c r="D1288" s="3">
+        <v>72.212541647541642</v>
+      </c>
+      <c r="E1288" s="20">
+        <v>1337.2679524999999</v>
+      </c>
+      <c r="F1288" s="20">
+        <v>15089.168211307388</v>
+      </c>
+      <c r="H1288" s="20">
+        <v>897.15387247841079</v>
+      </c>
+      <c r="J1288" s="20">
+        <v>1580.7029501136437</v>
+      </c>
+      <c r="N1288" s="20">
+        <v>12611.311388715332</v>
+      </c>
+      <c r="AB1288" s="20">
+        <v>17.133478347153279</v>
+      </c>
+      <c r="AC1288" s="20">
+        <v>30.831908890702412</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:30" s="20" customFormat="1">
+      <c r="A1289" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1289" s="5">
+        <v>35444.422000000006</v>
+      </c>
+      <c r="C1289" s="20">
+        <v>14.000085422768798</v>
+      </c>
+      <c r="D1289" s="3">
+        <v>71.518052083052083</v>
+      </c>
+      <c r="E1289" s="20">
+        <v>1324.4070475000001</v>
+      </c>
+      <c r="F1289" s="20">
+        <v>15945.90946355382</v>
+      </c>
+      <c r="H1289" s="20">
+        <v>916.38168389459133</v>
+      </c>
+      <c r="J1289" s="20">
+        <v>1649.4707055166521</v>
+      </c>
+      <c r="N1289" s="20">
+        <v>13380.057074142576</v>
+      </c>
+      <c r="AB1289" s="20">
+        <v>17.572246587722681</v>
+      </c>
+      <c r="AC1289" s="20">
+        <v>32.119365541711844</v>
+      </c>
+      <c r="AD1289" s="20">
+        <v>182.33706293706294</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:30" s="20" customFormat="1">
+      <c r="A1290" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1290" s="5">
+        <v>35809.664200000007</v>
+      </c>
+      <c r="C1290" s="20">
+        <v>15.000085422768798</v>
+      </c>
+      <c r="D1290" s="3">
+        <v>69.435000000000002</v>
+      </c>
+      <c r="E1290" s="20">
+        <v>1285.8320475</v>
+      </c>
+      <c r="F1290" s="20">
+        <v>16826.037147022358</v>
+      </c>
+      <c r="H1290" s="20">
+        <v>934.23408338265222</v>
+      </c>
+      <c r="J1290" s="20">
+        <v>1729.6253885833587</v>
+      </c>
+      <c r="N1290" s="20">
+        <v>14162.177675056348</v>
+      </c>
+      <c r="AB1290" s="20">
+        <v>18.138704296099572</v>
+      </c>
+      <c r="AC1290" s="20">
+        <v>33.22673473678627</v>
+      </c>
+      <c r="AD1290" s="20">
+        <v>190.62867132867132</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:30" s="20" customFormat="1">
+      <c r="A1291" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1291" s="5">
+        <v>36174.906400000007</v>
+      </c>
+      <c r="C1291" s="20">
+        <v>16.000085422768802</v>
+      </c>
+      <c r="D1291" s="3">
+        <v>69.435000000000002</v>
+      </c>
+      <c r="E1291" s="20">
+        <v>1285.8320475</v>
+      </c>
+      <c r="F1291" s="20">
+        <v>17759.09973432386</v>
+      </c>
+      <c r="H1291" s="20">
+        <v>959.50887628208443</v>
+      </c>
+      <c r="J1291" s="20">
+        <v>1804.5964000270967</v>
+      </c>
+      <c r="N1291" s="20">
+        <v>14994.994458014678</v>
+      </c>
+      <c r="AB1291" s="20">
+        <v>18.52347525544911</v>
+      </c>
+      <c r="AC1291" s="20">
+        <v>34.651343819290823</v>
+      </c>
+      <c r="AD1291" s="20">
+        <v>208.53286713286712</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:30" s="20" customFormat="1">
+      <c r="A1292" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1292" s="5">
+        <v>36905.390800000008</v>
+      </c>
+      <c r="C1292" s="20">
+        <v>18.000085422768805</v>
+      </c>
+      <c r="D1292" s="3">
+        <v>69.435000000000002</v>
+      </c>
+      <c r="E1292" s="20">
+        <v>1285.8320475</v>
+      </c>
+      <c r="F1292" s="20">
+        <v>19394.250349596361</v>
+      </c>
+      <c r="H1292" s="20">
+        <v>1000.134439007075</v>
+      </c>
+      <c r="J1292" s="20">
+        <v>1924.907341979381</v>
+      </c>
+      <c r="N1292" s="20">
+        <v>16469.208568609905</v>
+      </c>
+      <c r="AB1292" s="20">
+        <v>19.172698393708853</v>
+      </c>
+      <c r="AC1292" s="20">
+        <v>37.122876751721492</v>
+      </c>
+      <c r="AD1292" s="20">
+        <v>251.39020979020978</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:30" s="20" customFormat="1">
+      <c r="A1293" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1293" s="5">
+        <v>38366.359600000011</v>
+      </c>
+      <c r="C1293" s="20">
+        <v>22.000085422768809</v>
+      </c>
+      <c r="D1293" s="3">
+        <v>62.49156249156249</v>
+      </c>
+      <c r="E1293" s="20">
+        <v>1157.25</v>
+      </c>
+      <c r="F1293" s="20">
+        <v>21997.481933069801</v>
+      </c>
+      <c r="H1293" s="20">
+        <v>1046.7786911092576</v>
+      </c>
+      <c r="J1293" s="20">
+        <v>2141.2228493011398</v>
+      </c>
+      <c r="N1293" s="20">
+        <v>18809.480392659403</v>
+      </c>
+      <c r="AB1293" s="20">
+        <v>20.926157168669477</v>
+      </c>
+      <c r="AC1293" s="20">
+        <v>39.801281184414066</v>
+      </c>
+      <c r="AD1293" s="20">
+        <v>305.06503496503495</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:30" s="20" customFormat="1">
+      <c r="A1294" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1294" s="5">
+        <v>39462.086200000012</v>
+      </c>
+      <c r="C1294" s="20">
+        <v>25.000085422768816</v>
+      </c>
+      <c r="D1294" s="3">
+        <v>59.714229149229162</v>
+      </c>
+      <c r="E1294" s="20">
+        <v>1105.8179525</v>
+      </c>
+      <c r="F1294" s="20">
+        <v>23250.815097807616</v>
+      </c>
+      <c r="H1294" s="20">
+        <v>1060.6707621558141</v>
+      </c>
+      <c r="J1294" s="20">
+        <v>2210.5382285326023</v>
+      </c>
+      <c r="N1294" s="20">
+        <v>19979.606107119202</v>
+      </c>
+      <c r="AB1294" s="20">
+        <v>21.755570496371213</v>
+      </c>
+      <c r="AC1294" s="20">
+        <v>41.10697186414663</v>
+      </c>
+      <c r="AD1294" s="20">
+        <v>359.50909090909084</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:30" s="20" customFormat="1">
+      <c r="A1295" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1295" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1295" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1295" s="3">
+        <v>100</v>
+      </c>
+      <c r="E1295" s="20">
+        <v>1851.85</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:30" s="20" customFormat="1">
+      <c r="A1296" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1296" s="5">
+        <v>31792</v>
+      </c>
+      <c r="C1296" s="20">
+        <v>4.0000854227687812</v>
+      </c>
+      <c r="D1296" s="3">
+        <v>73.601104166104179</v>
+      </c>
+      <c r="E1296" s="20">
+        <v>1362.9820475000001</v>
+      </c>
+      <c r="F1296" s="20">
+        <v>2235.6036273879886</v>
+      </c>
+      <c r="H1296" s="20">
+        <v>381.54198974785595</v>
+      </c>
+      <c r="J1296" s="20">
+        <v>226.40433184242821</v>
+      </c>
+      <c r="N1296" s="20">
+        <v>1627.6573057977046</v>
+      </c>
+      <c r="AB1296" s="20">
+        <v>8.0197727713436588</v>
+      </c>
+      <c r="AC1296" s="20">
+        <v>6.8850192556867116</v>
+      </c>
+      <c r="AD1296" s="20">
+        <v>16.481118881118881</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:30" s="20" customFormat="1">
+      <c r="A1297" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1297" s="5">
+        <v>32157.242200000001</v>
+      </c>
+      <c r="C1297" s="20">
+        <v>5.000085422768783</v>
+      </c>
+      <c r="D1297" s="3">
+        <v>74.295593730593737</v>
+      </c>
+      <c r="E1297" s="20">
+        <v>1375.8429524999999</v>
+      </c>
+      <c r="F1297" s="20">
+        <v>3515.3455302197935</v>
+      </c>
+      <c r="H1297" s="20">
+        <v>455.79211469679967</v>
+      </c>
+      <c r="J1297" s="20">
+        <v>370.03170365585532</v>
+      </c>
+      <c r="N1297" s="20">
+        <v>2689.5217118671385</v>
+      </c>
+      <c r="AB1297" s="20">
+        <v>9.6114032467072743</v>
+      </c>
+      <c r="AC1297" s="20">
+        <v>9.9823629746972617</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:30" s="20" customFormat="1">
+      <c r="A1298" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1298" s="5">
+        <v>32522.484400000001</v>
+      </c>
+      <c r="C1298" s="20">
+        <v>6.0000854227687848</v>
+      </c>
+      <c r="D1298" s="3">
+        <v>74.295593730593737</v>
+      </c>
+      <c r="E1298" s="20">
+        <v>1375.8429524999999</v>
+      </c>
+      <c r="F1298" s="20">
+        <v>5056.7093912138416</v>
+      </c>
+      <c r="H1298" s="20">
+        <v>532.39893355452</v>
+      </c>
+      <c r="J1298" s="20">
+        <v>544.29504842044355</v>
+      </c>
+      <c r="N1298" s="20">
+        <v>3980.0154092388775</v>
+      </c>
+      <c r="AB1298" s="20">
+        <v>11.099744937119493</v>
+      </c>
+      <c r="AC1298" s="20">
+        <v>13.313301239196765</v>
+      </c>
+      <c r="AD1298" s="20">
+        <v>46.54195804195804</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:30" s="20" customFormat="1">
+      <c r="A1299" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1299" s="5">
+        <v>32887.726600000002</v>
+      </c>
+      <c r="C1299" s="20">
+        <v>7.0000854227687865</v>
+      </c>
+      <c r="D1299" s="3">
+        <v>73.601104166104179</v>
+      </c>
+      <c r="E1299" s="20">
+        <v>1362.9820475000001</v>
+      </c>
+      <c r="F1299" s="20">
+        <v>6678.5512807322448</v>
+      </c>
+      <c r="H1299" s="20">
+        <v>602.46782568411561</v>
+      </c>
+      <c r="J1299" s="20">
+        <v>726.59847074059576</v>
+      </c>
+      <c r="N1299" s="20">
+        <v>5349.4849843075335</v>
+      </c>
+      <c r="AB1299" s="20">
+        <v>12.41620287989806</v>
+      </c>
+      <c r="AC1299" s="20">
+        <v>16.502837874191382</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:30" s="20" customFormat="1">
+      <c r="A1300" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1300" s="5">
+        <v>33618.211000000003</v>
+      </c>
+      <c r="C1300" s="20">
+        <v>9.0000854227687892</v>
+      </c>
+      <c r="D1300" s="3">
+        <v>70.823770823770829</v>
+      </c>
+      <c r="E1300" s="20">
+        <v>1311.55</v>
+      </c>
+      <c r="F1300" s="20">
+        <v>9319.3344061426596</v>
+      </c>
+      <c r="H1300" s="20">
+        <v>691.64195327458322</v>
+      </c>
+      <c r="J1300" s="20">
+        <v>1006.4089448139855</v>
+      </c>
+      <c r="N1300" s="20">
+        <v>7621.2835080540899</v>
+      </c>
+      <c r="AB1300" s="20">
+        <v>14.341440632076894</v>
+      </c>
+      <c r="AC1300" s="20">
+        <v>21.186601968561359</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:30" s="20" customFormat="1">
+      <c r="A1301" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1301" s="5">
+        <v>33983.453200000004</v>
+      </c>
+      <c r="C1301" s="20">
+        <v>10.000085422768791</v>
+      </c>
+      <c r="D1301" s="3">
+        <v>70.823770823770829</v>
+      </c>
+      <c r="E1301" s="20">
+        <v>1311.55</v>
+      </c>
+      <c r="F1301" s="20">
+        <v>10971.508976357081</v>
+      </c>
+      <c r="H1301" s="20">
+        <v>754.59694542726561</v>
+      </c>
+      <c r="J1301" s="20">
+        <v>1182.8032012925535</v>
+      </c>
+      <c r="N1301" s="20">
+        <v>9034.1088296372618</v>
+      </c>
+      <c r="AB1301" s="20">
+        <v>15.265958516858916</v>
+      </c>
+      <c r="AC1301" s="20">
+        <v>24.006226785346101</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:30" s="20" customFormat="1">
+      <c r="A1302" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1302" s="5">
+        <v>34348.695400000004</v>
+      </c>
+      <c r="C1302" s="20">
+        <v>11.000085422768793</v>
+      </c>
+      <c r="D1302" s="3">
+        <v>69.435000000000002</v>
+      </c>
+      <c r="E1302" s="20">
+        <v>1285.8320475</v>
+      </c>
+      <c r="F1302" s="20">
+        <v>12133.227552322265</v>
+      </c>
+      <c r="H1302" s="20">
+        <v>787.5464311158936</v>
+      </c>
+      <c r="J1302" s="20">
+        <v>1297.9513541617837</v>
+      </c>
+      <c r="N1302" s="20">
+        <v>10047.729767044588</v>
+      </c>
+      <c r="AB1302" s="20">
+        <v>15.990004726108412</v>
+      </c>
+      <c r="AC1302" s="20">
+        <v>25.820956549580885</v>
+      </c>
+      <c r="AD1302" s="20">
+        <v>98.916083916083906</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:30" s="20" customFormat="1">
+      <c r="A1303" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1303" s="5">
+        <v>35079.179800000005</v>
+      </c>
+      <c r="C1303" s="20">
+        <v>13.000085422768796</v>
+      </c>
+      <c r="D1303" s="3">
+        <v>64.574614574614571</v>
+      </c>
+      <c r="E1303" s="20">
+        <v>1195.825</v>
+      </c>
+      <c r="F1303" s="20">
+        <v>14171.381639115298</v>
+      </c>
+      <c r="H1303" s="20">
+        <v>834.86215913964475</v>
+      </c>
+      <c r="J1303" s="20">
+        <v>1501.8292892885233</v>
+      </c>
+      <c r="N1303" s="20">
+        <v>11834.69019068713</v>
+      </c>
+      <c r="AB1303" s="20">
+        <v>17.439761682204747</v>
+      </c>
+      <c r="AC1303" s="20">
+        <v>28.565354450889505</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:30" s="20" customFormat="1">
+      <c r="A1304" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1304" s="5">
+        <v>35444.422000000006</v>
+      </c>
+      <c r="C1304" s="20">
+        <v>14.000085422768798</v>
+      </c>
+      <c r="D1304" s="3">
+        <v>64.574614574614571</v>
+      </c>
+      <c r="E1304" s="20">
+        <v>1195.825</v>
+      </c>
+      <c r="F1304" s="20">
+        <v>15000.231979476106</v>
+      </c>
+      <c r="H1304" s="20">
+        <v>855.93933875212531</v>
+      </c>
+      <c r="J1304" s="20">
+        <v>1566.8415442420585</v>
+      </c>
+      <c r="N1304" s="20">
+        <v>12577.451096481922</v>
+      </c>
+      <c r="AB1304" s="20">
+        <v>17.834119191995864</v>
+      </c>
+      <c r="AC1304" s="20">
+        <v>29.871831801046888</v>
+      </c>
+      <c r="AD1304" s="20">
+        <v>171.84965034965032</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:30" s="20" customFormat="1">
+      <c r="A1305" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1305" s="5">
+        <v>35809.664200000007</v>
+      </c>
+      <c r="C1305" s="20">
+        <v>15.000085422768798</v>
+      </c>
+      <c r="D1305" s="3">
+        <v>64.574614574614571</v>
+      </c>
+      <c r="E1305" s="20">
+        <v>1195.825</v>
+      </c>
+      <c r="F1305" s="20">
+        <v>15852.542564680289</v>
+      </c>
+      <c r="H1305" s="20">
+        <v>878.39889236884756</v>
+      </c>
+      <c r="J1305" s="20">
+        <v>1634.6320762978771</v>
+      </c>
+      <c r="N1305" s="20">
+        <v>13339.511596013563</v>
+      </c>
+      <c r="AB1305" s="20">
+        <v>18.223693921537549</v>
+      </c>
+      <c r="AC1305" s="20">
+        <v>31.191147367939912</v>
+      </c>
+      <c r="AD1305" s="20">
+        <v>179.31678321678322</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:30" s="20" customFormat="1">
+      <c r="A1306" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1306" s="5">
+        <v>36174.906400000007</v>
+      </c>
+      <c r="C1306" s="20">
+        <v>16.000085422768802</v>
+      </c>
+      <c r="D1306" s="3">
+        <v>64.574614574614571</v>
+      </c>
+      <c r="E1306" s="20">
+        <v>1195.825</v>
+      </c>
+      <c r="F1306" s="20">
+        <v>17290.89827431404</v>
+      </c>
+      <c r="H1306" s="20">
+        <v>928.27561619497851</v>
+      </c>
+      <c r="J1306" s="20">
+        <v>1776.623328744018</v>
+      </c>
+      <c r="N1306" s="20">
+        <v>14585.999329375045</v>
+      </c>
+      <c r="AB1306" s="20">
+        <v>18.831639991142762</v>
+      </c>
+      <c r="AC1306" s="20">
+        <v>33.306945901112698</v>
+      </c>
+      <c r="AD1306" s="20">
+        <v>197.68811188811188</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:30" s="20" customFormat="1">
+      <c r="A1307" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1307" s="5">
+        <v>36905.390800000008</v>
+      </c>
+      <c r="C1307" s="20">
+        <v>18.000085422768805</v>
+      </c>
+      <c r="D1307" s="3">
+        <v>62.49156249156249</v>
+      </c>
+      <c r="E1307" s="20">
+        <v>1157.25</v>
+      </c>
+      <c r="F1307" s="20">
+        <v>18245.186477550418</v>
+      </c>
+      <c r="H1307" s="20">
+        <v>936.05675688796896</v>
+      </c>
+      <c r="J1307" s="20">
+        <v>1830.6471045492501</v>
+      </c>
+      <c r="N1307" s="20">
+        <v>15478.482616113199</v>
+      </c>
+      <c r="AB1307" s="20">
+        <v>19.480228774366228</v>
+      </c>
+      <c r="AC1307" s="20">
+        <v>34.491032251723539</v>
+      </c>
+      <c r="AD1307" s="20">
+        <v>233.97062937062938</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:30" s="20" customFormat="1">
+      <c r="A1308" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1308" s="5">
+        <v>38366.359600000011</v>
+      </c>
+      <c r="C1308" s="20">
+        <v>22.000085422768809</v>
+      </c>
+      <c r="D1308" s="3">
+        <v>43.049812484812485</v>
+      </c>
+      <c r="E1308" s="20">
+        <v>797.21795249999991</v>
+      </c>
+      <c r="F1308" s="20">
+        <v>17348.505216398604</v>
+      </c>
+      <c r="H1308" s="20">
+        <v>820.82646187594003</v>
+      </c>
+      <c r="J1308" s="20">
+        <v>1748.0102032622551</v>
+      </c>
+      <c r="N1308" s="20">
+        <v>14779.668551260407</v>
+      </c>
+      <c r="AB1308" s="20">
+        <v>21.962360773484836</v>
+      </c>
+      <c r="AC1308" s="20">
+        <v>30.201325892216051</v>
+      </c>
+      <c r="AD1308" s="20">
+        <v>239.58041958041957</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:30" s="20" customFormat="1">
+      <c r="A1309" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1309" s="5">
+        <v>39462.086200000012</v>
+      </c>
+      <c r="C1309" s="20">
+        <v>25.000085422768816</v>
+      </c>
+      <c r="D1309" s="3">
+        <v>36.106166671166676</v>
+      </c>
+      <c r="E1309" s="20">
+        <v>668.6320475</v>
+      </c>
+      <c r="F1309" s="20">
+        <v>16832.32149669695</v>
+      </c>
+      <c r="H1309" s="20">
+        <v>766.99865091475169</v>
+      </c>
+      <c r="J1309" s="20">
+        <v>1677.2500227380901</v>
+      </c>
+      <c r="N1309" s="20">
+        <v>14388.072823044107</v>
+      </c>
+      <c r="AB1309" s="20">
+        <v>23.198326555253892</v>
+      </c>
+      <c r="AC1309" s="20">
+        <v>28.261252190931465</v>
+      </c>
+      <c r="AD1309" s="20">
+        <v>255.97622377622378</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:30" s="20" customFormat="1">
+      <c r="A1310" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1310" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1310" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1310" s="3">
+        <v>100</v>
+      </c>
+      <c r="E1310" s="20">
+        <v>1851.85</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:30" s="20" customFormat="1">
+      <c r="A1311" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1311" s="5">
+        <v>31792</v>
+      </c>
+      <c r="C1311" s="20">
+        <v>4.0000854227687812</v>
+      </c>
+      <c r="D1311" s="3">
+        <v>74.295593730593737</v>
+      </c>
+      <c r="E1311" s="20">
+        <v>1375.8429524999999</v>
+      </c>
+      <c r="F1311" s="20">
+        <v>4089.9334505941533</v>
+      </c>
+      <c r="H1311" s="20">
+        <v>530.49085484098055</v>
+      </c>
+      <c r="J1311" s="20">
+        <v>481.99863574651425</v>
+      </c>
+      <c r="N1311" s="20">
+        <v>3077.4439600066585</v>
+      </c>
+      <c r="AB1311" s="20">
+        <v>10.09908914494874</v>
+      </c>
+      <c r="AC1311" s="20">
+        <v>11.021080435102153</v>
+      </c>
+      <c r="AD1311" s="20">
+        <v>28.344125874125876</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:30" s="20" customFormat="1">
+      <c r="A1312" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1312" s="5">
+        <v>32157.242200000001</v>
+      </c>
+      <c r="C1312" s="20">
+        <v>5.000085422768783</v>
+      </c>
+      <c r="D1312" s="3">
+        <v>71.518052083052083</v>
+      </c>
+      <c r="E1312" s="20">
+        <v>1324.4070475000001</v>
+      </c>
+      <c r="F1312" s="20">
+        <v>6195.6094581355655</v>
+      </c>
+      <c r="H1312" s="20">
+        <v>628.07583454612154</v>
+      </c>
+      <c r="J1312" s="20">
+        <v>751.79021160705986</v>
+      </c>
+      <c r="N1312" s="20">
+        <v>4815.7434119823838</v>
+      </c>
+      <c r="AB1312" s="20">
+        <v>12.072582975170516</v>
+      </c>
+      <c r="AC1312" s="20">
+        <v>15.16047393231176</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:30" s="20" customFormat="1">
+      <c r="A1313" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1313" s="5">
+        <v>32522.484400000001</v>
+      </c>
+      <c r="C1313" s="20">
+        <v>6.0000854227687848</v>
+      </c>
+      <c r="D1313" s="3">
+        <v>70.12948956448956</v>
+      </c>
+      <c r="E1313" s="20">
+        <v>1298.6929525</v>
+      </c>
+      <c r="F1313" s="20">
+        <v>8577.0637578807546</v>
+      </c>
+      <c r="H1313" s="20">
+        <v>733.51424055735447</v>
+      </c>
+      <c r="J1313" s="20">
+        <v>1055.2924651240505</v>
+      </c>
+      <c r="N1313" s="20">
+        <v>6788.2570521993493</v>
+      </c>
+      <c r="AB1313" s="20">
+        <v>13.794243966290811</v>
+      </c>
+      <c r="AC1313" s="20">
+        <v>19.408554262026943</v>
+      </c>
+      <c r="AD1313" s="20">
+        <v>71.69510489510489</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:30" s="20" customFormat="1">
+      <c r="A1314" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1314" s="5">
+        <v>32887.726600000002</v>
+      </c>
+      <c r="C1314" s="20">
+        <v>7.0000854227687865</v>
+      </c>
+      <c r="D1314" s="3">
+        <v>70.12948956448956</v>
+      </c>
+      <c r="E1314" s="20">
+        <v>1298.6929525</v>
+      </c>
+      <c r="F1314" s="20">
+        <v>10720.138829400246</v>
+      </c>
+      <c r="H1314" s="20">
+        <v>821.88793199569648</v>
+      </c>
+      <c r="J1314" s="20">
+        <v>1312.7520505208936</v>
+      </c>
+      <c r="N1314" s="20">
+        <v>8585.4988468836564</v>
+      </c>
+      <c r="AB1314" s="20">
+        <v>15.037307080291844</v>
+      </c>
+      <c r="AC1314" s="20">
+        <v>23.064153406689265</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:30" s="20" customFormat="1">
+      <c r="A1315" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1315" s="5">
+        <v>33618.211000000003</v>
+      </c>
+      <c r="C1315" s="20">
+        <v>9.0000854227687892</v>
+      </c>
+      <c r="D1315" s="3">
+        <v>69.435000000000002</v>
+      </c>
+      <c r="E1315" s="20">
+        <v>1285.8320475</v>
+      </c>
+      <c r="F1315" s="20">
+        <v>13906.665146561496</v>
+      </c>
+      <c r="H1315" s="20">
+        <v>929.07095633693848</v>
+      </c>
+      <c r="J1315" s="20">
+        <v>1653.5945592494368</v>
+      </c>
+      <c r="N1315" s="20">
+        <v>11323.99963097512</v>
+      </c>
+      <c r="AB1315" s="20">
+        <v>16.708046463733069</v>
+      </c>
+      <c r="AC1315" s="20">
+        <v>28.192039246595982</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:30" s="20" customFormat="1">
+      <c r="A1316" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1316" s="5">
+        <v>33983.453200000004</v>
+      </c>
+      <c r="C1316" s="20">
+        <v>10.000085422768791</v>
+      </c>
+      <c r="D1316" s="3">
+        <v>68.046437481437479</v>
+      </c>
+      <c r="E1316" s="20">
+        <v>1260.1179525</v>
+      </c>
+      <c r="F1316" s="20">
+        <v>15790.741337463691</v>
+      </c>
+      <c r="H1316" s="20">
+        <v>994.48639806585766</v>
+      </c>
+      <c r="J1316" s="20">
+        <v>1869.3910238213302</v>
+      </c>
+      <c r="N1316" s="20">
+        <v>12926.863915576503</v>
+      </c>
+      <c r="AB1316" s="20">
+        <v>17.671299953256511</v>
+      </c>
+      <c r="AC1316" s="20">
+        <v>30.905736188824605</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:30" s="20" customFormat="1">
+      <c r="A1317" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1317" s="5">
+        <v>34348.695400000004</v>
+      </c>
+      <c r="C1317" s="20">
+        <v>11.000085422768793</v>
+      </c>
+      <c r="D1317" s="3">
+        <v>66.657666657666667</v>
+      </c>
+      <c r="E1317" s="20">
+        <v>1234.4000000000001</v>
+      </c>
+      <c r="F1317" s="20">
+        <v>17275.011230086711</v>
+      </c>
+      <c r="H1317" s="20">
+        <v>1039.4629009709449</v>
+      </c>
+      <c r="J1317" s="20">
+        <v>2026.5908622146276</v>
+      </c>
+      <c r="N1317" s="20">
+        <v>14208.957466901138</v>
+      </c>
+      <c r="AB1317" s="20">
+        <v>18.435071916132536</v>
+      </c>
+      <c r="AC1317" s="20">
+        <v>32.94856330499092</v>
+      </c>
+      <c r="AD1317" s="20">
+        <v>131.49160839160837</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:30" s="20" customFormat="1">
+      <c r="A1318" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1318" s="5">
+        <v>35079.179800000005</v>
+      </c>
+      <c r="C1318" s="20">
+        <v>13.000085422768796</v>
+      </c>
+      <c r="D1318" s="3">
+        <v>65.26889583389584</v>
+      </c>
+      <c r="E1318" s="20">
+        <v>1208.6820475</v>
+      </c>
+      <c r="F1318" s="20">
+        <v>19581.963600862025</v>
+      </c>
+      <c r="H1318" s="20">
+        <v>1101.4198247785432</v>
+      </c>
+      <c r="J1318" s="20">
+        <v>2236.2822974030546</v>
+      </c>
+      <c r="N1318" s="20">
+        <v>16244.26147868043</v>
+      </c>
+      <c r="AB1318" s="20">
+        <v>19.514642524863163</v>
+      </c>
+      <c r="AC1318" s="20">
+        <v>36.151320785925847</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:30" s="20" customFormat="1">
+      <c r="A1319" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1319" s="5">
+        <v>35444.422000000006</v>
+      </c>
+      <c r="C1319" s="20">
+        <v>14.000085422768798</v>
+      </c>
+      <c r="D1319" s="3">
+        <v>64.574614574614571</v>
+      </c>
+      <c r="E1319" s="20">
+        <v>1195.825</v>
+      </c>
+      <c r="F1319" s="20">
+        <v>19426.064182435781</v>
+      </c>
+      <c r="H1319" s="20">
+        <v>1069.171863351688</v>
+      </c>
+      <c r="J1319" s="20">
+        <v>2159.3392269871883</v>
+      </c>
+      <c r="N1319" s="20">
+        <v>16197.553092096907</v>
+      </c>
+      <c r="AB1319" s="20">
+        <v>19.570744026551331</v>
+      </c>
+      <c r="AC1319" s="20">
+        <v>35.972713500861552</v>
+      </c>
+      <c r="AD1319" s="20">
+        <v>213.65034965034963</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:30" s="20" customFormat="1">
+      <c r="A1320" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1320" s="5">
+        <v>35809.664200000007</v>
+      </c>
+      <c r="C1320" s="20">
+        <v>15.000085422768798</v>
+      </c>
+      <c r="D1320" s="3">
+        <v>63.185843750843759</v>
+      </c>
+      <c r="E1320" s="20">
+        <v>1170.1070475000001</v>
+      </c>
+      <c r="F1320" s="20">
+        <v>20325.00434644155</v>
+      </c>
+      <c r="H1320" s="20">
+        <v>1089.1193692585152</v>
+      </c>
+      <c r="J1320" s="20">
+        <v>2237.8687128487591</v>
+      </c>
+      <c r="N1320" s="20">
+        <v>16998.016264334277</v>
+      </c>
+      <c r="AB1320" s="20">
+        <v>20.080353798485191</v>
+      </c>
+      <c r="AC1320" s="20">
+        <v>37.056057609558529</v>
+      </c>
+      <c r="AD1320" s="20">
+        <v>214.88811188811189</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:30" s="20" customFormat="1">
+      <c r="A1321" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1321" s="5">
+        <v>36174.906400000007</v>
+      </c>
+      <c r="C1321" s="20">
+        <v>16.000085422768802</v>
+      </c>
+      <c r="D1321" s="3">
+        <v>62.49156249156249</v>
+      </c>
+      <c r="E1321" s="20">
+        <v>1157.25</v>
+      </c>
+      <c r="F1321" s="20">
+        <v>21405.530248463907</v>
+      </c>
+      <c r="H1321" s="20">
+        <v>1119.9030123651116</v>
+      </c>
+      <c r="J1321" s="20">
+        <v>2336.2681685595567</v>
+      </c>
+      <c r="N1321" s="20">
+        <v>17949.359067539241</v>
+      </c>
+      <c r="AB1321" s="20">
+        <v>20.569421881851127</v>
+      </c>
+      <c r="AC1321" s="20">
+        <v>38.455836070517897</v>
+      </c>
+      <c r="AD1321" s="20">
+        <v>238.85174825174823</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:30" s="20" customFormat="1">
+      <c r="A1322" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1322" s="5">
+        <v>36905.390800000008</v>
+      </c>
+      <c r="C1322" s="20">
+        <v>18.000085422768805</v>
+      </c>
+      <c r="D1322" s="3">
+        <v>62.49156249156249</v>
+      </c>
+      <c r="E1322" s="20">
+        <v>1157.25</v>
+      </c>
+      <c r="F1322" s="20">
+        <v>22904.015948083503</v>
+      </c>
+      <c r="H1322" s="20">
+        <v>1153.0643456574207</v>
+      </c>
+      <c r="J1322" s="20">
+        <v>2431.7678194504524</v>
+      </c>
+      <c r="N1322" s="20">
+        <v>19319.18378297563</v>
+      </c>
+      <c r="AB1322" s="20">
+        <v>21.13270640011795</v>
+      </c>
+      <c r="AC1322" s="20">
+        <v>40.590866755820159</v>
+      </c>
+      <c r="AD1322" s="20">
+        <v>283.10069930069932</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:30" s="20" customFormat="1">
+      <c r="A1323" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1323" s="5">
+        <v>38366.359600000011</v>
+      </c>
+      <c r="C1323" s="20">
+        <v>22.000085422768809</v>
+      </c>
+      <c r="D1323" s="3">
+        <v>41.661041661041665</v>
+      </c>
+      <c r="E1323" s="20">
+        <v>771.5</v>
+      </c>
+      <c r="F1323" s="20">
+        <v>21595.980742503165</v>
+      </c>
+      <c r="H1323" s="20">
+        <v>1024.1372563076695</v>
+      </c>
+      <c r="J1323" s="20">
+        <v>2323.5541733837708</v>
+      </c>
+      <c r="N1323" s="20">
+        <v>18248.289312811725</v>
+      </c>
+      <c r="AB1323" s="20">
+        <v>24.018392164895271</v>
+      </c>
+      <c r="AC1323" s="20">
+        <v>34.955433345107799</v>
+      </c>
+      <c r="AD1323" s="20">
+        <v>280.4328671328671</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:30" s="20" customFormat="1">
+      <c r="A1324" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1324" s="5">
+        <v>39462.086200000012</v>
+      </c>
+      <c r="C1324" s="20">
+        <v>25.000085422768816</v>
+      </c>
+      <c r="D1324" s="3">
+        <v>35.411885411885414</v>
+      </c>
+      <c r="E1324" s="20">
+        <v>655.77499999999998</v>
+      </c>
+      <c r="F1324" s="20">
+        <v>21590.653775939456</v>
+      </c>
+      <c r="H1324" s="20">
+        <v>998.75270666650488</v>
+      </c>
+      <c r="J1324" s="20">
+        <v>2311.4643584868227</v>
+      </c>
+      <c r="N1324" s="20">
+        <v>18280.436710786125</v>
+      </c>
+      <c r="AB1324" s="20">
+        <v>25.512472850766766</v>
+      </c>
+      <c r="AC1324" s="20">
+        <v>33.523616528426118</v>
+      </c>
+      <c r="AD1324" s="20">
+        <v>311.14335664335664</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:30" s="20" customFormat="1">
+      <c r="A1325" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1325" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1325" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1325" s="3"/>
+      <c r="T1325" s="8">
+        <v>0.58117864775479933</v>
+      </c>
+      <c r="U1325" s="8">
+        <v>1.1436711041224348</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:30" s="20" customFormat="1">
+      <c r="A1326" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1326" s="5">
+        <v>30696.242200000001</v>
+      </c>
+      <c r="C1326" s="20">
+        <v>1.0000000000000016</v>
+      </c>
+      <c r="D1326" s="3"/>
+      <c r="T1326" s="8">
+        <v>0.81559955563902364</v>
+      </c>
+      <c r="U1326" s="8">
+        <v>1.5763616665446478</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:30" s="20" customFormat="1">
+      <c r="A1327" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1327" s="5">
+        <v>31061.484400000001</v>
+      </c>
+      <c r="C1327" s="20">
+        <v>2.0000000000000031</v>
+      </c>
+      <c r="D1327" s="3"/>
+      <c r="T1327" s="8">
+        <v>1.0491366381354665</v>
+      </c>
+      <c r="U1327" s="8">
+        <v>1.8603383531905817</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:30" s="20" customFormat="1">
+      <c r="A1328" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1328" s="5">
+        <v>31426.726600000002</v>
+      </c>
+      <c r="C1328" s="20">
+        <v>3.0000000000000049</v>
+      </c>
+      <c r="D1328" s="3"/>
+      <c r="T1328" s="8">
+        <v>1.1790292437905647</v>
+      </c>
+      <c r="U1328" s="8">
+        <v>2.0066868356469176</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:21" s="20" customFormat="1">
+      <c r="A1329" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1329" s="5">
+        <v>31791.968800000002</v>
+      </c>
+      <c r="C1329" s="20">
+        <v>4.0000000000000062</v>
+      </c>
+      <c r="D1329" s="3"/>
+      <c r="T1329" s="8">
+        <v>1.2431727765239895</v>
+      </c>
+      <c r="U1329" s="8">
+        <v>2.1175655298749998</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:21" s="20" customFormat="1">
+      <c r="A1330" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1330" s="5">
+        <v>32157.211000000003</v>
+      </c>
+      <c r="C1330" s="20">
+        <v>5.000000000000008</v>
+      </c>
+      <c r="D1330" s="3"/>
+      <c r="T1330" s="8">
+        <v>1.3789026706222007</v>
+      </c>
+      <c r="U1330" s="8">
+        <v>2.2409965132305616</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:21" s="20" customFormat="1">
+      <c r="A1331" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1331" s="5">
+        <v>32522.453200000004</v>
+      </c>
+      <c r="C1331" s="20">
+        <v>6.0000000000000098</v>
+      </c>
+      <c r="D1331" s="3"/>
+      <c r="T1331" s="8">
+        <v>1.4503454909774989</v>
+      </c>
+      <c r="U1331" s="8">
+        <v>2.3558171795173783</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:21" s="20" customFormat="1">
+      <c r="A1332" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1332" s="5">
+        <v>32887.695400000004</v>
+      </c>
+      <c r="C1332" s="20">
+        <v>7.0000000000000107</v>
+      </c>
+      <c r="D1332" s="3"/>
+      <c r="T1332" s="8">
+        <v>1.3419964088248308</v>
+      </c>
+      <c r="U1332" s="8">
+        <v>2.290016111268498</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:21" s="20" customFormat="1">
+      <c r="A1333" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1333" s="5">
+        <v>33252.937600000005</v>
+      </c>
+      <c r="C1333" s="20">
+        <v>8.0000000000000124</v>
+      </c>
+      <c r="D1333" s="3"/>
+      <c r="T1333" s="8">
+        <v>1.5104897882919159</v>
+      </c>
+      <c r="U1333" s="8">
+        <v>2.5905330940702003</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:21" s="20" customFormat="1">
+      <c r="A1334" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1334" s="5">
+        <v>33618.179800000005</v>
+      </c>
+      <c r="C1334" s="20">
+        <v>9.0000000000000142</v>
+      </c>
+      <c r="D1334" s="3"/>
+      <c r="T1334" s="8">
+        <v>1.6263469411985652</v>
+      </c>
+      <c r="U1334" s="8">
+        <v>2.5883975942118482</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:21" s="20" customFormat="1">
+      <c r="A1335" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1335" s="5">
+        <v>33983.422000000006</v>
+      </c>
+      <c r="C1335" s="20">
+        <v>10.000000000000016</v>
+      </c>
+      <c r="D1335" s="3"/>
+      <c r="T1335" s="8">
+        <v>1.4025448734557979</v>
+      </c>
+      <c r="U1335" s="8">
+        <v>2.3910124904904841</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:21" s="20" customFormat="1">
+      <c r="A1336" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1336" s="5">
+        <v>34348.664200000007</v>
+      </c>
+      <c r="C1336" s="20">
+        <v>11.000000000000018</v>
+      </c>
+      <c r="D1336" s="3"/>
+      <c r="T1336" s="8">
+        <v>1.4481540048192159</v>
+      </c>
+      <c r="U1336" s="8">
+        <v>2.3993007410260412</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:21" s="20" customFormat="1">
+      <c r="A1337" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1337" s="5">
+        <v>34713.906400000007</v>
+      </c>
+      <c r="C1337" s="20">
+        <v>12.00000000000002</v>
+      </c>
+      <c r="D1337" s="3"/>
+      <c r="T1337" s="8">
+        <v>1.8732019496496999</v>
+      </c>
+      <c r="U1337" s="8">
+        <v>2.7776278515019466</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:21" s="20" customFormat="1">
+      <c r="A1338" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1338" s="5">
+        <v>35079.148600000008</v>
+      </c>
+      <c r="C1338" s="20">
+        <v>13.00000000000002</v>
+      </c>
+      <c r="D1338" s="3"/>
+      <c r="T1338" s="8">
+        <v>1.9121802857788572</v>
+      </c>
+      <c r="U1338" s="8">
+        <v>2.7661140966835269</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:21" s="20" customFormat="1">
+      <c r="A1339" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1339" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1339" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1339" s="3"/>
+      <c r="T1339" s="8">
+        <v>1.8175957903481994</v>
+      </c>
+      <c r="U1339" s="8">
+        <v>2.5105345831251058</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:21" s="20" customFormat="1">
+      <c r="A1340" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1340" s="5">
+        <v>30696.242200000001</v>
+      </c>
+      <c r="C1340" s="20">
+        <v>1.0000000000000016</v>
+      </c>
+      <c r="D1340" s="3"/>
+      <c r="T1340" s="8">
+        <v>2.2611683271846421</v>
+      </c>
+      <c r="U1340" s="8">
+        <v>3.1644421569969348</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:21" s="20" customFormat="1">
+      <c r="A1341" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1341" s="5">
+        <v>31061.484400000001</v>
+      </c>
+      <c r="C1341" s="20">
+        <v>2.0000000000000031</v>
+      </c>
+      <c r="D1341" s="3"/>
+      <c r="T1341" s="8">
+        <v>2.6933049901483006</v>
+      </c>
+      <c r="U1341" s="8">
+        <v>3.6885833574718538</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:21" s="20" customFormat="1">
+      <c r="A1342" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1342" s="5">
+        <v>31426.726600000002</v>
+      </c>
+      <c r="C1342" s="20">
+        <v>3.0000000000000049</v>
+      </c>
+      <c r="D1342" s="3"/>
+      <c r="T1342" s="8">
+        <v>2.6253636668056624</v>
+      </c>
+      <c r="U1342" s="8">
+        <v>3.6458943401271329</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:21" s="20" customFormat="1">
+      <c r="A1343" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1343" s="5">
+        <v>31791.968800000002</v>
+      </c>
+      <c r="C1343" s="20">
+        <v>4.0000000000000062</v>
+      </c>
+      <c r="D1343" s="3"/>
+      <c r="T1343" s="8">
+        <v>2.6541470109084893</v>
+      </c>
+      <c r="U1343" s="8">
+        <v>3.8559597369484879</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:21" s="20" customFormat="1">
+      <c r="A1344" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1344" s="5">
+        <v>32157.211000000003</v>
+      </c>
+      <c r="C1344" s="20">
+        <v>5.000000000000008</v>
+      </c>
+      <c r="D1344" s="3"/>
+      <c r="T1344" s="8">
+        <v>2.7307171225398603</v>
+      </c>
+      <c r="U1344" s="8">
+        <v>3.8773979704544517</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:21" s="20" customFormat="1">
+      <c r="A1345" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1345" s="5">
+        <v>32522.453200000004</v>
+      </c>
+      <c r="C1345" s="20">
+        <v>6.0000000000000098</v>
+      </c>
+      <c r="D1345" s="3"/>
+      <c r="T1345" s="8">
+        <v>2.697036976180851</v>
+      </c>
+      <c r="U1345" s="8">
+        <v>3.7570999621210919</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:21" s="20" customFormat="1">
+      <c r="A1346" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1346" s="5">
+        <v>32887.695400000004</v>
+      </c>
+      <c r="C1346" s="20">
+        <v>7.0000000000000107</v>
+      </c>
+      <c r="D1346" s="3"/>
+      <c r="T1346" s="8">
+        <v>2.5862588950181276</v>
+      </c>
+      <c r="U1346" s="8">
+        <v>3.7380117106306043</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:21" s="20" customFormat="1">
+      <c r="A1347" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1347" s="5">
+        <v>33252.937600000005</v>
+      </c>
+      <c r="C1347" s="20">
+        <v>8.0000000000000124</v>
+      </c>
+      <c r="D1347" s="3"/>
+      <c r="T1347" s="8">
+        <v>2.7815848630788871</v>
+      </c>
+      <c r="U1347" s="8">
+        <v>4.313142163681448</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:21" s="20" customFormat="1">
+      <c r="A1348" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1348" s="5">
+        <v>33618.179800000005</v>
+      </c>
+      <c r="C1348" s="20">
+        <v>9.0000000000000142</v>
+      </c>
+      <c r="D1348" s="3"/>
+      <c r="T1348" s="8">
+        <v>2.7580063238678503</v>
+      </c>
+      <c r="U1348" s="8">
+        <v>3.9696640554623617</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:21" s="20" customFormat="1">
+      <c r="A1349" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1349" s="5">
+        <v>33983.422000000006</v>
+      </c>
+      <c r="C1349" s="20">
+        <v>10.000000000000016</v>
+      </c>
+      <c r="D1349" s="3"/>
+      <c r="T1349" s="8">
+        <v>2.2851993987121171</v>
+      </c>
+      <c r="U1349" s="8">
+        <v>3.4684401688317066</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:21" s="20" customFormat="1">
+      <c r="A1350" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1350" s="5">
+        <v>34348.664200000007</v>
+      </c>
+      <c r="C1350" s="20">
+        <v>11.000000000000018</v>
+      </c>
+      <c r="D1350" s="3"/>
+      <c r="T1350" s="8">
+        <v>2.0965856769979534</v>
+      </c>
+      <c r="U1350" s="8">
+        <v>2.9692239311940769</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:21" s="20" customFormat="1">
+      <c r="A1351" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1351" s="5">
+        <v>34713.906400000007</v>
+      </c>
+      <c r="C1351" s="20">
+        <v>12.00000000000002</v>
+      </c>
+      <c r="D1351" s="3"/>
+      <c r="T1351" s="8">
+        <v>2.3453679133814407</v>
+      </c>
+      <c r="U1351" s="8">
+        <v>3.3708163636884505</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:21" s="20" customFormat="1">
+      <c r="A1352" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1352" s="5">
+        <v>35079.148600000008</v>
+      </c>
+      <c r="C1352" s="20">
+        <v>13.00000000000002</v>
+      </c>
+      <c r="D1352" s="3"/>
+      <c r="T1352" s="8">
+        <v>2.4432299590334834</v>
+      </c>
+      <c r="U1352" s="8">
+        <v>3.5052331462730657</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:21" s="20" customFormat="1">
+      <c r="A1353" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1353" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1353" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1353" s="3"/>
+      <c r="T1353" s="8">
+        <v>2.4265827256261958</v>
+      </c>
+      <c r="U1353" s="8">
+        <v>3.0629226407647083</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:21" s="20" customFormat="1">
+      <c r="A1354" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1354" s="5">
+        <v>30696.242200000001</v>
+      </c>
+      <c r="C1354" s="20">
+        <v>1.0000000000000016</v>
+      </c>
+      <c r="D1354" s="3"/>
+      <c r="T1354" s="8">
+        <v>2.8582534538243372</v>
+      </c>
+      <c r="U1354" s="8">
+        <v>3.7364017105987735</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:21" s="20" customFormat="1">
+      <c r="A1355" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1355" s="5">
+        <v>31061.484400000001</v>
+      </c>
+      <c r="C1355" s="20">
+        <v>2.0000000000000031</v>
+      </c>
+      <c r="D1355" s="3"/>
+      <c r="T1355" s="8">
+        <v>3.238047339086259</v>
+      </c>
+      <c r="U1355" s="8">
+        <v>4.3877079408834385</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:21" s="20" customFormat="1">
+      <c r="A1356" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1356" s="5">
+        <v>31426.726600000002</v>
+      </c>
+      <c r="C1356" s="20">
+        <v>3.0000000000000049</v>
+      </c>
+      <c r="D1356" s="3"/>
+      <c r="T1356" s="8">
+        <v>3.3217744677058434</v>
+      </c>
+      <c r="U1356" s="8">
+        <v>4.7974642076146159</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:21" s="20" customFormat="1">
+      <c r="A1357" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1357" s="5">
+        <v>31791.968800000002</v>
+      </c>
+      <c r="C1357" s="20">
+        <v>4.0000000000000062</v>
+      </c>
+      <c r="D1357" s="3"/>
+      <c r="T1357" s="8">
+        <v>3.2104348594183203</v>
+      </c>
+      <c r="U1357" s="8">
+        <v>4.4983668620029986</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:21" s="20" customFormat="1">
+      <c r="A1358" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1358" s="5">
+        <v>32157.211000000003</v>
+      </c>
+      <c r="C1358" s="20">
+        <v>5.000000000000008</v>
+      </c>
+      <c r="D1358" s="3"/>
+      <c r="T1358" s="8">
+        <v>3.152281827036628</v>
+      </c>
+      <c r="U1358" s="8">
+        <v>4.1068975837076129</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:21" s="20" customFormat="1">
+      <c r="A1359" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1359" s="5">
+        <v>32522.453200000004</v>
+      </c>
+      <c r="C1359" s="20">
+        <v>6.0000000000000098</v>
+      </c>
+      <c r="D1359" s="3"/>
+      <c r="T1359" s="8">
+        <v>3.1021204501542217</v>
+      </c>
+      <c r="U1359" s="8">
+        <v>4.1106973570707828</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:21" s="20" customFormat="1">
+      <c r="A1360" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1360" s="5">
+        <v>32887.695400000004</v>
+      </c>
+      <c r="C1360" s="20">
+        <v>7.0000000000000107</v>
+      </c>
+      <c r="D1360" s="3"/>
+      <c r="T1360" s="8">
+        <v>3.0070666815211404</v>
+      </c>
+      <c r="U1360" s="8">
+        <v>4.1608041787757157</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:21" s="20" customFormat="1">
+      <c r="A1361" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1361" s="5">
+        <v>33252.937600000005</v>
+      </c>
+      <c r="C1361" s="20">
+        <v>8.0000000000000124</v>
+      </c>
+      <c r="D1361" s="3"/>
+      <c r="T1361" s="8">
+        <v>3.0220403976967076</v>
+      </c>
+      <c r="U1361" s="8">
+        <v>4.3324590923704243</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:21" s="20" customFormat="1">
+      <c r="A1362" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1362" s="5">
+        <v>33618.179800000005</v>
+      </c>
+      <c r="C1362" s="20">
+        <v>9.0000000000000142</v>
+      </c>
+      <c r="D1362" s="3"/>
+      <c r="T1362" s="8">
+        <v>3.4224564503961372</v>
+      </c>
+      <c r="U1362" s="8">
+        <v>4.9036489038989819</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:21" s="20" customFormat="1">
+      <c r="A1363" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1363" s="5">
+        <v>33983.422000000006</v>
+      </c>
+      <c r="C1363" s="20">
+        <v>10.000000000000016</v>
+      </c>
+      <c r="D1363" s="3"/>
+      <c r="T1363" s="8">
+        <v>3.439391744307819</v>
+      </c>
+      <c r="U1363" s="8">
+        <v>4.6993945804513002</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:21" s="20" customFormat="1">
+      <c r="A1364" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1364" s="5">
+        <v>34348.664200000007</v>
+      </c>
+      <c r="C1364" s="20">
+        <v>11.000000000000018</v>
+      </c>
+      <c r="D1364" s="3"/>
+      <c r="T1364" s="8">
+        <v>3.3336147715010553</v>
+      </c>
+      <c r="U1364" s="8">
+        <v>4.6528072663842197</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:21" s="20" customFormat="1">
+      <c r="A1365" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1365" s="5">
+        <v>34713.906400000007</v>
+      </c>
+      <c r="C1365" s="20">
+        <v>12.00000000000002</v>
+      </c>
+      <c r="D1365" s="3"/>
+      <c r="T1365" s="8">
+        <v>3.7037703869696554</v>
+      </c>
+      <c r="U1365" s="8">
+        <v>5.6629562769171029</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:21" s="20" customFormat="1">
+      <c r="A1366" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1366" s="5">
+        <v>35079.148600000008</v>
+      </c>
+      <c r="C1366" s="20">
+        <v>13.00000000000002</v>
+      </c>
+      <c r="D1366" s="3"/>
+      <c r="T1366" s="8">
+        <v>3.8691310737556459</v>
+      </c>
+      <c r="U1366" s="8">
+        <v>5.6365685910637611</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:21" s="20" customFormat="1">
+      <c r="A1367" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1367" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1367" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1367" s="3"/>
+      <c r="T1367" s="8">
+        <v>2.8327276748398105</v>
+      </c>
+      <c r="U1367" s="8">
+        <v>4.008726584309219</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:21" s="20" customFormat="1">
+      <c r="A1368" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1368" s="5">
+        <v>30696.242200000001</v>
+      </c>
+      <c r="C1368" s="20">
+        <v>1.0000000000000016</v>
+      </c>
+      <c r="D1368" s="3"/>
+      <c r="T1368" s="8">
+        <v>3.229908711830634</v>
+      </c>
+      <c r="U1368" s="8">
+        <v>4.5335916271696819</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:21" s="20" customFormat="1">
+      <c r="A1369" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1369" s="5">
+        <v>31061.484400000001</v>
+      </c>
+      <c r="C1369" s="20">
+        <v>2.0000000000000031</v>
+      </c>
+      <c r="D1369" s="3"/>
+      <c r="T1369" s="8">
+        <v>3.351886009950376</v>
+      </c>
+      <c r="U1369" s="8">
+        <v>4.6468048408608382</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:21" s="20" customFormat="1">
+      <c r="A1370" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1370" s="5">
+        <v>31426.726600000002</v>
+      </c>
+      <c r="C1370" s="20">
+        <v>3.0000000000000049</v>
+      </c>
+      <c r="D1370" s="3"/>
+      <c r="T1370" s="8">
+        <v>3.3061125576539268</v>
+      </c>
+      <c r="U1370" s="8">
+        <v>4.5388209887350035</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:21" s="20" customFormat="1">
+      <c r="A1371" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1371" s="5">
+        <v>31791.968800000002</v>
+      </c>
+      <c r="C1371" s="20">
+        <v>4.0000000000000062</v>
+      </c>
+      <c r="D1371" s="3"/>
+      <c r="T1371" s="8">
+        <v>3.2420775308044658</v>
+      </c>
+      <c r="U1371" s="8">
+        <v>4.5355355409203622</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:21" s="20" customFormat="1">
+      <c r="A1372" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1372" s="5">
+        <v>32157.211000000003</v>
+      </c>
+      <c r="C1372" s="20">
+        <v>5.000000000000008</v>
+      </c>
+      <c r="D1372" s="3"/>
+      <c r="T1372" s="8">
+        <v>3.223863056605095</v>
+      </c>
+      <c r="U1372" s="8">
+        <v>4.3475916208034784</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:21" s="20" customFormat="1">
+      <c r="A1373" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1373" s="5">
+        <v>32522.453200000004</v>
+      </c>
+      <c r="C1373" s="20">
+        <v>6.0000000000000098</v>
+      </c>
+      <c r="D1373" s="3"/>
+      <c r="T1373" s="8">
+        <v>3.0585152661550361</v>
+      </c>
+      <c r="U1373" s="8">
+        <v>4.1483003638285076</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:21" s="20" customFormat="1">
+      <c r="A1374" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1374" s="5">
+        <v>32887.695400000004</v>
+      </c>
+      <c r="C1374" s="20">
+        <v>7.0000000000000107</v>
+      </c>
+      <c r="D1374" s="3"/>
+      <c r="T1374" s="8">
+        <v>2.8343042192011052</v>
+      </c>
+      <c r="U1374" s="8">
+        <v>3.9091152250930263</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:21" s="20" customFormat="1">
+      <c r="A1375" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1375" s="5">
+        <v>33252.937600000005</v>
+      </c>
+      <c r="C1375" s="20">
+        <v>8.0000000000000124</v>
+      </c>
+      <c r="D1375" s="3"/>
+      <c r="T1375" s="8">
+        <v>2.9070240610646203</v>
+      </c>
+      <c r="U1375" s="8">
+        <v>4.104447747796498</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:21" s="20" customFormat="1">
+      <c r="A1376" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1376" s="5">
+        <v>33618.179800000005</v>
+      </c>
+      <c r="C1376" s="20">
+        <v>9.0000000000000142</v>
+      </c>
+      <c r="D1376" s="3"/>
+      <c r="T1376" s="8">
+        <v>3.2955847994168561</v>
+      </c>
+      <c r="U1376" s="8">
+        <v>4.5005900833654291</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:21" s="20" customFormat="1">
+      <c r="A1377" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1377" s="5">
+        <v>33983.422000000006</v>
+      </c>
+      <c r="C1377" s="20">
+        <v>10.000000000000016</v>
+      </c>
+      <c r="D1377" s="3"/>
+      <c r="T1377" s="8">
+        <v>3.4088391037659274</v>
+      </c>
+      <c r="U1377" s="8">
+        <v>4.5788714090635638</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:21" s="20" customFormat="1">
+      <c r="A1378" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1378" s="5">
+        <v>34348.664200000007</v>
+      </c>
+      <c r="C1378" s="20">
+        <v>11.000000000000018</v>
+      </c>
+      <c r="D1378" s="3"/>
+      <c r="T1378" s="8">
+        <v>3.3454507908415807</v>
+      </c>
+      <c r="U1378" s="8">
+        <v>4.3537565659427235</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:21" s="20" customFormat="1">
+      <c r="A1379" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1379" s="5">
+        <v>34713.906400000007</v>
+      </c>
+      <c r="C1379" s="20">
+        <v>12.00000000000002</v>
+      </c>
+      <c r="D1379" s="3"/>
+      <c r="T1379" s="8">
+        <v>3.5926842649741055</v>
+      </c>
+      <c r="U1379" s="8">
+        <v>4.8428289846860988</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:21" s="20" customFormat="1">
+      <c r="A1380" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1380" s="5">
+        <v>35079.148600000008</v>
+      </c>
+      <c r="C1380" s="20">
+        <v>13.00000000000002</v>
+      </c>
+      <c r="D1380" s="3"/>
+      <c r="T1380" s="8">
+        <v>3.6643512711716046</v>
+      </c>
+      <c r="U1380" s="8">
+        <v>5.3095629665233215</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:21" s="20" customFormat="1">
+      <c r="A1381" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1381" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1381" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1381" s="3"/>
+      <c r="T1381" s="8">
+        <v>0.87198168125057707</v>
+      </c>
+      <c r="U1381" s="8">
+        <v>1.4073328556558942</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:21" s="20" customFormat="1">
+      <c r="A1382" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1382" s="5">
+        <v>30696.242200000001</v>
+      </c>
+      <c r="C1382" s="20">
+        <v>1.0000000000000016</v>
+      </c>
+      <c r="D1382" s="3"/>
+      <c r="T1382" s="8">
+        <v>1.0979664214617439</v>
+      </c>
+      <c r="U1382" s="8">
+        <v>1.708922426223664</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:21" s="20" customFormat="1">
+      <c r="A1383" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1383" s="5">
+        <v>31061.484400000001</v>
+      </c>
+      <c r="C1383" s="20">
+        <v>2.0000000000000031</v>
+      </c>
+      <c r="D1383" s="3"/>
+      <c r="T1383" s="8">
+        <v>1.3222327872192108</v>
+      </c>
+      <c r="U1383" s="8">
+        <v>2.1429336221467472</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:21" s="20" customFormat="1">
+      <c r="A1384" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1384" s="5">
+        <v>31426.726600000002</v>
+      </c>
+      <c r="C1384" s="20">
+        <v>3.0000000000000049</v>
+      </c>
+      <c r="D1384" s="3"/>
+      <c r="T1384" s="8">
+        <v>1.4059949248628878</v>
+      </c>
+      <c r="U1384" s="8">
+        <v>2.187345421585885</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:21" s="20" customFormat="1">
+      <c r="A1385" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1385" s="5">
+        <v>31791.968800000002</v>
+      </c>
+      <c r="C1385" s="20">
+        <v>4.0000000000000062</v>
+      </c>
+      <c r="D1385" s="3"/>
+      <c r="T1385" s="8">
+        <v>1.3916014378069703</v>
+      </c>
+      <c r="U1385" s="8">
+        <v>2.0679224844744222</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:21" s="20" customFormat="1">
+      <c r="A1386" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1386" s="5">
+        <v>32157.211000000003</v>
+      </c>
+      <c r="C1386" s="20">
+        <v>5.000000000000008</v>
+      </c>
+      <c r="D1386" s="3"/>
+      <c r="T1386" s="8">
+        <v>1.4984510731826877</v>
+      </c>
+      <c r="U1386" s="8">
+        <v>2.1751285810688219</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:21" s="20" customFormat="1">
+      <c r="A1387" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1387" s="5">
+        <v>32522.453200000004</v>
+      </c>
+      <c r="C1387" s="20">
+        <v>6.0000000000000098</v>
+      </c>
+      <c r="D1387" s="3"/>
+      <c r="T1387" s="8">
+        <v>1.511912161676094</v>
+      </c>
+      <c r="U1387" s="8">
+        <v>2.1129980914123103</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:21" s="20" customFormat="1">
+      <c r="A1388" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1388" s="5">
+        <v>32887.695400000004</v>
+      </c>
+      <c r="C1388" s="20">
+        <v>7.0000000000000107</v>
+      </c>
+      <c r="D1388" s="3"/>
+      <c r="T1388" s="8">
+        <v>1.6055100955248776</v>
+      </c>
+      <c r="U1388" s="8">
+        <v>2.2346141422018788</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:21" s="20" customFormat="1">
+      <c r="A1389" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1389" s="5">
+        <v>33252.937600000005</v>
+      </c>
+      <c r="C1389" s="20">
+        <v>8.0000000000000124</v>
+      </c>
+      <c r="D1389" s="3"/>
+      <c r="T1389" s="8">
+        <v>1.7410096409779761</v>
+      </c>
+      <c r="U1389" s="8">
+        <v>2.425273040721418</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:21" s="20" customFormat="1">
+      <c r="A1390" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1390" s="5">
+        <v>33618.179800000005</v>
+      </c>
+      <c r="C1390" s="20">
+        <v>9.0000000000000142</v>
+      </c>
+      <c r="D1390" s="3"/>
+      <c r="T1390" s="8">
+        <v>1.6098056395010172</v>
+      </c>
+      <c r="U1390" s="8">
+        <v>2.1017720679655842</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:21" s="20" customFormat="1">
+      <c r="A1391" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1391" s="5">
+        <v>33983.422000000006</v>
+      </c>
+      <c r="C1391" s="20">
+        <v>10.000000000000016</v>
+      </c>
+      <c r="D1391" s="3"/>
+      <c r="T1391" s="8">
+        <v>1.4965464977925194</v>
+      </c>
+      <c r="U1391" s="8">
+        <v>2.1204048660073402</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:21" s="20" customFormat="1">
+      <c r="A1392" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1392" s="5">
+        <v>34348.664200000007</v>
+      </c>
+      <c r="C1392" s="20">
+        <v>11.000000000000018</v>
+      </c>
+      <c r="D1392" s="3"/>
+      <c r="T1392" s="8">
+        <v>1.5853239926279368</v>
+      </c>
+      <c r="U1392" s="8">
+        <v>2.1465412889651416</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:21" s="20" customFormat="1">
+      <c r="A1393" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1393" s="5">
+        <v>34713.906400000007</v>
+      </c>
+      <c r="C1393" s="20">
+        <v>12.00000000000002</v>
+      </c>
+      <c r="D1393" s="3"/>
+      <c r="T1393" s="8">
+        <v>1.9014829201137007</v>
+      </c>
+      <c r="U1393" s="8">
+        <v>2.5851634121575384</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:21" s="20" customFormat="1">
+      <c r="A1394" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1394" s="5">
+        <v>35079.148600000008</v>
+      </c>
+      <c r="C1394" s="20">
+        <v>13.00000000000002</v>
+      </c>
+      <c r="D1394" s="3"/>
+      <c r="T1394" s="8">
+        <v>2.0033356345035478</v>
+      </c>
+      <c r="U1394" s="8">
+        <v>2.6702117762024966</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:21" s="20" customFormat="1">
+      <c r="A1395" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1395" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1395" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1395" s="3"/>
+      <c r="T1395" s="8">
+        <v>1.777700607335776</v>
+      </c>
+      <c r="U1395" s="8">
+        <v>2.4763088159180544</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:21" s="20" customFormat="1">
+      <c r="A1396" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1396" s="5">
+        <v>30696.242200000001</v>
+      </c>
+      <c r="C1396" s="20">
+        <v>1.0000000000000016</v>
+      </c>
+      <c r="D1396" s="3"/>
+      <c r="T1396" s="8">
+        <v>2.1159938359238475</v>
+      </c>
+      <c r="U1396" s="8">
+        <v>3.0130313198093961</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:21" s="20" customFormat="1">
+      <c r="A1397" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1397" s="5">
+        <v>31061.484400000001</v>
+      </c>
+      <c r="C1397" s="20">
+        <v>2.0000000000000031</v>
+      </c>
+      <c r="D1397" s="3"/>
+      <c r="T1397" s="8">
+        <v>2.3277210498505534</v>
+      </c>
+      <c r="U1397" s="8">
+        <v>3.3063466779560668</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:21" s="20" customFormat="1">
+      <c r="A1398" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1398" s="5">
+        <v>31426.726600000002</v>
+      </c>
+      <c r="C1398" s="20">
+        <v>3.0000000000000049</v>
+      </c>
+      <c r="D1398" s="3"/>
+      <c r="T1398" s="8">
+        <v>2.2571737553277162</v>
+      </c>
+      <c r="U1398" s="8">
+        <v>3.199020798385531</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:21" s="20" customFormat="1">
+      <c r="A1399" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1399" s="5">
+        <v>31791.968800000002</v>
+      </c>
+      <c r="C1399" s="20">
+        <v>4.0000000000000062</v>
+      </c>
+      <c r="D1399" s="3"/>
+      <c r="T1399" s="8">
+        <v>2.2738229167396127</v>
+      </c>
+      <c r="U1399" s="8">
+        <v>3.3458656381004523</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:21" s="20" customFormat="1">
+      <c r="A1400" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1400" s="5">
+        <v>32157.211000000003</v>
+      </c>
+      <c r="C1400" s="20">
+        <v>5.000000000000008</v>
+      </c>
+      <c r="D1400" s="3"/>
+      <c r="T1400" s="8">
+        <v>2.3052600046473284</v>
+      </c>
+      <c r="U1400" s="8">
+        <v>3.1098402270824645</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:21" s="20" customFormat="1">
+      <c r="A1401" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1401" s="5">
+        <v>32522.453200000004</v>
+      </c>
+      <c r="C1401" s="20">
+        <v>6.0000000000000098</v>
+      </c>
+      <c r="D1401" s="3"/>
+      <c r="T1401" s="8">
+        <v>2.2094494727192284</v>
+      </c>
+      <c r="U1401" s="8">
+        <v>2.9790244258480576</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:21" s="20" customFormat="1">
+      <c r="A1402" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1402" s="5">
+        <v>32887.695400000004</v>
+      </c>
+      <c r="C1402" s="20">
+        <v>7.0000000000000107</v>
+      </c>
+      <c r="D1402" s="3"/>
+      <c r="T1402" s="8">
+        <v>2.3636084457233442</v>
+      </c>
+      <c r="U1402" s="8">
+        <v>3.251902087796307</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:21" s="20" customFormat="1">
+      <c r="A1403" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1403" s="5">
+        <v>33252.937600000005</v>
+      </c>
+      <c r="C1403" s="20">
+        <v>8.0000000000000124</v>
+      </c>
+      <c r="D1403" s="3"/>
+      <c r="T1403" s="8">
+        <v>2.4351727758873691</v>
+      </c>
+      <c r="U1403" s="8">
+        <v>3.3788102839644893</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:21" s="20" customFormat="1">
+      <c r="A1404" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1404" s="5">
+        <v>33618.179800000005</v>
+      </c>
+      <c r="C1404" s="20">
+        <v>9.0000000000000142</v>
+      </c>
+      <c r="D1404" s="3"/>
+      <c r="T1404" s="8">
+        <v>2.2000509716417485</v>
+      </c>
+      <c r="U1404" s="8">
+        <v>3.0197651052492529</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:21" s="20" customFormat="1">
+      <c r="A1405" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1405" s="5">
+        <v>33983.422000000006</v>
+      </c>
+      <c r="C1405" s="20">
+        <v>10.000000000000016</v>
+      </c>
+      <c r="D1405" s="3"/>
+      <c r="T1405" s="8">
+        <v>1.9481638918509419</v>
+      </c>
+      <c r="U1405" s="8">
+        <v>2.661453871128951</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:21" s="20" customFormat="1">
+      <c r="A1406" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1406" s="5">
+        <v>34348.664200000007</v>
+      </c>
+      <c r="C1406" s="20">
+        <v>11.000000000000018</v>
+      </c>
+      <c r="D1406" s="3"/>
+      <c r="T1406" s="8">
+        <v>1.844267649184012</v>
+      </c>
+      <c r="U1406" s="8">
+        <v>2.4575706034205611</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:21" s="20" customFormat="1">
+      <c r="A1407" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1407" s="5">
+        <v>34713.906400000007</v>
+      </c>
+      <c r="C1407" s="20">
+        <v>12.00000000000002</v>
+      </c>
+      <c r="D1407" s="3"/>
+      <c r="T1407" s="8">
+        <v>2.1372379002352311</v>
+      </c>
+      <c r="U1407" s="8">
+        <v>2.761356691038614</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:21" s="20" customFormat="1">
+      <c r="A1408" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1408" s="5">
+        <v>35079.148600000008</v>
+      </c>
+      <c r="C1408" s="20">
+        <v>13.00000000000002</v>
+      </c>
+      <c r="D1408" s="3"/>
+      <c r="T1408" s="8">
+        <v>2.2183083215823833</v>
+      </c>
+      <c r="U1408" s="8">
+        <v>2.8130605161717477</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:21" s="20" customFormat="1">
+      <c r="A1409" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1409" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1409" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1409" s="3"/>
+      <c r="T1409" s="8">
+        <v>1.8716257200971484</v>
+      </c>
+      <c r="U1409" s="8">
+        <v>2.8872415655766668</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:21" s="20" customFormat="1">
+      <c r="A1410" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1410" s="5">
+        <v>30696.242200000001</v>
+      </c>
+      <c r="C1410" s="20">
+        <v>1.0000000000000016</v>
+      </c>
+      <c r="D1410" s="3"/>
+      <c r="T1410" s="8">
+        <v>2.1537413637680283</v>
+      </c>
+      <c r="U1410" s="8">
+        <v>3.2526533729735578</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:21" s="20" customFormat="1">
+      <c r="A1411" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1411" s="5">
+        <v>31061.484400000001</v>
+      </c>
+      <c r="C1411" s="20">
+        <v>2.0000000000000031</v>
+      </c>
+      <c r="D1411" s="3"/>
+      <c r="T1411" s="8">
+        <v>2.2909393931098587</v>
+      </c>
+      <c r="U1411" s="8">
+        <v>3.5464936099236377</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:21" s="20" customFormat="1">
+      <c r="A1412" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1412" s="5">
+        <v>31426.726600000002</v>
+      </c>
+      <c r="C1412" s="20">
+        <v>3.0000000000000049</v>
+      </c>
+      <c r="D1412" s="3"/>
+      <c r="T1412" s="8">
+        <v>2.1863620093646849</v>
+      </c>
+      <c r="U1412" s="8">
+        <v>3.3765517651889647</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:21" s="20" customFormat="1">
+      <c r="A1413" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1413" s="5">
+        <v>31791.968800000002</v>
+      </c>
+      <c r="C1413" s="20">
+        <v>4.0000000000000062</v>
+      </c>
+      <c r="D1413" s="3"/>
+      <c r="T1413" s="8">
+        <v>2.1198841981289727</v>
+      </c>
+      <c r="U1413" s="8">
+        <v>3.2848614013922885</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:21" s="20" customFormat="1">
+      <c r="A1414" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1414" s="5">
+        <v>32157.211000000003</v>
+      </c>
+      <c r="C1414" s="20">
+        <v>5.000000000000008</v>
+      </c>
+      <c r="D1414" s="3"/>
+      <c r="T1414" s="8">
+        <v>2.184204192463052</v>
+      </c>
+      <c r="U1414" s="8">
+        <v>3.1992015699056848</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:21" s="20" customFormat="1">
+      <c r="A1415" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1415" s="5">
+        <v>32522.453200000004</v>
+      </c>
+      <c r="C1415" s="20">
+        <v>6.0000000000000098</v>
+      </c>
+      <c r="D1415" s="3"/>
+      <c r="T1415" s="8">
+        <v>2.11911810739148</v>
+      </c>
+      <c r="U1415" s="8">
+        <v>3.0606925502691316</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:21" s="20" customFormat="1">
+      <c r="A1416" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1416" s="5">
+        <v>32887.695400000004</v>
+      </c>
+      <c r="C1416" s="20">
+        <v>7.0000000000000107</v>
+      </c>
+      <c r="D1416" s="3"/>
+      <c r="T1416" s="8">
+        <v>2.1847524536938305</v>
+      </c>
+      <c r="U1416" s="8">
+        <v>3.1383008263331624</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:21" s="20" customFormat="1">
+      <c r="A1417" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1417" s="5">
+        <v>33252.937600000005</v>
+      </c>
+      <c r="C1417" s="20">
+        <v>8.0000000000000124</v>
+      </c>
+      <c r="D1417" s="3"/>
+      <c r="T1417" s="8">
+        <v>2.2189475323005232</v>
+      </c>
+      <c r="U1417" s="8">
+        <v>3.1693430976034427</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:21" s="20" customFormat="1">
+      <c r="A1418" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1418" s="5">
+        <v>33618.179800000005</v>
+      </c>
+      <c r="C1418" s="20">
+        <v>9.0000000000000142</v>
+      </c>
+      <c r="D1418" s="3"/>
+      <c r="T1418" s="8">
+        <v>2.2373550571525884</v>
+      </c>
+      <c r="U1418" s="8">
+        <v>3.1925786019181368</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:21" s="20" customFormat="1">
+      <c r="A1419" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1419" s="5">
+        <v>33983.422000000006</v>
+      </c>
+      <c r="C1419" s="20">
+        <v>10.000000000000016</v>
+      </c>
+      <c r="D1419" s="3"/>
+      <c r="T1419" s="8">
+        <v>2.4524097686203481</v>
+      </c>
+      <c r="U1419" s="8">
+        <v>3.6599236628586165</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:21" s="20" customFormat="1">
+      <c r="A1420" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1420" s="5">
+        <v>34348.664200000007</v>
+      </c>
+      <c r="C1420" s="20">
+        <v>11.000000000000018</v>
+      </c>
+      <c r="D1420" s="3"/>
+      <c r="T1420" s="8">
+        <v>2.6868483958759737</v>
+      </c>
+      <c r="U1420" s="8">
+        <v>3.5802213210508054</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:21" s="20" customFormat="1">
+      <c r="A1421" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1421" s="5">
+        <v>34713.906400000007</v>
+      </c>
+      <c r="C1421" s="20">
+        <v>12.00000000000002</v>
+      </c>
+      <c r="D1421" s="3"/>
+      <c r="T1421" s="8">
+        <v>2.8234082404132939</v>
+      </c>
+      <c r="U1421" s="8">
+        <v>3.8156355603372818</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:21" s="20" customFormat="1">
+      <c r="A1422" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1422" s="5">
+        <v>35079.148600000008</v>
+      </c>
+      <c r="C1422" s="20">
+        <v>13.00000000000002</v>
+      </c>
+      <c r="D1422" s="3"/>
+      <c r="T1422" s="8">
+        <v>2.6931052024611741</v>
+      </c>
+      <c r="U1422" s="8">
+        <v>3.4134625460356065</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:21" s="20" customFormat="1">
+      <c r="A1423" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1423" s="5">
+        <v>30331</v>
+      </c>
+      <c r="C1423" s="20">
+        <v>0</v>
+      </c>
+      <c r="D1423" s="3"/>
+      <c r="T1423" s="8">
+        <v>2.3694441960917878</v>
+      </c>
+      <c r="U1423" s="8">
+        <v>3.0882959666920256</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:21" s="20" customFormat="1">
+      <c r="A1424" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1424" s="5">
+        <v>30696.242200000001</v>
+      </c>
+      <c r="C1424" s="20">
+        <v>1.0000000000000016</v>
+      </c>
+      <c r="D1424" s="3"/>
+      <c r="T1424" s="8">
+        <v>2.5692741850464254</v>
+      </c>
+      <c r="U1424" s="8">
+        <v>3.5115735057725548</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:21" s="20" customFormat="1">
+      <c r="A1425" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1425" s="5">
+        <v>31061.484400000001</v>
+      </c>
+      <c r="C1425" s="20">
+        <v>2.0000000000000031</v>
+      </c>
+      <c r="D1425" s="3"/>
+      <c r="T1425" s="8">
+        <v>2.554606045983085</v>
+      </c>
+      <c r="U1425" s="8">
+        <v>3.609737152206367</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:21" s="20" customFormat="1">
+      <c r="A1426" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1426" s="5">
+        <v>31426.726600000002</v>
+      </c>
+      <c r="C1426" s="20">
+        <v>3.0000000000000049</v>
+      </c>
+      <c r="D1426" s="3"/>
+      <c r="T1426" s="8">
+        <v>2.4542002638791187</v>
+      </c>
+      <c r="U1426" s="8">
+        <v>3.4273198412268946</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:21" s="20" customFormat="1">
+      <c r="A1427" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1427" s="5">
+        <v>31791.968800000002</v>
+      </c>
+      <c r="C1427" s="20">
+        <v>4.0000000000000062</v>
+      </c>
+      <c r="D1427" s="3"/>
+      <c r="T1427" s="8">
+        <v>2.4763176191037024</v>
+      </c>
+      <c r="U1427" s="8">
+        <v>3.3539979087022815</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:21" s="20" customFormat="1">
+      <c r="A1428" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1428" s="5">
+        <v>32157.211000000003</v>
+      </c>
+      <c r="C1428" s="20">
+        <v>5.000000000000008</v>
+      </c>
+      <c r="D1428" s="3"/>
+      <c r="T1428" s="8">
+        <v>2.4617085141600272</v>
+      </c>
+      <c r="U1428" s="8">
+        <v>3.095527916118908</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:21" s="20" customFormat="1">
+      <c r="A1429" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1429" s="5">
+        <v>32522.453200000004</v>
+      </c>
+      <c r="C1429" s="20">
+        <v>6.0000000000000098</v>
+      </c>
+      <c r="D1429" s="3"/>
+      <c r="T1429" s="8">
+        <v>2.3823948783896052</v>
+      </c>
+      <c r="U1429" s="8">
+        <v>3.0734037490570061</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:21" s="20" customFormat="1">
+      <c r="A1430" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1430" s="5">
+        <v>32887.695400000004</v>
+      </c>
+      <c r="C1430" s="20">
+        <v>7.0000000000000107</v>
+      </c>
+      <c r="D1430" s="3"/>
+      <c r="T1430" s="8">
+        <v>2.4571103928265625</v>
+      </c>
+      <c r="U1430" s="8">
+        <v>3.1669236272078791</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:21" s="20" customFormat="1">
+      <c r="A1431" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1431" s="5">
+        <v>33252.937600000005</v>
+      </c>
+      <c r="C1431" s="20">
+        <v>8.0000000000000124</v>
+      </c>
+      <c r="D1431" s="3"/>
+      <c r="T1431" s="8">
+        <v>2.4163684958890244</v>
+      </c>
+      <c r="U1431" s="8">
+        <v>3.0647651832352412</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:21" s="20" customFormat="1">
+      <c r="A1432" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1432" s="5">
+        <v>33618.179800000005</v>
+      </c>
+      <c r="C1432" s="20">
+        <v>9.0000000000000142</v>
+      </c>
+      <c r="D1432" s="3"/>
+      <c r="T1432" s="8">
+        <v>2.3925209791856989</v>
+      </c>
+      <c r="U1432" s="8">
+        <v>2.9888129265753967</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:21" s="20" customFormat="1">
+      <c r="A1433" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1433" s="5">
+        <v>33983.422000000006</v>
+      </c>
+      <c r="C1433" s="20">
+        <v>10.000000000000016</v>
+      </c>
+      <c r="D1433" s="3"/>
+      <c r="T1433" s="8">
+        <v>2.5718994553713248</v>
+      </c>
+      <c r="U1433" s="8">
+        <v>3.4361000130507162</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:21" s="20" customFormat="1">
+      <c r="A1434" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1434" s="5">
+        <v>34348.664200000007</v>
+      </c>
+      <c r="C1434" s="20">
+        <v>11.000000000000018</v>
+      </c>
+      <c r="D1434" s="3"/>
+      <c r="T1434" s="8">
+        <v>2.6652210059237524</v>
+      </c>
+      <c r="U1434" s="8">
+        <v>3.4429713648184519</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:21" s="20" customFormat="1">
+      <c r="A1435" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1435" s="5">
+        <v>34713.906400000007</v>
+      </c>
+      <c r="C1435" s="20">
+        <v>12.00000000000002</v>
+      </c>
+      <c r="D1435" s="3"/>
+      <c r="T1435" s="8">
+        <v>2.930487556301109</v>
+      </c>
+      <c r="U1435" s="8">
+        <v>4.1673846841885798</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:21" s="20" customFormat="1">
+      <c r="A1436" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1436" s="5">
+        <v>35079.148600000008</v>
+      </c>
+      <c r="C1436" s="20">
+        <v>13.00000000000002</v>
+      </c>
+      <c r="D1436" s="3"/>
+      <c r="T1436" s="8">
+        <v>2.9301642868738442</v>
+      </c>
+      <c r="U1436" s="8">
+        <v>4.1904467960491347</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A238:BG627">
     <sortCondition ref="A268:A627"/>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E31F4BF-70A7-4569-AEC5-24D203ABBDCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85D0538-A8CB-42FC-A3F7-1ECDEA1501E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
     <t>Pinus.Leaf.Live.NConc</t>
   </si>
   <si>
-    <t>PAWmmTotal</t>
+    <t>SWmmTotal</t>
   </si>
 </sst>
 </file>
@@ -960,10 +960,10 @@
   <dimension ref="A1:BO1436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL1" sqref="AL1"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85D0538-A8CB-42FC-A3F7-1ECDEA1501E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFBC70C-157A-456F-92B0-153F90EB4293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="104">
   <si>
     <t>SimulationName</t>
   </si>
@@ -957,13 +957,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:BO1436"/>
+  <dimension ref="A1:BO1437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D1107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="A1188" sqref="A1188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -44123,7 +44123,7 @@
         <v>18</v>
       </c>
       <c r="D1170" s="20">
-        <f t="shared" ref="D1170:D1204" si="16">E1170/E$1168*100</f>
+        <f t="shared" ref="D1170:D1205" si="16">E1170/E$1168*100</f>
         <v>41.778074866310163</v>
       </c>
       <c r="E1170" s="3">
@@ -44751,41 +44751,32 @@
       </c>
     </row>
     <row r="1187" spans="1:67">
-      <c r="A1187" s="3" t="s">
+      <c r="A1187" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B1187" s="5">
-        <v>29021.117399999999</v>
+        <v>22812</v>
       </c>
       <c r="C1187" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D1187" s="20">
-        <f t="shared" si="16"/>
-        <v>41.778074866310163</v>
+        <v>100</v>
       </c>
       <c r="E1187" s="3">
-        <v>625</v>
-      </c>
-      <c r="AD1187" s="3">
-        <v>110.3</v>
-      </c>
-      <c r="AG1187" s="3">
-        <v>6.4882352941176471</v>
-      </c>
-      <c r="AJ1187" s="3">
-        <v>1.01E-2</v>
-      </c>
+        <v>1496</v>
+      </c>
+      <c r="V1187"/>
     </row>
     <row r="1188" spans="1:67">
       <c r="A1188" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B1188" s="5">
-        <v>29386.3596</v>
+        <v>29021.117399999999</v>
       </c>
       <c r="C1188" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1188" s="20">
         <f t="shared" si="16"/>
@@ -44795,13 +44786,13 @@
         <v>625</v>
       </c>
       <c r="AD1188" s="3">
-        <v>121.94</v>
+        <v>110.3</v>
       </c>
       <c r="AG1188" s="3">
-        <v>6.7744444444444447</v>
+        <v>6.4882352941176471</v>
       </c>
       <c r="AJ1188" s="3">
-        <v>9.3999999999999986E-3</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="1189" spans="1:67">
@@ -44809,10 +44800,10 @@
         <v>88</v>
       </c>
       <c r="B1189" s="5">
-        <v>29751.6018</v>
+        <v>29386.3596</v>
       </c>
       <c r="C1189" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1189" s="20">
         <f t="shared" si="16"/>
@@ -44822,13 +44813,13 @@
         <v>625</v>
       </c>
       <c r="AD1189" s="3">
-        <v>135.66</v>
+        <v>121.94</v>
       </c>
       <c r="AG1189" s="3">
-        <v>7.14</v>
+        <v>6.7744444444444447</v>
       </c>
       <c r="AJ1189" s="3">
-        <v>0.01</v>
+        <v>9.3999999999999986E-3</v>
       </c>
     </row>
     <row r="1190" spans="1:67">
@@ -44836,10 +44827,10 @@
         <v>88</v>
       </c>
       <c r="B1190" s="5">
-        <v>30116.844000000001</v>
+        <v>29751.6018</v>
       </c>
       <c r="C1190" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1190" s="20">
         <f t="shared" si="16"/>
@@ -44849,13 +44840,13 @@
         <v>625</v>
       </c>
       <c r="AD1190" s="3">
-        <v>152.26999999999998</v>
+        <v>135.66</v>
       </c>
       <c r="AG1190" s="3">
-        <v>7.6134999999999993</v>
+        <v>7.14</v>
       </c>
       <c r="AJ1190" s="3">
-        <v>9.7999999999999997E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1191" spans="1:67">
@@ -44863,10 +44854,10 @@
         <v>88</v>
       </c>
       <c r="B1191" s="5">
-        <v>30482.086200000002</v>
+        <v>30116.844000000001</v>
       </c>
       <c r="C1191" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1191" s="20">
         <f t="shared" si="16"/>
@@ -44876,13 +44867,13 @@
         <v>625</v>
       </c>
       <c r="AD1191" s="3">
-        <v>174.11999999999998</v>
+        <v>152.26999999999998</v>
       </c>
       <c r="AG1191" s="3">
-        <v>8.29142857142857</v>
+        <v>7.6134999999999993</v>
       </c>
       <c r="AJ1191" s="3">
-        <v>1.0500000000000001E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
     </row>
     <row r="1192" spans="1:67">
@@ -44890,10 +44881,10 @@
         <v>88</v>
       </c>
       <c r="B1192" s="5">
-        <v>30847.328399999999</v>
+        <v>30482.086200000002</v>
       </c>
       <c r="C1192" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1192" s="20">
         <f t="shared" si="16"/>
@@ -44903,13 +44894,13 @@
         <v>625</v>
       </c>
       <c r="AD1192" s="3">
-        <v>192.77999999999997</v>
+        <v>174.11999999999998</v>
       </c>
       <c r="AG1192" s="3">
-        <v>8.7627272727272718</v>
+        <v>8.29142857142857</v>
       </c>
       <c r="AJ1192" s="3">
-        <v>1.1000000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="1193" spans="1:67">
@@ -44917,10 +44908,10 @@
         <v>88</v>
       </c>
       <c r="B1193" s="5">
-        <v>31212.570599999999</v>
+        <v>30847.328399999999</v>
       </c>
       <c r="C1193" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1193" s="20">
         <f t="shared" si="16"/>
@@ -44930,13 +44921,13 @@
         <v>625</v>
       </c>
       <c r="AD1193" s="3">
-        <v>219.14</v>
+        <v>192.77999999999997</v>
       </c>
       <c r="AG1193" s="3">
-        <v>9.5278260869565212</v>
+        <v>8.7627272727272718</v>
       </c>
       <c r="AJ1193" s="3">
-        <v>9.300000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
     </row>
     <row r="1194" spans="1:67">
@@ -44944,10 +44935,10 @@
         <v>88</v>
       </c>
       <c r="B1194" s="5">
-        <v>31577.8128</v>
+        <v>31212.570599999999</v>
       </c>
       <c r="C1194" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1194" s="20">
         <f t="shared" si="16"/>
@@ -44957,13 +44948,13 @@
         <v>625</v>
       </c>
       <c r="AD1194" s="3">
-        <v>252.42999999999998</v>
+        <v>219.14</v>
       </c>
       <c r="AG1194" s="3">
-        <v>10.517916666666666</v>
+        <v>9.5278260869565212</v>
       </c>
       <c r="AJ1194" s="3">
-        <v>1.11E-2</v>
+        <v>9.300000000000001E-3</v>
       </c>
     </row>
     <row r="1195" spans="1:67">
@@ -44971,10 +44962,10 @@
         <v>88</v>
       </c>
       <c r="B1195" s="5">
-        <v>31943.055</v>
+        <v>31577.8128</v>
       </c>
       <c r="C1195" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1195" s="20">
         <f t="shared" si="16"/>
@@ -44983,91 +44974,14 @@
       <c r="E1195" s="3">
         <v>625</v>
       </c>
-      <c r="F1195" s="3">
-        <v>18719</v>
-      </c>
-      <c r="G1195" s="3">
-        <v>667</v>
-      </c>
-      <c r="H1195" s="3">
-        <v>1057</v>
-      </c>
-      <c r="J1195" s="3">
-        <v>1805</v>
-      </c>
-      <c r="K1195" s="3">
-        <f>G1195+J1195</f>
-        <v>2472</v>
-      </c>
-      <c r="L1195" s="3">
-        <v>2456</v>
-      </c>
-      <c r="M1195" s="3">
-        <v>12734</v>
-      </c>
-      <c r="N1195" s="3">
-        <v>15190</v>
-      </c>
-      <c r="O1195" s="3">
-        <f>N1195+J1195</f>
-        <v>16995</v>
-      </c>
-      <c r="V1195" s="3">
-        <v>26.013000000000005</v>
-      </c>
-      <c r="W1195" s="3">
-        <v>1257</v>
-      </c>
       <c r="AD1195" s="3">
-        <v>283.27999999999997</v>
+        <v>252.42999999999998</v>
       </c>
       <c r="AG1195" s="3">
-        <v>11.331199999999999</v>
-      </c>
-      <c r="BA1195" s="3">
-        <v>59608.000000000007</v>
-      </c>
-      <c r="BB1195" s="3">
-        <v>71183</v>
-      </c>
-      <c r="BC1195" s="3">
-        <v>57699</v>
-      </c>
-      <c r="BD1195" s="3">
-        <v>89.13600000000001</v>
-      </c>
-      <c r="BE1195" s="3">
-        <v>43.127000000000002</v>
-      </c>
-      <c r="BF1195" s="3">
-        <v>33.067</v>
-      </c>
-      <c r="BG1195" s="3">
-        <v>2.58E-2</v>
-      </c>
-      <c r="BH1195" s="3">
-        <v>1.3500000000000002E-2</v>
-      </c>
-      <c r="BI1195" s="3">
-        <v>1.15E-2</v>
-      </c>
-      <c r="BJ1195" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="BK1195" s="3">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="BL1195" s="3">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="BM1195" s="3">
-        <v>17.200000000000003</v>
-      </c>
-      <c r="BN1195" s="3">
-        <v>22.500000000000004</v>
-      </c>
-      <c r="BO1195" s="3">
-        <v>19.166666666666664</v>
+        <v>10.517916666666666</v>
+      </c>
+      <c r="AJ1195" s="3">
+        <v>1.11E-2</v>
       </c>
     </row>
     <row r="1196" spans="1:67">
@@ -45075,10 +44989,10 @@
         <v>88</v>
       </c>
       <c r="B1196" s="5">
-        <v>32308.297200000001</v>
+        <v>31943.055</v>
       </c>
       <c r="C1196" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1196" s="20">
         <f t="shared" si="16"/>
@@ -45087,11 +45001,91 @@
       <c r="E1196" s="3">
         <v>625</v>
       </c>
+      <c r="F1196" s="3">
+        <v>18719</v>
+      </c>
+      <c r="G1196" s="3">
+        <v>667</v>
+      </c>
+      <c r="H1196" s="3">
+        <v>1057</v>
+      </c>
+      <c r="J1196" s="3">
+        <v>1805</v>
+      </c>
+      <c r="K1196" s="3">
+        <f>G1196+J1196</f>
+        <v>2472</v>
+      </c>
+      <c r="L1196" s="3">
+        <v>2456</v>
+      </c>
+      <c r="M1196" s="3">
+        <v>12734</v>
+      </c>
+      <c r="N1196" s="3">
+        <v>15190</v>
+      </c>
+      <c r="O1196" s="3">
+        <f>N1196+J1196</f>
+        <v>16995</v>
+      </c>
+      <c r="V1196" s="3">
+        <v>26.013000000000005</v>
+      </c>
+      <c r="W1196" s="3">
+        <v>1257</v>
+      </c>
       <c r="AD1196" s="3">
-        <v>310.58999999999997</v>
+        <v>283.27999999999997</v>
       </c>
       <c r="AG1196" s="3">
-        <v>11.94576923076923</v>
+        <v>11.331199999999999</v>
+      </c>
+      <c r="BA1196" s="3">
+        <v>59608.000000000007</v>
+      </c>
+      <c r="BB1196" s="3">
+        <v>71183</v>
+      </c>
+      <c r="BC1196" s="3">
+        <v>57699</v>
+      </c>
+      <c r="BD1196" s="3">
+        <v>89.13600000000001</v>
+      </c>
+      <c r="BE1196" s="3">
+        <v>43.127000000000002</v>
+      </c>
+      <c r="BF1196" s="3">
+        <v>33.067</v>
+      </c>
+      <c r="BG1196" s="3">
+        <v>2.58E-2</v>
+      </c>
+      <c r="BH1196" s="3">
+        <v>1.3500000000000002E-2</v>
+      </c>
+      <c r="BI1196" s="3">
+        <v>1.15E-2</v>
+      </c>
+      <c r="BJ1196" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="BK1196" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="BL1196" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="BM1196" s="3">
+        <v>17.200000000000003</v>
+      </c>
+      <c r="BN1196" s="3">
+        <v>22.500000000000004</v>
+      </c>
+      <c r="BO1196" s="3">
+        <v>19.166666666666664</v>
       </c>
     </row>
     <row r="1197" spans="1:67">
@@ -45099,10 +45093,10 @@
         <v>88</v>
       </c>
       <c r="B1197" s="5">
-        <v>32673.539400000001</v>
+        <v>32308.297200000001</v>
       </c>
       <c r="C1197" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1197" s="20">
         <f t="shared" si="16"/>
@@ -45112,13 +45106,10 @@
         <v>625</v>
       </c>
       <c r="AD1197" s="3">
-        <v>344</v>
+        <v>310.58999999999997</v>
       </c>
       <c r="AG1197" s="3">
-        <v>12.74074074074074</v>
-      </c>
-      <c r="AJ1197" s="3">
-        <v>1.09E-2</v>
+        <v>11.94576923076923</v>
       </c>
     </row>
     <row r="1198" spans="1:67">
@@ -45126,10 +45117,10 @@
         <v>88</v>
       </c>
       <c r="B1198" s="5">
-        <v>33038.781600000002</v>
+        <v>32673.539400000001</v>
       </c>
       <c r="C1198" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1198" s="20">
         <f t="shared" si="16"/>
@@ -45139,13 +45130,13 @@
         <v>625</v>
       </c>
       <c r="AD1198" s="3">
-        <v>374.32</v>
+        <v>344</v>
       </c>
       <c r="AG1198" s="3">
-        <v>13.368571428571428</v>
+        <v>12.74074074074074</v>
       </c>
       <c r="AJ1198" s="3">
-        <v>1.1399999999999999E-2</v>
+        <v>1.09E-2</v>
       </c>
     </row>
     <row r="1199" spans="1:67">
@@ -45153,10 +45144,10 @@
         <v>88</v>
       </c>
       <c r="B1199" s="5">
-        <v>33404.023800000003</v>
+        <v>33038.781600000002</v>
       </c>
       <c r="C1199" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1199" s="20">
         <f t="shared" si="16"/>
@@ -45165,65 +45156,14 @@
       <c r="E1199" s="3">
         <v>625</v>
       </c>
-      <c r="F1199" s="3">
-        <v>25530</v>
-      </c>
-      <c r="H1199" s="3">
-        <v>1050</v>
-      </c>
-      <c r="K1199" s="3">
-        <v>3394</v>
-      </c>
-      <c r="L1199" s="3">
-        <v>2863</v>
-      </c>
-      <c r="M1199" s="3">
-        <v>18223</v>
-      </c>
-      <c r="N1199" s="3">
-        <v>21086</v>
-      </c>
-      <c r="V1199" s="3">
-        <v>35.235999999999997</v>
-      </c>
-      <c r="W1199" s="3">
-        <v>4821</v>
-      </c>
       <c r="AD1199" s="3">
-        <v>407.74</v>
+        <v>374.32</v>
       </c>
       <c r="AG1199" s="3">
-        <v>14.06</v>
+        <v>13.368571428571428</v>
       </c>
       <c r="AJ1199" s="3">
-        <v>9.3999999999999986E-3</v>
-      </c>
-      <c r="BG1199" s="3">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="BH1199" s="3">
-        <v>8.1000000000000013E-3</v>
-      </c>
-      <c r="BI1199" s="3">
-        <v>7.0999999999999995E-3</v>
-      </c>
-      <c r="BJ1199" s="3">
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="BK1199" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="BL1199" s="3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="BM1199" s="3">
-        <v>24.857142857142854</v>
-      </c>
-      <c r="BN1199" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="BO1199" s="3">
-        <v>23.666666666666668</v>
+        <v>1.1399999999999999E-2</v>
       </c>
     </row>
     <row r="1200" spans="1:67">
@@ -45231,10 +45171,10 @@
         <v>88</v>
       </c>
       <c r="B1200" s="5">
-        <v>33769.266000000003</v>
+        <v>33404.023800000003</v>
       </c>
       <c r="C1200" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1200" s="20">
         <f t="shared" si="16"/>
@@ -45243,14 +45183,65 @@
       <c r="E1200" s="3">
         <v>625</v>
       </c>
+      <c r="F1200" s="3">
+        <v>25530</v>
+      </c>
+      <c r="H1200" s="3">
+        <v>1050</v>
+      </c>
+      <c r="K1200" s="3">
+        <v>3394</v>
+      </c>
+      <c r="L1200" s="3">
+        <v>2863</v>
+      </c>
+      <c r="M1200" s="3">
+        <v>18223</v>
+      </c>
+      <c r="N1200" s="3">
+        <v>21086</v>
+      </c>
+      <c r="V1200" s="3">
+        <v>35.235999999999997</v>
+      </c>
+      <c r="W1200" s="3">
+        <v>4821</v>
+      </c>
       <c r="AD1200" s="3">
-        <v>438.73</v>
+        <v>407.74</v>
       </c>
       <c r="AG1200" s="3">
-        <v>14.624333333333334</v>
+        <v>14.06</v>
       </c>
       <c r="AJ1200" s="3">
-        <v>9.8999999999999991E-3</v>
+        <v>9.3999999999999986E-3</v>
+      </c>
+      <c r="BG1200" s="3">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="BH1200" s="3">
+        <v>8.1000000000000013E-3</v>
+      </c>
+      <c r="BI1200" s="3">
+        <v>7.0999999999999995E-3</v>
+      </c>
+      <c r="BJ1200" s="3">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="BK1200" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="BL1200" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="BM1200" s="3">
+        <v>24.857142857142854</v>
+      </c>
+      <c r="BN1200" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="BO1200" s="3">
+        <v>23.666666666666668</v>
       </c>
     </row>
     <row r="1201" spans="1:67">
@@ -45258,10 +45249,10 @@
         <v>88</v>
       </c>
       <c r="B1201" s="5">
-        <v>34134.508199999997</v>
+        <v>33769.266000000003</v>
       </c>
       <c r="C1201" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1201" s="20">
         <f t="shared" si="16"/>
@@ -45271,13 +45262,13 @@
         <v>625</v>
       </c>
       <c r="AD1201" s="3">
-        <v>468.61</v>
+        <v>438.73</v>
       </c>
       <c r="AG1201" s="3">
-        <v>15.116451612903226</v>
+        <v>14.624333333333334</v>
       </c>
       <c r="AJ1201" s="3">
-        <v>8.5000000000000006E-3</v>
+        <v>9.8999999999999991E-3</v>
       </c>
     </row>
     <row r="1202" spans="1:67">
@@ -45285,10 +45276,10 @@
         <v>88</v>
       </c>
       <c r="B1202" s="5">
-        <v>34499.750400000004</v>
+        <v>34134.508199999997</v>
       </c>
       <c r="C1202" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1202" s="20">
         <f t="shared" si="16"/>
@@ -45298,13 +45289,13 @@
         <v>625</v>
       </c>
       <c r="AD1202" s="3">
-        <v>495.43</v>
+        <v>468.61</v>
       </c>
       <c r="AG1202" s="3">
-        <v>15.4821875</v>
+        <v>15.116451612903226</v>
       </c>
       <c r="AJ1202" s="3">
-        <v>8.1000000000000013E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="1203" spans="1:67">
@@ -45312,10 +45303,10 @@
         <v>88</v>
       </c>
       <c r="B1203" s="5">
-        <v>34864.992599999998</v>
+        <v>34499.750400000004</v>
       </c>
       <c r="C1203" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1203" s="20">
         <f t="shared" si="16"/>
@@ -45325,13 +45316,13 @@
         <v>625</v>
       </c>
       <c r="AD1203" s="3">
-        <v>512.85</v>
+        <v>495.43</v>
       </c>
       <c r="AG1203" s="3">
-        <v>15.540909090909091</v>
+        <v>15.4821875</v>
       </c>
       <c r="AJ1203" s="3">
-        <v>6.0999999999999995E-3</v>
+        <v>8.1000000000000013E-3</v>
       </c>
     </row>
     <row r="1204" spans="1:67">
@@ -45339,10 +45330,10 @@
         <v>88</v>
       </c>
       <c r="B1204" s="5">
-        <v>35230.234799999998</v>
+        <v>34864.992599999998</v>
       </c>
       <c r="C1204" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1204" s="20">
         <f t="shared" si="16"/>
@@ -45351,82 +45342,92 @@
       <c r="E1204" s="3">
         <v>625</v>
       </c>
-      <c r="F1204" s="3">
+      <c r="AD1204" s="3">
+        <v>512.85</v>
+      </c>
+      <c r="AG1204" s="3">
+        <v>15.540909090909091</v>
+      </c>
+      <c r="AJ1204" s="3">
+        <v>6.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:67">
+      <c r="A1205" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1205" s="5">
+        <v>35230.234799999998</v>
+      </c>
+      <c r="C1205" s="3">
+        <v>34</v>
+      </c>
+      <c r="D1205" s="20">
+        <f t="shared" si="16"/>
+        <v>41.778074866310163</v>
+      </c>
+      <c r="E1205" s="3">
+        <v>625</v>
+      </c>
+      <c r="F1205" s="3">
         <v>34106</v>
       </c>
-      <c r="H1204" s="3">
+      <c r="H1205" s="3">
         <v>1071</v>
       </c>
-      <c r="K1204" s="3">
+      <c r="K1205" s="3">
         <v>4645</v>
       </c>
-      <c r="L1204" s="3">
+      <c r="L1205" s="3">
         <v>4635</v>
       </c>
-      <c r="M1204" s="3">
+      <c r="M1205" s="3">
         <v>23755</v>
       </c>
-      <c r="N1204" s="3">
+      <c r="N1205" s="3">
         <v>28390</v>
       </c>
-      <c r="V1204" s="3">
+      <c r="V1205" s="3">
         <v>30.543000000000003</v>
       </c>
-      <c r="W1204" s="3">
+      <c r="W1205" s="3">
         <v>4924</v>
       </c>
-      <c r="AD1204" s="3">
+      <c r="AD1205" s="3">
         <v>528.84</v>
       </c>
-      <c r="AG1204" s="3">
+      <c r="AG1205" s="3">
         <v>15.554117647058824</v>
       </c>
-      <c r="AJ1204" s="3">
+      <c r="AJ1205" s="3">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="BG1204" s="3">
+      <c r="BG1205" s="3">
         <v>2.9500000000000002E-2</v>
       </c>
-      <c r="BH1204" s="3">
+      <c r="BH1205" s="3">
         <v>1.0700000000000001E-2</v>
       </c>
-      <c r="BI1204" s="3">
+      <c r="BI1205" s="3">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="BJ1204" s="3">
+      <c r="BJ1205" s="3">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="BK1204" s="3">
+      <c r="BK1205" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="BL1204" s="3">
+      <c r="BL1205" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="BM1204" s="3">
+      <c r="BM1205" s="3">
         <v>22.692307692307693</v>
       </c>
-      <c r="BN1204" s="3">
+      <c r="BN1205" s="3">
         <v>17.833333333333336</v>
       </c>
-      <c r="BO1204" s="3">
+      <c r="BO1205" s="3">
         <v>18.2</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:67" s="20" customFormat="1">
-      <c r="A1205" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1205" s="5">
-        <v>30331</v>
-      </c>
-      <c r="C1205" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1205" s="3">
-        <v>100</v>
-      </c>
-      <c r="E1205" s="20">
-        <v>1851.85</v>
       </c>
     </row>
     <row r="1206" spans="1:67" s="20" customFormat="1">
@@ -45434,37 +45435,16 @@
         <v>89</v>
       </c>
       <c r="B1206" s="5">
-        <v>31792</v>
-      </c>
-      <c r="C1206" s="20">
-        <v>4.0000854227687812</v>
+        <v>30331</v>
+      </c>
+      <c r="C1206" s="3">
+        <v>0</v>
       </c>
       <c r="D1206" s="3">
-        <v>77.767208332208341</v>
+        <v>100</v>
       </c>
       <c r="E1206" s="20">
-        <v>1440.1320475</v>
-      </c>
-      <c r="F1206" s="20">
-        <v>166.7019998442276</v>
-      </c>
-      <c r="H1206" s="20">
-        <v>112.74537970676542</v>
-      </c>
-      <c r="J1206" s="20">
-        <v>21.761142962356551</v>
-      </c>
-      <c r="N1206" s="20">
-        <v>32.19547717510563</v>
-      </c>
-      <c r="AB1206" s="20">
-        <v>1.9501867255516743</v>
-      </c>
-      <c r="AC1206" s="20">
-        <v>0.43017543228998234</v>
-      </c>
-      <c r="AD1206" s="20">
-        <v>0.67692307692307685</v>
+        <v>1851.85</v>
       </c>
     </row>
     <row r="1207" spans="1:67" s="20" customFormat="1">
@@ -45472,10 +45452,10 @@
         <v>89</v>
       </c>
       <c r="B1207" s="5">
-        <v>32157.242200000001</v>
+        <v>31792</v>
       </c>
       <c r="C1207" s="20">
-        <v>5.000085422768783</v>
+        <v>4.0000854227687812</v>
       </c>
       <c r="D1207" s="3">
         <v>77.767208332208341</v>
@@ -45484,22 +45464,25 @@
         <v>1440.1320475</v>
       </c>
       <c r="F1207" s="20">
-        <v>325.93599396375362</v>
+        <v>166.7019998442276</v>
       </c>
       <c r="H1207" s="20">
-        <v>147.9026026255828</v>
+        <v>112.74537970676542</v>
       </c>
       <c r="J1207" s="20">
-        <v>53.714923212495918</v>
+        <v>21.761142962356551</v>
       </c>
       <c r="N1207" s="20">
-        <v>124.31846812567485</v>
+        <v>32.19547717510563</v>
       </c>
       <c r="AB1207" s="20">
-        <v>3.230488381655241</v>
+        <v>1.9501867255516743</v>
       </c>
       <c r="AC1207" s="20">
-        <v>1.1804010272184902</v>
+        <v>0.43017543228998234</v>
+      </c>
+      <c r="AD1207" s="20">
+        <v>0.67692307692307685</v>
       </c>
     </row>
     <row r="1208" spans="1:67" s="20" customFormat="1">
@@ -45507,37 +45490,34 @@
         <v>89</v>
       </c>
       <c r="B1208" s="5">
-        <v>32522.484400000001</v>
+        <v>32157.242200000001</v>
       </c>
       <c r="C1208" s="20">
-        <v>6.0000854227687848</v>
+        <v>5.000085422768783</v>
       </c>
       <c r="D1208" s="3">
-        <v>77.072927072927072</v>
+        <v>77.767208332208341</v>
       </c>
       <c r="E1208" s="20">
-        <v>1427.2750000000001</v>
+        <v>1440.1320475</v>
       </c>
       <c r="F1208" s="20">
-        <v>649.99852354022107</v>
+        <v>325.93599396375362</v>
       </c>
       <c r="H1208" s="20">
-        <v>188.38296885673418</v>
+        <v>147.9026026255828</v>
       </c>
       <c r="J1208" s="20">
-        <v>110.04468420111527</v>
+        <v>53.714923212495918</v>
       </c>
       <c r="N1208" s="20">
-        <v>351.57087048237162</v>
+        <v>124.31846812567485</v>
       </c>
       <c r="AB1208" s="20">
-        <v>4.7795165479101689</v>
+        <v>3.230488381655241</v>
       </c>
       <c r="AC1208" s="20">
-        <v>2.5607459522564411</v>
-      </c>
-      <c r="AD1208" s="20">
-        <v>6.2573426573426572</v>
+        <v>1.1804010272184902</v>
       </c>
     </row>
     <row r="1209" spans="1:67" s="20" customFormat="1">
@@ -45545,10 +45525,10 @@
         <v>89</v>
       </c>
       <c r="B1209" s="5">
-        <v>32887.726600000002</v>
+        <v>32522.484400000001</v>
       </c>
       <c r="C1209" s="20">
-        <v>7.0000854227687865</v>
+        <v>6.0000854227687848</v>
       </c>
       <c r="D1209" s="3">
         <v>77.072927072927072</v>
@@ -45557,22 +45537,25 @@
         <v>1427.2750000000001</v>
       </c>
       <c r="F1209" s="20">
-        <v>1160.1845792901352</v>
+        <v>649.99852354022107</v>
       </c>
       <c r="H1209" s="20">
-        <v>230.50094107556532</v>
+        <v>188.38296885673418</v>
       </c>
       <c r="J1209" s="20">
-        <v>187.2461096158942</v>
+        <v>110.04468420111527</v>
       </c>
       <c r="N1209" s="20">
-        <v>742.4375285986755</v>
+        <v>351.57087048237162</v>
       </c>
       <c r="AB1209" s="20">
-        <v>6.3192298187461668</v>
+        <v>4.7795165479101689</v>
       </c>
       <c r="AC1209" s="20">
-        <v>4.4763790654386408</v>
+        <v>2.5607459522564411</v>
+      </c>
+      <c r="AD1209" s="20">
+        <v>6.2573426573426572</v>
       </c>
     </row>
     <row r="1210" spans="1:67" s="20" customFormat="1">
@@ -45580,37 +45563,34 @@
         <v>89</v>
       </c>
       <c r="B1210" s="5">
-        <v>33618.211000000003</v>
+        <v>32887.726600000002</v>
       </c>
       <c r="C1210" s="20">
-        <v>9.0000854227687892</v>
+        <v>7.0000854227687865</v>
       </c>
       <c r="D1210" s="3">
-        <v>75.68415624915626</v>
+        <v>77.072927072927072</v>
       </c>
       <c r="E1210" s="20">
-        <v>1401.5570475</v>
+        <v>1427.2750000000001</v>
       </c>
       <c r="F1210" s="20">
-        <v>2197.7501378951115</v>
+        <v>1160.1845792901352</v>
       </c>
       <c r="H1210" s="20">
-        <v>279.1833681513869</v>
+        <v>230.50094107556532</v>
       </c>
       <c r="J1210" s="20">
-        <v>320.35647596778114</v>
+        <v>187.2461096158942</v>
       </c>
       <c r="N1210" s="20">
-        <v>1598.2102937759432</v>
+        <v>742.4375285986755</v>
       </c>
       <c r="AB1210" s="20">
-        <v>8.4723749081914619</v>
+        <v>6.3192298187461668</v>
       </c>
       <c r="AC1210" s="20">
-        <v>7.9015448061830256</v>
-      </c>
-      <c r="AD1210" s="20">
-        <v>27.827972027972027</v>
+        <v>4.4763790654386408</v>
       </c>
     </row>
     <row r="1211" spans="1:67" s="20" customFormat="1">
@@ -45618,10 +45598,10 @@
         <v>89</v>
       </c>
       <c r="B1211" s="5">
-        <v>33983.453200000004</v>
+        <v>33618.211000000003</v>
       </c>
       <c r="C1211" s="20">
-        <v>10.000085422768791</v>
+        <v>9.0000854227687892</v>
       </c>
       <c r="D1211" s="3">
         <v>75.68415624915626</v>
@@ -45630,25 +45610,25 @@
         <v>1401.5570475</v>
       </c>
       <c r="F1211" s="20">
-        <v>2938.5136903232574</v>
+        <v>2197.7501378951115</v>
       </c>
       <c r="H1211" s="20">
-        <v>309.90422222129575</v>
+        <v>279.1833681513869</v>
       </c>
       <c r="J1211" s="20">
-        <v>408.40130995582092</v>
+        <v>320.35647596778114</v>
       </c>
       <c r="N1211" s="20">
-        <v>2220.2081581461407</v>
+        <v>1598.2102937759432</v>
       </c>
       <c r="AB1211" s="20">
-        <v>9.5793649569387682</v>
+        <v>8.4723749081914619</v>
       </c>
       <c r="AC1211" s="20">
-        <v>10.101249896264184</v>
+        <v>7.9015448061830256</v>
       </c>
       <c r="AD1211" s="20">
-        <v>38.250349650349648</v>
+        <v>27.827972027972027</v>
       </c>
     </row>
     <row r="1212" spans="1:67" s="20" customFormat="1">
@@ -45656,37 +45636,37 @@
         <v>89</v>
       </c>
       <c r="B1212" s="5">
-        <v>34348.695400000004</v>
+        <v>33983.453200000004</v>
       </c>
       <c r="C1212" s="20">
-        <v>11.000085422768793</v>
+        <v>10.000085422768791</v>
       </c>
       <c r="D1212" s="3">
-        <v>77.072927072927072</v>
+        <v>75.68415624915626</v>
       </c>
       <c r="E1212" s="20">
-        <v>1427.2750000000001</v>
+        <v>1401.5570475</v>
       </c>
       <c r="F1212" s="20">
-        <v>3501.616391440275</v>
+        <v>2938.5136903232574</v>
       </c>
       <c r="H1212" s="20">
-        <v>329.16414044503546</v>
+        <v>309.90422222129575</v>
       </c>
       <c r="J1212" s="20">
-        <v>469.87754205106637</v>
+        <v>408.40130995582092</v>
       </c>
       <c r="N1212" s="20">
-        <v>2702.5747089441729</v>
+        <v>2220.2081581461407</v>
       </c>
       <c r="AB1212" s="20">
-        <v>10.239624135402295</v>
+        <v>9.5793649569387682</v>
       </c>
       <c r="AC1212" s="20">
-        <v>11.753483078789225</v>
+        <v>10.101249896264184</v>
       </c>
       <c r="AD1212" s="20">
-        <v>46.579020979020981</v>
+        <v>38.250349650349648</v>
       </c>
     </row>
     <row r="1213" spans="1:67" s="20" customFormat="1">
@@ -45694,37 +45674,37 @@
         <v>89</v>
       </c>
       <c r="B1213" s="5">
-        <v>35079.179800000005</v>
+        <v>34348.695400000004</v>
       </c>
       <c r="C1213" s="20">
-        <v>13.000085422768796</v>
+        <v>11.000085422768793</v>
       </c>
       <c r="D1213" s="3">
-        <v>74.989874989874991</v>
+        <v>77.072927072927072</v>
       </c>
       <c r="E1213" s="20">
-        <v>1388.7</v>
+        <v>1427.2750000000001</v>
       </c>
       <c r="F1213" s="20">
-        <v>4787.160905592199</v>
+        <v>3501.616391440275</v>
       </c>
       <c r="H1213" s="20">
-        <v>360.21668014865361</v>
+        <v>329.16414044503546</v>
       </c>
       <c r="J1213" s="20">
-        <v>601.92554301178814</v>
+        <v>469.87754205106637</v>
       </c>
       <c r="N1213" s="20">
-        <v>3825.018682431757</v>
+        <v>2702.5747089441729</v>
       </c>
       <c r="AB1213" s="20">
-        <v>11.77837360251894</v>
+        <v>10.239624135402295</v>
       </c>
       <c r="AC1213" s="20">
-        <v>15.13108196787932</v>
+        <v>11.753483078789225</v>
       </c>
       <c r="AD1213" s="20">
-        <v>65.127272727272725</v>
+        <v>46.579020979020981</v>
       </c>
     </row>
     <row r="1214" spans="1:67" s="20" customFormat="1">
@@ -45732,37 +45712,37 @@
         <v>89</v>
       </c>
       <c r="B1214" s="5">
-        <v>35444.422000000006</v>
+        <v>35079.179800000005</v>
       </c>
       <c r="C1214" s="20">
-        <v>14.000085422768798</v>
+        <v>13.000085422768796</v>
       </c>
       <c r="D1214" s="3">
-        <v>74.295593730593737</v>
+        <v>74.989874989874991</v>
       </c>
       <c r="E1214" s="20">
-        <v>1375.8429524999999</v>
+        <v>1388.7</v>
       </c>
       <c r="F1214" s="20">
-        <v>5236.0663049317527</v>
+        <v>4787.160905592199</v>
       </c>
       <c r="H1214" s="20">
-        <v>365.87887009067668</v>
+        <v>360.21668014865361</v>
       </c>
       <c r="J1214" s="20">
-        <v>642.16340264832706</v>
+        <v>601.92554301178814</v>
       </c>
       <c r="N1214" s="20">
-        <v>4228.0240321927486</v>
+        <v>3825.018682431757</v>
       </c>
       <c r="AB1214" s="20">
-        <v>12.270051836260292</v>
+        <v>11.77837360251894</v>
       </c>
       <c r="AC1214" s="20">
-        <v>16.268688939312305</v>
+        <v>15.13108196787932</v>
       </c>
       <c r="AD1214" s="20">
-        <v>70.700699300699299</v>
+        <v>65.127272727272725</v>
       </c>
     </row>
     <row r="1215" spans="1:67" s="20" customFormat="1">
@@ -45770,37 +45750,37 @@
         <v>89</v>
       </c>
       <c r="B1215" s="5">
-        <v>35809.664200000007</v>
+        <v>35444.422000000006</v>
       </c>
       <c r="C1215" s="20">
-        <v>15.000085422768798</v>
+        <v>14.000085422768798</v>
       </c>
       <c r="D1215" s="3">
-        <v>75.68415624915626</v>
+        <v>74.295593730593737</v>
       </c>
       <c r="E1215" s="20">
-        <v>1401.5570475</v>
+        <v>1375.8429524999999</v>
       </c>
       <c r="F1215" s="20">
-        <v>5667.4184159496835</v>
+        <v>5236.0663049317527</v>
       </c>
       <c r="H1215" s="20">
-        <v>374.56375918261449</v>
+        <v>365.87887009067668</v>
       </c>
       <c r="J1215" s="20">
-        <v>680.37325821797299</v>
+        <v>642.16340264832706</v>
       </c>
       <c r="N1215" s="20">
-        <v>4612.4813985490964</v>
+        <v>4228.0240321927486</v>
       </c>
       <c r="AB1215" s="20">
-        <v>12.588159457717961</v>
+        <v>12.270051836260292</v>
       </c>
       <c r="AC1215" s="20">
-        <v>17.443199490616795</v>
+        <v>16.268688939312305</v>
       </c>
       <c r="AD1215" s="20">
-        <v>75.386713286713288</v>
+        <v>70.700699300699299</v>
       </c>
     </row>
     <row r="1216" spans="1:67" s="20" customFormat="1">
@@ -45808,37 +45788,37 @@
         <v>89</v>
       </c>
       <c r="B1216" s="5">
-        <v>36174.906400000007</v>
+        <v>35809.664200000007</v>
       </c>
       <c r="C1216" s="20">
-        <v>16.000085422768802</v>
+        <v>15.000085422768798</v>
       </c>
       <c r="D1216" s="3">
-        <v>74.295593730593737</v>
+        <v>75.68415624915626</v>
       </c>
       <c r="E1216" s="20">
-        <v>1375.8429524999999</v>
+        <v>1401.5570475</v>
       </c>
       <c r="F1216" s="20">
-        <v>6274.7866034708122</v>
+        <v>5667.4184159496835</v>
       </c>
       <c r="H1216" s="20">
-        <v>384.47597132831481</v>
+        <v>374.56375918261449</v>
       </c>
       <c r="J1216" s="20">
-        <v>736.25173056374649</v>
+        <v>680.37325821797299</v>
       </c>
       <c r="N1216" s="20">
-        <v>5154.0589015787509</v>
+        <v>4612.4813985490964</v>
       </c>
       <c r="AB1216" s="20">
-        <v>13.212297623709555</v>
+        <v>12.588159457717961</v>
       </c>
       <c r="AC1216" s="20">
-        <v>18.863247230234098</v>
+        <v>17.443199490616795</v>
       </c>
       <c r="AD1216" s="20">
-        <v>84.896503496503485</v>
+        <v>75.386713286713288</v>
       </c>
     </row>
     <row r="1217" spans="1:30" s="20" customFormat="1">
@@ -45846,10 +45826,10 @@
         <v>89</v>
       </c>
       <c r="B1217" s="5">
-        <v>36905.390800000008</v>
+        <v>36174.906400000007</v>
       </c>
       <c r="C1217" s="20">
-        <v>18.000085422768805</v>
+        <v>16.000085422768802</v>
       </c>
       <c r="D1217" s="3">
         <v>74.295593730593737</v>
@@ -45858,25 +45838,25 @@
         <v>1375.8429524999999</v>
       </c>
       <c r="F1217" s="20">
-        <v>6917.0272944791586</v>
+        <v>6274.7866034708122</v>
       </c>
       <c r="H1217" s="20">
-        <v>387.23751710654648</v>
+        <v>384.47597132831481</v>
       </c>
       <c r="J1217" s="20">
-        <v>783.1964514902362</v>
+        <v>736.25173056374649</v>
       </c>
       <c r="N1217" s="20">
-        <v>5746.5933258823752</v>
+        <v>5154.0589015787509</v>
       </c>
       <c r="AB1217" s="20">
-        <v>13.760491066677757</v>
+        <v>13.212297623709555</v>
       </c>
       <c r="AC1217" s="20">
-        <v>20.461036304610374</v>
+        <v>18.863247230234098</v>
       </c>
       <c r="AD1217" s="20">
-        <v>101.10069930069929</v>
+        <v>84.896503496503485</v>
       </c>
     </row>
     <row r="1218" spans="1:30" s="20" customFormat="1">
@@ -45884,37 +45864,37 @@
         <v>89</v>
       </c>
       <c r="B1218" s="5">
-        <v>38366.359600000011</v>
+        <v>36905.390800000008</v>
       </c>
       <c r="C1218" s="20">
-        <v>22.000085422768809</v>
+        <v>18.000085422768805</v>
       </c>
       <c r="D1218" s="3">
-        <v>72.90682290682291</v>
+        <v>74.295593730593737</v>
       </c>
       <c r="E1218" s="20">
-        <v>1350.125</v>
+        <v>1375.8429524999999</v>
       </c>
       <c r="F1218" s="20">
-        <v>8961.0609147280957</v>
+        <v>6917.0272944791586</v>
       </c>
       <c r="H1218" s="20">
-        <v>416.05487400684569</v>
+        <v>387.23751710654648</v>
       </c>
       <c r="J1218" s="20">
-        <v>953.25288120738969</v>
+        <v>783.1964514902362</v>
       </c>
       <c r="N1218" s="20">
-        <v>7591.7531595138598</v>
+        <v>5746.5933258823752</v>
       </c>
       <c r="AB1218" s="20">
-        <v>15.377028897193838</v>
+        <v>13.760491066677757</v>
       </c>
       <c r="AC1218" s="20">
-        <v>25.073198391759014</v>
+        <v>20.461036304610374</v>
       </c>
       <c r="AD1218" s="20">
-        <v>143.07972027972028</v>
+        <v>101.10069930069929</v>
       </c>
     </row>
     <row r="1219" spans="1:30" s="20" customFormat="1">
@@ -45922,54 +45902,75 @@
         <v>89</v>
       </c>
       <c r="B1219" s="5">
-        <v>39462.086200000012</v>
+        <v>38366.359600000011</v>
       </c>
       <c r="C1219" s="20">
-        <v>25.000085422768816</v>
+        <v>22.000085422768809</v>
       </c>
       <c r="D1219" s="3">
-        <v>70.823770823770829</v>
+        <v>72.90682290682291</v>
       </c>
       <c r="E1219" s="20">
-        <v>1311.55</v>
+        <v>1350.125</v>
       </c>
       <c r="F1219" s="20">
-        <v>9523.9973945820893</v>
+        <v>8961.0609147280957</v>
       </c>
       <c r="H1219" s="20">
-        <v>405.1815451926239</v>
+        <v>416.05487400684569</v>
       </c>
       <c r="J1219" s="20">
-        <v>976.75664654677223</v>
+        <v>953.25288120738969</v>
       </c>
       <c r="N1219" s="20">
-        <v>8142.0592028426936</v>
+        <v>7591.7531595138598</v>
       </c>
       <c r="AB1219" s="20">
-        <v>15.956189784087831</v>
+        <v>15.377028897193838</v>
       </c>
       <c r="AC1219" s="20">
-        <v>26.22612549999117</v>
+        <v>25.073198391759014</v>
       </c>
       <c r="AD1219" s="20">
-        <v>179.52797202797203</v>
+        <v>143.07972027972028</v>
       </c>
     </row>
     <row r="1220" spans="1:30" s="20" customFormat="1">
       <c r="A1220" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1220" s="5">
-        <v>30331</v>
+        <v>39462.086200000012</v>
       </c>
       <c r="C1220" s="20">
-        <v>0</v>
+        <v>25.000085422768816</v>
       </c>
       <c r="D1220" s="3">
-        <v>100</v>
+        <v>70.823770823770829</v>
       </c>
       <c r="E1220" s="20">
-        <v>1851.85</v>
+        <v>1311.55</v>
+      </c>
+      <c r="F1220" s="20">
+        <v>9523.9973945820893</v>
+      </c>
+      <c r="H1220" s="20">
+        <v>405.1815451926239</v>
+      </c>
+      <c r="J1220" s="20">
+        <v>976.75664654677223</v>
+      </c>
+      <c r="N1220" s="20">
+        <v>8142.0592028426936</v>
+      </c>
+      <c r="AB1220" s="20">
+        <v>15.956189784087831</v>
+      </c>
+      <c r="AC1220" s="20">
+        <v>26.22612549999117</v>
+      </c>
+      <c r="AD1220" s="20">
+        <v>179.52797202797203</v>
       </c>
     </row>
     <row r="1221" spans="1:30" s="20" customFormat="1">
@@ -45977,37 +45978,16 @@
         <v>90</v>
       </c>
       <c r="B1221" s="5">
-        <v>31792</v>
+        <v>30331</v>
       </c>
       <c r="C1221" s="20">
-        <v>4.0000854227687812</v>
+        <v>0</v>
       </c>
       <c r="D1221" s="3">
-        <v>77.767208332208341</v>
+        <v>100</v>
       </c>
       <c r="E1221" s="20">
-        <v>1440.1320475</v>
-      </c>
-      <c r="F1221" s="20">
-        <v>1556.5697001784056</v>
-      </c>
-      <c r="H1221" s="20">
-        <v>339.40125348412369</v>
-      </c>
-      <c r="J1221" s="20">
-        <v>273.94707109716461</v>
-      </c>
-      <c r="N1221" s="20">
-        <v>943.22137559711734</v>
-      </c>
-      <c r="AB1221" s="20">
-        <v>6.8872169742077656</v>
-      </c>
-      <c r="AC1221" s="20">
-        <v>5.365136085181538</v>
-      </c>
-      <c r="AD1221" s="20">
-        <v>13.033146853146851</v>
+        <v>1851.85</v>
       </c>
     </row>
     <row r="1222" spans="1:30" s="20" customFormat="1">
@@ -46015,10 +45995,10 @@
         <v>90</v>
       </c>
       <c r="B1222" s="5">
-        <v>32157.242200000001</v>
+        <v>31792</v>
       </c>
       <c r="C1222" s="20">
-        <v>5.000085422768783</v>
+        <v>4.0000854227687812</v>
       </c>
       <c r="D1222" s="3">
         <v>77.767208332208341</v>
@@ -46027,22 +46007,25 @@
         <v>1440.1320475</v>
       </c>
       <c r="F1222" s="20">
-        <v>2776.0965589066714</v>
+        <v>1556.5697001784056</v>
       </c>
       <c r="H1222" s="20">
-        <v>414.8270132811611</v>
+        <v>339.40125348412369</v>
       </c>
       <c r="J1222" s="20">
-        <v>454.28783810333255</v>
+        <v>273.94707109716461</v>
       </c>
       <c r="N1222" s="20">
-        <v>1906.9817075221777</v>
+        <v>943.22137559711734</v>
       </c>
       <c r="AB1222" s="20">
-        <v>8.9589700862819797</v>
+        <v>6.8872169742077656</v>
       </c>
       <c r="AC1222" s="20">
-        <v>9.0784014786635172</v>
+        <v>5.365136085181538</v>
+      </c>
+      <c r="AD1222" s="20">
+        <v>13.033146853146851</v>
       </c>
     </row>
     <row r="1223" spans="1:30" s="20" customFormat="1">
@@ -46050,37 +46033,34 @@
         <v>90</v>
       </c>
       <c r="B1223" s="5">
-        <v>32522.484400000001</v>
+        <v>32157.242200000001</v>
       </c>
       <c r="C1223" s="20">
-        <v>6.0000854227687848</v>
+        <v>5.000085422768783</v>
       </c>
       <c r="D1223" s="3">
-        <v>77.072927072927072</v>
+        <v>77.767208332208341</v>
       </c>
       <c r="E1223" s="20">
-        <v>1427.2750000000001</v>
+        <v>1440.1320475</v>
       </c>
       <c r="F1223" s="20">
-        <v>4046.0499494508817</v>
+        <v>2776.0965589066714</v>
       </c>
       <c r="H1223" s="20">
-        <v>469.14274411571159</v>
+        <v>414.8270132811611</v>
       </c>
       <c r="J1223" s="20">
-        <v>622.03439245998231</v>
+        <v>454.28783810333255</v>
       </c>
       <c r="N1223" s="20">
-        <v>2954.8728128751877</v>
+        <v>1906.9817075221777</v>
       </c>
       <c r="AB1223" s="20">
-        <v>10.586787770834141</v>
+        <v>8.9589700862819797</v>
       </c>
       <c r="AC1223" s="20">
-        <v>12.563972287797831</v>
-      </c>
-      <c r="AD1223" s="20">
-        <v>43.774125874125872</v>
+        <v>9.0784014786635172</v>
       </c>
     </row>
     <row r="1224" spans="1:30" s="20" customFormat="1">
@@ -46088,10 +46068,10 @@
         <v>90</v>
       </c>
       <c r="B1224" s="5">
-        <v>32887.726600000002</v>
+        <v>32522.484400000001</v>
       </c>
       <c r="C1224" s="20">
-        <v>7.0000854227687865</v>
+        <v>6.0000854227687848</v>
       </c>
       <c r="D1224" s="3">
         <v>77.072927072927072</v>
@@ -46100,22 +46080,25 @@
         <v>1427.2750000000001</v>
       </c>
       <c r="F1224" s="20">
-        <v>5345.1703045793111</v>
+        <v>4046.0499494508817</v>
       </c>
       <c r="H1224" s="20">
-        <v>515.42400161734145</v>
+        <v>469.14274411571159</v>
       </c>
       <c r="J1224" s="20">
-        <v>781.28548495190546</v>
+        <v>622.03439245998231</v>
       </c>
       <c r="N1224" s="20">
-        <v>4048.4608180100645</v>
+        <v>2954.8728128751877</v>
       </c>
       <c r="AB1224" s="20">
-        <v>11.908336190958067</v>
+        <v>10.586787770834141</v>
       </c>
       <c r="AC1224" s="20">
-        <v>15.89647127668481</v>
+        <v>12.563972287797831</v>
+      </c>
+      <c r="AD1224" s="20">
+        <v>43.774125874125872</v>
       </c>
     </row>
     <row r="1225" spans="1:30" s="20" customFormat="1">
@@ -46123,10 +46106,10 @@
         <v>90</v>
       </c>
       <c r="B1225" s="5">
-        <v>33618.211000000003</v>
+        <v>32887.726600000002</v>
       </c>
       <c r="C1225" s="20">
-        <v>9.0000854227687892</v>
+        <v>7.0000854227687865</v>
       </c>
       <c r="D1225" s="3">
         <v>77.072927072927072</v>
@@ -46135,25 +46118,22 @@
         <v>1427.2750000000001</v>
       </c>
       <c r="F1225" s="20">
-        <v>7825.0368606041884</v>
+        <v>5345.1703045793111</v>
       </c>
       <c r="H1225" s="20">
-        <v>584.23055983500535</v>
+        <v>515.42400161734145</v>
       </c>
       <c r="J1225" s="20">
-        <v>1059.7248314103413</v>
+        <v>781.28548495190546</v>
       </c>
       <c r="N1225" s="20">
-        <v>6181.0814693588418</v>
+        <v>4048.4608180100645</v>
       </c>
       <c r="AB1225" s="20">
-        <v>13.947769117732118</v>
+        <v>11.908336190958067</v>
       </c>
       <c r="AC1225" s="20">
-        <v>21.807609167741369</v>
-      </c>
-      <c r="AD1225" s="20">
-        <v>101.14545454545454</v>
+        <v>15.89647127668481</v>
       </c>
     </row>
     <row r="1226" spans="1:30" s="20" customFormat="1">
@@ -46161,10 +46141,10 @@
         <v>90</v>
       </c>
       <c r="B1226" s="5">
-        <v>33983.453200000004</v>
+        <v>33618.211000000003</v>
       </c>
       <c r="C1226" s="20">
-        <v>10.000085422768791</v>
+        <v>9.0000854227687892</v>
       </c>
       <c r="D1226" s="3">
         <v>77.072927072927072</v>
@@ -46173,25 +46153,25 @@
         <v>1427.2750000000001</v>
       </c>
       <c r="F1226" s="20">
-        <v>9399.480166154608</v>
+        <v>7825.0368606041884</v>
       </c>
       <c r="H1226" s="20">
-        <v>629.3249960382451</v>
+        <v>584.23055983500535</v>
       </c>
       <c r="J1226" s="20">
-        <v>1234.5820228481323</v>
+        <v>1059.7248314103413</v>
       </c>
       <c r="N1226" s="20">
-        <v>7535.573147268231</v>
+        <v>6181.0814693588418</v>
       </c>
       <c r="AB1226" s="20">
-        <v>15.019366086012218</v>
+        <v>13.947769117732118</v>
       </c>
       <c r="AC1226" s="20">
-        <v>25.287259293392896</v>
+        <v>21.807609167741369</v>
       </c>
       <c r="AD1226" s="20">
-        <v>123.17132867132865</v>
+        <v>101.14545454545454</v>
       </c>
     </row>
     <row r="1227" spans="1:30" s="20" customFormat="1">
@@ -46199,10 +46179,10 @@
         <v>90</v>
       </c>
       <c r="B1227" s="5">
-        <v>34348.695400000004</v>
+        <v>33983.453200000004</v>
       </c>
       <c r="C1227" s="20">
-        <v>11.000085422768793</v>
+        <v>10.000085422768791</v>
       </c>
       <c r="D1227" s="3">
         <v>77.072927072927072</v>
@@ -46211,25 +46191,25 @@
         <v>1427.2750000000001</v>
       </c>
       <c r="F1227" s="20">
-        <v>10527.27492188774</v>
+        <v>9399.480166154608</v>
       </c>
       <c r="H1227" s="20">
-        <v>651.60258737072968</v>
+        <v>629.3249960382451</v>
       </c>
       <c r="J1227" s="20">
-        <v>1347.5839281443991</v>
+        <v>1234.5820228481323</v>
       </c>
       <c r="N1227" s="20">
-        <v>8528.0884063726116</v>
+        <v>7535.573147268231</v>
       </c>
       <c r="AB1227" s="20">
-        <v>15.729895374031754</v>
+        <v>15.019366086012218</v>
       </c>
       <c r="AC1227" s="20">
-        <v>27.736408417350344</v>
+        <v>25.287259293392896</v>
       </c>
       <c r="AD1227" s="20">
-        <v>139.41538461538462</v>
+        <v>123.17132867132865</v>
       </c>
     </row>
     <row r="1228" spans="1:30" s="20" customFormat="1">
@@ -46237,37 +46217,37 @@
         <v>90</v>
       </c>
       <c r="B1228" s="5">
-        <v>35079.179800000005</v>
+        <v>34348.695400000004</v>
       </c>
       <c r="C1228" s="20">
-        <v>13.000085422768796</v>
+        <v>11.000085422768793</v>
       </c>
       <c r="D1228" s="3">
-        <v>76.378645813645818</v>
+        <v>77.072927072927072</v>
       </c>
       <c r="E1228" s="20">
-        <v>1414.4179525</v>
+        <v>1427.2750000000001</v>
       </c>
       <c r="F1228" s="20">
-        <v>12952.142434792931</v>
+        <v>10527.27492188774</v>
       </c>
       <c r="H1228" s="20">
-        <v>698.84344755954521</v>
+        <v>651.60258737072968</v>
       </c>
       <c r="J1228" s="20">
-        <v>1588.2865502737766</v>
+        <v>1347.5839281443991</v>
       </c>
       <c r="N1228" s="20">
-        <v>10665.012436959609</v>
+        <v>8528.0884063726116</v>
       </c>
       <c r="AB1228" s="20">
-        <v>17.158200693260646</v>
+        <v>15.729895374031754</v>
       </c>
       <c r="AC1228" s="20">
-        <v>32.704848639995078</v>
+        <v>27.736408417350344</v>
       </c>
       <c r="AD1228" s="20">
-        <v>174.11748251748253</v>
+        <v>139.41538461538462</v>
       </c>
     </row>
     <row r="1229" spans="1:30" s="20" customFormat="1">
@@ -46275,10 +46255,10 @@
         <v>90</v>
       </c>
       <c r="B1229" s="5">
-        <v>35444.422000000006</v>
+        <v>35079.179800000005</v>
       </c>
       <c r="C1229" s="20">
-        <v>14.000085422768798</v>
+        <v>13.000085422768796</v>
       </c>
       <c r="D1229" s="3">
         <v>76.378645813645818</v>
@@ -46287,25 +46267,25 @@
         <v>1414.4179525</v>
       </c>
       <c r="F1229" s="20">
-        <v>13502.875258027239</v>
+        <v>12952.142434792931</v>
       </c>
       <c r="H1229" s="20">
-        <v>696.70836675960936</v>
+        <v>698.84344755954521</v>
       </c>
       <c r="J1229" s="20">
-        <v>1624.6005126230486</v>
+        <v>1588.2865502737766</v>
       </c>
       <c r="N1229" s="20">
-        <v>11181.566378644582</v>
+        <v>10665.012436959609</v>
       </c>
       <c r="AB1229" s="20">
-        <v>17.464069960694079</v>
+        <v>17.158200693260646</v>
       </c>
       <c r="AC1229" s="20">
-        <v>33.88126226813332</v>
+        <v>32.704848639995078</v>
       </c>
       <c r="AD1229" s="20">
-        <v>195.93706293706293</v>
+        <v>174.11748251748253</v>
       </c>
     </row>
     <row r="1230" spans="1:30" s="20" customFormat="1">
@@ -46313,37 +46293,37 @@
         <v>90</v>
       </c>
       <c r="B1230" s="5">
-        <v>35809.664200000007</v>
+        <v>35444.422000000006</v>
       </c>
       <c r="C1230" s="20">
-        <v>15.000085422768798</v>
+        <v>14.000085422768798</v>
       </c>
       <c r="D1230" s="3">
-        <v>75.68415624915626</v>
+        <v>76.378645813645818</v>
       </c>
       <c r="E1230" s="20">
-        <v>1401.5570475</v>
+        <v>1414.4179525</v>
       </c>
       <c r="F1230" s="20">
-        <v>14035.566722551504</v>
+        <v>13502.875258027239</v>
       </c>
       <c r="H1230" s="20">
-        <v>693.29262645195547</v>
+        <v>696.70836675960936</v>
       </c>
       <c r="J1230" s="20">
-        <v>1659.4273005368759</v>
+        <v>1624.6005126230486</v>
       </c>
       <c r="N1230" s="20">
-        <v>11682.846795562673</v>
+        <v>11181.566378644582</v>
       </c>
       <c r="AB1230" s="20">
-        <v>17.813225329003668</v>
+        <v>17.464069960694079</v>
       </c>
       <c r="AC1230" s="20">
-        <v>34.92905206836474</v>
+        <v>33.88126226813332</v>
       </c>
       <c r="AD1230" s="20">
-        <v>194.05734265734264</v>
+        <v>195.93706293706293</v>
       </c>
     </row>
     <row r="1231" spans="1:30" s="20" customFormat="1">
@@ -46351,10 +46331,10 @@
         <v>90</v>
       </c>
       <c r="B1231" s="5">
-        <v>36174.906400000007</v>
+        <v>35809.664200000007</v>
       </c>
       <c r="C1231" s="20">
-        <v>16.000085422768802</v>
+        <v>15.000085422768798</v>
       </c>
       <c r="D1231" s="3">
         <v>75.68415624915626</v>
@@ -46363,25 +46343,25 @@
         <v>1401.5570475</v>
       </c>
       <c r="F1231" s="20">
-        <v>14961.288582595032</v>
+        <v>14035.566722551504</v>
       </c>
       <c r="H1231" s="20">
-        <v>706.55032231530993</v>
+        <v>693.29262645195547</v>
       </c>
       <c r="J1231" s="20">
-        <v>1741.3259744680661</v>
+        <v>1659.4273005368759</v>
       </c>
       <c r="N1231" s="20">
-        <v>12513.412285811657</v>
+        <v>11682.846795562673</v>
       </c>
       <c r="AB1231" s="20">
-        <v>18.276171521790044</v>
+        <v>17.813225329003668</v>
       </c>
       <c r="AC1231" s="20">
-        <v>36.768179478992067</v>
+        <v>34.92905206836474</v>
       </c>
       <c r="AD1231" s="20">
-        <v>218.51538461538459</v>
+        <v>194.05734265734264</v>
       </c>
     </row>
     <row r="1232" spans="1:30" s="20" customFormat="1">
@@ -46389,37 +46369,37 @@
         <v>90</v>
       </c>
       <c r="B1232" s="5">
-        <v>36905.390800000008</v>
+        <v>36174.906400000007</v>
       </c>
       <c r="C1232" s="20">
-        <v>18.000085422768805</v>
+        <v>16.000085422768802</v>
       </c>
       <c r="D1232" s="3">
-        <v>73.601104166104179</v>
+        <v>75.68415624915626</v>
       </c>
       <c r="E1232" s="20">
-        <v>1362.9820475000001</v>
+        <v>1401.5570475</v>
       </c>
       <c r="F1232" s="20">
-        <v>15255.322894389094</v>
+        <v>14961.288582595032</v>
       </c>
       <c r="H1232" s="20">
-        <v>675.08983338659993</v>
+        <v>706.55032231530993</v>
       </c>
       <c r="J1232" s="20">
-        <v>1722.3915604987506</v>
+        <v>1741.3259744680661</v>
       </c>
       <c r="N1232" s="20">
-        <v>12857.841500503742</v>
+        <v>12513.412285811657</v>
       </c>
       <c r="AB1232" s="20">
-        <v>18.655999471369</v>
+        <v>18.276171521790044</v>
       </c>
       <c r="AC1232" s="20">
-        <v>37.257874376642953</v>
+        <v>36.768179478992067</v>
       </c>
       <c r="AD1232" s="20">
-        <v>235.18041958041957</v>
+        <v>218.51538461538459</v>
       </c>
     </row>
     <row r="1233" spans="1:30" s="20" customFormat="1">
@@ -46427,37 +46407,37 @@
         <v>90</v>
       </c>
       <c r="B1233" s="5">
-        <v>38366.359600000011</v>
+        <v>36905.390800000008</v>
       </c>
       <c r="C1233" s="20">
-        <v>22.000085422768809</v>
+        <v>18.000085422768805</v>
       </c>
       <c r="D1233" s="3">
-        <v>66.657666657666667</v>
+        <v>73.601104166104179</v>
       </c>
       <c r="E1233" s="20">
-        <v>1234.4000000000001</v>
+        <v>1362.9820475000001</v>
       </c>
       <c r="F1233" s="20">
-        <v>16297.177814212386</v>
+        <v>15255.322894389094</v>
       </c>
       <c r="H1233" s="20">
-        <v>635.3909718323514</v>
+        <v>675.08983338659993</v>
       </c>
       <c r="J1233" s="20">
-        <v>1754.229338094809</v>
+        <v>1722.3915604987506</v>
       </c>
       <c r="N1233" s="20">
-        <v>13907.557504285225</v>
+        <v>12857.841500503742</v>
       </c>
       <c r="AB1233" s="20">
-        <v>19.935519179371862</v>
+        <v>18.655999471369</v>
       </c>
       <c r="AC1233" s="20">
-        <v>38.530257450826291</v>
+        <v>37.257874376642953</v>
       </c>
       <c r="AD1233" s="20">
-        <v>256.84895104895105</v>
+        <v>235.18041958041957</v>
       </c>
     </row>
     <row r="1234" spans="1:30" s="20" customFormat="1">
@@ -46465,54 +46445,75 @@
         <v>90</v>
       </c>
       <c r="B1234" s="5">
-        <v>39462.086200000012</v>
+        <v>38366.359600000011</v>
       </c>
       <c r="C1234" s="20">
-        <v>25.000085422768816</v>
+        <v>22.000085422768809</v>
       </c>
       <c r="D1234" s="3">
-        <v>60.408510408510409</v>
+        <v>66.657666657666667</v>
       </c>
       <c r="E1234" s="20">
-        <v>1118.675</v>
+        <v>1234.4000000000001</v>
       </c>
       <c r="F1234" s="20">
-        <v>15455.584652728659</v>
+        <v>16297.177814212386</v>
       </c>
       <c r="H1234" s="20">
-        <v>563.23579983876857</v>
+        <v>635.3909718323514</v>
       </c>
       <c r="J1234" s="20">
-        <v>1609.9064860878987</v>
+        <v>1754.229338094809</v>
       </c>
       <c r="N1234" s="20">
-        <v>13282.442366801992</v>
+        <v>13907.557504285225</v>
       </c>
       <c r="AB1234" s="20">
-        <v>20.329993884919617</v>
+        <v>19.935519179371862</v>
       </c>
       <c r="AC1234" s="20">
-        <v>36.313601683770372</v>
+        <v>38.530257450826291</v>
       </c>
       <c r="AD1234" s="20">
-        <v>278.52377622377622</v>
+        <v>256.84895104895105</v>
       </c>
     </row>
     <row r="1235" spans="1:30" s="20" customFormat="1">
       <c r="A1235" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1235" s="5">
-        <v>30331</v>
+        <v>39462.086200000012</v>
       </c>
       <c r="C1235" s="20">
-        <v>0</v>
+        <v>25.000085422768816</v>
       </c>
       <c r="D1235" s="3">
-        <v>100</v>
+        <v>60.408510408510409</v>
       </c>
       <c r="E1235" s="20">
-        <v>1851.85</v>
+        <v>1118.675</v>
+      </c>
+      <c r="F1235" s="20">
+        <v>15455.584652728659</v>
+      </c>
+      <c r="H1235" s="20">
+        <v>563.23579983876857</v>
+      </c>
+      <c r="J1235" s="20">
+        <v>1609.9064860878987</v>
+      </c>
+      <c r="N1235" s="20">
+        <v>13282.442366801992</v>
+      </c>
+      <c r="AB1235" s="20">
+        <v>20.329993884919617</v>
+      </c>
+      <c r="AC1235" s="20">
+        <v>36.313601683770372</v>
+      </c>
+      <c r="AD1235" s="20">
+        <v>278.52377622377622</v>
       </c>
     </row>
     <row r="1236" spans="1:30" s="20" customFormat="1">
@@ -46520,37 +46521,16 @@
         <v>91</v>
       </c>
       <c r="B1236" s="5">
-        <v>31792</v>
+        <v>30331</v>
       </c>
       <c r="C1236" s="20">
-        <v>4.0000854227687812</v>
+        <v>0</v>
       </c>
       <c r="D1236" s="3">
-        <v>79.155979155979153</v>
+        <v>100</v>
       </c>
       <c r="E1236" s="20">
-        <v>1465.85</v>
-      </c>
-      <c r="F1236" s="20">
-        <v>1593.4691991160598</v>
-      </c>
-      <c r="H1236" s="20">
-        <v>346.44601533582977</v>
-      </c>
-      <c r="J1236" s="20">
-        <v>280.37840690417681</v>
-      </c>
-      <c r="N1236" s="20">
-        <v>966.64477687605324</v>
-      </c>
-      <c r="AB1236" s="20">
-        <v>6.9048112589042265</v>
-      </c>
-      <c r="AC1236" s="20">
-        <v>5.4888839891211028</v>
-      </c>
-      <c r="AD1236" s="20">
-        <v>13.274615384615384</v>
+        <v>1851.85</v>
       </c>
     </row>
     <row r="1237" spans="1:30" s="20" customFormat="1">
@@ -46558,34 +46538,37 @@
         <v>91</v>
       </c>
       <c r="B1237" s="5">
-        <v>32157.242200000001</v>
+        <v>31792</v>
       </c>
       <c r="C1237" s="20">
-        <v>5.000085422768783</v>
+        <v>4.0000854227687812</v>
       </c>
       <c r="D1237" s="3">
-        <v>77.767208332208341</v>
+        <v>79.155979155979153</v>
       </c>
       <c r="E1237" s="20">
-        <v>1440.1320475</v>
+        <v>1465.85</v>
       </c>
       <c r="F1237" s="20">
-        <v>2703.7303781388568</v>
+        <v>1593.4691991160598</v>
       </c>
       <c r="H1237" s="20">
-        <v>409.03186110858917</v>
+        <v>346.44601533582977</v>
       </c>
       <c r="J1237" s="20">
-        <v>443.12364581769651</v>
+        <v>280.37840690417681</v>
       </c>
       <c r="N1237" s="20">
-        <v>1851.5748712125715</v>
+        <v>966.64477687605324</v>
       </c>
       <c r="AB1237" s="20">
-        <v>8.8608290736543633</v>
+        <v>6.9048112589042265</v>
       </c>
       <c r="AC1237" s="20">
-        <v>8.8805922490385303</v>
+        <v>5.4888839891211028</v>
+      </c>
+      <c r="AD1237" s="20">
+        <v>13.274615384615384</v>
       </c>
     </row>
     <row r="1238" spans="1:30" s="20" customFormat="1">
@@ -46593,37 +46576,34 @@
         <v>91</v>
       </c>
       <c r="B1238" s="5">
-        <v>32522.484400000001</v>
+        <v>32157.242200000001</v>
       </c>
       <c r="C1238" s="20">
-        <v>6.0000854227687848</v>
+        <v>5.000085422768783</v>
       </c>
       <c r="D1238" s="3">
-        <v>77.072927072927072</v>
+        <v>77.767208332208341</v>
       </c>
       <c r="E1238" s="20">
-        <v>1427.2750000000001</v>
+        <v>1440.1320475</v>
       </c>
       <c r="F1238" s="20">
-        <v>4335.9119967673441</v>
+        <v>2703.7303781388568</v>
       </c>
       <c r="H1238" s="20">
-        <v>488.13756513152504</v>
+        <v>409.03186110858917</v>
       </c>
       <c r="J1238" s="20">
-        <v>664.13422554017347</v>
+        <v>443.12364581769651</v>
       </c>
       <c r="N1238" s="20">
-        <v>3183.6402060956452</v>
+        <v>1851.5748712125715</v>
       </c>
       <c r="AB1238" s="20">
-        <v>10.885854377421458</v>
+        <v>8.8608290736543633</v>
       </c>
       <c r="AC1238" s="20">
-        <v>13.28383879043715</v>
-      </c>
-      <c r="AD1238" s="20">
-        <v>48.78671328671328</v>
+        <v>8.8805922490385303</v>
       </c>
     </row>
     <row r="1239" spans="1:30" s="20" customFormat="1">
@@ -46631,10 +46611,10 @@
         <v>91</v>
       </c>
       <c r="B1239" s="5">
-        <v>32887.726600000002</v>
+        <v>32522.484400000001</v>
       </c>
       <c r="C1239" s="20">
-        <v>7.0000854227687865</v>
+        <v>6.0000854227687848</v>
       </c>
       <c r="D1239" s="3">
         <v>77.072927072927072</v>
@@ -46643,22 +46623,25 @@
         <v>1427.2750000000001</v>
       </c>
       <c r="F1239" s="20">
-        <v>6192.2994411396912</v>
+        <v>4335.9119967673441</v>
       </c>
       <c r="H1239" s="20">
-        <v>563.87593317685764</v>
+        <v>488.13756513152504</v>
       </c>
       <c r="J1239" s="20">
-        <v>899.49937215018963</v>
+        <v>664.13422554017347</v>
       </c>
       <c r="N1239" s="20">
-        <v>4728.9241358126437</v>
+        <v>3183.6402060956452</v>
       </c>
       <c r="AB1239" s="20">
-        <v>12.619935219502711</v>
+        <v>10.885854377421458</v>
       </c>
       <c r="AC1239" s="20">
-        <v>17.853065853145935</v>
+        <v>13.28383879043715</v>
+      </c>
+      <c r="AD1239" s="20">
+        <v>48.78671328671328</v>
       </c>
     </row>
     <row r="1240" spans="1:30" s="20" customFormat="1">
@@ -46666,10 +46649,10 @@
         <v>91</v>
       </c>
       <c r="B1240" s="5">
-        <v>33618.211000000003</v>
+        <v>32887.726600000002</v>
       </c>
       <c r="C1240" s="20">
-        <v>9.0000854227687892</v>
+        <v>7.0000854227687865</v>
       </c>
       <c r="D1240" s="3">
         <v>77.072927072927072</v>
@@ -46678,25 +46661,22 @@
         <v>1427.2750000000001</v>
       </c>
       <c r="F1240" s="20">
-        <v>9357.2793069105282</v>
+        <v>6192.2994411396912</v>
       </c>
       <c r="H1240" s="20">
-        <v>658.12128429366601</v>
+        <v>563.87593317685764</v>
       </c>
       <c r="J1240" s="20">
-        <v>1262.7282910900358</v>
+        <v>899.49937215018963</v>
       </c>
       <c r="N1240" s="20">
-        <v>7436.4297315268268</v>
+        <v>4728.9241358126437</v>
       </c>
       <c r="AB1240" s="20">
-        <v>14.945239090967405</v>
+        <v>12.619935219502711</v>
       </c>
       <c r="AC1240" s="20">
-        <v>25.038268373048446</v>
-      </c>
-      <c r="AD1240" s="20">
-        <v>121.56153846153845</v>
+        <v>17.853065853145935</v>
       </c>
     </row>
     <row r="1241" spans="1:30" s="20" customFormat="1">
@@ -46704,10 +46684,10 @@
         <v>91</v>
       </c>
       <c r="B1241" s="5">
-        <v>33983.453200000004</v>
+        <v>33618.211000000003</v>
       </c>
       <c r="C1241" s="20">
-        <v>10.000085422768791</v>
+        <v>9.0000854227687892</v>
       </c>
       <c r="D1241" s="3">
         <v>77.072927072927072</v>
@@ -46716,25 +46696,25 @@
         <v>1427.2750000000001</v>
       </c>
       <c r="F1241" s="20">
-        <v>11231.623904755488</v>
+        <v>9357.2793069105282</v>
       </c>
       <c r="H1241" s="20">
-        <v>712.22171344322453</v>
+        <v>658.12128429366601</v>
       </c>
       <c r="J1241" s="20">
-        <v>1473.5528794259417</v>
+        <v>1262.7282910900358</v>
       </c>
       <c r="N1241" s="20">
-        <v>9045.8493118863225</v>
+        <v>7436.4297315268268</v>
       </c>
       <c r="AB1241" s="20">
-        <v>16.080090586719926</v>
+        <v>14.945239090967405</v>
       </c>
       <c r="AC1241" s="20">
-        <v>28.98514903436088</v>
+        <v>25.038268373048446</v>
       </c>
       <c r="AD1241" s="20">
-        <v>147.86223776223775</v>
+        <v>121.56153846153845</v>
       </c>
     </row>
     <row r="1242" spans="1:30" s="20" customFormat="1">
@@ -46742,37 +46722,37 @@
         <v>91</v>
       </c>
       <c r="B1242" s="5">
-        <v>34348.695400000004</v>
+        <v>33983.453200000004</v>
       </c>
       <c r="C1242" s="20">
-        <v>11.000085422768793</v>
+        <v>10.000085422768791</v>
       </c>
       <c r="D1242" s="3">
-        <v>74.295593730593737</v>
+        <v>77.072927072927072</v>
       </c>
       <c r="E1242" s="20">
-        <v>1375.8429524999999</v>
+        <v>1427.2750000000001</v>
       </c>
       <c r="F1242" s="20">
-        <v>12401.459828333693</v>
+        <v>11231.623904755488</v>
       </c>
       <c r="H1242" s="20">
-        <v>725.10902366985124</v>
+        <v>712.22171344322453</v>
       </c>
       <c r="J1242" s="20">
-        <v>1588.7256962994911</v>
+        <v>1473.5528794259417</v>
       </c>
       <c r="N1242" s="20">
-        <v>10087.625108364351</v>
+        <v>9045.8493118863225</v>
       </c>
       <c r="AB1242" s="20">
-        <v>16.979611304103834</v>
+        <v>16.080090586719926</v>
       </c>
       <c r="AC1242" s="20">
-        <v>31.15410281941406</v>
+        <v>28.98514903436088</v>
       </c>
       <c r="AD1242" s="20">
-        <v>164.89720279720279</v>
+        <v>147.86223776223775</v>
       </c>
     </row>
     <row r="1243" spans="1:30" s="20" customFormat="1">
@@ -46780,37 +46760,37 @@
         <v>91</v>
       </c>
       <c r="B1243" s="5">
-        <v>35079.179800000005</v>
+        <v>34348.695400000004</v>
       </c>
       <c r="C1243" s="20">
-        <v>13.000085422768796</v>
+        <v>11.000085422768793</v>
       </c>
       <c r="D1243" s="3">
-        <v>72.212541647541642</v>
+        <v>74.295593730593737</v>
       </c>
       <c r="E1243" s="20">
-        <v>1337.2679524999999</v>
+        <v>1375.8429524999999</v>
       </c>
       <c r="F1243" s="20">
-        <v>14885.546171166081</v>
+        <v>12401.459828333693</v>
       </c>
       <c r="H1243" s="20">
-        <v>765.62270673300247</v>
+        <v>725.10902366985124</v>
       </c>
       <c r="J1243" s="20">
-        <v>1833.7748299326238</v>
+        <v>1588.7256962994911</v>
       </c>
       <c r="N1243" s="20">
-        <v>12286.148634500456</v>
+        <v>10087.625108364351</v>
       </c>
       <c r="AB1243" s="20">
-        <v>18.472668988866875</v>
+        <v>16.979611304103834</v>
       </c>
       <c r="AC1243" s="20">
-        <v>35.840051927926496</v>
+        <v>31.15410281941406</v>
       </c>
       <c r="AD1243" s="20">
-        <v>200.20769230769227</v>
+        <v>164.89720279720279</v>
       </c>
     </row>
     <row r="1244" spans="1:30" s="20" customFormat="1">
@@ -46818,10 +46798,10 @@
         <v>91</v>
       </c>
       <c r="B1244" s="5">
-        <v>35444.422000000006</v>
+        <v>35079.179800000005</v>
       </c>
       <c r="C1244" s="20">
-        <v>14.000085422768798</v>
+        <v>13.000085422768796</v>
       </c>
       <c r="D1244" s="3">
         <v>72.212541647541642</v>
@@ -46830,25 +46810,25 @@
         <v>1337.2679524999999</v>
       </c>
       <c r="F1244" s="20">
-        <v>15556.589042432184</v>
+        <v>14885.546171166081</v>
       </c>
       <c r="H1244" s="20">
-        <v>765.99010939848665</v>
+        <v>765.62270673300247</v>
       </c>
       <c r="J1244" s="20">
-        <v>1882.0233798380928</v>
+        <v>1833.7748299326238</v>
       </c>
       <c r="N1244" s="20">
-        <v>12908.575553195606</v>
+        <v>12286.148634500456</v>
       </c>
       <c r="AB1244" s="20">
-        <v>18.81687645529442</v>
+        <v>18.472668988866875</v>
       </c>
       <c r="AC1244" s="20">
-        <v>37.188135169496988</v>
+        <v>35.840051927926496</v>
       </c>
       <c r="AD1244" s="20">
-        <v>240.66993006993005</v>
+        <v>200.20769230769227</v>
       </c>
     </row>
     <row r="1245" spans="1:30" s="20" customFormat="1">
@@ -46856,37 +46836,37 @@
         <v>91</v>
       </c>
       <c r="B1245" s="5">
-        <v>35809.664200000007</v>
+        <v>35444.422000000006</v>
       </c>
       <c r="C1245" s="20">
-        <v>15.000085422768798</v>
+        <v>14.000085422768798</v>
       </c>
       <c r="D1245" s="3">
-        <v>70.823770823770829</v>
+        <v>72.212541647541642</v>
       </c>
       <c r="E1245" s="20">
-        <v>1311.55</v>
+        <v>1337.2679524999999</v>
       </c>
       <c r="F1245" s="20">
-        <v>16033.547697384927</v>
+        <v>15556.589042432184</v>
       </c>
       <c r="H1245" s="20">
-        <v>756.94239716303866</v>
+        <v>765.99010939848665</v>
       </c>
       <c r="J1245" s="20">
-        <v>1908.1333312682134</v>
+        <v>1882.0233798380928</v>
       </c>
       <c r="N1245" s="20">
-        <v>13368.471968953676</v>
+        <v>12908.575553195606</v>
       </c>
       <c r="AB1245" s="20">
-        <v>19.203383298086688</v>
+        <v>18.81687645529442</v>
       </c>
       <c r="AC1245" s="20">
-        <v>37.98667225045444</v>
+        <v>37.188135169496988</v>
       </c>
       <c r="AD1245" s="20">
-        <v>241.17972027972027</v>
+        <v>240.66993006993005</v>
       </c>
     </row>
     <row r="1246" spans="1:30" s="20" customFormat="1">
@@ -46894,10 +46874,10 @@
         <v>91</v>
       </c>
       <c r="B1246" s="5">
-        <v>36174.906400000007</v>
+        <v>35809.664200000007</v>
       </c>
       <c r="C1246" s="20">
-        <v>16.000085422768802</v>
+        <v>15.000085422768798</v>
       </c>
       <c r="D1246" s="3">
         <v>70.823770823770829</v>
@@ -46906,25 +46886,25 @@
         <v>1311.55</v>
       </c>
       <c r="F1246" s="20">
-        <v>16963.801308385333</v>
+        <v>16033.547697384927</v>
       </c>
       <c r="H1246" s="20">
-        <v>768.76320435666969</v>
+        <v>756.94239716303866</v>
       </c>
       <c r="J1246" s="20">
-        <v>1989.3622968418845</v>
+        <v>1908.1333312682134</v>
       </c>
       <c r="N1246" s="20">
-        <v>14205.675807186777</v>
+        <v>13368.471968953676</v>
       </c>
       <c r="AB1246" s="20">
-        <v>19.64412643987032</v>
+        <v>19.203383298086688</v>
       </c>
       <c r="AC1246" s="20">
-        <v>39.75037136181372</v>
+        <v>37.98667225045444</v>
       </c>
       <c r="AD1246" s="20">
-        <v>258.27762237762238</v>
+        <v>241.17972027972027</v>
       </c>
     </row>
     <row r="1247" spans="1:30" s="20" customFormat="1">
@@ -46932,37 +46912,37 @@
         <v>91</v>
       </c>
       <c r="B1247" s="5">
-        <v>36905.390800000008</v>
+        <v>36174.906400000007</v>
       </c>
       <c r="C1247" s="20">
-        <v>18.000085422768805</v>
+        <v>16.000085422768802</v>
       </c>
       <c r="D1247" s="3">
-        <v>67.351947916947921</v>
+        <v>70.823770823770829</v>
       </c>
       <c r="E1247" s="20">
-        <v>1247.2570475</v>
+        <v>1311.55</v>
       </c>
       <c r="F1247" s="20">
-        <v>16994.883004095056</v>
+        <v>16963.801308385333</v>
       </c>
       <c r="H1247" s="20">
-        <v>722.51134812033183</v>
+        <v>768.76320435666969</v>
       </c>
       <c r="J1247" s="20">
-        <v>1935.8778788500235</v>
+        <v>1989.3622968418845</v>
       </c>
       <c r="N1247" s="20">
-        <v>14336.493777124701</v>
+        <v>14205.675807186777</v>
       </c>
       <c r="AB1247" s="20">
-        <v>20.085131571305016</v>
+        <v>19.64412643987032</v>
       </c>
       <c r="AC1247" s="20">
-        <v>39.518115434578803</v>
+        <v>39.75037136181372</v>
       </c>
       <c r="AD1247" s="20">
-        <v>278.39160839160837</v>
+        <v>258.27762237762238</v>
       </c>
     </row>
     <row r="1248" spans="1:30" s="20" customFormat="1">
@@ -46970,37 +46950,37 @@
         <v>91</v>
       </c>
       <c r="B1248" s="5">
-        <v>38366.359600000011</v>
+        <v>36905.390800000008</v>
       </c>
       <c r="C1248" s="20">
-        <v>22.000085422768809</v>
+        <v>18.000085422768805</v>
       </c>
       <c r="D1248" s="3">
-        <v>50.687531252531258</v>
+        <v>67.351947916947921</v>
       </c>
       <c r="E1248" s="20">
-        <v>938.65704750000009</v>
+        <v>1247.2570475</v>
       </c>
       <c r="F1248" s="20">
-        <v>17532.945377722994</v>
+        <v>16994.883004095056</v>
       </c>
       <c r="H1248" s="20">
-        <v>648.52995417253067</v>
+        <v>722.51134812033183</v>
       </c>
       <c r="J1248" s="20">
-        <v>1936.1217974750671</v>
+        <v>1935.8778788500235</v>
       </c>
       <c r="N1248" s="20">
-        <v>14948.293626075396</v>
+        <v>14336.493777124701</v>
       </c>
       <c r="AB1248" s="20">
-        <v>22.686740871324051</v>
+        <v>20.085131571305016</v>
       </c>
       <c r="AC1248" s="20">
-        <v>37.943908402237724</v>
+        <v>39.518115434578803</v>
       </c>
       <c r="AD1248" s="20">
-        <v>297.75314685314686</v>
+        <v>278.39160839160837</v>
       </c>
     </row>
     <row r="1249" spans="1:30" s="20" customFormat="1">
@@ -47008,54 +46988,75 @@
         <v>91</v>
       </c>
       <c r="B1249" s="5">
-        <v>39462.086200000012</v>
+        <v>38366.359600000011</v>
       </c>
       <c r="C1249" s="20">
-        <v>25.000085422768816</v>
+        <v>22.000085422768809</v>
       </c>
       <c r="D1249" s="3">
-        <v>44.438375003375</v>
+        <v>50.687531252531258</v>
       </c>
       <c r="E1249" s="20">
-        <v>822.93204749999995</v>
+        <v>938.65704750000009</v>
       </c>
       <c r="F1249" s="20">
-        <v>16161.113459942659</v>
+        <v>17532.945377722994</v>
       </c>
       <c r="H1249" s="20">
-        <v>560.71289474302898</v>
+        <v>648.52995417253067</v>
       </c>
       <c r="J1249" s="20">
-        <v>1731.6428747642422</v>
+        <v>1936.1217974750671</v>
       </c>
       <c r="N1249" s="20">
-        <v>13868.757690435388</v>
+        <v>14948.293626075396</v>
       </c>
       <c r="AB1249" s="20">
-        <v>23.171701498256411</v>
+        <v>22.686740871324051</v>
       </c>
       <c r="AC1249" s="20">
-        <v>34.703295857431939</v>
+        <v>37.943908402237724</v>
       </c>
       <c r="AD1249" s="20">
-        <v>319.10209790209785</v>
+        <v>297.75314685314686</v>
       </c>
     </row>
     <row r="1250" spans="1:30" s="20" customFormat="1">
       <c r="A1250" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1250" s="5">
-        <v>30331</v>
+        <v>39462.086200000012</v>
       </c>
       <c r="C1250" s="20">
-        <v>0</v>
+        <v>25.000085422768816</v>
       </c>
       <c r="D1250" s="3">
-        <v>100</v>
+        <v>44.438375003375</v>
       </c>
       <c r="E1250" s="20">
-        <v>1851.85</v>
+        <v>822.93204749999995</v>
+      </c>
+      <c r="F1250" s="20">
+        <v>16161.113459942659</v>
+      </c>
+      <c r="H1250" s="20">
+        <v>560.71289474302898</v>
+      </c>
+      <c r="J1250" s="20">
+        <v>1731.6428747642422</v>
+      </c>
+      <c r="N1250" s="20">
+        <v>13868.757690435388</v>
+      </c>
+      <c r="AB1250" s="20">
+        <v>23.171701498256411</v>
+      </c>
+      <c r="AC1250" s="20">
+        <v>34.703295857431939</v>
+      </c>
+      <c r="AD1250" s="20">
+        <v>319.10209790209785</v>
       </c>
     </row>
     <row r="1251" spans="1:30" s="20" customFormat="1">
@@ -47063,37 +47064,16 @@
         <v>92</v>
       </c>
       <c r="B1251" s="5">
-        <v>31792</v>
+        <v>30331</v>
       </c>
       <c r="C1251" s="20">
-        <v>4.0000854227687812</v>
+        <v>0</v>
       </c>
       <c r="D1251" s="3">
-        <v>78.461697896697899</v>
+        <v>100</v>
       </c>
       <c r="E1251" s="20">
-        <v>1452.9929525</v>
-      </c>
-      <c r="F1251" s="20">
-        <v>3352.2158908401648</v>
-      </c>
-      <c r="H1251" s="20">
-        <v>508.53996124651866</v>
-      </c>
-      <c r="J1251" s="20">
-        <v>569.32869763972883</v>
-      </c>
-      <c r="N1251" s="20">
-        <v>2274.3472319539173</v>
-      </c>
-      <c r="AB1251" s="20">
-        <v>9.5366971786116341</v>
-      </c>
-      <c r="AC1251" s="20">
-        <v>10.378877591821327</v>
-      </c>
-      <c r="AD1251" s="20">
-        <v>28.433846153846151</v>
+        <v>1851.85</v>
       </c>
     </row>
     <row r="1252" spans="1:30" s="20" customFormat="1">
@@ -47101,10 +47081,10 @@
         <v>92</v>
       </c>
       <c r="B1252" s="5">
-        <v>32157.242200000001</v>
+        <v>31792</v>
       </c>
       <c r="C1252" s="20">
-        <v>5.000085422768783</v>
+        <v>4.0000854227687812</v>
       </c>
       <c r="D1252" s="3">
         <v>78.461697896697899</v>
@@ -47113,22 +47093,25 @@
         <v>1452.9929525</v>
       </c>
       <c r="F1252" s="20">
-        <v>4978.1229308492993</v>
+        <v>3352.2158908401648</v>
       </c>
       <c r="H1252" s="20">
-        <v>577.99256347346659</v>
+        <v>508.53996124651866</v>
       </c>
       <c r="J1252" s="20">
-        <v>790.50061146626251</v>
+        <v>569.32869763972883</v>
       </c>
       <c r="N1252" s="20">
-        <v>3609.6297559095701</v>
+        <v>2274.3472319539173</v>
       </c>
       <c r="AB1252" s="20">
-        <v>11.33285779588163</v>
+        <v>9.5366971786116341</v>
       </c>
       <c r="AC1252" s="20">
-        <v>14.656601615708871</v>
+        <v>10.378877591821327</v>
+      </c>
+      <c r="AD1252" s="20">
+        <v>28.433846153846151</v>
       </c>
     </row>
     <row r="1253" spans="1:30" s="20" customFormat="1">
@@ -47136,10 +47119,10 @@
         <v>92</v>
       </c>
       <c r="B1253" s="5">
-        <v>32522.484400000001</v>
+        <v>32157.242200000001</v>
       </c>
       <c r="C1253" s="20">
-        <v>6.0000854227687848</v>
+        <v>5.000085422768783</v>
       </c>
       <c r="D1253" s="3">
         <v>78.461697896697899</v>
@@ -47148,25 +47131,22 @@
         <v>1452.9929525</v>
       </c>
       <c r="F1253" s="20">
-        <v>6896.9625784870414</v>
+        <v>4978.1229308492993</v>
       </c>
       <c r="H1253" s="20">
-        <v>650.62136208923971</v>
+        <v>577.99256347346659</v>
       </c>
       <c r="J1253" s="20">
-        <v>1036.5791089788881</v>
+        <v>790.50061146626251</v>
       </c>
       <c r="N1253" s="20">
-        <v>5209.7621074189137</v>
+        <v>3609.6297559095701</v>
       </c>
       <c r="AB1253" s="20">
-        <v>12.997824008646582</v>
+        <v>11.33285779588163</v>
       </c>
       <c r="AC1253" s="20">
-        <v>19.279497458967473</v>
-      </c>
-      <c r="AD1253" s="20">
-        <v>78.37342657342657</v>
+        <v>14.656601615708871</v>
       </c>
     </row>
     <row r="1254" spans="1:30" s="20" customFormat="1">
@@ -47174,10 +47154,10 @@
         <v>92</v>
       </c>
       <c r="B1254" s="5">
-        <v>32887.726600000002</v>
+        <v>32522.484400000001</v>
       </c>
       <c r="C1254" s="20">
-        <v>7.0000854227687865</v>
+        <v>6.0000854227687848</v>
       </c>
       <c r="D1254" s="3">
         <v>78.461697896697899</v>
@@ -47186,22 +47166,25 @@
         <v>1452.9929525</v>
       </c>
       <c r="F1254" s="20">
-        <v>8838.9106724768608</v>
+        <v>6896.9625784870414</v>
       </c>
       <c r="H1254" s="20">
-        <v>713.42312908343024</v>
+        <v>650.62136208923971</v>
       </c>
       <c r="J1254" s="20">
-        <v>1271.8265617517204</v>
+        <v>1036.5791089788881</v>
       </c>
       <c r="N1254" s="20">
-        <v>6853.6609816417094</v>
+        <v>5209.7621074189137</v>
       </c>
       <c r="AB1254" s="20">
-        <v>14.40009180456757</v>
+        <v>12.997824008646582</v>
       </c>
       <c r="AC1254" s="20">
-        <v>23.663823993114097</v>
+        <v>19.279497458967473</v>
+      </c>
+      <c r="AD1254" s="20">
+        <v>78.37342657342657</v>
       </c>
     </row>
     <row r="1255" spans="1:30" s="20" customFormat="1">
@@ -47209,37 +47192,34 @@
         <v>92</v>
       </c>
       <c r="B1255" s="5">
-        <v>33618.211000000003</v>
+        <v>32887.726600000002</v>
       </c>
       <c r="C1255" s="20">
-        <v>9.0000854227687892</v>
+        <v>7.0000854227687865</v>
       </c>
       <c r="D1255" s="3">
-        <v>77.767208332208341</v>
+        <v>78.461697896697899</v>
       </c>
       <c r="E1255" s="20">
-        <v>1440.1320475</v>
+        <v>1452.9929525</v>
       </c>
       <c r="F1255" s="20">
-        <v>11739.037704570897</v>
+        <v>8838.9106724768608</v>
       </c>
       <c r="H1255" s="20">
-        <v>772.87935845556865</v>
+        <v>713.42312908343024</v>
       </c>
       <c r="J1255" s="20">
-        <v>1582.5270783445235</v>
+        <v>1271.8265617517204</v>
       </c>
       <c r="N1255" s="20">
-        <v>9383.6312677708065</v>
+        <v>6853.6609816417094</v>
       </c>
       <c r="AB1255" s="20">
-        <v>16.247309630127091</v>
+        <v>14.40009180456757</v>
       </c>
       <c r="AC1255" s="20">
-        <v>29.857684589663673</v>
-      </c>
-      <c r="AD1255" s="20">
-        <v>151.83636363636364</v>
+        <v>23.663823993114097</v>
       </c>
     </row>
     <row r="1256" spans="1:30" s="20" customFormat="1">
@@ -47247,10 +47227,10 @@
         <v>92</v>
       </c>
       <c r="B1256" s="5">
-        <v>33983.453200000004</v>
+        <v>33618.211000000003</v>
       </c>
       <c r="C1256" s="20">
-        <v>10.000085422768791</v>
+        <v>9.0000854227687892</v>
       </c>
       <c r="D1256" s="3">
         <v>77.767208332208341</v>
@@ -47259,25 +47239,25 @@
         <v>1440.1320475</v>
       </c>
       <c r="F1256" s="20">
-        <v>13460.744544810848</v>
+        <v>11739.037704570897</v>
       </c>
       <c r="H1256" s="20">
-        <v>813.97302903440664</v>
+        <v>772.87935845556865</v>
       </c>
       <c r="J1256" s="20">
-        <v>1768.5799258999803</v>
+        <v>1582.5270783445235</v>
       </c>
       <c r="N1256" s="20">
-        <v>10878.191589876462</v>
+        <v>9383.6312677708065</v>
       </c>
       <c r="AB1256" s="20">
-        <v>17.169580674362049</v>
+        <v>16.247309630127091</v>
       </c>
       <c r="AC1256" s="20">
-        <v>33.343607820433881</v>
+        <v>29.857684589663673</v>
       </c>
       <c r="AD1256" s="20">
-        <v>175.99230769230769</v>
+        <v>151.83636363636364</v>
       </c>
     </row>
     <row r="1257" spans="1:30" s="20" customFormat="1">
@@ -47285,10 +47265,10 @@
         <v>92</v>
       </c>
       <c r="B1257" s="5">
-        <v>34348.695400000004</v>
+        <v>33983.453200000004</v>
       </c>
       <c r="C1257" s="20">
-        <v>11.000085422768793</v>
+        <v>10.000085422768791</v>
       </c>
       <c r="D1257" s="3">
         <v>77.767208332208341</v>
@@ -47297,25 +47277,25 @@
         <v>1440.1320475</v>
       </c>
       <c r="F1257" s="20">
-        <v>15099.395916581572</v>
+        <v>13460.744544810848</v>
       </c>
       <c r="H1257" s="20">
-        <v>849.67112924025389</v>
+        <v>813.97302903440664</v>
       </c>
       <c r="J1257" s="20">
-        <v>1940.1478815135415</v>
+        <v>1768.5799258999803</v>
       </c>
       <c r="N1257" s="20">
-        <v>12309.576905827776</v>
+        <v>10878.191589876462</v>
       </c>
       <c r="AB1257" s="20">
-        <v>17.981073710675542</v>
+        <v>17.169580674362049</v>
       </c>
       <c r="AC1257" s="20">
-        <v>36.569957412593617</v>
+        <v>33.343607820433881</v>
       </c>
       <c r="AD1257" s="20">
-        <v>198.97692307692307</v>
+        <v>175.99230769230769</v>
       </c>
     </row>
     <row r="1258" spans="1:30" s="20" customFormat="1">
@@ -47323,37 +47303,37 @@
         <v>92</v>
       </c>
       <c r="B1258" s="5">
-        <v>35079.179800000005</v>
+        <v>34348.695400000004</v>
       </c>
       <c r="C1258" s="20">
-        <v>13.000085422768796</v>
+        <v>11.000085422768793</v>
       </c>
       <c r="D1258" s="3">
-        <v>76.378645813645818</v>
+        <v>77.767208332208341</v>
       </c>
       <c r="E1258" s="20">
-        <v>1414.4179525</v>
+        <v>1440.1320475</v>
       </c>
       <c r="F1258" s="20">
-        <v>17446.134777541381</v>
+        <v>15099.395916581572</v>
       </c>
       <c r="H1258" s="20">
-        <v>877.52955362699072</v>
+        <v>849.67112924025389</v>
       </c>
       <c r="J1258" s="20">
-        <v>2157.7074505290311</v>
+        <v>1940.1478815135415</v>
       </c>
       <c r="N1258" s="20">
-        <v>14410.897773385359</v>
+        <v>12309.576905827776</v>
       </c>
       <c r="AB1258" s="20">
-        <v>19.200350062851641</v>
+        <v>17.981073710675542</v>
       </c>
       <c r="AC1258" s="20">
-        <v>40.953115920747045</v>
+        <v>36.569957412593617</v>
       </c>
       <c r="AD1258" s="20">
-        <v>232.70139860139861</v>
+        <v>198.97692307692307</v>
       </c>
     </row>
     <row r="1259" spans="1:30" s="20" customFormat="1">
@@ -47361,37 +47341,37 @@
         <v>92</v>
       </c>
       <c r="B1259" s="5">
-        <v>35444.422000000006</v>
+        <v>35079.179800000005</v>
       </c>
       <c r="C1259" s="20">
-        <v>14.000085422768798</v>
+        <v>13.000085422768796</v>
       </c>
       <c r="D1259" s="3">
-        <v>74.989874989874991</v>
+        <v>76.378645813645818</v>
       </c>
       <c r="E1259" s="20">
-        <v>1388.7</v>
+        <v>1414.4179525</v>
       </c>
       <c r="F1259" s="20">
-        <v>17566.389579770075</v>
+        <v>17446.134777541381</v>
       </c>
       <c r="H1259" s="20">
-        <v>849.87567937275367</v>
+        <v>877.52955362699072</v>
       </c>
       <c r="J1259" s="20">
-        <v>2132.6986752335688</v>
+        <v>2157.7074505290311</v>
       </c>
       <c r="N1259" s="20">
-        <v>14583.815225163751</v>
+        <v>14410.897773385359</v>
       </c>
       <c r="AB1259" s="20">
-        <v>19.418758278200833</v>
+        <v>19.200350062851641</v>
       </c>
       <c r="AC1259" s="20">
-        <v>41.128440650002844</v>
+        <v>40.953115920747045</v>
       </c>
       <c r="AD1259" s="20">
-        <v>264.79860139860136</v>
+        <v>232.70139860139861</v>
       </c>
     </row>
     <row r="1260" spans="1:30" s="20" customFormat="1">
@@ -47399,37 +47379,37 @@
         <v>92</v>
       </c>
       <c r="B1260" s="5">
-        <v>35809.664200000007</v>
+        <v>35444.422000000006</v>
       </c>
       <c r="C1260" s="20">
-        <v>15.000085422768798</v>
+        <v>14.000085422768798</v>
       </c>
       <c r="D1260" s="3">
-        <v>73.601104166104179</v>
+        <v>74.989874989874991</v>
       </c>
       <c r="E1260" s="20">
-        <v>1362.9820475000001</v>
+        <v>1388.7</v>
       </c>
       <c r="F1260" s="20">
-        <v>17841.96767459</v>
+        <v>17566.389579770075</v>
       </c>
       <c r="H1260" s="20">
-        <v>830.81756440227696</v>
+        <v>849.87567937275367</v>
       </c>
       <c r="J1260" s="20">
-        <v>2130.1791402837675</v>
+        <v>2132.6986752335688</v>
       </c>
       <c r="N1260" s="20">
-        <v>14880.970969903956</v>
+        <v>14583.815225163751</v>
       </c>
       <c r="AB1260" s="20">
-        <v>19.702748723628371</v>
+        <v>19.418758278200833</v>
       </c>
       <c r="AC1260" s="20">
-        <v>41.556089201359555</v>
+        <v>41.128440650002844</v>
       </c>
       <c r="AD1260" s="20">
-        <v>264.07202797202797</v>
+        <v>264.79860139860136</v>
       </c>
     </row>
     <row r="1261" spans="1:30" s="20" customFormat="1">
@@ -47437,37 +47417,37 @@
         <v>92</v>
       </c>
       <c r="B1261" s="5">
-        <v>36174.906400000007</v>
+        <v>35809.664200000007</v>
       </c>
       <c r="C1261" s="20">
-        <v>16.000085422768802</v>
+        <v>15.000085422768798</v>
       </c>
       <c r="D1261" s="3">
-        <v>75.68415624915626</v>
+        <v>73.601104166104179</v>
       </c>
       <c r="E1261" s="20">
-        <v>1401.5570475</v>
+        <v>1362.9820475000001</v>
       </c>
       <c r="F1261" s="20">
-        <v>19116.01698679967</v>
+        <v>17841.96767459</v>
       </c>
       <c r="H1261" s="20">
-        <v>857.58086159568268</v>
+        <v>830.81756440227696</v>
       </c>
       <c r="J1261" s="20">
-        <v>2248.0095563284094</v>
+        <v>2130.1791402837675</v>
       </c>
       <c r="N1261" s="20">
-        <v>16010.426568875579</v>
+        <v>14880.970969903956</v>
       </c>
       <c r="AB1261" s="20">
-        <v>20.038626343495711</v>
+        <v>19.702748723628371</v>
       </c>
       <c r="AC1261" s="20">
-        <v>44.201557314881697</v>
+        <v>41.556089201359555</v>
       </c>
       <c r="AD1261" s="20">
-        <v>285.80069930069925</v>
+        <v>264.07202797202797</v>
       </c>
     </row>
     <row r="1262" spans="1:30" s="20" customFormat="1">
@@ -47475,37 +47455,37 @@
         <v>92</v>
       </c>
       <c r="B1262" s="5">
-        <v>36905.390800000008</v>
+        <v>36174.906400000007</v>
       </c>
       <c r="C1262" s="20">
-        <v>18.000085422768805</v>
+        <v>16.000085422768802</v>
       </c>
       <c r="D1262" s="3">
-        <v>72.212541647541642</v>
+        <v>75.68415624915626</v>
       </c>
       <c r="E1262" s="20">
-        <v>1337.2679524999999</v>
+        <v>1401.5570475</v>
       </c>
       <c r="F1262" s="20">
-        <v>19581.76327303315</v>
+        <v>19116.01698679967</v>
       </c>
       <c r="H1262" s="20">
-        <v>821.96567496520004</v>
+        <v>857.58086159568268</v>
       </c>
       <c r="J1262" s="20">
-        <v>2240.1993437908122</v>
+        <v>2248.0095563284094</v>
       </c>
       <c r="N1262" s="20">
-        <v>16519.598254277138</v>
+        <v>16010.426568875579</v>
       </c>
       <c r="AB1262" s="20">
-        <v>20.633142405724396</v>
+        <v>20.038626343495711</v>
       </c>
       <c r="AC1262" s="20">
-        <v>44.713646090195404</v>
+        <v>44.201557314881697</v>
       </c>
       <c r="AD1262" s="20">
-        <v>320.47762237762237</v>
+        <v>285.80069930069925</v>
       </c>
     </row>
     <row r="1263" spans="1:30" s="20" customFormat="1">
@@ -47513,37 +47493,37 @@
         <v>92</v>
       </c>
       <c r="B1263" s="5">
-        <v>38366.359600000011</v>
+        <v>36905.390800000008</v>
       </c>
       <c r="C1263" s="20">
-        <v>22.000085422768809</v>
+        <v>18.000085422768805</v>
       </c>
       <c r="D1263" s="3">
-        <v>59.714229149229162</v>
+        <v>72.212541647541642</v>
       </c>
       <c r="E1263" s="20">
-        <v>1105.8179525</v>
+        <v>1337.2679524999999</v>
       </c>
       <c r="F1263" s="20">
-        <v>20061.163065494042</v>
+        <v>19581.76327303315</v>
       </c>
       <c r="H1263" s="20">
-        <v>744.58171651736643</v>
+        <v>821.96567496520004</v>
       </c>
       <c r="J1263" s="20">
-        <v>2209.3001943767872</v>
+        <v>2240.1993437908122</v>
       </c>
       <c r="N1263" s="20">
-        <v>17107.281154599888</v>
+        <v>16519.598254277138</v>
       </c>
       <c r="AB1263" s="20">
-        <v>22.442425738219335</v>
+        <v>20.633142405724396</v>
       </c>
       <c r="AC1263" s="20">
-        <v>43.743560226080859</v>
+        <v>44.713646090195404</v>
       </c>
       <c r="AD1263" s="20">
-        <v>342.53916083916084</v>
+        <v>320.47762237762237</v>
       </c>
     </row>
     <row r="1264" spans="1:30" s="20" customFormat="1">
@@ -47551,54 +47531,75 @@
         <v>92</v>
       </c>
       <c r="B1264" s="5">
-        <v>39462.086200000012</v>
+        <v>38366.359600000011</v>
       </c>
       <c r="C1264" s="20">
-        <v>25.000085422768816</v>
+        <v>22.000085422768809</v>
       </c>
       <c r="D1264" s="3">
-        <v>52.770583335583346</v>
+        <v>59.714229149229162</v>
       </c>
       <c r="E1264" s="20">
-        <v>977.23204750000014</v>
+        <v>1105.8179525</v>
       </c>
       <c r="F1264" s="20">
-        <v>18502.7822863824</v>
+        <v>20061.163065494042</v>
       </c>
       <c r="H1264" s="20">
-        <v>644.41278876720992</v>
+        <v>744.58171651736643</v>
       </c>
       <c r="J1264" s="20">
-        <v>1975.3167378342655</v>
+        <v>2209.3001943767872</v>
       </c>
       <c r="N1264" s="20">
-        <v>15883.052759780923</v>
+        <v>17107.281154599888</v>
       </c>
       <c r="AB1264" s="20">
-        <v>22.860138254121857</v>
+        <v>22.442425738219335</v>
       </c>
       <c r="AC1264" s="20">
-        <v>40.109412709716104</v>
+        <v>43.743560226080859</v>
       </c>
       <c r="AD1264" s="20">
-        <v>368.04965034965034</v>
+        <v>342.53916083916084</v>
       </c>
     </row>
     <row r="1265" spans="1:30" s="20" customFormat="1">
       <c r="A1265" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1265" s="5">
-        <v>30331</v>
+        <v>39462.086200000012</v>
       </c>
       <c r="C1265" s="20">
-        <v>0</v>
+        <v>25.000085422768816</v>
       </c>
       <c r="D1265" s="3">
-        <v>100</v>
+        <v>52.770583335583346</v>
       </c>
       <c r="E1265" s="20">
-        <v>1851.85</v>
+        <v>977.23204750000014</v>
+      </c>
+      <c r="F1265" s="20">
+        <v>18502.7822863824</v>
+      </c>
+      <c r="H1265" s="20">
+        <v>644.41278876720992</v>
+      </c>
+      <c r="J1265" s="20">
+        <v>1975.3167378342655</v>
+      </c>
+      <c r="N1265" s="20">
+        <v>15883.052759780923</v>
+      </c>
+      <c r="AB1265" s="20">
+        <v>22.860138254121857</v>
+      </c>
+      <c r="AC1265" s="20">
+        <v>40.109412709716104</v>
+      </c>
+      <c r="AD1265" s="20">
+        <v>368.04965034965034</v>
       </c>
     </row>
     <row r="1266" spans="1:30" s="20" customFormat="1">
@@ -47606,37 +47607,16 @@
         <v>93</v>
       </c>
       <c r="B1266" s="5">
-        <v>31792</v>
+        <v>30331</v>
       </c>
       <c r="C1266" s="20">
-        <v>4.0000854227687812</v>
+        <v>0</v>
       </c>
       <c r="D1266" s="3">
-        <v>78.461697896697899</v>
+        <v>100</v>
       </c>
       <c r="E1266" s="20">
-        <v>1452.9929525</v>
-      </c>
-      <c r="F1266" s="20">
-        <v>433.15200057133603</v>
-      </c>
-      <c r="H1266" s="20">
-        <v>186.49076112408525</v>
-      </c>
-      <c r="J1266" s="20">
-        <v>22.415255646192854</v>
-      </c>
-      <c r="N1266" s="20">
-        <v>224.24598380105795</v>
-      </c>
-      <c r="AB1266" s="20">
-        <v>3.782093842448897</v>
-      </c>
-      <c r="AC1266" s="20">
-        <v>1.6323715076437588</v>
-      </c>
-      <c r="AD1266" s="20">
-        <v>2.7808391608391605</v>
+        <v>1851.85</v>
       </c>
     </row>
     <row r="1267" spans="1:30" s="20" customFormat="1">
@@ -47644,34 +47624,37 @@
         <v>93</v>
       </c>
       <c r="B1267" s="5">
-        <v>32157.242200000001</v>
+        <v>31792</v>
       </c>
       <c r="C1267" s="20">
-        <v>5.000085422768783</v>
+        <v>4.0000854227687812</v>
       </c>
       <c r="D1267" s="3">
-        <v>77.767208332208341</v>
+        <v>78.461697896697899</v>
       </c>
       <c r="E1267" s="20">
-        <v>1440.1320475</v>
+        <v>1452.9929525</v>
       </c>
       <c r="F1267" s="20">
-        <v>928.85886167005265</v>
+        <v>433.15200057133603</v>
       </c>
       <c r="H1267" s="20">
-        <v>242.57138824301995</v>
+        <v>186.49076112408525</v>
       </c>
       <c r="J1267" s="20">
-        <v>65.490733318806832</v>
+        <v>22.415255646192854</v>
       </c>
       <c r="N1267" s="20">
-        <v>620.79674010822589</v>
+        <v>224.24598380105795</v>
       </c>
       <c r="AB1267" s="20">
-        <v>5.5157059145715177</v>
+        <v>3.782093842448897</v>
       </c>
       <c r="AC1267" s="20">
-        <v>3.4410851294965896</v>
+        <v>1.6323715076437588</v>
+      </c>
+      <c r="AD1267" s="20">
+        <v>2.7808391608391605</v>
       </c>
     </row>
     <row r="1268" spans="1:30" s="20" customFormat="1">
@@ -47679,10 +47662,10 @@
         <v>93</v>
       </c>
       <c r="B1268" s="5">
-        <v>32522.484400000001</v>
+        <v>32157.242200000001</v>
       </c>
       <c r="C1268" s="20">
-        <v>6.0000854227687848</v>
+        <v>5.000085422768783</v>
       </c>
       <c r="D1268" s="3">
         <v>77.767208332208341</v>
@@ -47691,25 +47674,22 @@
         <v>1440.1320475</v>
       </c>
       <c r="F1268" s="20">
-        <v>1508.0468314925961</v>
+        <v>928.85886167005265</v>
       </c>
       <c r="H1268" s="20">
-        <v>286.40680513599023</v>
+        <v>242.57138824301995</v>
       </c>
       <c r="J1268" s="20">
-        <v>117.74137668214928</v>
+        <v>65.490733318806832</v>
       </c>
       <c r="N1268" s="20">
-        <v>1103.8986496744567</v>
+        <v>620.79674010822589</v>
       </c>
       <c r="AB1268" s="20">
-        <v>6.8144480451180662</v>
+        <v>5.5157059145715177</v>
       </c>
       <c r="AC1268" s="20">
-        <v>5.2523611616997457</v>
-      </c>
-      <c r="AD1268" s="20">
-        <v>14.029370629370629</v>
+        <v>3.4410851294965896</v>
       </c>
     </row>
     <row r="1269" spans="1:30" s="20" customFormat="1">
@@ -47717,34 +47697,37 @@
         <v>93</v>
       </c>
       <c r="B1269" s="5">
-        <v>32887.726600000002</v>
+        <v>32522.484400000001</v>
       </c>
       <c r="C1269" s="20">
-        <v>7.0000854227687865</v>
+        <v>6.0000854227687848</v>
       </c>
       <c r="D1269" s="3">
-        <v>76.378645813645818</v>
+        <v>77.767208332208341</v>
       </c>
       <c r="E1269" s="20">
-        <v>1414.4179525</v>
+        <v>1440.1320475</v>
       </c>
       <c r="F1269" s="20">
-        <v>2349.6640725805887</v>
+        <v>1508.0468314925961</v>
       </c>
       <c r="H1269" s="20">
-        <v>336.37941026595809</v>
+        <v>286.40680513599023</v>
       </c>
       <c r="J1269" s="20">
-        <v>197.54154633172217</v>
+        <v>117.74137668214928</v>
       </c>
       <c r="N1269" s="20">
-        <v>1815.7431159829084</v>
+        <v>1103.8986496744567</v>
       </c>
       <c r="AB1269" s="20">
-        <v>8.2356558794332759</v>
+        <v>6.8144480451180662</v>
       </c>
       <c r="AC1269" s="20">
-        <v>7.5346839524209139</v>
+        <v>5.2523611616997457</v>
+      </c>
+      <c r="AD1269" s="20">
+        <v>14.029370629370629</v>
       </c>
     </row>
     <row r="1270" spans="1:30" s="20" customFormat="1">
@@ -47752,34 +47735,34 @@
         <v>93</v>
       </c>
       <c r="B1270" s="5">
-        <v>33618.211000000003</v>
+        <v>32887.726600000002</v>
       </c>
       <c r="C1270" s="20">
-        <v>9.0000854227687892</v>
+        <v>7.0000854227687865</v>
       </c>
       <c r="D1270" s="3">
-        <v>73.601104166104179</v>
+        <v>76.378645813645818</v>
       </c>
       <c r="E1270" s="20">
-        <v>1362.9820475000001</v>
+        <v>1414.4179525</v>
       </c>
       <c r="F1270" s="20">
-        <v>4016.8609531955472</v>
+        <v>2349.6640725805887</v>
       </c>
       <c r="H1270" s="20">
-        <v>409.25735459585786</v>
+        <v>336.37941026595809</v>
       </c>
       <c r="J1270" s="20">
-        <v>354.66384671811653</v>
+        <v>197.54154633172217</v>
       </c>
       <c r="N1270" s="20">
-        <v>3252.9397518815726</v>
+        <v>1815.7431159829084</v>
       </c>
       <c r="AB1270" s="20">
-        <v>10.342568705359797</v>
+        <v>8.2356558794332759</v>
       </c>
       <c r="AC1270" s="20">
-        <v>11.450853585463751</v>
+        <v>7.5346839524209139</v>
       </c>
     </row>
     <row r="1271" spans="1:30" s="20" customFormat="1">
@@ -47787,10 +47770,10 @@
         <v>93</v>
       </c>
       <c r="B1271" s="5">
-        <v>33983.453200000004</v>
+        <v>33618.211000000003</v>
       </c>
       <c r="C1271" s="20">
-        <v>10.000085422768791</v>
+        <v>9.0000854227687892</v>
       </c>
       <c r="D1271" s="3">
         <v>73.601104166104179</v>
@@ -47799,22 +47782,22 @@
         <v>1362.9820475000001</v>
       </c>
       <c r="F1271" s="20">
-        <v>5113.1719150496065</v>
+        <v>4016.8609531955472</v>
       </c>
       <c r="H1271" s="20">
-        <v>457.10150194357414</v>
+        <v>409.25735459585786</v>
       </c>
       <c r="J1271" s="20">
-        <v>459.07373917541508</v>
+        <v>354.66384671811653</v>
       </c>
       <c r="N1271" s="20">
-        <v>4196.9966739306165</v>
+        <v>3252.9397518815726</v>
       </c>
       <c r="AB1271" s="20">
-        <v>11.357430990714644</v>
+        <v>10.342568705359797</v>
       </c>
       <c r="AC1271" s="20">
-        <v>13.808332807333858</v>
+        <v>11.450853585463751</v>
       </c>
     </row>
     <row r="1272" spans="1:30" s="20" customFormat="1">
@@ -47822,37 +47805,34 @@
         <v>93</v>
       </c>
       <c r="B1272" s="5">
-        <v>34348.695400000004</v>
+        <v>33983.453200000004</v>
       </c>
       <c r="C1272" s="20">
-        <v>11.000085422768793</v>
+        <v>10.000085422768791</v>
       </c>
       <c r="D1272" s="3">
-        <v>71.518052083052083</v>
+        <v>73.601104166104179</v>
       </c>
       <c r="E1272" s="20">
-        <v>1324.4070475000001</v>
+        <v>1362.9820475000001</v>
       </c>
       <c r="F1272" s="20">
-        <v>6043.832714306277</v>
+        <v>5113.1719150496065</v>
       </c>
       <c r="H1272" s="20">
-        <v>487.47057191265611</v>
+        <v>457.10150194357414</v>
       </c>
       <c r="J1272" s="20">
-        <v>547.55926422025072</v>
+        <v>459.07373917541508</v>
       </c>
       <c r="N1272" s="20">
-        <v>5008.8028781733701</v>
+        <v>4196.9966739306165</v>
       </c>
       <c r="AB1272" s="20">
-        <v>12.248165640973106</v>
+        <v>11.357430990714644</v>
       </c>
       <c r="AC1272" s="20">
-        <v>15.60466616217567</v>
-      </c>
-      <c r="AD1272" s="20">
-        <v>49.739160839160839</v>
+        <v>13.808332807333858</v>
       </c>
     </row>
     <row r="1273" spans="1:30" s="20" customFormat="1">
@@ -47860,34 +47840,37 @@
         <v>93</v>
       </c>
       <c r="B1273" s="5">
-        <v>35079.179800000005</v>
+        <v>34348.695400000004</v>
       </c>
       <c r="C1273" s="20">
-        <v>13.000085422768796</v>
+        <v>11.000085422768793</v>
       </c>
       <c r="D1273" s="3">
-        <v>70.823770823770829</v>
+        <v>71.518052083052083</v>
       </c>
       <c r="E1273" s="20">
-        <v>1311.55</v>
+        <v>1324.4070475000001</v>
       </c>
       <c r="F1273" s="20">
-        <v>7812.068119660953</v>
+        <v>6043.832714306277</v>
       </c>
       <c r="H1273" s="20">
-        <v>547.01345327482898</v>
+        <v>487.47057191265611</v>
       </c>
       <c r="J1273" s="20">
-        <v>705.93850514092344</v>
+        <v>547.55926422025072</v>
       </c>
       <c r="N1273" s="20">
-        <v>6559.1161612452006</v>
+        <v>5008.8028781733701</v>
       </c>
       <c r="AB1273" s="20">
-        <v>13.572129874517456</v>
+        <v>12.248165640973106</v>
       </c>
       <c r="AC1273" s="20">
-        <v>18.974562121224384</v>
+        <v>15.60466616217567</v>
+      </c>
+      <c r="AD1273" s="20">
+        <v>49.739160839160839</v>
       </c>
     </row>
     <row r="1274" spans="1:30" s="20" customFormat="1">
@@ -47895,37 +47878,34 @@
         <v>93</v>
       </c>
       <c r="B1274" s="5">
-        <v>35444.422000000006</v>
+        <v>35079.179800000005</v>
       </c>
       <c r="C1274" s="20">
-        <v>14.000085422768798</v>
+        <v>13.000085422768796</v>
       </c>
       <c r="D1274" s="3">
-        <v>68.046437481437479</v>
+        <v>70.823770823770829</v>
       </c>
       <c r="E1274" s="20">
-        <v>1260.1179525</v>
+        <v>1311.55</v>
       </c>
       <c r="F1274" s="20">
-        <v>8262.7959191204864</v>
+        <v>7812.068119660953</v>
       </c>
       <c r="H1274" s="20">
-        <v>549.1610454280742</v>
+        <v>547.01345327482898</v>
       </c>
       <c r="J1274" s="20">
-        <v>741.96704688800469</v>
+        <v>705.93850514092344</v>
       </c>
       <c r="N1274" s="20">
-        <v>6971.667826804407</v>
+        <v>6559.1161612452006</v>
       </c>
       <c r="AB1274" s="20">
-        <v>14.085158396589925</v>
+        <v>13.572129874517456</v>
       </c>
       <c r="AC1274" s="20">
-        <v>19.63475860631431</v>
-      </c>
-      <c r="AD1274" s="20">
-        <v>93.132167832167823</v>
+        <v>18.974562121224384</v>
       </c>
     </row>
     <row r="1275" spans="1:30" s="20" customFormat="1">
@@ -47933,37 +47913,37 @@
         <v>93</v>
       </c>
       <c r="B1275" s="5">
-        <v>35809.664200000007</v>
+        <v>35444.422000000006</v>
       </c>
       <c r="C1275" s="20">
-        <v>15.000085422768798</v>
+        <v>14.000085422768798</v>
       </c>
       <c r="D1275" s="3">
-        <v>66.657666657666667</v>
+        <v>68.046437481437479</v>
       </c>
       <c r="E1275" s="20">
-        <v>1234.4000000000001</v>
+        <v>1260.1179525</v>
       </c>
       <c r="F1275" s="20">
-        <v>9091.450588926924</v>
+        <v>8262.7959191204864</v>
       </c>
       <c r="H1275" s="20">
-        <v>572.23101138367792</v>
+        <v>549.1610454280742</v>
       </c>
       <c r="J1275" s="20">
-        <v>816.58624160144643</v>
+        <v>741.96704688800469</v>
       </c>
       <c r="N1275" s="20">
-        <v>7702.6333359418004</v>
+        <v>6971.667826804407</v>
       </c>
       <c r="AB1275" s="20">
-        <v>14.721719715351663</v>
+        <v>14.085158396589925</v>
       </c>
       <c r="AC1275" s="20">
-        <v>21.011831044733366</v>
+        <v>19.63475860631431</v>
       </c>
       <c r="AD1275" s="20">
-        <v>99.876223776223767</v>
+        <v>93.132167832167823</v>
       </c>
     </row>
     <row r="1276" spans="1:30" s="20" customFormat="1">
@@ -47971,37 +47951,37 @@
         <v>93</v>
       </c>
       <c r="B1276" s="5">
-        <v>36174.906400000007</v>
+        <v>35809.664200000007</v>
       </c>
       <c r="C1276" s="20">
-        <v>16.000085422768802</v>
+        <v>15.000085422768798</v>
       </c>
       <c r="D1276" s="3">
-        <v>65.963385398385398</v>
+        <v>66.657666657666667</v>
       </c>
       <c r="E1276" s="20">
-        <v>1221.5429525</v>
+        <v>1234.4000000000001</v>
       </c>
       <c r="F1276" s="20">
-        <v>9851.9287706016257</v>
+        <v>9091.450588926924</v>
       </c>
       <c r="H1276" s="20">
-        <v>593.44333580347939</v>
+        <v>572.23101138367792</v>
       </c>
       <c r="J1276" s="20">
-        <v>881.51384329855114</v>
+        <v>816.58624160144643</v>
       </c>
       <c r="N1276" s="20">
-        <v>8376.9715914995941</v>
+        <v>7702.6333359418004</v>
       </c>
       <c r="AB1276" s="20">
-        <v>15.241158304551655</v>
+        <v>14.721719715351663</v>
       </c>
       <c r="AC1276" s="20">
-        <v>22.286177610888032</v>
+        <v>21.011831044733366</v>
       </c>
       <c r="AD1276" s="20">
-        <v>113.2965034965035</v>
+        <v>99.876223776223767</v>
       </c>
     </row>
     <row r="1277" spans="1:30" s="20" customFormat="1">
@@ -48009,37 +47989,37 @@
         <v>93</v>
       </c>
       <c r="B1277" s="5">
-        <v>36905.390800000008</v>
+        <v>36174.906400000007</v>
       </c>
       <c r="C1277" s="20">
-        <v>18.000085422768805</v>
+        <v>16.000085422768802</v>
       </c>
       <c r="D1277" s="3">
-        <v>65.26889583389584</v>
+        <v>65.963385398385398</v>
       </c>
       <c r="E1277" s="20">
-        <v>1208.6820475</v>
+        <v>1221.5429525</v>
       </c>
       <c r="F1277" s="20">
-        <v>11050.032967942456</v>
+        <v>9851.9287706016257</v>
       </c>
       <c r="H1277" s="20">
-        <v>622.70898595516007</v>
+        <v>593.44333580347939</v>
       </c>
       <c r="J1277" s="20">
-        <v>972.75453256114429</v>
+        <v>881.51384329855114</v>
       </c>
       <c r="N1277" s="20">
-        <v>9454.5694494261516</v>
+        <v>8376.9715914995941</v>
       </c>
       <c r="AB1277" s="20">
-        <v>15.996037866636632</v>
+        <v>15.241158304551655</v>
       </c>
       <c r="AC1277" s="20">
-        <v>24.290016824936352</v>
+        <v>22.286177610888032</v>
       </c>
       <c r="AD1277" s="20">
-        <v>137.3965034965035</v>
+        <v>113.2965034965035</v>
       </c>
     </row>
     <row r="1278" spans="1:30" s="20" customFormat="1">
@@ -48047,37 +48027,37 @@
         <v>93</v>
       </c>
       <c r="B1278" s="5">
-        <v>38366.359600000011</v>
+        <v>36905.390800000008</v>
       </c>
       <c r="C1278" s="20">
-        <v>22.000085422768809</v>
+        <v>18.000085422768805</v>
       </c>
       <c r="D1278" s="3">
-        <v>59.019739584739597</v>
+        <v>65.26889583389584</v>
       </c>
       <c r="E1278" s="20">
-        <v>1092.9570475</v>
+        <v>1208.6820475</v>
       </c>
       <c r="F1278" s="20">
-        <v>13235.369169161248</v>
+        <v>11050.032967942456</v>
       </c>
       <c r="H1278" s="20">
-        <v>663.27336339479314</v>
+        <v>622.70898595516007</v>
       </c>
       <c r="J1278" s="20">
-        <v>1152.2359091762964</v>
+        <v>972.75453256114429</v>
       </c>
       <c r="N1278" s="20">
-        <v>11419.859896590158</v>
+        <v>9454.5694494261516</v>
       </c>
       <c r="AB1278" s="20">
-        <v>17.790917984772715</v>
+        <v>15.996037866636632</v>
       </c>
       <c r="AC1278" s="20">
-        <v>27.170066848490222</v>
+        <v>24.290016824936352</v>
       </c>
       <c r="AD1278" s="20">
-        <v>178.81398601398601</v>
+        <v>137.3965034965035</v>
       </c>
     </row>
     <row r="1279" spans="1:30" s="20" customFormat="1">
@@ -48085,54 +48065,75 @@
         <v>93</v>
       </c>
       <c r="B1279" s="5">
-        <v>39462.086200000012</v>
+        <v>38366.359600000011</v>
       </c>
       <c r="C1279" s="20">
-        <v>25.000085422768816</v>
+        <v>22.000085422768809</v>
       </c>
       <c r="D1279" s="3">
-        <v>52.076302076302085</v>
+        <v>59.019739584739597</v>
       </c>
       <c r="E1279" s="20">
-        <v>964.375</v>
+        <v>1092.9570475</v>
       </c>
       <c r="F1279" s="20">
-        <v>12822.717613877829</v>
+        <v>13235.369169161248</v>
       </c>
       <c r="H1279" s="20">
-        <v>609.11476306985242</v>
+        <v>663.27336339479314</v>
       </c>
       <c r="J1279" s="20">
-        <v>1086.2660660019485</v>
+        <v>1152.2359091762964</v>
       </c>
       <c r="N1279" s="20">
-        <v>11127.336784806028</v>
+        <v>11419.859896590158</v>
       </c>
       <c r="AB1279" s="20">
-        <v>18.451280300448524</v>
+        <v>17.790917984772715</v>
       </c>
       <c r="AC1279" s="20">
-        <v>25.786348820637279</v>
+        <v>27.170066848490222</v>
       </c>
       <c r="AD1279" s="20">
-        <v>195.52027972027972</v>
+        <v>178.81398601398601</v>
       </c>
     </row>
     <row r="1280" spans="1:30" s="20" customFormat="1">
       <c r="A1280" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1280" s="5">
-        <v>30331</v>
+        <v>39462.086200000012</v>
       </c>
       <c r="C1280" s="20">
-        <v>0</v>
+        <v>25.000085422768816</v>
       </c>
       <c r="D1280" s="3">
-        <v>100</v>
+        <v>52.076302076302085</v>
       </c>
       <c r="E1280" s="20">
-        <v>1851.85</v>
+        <v>964.375</v>
+      </c>
+      <c r="F1280" s="20">
+        <v>12822.717613877829</v>
+      </c>
+      <c r="H1280" s="20">
+        <v>609.11476306985242</v>
+      </c>
+      <c r="J1280" s="20">
+        <v>1086.2660660019485</v>
+      </c>
+      <c r="N1280" s="20">
+        <v>11127.336784806028</v>
+      </c>
+      <c r="AB1280" s="20">
+        <v>18.451280300448524</v>
+      </c>
+      <c r="AC1280" s="20">
+        <v>25.786348820637279</v>
+      </c>
+      <c r="AD1280" s="20">
+        <v>195.52027972027972</v>
       </c>
     </row>
     <row r="1281" spans="1:30" s="20" customFormat="1">
@@ -48140,37 +48141,16 @@
         <v>94</v>
       </c>
       <c r="B1281" s="5">
-        <v>31792</v>
+        <v>30331</v>
       </c>
       <c r="C1281" s="20">
-        <v>4.0000854227687812</v>
+        <v>0</v>
       </c>
       <c r="D1281" s="3">
-        <v>77.072927072927072</v>
+        <v>100</v>
       </c>
       <c r="E1281" s="20">
-        <v>1427.2750000000001</v>
-      </c>
-      <c r="F1281" s="20">
-        <v>2108.4900843314745</v>
-      </c>
-      <c r="H1281" s="20">
-        <v>379.02059567900739</v>
-      </c>
-      <c r="J1281" s="20">
-        <v>207.45008178732672</v>
-      </c>
-      <c r="N1281" s="20">
-        <v>1522.0194068651404</v>
-      </c>
-      <c r="AB1281" s="20">
-        <v>7.6931308845664752</v>
-      </c>
-      <c r="AC1281" s="20">
-        <v>6.6344480565379067</v>
-      </c>
-      <c r="AD1281" s="20">
-        <v>14.970419580419579</v>
+        <v>1851.85</v>
       </c>
     </row>
     <row r="1282" spans="1:30" s="20" customFormat="1">
@@ -48178,10 +48158,10 @@
         <v>94</v>
       </c>
       <c r="B1282" s="5">
-        <v>32157.242200000001</v>
+        <v>31792</v>
       </c>
       <c r="C1282" s="20">
-        <v>5.000085422768783</v>
+        <v>4.0000854227687812</v>
       </c>
       <c r="D1282" s="3">
         <v>77.072927072927072</v>
@@ -48190,22 +48170,25 @@
         <v>1427.2750000000001</v>
       </c>
       <c r="F1282" s="20">
-        <v>3480.9024835121886</v>
+        <v>2108.4900843314745</v>
       </c>
       <c r="H1282" s="20">
-        <v>460.82732183065639</v>
+        <v>379.02059567900739</v>
       </c>
       <c r="J1282" s="20">
-        <v>362.25536123937724</v>
+        <v>207.45008178732672</v>
       </c>
       <c r="N1282" s="20">
-        <v>2657.8198004421552</v>
+        <v>1522.0194068651404</v>
       </c>
       <c r="AB1282" s="20">
-        <v>9.4414793212488313</v>
+        <v>7.6931308845664752</v>
       </c>
       <c r="AC1282" s="20">
-        <v>9.9926033405169932</v>
+        <v>6.6344480565379067</v>
+      </c>
+      <c r="AD1282" s="20">
+        <v>14.970419580419579</v>
       </c>
     </row>
     <row r="1283" spans="1:30" s="20" customFormat="1">
@@ -48213,10 +48196,10 @@
         <v>94</v>
       </c>
       <c r="B1283" s="5">
-        <v>32522.484400000001</v>
+        <v>32157.242200000001</v>
       </c>
       <c r="C1283" s="20">
-        <v>6.0000854227687848</v>
+        <v>5.000085422768783</v>
       </c>
       <c r="D1283" s="3">
         <v>77.072927072927072</v>
@@ -48225,25 +48208,22 @@
         <v>1427.2750000000001</v>
       </c>
       <c r="F1283" s="20">
-        <v>5130.1190419199902</v>
+        <v>3480.9024835121886</v>
       </c>
       <c r="H1283" s="20">
-        <v>544.9552219775137</v>
+        <v>460.82732183065639</v>
       </c>
       <c r="J1283" s="20">
-        <v>549.34672192227072</v>
+        <v>362.25536123937724</v>
       </c>
       <c r="N1283" s="20">
-        <v>4035.8170980202049</v>
+        <v>2657.8198004421552</v>
       </c>
       <c r="AB1283" s="20">
-        <v>11.007258493632097</v>
+        <v>9.4414793212488313</v>
       </c>
       <c r="AC1283" s="20">
-        <v>13.581786110600211</v>
-      </c>
-      <c r="AD1283" s="20">
-        <v>46.205594405594404</v>
+        <v>9.9926033405169932</v>
       </c>
     </row>
     <row r="1284" spans="1:30" s="20" customFormat="1">
@@ -48251,10 +48231,10 @@
         <v>94</v>
       </c>
       <c r="B1284" s="5">
-        <v>32887.726600000002</v>
+        <v>32522.484400000001</v>
       </c>
       <c r="C1284" s="20">
-        <v>7.0000854227687865</v>
+        <v>6.0000854227687848</v>
       </c>
       <c r="D1284" s="3">
         <v>77.072927072927072</v>
@@ -48263,22 +48243,25 @@
         <v>1427.2750000000001</v>
       </c>
       <c r="F1284" s="20">
-        <v>6748.3477901519127</v>
+        <v>5130.1190419199902</v>
       </c>
       <c r="H1284" s="20">
-        <v>616.57342188828318</v>
+        <v>544.9552219775137</v>
       </c>
       <c r="J1284" s="20">
-        <v>728.24453836272789</v>
+        <v>549.34672192227072</v>
       </c>
       <c r="N1284" s="20">
-        <v>5403.5298299009009</v>
+        <v>4035.8170980202049</v>
       </c>
       <c r="AB1284" s="20">
-        <v>12.252905659360447</v>
+        <v>11.007258493632097</v>
       </c>
       <c r="AC1284" s="20">
-        <v>16.829713976065435</v>
+        <v>13.581786110600211</v>
+      </c>
+      <c r="AD1284" s="20">
+        <v>46.205594405594404</v>
       </c>
     </row>
     <row r="1285" spans="1:30" s="20" customFormat="1">
@@ -48286,34 +48269,34 @@
         <v>94</v>
       </c>
       <c r="B1285" s="5">
-        <v>33618.211000000003</v>
+        <v>32887.726600000002</v>
       </c>
       <c r="C1285" s="20">
-        <v>9.0000854227687892</v>
+        <v>7.0000854227687865</v>
       </c>
       <c r="D1285" s="3">
-        <v>75.68415624915626</v>
+        <v>77.072927072927072</v>
       </c>
       <c r="E1285" s="20">
-        <v>1401.5570475</v>
+        <v>1427.2750000000001</v>
       </c>
       <c r="F1285" s="20">
-        <v>9340.9621832662542</v>
+        <v>6748.3477901519127</v>
       </c>
       <c r="H1285" s="20">
-        <v>706.47070262328816</v>
+        <v>616.57342188828318</v>
       </c>
       <c r="J1285" s="20">
-        <v>994.14023931530357</v>
+        <v>728.24453836272789</v>
       </c>
       <c r="N1285" s="20">
-        <v>7640.3512413276621</v>
+        <v>5403.5298299009009</v>
       </c>
       <c r="AB1285" s="20">
-        <v>14.008843377298108</v>
+        <v>12.252905659360447</v>
       </c>
       <c r="AC1285" s="20">
-        <v>21.602610536744422</v>
+        <v>16.829713976065435</v>
       </c>
     </row>
     <row r="1286" spans="1:30" s="20" customFormat="1">
@@ -48321,34 +48304,34 @@
         <v>94</v>
       </c>
       <c r="B1286" s="5">
-        <v>33983.453200000004</v>
+        <v>33618.211000000003</v>
       </c>
       <c r="C1286" s="20">
-        <v>10.000085422768791</v>
+        <v>9.0000854227687892</v>
       </c>
       <c r="D1286" s="3">
-        <v>73.601104166104179</v>
+        <v>75.68415624915626</v>
       </c>
       <c r="E1286" s="20">
-        <v>1362.9820475000001</v>
+        <v>1401.5570475</v>
       </c>
       <c r="F1286" s="20">
-        <v>11042.975086347033</v>
+        <v>9340.9621832662542</v>
       </c>
       <c r="H1286" s="20">
-        <v>765.86936818172876</v>
+        <v>706.47070262328816</v>
       </c>
       <c r="J1286" s="20">
-        <v>1181.8098441065208</v>
+        <v>994.14023931530357</v>
       </c>
       <c r="N1286" s="20">
-        <v>9095.2958740587819</v>
+        <v>7640.3512413276621</v>
       </c>
       <c r="AB1286" s="20">
-        <v>15.089133823354013</v>
+        <v>14.008843377298108</v>
       </c>
       <c r="AC1286" s="20">
-        <v>24.373037293160223</v>
+        <v>21.602610536744422</v>
       </c>
     </row>
     <row r="1287" spans="1:30" s="20" customFormat="1">
@@ -48356,37 +48339,34 @@
         <v>94</v>
       </c>
       <c r="B1287" s="5">
-        <v>34348.695400000004</v>
+        <v>33983.453200000004</v>
       </c>
       <c r="C1287" s="20">
-        <v>11.000085422768793</v>
+        <v>10.000085422768791</v>
       </c>
       <c r="D1287" s="3">
-        <v>72.90682290682291</v>
+        <v>73.601104166104179</v>
       </c>
       <c r="E1287" s="20">
-        <v>1350.125</v>
+        <v>1362.9820475000001</v>
       </c>
       <c r="F1287" s="20">
-        <v>12549.465349378566</v>
+        <v>11042.975086347033</v>
       </c>
       <c r="H1287" s="20">
-        <v>817.44198337547687</v>
+        <v>765.86936818172876</v>
       </c>
       <c r="J1287" s="20">
-        <v>1337.8089498875988</v>
+        <v>1181.8098441065208</v>
       </c>
       <c r="N1287" s="20">
-        <v>10394.21441611549</v>
+        <v>9095.2958740587819</v>
       </c>
       <c r="AB1287" s="20">
-        <v>15.902789728530299</v>
+        <v>15.089133823354013</v>
       </c>
       <c r="AC1287" s="20">
-        <v>26.817081337992207</v>
-      </c>
-      <c r="AD1287" s="20">
-        <v>100.19510489510489</v>
+        <v>24.373037293160223</v>
       </c>
     </row>
     <row r="1288" spans="1:30" s="20" customFormat="1">
@@ -48394,34 +48374,37 @@
         <v>94</v>
       </c>
       <c r="B1288" s="5">
-        <v>35079.179800000005</v>
+        <v>34348.695400000004</v>
       </c>
       <c r="C1288" s="20">
-        <v>13.000085422768796</v>
+        <v>11.000085422768793</v>
       </c>
       <c r="D1288" s="3">
-        <v>72.212541647541642</v>
+        <v>72.90682290682291</v>
       </c>
       <c r="E1288" s="20">
-        <v>1337.2679524999999</v>
+        <v>1350.125</v>
       </c>
       <c r="F1288" s="20">
-        <v>15089.168211307388</v>
+        <v>12549.465349378566</v>
       </c>
       <c r="H1288" s="20">
-        <v>897.15387247841079</v>
+        <v>817.44198337547687</v>
       </c>
       <c r="J1288" s="20">
-        <v>1580.7029501136437</v>
+        <v>1337.8089498875988</v>
       </c>
       <c r="N1288" s="20">
-        <v>12611.311388715332</v>
+        <v>10394.21441611549</v>
       </c>
       <c r="AB1288" s="20">
-        <v>17.133478347153279</v>
+        <v>15.902789728530299</v>
       </c>
       <c r="AC1288" s="20">
-        <v>30.831908890702412</v>
+        <v>26.817081337992207</v>
+      </c>
+      <c r="AD1288" s="20">
+        <v>100.19510489510489</v>
       </c>
     </row>
     <row r="1289" spans="1:30" s="20" customFormat="1">
@@ -48429,37 +48412,34 @@
         <v>94</v>
       </c>
       <c r="B1289" s="5">
-        <v>35444.422000000006</v>
+        <v>35079.179800000005</v>
       </c>
       <c r="C1289" s="20">
-        <v>14.000085422768798</v>
+        <v>13.000085422768796</v>
       </c>
       <c r="D1289" s="3">
-        <v>71.518052083052083</v>
+        <v>72.212541647541642</v>
       </c>
       <c r="E1289" s="20">
-        <v>1324.4070475000001</v>
+        <v>1337.2679524999999</v>
       </c>
       <c r="F1289" s="20">
-        <v>15945.90946355382</v>
+        <v>15089.168211307388</v>
       </c>
       <c r="H1289" s="20">
-        <v>916.38168389459133</v>
+        <v>897.15387247841079</v>
       </c>
       <c r="J1289" s="20">
-        <v>1649.4707055166521</v>
+        <v>1580.7029501136437</v>
       </c>
       <c r="N1289" s="20">
-        <v>13380.057074142576</v>
+        <v>12611.311388715332</v>
       </c>
       <c r="AB1289" s="20">
-        <v>17.572246587722681</v>
+        <v>17.133478347153279</v>
       </c>
       <c r="AC1289" s="20">
-        <v>32.119365541711844</v>
-      </c>
-      <c r="AD1289" s="20">
-        <v>182.33706293706294</v>
+        <v>30.831908890702412</v>
       </c>
     </row>
     <row r="1290" spans="1:30" s="20" customFormat="1">
@@ -48467,37 +48447,37 @@
         <v>94</v>
       </c>
       <c r="B1290" s="5">
-        <v>35809.664200000007</v>
+        <v>35444.422000000006</v>
       </c>
       <c r="C1290" s="20">
-        <v>15.000085422768798</v>
+        <v>14.000085422768798</v>
       </c>
       <c r="D1290" s="3">
-        <v>69.435000000000002</v>
+        <v>71.518052083052083</v>
       </c>
       <c r="E1290" s="20">
-        <v>1285.8320475</v>
+        <v>1324.4070475000001</v>
       </c>
       <c r="F1290" s="20">
-        <v>16826.037147022358</v>
+        <v>15945.90946355382</v>
       </c>
       <c r="H1290" s="20">
-        <v>934.23408338265222</v>
+        <v>916.38168389459133</v>
       </c>
       <c r="J1290" s="20">
-        <v>1729.6253885833587</v>
+        <v>1649.4707055166521</v>
       </c>
       <c r="N1290" s="20">
-        <v>14162.177675056348</v>
+        <v>13380.057074142576</v>
       </c>
       <c r="AB1290" s="20">
-        <v>18.138704296099572</v>
+        <v>17.572246587722681</v>
       </c>
       <c r="AC1290" s="20">
-        <v>33.22673473678627</v>
+        <v>32.119365541711844</v>
       </c>
       <c r="AD1290" s="20">
-        <v>190.62867132867132</v>
+        <v>182.33706293706294</v>
       </c>
     </row>
     <row r="1291" spans="1:30" s="20" customFormat="1">
@@ -48505,10 +48485,10 @@
         <v>94</v>
       </c>
       <c r="B1291" s="5">
-        <v>36174.906400000007</v>
+        <v>35809.664200000007</v>
       </c>
       <c r="C1291" s="20">
-        <v>16.000085422768802</v>
+        <v>15.000085422768798</v>
       </c>
       <c r="D1291" s="3">
         <v>69.435000000000002</v>
@@ -48517,25 +48497,25 @@
         <v>1285.8320475</v>
       </c>
       <c r="F1291" s="20">
-        <v>17759.09973432386</v>
+        <v>16826.037147022358</v>
       </c>
       <c r="H1291" s="20">
-        <v>959.50887628208443</v>
+        <v>934.23408338265222</v>
       </c>
       <c r="J1291" s="20">
-        <v>1804.5964000270967</v>
+        <v>1729.6253885833587</v>
       </c>
       <c r="N1291" s="20">
-        <v>14994.994458014678</v>
+        <v>14162.177675056348</v>
       </c>
       <c r="AB1291" s="20">
-        <v>18.52347525544911</v>
+        <v>18.138704296099572</v>
       </c>
       <c r="AC1291" s="20">
-        <v>34.651343819290823</v>
+        <v>33.22673473678627</v>
       </c>
       <c r="AD1291" s="20">
-        <v>208.53286713286712</v>
+        <v>190.62867132867132</v>
       </c>
     </row>
     <row r="1292" spans="1:30" s="20" customFormat="1">
@@ -48543,10 +48523,10 @@
         <v>94</v>
       </c>
       <c r="B1292" s="5">
-        <v>36905.390800000008</v>
+        <v>36174.906400000007</v>
       </c>
       <c r="C1292" s="20">
-        <v>18.000085422768805</v>
+        <v>16.000085422768802</v>
       </c>
       <c r="D1292" s="3">
         <v>69.435000000000002</v>
@@ -48555,25 +48535,25 @@
         <v>1285.8320475</v>
       </c>
       <c r="F1292" s="20">
-        <v>19394.250349596361</v>
+        <v>17759.09973432386</v>
       </c>
       <c r="H1292" s="20">
-        <v>1000.134439007075</v>
+        <v>959.50887628208443</v>
       </c>
       <c r="J1292" s="20">
-        <v>1924.907341979381</v>
+        <v>1804.5964000270967</v>
       </c>
       <c r="N1292" s="20">
-        <v>16469.208568609905</v>
+        <v>14994.994458014678</v>
       </c>
       <c r="AB1292" s="20">
-        <v>19.172698393708853</v>
+        <v>18.52347525544911</v>
       </c>
       <c r="AC1292" s="20">
-        <v>37.122876751721492</v>
+        <v>34.651343819290823</v>
       </c>
       <c r="AD1292" s="20">
-        <v>251.39020979020978</v>
+        <v>208.53286713286712</v>
       </c>
     </row>
     <row r="1293" spans="1:30" s="20" customFormat="1">
@@ -48581,37 +48561,37 @@
         <v>94</v>
       </c>
       <c r="B1293" s="5">
-        <v>38366.359600000011</v>
+        <v>36905.390800000008</v>
       </c>
       <c r="C1293" s="20">
-        <v>22.000085422768809</v>
+        <v>18.000085422768805</v>
       </c>
       <c r="D1293" s="3">
-        <v>62.49156249156249</v>
+        <v>69.435000000000002</v>
       </c>
       <c r="E1293" s="20">
-        <v>1157.25</v>
+        <v>1285.8320475</v>
       </c>
       <c r="F1293" s="20">
-        <v>21997.481933069801</v>
+        <v>19394.250349596361</v>
       </c>
       <c r="H1293" s="20">
-        <v>1046.7786911092576</v>
+        <v>1000.134439007075</v>
       </c>
       <c r="J1293" s="20">
-        <v>2141.2228493011398</v>
+        <v>1924.907341979381</v>
       </c>
       <c r="N1293" s="20">
-        <v>18809.480392659403</v>
+        <v>16469.208568609905</v>
       </c>
       <c r="AB1293" s="20">
-        <v>20.926157168669477</v>
+        <v>19.172698393708853</v>
       </c>
       <c r="AC1293" s="20">
-        <v>39.801281184414066</v>
+        <v>37.122876751721492</v>
       </c>
       <c r="AD1293" s="20">
-        <v>305.06503496503495</v>
+        <v>251.39020979020978</v>
       </c>
     </row>
     <row r="1294" spans="1:30" s="20" customFormat="1">
@@ -48619,54 +48599,75 @@
         <v>94</v>
       </c>
       <c r="B1294" s="5">
-        <v>39462.086200000012</v>
+        <v>38366.359600000011</v>
       </c>
       <c r="C1294" s="20">
-        <v>25.000085422768816</v>
+        <v>22.000085422768809</v>
       </c>
       <c r="D1294" s="3">
-        <v>59.714229149229162</v>
+        <v>62.49156249156249</v>
       </c>
       <c r="E1294" s="20">
-        <v>1105.8179525</v>
+        <v>1157.25</v>
       </c>
       <c r="F1294" s="20">
-        <v>23250.815097807616</v>
+        <v>21997.481933069801</v>
       </c>
       <c r="H1294" s="20">
-        <v>1060.6707621558141</v>
+        <v>1046.7786911092576</v>
       </c>
       <c r="J1294" s="20">
-        <v>2210.5382285326023</v>
+        <v>2141.2228493011398</v>
       </c>
       <c r="N1294" s="20">
-        <v>19979.606107119202</v>
+        <v>18809.480392659403</v>
       </c>
       <c r="AB1294" s="20">
-        <v>21.755570496371213</v>
+        <v>20.926157168669477</v>
       </c>
       <c r="AC1294" s="20">
-        <v>41.10697186414663</v>
+        <v>39.801281184414066</v>
       </c>
       <c r="AD1294" s="20">
-        <v>359.50909090909084</v>
+        <v>305.06503496503495</v>
       </c>
     </row>
     <row r="1295" spans="1:30" s="20" customFormat="1">
       <c r="A1295" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1295" s="5">
-        <v>30331</v>
+        <v>39462.086200000012</v>
       </c>
       <c r="C1295" s="20">
-        <v>0</v>
+        <v>25.000085422768816</v>
       </c>
       <c r="D1295" s="3">
-        <v>100</v>
+        <v>59.714229149229162</v>
       </c>
       <c r="E1295" s="20">
-        <v>1851.85</v>
+        <v>1105.8179525</v>
+      </c>
+      <c r="F1295" s="20">
+        <v>23250.815097807616</v>
+      </c>
+      <c r="H1295" s="20">
+        <v>1060.6707621558141</v>
+      </c>
+      <c r="J1295" s="20">
+        <v>2210.5382285326023</v>
+      </c>
+      <c r="N1295" s="20">
+        <v>19979.606107119202</v>
+      </c>
+      <c r="AB1295" s="20">
+        <v>21.755570496371213</v>
+      </c>
+      <c r="AC1295" s="20">
+        <v>41.10697186414663</v>
+      </c>
+      <c r="AD1295" s="20">
+        <v>359.50909090909084</v>
       </c>
     </row>
     <row r="1296" spans="1:30" s="20" customFormat="1">
@@ -48674,37 +48675,16 @@
         <v>95</v>
       </c>
       <c r="B1296" s="5">
-        <v>31792</v>
+        <v>30331</v>
       </c>
       <c r="C1296" s="20">
-        <v>4.0000854227687812</v>
+        <v>0</v>
       </c>
       <c r="D1296" s="3">
-        <v>73.601104166104179</v>
+        <v>100</v>
       </c>
       <c r="E1296" s="20">
-        <v>1362.9820475000001</v>
-      </c>
-      <c r="F1296" s="20">
-        <v>2235.6036273879886</v>
-      </c>
-      <c r="H1296" s="20">
-        <v>381.54198974785595</v>
-      </c>
-      <c r="J1296" s="20">
-        <v>226.40433184242821</v>
-      </c>
-      <c r="N1296" s="20">
-        <v>1627.6573057977046</v>
-      </c>
-      <c r="AB1296" s="20">
-        <v>8.0197727713436588</v>
-      </c>
-      <c r="AC1296" s="20">
-        <v>6.8850192556867116</v>
-      </c>
-      <c r="AD1296" s="20">
-        <v>16.481118881118881</v>
+        <v>1851.85</v>
       </c>
     </row>
     <row r="1297" spans="1:30" s="20" customFormat="1">
@@ -48712,34 +48692,37 @@
         <v>95</v>
       </c>
       <c r="B1297" s="5">
-        <v>32157.242200000001</v>
+        <v>31792</v>
       </c>
       <c r="C1297" s="20">
-        <v>5.000085422768783</v>
+        <v>4.0000854227687812</v>
       </c>
       <c r="D1297" s="3">
-        <v>74.295593730593737</v>
+        <v>73.601104166104179</v>
       </c>
       <c r="E1297" s="20">
-        <v>1375.8429524999999</v>
+        <v>1362.9820475000001</v>
       </c>
       <c r="F1297" s="20">
-        <v>3515.3455302197935</v>
+        <v>2235.6036273879886</v>
       </c>
       <c r="H1297" s="20">
-        <v>455.79211469679967</v>
+        <v>381.54198974785595</v>
       </c>
       <c r="J1297" s="20">
-        <v>370.03170365585532</v>
+        <v>226.40433184242821</v>
       </c>
       <c r="N1297" s="20">
-        <v>2689.5217118671385</v>
+        <v>1627.6573057977046</v>
       </c>
       <c r="AB1297" s="20">
-        <v>9.6114032467072743</v>
+        <v>8.0197727713436588</v>
       </c>
       <c r="AC1297" s="20">
-        <v>9.9823629746972617</v>
+        <v>6.8850192556867116</v>
+      </c>
+      <c r="AD1297" s="20">
+        <v>16.481118881118881</v>
       </c>
     </row>
     <row r="1298" spans="1:30" s="20" customFormat="1">
@@ -48747,10 +48730,10 @@
         <v>95</v>
       </c>
       <c r="B1298" s="5">
-        <v>32522.484400000001</v>
+        <v>32157.242200000001</v>
       </c>
       <c r="C1298" s="20">
-        <v>6.0000854227687848</v>
+        <v>5.000085422768783</v>
       </c>
       <c r="D1298" s="3">
         <v>74.295593730593737</v>
@@ -48759,25 +48742,22 @@
         <v>1375.8429524999999</v>
       </c>
       <c r="F1298" s="20">
-        <v>5056.7093912138416</v>
+        <v>3515.3455302197935</v>
       </c>
       <c r="H1298" s="20">
-        <v>532.39893355452</v>
+        <v>455.79211469679967</v>
       </c>
       <c r="J1298" s="20">
-        <v>544.29504842044355</v>
+        <v>370.03170365585532</v>
       </c>
       <c r="N1298" s="20">
-        <v>3980.0154092388775</v>
+        <v>2689.5217118671385</v>
       </c>
       <c r="AB1298" s="20">
-        <v>11.099744937119493</v>
+        <v>9.6114032467072743</v>
       </c>
       <c r="AC1298" s="20">
-        <v>13.313301239196765</v>
-      </c>
-      <c r="AD1298" s="20">
-        <v>46.54195804195804</v>
+        <v>9.9823629746972617</v>
       </c>
     </row>
     <row r="1299" spans="1:30" s="20" customFormat="1">
@@ -48785,34 +48765,37 @@
         <v>95</v>
       </c>
       <c r="B1299" s="5">
-        <v>32887.726600000002</v>
+        <v>32522.484400000001</v>
       </c>
       <c r="C1299" s="20">
-        <v>7.0000854227687865</v>
+        <v>6.0000854227687848</v>
       </c>
       <c r="D1299" s="3">
-        <v>73.601104166104179</v>
+        <v>74.295593730593737</v>
       </c>
       <c r="E1299" s="20">
-        <v>1362.9820475000001</v>
+        <v>1375.8429524999999</v>
       </c>
       <c r="F1299" s="20">
-        <v>6678.5512807322448</v>
+        <v>5056.7093912138416</v>
       </c>
       <c r="H1299" s="20">
-        <v>602.46782568411561</v>
+        <v>532.39893355452</v>
       </c>
       <c r="J1299" s="20">
-        <v>726.59847074059576</v>
+        <v>544.29504842044355</v>
       </c>
       <c r="N1299" s="20">
-        <v>5349.4849843075335</v>
+        <v>3980.0154092388775</v>
       </c>
       <c r="AB1299" s="20">
-        <v>12.41620287989806</v>
+        <v>11.099744937119493</v>
       </c>
       <c r="AC1299" s="20">
-        <v>16.502837874191382</v>
+        <v>13.313301239196765</v>
+      </c>
+      <c r="AD1299" s="20">
+        <v>46.54195804195804</v>
       </c>
     </row>
     <row r="1300" spans="1:30" s="20" customFormat="1">
@@ -48820,34 +48803,34 @@
         <v>95</v>
       </c>
       <c r="B1300" s="5">
-        <v>33618.211000000003</v>
+        <v>32887.726600000002</v>
       </c>
       <c r="C1300" s="20">
-        <v>9.0000854227687892</v>
+        <v>7.0000854227687865</v>
       </c>
       <c r="D1300" s="3">
-        <v>70.823770823770829</v>
+        <v>73.601104166104179</v>
       </c>
       <c r="E1300" s="20">
-        <v>1311.55</v>
+        <v>1362.9820475000001</v>
       </c>
       <c r="F1300" s="20">
-        <v>9319.3344061426596</v>
+        <v>6678.5512807322448</v>
       </c>
       <c r="H1300" s="20">
-        <v>691.64195327458322</v>
+        <v>602.46782568411561</v>
       </c>
       <c r="J1300" s="20">
-        <v>1006.4089448139855</v>
+        <v>726.59847074059576</v>
       </c>
       <c r="N1300" s="20">
-        <v>7621.2835080540899</v>
+        <v>5349.4849843075335</v>
       </c>
       <c r="AB1300" s="20">
-        <v>14.341440632076894</v>
+        <v>12.41620287989806</v>
       </c>
       <c r="AC1300" s="20">
-        <v>21.186601968561359</v>
+        <v>16.502837874191382</v>
       </c>
     </row>
     <row r="1301" spans="1:30" s="20" customFormat="1">
@@ -48855,10 +48838,10 @@
         <v>95</v>
       </c>
       <c r="B1301" s="5">
-        <v>33983.453200000004</v>
+        <v>33618.211000000003</v>
       </c>
       <c r="C1301" s="20">
-        <v>10.000085422768791</v>
+        <v>9.0000854227687892</v>
       </c>
       <c r="D1301" s="3">
         <v>70.823770823770829</v>
@@ -48867,22 +48850,22 @@
         <v>1311.55</v>
       </c>
       <c r="F1301" s="20">
-        <v>10971.508976357081</v>
+        <v>9319.3344061426596</v>
       </c>
       <c r="H1301" s="20">
-        <v>754.59694542726561</v>
+        <v>691.64195327458322</v>
       </c>
       <c r="J1301" s="20">
-        <v>1182.8032012925535</v>
+        <v>1006.4089448139855</v>
       </c>
       <c r="N1301" s="20">
-        <v>9034.1088296372618</v>
+        <v>7621.2835080540899</v>
       </c>
       <c r="AB1301" s="20">
-        <v>15.265958516858916</v>
+        <v>14.341440632076894</v>
       </c>
       <c r="AC1301" s="20">
-        <v>24.006226785346101</v>
+        <v>21.186601968561359</v>
       </c>
     </row>
     <row r="1302" spans="1:30" s="20" customFormat="1">
@@ -48890,37 +48873,34 @@
         <v>95</v>
       </c>
       <c r="B1302" s="5">
-        <v>34348.695400000004</v>
+        <v>33983.453200000004</v>
       </c>
       <c r="C1302" s="20">
-        <v>11.000085422768793</v>
+        <v>10.000085422768791</v>
       </c>
       <c r="D1302" s="3">
-        <v>69.435000000000002</v>
+        <v>70.823770823770829</v>
       </c>
       <c r="E1302" s="20">
-        <v>1285.8320475</v>
+        <v>1311.55</v>
       </c>
       <c r="F1302" s="20">
-        <v>12133.227552322265</v>
+        <v>10971.508976357081</v>
       </c>
       <c r="H1302" s="20">
-        <v>787.5464311158936</v>
+        <v>754.59694542726561</v>
       </c>
       <c r="J1302" s="20">
-        <v>1297.9513541617837</v>
+        <v>1182.8032012925535</v>
       </c>
       <c r="N1302" s="20">
-        <v>10047.729767044588</v>
+        <v>9034.1088296372618</v>
       </c>
       <c r="AB1302" s="20">
-        <v>15.990004726108412</v>
+        <v>15.265958516858916</v>
       </c>
       <c r="AC1302" s="20">
-        <v>25.820956549580885</v>
-      </c>
-      <c r="AD1302" s="20">
-        <v>98.916083916083906</v>
+        <v>24.006226785346101</v>
       </c>
     </row>
     <row r="1303" spans="1:30" s="20" customFormat="1">
@@ -48928,34 +48908,37 @@
         <v>95</v>
       </c>
       <c r="B1303" s="5">
-        <v>35079.179800000005</v>
+        <v>34348.695400000004</v>
       </c>
       <c r="C1303" s="20">
-        <v>13.000085422768796</v>
+        <v>11.000085422768793</v>
       </c>
       <c r="D1303" s="3">
-        <v>64.574614574614571</v>
+        <v>69.435000000000002</v>
       </c>
       <c r="E1303" s="20">
-        <v>1195.825</v>
+        <v>1285.8320475</v>
       </c>
       <c r="F1303" s="20">
-        <v>14171.381639115298</v>
+        <v>12133.227552322265</v>
       </c>
       <c r="H1303" s="20">
-        <v>834.86215913964475</v>
+        <v>787.5464311158936</v>
       </c>
       <c r="J1303" s="20">
-        <v>1501.8292892885233</v>
+        <v>1297.9513541617837</v>
       </c>
       <c r="N1303" s="20">
-        <v>11834.69019068713</v>
+        <v>10047.729767044588</v>
       </c>
       <c r="AB1303" s="20">
-        <v>17.439761682204747</v>
+        <v>15.990004726108412</v>
       </c>
       <c r="AC1303" s="20">
-        <v>28.565354450889505</v>
+        <v>25.820956549580885</v>
+      </c>
+      <c r="AD1303" s="20">
+        <v>98.916083916083906</v>
       </c>
     </row>
     <row r="1304" spans="1:30" s="20" customFormat="1">
@@ -48963,10 +48946,10 @@
         <v>95</v>
       </c>
       <c r="B1304" s="5">
-        <v>35444.422000000006</v>
+        <v>35079.179800000005</v>
       </c>
       <c r="C1304" s="20">
-        <v>14.000085422768798</v>
+        <v>13.000085422768796</v>
       </c>
       <c r="D1304" s="3">
         <v>64.574614574614571</v>
@@ -48975,25 +48958,22 @@
         <v>1195.825</v>
       </c>
       <c r="F1304" s="20">
-        <v>15000.231979476106</v>
+        <v>14171.381639115298</v>
       </c>
       <c r="H1304" s="20">
-        <v>855.93933875212531</v>
+        <v>834.86215913964475</v>
       </c>
       <c r="J1304" s="20">
-        <v>1566.8415442420585</v>
+        <v>1501.8292892885233</v>
       </c>
       <c r="N1304" s="20">
-        <v>12577.451096481922</v>
+        <v>11834.69019068713</v>
       </c>
       <c r="AB1304" s="20">
-        <v>17.834119191995864</v>
+        <v>17.439761682204747</v>
       </c>
       <c r="AC1304" s="20">
-        <v>29.871831801046888</v>
-      </c>
-      <c r="AD1304" s="20">
-        <v>171.84965034965032</v>
+        <v>28.565354450889505</v>
       </c>
     </row>
     <row r="1305" spans="1:30" s="20" customFormat="1">
@@ -49001,10 +48981,10 @@
         <v>95</v>
       </c>
       <c r="B1305" s="5">
-        <v>35809.664200000007</v>
+        <v>35444.422000000006</v>
       </c>
       <c r="C1305" s="20">
-        <v>15.000085422768798</v>
+        <v>14.000085422768798</v>
       </c>
       <c r="D1305" s="3">
         <v>64.574614574614571</v>
@@ -49013,25 +48993,25 @@
         <v>1195.825</v>
       </c>
       <c r="F1305" s="20">
-        <v>15852.542564680289</v>
+        <v>15000.231979476106</v>
       </c>
       <c r="H1305" s="20">
-        <v>878.39889236884756</v>
+        <v>855.93933875212531</v>
       </c>
       <c r="J1305" s="20">
-        <v>1634.6320762978771</v>
+        <v>1566.8415442420585</v>
       </c>
       <c r="N1305" s="20">
-        <v>13339.511596013563</v>
+        <v>12577.451096481922</v>
       </c>
       <c r="AB1305" s="20">
-        <v>18.223693921537549</v>
+        <v>17.834119191995864</v>
       </c>
       <c r="AC1305" s="20">
-        <v>31.191147367939912</v>
+        <v>29.871831801046888</v>
       </c>
       <c r="AD1305" s="20">
-        <v>179.31678321678322</v>
+        <v>171.84965034965032</v>
       </c>
     </row>
     <row r="1306" spans="1:30" s="20" customFormat="1">
@@ -49039,10 +49019,10 @@
         <v>95</v>
       </c>
       <c r="B1306" s="5">
-        <v>36174.906400000007</v>
+        <v>35809.664200000007</v>
       </c>
       <c r="C1306" s="20">
-        <v>16.000085422768802</v>
+        <v>15.000085422768798</v>
       </c>
       <c r="D1306" s="3">
         <v>64.574614574614571</v>
@@ -49051,25 +49031,25 @@
         <v>1195.825</v>
       </c>
       <c r="F1306" s="20">
-        <v>17290.89827431404</v>
+        <v>15852.542564680289</v>
       </c>
       <c r="H1306" s="20">
-        <v>928.27561619497851</v>
+        <v>878.39889236884756</v>
       </c>
       <c r="J1306" s="20">
-        <v>1776.623328744018</v>
+        <v>1634.6320762978771</v>
       </c>
       <c r="N1306" s="20">
-        <v>14585.999329375045</v>
+        <v>13339.511596013563</v>
       </c>
       <c r="AB1306" s="20">
-        <v>18.831639991142762</v>
+        <v>18.223693921537549</v>
       </c>
       <c r="AC1306" s="20">
-        <v>33.306945901112698</v>
+        <v>31.191147367939912</v>
       </c>
       <c r="AD1306" s="20">
-        <v>197.68811188811188</v>
+        <v>179.31678321678322</v>
       </c>
     </row>
     <row r="1307" spans="1:30" s="20" customFormat="1">
@@ -49077,37 +49057,37 @@
         <v>95</v>
       </c>
       <c r="B1307" s="5">
-        <v>36905.390800000008</v>
+        <v>36174.906400000007</v>
       </c>
       <c r="C1307" s="20">
-        <v>18.000085422768805</v>
+        <v>16.000085422768802</v>
       </c>
       <c r="D1307" s="3">
-        <v>62.49156249156249</v>
+        <v>64.574614574614571</v>
       </c>
       <c r="E1307" s="20">
-        <v>1157.25</v>
+        <v>1195.825</v>
       </c>
       <c r="F1307" s="20">
-        <v>18245.186477550418</v>
+        <v>17290.89827431404</v>
       </c>
       <c r="H1307" s="20">
-        <v>936.05675688796896</v>
+        <v>928.27561619497851</v>
       </c>
       <c r="J1307" s="20">
-        <v>1830.6471045492501</v>
+        <v>1776.623328744018</v>
       </c>
       <c r="N1307" s="20">
-        <v>15478.482616113199</v>
+        <v>14585.999329375045</v>
       </c>
       <c r="AB1307" s="20">
-        <v>19.480228774366228</v>
+        <v>18.831639991142762</v>
       </c>
       <c r="AC1307" s="20">
-        <v>34.491032251723539</v>
+        <v>33.306945901112698</v>
       </c>
       <c r="AD1307" s="20">
-        <v>233.97062937062938</v>
+        <v>197.68811188811188</v>
       </c>
     </row>
     <row r="1308" spans="1:30" s="20" customFormat="1">
@@ -49115,37 +49095,37 @@
         <v>95</v>
       </c>
       <c r="B1308" s="5">
-        <v>38366.359600000011</v>
+        <v>36905.390800000008</v>
       </c>
       <c r="C1308" s="20">
-        <v>22.000085422768809</v>
+        <v>18.000085422768805</v>
       </c>
       <c r="D1308" s="3">
-        <v>43.049812484812485</v>
+        <v>62.49156249156249</v>
       </c>
       <c r="E1308" s="20">
-        <v>797.21795249999991</v>
+        <v>1157.25</v>
       </c>
       <c r="F1308" s="20">
-        <v>17348.505216398604</v>
+        <v>18245.186477550418</v>
       </c>
       <c r="H1308" s="20">
-        <v>820.82646187594003</v>
+        <v>936.05675688796896</v>
       </c>
       <c r="J1308" s="20">
-        <v>1748.0102032622551</v>
+        <v>1830.6471045492501</v>
       </c>
       <c r="N1308" s="20">
-        <v>14779.668551260407</v>
+        <v>15478.482616113199</v>
       </c>
       <c r="AB1308" s="20">
-        <v>21.962360773484836</v>
+        <v>19.480228774366228</v>
       </c>
       <c r="AC1308" s="20">
-        <v>30.201325892216051</v>
+        <v>34.491032251723539</v>
       </c>
       <c r="AD1308" s="20">
-        <v>239.58041958041957</v>
+        <v>233.97062937062938</v>
       </c>
     </row>
     <row r="1309" spans="1:30" s="20" customFormat="1">
@@ -49153,54 +49133,75 @@
         <v>95</v>
       </c>
       <c r="B1309" s="5">
-        <v>39462.086200000012</v>
+        <v>38366.359600000011</v>
       </c>
       <c r="C1309" s="20">
-        <v>25.000085422768816</v>
+        <v>22.000085422768809</v>
       </c>
       <c r="D1309" s="3">
-        <v>36.106166671166676</v>
+        <v>43.049812484812485</v>
       </c>
       <c r="E1309" s="20">
-        <v>668.6320475</v>
+        <v>797.21795249999991</v>
       </c>
       <c r="F1309" s="20">
-        <v>16832.32149669695</v>
+        <v>17348.505216398604</v>
       </c>
       <c r="H1309" s="20">
-        <v>766.99865091475169</v>
+        <v>820.82646187594003</v>
       </c>
       <c r="J1309" s="20">
-        <v>1677.2500227380901</v>
+        <v>1748.0102032622551</v>
       </c>
       <c r="N1309" s="20">
-        <v>14388.072823044107</v>
+        <v>14779.668551260407</v>
       </c>
       <c r="AB1309" s="20">
-        <v>23.198326555253892</v>
+        <v>21.962360773484836</v>
       </c>
       <c r="AC1309" s="20">
-        <v>28.261252190931465</v>
+        <v>30.201325892216051</v>
       </c>
       <c r="AD1309" s="20">
-        <v>255.97622377622378</v>
+        <v>239.58041958041957</v>
       </c>
     </row>
     <row r="1310" spans="1:30" s="20" customFormat="1">
       <c r="A1310" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1310" s="5">
-        <v>30331</v>
+        <v>39462.086200000012</v>
       </c>
       <c r="C1310" s="20">
-        <v>0</v>
+        <v>25.000085422768816</v>
       </c>
       <c r="D1310" s="3">
-        <v>100</v>
+        <v>36.106166671166676</v>
       </c>
       <c r="E1310" s="20">
-        <v>1851.85</v>
+        <v>668.6320475</v>
+      </c>
+      <c r="F1310" s="20">
+        <v>16832.32149669695</v>
+      </c>
+      <c r="H1310" s="20">
+        <v>766.99865091475169</v>
+      </c>
+      <c r="J1310" s="20">
+        <v>1677.2500227380901</v>
+      </c>
+      <c r="N1310" s="20">
+        <v>14388.072823044107</v>
+      </c>
+      <c r="AB1310" s="20">
+        <v>23.198326555253892</v>
+      </c>
+      <c r="AC1310" s="20">
+        <v>28.261252190931465</v>
+      </c>
+      <c r="AD1310" s="20">
+        <v>255.97622377622378</v>
       </c>
     </row>
     <row r="1311" spans="1:30" s="20" customFormat="1">
@@ -49208,37 +49209,16 @@
         <v>96</v>
       </c>
       <c r="B1311" s="5">
-        <v>31792</v>
+        <v>30331</v>
       </c>
       <c r="C1311" s="20">
-        <v>4.0000854227687812</v>
+        <v>0</v>
       </c>
       <c r="D1311" s="3">
-        <v>74.295593730593737</v>
+        <v>100</v>
       </c>
       <c r="E1311" s="20">
-        <v>1375.8429524999999</v>
-      </c>
-      <c r="F1311" s="20">
-        <v>4089.9334505941533</v>
-      </c>
-      <c r="H1311" s="20">
-        <v>530.49085484098055</v>
-      </c>
-      <c r="J1311" s="20">
-        <v>481.99863574651425</v>
-      </c>
-      <c r="N1311" s="20">
-        <v>3077.4439600066585</v>
-      </c>
-      <c r="AB1311" s="20">
-        <v>10.09908914494874</v>
-      </c>
-      <c r="AC1311" s="20">
-        <v>11.021080435102153</v>
-      </c>
-      <c r="AD1311" s="20">
-        <v>28.344125874125876</v>
+        <v>1851.85</v>
       </c>
     </row>
     <row r="1312" spans="1:30" s="20" customFormat="1">
@@ -49246,34 +49226,37 @@
         <v>96</v>
       </c>
       <c r="B1312" s="5">
-        <v>32157.242200000001</v>
+        <v>31792</v>
       </c>
       <c r="C1312" s="20">
-        <v>5.000085422768783</v>
+        <v>4.0000854227687812</v>
       </c>
       <c r="D1312" s="3">
-        <v>71.518052083052083</v>
+        <v>74.295593730593737</v>
       </c>
       <c r="E1312" s="20">
-        <v>1324.4070475000001</v>
+        <v>1375.8429524999999</v>
       </c>
       <c r="F1312" s="20">
-        <v>6195.6094581355655</v>
+        <v>4089.9334505941533</v>
       </c>
       <c r="H1312" s="20">
-        <v>628.07583454612154</v>
+        <v>530.49085484098055</v>
       </c>
       <c r="J1312" s="20">
-        <v>751.79021160705986</v>
+        <v>481.99863574651425</v>
       </c>
       <c r="N1312" s="20">
-        <v>4815.7434119823838</v>
+        <v>3077.4439600066585</v>
       </c>
       <c r="AB1312" s="20">
-        <v>12.072582975170516</v>
+        <v>10.09908914494874</v>
       </c>
       <c r="AC1312" s="20">
-        <v>15.16047393231176</v>
+        <v>11.021080435102153</v>
+      </c>
+      <c r="AD1312" s="20">
+        <v>28.344125874125876</v>
       </c>
     </row>
     <row r="1313" spans="1:30" s="20" customFormat="1">
@@ -49281,37 +49264,34 @@
         <v>96</v>
       </c>
       <c r="B1313" s="5">
-        <v>32522.484400000001</v>
+        <v>32157.242200000001</v>
       </c>
       <c r="C1313" s="20">
-        <v>6.0000854227687848</v>
+        <v>5.000085422768783</v>
       </c>
       <c r="D1313" s="3">
-        <v>70.12948956448956</v>
+        <v>71.518052083052083</v>
       </c>
       <c r="E1313" s="20">
-        <v>1298.6929525</v>
+        <v>1324.4070475000001</v>
       </c>
       <c r="F1313" s="20">
-        <v>8577.0637578807546</v>
+        <v>6195.6094581355655</v>
       </c>
       <c r="H1313" s="20">
-        <v>733.51424055735447</v>
+        <v>628.07583454612154</v>
       </c>
       <c r="J1313" s="20">
-        <v>1055.2924651240505</v>
+        <v>751.79021160705986</v>
       </c>
       <c r="N1313" s="20">
-        <v>6788.2570521993493</v>
+        <v>4815.7434119823838</v>
       </c>
       <c r="AB1313" s="20">
-        <v>13.794243966290811</v>
+        <v>12.072582975170516</v>
       </c>
       <c r="AC1313" s="20">
-        <v>19.408554262026943</v>
-      </c>
-      <c r="AD1313" s="20">
-        <v>71.69510489510489</v>
+        <v>15.16047393231176</v>
       </c>
     </row>
     <row r="1314" spans="1:30" s="20" customFormat="1">
@@ -49319,10 +49299,10 @@
         <v>96</v>
       </c>
       <c r="B1314" s="5">
-        <v>32887.726600000002</v>
+        <v>32522.484400000001</v>
       </c>
       <c r="C1314" s="20">
-        <v>7.0000854227687865</v>
+        <v>6.0000854227687848</v>
       </c>
       <c r="D1314" s="3">
         <v>70.12948956448956</v>
@@ -49331,22 +49311,25 @@
         <v>1298.6929525</v>
       </c>
       <c r="F1314" s="20">
-        <v>10720.138829400246</v>
+        <v>8577.0637578807546</v>
       </c>
       <c r="H1314" s="20">
-        <v>821.88793199569648</v>
+        <v>733.51424055735447</v>
       </c>
       <c r="J1314" s="20">
-        <v>1312.7520505208936</v>
+        <v>1055.2924651240505</v>
       </c>
       <c r="N1314" s="20">
-        <v>8585.4988468836564</v>
+        <v>6788.2570521993493</v>
       </c>
       <c r="AB1314" s="20">
-        <v>15.037307080291844</v>
+        <v>13.794243966290811</v>
       </c>
       <c r="AC1314" s="20">
-        <v>23.064153406689265</v>
+        <v>19.408554262026943</v>
+      </c>
+      <c r="AD1314" s="20">
+        <v>71.69510489510489</v>
       </c>
     </row>
     <row r="1315" spans="1:30" s="20" customFormat="1">
@@ -49354,34 +49337,34 @@
         <v>96</v>
       </c>
       <c r="B1315" s="5">
-        <v>33618.211000000003</v>
+        <v>32887.726600000002</v>
       </c>
       <c r="C1315" s="20">
-        <v>9.0000854227687892</v>
+        <v>7.0000854227687865</v>
       </c>
       <c r="D1315" s="3">
-        <v>69.435000000000002</v>
+        <v>70.12948956448956</v>
       </c>
       <c r="E1315" s="20">
-        <v>1285.8320475</v>
+        <v>1298.6929525</v>
       </c>
       <c r="F1315" s="20">
-        <v>13906.665146561496</v>
+        <v>10720.138829400246</v>
       </c>
       <c r="H1315" s="20">
-        <v>929.07095633693848</v>
+        <v>821.88793199569648</v>
       </c>
       <c r="J1315" s="20">
-        <v>1653.5945592494368</v>
+        <v>1312.7520505208936</v>
       </c>
       <c r="N1315" s="20">
-        <v>11323.99963097512</v>
+        <v>8585.4988468836564</v>
       </c>
       <c r="AB1315" s="20">
-        <v>16.708046463733069</v>
+        <v>15.037307080291844</v>
       </c>
       <c r="AC1315" s="20">
-        <v>28.192039246595982</v>
+        <v>23.064153406689265</v>
       </c>
     </row>
     <row r="1316" spans="1:30" s="20" customFormat="1">
@@ -49389,34 +49372,34 @@
         <v>96</v>
       </c>
       <c r="B1316" s="5">
-        <v>33983.453200000004</v>
+        <v>33618.211000000003</v>
       </c>
       <c r="C1316" s="20">
-        <v>10.000085422768791</v>
+        <v>9.0000854227687892</v>
       </c>
       <c r="D1316" s="3">
-        <v>68.046437481437479</v>
+        <v>69.435000000000002</v>
       </c>
       <c r="E1316" s="20">
-        <v>1260.1179525</v>
+        <v>1285.8320475</v>
       </c>
       <c r="F1316" s="20">
-        <v>15790.741337463691</v>
+        <v>13906.665146561496</v>
       </c>
       <c r="H1316" s="20">
-        <v>994.48639806585766</v>
+        <v>929.07095633693848</v>
       </c>
       <c r="J1316" s="20">
-        <v>1869.3910238213302</v>
+        <v>1653.5945592494368</v>
       </c>
       <c r="N1316" s="20">
-        <v>12926.863915576503</v>
+        <v>11323.99963097512</v>
       </c>
       <c r="AB1316" s="20">
-        <v>17.671299953256511</v>
+        <v>16.708046463733069</v>
       </c>
       <c r="AC1316" s="20">
-        <v>30.905736188824605</v>
+        <v>28.192039246595982</v>
       </c>
     </row>
     <row r="1317" spans="1:30" s="20" customFormat="1">
@@ -49424,37 +49407,34 @@
         <v>96</v>
       </c>
       <c r="B1317" s="5">
-        <v>34348.695400000004</v>
+        <v>33983.453200000004</v>
       </c>
       <c r="C1317" s="20">
-        <v>11.000085422768793</v>
+        <v>10.000085422768791</v>
       </c>
       <c r="D1317" s="3">
-        <v>66.657666657666667</v>
+        <v>68.046437481437479</v>
       </c>
       <c r="E1317" s="20">
-        <v>1234.4000000000001</v>
+        <v>1260.1179525</v>
       </c>
       <c r="F1317" s="20">
-        <v>17275.011230086711</v>
+        <v>15790.741337463691</v>
       </c>
       <c r="H1317" s="20">
-        <v>1039.4629009709449</v>
+        <v>994.48639806585766</v>
       </c>
       <c r="J1317" s="20">
-        <v>2026.5908622146276</v>
+        <v>1869.3910238213302</v>
       </c>
       <c r="N1317" s="20">
-        <v>14208.957466901138</v>
+        <v>12926.863915576503</v>
       </c>
       <c r="AB1317" s="20">
-        <v>18.435071916132536</v>
+        <v>17.671299953256511</v>
       </c>
       <c r="AC1317" s="20">
-        <v>32.94856330499092</v>
-      </c>
-      <c r="AD1317" s="20">
-        <v>131.49160839160837</v>
+        <v>30.905736188824605</v>
       </c>
     </row>
     <row r="1318" spans="1:30" s="20" customFormat="1">
@@ -49462,34 +49442,37 @@
         <v>96</v>
       </c>
       <c r="B1318" s="5">
-        <v>35079.179800000005</v>
+        <v>34348.695400000004</v>
       </c>
       <c r="C1318" s="20">
-        <v>13.000085422768796</v>
+        <v>11.000085422768793</v>
       </c>
       <c r="D1318" s="3">
-        <v>65.26889583389584</v>
+        <v>66.657666657666667</v>
       </c>
       <c r="E1318" s="20">
-        <v>1208.6820475</v>
+        <v>1234.4000000000001</v>
       </c>
       <c r="F1318" s="20">
-        <v>19581.963600862025</v>
+        <v>17275.011230086711</v>
       </c>
       <c r="H1318" s="20">
-        <v>1101.4198247785432</v>
+        <v>1039.4629009709449</v>
       </c>
       <c r="J1318" s="20">
-        <v>2236.2822974030546</v>
+        <v>2026.5908622146276</v>
       </c>
       <c r="N1318" s="20">
-        <v>16244.26147868043</v>
+        <v>14208.957466901138</v>
       </c>
       <c r="AB1318" s="20">
-        <v>19.514642524863163</v>
+        <v>18.435071916132536</v>
       </c>
       <c r="AC1318" s="20">
-        <v>36.151320785925847</v>
+        <v>32.94856330499092</v>
+      </c>
+      <c r="AD1318" s="20">
+        <v>131.49160839160837</v>
       </c>
     </row>
     <row r="1319" spans="1:30" s="20" customFormat="1">
@@ -49497,37 +49480,34 @@
         <v>96</v>
       </c>
       <c r="B1319" s="5">
-        <v>35444.422000000006</v>
+        <v>35079.179800000005</v>
       </c>
       <c r="C1319" s="20">
-        <v>14.000085422768798</v>
+        <v>13.000085422768796</v>
       </c>
       <c r="D1319" s="3">
-        <v>64.574614574614571</v>
+        <v>65.26889583389584</v>
       </c>
       <c r="E1319" s="20">
-        <v>1195.825</v>
+        <v>1208.6820475</v>
       </c>
       <c r="F1319" s="20">
-        <v>19426.064182435781</v>
+        <v>19581.963600862025</v>
       </c>
       <c r="H1319" s="20">
-        <v>1069.171863351688</v>
+        <v>1101.4198247785432</v>
       </c>
       <c r="J1319" s="20">
-        <v>2159.3392269871883</v>
+        <v>2236.2822974030546</v>
       </c>
       <c r="N1319" s="20">
-        <v>16197.553092096907</v>
+        <v>16244.26147868043</v>
       </c>
       <c r="AB1319" s="20">
-        <v>19.570744026551331</v>
+        <v>19.514642524863163</v>
       </c>
       <c r="AC1319" s="20">
-        <v>35.972713500861552</v>
-      </c>
-      <c r="AD1319" s="20">
-        <v>213.65034965034963</v>
+        <v>36.151320785925847</v>
       </c>
     </row>
     <row r="1320" spans="1:30" s="20" customFormat="1">
@@ -49535,37 +49515,37 @@
         <v>96</v>
       </c>
       <c r="B1320" s="5">
-        <v>35809.664200000007</v>
+        <v>35444.422000000006</v>
       </c>
       <c r="C1320" s="20">
-        <v>15.000085422768798</v>
+        <v>14.000085422768798</v>
       </c>
       <c r="D1320" s="3">
-        <v>63.185843750843759</v>
+        <v>64.574614574614571</v>
       </c>
       <c r="E1320" s="20">
-        <v>1170.1070475000001</v>
+        <v>1195.825</v>
       </c>
       <c r="F1320" s="20">
-        <v>20325.00434644155</v>
+        <v>19426.064182435781</v>
       </c>
       <c r="H1320" s="20">
-        <v>1089.1193692585152</v>
+        <v>1069.171863351688</v>
       </c>
       <c r="J1320" s="20">
-        <v>2237.8687128487591</v>
+        <v>2159.3392269871883</v>
       </c>
       <c r="N1320" s="20">
-        <v>16998.016264334277</v>
+        <v>16197.553092096907</v>
       </c>
       <c r="AB1320" s="20">
-        <v>20.080353798485191</v>
+        <v>19.570744026551331</v>
       </c>
       <c r="AC1320" s="20">
-        <v>37.056057609558529</v>
+        <v>35.972713500861552</v>
       </c>
       <c r="AD1320" s="20">
-        <v>214.88811188811189</v>
+        <v>213.65034965034963</v>
       </c>
     </row>
     <row r="1321" spans="1:30" s="20" customFormat="1">
@@ -49573,37 +49553,37 @@
         <v>96</v>
       </c>
       <c r="B1321" s="5">
-        <v>36174.906400000007</v>
+        <v>35809.664200000007</v>
       </c>
       <c r="C1321" s="20">
-        <v>16.000085422768802</v>
+        <v>15.000085422768798</v>
       </c>
       <c r="D1321" s="3">
-        <v>62.49156249156249</v>
+        <v>63.185843750843759</v>
       </c>
       <c r="E1321" s="20">
-        <v>1157.25</v>
+        <v>1170.1070475000001</v>
       </c>
       <c r="F1321" s="20">
-        <v>21405.530248463907</v>
+        <v>20325.00434644155</v>
       </c>
       <c r="H1321" s="20">
-        <v>1119.9030123651116</v>
+        <v>1089.1193692585152</v>
       </c>
       <c r="J1321" s="20">
-        <v>2336.2681685595567</v>
+        <v>2237.8687128487591</v>
       </c>
       <c r="N1321" s="20">
-        <v>17949.359067539241</v>
+        <v>16998.016264334277</v>
       </c>
       <c r="AB1321" s="20">
-        <v>20.569421881851127</v>
+        <v>20.080353798485191</v>
       </c>
       <c r="AC1321" s="20">
-        <v>38.455836070517897</v>
+        <v>37.056057609558529</v>
       </c>
       <c r="AD1321" s="20">
-        <v>238.85174825174823</v>
+        <v>214.88811188811189</v>
       </c>
     </row>
     <row r="1322" spans="1:30" s="20" customFormat="1">
@@ -49611,10 +49591,10 @@
         <v>96</v>
       </c>
       <c r="B1322" s="5">
-        <v>36905.390800000008</v>
+        <v>36174.906400000007</v>
       </c>
       <c r="C1322" s="20">
-        <v>18.000085422768805</v>
+        <v>16.000085422768802</v>
       </c>
       <c r="D1322" s="3">
         <v>62.49156249156249</v>
@@ -49623,25 +49603,25 @@
         <v>1157.25</v>
       </c>
       <c r="F1322" s="20">
-        <v>22904.015948083503</v>
+        <v>21405.530248463907</v>
       </c>
       <c r="H1322" s="20">
-        <v>1153.0643456574207</v>
+        <v>1119.9030123651116</v>
       </c>
       <c r="J1322" s="20">
-        <v>2431.7678194504524</v>
+        <v>2336.2681685595567</v>
       </c>
       <c r="N1322" s="20">
-        <v>19319.18378297563</v>
+        <v>17949.359067539241</v>
       </c>
       <c r="AB1322" s="20">
-        <v>21.13270640011795</v>
+        <v>20.569421881851127</v>
       </c>
       <c r="AC1322" s="20">
-        <v>40.590866755820159</v>
+        <v>38.455836070517897</v>
       </c>
       <c r="AD1322" s="20">
-        <v>283.10069930069932</v>
+        <v>238.85174825174823</v>
       </c>
     </row>
     <row r="1323" spans="1:30" s="20" customFormat="1">
@@ -49649,37 +49629,37 @@
         <v>96</v>
       </c>
       <c r="B1323" s="5">
-        <v>38366.359600000011</v>
+        <v>36905.390800000008</v>
       </c>
       <c r="C1323" s="20">
-        <v>22.000085422768809</v>
+        <v>18.000085422768805</v>
       </c>
       <c r="D1323" s="3">
-        <v>41.661041661041665</v>
+        <v>62.49156249156249</v>
       </c>
       <c r="E1323" s="20">
-        <v>771.5</v>
+        <v>1157.25</v>
       </c>
       <c r="F1323" s="20">
-        <v>21595.980742503165</v>
+        <v>22904.015948083503</v>
       </c>
       <c r="H1323" s="20">
-        <v>1024.1372563076695</v>
+        <v>1153.0643456574207</v>
       </c>
       <c r="J1323" s="20">
-        <v>2323.5541733837708</v>
+        <v>2431.7678194504524</v>
       </c>
       <c r="N1323" s="20">
-        <v>18248.289312811725</v>
+        <v>19319.18378297563</v>
       </c>
       <c r="AB1323" s="20">
-        <v>24.018392164895271</v>
+        <v>21.13270640011795</v>
       </c>
       <c r="AC1323" s="20">
-        <v>34.955433345107799</v>
+        <v>40.590866755820159</v>
       </c>
       <c r="AD1323" s="20">
-        <v>280.4328671328671</v>
+        <v>283.10069930069932</v>
       </c>
     </row>
     <row r="1324" spans="1:30" s="20" customFormat="1">
@@ -49687,55 +49667,75 @@
         <v>96</v>
       </c>
       <c r="B1324" s="5">
-        <v>39462.086200000012</v>
+        <v>38366.359600000011</v>
       </c>
       <c r="C1324" s="20">
-        <v>25.000085422768816</v>
+        <v>22.000085422768809</v>
       </c>
       <c r="D1324" s="3">
-        <v>35.411885411885414</v>
+        <v>41.661041661041665</v>
       </c>
       <c r="E1324" s="20">
-        <v>655.77499999999998</v>
+        <v>771.5</v>
       </c>
       <c r="F1324" s="20">
-        <v>21590.653775939456</v>
+        <v>21595.980742503165</v>
       </c>
       <c r="H1324" s="20">
-        <v>998.75270666650488</v>
+        <v>1024.1372563076695</v>
       </c>
       <c r="J1324" s="20">
-        <v>2311.4643584868227</v>
+        <v>2323.5541733837708</v>
       </c>
       <c r="N1324" s="20">
-        <v>18280.436710786125</v>
+        <v>18248.289312811725</v>
       </c>
       <c r="AB1324" s="20">
-        <v>25.512472850766766</v>
+        <v>24.018392164895271</v>
       </c>
       <c r="AC1324" s="20">
-        <v>33.523616528426118</v>
+        <v>34.955433345107799</v>
       </c>
       <c r="AD1324" s="20">
-        <v>311.14335664335664</v>
+        <v>280.4328671328671</v>
       </c>
     </row>
     <row r="1325" spans="1:30" s="20" customFormat="1">
       <c r="A1325" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B1325" s="5">
-        <v>30331</v>
+        <v>39462.086200000012</v>
       </c>
       <c r="C1325" s="20">
-        <v>0</v>
-      </c>
-      <c r="D1325" s="3"/>
-      <c r="T1325" s="8">
-        <v>0.58117864775479933</v>
-      </c>
-      <c r="U1325" s="8">
-        <v>1.1436711041224348</v>
+        <v>25.000085422768816</v>
+      </c>
+      <c r="D1325" s="3">
+        <v>35.411885411885414</v>
+      </c>
+      <c r="E1325" s="20">
+        <v>655.77499999999998</v>
+      </c>
+      <c r="F1325" s="20">
+        <v>21590.653775939456</v>
+      </c>
+      <c r="H1325" s="20">
+        <v>998.75270666650488</v>
+      </c>
+      <c r="J1325" s="20">
+        <v>2311.4643584868227</v>
+      </c>
+      <c r="N1325" s="20">
+        <v>18280.436710786125</v>
+      </c>
+      <c r="AB1325" s="20">
+        <v>25.512472850766766</v>
+      </c>
+      <c r="AC1325" s="20">
+        <v>33.523616528426118</v>
+      </c>
+      <c r="AD1325" s="20">
+        <v>311.14335664335664</v>
       </c>
     </row>
     <row r="1326" spans="1:30" s="20" customFormat="1">
@@ -49743,17 +49743,17 @@
         <v>89</v>
       </c>
       <c r="B1326" s="5">
-        <v>30696.242200000001</v>
+        <v>30331</v>
       </c>
       <c r="C1326" s="20">
-        <v>1.0000000000000016</v>
+        <v>0</v>
       </c>
       <c r="D1326" s="3"/>
       <c r="T1326" s="8">
-        <v>0.81559955563902364</v>
+        <v>0.58117864775479933</v>
       </c>
       <c r="U1326" s="8">
-        <v>1.5763616665446478</v>
+        <v>1.1436711041224348</v>
       </c>
     </row>
     <row r="1327" spans="1:30" s="20" customFormat="1">
@@ -49761,17 +49761,17 @@
         <v>89</v>
       </c>
       <c r="B1327" s="5">
-        <v>31061.484400000001</v>
+        <v>30696.242200000001</v>
       </c>
       <c r="C1327" s="20">
-        <v>2.0000000000000031</v>
+        <v>1.0000000000000016</v>
       </c>
       <c r="D1327" s="3"/>
       <c r="T1327" s="8">
-        <v>1.0491366381354665</v>
+        <v>0.81559955563902364</v>
       </c>
       <c r="U1327" s="8">
-        <v>1.8603383531905817</v>
+        <v>1.5763616665446478</v>
       </c>
     </row>
     <row r="1328" spans="1:30" s="20" customFormat="1">
@@ -49779,17 +49779,17 @@
         <v>89</v>
       </c>
       <c r="B1328" s="5">
-        <v>31426.726600000002</v>
+        <v>31061.484400000001</v>
       </c>
       <c r="C1328" s="20">
-        <v>3.0000000000000049</v>
+        <v>2.0000000000000031</v>
       </c>
       <c r="D1328" s="3"/>
       <c r="T1328" s="8">
-        <v>1.1790292437905647</v>
+        <v>1.0491366381354665</v>
       </c>
       <c r="U1328" s="8">
-        <v>2.0066868356469176</v>
+        <v>1.8603383531905817</v>
       </c>
     </row>
     <row r="1329" spans="1:21" s="20" customFormat="1">
@@ -49797,17 +49797,17 @@
         <v>89</v>
       </c>
       <c r="B1329" s="5">
-        <v>31791.968800000002</v>
+        <v>31426.726600000002</v>
       </c>
       <c r="C1329" s="20">
-        <v>4.0000000000000062</v>
+        <v>3.0000000000000049</v>
       </c>
       <c r="D1329" s="3"/>
       <c r="T1329" s="8">
-        <v>1.2431727765239895</v>
+        <v>1.1790292437905647</v>
       </c>
       <c r="U1329" s="8">
-        <v>2.1175655298749998</v>
+        <v>2.0066868356469176</v>
       </c>
     </row>
     <row r="1330" spans="1:21" s="20" customFormat="1">
@@ -49815,17 +49815,17 @@
         <v>89</v>
       </c>
       <c r="B1330" s="5">
-        <v>32157.211000000003</v>
+        <v>31791.968800000002</v>
       </c>
       <c r="C1330" s="20">
-        <v>5.000000000000008</v>
+        <v>4.0000000000000062</v>
       </c>
       <c r="D1330" s="3"/>
       <c r="T1330" s="8">
-        <v>1.3789026706222007</v>
+        <v>1.2431727765239895</v>
       </c>
       <c r="U1330" s="8">
-        <v>2.2409965132305616</v>
+        <v>2.1175655298749998</v>
       </c>
     </row>
     <row r="1331" spans="1:21" s="20" customFormat="1">
@@ -49833,17 +49833,17 @@
         <v>89</v>
       </c>
       <c r="B1331" s="5">
-        <v>32522.453200000004</v>
+        <v>32157.211000000003</v>
       </c>
       <c r="C1331" s="20">
-        <v>6.0000000000000098</v>
+        <v>5.000000000000008</v>
       </c>
       <c r="D1331" s="3"/>
       <c r="T1331" s="8">
-        <v>1.4503454909774989</v>
+        <v>1.3789026706222007</v>
       </c>
       <c r="U1331" s="8">
-        <v>2.3558171795173783</v>
+        <v>2.2409965132305616</v>
       </c>
     </row>
     <row r="1332" spans="1:21" s="20" customFormat="1">
@@ -49851,17 +49851,17 @@
         <v>89</v>
       </c>
       <c r="B1332" s="5">
-        <v>32887.695400000004</v>
+        <v>32522.453200000004</v>
       </c>
       <c r="C1332" s="20">
-        <v>7.0000000000000107</v>
+        <v>6.0000000000000098</v>
       </c>
       <c r="D1332" s="3"/>
       <c r="T1332" s="8">
-        <v>1.3419964088248308</v>
+        <v>1.4503454909774989</v>
       </c>
       <c r="U1332" s="8">
-        <v>2.290016111268498</v>
+        <v>2.3558171795173783</v>
       </c>
     </row>
     <row r="1333" spans="1:21" s="20" customFormat="1">
@@ -49869,17 +49869,17 @@
         <v>89</v>
       </c>
       <c r="B1333" s="5">
-        <v>33252.937600000005</v>
+        <v>32887.695400000004</v>
       </c>
       <c r="C1333" s="20">
-        <v>8.0000000000000124</v>
+        <v>7.0000000000000107</v>
       </c>
       <c r="D1333" s="3"/>
       <c r="T1333" s="8">
-        <v>1.5104897882919159</v>
+        <v>1.3419964088248308</v>
       </c>
       <c r="U1333" s="8">
-        <v>2.5905330940702003</v>
+        <v>2.290016111268498</v>
       </c>
     </row>
     <row r="1334" spans="1:21" s="20" customFormat="1">
@@ -49887,17 +49887,17 @@
         <v>89</v>
       </c>
       <c r="B1334" s="5">
-        <v>33618.179800000005</v>
+        <v>33252.937600000005</v>
       </c>
       <c r="C1334" s="20">
-        <v>9.0000000000000142</v>
+        <v>8.0000000000000124</v>
       </c>
       <c r="D1334" s="3"/>
       <c r="T1334" s="8">
-        <v>1.6263469411985652</v>
+        <v>1.5104897882919159</v>
       </c>
       <c r="U1334" s="8">
-        <v>2.5883975942118482</v>
+        <v>2.5905330940702003</v>
       </c>
     </row>
     <row r="1335" spans="1:21" s="20" customFormat="1">
@@ -49905,17 +49905,17 @@
         <v>89</v>
       </c>
       <c r="B1335" s="5">
-        <v>33983.422000000006</v>
+        <v>33618.179800000005</v>
       </c>
       <c r="C1335" s="20">
-        <v>10.000000000000016</v>
+        <v>9.0000000000000142</v>
       </c>
       <c r="D1335" s="3"/>
       <c r="T1335" s="8">
-        <v>1.4025448734557979</v>
+        <v>1.6263469411985652</v>
       </c>
       <c r="U1335" s="8">
-        <v>2.3910124904904841</v>
+        <v>2.5883975942118482</v>
       </c>
     </row>
     <row r="1336" spans="1:21" s="20" customFormat="1">
@@ -49923,17 +49923,17 @@
         <v>89</v>
       </c>
       <c r="B1336" s="5">
-        <v>34348.664200000007</v>
+        <v>33983.422000000006</v>
       </c>
       <c r="C1336" s="20">
-        <v>11.000000000000018</v>
+        <v>10.000000000000016</v>
       </c>
       <c r="D1336" s="3"/>
       <c r="T1336" s="8">
-        <v>1.4481540048192159</v>
+        <v>1.4025448734557979</v>
       </c>
       <c r="U1336" s="8">
-        <v>2.3993007410260412</v>
+        <v>2.3910124904904841</v>
       </c>
     </row>
     <row r="1337" spans="1:21" s="20" customFormat="1">
@@ -49941,17 +49941,17 @@
         <v>89</v>
       </c>
       <c r="B1337" s="5">
-        <v>34713.906400000007</v>
+        <v>34348.664200000007</v>
       </c>
       <c r="C1337" s="20">
-        <v>12.00000000000002</v>
+        <v>11.000000000000018</v>
       </c>
       <c r="D1337" s="3"/>
       <c r="T1337" s="8">
-        <v>1.8732019496496999</v>
+        <v>1.4481540048192159</v>
       </c>
       <c r="U1337" s="8">
-        <v>2.7776278515019466</v>
+        <v>2.3993007410260412</v>
       </c>
     </row>
     <row r="1338" spans="1:21" s="20" customFormat="1">
@@ -49959,35 +49959,35 @@
         <v>89</v>
       </c>
       <c r="B1338" s="5">
-        <v>35079.148600000008</v>
+        <v>34713.906400000007</v>
       </c>
       <c r="C1338" s="20">
-        <v>13.00000000000002</v>
+        <v>12.00000000000002</v>
       </c>
       <c r="D1338" s="3"/>
       <c r="T1338" s="8">
-        <v>1.9121802857788572</v>
+        <v>1.8732019496496999</v>
       </c>
       <c r="U1338" s="8">
-        <v>2.7661140966835269</v>
+        <v>2.7776278515019466</v>
       </c>
     </row>
     <row r="1339" spans="1:21" s="20" customFormat="1">
       <c r="A1339" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1339" s="5">
-        <v>30331</v>
+        <v>35079.148600000008</v>
       </c>
       <c r="C1339" s="20">
-        <v>0</v>
+        <v>13.00000000000002</v>
       </c>
       <c r="D1339" s="3"/>
       <c r="T1339" s="8">
-        <v>1.8175957903481994</v>
+        <v>1.9121802857788572</v>
       </c>
       <c r="U1339" s="8">
-        <v>2.5105345831251058</v>
+        <v>2.7661140966835269</v>
       </c>
     </row>
     <row r="1340" spans="1:21" s="20" customFormat="1">
@@ -49995,17 +49995,17 @@
         <v>90</v>
       </c>
       <c r="B1340" s="5">
-        <v>30696.242200000001</v>
+        <v>30331</v>
       </c>
       <c r="C1340" s="20">
-        <v>1.0000000000000016</v>
+        <v>0</v>
       </c>
       <c r="D1340" s="3"/>
       <c r="T1340" s="8">
-        <v>2.2611683271846421</v>
+        <v>1.8175957903481994</v>
       </c>
       <c r="U1340" s="8">
-        <v>3.1644421569969348</v>
+        <v>2.5105345831251058</v>
       </c>
     </row>
     <row r="1341" spans="1:21" s="20" customFormat="1">
@@ -50013,17 +50013,17 @@
         <v>90</v>
       </c>
       <c r="B1341" s="5">
-        <v>31061.484400000001</v>
+        <v>30696.242200000001</v>
       </c>
       <c r="C1341" s="20">
-        <v>2.0000000000000031</v>
+        <v>1.0000000000000016</v>
       </c>
       <c r="D1341" s="3"/>
       <c r="T1341" s="8">
-        <v>2.6933049901483006</v>
+        <v>2.2611683271846421</v>
       </c>
       <c r="U1341" s="8">
-        <v>3.6885833574718538</v>
+        <v>3.1644421569969348</v>
       </c>
     </row>
     <row r="1342" spans="1:21" s="20" customFormat="1">
@@ -50031,17 +50031,17 @@
         <v>90</v>
       </c>
       <c r="B1342" s="5">
-        <v>31426.726600000002</v>
+        <v>31061.484400000001</v>
       </c>
       <c r="C1342" s="20">
-        <v>3.0000000000000049</v>
+        <v>2.0000000000000031</v>
       </c>
       <c r="D1342" s="3"/>
       <c r="T1342" s="8">
-        <v>2.6253636668056624</v>
+        <v>2.6933049901483006</v>
       </c>
       <c r="U1342" s="8">
-        <v>3.6458943401271329</v>
+        <v>3.6885833574718538</v>
       </c>
     </row>
     <row r="1343" spans="1:21" s="20" customFormat="1">
@@ -50049,17 +50049,17 @@
         <v>90</v>
       </c>
       <c r="B1343" s="5">
-        <v>31791.968800000002</v>
+        <v>31426.726600000002</v>
       </c>
       <c r="C1343" s="20">
-        <v>4.0000000000000062</v>
+        <v>3.0000000000000049</v>
       </c>
       <c r="D1343" s="3"/>
       <c r="T1343" s="8">
-        <v>2.6541470109084893</v>
+        <v>2.6253636668056624</v>
       </c>
       <c r="U1343" s="8">
-        <v>3.8559597369484879</v>
+        <v>3.6458943401271329</v>
       </c>
     </row>
     <row r="1344" spans="1:21" s="20" customFormat="1">
@@ -50067,17 +50067,17 @@
         <v>90</v>
       </c>
       <c r="B1344" s="5">
-        <v>32157.211000000003</v>
+        <v>31791.968800000002</v>
       </c>
       <c r="C1344" s="20">
-        <v>5.000000000000008</v>
+        <v>4.0000000000000062</v>
       </c>
       <c r="D1344" s="3"/>
       <c r="T1344" s="8">
-        <v>2.7307171225398603</v>
+        <v>2.6541470109084893</v>
       </c>
       <c r="U1344" s="8">
-        <v>3.8773979704544517</v>
+        <v>3.8559597369484879</v>
       </c>
     </row>
     <row r="1345" spans="1:21" s="20" customFormat="1">
@@ -50085,17 +50085,17 @@
         <v>90</v>
       </c>
       <c r="B1345" s="5">
-        <v>32522.453200000004</v>
+        <v>32157.211000000003</v>
       </c>
       <c r="C1345" s="20">
-        <v>6.0000000000000098</v>
+        <v>5.000000000000008</v>
       </c>
       <c r="D1345" s="3"/>
       <c r="T1345" s="8">
-        <v>2.697036976180851</v>
+        <v>2.7307171225398603</v>
       </c>
       <c r="U1345" s="8">
-        <v>3.7570999621210919</v>
+        <v>3.8773979704544517</v>
       </c>
     </row>
     <row r="1346" spans="1:21" s="20" customFormat="1">
@@ -50103,17 +50103,17 @@
         <v>90</v>
       </c>
       <c r="B1346" s="5">
-        <v>32887.695400000004</v>
+        <v>32522.453200000004</v>
       </c>
       <c r="C1346" s="20">
-        <v>7.0000000000000107</v>
+        <v>6.0000000000000098</v>
       </c>
       <c r="D1346" s="3"/>
       <c r="T1346" s="8">
-        <v>2.5862588950181276</v>
+        <v>2.697036976180851</v>
       </c>
       <c r="U1346" s="8">
-        <v>3.7380117106306043</v>
+        <v>3.7570999621210919</v>
       </c>
     </row>
     <row r="1347" spans="1:21" s="20" customFormat="1">
@@ -50121,17 +50121,17 @@
         <v>90</v>
       </c>
       <c r="B1347" s="5">
-        <v>33252.937600000005</v>
+        <v>32887.695400000004</v>
       </c>
       <c r="C1347" s="20">
-        <v>8.0000000000000124</v>
+        <v>7.0000000000000107</v>
       </c>
       <c r="D1347" s="3"/>
       <c r="T1347" s="8">
-        <v>2.7815848630788871</v>
+        <v>2.5862588950181276</v>
       </c>
       <c r="U1347" s="8">
-        <v>4.313142163681448</v>
+        <v>3.7380117106306043</v>
       </c>
     </row>
     <row r="1348" spans="1:21" s="20" customFormat="1">
@@ -50139,17 +50139,17 @@
         <v>90</v>
       </c>
       <c r="B1348" s="5">
-        <v>33618.179800000005</v>
+        <v>33252.937600000005</v>
       </c>
       <c r="C1348" s="20">
-        <v>9.0000000000000142</v>
+        <v>8.0000000000000124</v>
       </c>
       <c r="D1348" s="3"/>
       <c r="T1348" s="8">
-        <v>2.7580063238678503</v>
+        <v>2.7815848630788871</v>
       </c>
       <c r="U1348" s="8">
-        <v>3.9696640554623617</v>
+        <v>4.313142163681448</v>
       </c>
     </row>
     <row r="1349" spans="1:21" s="20" customFormat="1">
@@ -50157,17 +50157,17 @@
         <v>90</v>
       </c>
       <c r="B1349" s="5">
-        <v>33983.422000000006</v>
+        <v>33618.179800000005</v>
       </c>
       <c r="C1349" s="20">
-        <v>10.000000000000016</v>
+        <v>9.0000000000000142</v>
       </c>
       <c r="D1349" s="3"/>
       <c r="T1349" s="8">
-        <v>2.2851993987121171</v>
+        <v>2.7580063238678503</v>
       </c>
       <c r="U1349" s="8">
-        <v>3.4684401688317066</v>
+        <v>3.9696640554623617</v>
       </c>
     </row>
     <row r="1350" spans="1:21" s="20" customFormat="1">
@@ -50175,17 +50175,17 @@
         <v>90</v>
       </c>
       <c r="B1350" s="5">
-        <v>34348.664200000007</v>
+        <v>33983.422000000006</v>
       </c>
       <c r="C1350" s="20">
-        <v>11.000000000000018</v>
+        <v>10.000000000000016</v>
       </c>
       <c r="D1350" s="3"/>
       <c r="T1350" s="8">
-        <v>2.0965856769979534</v>
+        <v>2.2851993987121171</v>
       </c>
       <c r="U1350" s="8">
-        <v>2.9692239311940769</v>
+        <v>3.4684401688317066</v>
       </c>
     </row>
     <row r="1351" spans="1:21" s="20" customFormat="1">
@@ -50193,17 +50193,17 @@
         <v>90</v>
       </c>
       <c r="B1351" s="5">
-        <v>34713.906400000007</v>
+        <v>34348.664200000007</v>
       </c>
       <c r="C1351" s="20">
-        <v>12.00000000000002</v>
+        <v>11.000000000000018</v>
       </c>
       <c r="D1351" s="3"/>
       <c r="T1351" s="8">
-        <v>2.3453679133814407</v>
+        <v>2.0965856769979534</v>
       </c>
       <c r="U1351" s="8">
-        <v>3.3708163636884505</v>
+        <v>2.9692239311940769</v>
       </c>
     </row>
     <row r="1352" spans="1:21" s="20" customFormat="1">
@@ -50211,35 +50211,35 @@
         <v>90</v>
       </c>
       <c r="B1352" s="5">
-        <v>35079.148600000008</v>
+        <v>34713.906400000007</v>
       </c>
       <c r="C1352" s="20">
-        <v>13.00000000000002</v>
+        <v>12.00000000000002</v>
       </c>
       <c r="D1352" s="3"/>
       <c r="T1352" s="8">
-        <v>2.4432299590334834</v>
+        <v>2.3453679133814407</v>
       </c>
       <c r="U1352" s="8">
-        <v>3.5052331462730657</v>
+        <v>3.3708163636884505</v>
       </c>
     </row>
     <row r="1353" spans="1:21" s="20" customFormat="1">
       <c r="A1353" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1353" s="5">
-        <v>30331</v>
+        <v>35079.148600000008</v>
       </c>
       <c r="C1353" s="20">
-        <v>0</v>
+        <v>13.00000000000002</v>
       </c>
       <c r="D1353" s="3"/>
       <c r="T1353" s="8">
-        <v>2.4265827256261958</v>
+        <v>2.4432299590334834</v>
       </c>
       <c r="U1353" s="8">
-        <v>3.0629226407647083</v>
+        <v>3.5052331462730657</v>
       </c>
     </row>
     <row r="1354" spans="1:21" s="20" customFormat="1">
@@ -50247,17 +50247,17 @@
         <v>91</v>
       </c>
       <c r="B1354" s="5">
-        <v>30696.242200000001</v>
+        <v>30331</v>
       </c>
       <c r="C1354" s="20">
-        <v>1.0000000000000016</v>
+        <v>0</v>
       </c>
       <c r="D1354" s="3"/>
       <c r="T1354" s="8">
-        <v>2.8582534538243372</v>
+        <v>2.4265827256261958</v>
       </c>
       <c r="U1354" s="8">
-        <v>3.7364017105987735</v>
+        <v>3.0629226407647083</v>
       </c>
     </row>
     <row r="1355" spans="1:21" s="20" customFormat="1">
@@ -50265,17 +50265,17 @@
         <v>91</v>
       </c>
       <c r="B1355" s="5">
-        <v>31061.484400000001</v>
+        <v>30696.242200000001</v>
       </c>
       <c r="C1355" s="20">
-        <v>2.0000000000000031</v>
+        <v>1.0000000000000016</v>
       </c>
       <c r="D1355" s="3"/>
       <c r="T1355" s="8">
-        <v>3.238047339086259</v>
+        <v>2.8582534538243372</v>
       </c>
       <c r="U1355" s="8">
-        <v>4.3877079408834385</v>
+        <v>3.7364017105987735</v>
       </c>
     </row>
     <row r="1356" spans="1:21" s="20" customFormat="1">
@@ -50283,17 +50283,17 @@
         <v>91</v>
       </c>
       <c r="B1356" s="5">
-        <v>31426.726600000002</v>
+        <v>31061.484400000001</v>
       </c>
       <c r="C1356" s="20">
-        <v>3.0000000000000049</v>
+        <v>2.0000000000000031</v>
       </c>
       <c r="D1356" s="3"/>
       <c r="T1356" s="8">
-        <v>3.3217744677058434</v>
+        <v>3.238047339086259</v>
       </c>
       <c r="U1356" s="8">
-        <v>4.7974642076146159</v>
+        <v>4.3877079408834385</v>
       </c>
     </row>
     <row r="1357" spans="1:21" s="20" customFormat="1">
@@ -50301,17 +50301,17 @@
         <v>91</v>
       </c>
       <c r="B1357" s="5">
-        <v>31791.968800000002</v>
+        <v>31426.726600000002</v>
       </c>
       <c r="C1357" s="20">
-        <v>4.0000000000000062</v>
+        <v>3.0000000000000049</v>
       </c>
       <c r="D1357" s="3"/>
       <c r="T1357" s="8">
-        <v>3.2104348594183203</v>
+        <v>3.3217744677058434</v>
       </c>
       <c r="U1357" s="8">
-        <v>4.4983668620029986</v>
+        <v>4.7974642076146159</v>
       </c>
     </row>
     <row r="1358" spans="1:21" s="20" customFormat="1">
@@ -50319,17 +50319,17 @@
         <v>91</v>
       </c>
       <c r="B1358" s="5">
-        <v>32157.211000000003</v>
+        <v>31791.968800000002</v>
       </c>
       <c r="C1358" s="20">
-        <v>5.000000000000008</v>
+        <v>4.0000000000000062</v>
       </c>
       <c r="D1358" s="3"/>
       <c r="T1358" s="8">
-        <v>3.152281827036628</v>
+        <v>3.2104348594183203</v>
       </c>
       <c r="U1358" s="8">
-        <v>4.1068975837076129</v>
+        <v>4.4983668620029986</v>
       </c>
     </row>
     <row r="1359" spans="1:21" s="20" customFormat="1">
@@ -50337,17 +50337,17 @@
         <v>91</v>
       </c>
       <c r="B1359" s="5">
-        <v>32522.453200000004</v>
+        <v>32157.211000000003</v>
       </c>
       <c r="C1359" s="20">
-        <v>6.0000000000000098</v>
+        <v>5.000000000000008</v>
       </c>
       <c r="D1359" s="3"/>
       <c r="T1359" s="8">
-        <v>3.1021204501542217</v>
+        <v>3.152281827036628</v>
       </c>
       <c r="U1359" s="8">
-        <v>4.1106973570707828</v>
+        <v>4.1068975837076129</v>
       </c>
     </row>
     <row r="1360" spans="1:21" s="20" customFormat="1">
@@ -50355,17 +50355,17 @@
         <v>91</v>
       </c>
       <c r="B1360" s="5">
-        <v>32887.695400000004</v>
+        <v>32522.453200000004</v>
       </c>
       <c r="C1360" s="20">
-        <v>7.0000000000000107</v>
+        <v>6.0000000000000098</v>
       </c>
       <c r="D1360" s="3"/>
       <c r="T1360" s="8">
-        <v>3.0070666815211404</v>
+        <v>3.1021204501542217</v>
       </c>
       <c r="U1360" s="8">
-        <v>4.1608041787757157</v>
+        <v>4.1106973570707828</v>
       </c>
     </row>
     <row r="1361" spans="1:21" s="20" customFormat="1">
@@ -50373,17 +50373,17 @@
         <v>91</v>
       </c>
       <c r="B1361" s="5">
-        <v>33252.937600000005</v>
+        <v>32887.695400000004</v>
       </c>
       <c r="C1361" s="20">
-        <v>8.0000000000000124</v>
+        <v>7.0000000000000107</v>
       </c>
       <c r="D1361" s="3"/>
       <c r="T1361" s="8">
-        <v>3.0220403976967076</v>
+        <v>3.0070666815211404</v>
       </c>
       <c r="U1361" s="8">
-        <v>4.3324590923704243</v>
+        <v>4.1608041787757157</v>
       </c>
     </row>
     <row r="1362" spans="1:21" s="20" customFormat="1">
@@ -50391,17 +50391,17 @@
         <v>91</v>
       </c>
       <c r="B1362" s="5">
-        <v>33618.179800000005</v>
+        <v>33252.937600000005</v>
       </c>
       <c r="C1362" s="20">
-        <v>9.0000000000000142</v>
+        <v>8.0000000000000124</v>
       </c>
       <c r="D1362" s="3"/>
       <c r="T1362" s="8">
-        <v>3.4224564503961372</v>
+        <v>3.0220403976967076</v>
       </c>
       <c r="U1362" s="8">
-        <v>4.9036489038989819</v>
+        <v>4.3324590923704243</v>
       </c>
     </row>
     <row r="1363" spans="1:21" s="20" customFormat="1">
@@ -50409,17 +50409,17 @@
         <v>91</v>
       </c>
       <c r="B1363" s="5">
-        <v>33983.422000000006</v>
+        <v>33618.179800000005</v>
       </c>
       <c r="C1363" s="20">
-        <v>10.000000000000016</v>
+        <v>9.0000000000000142</v>
       </c>
       <c r="D1363" s="3"/>
       <c r="T1363" s="8">
-        <v>3.439391744307819</v>
+        <v>3.4224564503961372</v>
       </c>
       <c r="U1363" s="8">
-        <v>4.6993945804513002</v>
+        <v>4.9036489038989819</v>
       </c>
     </row>
     <row r="1364" spans="1:21" s="20" customFormat="1">
@@ -50427,17 +50427,17 @@
         <v>91</v>
       </c>
       <c r="B1364" s="5">
-        <v>34348.664200000007</v>
+        <v>33983.422000000006</v>
       </c>
       <c r="C1364" s="20">
-        <v>11.000000000000018</v>
+        <v>10.000000000000016</v>
       </c>
       <c r="D1364" s="3"/>
       <c r="T1364" s="8">
-        <v>3.3336147715010553</v>
+        <v>3.439391744307819</v>
       </c>
       <c r="U1364" s="8">
-        <v>4.6528072663842197</v>
+        <v>4.6993945804513002</v>
       </c>
     </row>
     <row r="1365" spans="1:21" s="20" customFormat="1">
@@ -50445,17 +50445,17 @@
         <v>91</v>
       </c>
       <c r="B1365" s="5">
-        <v>34713.906400000007</v>
+        <v>34348.664200000007</v>
       </c>
       <c r="C1365" s="20">
-        <v>12.00000000000002</v>
+        <v>11.000000000000018</v>
       </c>
       <c r="D1365" s="3"/>
       <c r="T1365" s="8">
-        <v>3.7037703869696554</v>
+        <v>3.3336147715010553</v>
       </c>
       <c r="U1365" s="8">
-        <v>5.6629562769171029</v>
+        <v>4.6528072663842197</v>
       </c>
     </row>
     <row r="1366" spans="1:21" s="20" customFormat="1">
@@ -50463,35 +50463,35 @@
         <v>91</v>
       </c>
       <c r="B1366" s="5">
-        <v>35079.148600000008</v>
+        <v>34713.906400000007</v>
       </c>
       <c r="C1366" s="20">
-        <v>13.00000000000002</v>
+        <v>12.00000000000002</v>
       </c>
       <c r="D1366" s="3"/>
       <c r="T1366" s="8">
-        <v>3.8691310737556459</v>
+        <v>3.7037703869696554</v>
       </c>
       <c r="U1366" s="8">
-        <v>5.6365685910637611</v>
+        <v>5.6629562769171029</v>
       </c>
     </row>
     <row r="1367" spans="1:21" s="20" customFormat="1">
       <c r="A1367" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1367" s="5">
-        <v>30331</v>
+        <v>35079.148600000008</v>
       </c>
       <c r="C1367" s="20">
-        <v>0</v>
+        <v>13.00000000000002</v>
       </c>
       <c r="D1367" s="3"/>
       <c r="T1367" s="8">
-        <v>2.8327276748398105</v>
+        <v>3.8691310737556459</v>
       </c>
       <c r="U1367" s="8">
-        <v>4.008726584309219</v>
+        <v>5.6365685910637611</v>
       </c>
     </row>
     <row r="1368" spans="1:21" s="20" customFormat="1">
@@ -50499,17 +50499,17 @@
         <v>92</v>
       </c>
       <c r="B1368" s="5">
-        <v>30696.242200000001</v>
+        <v>30331</v>
       </c>
       <c r="C1368" s="20">
-        <v>1.0000000000000016</v>
+        <v>0</v>
       </c>
       <c r="D1368" s="3"/>
       <c r="T1368" s="8">
-        <v>3.229908711830634</v>
+        <v>2.8327276748398105</v>
       </c>
       <c r="U1368" s="8">
-        <v>4.5335916271696819</v>
+        <v>4.008726584309219</v>
       </c>
     </row>
     <row r="1369" spans="1:21" s="20" customFormat="1">
@@ -50517,17 +50517,17 @@
         <v>92</v>
       </c>
       <c r="B1369" s="5">
-        <v>31061.484400000001</v>
+        <v>30696.242200000001</v>
       </c>
       <c r="C1369" s="20">
-        <v>2.0000000000000031</v>
+        <v>1.0000000000000016</v>
       </c>
       <c r="D1369" s="3"/>
       <c r="T1369" s="8">
-        <v>3.351886009950376</v>
+        <v>3.229908711830634</v>
       </c>
       <c r="U1369" s="8">
-        <v>4.6468048408608382</v>
+        <v>4.5335916271696819</v>
       </c>
     </row>
     <row r="1370" spans="1:21" s="20" customFormat="1">
@@ -50535,17 +50535,17 @@
         <v>92</v>
       </c>
       <c r="B1370" s="5">
-        <v>31426.726600000002</v>
+        <v>31061.484400000001</v>
       </c>
       <c r="C1370" s="20">
-        <v>3.0000000000000049</v>
+        <v>2.0000000000000031</v>
       </c>
       <c r="D1370" s="3"/>
       <c r="T1370" s="8">
-        <v>3.3061125576539268</v>
+        <v>3.351886009950376</v>
       </c>
       <c r="U1370" s="8">
-        <v>4.5388209887350035</v>
+        <v>4.6468048408608382</v>
       </c>
     </row>
     <row r="1371" spans="1:21" s="20" customFormat="1">
@@ -50553,17 +50553,17 @@
         <v>92</v>
       </c>
       <c r="B1371" s="5">
-        <v>31791.968800000002</v>
+        <v>31426.726600000002</v>
       </c>
       <c r="C1371" s="20">
-        <v>4.0000000000000062</v>
+        <v>3.0000000000000049</v>
       </c>
       <c r="D1371" s="3"/>
       <c r="T1371" s="8">
-        <v>3.2420775308044658</v>
+        <v>3.3061125576539268</v>
       </c>
       <c r="U1371" s="8">
-        <v>4.5355355409203622</v>
+        <v>4.5388209887350035</v>
       </c>
     </row>
     <row r="1372" spans="1:21" s="20" customFormat="1">
@@ -50571,17 +50571,17 @@
         <v>92</v>
       </c>
       <c r="B1372" s="5">
-        <v>32157.211000000003</v>
+        <v>31791.968800000002</v>
       </c>
       <c r="C1372" s="20">
-        <v>5.000000000000008</v>
+        <v>4.0000000000000062</v>
       </c>
       <c r="D1372" s="3"/>
       <c r="T1372" s="8">
-        <v>3.223863056605095</v>
+        <v>3.2420775308044658</v>
       </c>
       <c r="U1372" s="8">
-        <v>4.3475916208034784</v>
+        <v>4.5355355409203622</v>
       </c>
     </row>
     <row r="1373" spans="1:21" s="20" customFormat="1">
@@ -50589,17 +50589,17 @@
         <v>92</v>
       </c>
       <c r="B1373" s="5">
-        <v>32522.453200000004</v>
+        <v>32157.211000000003</v>
       </c>
       <c r="C1373" s="20">
-        <v>6.0000000000000098</v>
+        <v>5.000000000000008</v>
       </c>
       <c r="D1373" s="3"/>
       <c r="T1373" s="8">
-        <v>3.0585152661550361</v>
+        <v>3.223863056605095</v>
       </c>
       <c r="U1373" s="8">
-        <v>4.1483003638285076</v>
+        <v>4.3475916208034784</v>
       </c>
     </row>
     <row r="1374" spans="1:21" s="20" customFormat="1">
@@ -50607,17 +50607,17 @@
         <v>92</v>
       </c>
       <c r="B1374" s="5">
-        <v>32887.695400000004</v>
+        <v>32522.453200000004</v>
       </c>
       <c r="C1374" s="20">
-        <v>7.0000000000000107</v>
+        <v>6.0000000000000098</v>
       </c>
       <c r="D1374" s="3"/>
       <c r="T1374" s="8">
-        <v>2.8343042192011052</v>
+        <v>3.0585152661550361</v>
       </c>
       <c r="U1374" s="8">
-        <v>3.9091152250930263</v>
+        <v>4.1483003638285076</v>
       </c>
     </row>
     <row r="1375" spans="1:21" s="20" customFormat="1">
@@ -50625,17 +50625,17 @@
         <v>92</v>
       </c>
       <c r="B1375" s="5">
-        <v>33252.937600000005</v>
+        <v>32887.695400000004</v>
       </c>
       <c r="C1375" s="20">
-        <v>8.0000000000000124</v>
+        <v>7.0000000000000107</v>
       </c>
       <c r="D1375" s="3"/>
       <c r="T1375" s="8">
-        <v>2.9070240610646203</v>
+        <v>2.8343042192011052</v>
       </c>
       <c r="U1375" s="8">
-        <v>4.104447747796498</v>
+        <v>3.9091152250930263</v>
       </c>
     </row>
     <row r="1376" spans="1:21" s="20" customFormat="1">
@@ -50643,17 +50643,17 @@
         <v>92</v>
       </c>
       <c r="B1376" s="5">
-        <v>33618.179800000005</v>
+        <v>33252.937600000005</v>
       </c>
       <c r="C1376" s="20">
-        <v>9.0000000000000142</v>
+        <v>8.0000000000000124</v>
       </c>
       <c r="D1376" s="3"/>
       <c r="T1376" s="8">
-        <v>3.2955847994168561</v>
+        <v>2.9070240610646203</v>
       </c>
       <c r="U1376" s="8">
-        <v>4.5005900833654291</v>
+        <v>4.104447747796498</v>
       </c>
     </row>
     <row r="1377" spans="1:21" s="20" customFormat="1">
@@ -50661,17 +50661,17 @@
         <v>92</v>
       </c>
       <c r="B1377" s="5">
-        <v>33983.422000000006</v>
+        <v>33618.179800000005</v>
       </c>
       <c r="C1377" s="20">
-        <v>10.000000000000016</v>
+        <v>9.0000000000000142</v>
       </c>
       <c r="D1377" s="3"/>
       <c r="T1377" s="8">
-        <v>3.4088391037659274</v>
+        <v>3.2955847994168561</v>
       </c>
       <c r="U1377" s="8">
-        <v>4.5788714090635638</v>
+        <v>4.5005900833654291</v>
       </c>
     </row>
     <row r="1378" spans="1:21" s="20" customFormat="1">
@@ -50679,17 +50679,17 @@
         <v>92</v>
       </c>
       <c r="B1378" s="5">
-        <v>34348.664200000007</v>
+        <v>33983.422000000006</v>
       </c>
       <c r="C1378" s="20">
-        <v>11.000000000000018</v>
+        <v>10.000000000000016</v>
       </c>
       <c r="D1378" s="3"/>
       <c r="T1378" s="8">
-        <v>3.3454507908415807</v>
+        <v>3.4088391037659274</v>
       </c>
       <c r="U1378" s="8">
-        <v>4.3537565659427235</v>
+        <v>4.5788714090635638</v>
       </c>
     </row>
     <row r="1379" spans="1:21" s="20" customFormat="1">
@@ -50697,17 +50697,17 @@
         <v>92</v>
       </c>
       <c r="B1379" s="5">
-        <v>34713.906400000007</v>
+        <v>34348.664200000007</v>
       </c>
       <c r="C1379" s="20">
-        <v>12.00000000000002</v>
+        <v>11.000000000000018</v>
       </c>
       <c r="D1379" s="3"/>
       <c r="T1379" s="8">
-        <v>3.5926842649741055</v>
+        <v>3.3454507908415807</v>
       </c>
       <c r="U1379" s="8">
-        <v>4.8428289846860988</v>
+        <v>4.3537565659427235</v>
       </c>
     </row>
     <row r="1380" spans="1:21" s="20" customFormat="1">
@@ -50715,35 +50715,35 @@
         <v>92</v>
       </c>
       <c r="B1380" s="5">
-        <v>35079.148600000008</v>
+        <v>34713.906400000007</v>
       </c>
       <c r="C1380" s="20">
-        <v>13.00000000000002</v>
+        <v>12.00000000000002</v>
       </c>
       <c r="D1380" s="3"/>
       <c r="T1380" s="8">
-        <v>3.6643512711716046</v>
+        <v>3.5926842649741055</v>
       </c>
       <c r="U1380" s="8">
-        <v>5.3095629665233215</v>
+        <v>4.8428289846860988</v>
       </c>
     </row>
     <row r="1381" spans="1:21" s="20" customFormat="1">
       <c r="A1381" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1381" s="5">
-        <v>30331</v>
+        <v>35079.148600000008</v>
       </c>
       <c r="C1381" s="20">
-        <v>0</v>
+        <v>13.00000000000002</v>
       </c>
       <c r="D1381" s="3"/>
       <c r="T1381" s="8">
-        <v>0.87198168125057707</v>
+        <v>3.6643512711716046</v>
       </c>
       <c r="U1381" s="8">
-        <v>1.4073328556558942</v>
+        <v>5.3095629665233215</v>
       </c>
     </row>
     <row r="1382" spans="1:21" s="20" customFormat="1">
@@ -50751,17 +50751,17 @@
         <v>93</v>
       </c>
       <c r="B1382" s="5">
-        <v>30696.242200000001</v>
+        <v>30331</v>
       </c>
       <c r="C1382" s="20">
-        <v>1.0000000000000016</v>
+        <v>0</v>
       </c>
       <c r="D1382" s="3"/>
       <c r="T1382" s="8">
-        <v>1.0979664214617439</v>
+        <v>0.87198168125057707</v>
       </c>
       <c r="U1382" s="8">
-        <v>1.708922426223664</v>
+        <v>1.4073328556558942</v>
       </c>
     </row>
     <row r="1383" spans="1:21" s="20" customFormat="1">
@@ -50769,17 +50769,17 @@
         <v>93</v>
       </c>
       <c r="B1383" s="5">
-        <v>31061.484400000001</v>
+        <v>30696.242200000001</v>
       </c>
       <c r="C1383" s="20">
-        <v>2.0000000000000031</v>
+        <v>1.0000000000000016</v>
       </c>
       <c r="D1383" s="3"/>
       <c r="T1383" s="8">
-        <v>1.3222327872192108</v>
+        <v>1.0979664214617439</v>
       </c>
       <c r="U1383" s="8">
-        <v>2.1429336221467472</v>
+        <v>1.708922426223664</v>
       </c>
     </row>
     <row r="1384" spans="1:21" s="20" customFormat="1">
@@ -50787,17 +50787,17 @@
         <v>93</v>
       </c>
       <c r="B1384" s="5">
-        <v>31426.726600000002</v>
+        <v>31061.484400000001</v>
       </c>
       <c r="C1384" s="20">
-        <v>3.0000000000000049</v>
+        <v>2.0000000000000031</v>
       </c>
       <c r="D1384" s="3"/>
       <c r="T1384" s="8">
-        <v>1.4059949248628878</v>
+        <v>1.3222327872192108</v>
       </c>
       <c r="U1384" s="8">
-        <v>2.187345421585885</v>
+        <v>2.1429336221467472</v>
       </c>
     </row>
     <row r="1385" spans="1:21" s="20" customFormat="1">
@@ -50805,17 +50805,17 @@
         <v>93</v>
       </c>
       <c r="B1385" s="5">
-        <v>31791.968800000002</v>
+        <v>31426.726600000002</v>
       </c>
       <c r="C1385" s="20">
-        <v>4.0000000000000062</v>
+        <v>3.0000000000000049</v>
       </c>
       <c r="D1385" s="3"/>
       <c r="T1385" s="8">
-        <v>1.3916014378069703</v>
+        <v>1.4059949248628878</v>
       </c>
       <c r="U1385" s="8">
-        <v>2.0679224844744222</v>
+        <v>2.187345421585885</v>
       </c>
     </row>
     <row r="1386" spans="1:21" s="20" customFormat="1">
@@ -50823,17 +50823,17 @@
         <v>93</v>
       </c>
       <c r="B1386" s="5">
-        <v>32157.211000000003</v>
+        <v>31791.968800000002</v>
       </c>
       <c r="C1386" s="20">
-        <v>5.000000000000008</v>
+        <v>4.0000000000000062</v>
       </c>
       <c r="D1386" s="3"/>
       <c r="T1386" s="8">
-        <v>1.4984510731826877</v>
+        <v>1.3916014378069703</v>
       </c>
       <c r="U1386" s="8">
-        <v>2.1751285810688219</v>
+        <v>2.0679224844744222</v>
       </c>
     </row>
     <row r="1387" spans="1:21" s="20" customFormat="1">
@@ -50841,17 +50841,17 @@
         <v>93</v>
       </c>
       <c r="B1387" s="5">
-        <v>32522.453200000004</v>
+        <v>32157.211000000003</v>
       </c>
       <c r="C1387" s="20">
-        <v>6.0000000000000098</v>
+        <v>5.000000000000008</v>
       </c>
       <c r="D1387" s="3"/>
       <c r="T1387" s="8">
-        <v>1.511912161676094</v>
+        <v>1.4984510731826877</v>
       </c>
       <c r="U1387" s="8">
-        <v>2.1129980914123103</v>
+        <v>2.1751285810688219</v>
       </c>
     </row>
     <row r="1388" spans="1:21" s="20" customFormat="1">
@@ -50859,17 +50859,17 @@
         <v>93</v>
       </c>
       <c r="B1388" s="5">
-        <v>32887.695400000004</v>
+        <v>32522.453200000004</v>
       </c>
       <c r="C1388" s="20">
-        <v>7.0000000000000107</v>
+        <v>6.0000000000000098</v>
       </c>
       <c r="D1388" s="3"/>
       <c r="T1388" s="8">
-        <v>1.6055100955248776</v>
+        <v>1.511912161676094</v>
       </c>
       <c r="U1388" s="8">
-        <v>2.2346141422018788</v>
+        <v>2.1129980914123103</v>
       </c>
     </row>
     <row r="1389" spans="1:21" s="20" customFormat="1">
@@ -50877,17 +50877,17 @@
         <v>93</v>
       </c>
       <c r="B1389" s="5">
-        <v>33252.937600000005</v>
+        <v>32887.695400000004</v>
       </c>
       <c r="C1389" s="20">
-        <v>8.0000000000000124</v>
+        <v>7.0000000000000107</v>
       </c>
       <c r="D1389" s="3"/>
       <c r="T1389" s="8">
-        <v>1.7410096409779761</v>
+        <v>1.6055100955248776</v>
       </c>
       <c r="U1389" s="8">
-        <v>2.425273040721418</v>
+        <v>2.2346141422018788</v>
       </c>
     </row>
     <row r="1390" spans="1:21" s="20" customFormat="1">
@@ -50895,17 +50895,17 @@
         <v>93</v>
       </c>
       <c r="B1390" s="5">
-        <v>33618.179800000005</v>
+        <v>33252.937600000005</v>
       </c>
       <c r="C1390" s="20">
-        <v>9.0000000000000142</v>
+        <v>8.0000000000000124</v>
       </c>
       <c r="D1390" s="3"/>
       <c r="T1390" s="8">
-        <v>1.6098056395010172</v>
+        <v>1.7410096409779761</v>
       </c>
       <c r="U1390" s="8">
-        <v>2.1017720679655842</v>
+        <v>2.425273040721418</v>
       </c>
     </row>
     <row r="1391" spans="1:21" s="20" customFormat="1">
@@ -50913,17 +50913,17 @@
         <v>93</v>
       </c>
       <c r="B1391" s="5">
-        <v>33983.422000000006</v>
+        <v>33618.179800000005</v>
       </c>
       <c r="C1391" s="20">
-        <v>10.000000000000016</v>
+        <v>9.0000000000000142</v>
       </c>
       <c r="D1391" s="3"/>
       <c r="T1391" s="8">
-        <v>1.4965464977925194</v>
+        <v>1.6098056395010172</v>
       </c>
       <c r="U1391" s="8">
-        <v>2.1204048660073402</v>
+        <v>2.1017720679655842</v>
       </c>
     </row>
     <row r="1392" spans="1:21" s="20" customFormat="1">
@@ -50931,17 +50931,17 @@
         <v>93</v>
       </c>
       <c r="B1392" s="5">
-        <v>34348.664200000007</v>
+        <v>33983.422000000006</v>
       </c>
       <c r="C1392" s="20">
-        <v>11.000000000000018</v>
+        <v>10.000000000000016</v>
       </c>
       <c r="D1392" s="3"/>
       <c r="T1392" s="8">
-        <v>1.5853239926279368</v>
+        <v>1.4965464977925194</v>
       </c>
       <c r="U1392" s="8">
-        <v>2.1465412889651416</v>
+        <v>2.1204048660073402</v>
       </c>
     </row>
     <row r="1393" spans="1:21" s="20" customFormat="1">
@@ -50949,17 +50949,17 @@
         <v>93</v>
       </c>
       <c r="B1393" s="5">
-        <v>34713.906400000007</v>
+        <v>34348.664200000007</v>
       </c>
       <c r="C1393" s="20">
-        <v>12.00000000000002</v>
+        <v>11.000000000000018</v>
       </c>
       <c r="D1393" s="3"/>
       <c r="T1393" s="8">
-        <v>1.9014829201137007</v>
+        <v>1.5853239926279368</v>
       </c>
       <c r="U1393" s="8">
-        <v>2.5851634121575384</v>
+        <v>2.1465412889651416</v>
       </c>
     </row>
     <row r="1394" spans="1:21" s="20" customFormat="1">
@@ -50967,35 +50967,35 @@
         <v>93</v>
       </c>
       <c r="B1394" s="5">
-        <v>35079.148600000008</v>
+        <v>34713.906400000007</v>
       </c>
       <c r="C1394" s="20">
-        <v>13.00000000000002</v>
+        <v>12.00000000000002</v>
       </c>
       <c r="D1394" s="3"/>
       <c r="T1394" s="8">
-        <v>2.0033356345035478</v>
+        <v>1.9014829201137007</v>
       </c>
       <c r="U1394" s="8">
-        <v>2.6702117762024966</v>
+        <v>2.5851634121575384</v>
       </c>
     </row>
     <row r="1395" spans="1:21" s="20" customFormat="1">
       <c r="A1395" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1395" s="5">
-        <v>30331</v>
+        <v>35079.148600000008</v>
       </c>
       <c r="C1395" s="20">
-        <v>0</v>
+        <v>13.00000000000002</v>
       </c>
       <c r="D1395" s="3"/>
       <c r="T1395" s="8">
-        <v>1.777700607335776</v>
+        <v>2.0033356345035478</v>
       </c>
       <c r="U1395" s="8">
-        <v>2.4763088159180544</v>
+        <v>2.6702117762024966</v>
       </c>
     </row>
     <row r="1396" spans="1:21" s="20" customFormat="1">
@@ -51003,17 +51003,17 @@
         <v>94</v>
       </c>
       <c r="B1396" s="5">
-        <v>30696.242200000001</v>
+        <v>30331</v>
       </c>
       <c r="C1396" s="20">
-        <v>1.0000000000000016</v>
+        <v>0</v>
       </c>
       <c r="D1396" s="3"/>
       <c r="T1396" s="8">
-        <v>2.1159938359238475</v>
+        <v>1.777700607335776</v>
       </c>
       <c r="U1396" s="8">
-        <v>3.0130313198093961</v>
+        <v>2.4763088159180544</v>
       </c>
     </row>
     <row r="1397" spans="1:21" s="20" customFormat="1">
@@ -51021,17 +51021,17 @@
         <v>94</v>
       </c>
       <c r="B1397" s="5">
-        <v>31061.484400000001</v>
+        <v>30696.242200000001</v>
       </c>
       <c r="C1397" s="20">
-        <v>2.0000000000000031</v>
+        <v>1.0000000000000016</v>
       </c>
       <c r="D1397" s="3"/>
       <c r="T1397" s="8">
-        <v>2.3277210498505534</v>
+        <v>2.1159938359238475</v>
       </c>
       <c r="U1397" s="8">
-        <v>3.3063466779560668</v>
+        <v>3.0130313198093961</v>
       </c>
     </row>
     <row r="1398" spans="1:21" s="20" customFormat="1">
@@ -51039,17 +51039,17 @@
         <v>94</v>
       </c>
       <c r="B1398" s="5">
-        <v>31426.726600000002</v>
+        <v>31061.484400000001</v>
       </c>
       <c r="C1398" s="20">
-        <v>3.0000000000000049</v>
+        <v>2.0000000000000031</v>
       </c>
       <c r="D1398" s="3"/>
       <c r="T1398" s="8">
-        <v>2.2571737553277162</v>
+        <v>2.3277210498505534</v>
       </c>
       <c r="U1398" s="8">
-        <v>3.199020798385531</v>
+        <v>3.3063466779560668</v>
       </c>
     </row>
     <row r="1399" spans="1:21" s="20" customFormat="1">
@@ -51057,17 +51057,17 @@
         <v>94</v>
       </c>
       <c r="B1399" s="5">
-        <v>31791.968800000002</v>
+        <v>31426.726600000002</v>
       </c>
       <c r="C1399" s="20">
-        <v>4.0000000000000062</v>
+        <v>3.0000000000000049</v>
       </c>
       <c r="D1399" s="3"/>
       <c r="T1399" s="8">
-        <v>2.2738229167396127</v>
+        <v>2.2571737553277162</v>
       </c>
       <c r="U1399" s="8">
-        <v>3.3458656381004523</v>
+        <v>3.199020798385531</v>
       </c>
     </row>
     <row r="1400" spans="1:21" s="20" customFormat="1">
@@ -51075,17 +51075,17 @@
         <v>94</v>
       </c>
       <c r="B1400" s="5">
-        <v>32157.211000000003</v>
+        <v>31791.968800000002</v>
       </c>
       <c r="C1400" s="20">
-        <v>5.000000000000008</v>
+        <v>4.0000000000000062</v>
       </c>
       <c r="D1400" s="3"/>
       <c r="T1400" s="8">
-        <v>2.3052600046473284</v>
+        <v>2.2738229167396127</v>
       </c>
       <c r="U1400" s="8">
-        <v>3.1098402270824645</v>
+        <v>3.3458656381004523</v>
       </c>
     </row>
     <row r="1401" spans="1:21" s="20" customFormat="1">
@@ -51093,17 +51093,17 @@
         <v>94</v>
       </c>
       <c r="B1401" s="5">
-        <v>32522.453200000004</v>
+        <v>32157.211000000003</v>
       </c>
       <c r="C1401" s="20">
-        <v>6.0000000000000098</v>
+        <v>5.000000000000008</v>
       </c>
       <c r="D1401" s="3"/>
       <c r="T1401" s="8">
-        <v>2.2094494727192284</v>
+        <v>2.3052600046473284</v>
       </c>
       <c r="U1401" s="8">
-        <v>2.9790244258480576</v>
+        <v>3.1098402270824645</v>
       </c>
     </row>
     <row r="1402" spans="1:21" s="20" customFormat="1">
@@ -51111,17 +51111,17 @@
         <v>94</v>
       </c>
       <c r="B1402" s="5">
-        <v>32887.695400000004</v>
+        <v>32522.453200000004</v>
       </c>
       <c r="C1402" s="20">
-        <v>7.0000000000000107</v>
+        <v>6.0000000000000098</v>
       </c>
       <c r="D1402" s="3"/>
       <c r="T1402" s="8">
-        <v>2.3636084457233442</v>
+        <v>2.2094494727192284</v>
       </c>
       <c r="U1402" s="8">
-        <v>3.251902087796307</v>
+        <v>2.9790244258480576</v>
       </c>
     </row>
     <row r="1403" spans="1:21" s="20" customFormat="1">
@@ -51129,17 +51129,17 @@
         <v>94</v>
       </c>
       <c r="B1403" s="5">
-        <v>33252.937600000005</v>
+        <v>32887.695400000004</v>
       </c>
       <c r="C1403" s="20">
-        <v>8.0000000000000124</v>
+        <v>7.0000000000000107</v>
       </c>
       <c r="D1403" s="3"/>
       <c r="T1403" s="8">
-        <v>2.4351727758873691</v>
+        <v>2.3636084457233442</v>
       </c>
       <c r="U1403" s="8">
-        <v>3.3788102839644893</v>
+        <v>3.251902087796307</v>
       </c>
     </row>
     <row r="1404" spans="1:21" s="20" customFormat="1">
@@ -51147,17 +51147,17 @@
         <v>94</v>
       </c>
       <c r="B1404" s="5">
-        <v>33618.179800000005</v>
+        <v>33252.937600000005</v>
       </c>
       <c r="C1404" s="20">
-        <v>9.0000000000000142</v>
+        <v>8.0000000000000124</v>
       </c>
       <c r="D1404" s="3"/>
       <c r="T1404" s="8">
-        <v>2.2000509716417485</v>
+        <v>2.4351727758873691</v>
       </c>
       <c r="U1404" s="8">
-        <v>3.0197651052492529</v>
+        <v>3.3788102839644893</v>
       </c>
     </row>
     <row r="1405" spans="1:21" s="20" customFormat="1">
@@ -51165,17 +51165,17 @@
         <v>94</v>
       </c>
       <c r="B1405" s="5">
-        <v>33983.422000000006</v>
+        <v>33618.179800000005</v>
       </c>
       <c r="C1405" s="20">
-        <v>10.000000000000016</v>
+        <v>9.0000000000000142</v>
       </c>
       <c r="D1405" s="3"/>
       <c r="T1405" s="8">
-        <v>1.9481638918509419</v>
+        <v>2.2000509716417485</v>
       </c>
       <c r="U1405" s="8">
-        <v>2.661453871128951</v>
+        <v>3.0197651052492529</v>
       </c>
     </row>
     <row r="1406" spans="1:21" s="20" customFormat="1">
@@ -51183,17 +51183,17 @@
         <v>94</v>
       </c>
       <c r="B1406" s="5">
-        <v>34348.664200000007</v>
+        <v>33983.422000000006</v>
       </c>
       <c r="C1406" s="20">
-        <v>11.000000000000018</v>
+        <v>10.000000000000016</v>
       </c>
       <c r="D1406" s="3"/>
       <c r="T1406" s="8">
-        <v>1.844267649184012</v>
+        <v>1.9481638918509419</v>
       </c>
       <c r="U1406" s="8">
-        <v>2.4575706034205611</v>
+        <v>2.661453871128951</v>
       </c>
     </row>
     <row r="1407" spans="1:21" s="20" customFormat="1">
@@ -51201,17 +51201,17 @@
         <v>94</v>
       </c>
       <c r="B1407" s="5">
-        <v>34713.906400000007</v>
+        <v>34348.664200000007</v>
       </c>
       <c r="C1407" s="20">
-        <v>12.00000000000002</v>
+        <v>11.000000000000018</v>
       </c>
       <c r="D1407" s="3"/>
       <c r="T1407" s="8">
-        <v>2.1372379002352311</v>
+        <v>1.844267649184012</v>
       </c>
       <c r="U1407" s="8">
-        <v>2.761356691038614</v>
+        <v>2.4575706034205611</v>
       </c>
     </row>
     <row r="1408" spans="1:21" s="20" customFormat="1">
@@ -51219,35 +51219,35 @@
         <v>94</v>
       </c>
       <c r="B1408" s="5">
-        <v>35079.148600000008</v>
+        <v>34713.906400000007</v>
       </c>
       <c r="C1408" s="20">
-        <v>13.00000000000002</v>
+        <v>12.00000000000002</v>
       </c>
       <c r="D1408" s="3"/>
       <c r="T1408" s="8">
-        <v>2.2183083215823833</v>
+        <v>2.1372379002352311</v>
       </c>
       <c r="U1408" s="8">
-        <v>2.8130605161717477</v>
+        <v>2.761356691038614</v>
       </c>
     </row>
     <row r="1409" spans="1:21" s="20" customFormat="1">
       <c r="A1409" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1409" s="5">
-        <v>30331</v>
+        <v>35079.148600000008</v>
       </c>
       <c r="C1409" s="20">
-        <v>0</v>
+        <v>13.00000000000002</v>
       </c>
       <c r="D1409" s="3"/>
       <c r="T1409" s="8">
-        <v>1.8716257200971484</v>
+        <v>2.2183083215823833</v>
       </c>
       <c r="U1409" s="8">
-        <v>2.8872415655766668</v>
+        <v>2.8130605161717477</v>
       </c>
     </row>
     <row r="1410" spans="1:21" s="20" customFormat="1">
@@ -51255,17 +51255,17 @@
         <v>95</v>
       </c>
       <c r="B1410" s="5">
-        <v>30696.242200000001</v>
+        <v>30331</v>
       </c>
       <c r="C1410" s="20">
-        <v>1.0000000000000016</v>
+        <v>0</v>
       </c>
       <c r="D1410" s="3"/>
       <c r="T1410" s="8">
-        <v>2.1537413637680283</v>
+        <v>1.8716257200971484</v>
       </c>
       <c r="U1410" s="8">
-        <v>3.2526533729735578</v>
+        <v>2.8872415655766668</v>
       </c>
     </row>
     <row r="1411" spans="1:21" s="20" customFormat="1">
@@ -51273,17 +51273,17 @@
         <v>95</v>
       </c>
       <c r="B1411" s="5">
-        <v>31061.484400000001</v>
+        <v>30696.242200000001</v>
       </c>
       <c r="C1411" s="20">
-        <v>2.0000000000000031</v>
+        <v>1.0000000000000016</v>
       </c>
       <c r="D1411" s="3"/>
       <c r="T1411" s="8">
-        <v>2.2909393931098587</v>
+        <v>2.1537413637680283</v>
       </c>
       <c r="U1411" s="8">
-        <v>3.5464936099236377</v>
+        <v>3.2526533729735578</v>
       </c>
     </row>
     <row r="1412" spans="1:21" s="20" customFormat="1">
@@ -51291,17 +51291,17 @@
         <v>95</v>
       </c>
       <c r="B1412" s="5">
-        <v>31426.726600000002</v>
+        <v>31061.484400000001</v>
       </c>
       <c r="C1412" s="20">
-        <v>3.0000000000000049</v>
+        <v>2.0000000000000031</v>
       </c>
       <c r="D1412" s="3"/>
       <c r="T1412" s="8">
-        <v>2.1863620093646849</v>
+        <v>2.2909393931098587</v>
       </c>
       <c r="U1412" s="8">
-        <v>3.3765517651889647</v>
+        <v>3.5464936099236377</v>
       </c>
     </row>
     <row r="1413" spans="1:21" s="20" customFormat="1">
@@ -51309,17 +51309,17 @@
         <v>95</v>
       </c>
       <c r="B1413" s="5">
-        <v>31791.968800000002</v>
+        <v>31426.726600000002</v>
       </c>
       <c r="C1413" s="20">
-        <v>4.0000000000000062</v>
+        <v>3.0000000000000049</v>
       </c>
       <c r="D1413" s="3"/>
       <c r="T1413" s="8">
-        <v>2.1198841981289727</v>
+        <v>2.1863620093646849</v>
       </c>
       <c r="U1413" s="8">
-        <v>3.2848614013922885</v>
+        <v>3.3765517651889647</v>
       </c>
     </row>
     <row r="1414" spans="1:21" s="20" customFormat="1">
@@ -51327,17 +51327,17 @@
         <v>95</v>
       </c>
       <c r="B1414" s="5">
-        <v>32157.211000000003</v>
+        <v>31791.968800000002</v>
       </c>
       <c r="C1414" s="20">
-        <v>5.000000000000008</v>
+        <v>4.0000000000000062</v>
       </c>
       <c r="D1414" s="3"/>
       <c r="T1414" s="8">
-        <v>2.184204192463052</v>
+        <v>2.1198841981289727</v>
       </c>
       <c r="U1414" s="8">
-        <v>3.1992015699056848</v>
+        <v>3.2848614013922885</v>
       </c>
     </row>
     <row r="1415" spans="1:21" s="20" customFormat="1">
@@ -51345,17 +51345,17 @@
         <v>95</v>
       </c>
       <c r="B1415" s="5">
-        <v>32522.453200000004</v>
+        <v>32157.211000000003</v>
       </c>
       <c r="C1415" s="20">
-        <v>6.0000000000000098</v>
+        <v>5.000000000000008</v>
       </c>
       <c r="D1415" s="3"/>
       <c r="T1415" s="8">
-        <v>2.11911810739148</v>
+        <v>2.184204192463052</v>
       </c>
       <c r="U1415" s="8">
-        <v>3.0606925502691316</v>
+        <v>3.1992015699056848</v>
       </c>
     </row>
     <row r="1416" spans="1:21" s="20" customFormat="1">
@@ -51363,17 +51363,17 @@
         <v>95</v>
       </c>
       <c r="B1416" s="5">
-        <v>32887.695400000004</v>
+        <v>32522.453200000004</v>
       </c>
       <c r="C1416" s="20">
-        <v>7.0000000000000107</v>
+        <v>6.0000000000000098</v>
       </c>
       <c r="D1416" s="3"/>
       <c r="T1416" s="8">
-        <v>2.1847524536938305</v>
+        <v>2.11911810739148</v>
       </c>
       <c r="U1416" s="8">
-        <v>3.1383008263331624</v>
+        <v>3.0606925502691316</v>
       </c>
     </row>
     <row r="1417" spans="1:21" s="20" customFormat="1">
@@ -51381,17 +51381,17 @@
         <v>95</v>
       </c>
       <c r="B1417" s="5">
-        <v>33252.937600000005</v>
+        <v>32887.695400000004</v>
       </c>
       <c r="C1417" s="20">
-        <v>8.0000000000000124</v>
+        <v>7.0000000000000107</v>
       </c>
       <c r="D1417" s="3"/>
       <c r="T1417" s="8">
-        <v>2.2189475323005232</v>
+        <v>2.1847524536938305</v>
       </c>
       <c r="U1417" s="8">
-        <v>3.1693430976034427</v>
+        <v>3.1383008263331624</v>
       </c>
     </row>
     <row r="1418" spans="1:21" s="20" customFormat="1">
@@ -51399,17 +51399,17 @@
         <v>95</v>
       </c>
       <c r="B1418" s="5">
-        <v>33618.179800000005</v>
+        <v>33252.937600000005</v>
       </c>
       <c r="C1418" s="20">
-        <v>9.0000000000000142</v>
+        <v>8.0000000000000124</v>
       </c>
       <c r="D1418" s="3"/>
       <c r="T1418" s="8">
-        <v>2.2373550571525884</v>
+        <v>2.2189475323005232</v>
       </c>
       <c r="U1418" s="8">
-        <v>3.1925786019181368</v>
+        <v>3.1693430976034427</v>
       </c>
     </row>
     <row r="1419" spans="1:21" s="20" customFormat="1">
@@ -51417,17 +51417,17 @@
         <v>95</v>
       </c>
       <c r="B1419" s="5">
-        <v>33983.422000000006</v>
+        <v>33618.179800000005</v>
       </c>
       <c r="C1419" s="20">
-        <v>10.000000000000016</v>
+        <v>9.0000000000000142</v>
       </c>
       <c r="D1419" s="3"/>
       <c r="T1419" s="8">
-        <v>2.4524097686203481</v>
+        <v>2.2373550571525884</v>
       </c>
       <c r="U1419" s="8">
-        <v>3.6599236628586165</v>
+        <v>3.1925786019181368</v>
       </c>
     </row>
     <row r="1420" spans="1:21" s="20" customFormat="1">
@@ -51435,17 +51435,17 @@
         <v>95</v>
       </c>
       <c r="B1420" s="5">
-        <v>34348.664200000007</v>
+        <v>33983.422000000006</v>
       </c>
       <c r="C1420" s="20">
-        <v>11.000000000000018</v>
+        <v>10.000000000000016</v>
       </c>
       <c r="D1420" s="3"/>
       <c r="T1420" s="8">
-        <v>2.6868483958759737</v>
+        <v>2.4524097686203481</v>
       </c>
       <c r="U1420" s="8">
-        <v>3.5802213210508054</v>
+        <v>3.6599236628586165</v>
       </c>
     </row>
     <row r="1421" spans="1:21" s="20" customFormat="1">
@@ -51453,17 +51453,17 @@
         <v>95</v>
       </c>
       <c r="B1421" s="5">
-        <v>34713.906400000007</v>
+        <v>34348.664200000007</v>
       </c>
       <c r="C1421" s="20">
-        <v>12.00000000000002</v>
+        <v>11.000000000000018</v>
       </c>
       <c r="D1421" s="3"/>
       <c r="T1421" s="8">
-        <v>2.8234082404132939</v>
+        <v>2.6868483958759737</v>
       </c>
       <c r="U1421" s="8">
-        <v>3.8156355603372818</v>
+        <v>3.5802213210508054</v>
       </c>
     </row>
     <row r="1422" spans="1:21" s="20" customFormat="1">
@@ -51471,35 +51471,35 @@
         <v>95</v>
       </c>
       <c r="B1422" s="5">
-        <v>35079.148600000008</v>
+        <v>34713.906400000007</v>
       </c>
       <c r="C1422" s="20">
-        <v>13.00000000000002</v>
+        <v>12.00000000000002</v>
       </c>
       <c r="D1422" s="3"/>
       <c r="T1422" s="8">
-        <v>2.6931052024611741</v>
+        <v>2.8234082404132939</v>
       </c>
       <c r="U1422" s="8">
-        <v>3.4134625460356065</v>
+        <v>3.8156355603372818</v>
       </c>
     </row>
     <row r="1423" spans="1:21" s="20" customFormat="1">
       <c r="A1423" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1423" s="5">
-        <v>30331</v>
+        <v>35079.148600000008</v>
       </c>
       <c r="C1423" s="20">
-        <v>0</v>
+        <v>13.00000000000002</v>
       </c>
       <c r="D1423" s="3"/>
       <c r="T1423" s="8">
-        <v>2.3694441960917878</v>
+        <v>2.6931052024611741</v>
       </c>
       <c r="U1423" s="8">
-        <v>3.0882959666920256</v>
+        <v>3.4134625460356065</v>
       </c>
     </row>
     <row r="1424" spans="1:21" s="20" customFormat="1">
@@ -51507,17 +51507,17 @@
         <v>96</v>
       </c>
       <c r="B1424" s="5">
-        <v>30696.242200000001</v>
+        <v>30331</v>
       </c>
       <c r="C1424" s="20">
-        <v>1.0000000000000016</v>
+        <v>0</v>
       </c>
       <c r="D1424" s="3"/>
       <c r="T1424" s="8">
-        <v>2.5692741850464254</v>
+        <v>2.3694441960917878</v>
       </c>
       <c r="U1424" s="8">
-        <v>3.5115735057725548</v>
+        <v>3.0882959666920256</v>
       </c>
     </row>
     <row r="1425" spans="1:21" s="20" customFormat="1">
@@ -51525,17 +51525,17 @@
         <v>96</v>
       </c>
       <c r="B1425" s="5">
-        <v>31061.484400000001</v>
+        <v>30696.242200000001</v>
       </c>
       <c r="C1425" s="20">
-        <v>2.0000000000000031</v>
+        <v>1.0000000000000016</v>
       </c>
       <c r="D1425" s="3"/>
       <c r="T1425" s="8">
-        <v>2.554606045983085</v>
+        <v>2.5692741850464254</v>
       </c>
       <c r="U1425" s="8">
-        <v>3.609737152206367</v>
+        <v>3.5115735057725548</v>
       </c>
     </row>
     <row r="1426" spans="1:21" s="20" customFormat="1">
@@ -51543,17 +51543,17 @@
         <v>96</v>
       </c>
       <c r="B1426" s="5">
-        <v>31426.726600000002</v>
+        <v>31061.484400000001</v>
       </c>
       <c r="C1426" s="20">
-        <v>3.0000000000000049</v>
+        <v>2.0000000000000031</v>
       </c>
       <c r="D1426" s="3"/>
       <c r="T1426" s="8">
-        <v>2.4542002638791187</v>
+        <v>2.554606045983085</v>
       </c>
       <c r="U1426" s="8">
-        <v>3.4273198412268946</v>
+        <v>3.609737152206367</v>
       </c>
     </row>
     <row r="1427" spans="1:21" s="20" customFormat="1">
@@ -51561,17 +51561,17 @@
         <v>96</v>
       </c>
       <c r="B1427" s="5">
-        <v>31791.968800000002</v>
+        <v>31426.726600000002</v>
       </c>
       <c r="C1427" s="20">
-        <v>4.0000000000000062</v>
+        <v>3.0000000000000049</v>
       </c>
       <c r="D1427" s="3"/>
       <c r="T1427" s="8">
-        <v>2.4763176191037024</v>
+        <v>2.4542002638791187</v>
       </c>
       <c r="U1427" s="8">
-        <v>3.3539979087022815</v>
+        <v>3.4273198412268946</v>
       </c>
     </row>
     <row r="1428" spans="1:21" s="20" customFormat="1">
@@ -51579,17 +51579,17 @@
         <v>96</v>
       </c>
       <c r="B1428" s="5">
-        <v>32157.211000000003</v>
+        <v>31791.968800000002</v>
       </c>
       <c r="C1428" s="20">
-        <v>5.000000000000008</v>
+        <v>4.0000000000000062</v>
       </c>
       <c r="D1428" s="3"/>
       <c r="T1428" s="8">
-        <v>2.4617085141600272</v>
+        <v>2.4763176191037024</v>
       </c>
       <c r="U1428" s="8">
-        <v>3.095527916118908</v>
+        <v>3.3539979087022815</v>
       </c>
     </row>
     <row r="1429" spans="1:21" s="20" customFormat="1">
@@ -51597,17 +51597,17 @@
         <v>96</v>
       </c>
       <c r="B1429" s="5">
-        <v>32522.453200000004</v>
+        <v>32157.211000000003</v>
       </c>
       <c r="C1429" s="20">
-        <v>6.0000000000000098</v>
+        <v>5.000000000000008</v>
       </c>
       <c r="D1429" s="3"/>
       <c r="T1429" s="8">
-        <v>2.3823948783896052</v>
+        <v>2.4617085141600272</v>
       </c>
       <c r="U1429" s="8">
-        <v>3.0734037490570061</v>
+        <v>3.095527916118908</v>
       </c>
     </row>
     <row r="1430" spans="1:21" s="20" customFormat="1">
@@ -51615,17 +51615,17 @@
         <v>96</v>
       </c>
       <c r="B1430" s="5">
-        <v>32887.695400000004</v>
+        <v>32522.453200000004</v>
       </c>
       <c r="C1430" s="20">
-        <v>7.0000000000000107</v>
+        <v>6.0000000000000098</v>
       </c>
       <c r="D1430" s="3"/>
       <c r="T1430" s="8">
-        <v>2.4571103928265625</v>
+        <v>2.3823948783896052</v>
       </c>
       <c r="U1430" s="8">
-        <v>3.1669236272078791</v>
+        <v>3.0734037490570061</v>
       </c>
     </row>
     <row r="1431" spans="1:21" s="20" customFormat="1">
@@ -51633,17 +51633,17 @@
         <v>96</v>
       </c>
       <c r="B1431" s="5">
-        <v>33252.937600000005</v>
+        <v>32887.695400000004</v>
       </c>
       <c r="C1431" s="20">
-        <v>8.0000000000000124</v>
+        <v>7.0000000000000107</v>
       </c>
       <c r="D1431" s="3"/>
       <c r="T1431" s="8">
-        <v>2.4163684958890244</v>
+        <v>2.4571103928265625</v>
       </c>
       <c r="U1431" s="8">
-        <v>3.0647651832352412</v>
+        <v>3.1669236272078791</v>
       </c>
     </row>
     <row r="1432" spans="1:21" s="20" customFormat="1">
@@ -51651,17 +51651,17 @@
         <v>96</v>
       </c>
       <c r="B1432" s="5">
-        <v>33618.179800000005</v>
+        <v>33252.937600000005</v>
       </c>
       <c r="C1432" s="20">
-        <v>9.0000000000000142</v>
+        <v>8.0000000000000124</v>
       </c>
       <c r="D1432" s="3"/>
       <c r="T1432" s="8">
-        <v>2.3925209791856989</v>
+        <v>2.4163684958890244</v>
       </c>
       <c r="U1432" s="8">
-        <v>2.9888129265753967</v>
+        <v>3.0647651832352412</v>
       </c>
     </row>
     <row r="1433" spans="1:21" s="20" customFormat="1">
@@ -51669,17 +51669,17 @@
         <v>96</v>
       </c>
       <c r="B1433" s="5">
-        <v>33983.422000000006</v>
+        <v>33618.179800000005</v>
       </c>
       <c r="C1433" s="20">
-        <v>10.000000000000016</v>
+        <v>9.0000000000000142</v>
       </c>
       <c r="D1433" s="3"/>
       <c r="T1433" s="8">
-        <v>2.5718994553713248</v>
+        <v>2.3925209791856989</v>
       </c>
       <c r="U1433" s="8">
-        <v>3.4361000130507162</v>
+        <v>2.9888129265753967</v>
       </c>
     </row>
     <row r="1434" spans="1:21" s="20" customFormat="1">
@@ -51687,17 +51687,17 @@
         <v>96</v>
       </c>
       <c r="B1434" s="5">
-        <v>34348.664200000007</v>
+        <v>33983.422000000006</v>
       </c>
       <c r="C1434" s="20">
-        <v>11.000000000000018</v>
+        <v>10.000000000000016</v>
       </c>
       <c r="D1434" s="3"/>
       <c r="T1434" s="8">
-        <v>2.6652210059237524</v>
+        <v>2.5718994553713248</v>
       </c>
       <c r="U1434" s="8">
-        <v>3.4429713648184519</v>
+        <v>3.4361000130507162</v>
       </c>
     </row>
     <row r="1435" spans="1:21" s="20" customFormat="1">
@@ -51705,17 +51705,17 @@
         <v>96</v>
       </c>
       <c r="B1435" s="5">
-        <v>34713.906400000007</v>
+        <v>34348.664200000007</v>
       </c>
       <c r="C1435" s="20">
-        <v>12.00000000000002</v>
+        <v>11.000000000000018</v>
       </c>
       <c r="D1435" s="3"/>
       <c r="T1435" s="8">
-        <v>2.930487556301109</v>
+        <v>2.6652210059237524</v>
       </c>
       <c r="U1435" s="8">
-        <v>4.1673846841885798</v>
+        <v>3.4429713648184519</v>
       </c>
     </row>
     <row r="1436" spans="1:21" s="20" customFormat="1">
@@ -51723,16 +51723,34 @@
         <v>96</v>
       </c>
       <c r="B1436" s="5">
-        <v>35079.148600000008</v>
+        <v>34713.906400000007</v>
       </c>
       <c r="C1436" s="20">
-        <v>13.00000000000002</v>
+        <v>12.00000000000002</v>
       </c>
       <c r="D1436" s="3"/>
       <c r="T1436" s="8">
+        <v>2.930487556301109</v>
+      </c>
+      <c r="U1436" s="8">
+        <v>4.1673846841885798</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:21" s="20" customFormat="1">
+      <c r="A1437" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1437" s="5">
+        <v>35079.148600000008</v>
+      </c>
+      <c r="C1437" s="20">
+        <v>13.00000000000002</v>
+      </c>
+      <c r="D1437" s="3"/>
+      <c r="T1437" s="8">
         <v>2.9301642868738442</v>
       </c>
-      <c r="U1436" s="8">
+      <c r="U1437" s="8">
         <v>4.1904467960491347</v>
       </c>
     </row>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B7FB22-77B0-46F2-BDBF-D98361BA655E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87164BF-BE68-4368-BC36-A48D613341AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,10 +987,10 @@
   <dimension ref="A1:BT1441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D1048" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D1279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1067" sqref="E1067:E1068"/>
+      <selection pane="bottomRight" activeCell="B1283" sqref="B1283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -52646,10 +52646,10 @@
         <v>89</v>
       </c>
       <c r="B1330" s="5">
-        <v>30331</v>
+        <v>32523</v>
       </c>
       <c r="C1330" s="20">
-        <v>0</v>
+        <v>6.0014970887810879</v>
       </c>
       <c r="D1330" s="3"/>
       <c r="T1330" s="8">
@@ -52664,10 +52664,10 @@
         <v>89</v>
       </c>
       <c r="B1331" s="5">
-        <v>30696.242200000001</v>
+        <v>32888.242200000001</v>
       </c>
       <c r="C1331" s="20">
-        <v>1.0000000000000016</v>
+        <v>7.0014970887810897</v>
       </c>
       <c r="D1331" s="3"/>
       <c r="T1331" s="8">
@@ -52682,10 +52682,10 @@
         <v>89</v>
       </c>
       <c r="B1332" s="5">
-        <v>31061.484400000001</v>
+        <v>33253.484400000001</v>
       </c>
       <c r="C1332" s="20">
-        <v>2.0000000000000031</v>
+        <v>8.0014970887810914</v>
       </c>
       <c r="D1332" s="3"/>
       <c r="T1332" s="8">
@@ -52700,10 +52700,10 @@
         <v>89</v>
       </c>
       <c r="B1333" s="5">
-        <v>31426.726600000002</v>
+        <v>33618.726600000002</v>
       </c>
       <c r="C1333" s="20">
-        <v>3.0000000000000049</v>
+        <v>9.0014970887810932</v>
       </c>
       <c r="D1333" s="3"/>
       <c r="T1333" s="8">
@@ -52718,10 +52718,10 @@
         <v>89</v>
       </c>
       <c r="B1334" s="5">
-        <v>31791.968800000002</v>
+        <v>33983.968800000002</v>
       </c>
       <c r="C1334" s="20">
-        <v>4.0000000000000062</v>
+        <v>10.001497088781093</v>
       </c>
       <c r="D1334" s="3"/>
       <c r="T1334" s="8">
@@ -52736,10 +52736,10 @@
         <v>89</v>
       </c>
       <c r="B1335" s="5">
-        <v>32157.211000000003</v>
+        <v>34349.211000000003</v>
       </c>
       <c r="C1335" s="20">
-        <v>5.000000000000008</v>
+        <v>11.001497088781095</v>
       </c>
       <c r="D1335" s="3"/>
       <c r="T1335" s="8">
@@ -52754,10 +52754,10 @@
         <v>89</v>
       </c>
       <c r="B1336" s="5">
-        <v>32522.453200000004</v>
+        <v>34714.453200000004</v>
       </c>
       <c r="C1336" s="20">
-        <v>6.0000000000000098</v>
+        <v>12.001497088781097</v>
       </c>
       <c r="D1336" s="3"/>
       <c r="T1336" s="8">
@@ -52772,10 +52772,10 @@
         <v>89</v>
       </c>
       <c r="B1337" s="5">
-        <v>32887.695400000004</v>
+        <v>35079.695400000004</v>
       </c>
       <c r="C1337" s="20">
-        <v>7.0000000000000107</v>
+        <v>13.001497088781099</v>
       </c>
       <c r="D1337" s="3"/>
       <c r="T1337" s="8">
@@ -52790,10 +52790,10 @@
         <v>89</v>
       </c>
       <c r="B1338" s="5">
-        <v>33252.937600000005</v>
+        <v>35444.937600000005</v>
       </c>
       <c r="C1338" s="20">
-        <v>8.0000000000000124</v>
+        <v>14.0014970887811</v>
       </c>
       <c r="D1338" s="3"/>
       <c r="T1338" s="8">
@@ -52808,10 +52808,10 @@
         <v>89</v>
       </c>
       <c r="B1339" s="5">
-        <v>33618.179800000005</v>
+        <v>35810.179800000005</v>
       </c>
       <c r="C1339" s="20">
-        <v>9.0000000000000142</v>
+        <v>15.001497088781102</v>
       </c>
       <c r="D1339" s="3"/>
       <c r="T1339" s="8">
@@ -52826,10 +52826,10 @@
         <v>89</v>
       </c>
       <c r="B1340" s="5">
-        <v>33983.422000000006</v>
+        <v>36175.422000000006</v>
       </c>
       <c r="C1340" s="20">
-        <v>10.000000000000016</v>
+        <v>16.001497088781104</v>
       </c>
       <c r="D1340" s="3"/>
       <c r="T1340" s="8">
@@ -52844,10 +52844,10 @@
         <v>89</v>
       </c>
       <c r="B1341" s="5">
-        <v>34348.664200000007</v>
+        <v>36540.664200000007</v>
       </c>
       <c r="C1341" s="20">
-        <v>11.000000000000018</v>
+        <v>17.001497088781104</v>
       </c>
       <c r="D1341" s="3"/>
       <c r="T1341" s="8">
@@ -52862,10 +52862,10 @@
         <v>89</v>
       </c>
       <c r="B1342" s="5">
-        <v>34713.906400000007</v>
+        <v>36905.906400000007</v>
       </c>
       <c r="C1342" s="20">
-        <v>12.00000000000002</v>
+        <v>18.001497088781107</v>
       </c>
       <c r="D1342" s="3"/>
       <c r="T1342" s="8">
@@ -52880,10 +52880,10 @@
         <v>89</v>
       </c>
       <c r="B1343" s="5">
-        <v>35079.148600000008</v>
+        <v>37271.148600000008</v>
       </c>
       <c r="C1343" s="20">
-        <v>13.00000000000002</v>
+        <v>19.001497088781107</v>
       </c>
       <c r="D1343" s="3"/>
       <c r="T1343" s="8">
@@ -52898,10 +52898,10 @@
         <v>90</v>
       </c>
       <c r="B1344" s="5">
-        <v>30331</v>
+        <v>32523</v>
       </c>
       <c r="C1344" s="20">
-        <v>0</v>
+        <v>6.0014970887810879</v>
       </c>
       <c r="D1344" s="3"/>
       <c r="T1344" s="8">
@@ -52916,10 +52916,10 @@
         <v>90</v>
       </c>
       <c r="B1345" s="5">
-        <v>30696.242200000001</v>
+        <v>32888.242200000001</v>
       </c>
       <c r="C1345" s="20">
-        <v>1.0000000000000016</v>
+        <v>7.0014970887810897</v>
       </c>
       <c r="D1345" s="3"/>
       <c r="T1345" s="8">
@@ -52934,10 +52934,10 @@
         <v>90</v>
       </c>
       <c r="B1346" s="5">
-        <v>31061.484400000001</v>
+        <v>33253.484400000001</v>
       </c>
       <c r="C1346" s="20">
-        <v>2.0000000000000031</v>
+        <v>8.0014970887810914</v>
       </c>
       <c r="D1346" s="3"/>
       <c r="T1346" s="8">
@@ -52952,10 +52952,10 @@
         <v>90</v>
       </c>
       <c r="B1347" s="5">
-        <v>31426.726600000002</v>
+        <v>33618.726600000002</v>
       </c>
       <c r="C1347" s="20">
-        <v>3.0000000000000049</v>
+        <v>9.0014970887810932</v>
       </c>
       <c r="D1347" s="3"/>
       <c r="T1347" s="8">
@@ -52970,10 +52970,10 @@
         <v>90</v>
       </c>
       <c r="B1348" s="5">
-        <v>31791.968800000002</v>
+        <v>33983.968800000002</v>
       </c>
       <c r="C1348" s="20">
-        <v>4.0000000000000062</v>
+        <v>10.001497088781093</v>
       </c>
       <c r="D1348" s="3"/>
       <c r="T1348" s="8">
@@ -52988,10 +52988,10 @@
         <v>90</v>
       </c>
       <c r="B1349" s="5">
-        <v>32157.211000000003</v>
+        <v>34349.211000000003</v>
       </c>
       <c r="C1349" s="20">
-        <v>5.000000000000008</v>
+        <v>11.001497088781095</v>
       </c>
       <c r="D1349" s="3"/>
       <c r="T1349" s="8">
@@ -53006,10 +53006,10 @@
         <v>90</v>
       </c>
       <c r="B1350" s="5">
-        <v>32522.453200000004</v>
+        <v>34714.453200000004</v>
       </c>
       <c r="C1350" s="20">
-        <v>6.0000000000000098</v>
+        <v>12.001497088781097</v>
       </c>
       <c r="D1350" s="3"/>
       <c r="T1350" s="8">
@@ -53024,10 +53024,10 @@
         <v>90</v>
       </c>
       <c r="B1351" s="5">
-        <v>32887.695400000004</v>
+        <v>35079.695400000004</v>
       </c>
       <c r="C1351" s="20">
-        <v>7.0000000000000107</v>
+        <v>13.001497088781099</v>
       </c>
       <c r="D1351" s="3"/>
       <c r="T1351" s="8">
@@ -53042,10 +53042,10 @@
         <v>90</v>
       </c>
       <c r="B1352" s="5">
-        <v>33252.937600000005</v>
+        <v>35444.937600000005</v>
       </c>
       <c r="C1352" s="20">
-        <v>8.0000000000000124</v>
+        <v>14.0014970887811</v>
       </c>
       <c r="D1352" s="3"/>
       <c r="T1352" s="8">
@@ -53060,10 +53060,10 @@
         <v>90</v>
       </c>
       <c r="B1353" s="5">
-        <v>33618.179800000005</v>
+        <v>35810.179800000005</v>
       </c>
       <c r="C1353" s="20">
-        <v>9.0000000000000142</v>
+        <v>15.001497088781102</v>
       </c>
       <c r="D1353" s="3"/>
       <c r="T1353" s="8">
@@ -53078,10 +53078,10 @@
         <v>90</v>
       </c>
       <c r="B1354" s="5">
-        <v>33983.422000000006</v>
+        <v>36175.422000000006</v>
       </c>
       <c r="C1354" s="20">
-        <v>10.000000000000016</v>
+        <v>16.001497088781104</v>
       </c>
       <c r="D1354" s="3"/>
       <c r="T1354" s="8">
@@ -53096,10 +53096,10 @@
         <v>90</v>
       </c>
       <c r="B1355" s="5">
-        <v>34348.664200000007</v>
+        <v>36540.664200000007</v>
       </c>
       <c r="C1355" s="20">
-        <v>11.000000000000018</v>
+        <v>17.001497088781104</v>
       </c>
       <c r="D1355" s="3"/>
       <c r="T1355" s="8">
@@ -53114,10 +53114,10 @@
         <v>90</v>
       </c>
       <c r="B1356" s="5">
-        <v>34713.906400000007</v>
+        <v>36905.906400000007</v>
       </c>
       <c r="C1356" s="20">
-        <v>12.00000000000002</v>
+        <v>18.001497088781107</v>
       </c>
       <c r="D1356" s="3"/>
       <c r="T1356" s="8">
@@ -53132,10 +53132,10 @@
         <v>90</v>
       </c>
       <c r="B1357" s="5">
-        <v>35079.148600000008</v>
+        <v>37271.148600000008</v>
       </c>
       <c r="C1357" s="20">
-        <v>13.00000000000002</v>
+        <v>19.001497088781107</v>
       </c>
       <c r="D1357" s="3"/>
       <c r="T1357" s="8">
@@ -53150,10 +53150,10 @@
         <v>91</v>
       </c>
       <c r="B1358" s="5">
-        <v>30331</v>
+        <v>32523</v>
       </c>
       <c r="C1358" s="20">
-        <v>0</v>
+        <v>6.0014970887810879</v>
       </c>
       <c r="D1358" s="3"/>
       <c r="T1358" s="8">
@@ -53168,10 +53168,10 @@
         <v>91</v>
       </c>
       <c r="B1359" s="5">
-        <v>30696.242200000001</v>
+        <v>32888.242200000001</v>
       </c>
       <c r="C1359" s="20">
-        <v>1.0000000000000016</v>
+        <v>7.0014970887810897</v>
       </c>
       <c r="D1359" s="3"/>
       <c r="T1359" s="8">
@@ -53186,10 +53186,10 @@
         <v>91</v>
       </c>
       <c r="B1360" s="5">
-        <v>31061.484400000001</v>
+        <v>33253.484400000001</v>
       </c>
       <c r="C1360" s="20">
-        <v>2.0000000000000031</v>
+        <v>8.0014970887810914</v>
       </c>
       <c r="D1360" s="3"/>
       <c r="T1360" s="8">
@@ -53204,10 +53204,10 @@
         <v>91</v>
       </c>
       <c r="B1361" s="5">
-        <v>31426.726600000002</v>
+        <v>33618.726600000002</v>
       </c>
       <c r="C1361" s="20">
-        <v>3.0000000000000049</v>
+        <v>9.0014970887810932</v>
       </c>
       <c r="D1361" s="3"/>
       <c r="T1361" s="8">
@@ -53222,10 +53222,10 @@
         <v>91</v>
       </c>
       <c r="B1362" s="5">
-        <v>31791.968800000002</v>
+        <v>33983.968800000002</v>
       </c>
       <c r="C1362" s="20">
-        <v>4.0000000000000062</v>
+        <v>10.001497088781093</v>
       </c>
       <c r="D1362" s="3"/>
       <c r="T1362" s="8">
@@ -53240,10 +53240,10 @@
         <v>91</v>
       </c>
       <c r="B1363" s="5">
-        <v>32157.211000000003</v>
+        <v>34349.211000000003</v>
       </c>
       <c r="C1363" s="20">
-        <v>5.000000000000008</v>
+        <v>11.001497088781095</v>
       </c>
       <c r="D1363" s="3"/>
       <c r="T1363" s="8">
@@ -53258,10 +53258,10 @@
         <v>91</v>
       </c>
       <c r="B1364" s="5">
-        <v>32522.453200000004</v>
+        <v>34714.453200000004</v>
       </c>
       <c r="C1364" s="20">
-        <v>6.0000000000000098</v>
+        <v>12.001497088781097</v>
       </c>
       <c r="D1364" s="3"/>
       <c r="T1364" s="8">
@@ -53276,10 +53276,10 @@
         <v>91</v>
       </c>
       <c r="B1365" s="5">
-        <v>32887.695400000004</v>
+        <v>35079.695400000004</v>
       </c>
       <c r="C1365" s="20">
-        <v>7.0000000000000107</v>
+        <v>13.001497088781099</v>
       </c>
       <c r="D1365" s="3"/>
       <c r="T1365" s="8">
@@ -53294,10 +53294,10 @@
         <v>91</v>
       </c>
       <c r="B1366" s="5">
-        <v>33252.937600000005</v>
+        <v>35444.937600000005</v>
       </c>
       <c r="C1366" s="20">
-        <v>8.0000000000000124</v>
+        <v>14.0014970887811</v>
       </c>
       <c r="D1366" s="3"/>
       <c r="T1366" s="8">
@@ -53312,10 +53312,10 @@
         <v>91</v>
       </c>
       <c r="B1367" s="5">
-        <v>33618.179800000005</v>
+        <v>35810.179800000005</v>
       </c>
       <c r="C1367" s="20">
-        <v>9.0000000000000142</v>
+        <v>15.001497088781102</v>
       </c>
       <c r="D1367" s="3"/>
       <c r="T1367" s="8">
@@ -53330,10 +53330,10 @@
         <v>91</v>
       </c>
       <c r="B1368" s="5">
-        <v>33983.422000000006</v>
+        <v>36175.422000000006</v>
       </c>
       <c r="C1368" s="20">
-        <v>10.000000000000016</v>
+        <v>16.001497088781104</v>
       </c>
       <c r="D1368" s="3"/>
       <c r="T1368" s="8">
@@ -53348,10 +53348,10 @@
         <v>91</v>
       </c>
       <c r="B1369" s="5">
-        <v>34348.664200000007</v>
+        <v>36540.664200000007</v>
       </c>
       <c r="C1369" s="20">
-        <v>11.000000000000018</v>
+        <v>17.001497088781104</v>
       </c>
       <c r="D1369" s="3"/>
       <c r="T1369" s="8">
@@ -53366,10 +53366,10 @@
         <v>91</v>
       </c>
       <c r="B1370" s="5">
-        <v>34713.906400000007</v>
+        <v>36905.906400000007</v>
       </c>
       <c r="C1370" s="20">
-        <v>12.00000000000002</v>
+        <v>18.001497088781107</v>
       </c>
       <c r="D1370" s="3"/>
       <c r="T1370" s="8">
@@ -53384,10 +53384,10 @@
         <v>91</v>
       </c>
       <c r="B1371" s="5">
-        <v>35079.148600000008</v>
+        <v>37271.148600000008</v>
       </c>
       <c r="C1371" s="20">
-        <v>13.00000000000002</v>
+        <v>19.001497088781107</v>
       </c>
       <c r="D1371" s="3"/>
       <c r="T1371" s="8">
@@ -53402,10 +53402,10 @@
         <v>92</v>
       </c>
       <c r="B1372" s="5">
-        <v>30331</v>
+        <v>32523</v>
       </c>
       <c r="C1372" s="20">
-        <v>0</v>
+        <v>6.0014970887810879</v>
       </c>
       <c r="D1372" s="3"/>
       <c r="T1372" s="8">
@@ -53420,10 +53420,10 @@
         <v>92</v>
       </c>
       <c r="B1373" s="5">
-        <v>30696.242200000001</v>
+        <v>32888.242200000001</v>
       </c>
       <c r="C1373" s="20">
-        <v>1.0000000000000016</v>
+        <v>7.0014970887810897</v>
       </c>
       <c r="D1373" s="3"/>
       <c r="T1373" s="8">
@@ -53438,10 +53438,10 @@
         <v>92</v>
       </c>
       <c r="B1374" s="5">
-        <v>31061.484400000001</v>
+        <v>33253.484400000001</v>
       </c>
       <c r="C1374" s="20">
-        <v>2.0000000000000031</v>
+        <v>8.0014970887810914</v>
       </c>
       <c r="D1374" s="3"/>
       <c r="T1374" s="8">
@@ -53456,10 +53456,10 @@
         <v>92</v>
       </c>
       <c r="B1375" s="5">
-        <v>31426.726600000002</v>
+        <v>33618.726600000002</v>
       </c>
       <c r="C1375" s="20">
-        <v>3.0000000000000049</v>
+        <v>9.0014970887810932</v>
       </c>
       <c r="D1375" s="3"/>
       <c r="T1375" s="8">
@@ -53474,10 +53474,10 @@
         <v>92</v>
       </c>
       <c r="B1376" s="5">
-        <v>31791.968800000002</v>
+        <v>33983.968800000002</v>
       </c>
       <c r="C1376" s="20">
-        <v>4.0000000000000062</v>
+        <v>10.001497088781093</v>
       </c>
       <c r="D1376" s="3"/>
       <c r="T1376" s="8">
@@ -53492,10 +53492,10 @@
         <v>92</v>
       </c>
       <c r="B1377" s="5">
-        <v>32157.211000000003</v>
+        <v>34349.211000000003</v>
       </c>
       <c r="C1377" s="20">
-        <v>5.000000000000008</v>
+        <v>11.001497088781095</v>
       </c>
       <c r="D1377" s="3"/>
       <c r="T1377" s="8">
@@ -53510,10 +53510,10 @@
         <v>92</v>
       </c>
       <c r="B1378" s="5">
-        <v>32522.453200000004</v>
+        <v>34714.453200000004</v>
       </c>
       <c r="C1378" s="20">
-        <v>6.0000000000000098</v>
+        <v>12.001497088781097</v>
       </c>
       <c r="D1378" s="3"/>
       <c r="T1378" s="8">
@@ -53528,10 +53528,10 @@
         <v>92</v>
       </c>
       <c r="B1379" s="5">
-        <v>32887.695400000004</v>
+        <v>35079.695400000004</v>
       </c>
       <c r="C1379" s="20">
-        <v>7.0000000000000107</v>
+        <v>13.001497088781099</v>
       </c>
       <c r="D1379" s="3"/>
       <c r="T1379" s="8">
@@ -53546,10 +53546,10 @@
         <v>92</v>
       </c>
       <c r="B1380" s="5">
-        <v>33252.937600000005</v>
+        <v>35444.937600000005</v>
       </c>
       <c r="C1380" s="20">
-        <v>8.0000000000000124</v>
+        <v>14.0014970887811</v>
       </c>
       <c r="D1380" s="3"/>
       <c r="T1380" s="8">
@@ -53564,10 +53564,10 @@
         <v>92</v>
       </c>
       <c r="B1381" s="5">
-        <v>33618.179800000005</v>
+        <v>35810.179800000005</v>
       </c>
       <c r="C1381" s="20">
-        <v>9.0000000000000142</v>
+        <v>15.001497088781102</v>
       </c>
       <c r="D1381" s="3"/>
       <c r="T1381" s="8">
@@ -53582,10 +53582,10 @@
         <v>92</v>
       </c>
       <c r="B1382" s="5">
-        <v>33983.422000000006</v>
+        <v>36175.422000000006</v>
       </c>
       <c r="C1382" s="20">
-        <v>10.000000000000016</v>
+        <v>16.001497088781104</v>
       </c>
       <c r="D1382" s="3"/>
       <c r="T1382" s="8">
@@ -53600,10 +53600,10 @@
         <v>92</v>
       </c>
       <c r="B1383" s="5">
-        <v>34348.664200000007</v>
+        <v>36540.664200000007</v>
       </c>
       <c r="C1383" s="20">
-        <v>11.000000000000018</v>
+        <v>17.001497088781104</v>
       </c>
       <c r="D1383" s="3"/>
       <c r="T1383" s="8">
@@ -53618,10 +53618,10 @@
         <v>92</v>
       </c>
       <c r="B1384" s="5">
-        <v>34713.906400000007</v>
+        <v>36905.906400000007</v>
       </c>
       <c r="C1384" s="20">
-        <v>12.00000000000002</v>
+        <v>18.001497088781107</v>
       </c>
       <c r="D1384" s="3"/>
       <c r="T1384" s="8">
@@ -53636,10 +53636,10 @@
         <v>92</v>
       </c>
       <c r="B1385" s="5">
-        <v>35079.148600000008</v>
+        <v>37271.148600000008</v>
       </c>
       <c r="C1385" s="20">
-        <v>13.00000000000002</v>
+        <v>19.001497088781107</v>
       </c>
       <c r="D1385" s="3"/>
       <c r="T1385" s="8">
@@ -53654,10 +53654,10 @@
         <v>93</v>
       </c>
       <c r="B1386" s="5">
-        <v>30331</v>
+        <v>32523</v>
       </c>
       <c r="C1386" s="20">
-        <v>0</v>
+        <v>6.0014970887810879</v>
       </c>
       <c r="D1386" s="3"/>
       <c r="T1386" s="8">
@@ -53672,10 +53672,10 @@
         <v>93</v>
       </c>
       <c r="B1387" s="5">
-        <v>30696.242200000001</v>
+        <v>32888.242200000001</v>
       </c>
       <c r="C1387" s="20">
-        <v>1.0000000000000016</v>
+        <v>7.0014970887810897</v>
       </c>
       <c r="D1387" s="3"/>
       <c r="T1387" s="8">
@@ -53690,10 +53690,10 @@
         <v>93</v>
       </c>
       <c r="B1388" s="5">
-        <v>31061.484400000001</v>
+        <v>33253.484400000001</v>
       </c>
       <c r="C1388" s="20">
-        <v>2.0000000000000031</v>
+        <v>8.0014970887810914</v>
       </c>
       <c r="D1388" s="3"/>
       <c r="T1388" s="8">
@@ -53708,10 +53708,10 @@
         <v>93</v>
       </c>
       <c r="B1389" s="5">
-        <v>31426.726600000002</v>
+        <v>33618.726600000002</v>
       </c>
       <c r="C1389" s="20">
-        <v>3.0000000000000049</v>
+        <v>9.0014970887810932</v>
       </c>
       <c r="D1389" s="3"/>
       <c r="T1389" s="8">
@@ -53726,10 +53726,10 @@
         <v>93</v>
       </c>
       <c r="B1390" s="5">
-        <v>31791.968800000002</v>
+        <v>33983.968800000002</v>
       </c>
       <c r="C1390" s="20">
-        <v>4.0000000000000062</v>
+        <v>10.001497088781093</v>
       </c>
       <c r="D1390" s="3"/>
       <c r="T1390" s="8">
@@ -53744,10 +53744,10 @@
         <v>93</v>
       </c>
       <c r="B1391" s="5">
-        <v>32157.211000000003</v>
+        <v>34349.211000000003</v>
       </c>
       <c r="C1391" s="20">
-        <v>5.000000000000008</v>
+        <v>11.001497088781095</v>
       </c>
       <c r="D1391" s="3"/>
       <c r="T1391" s="8">
@@ -53762,10 +53762,10 @@
         <v>93</v>
       </c>
       <c r="B1392" s="5">
-        <v>32522.453200000004</v>
+        <v>34714.453200000004</v>
       </c>
       <c r="C1392" s="20">
-        <v>6.0000000000000098</v>
+        <v>12.001497088781097</v>
       </c>
       <c r="D1392" s="3"/>
       <c r="T1392" s="8">
@@ -53780,10 +53780,10 @@
         <v>93</v>
       </c>
       <c r="B1393" s="5">
-        <v>32887.695400000004</v>
+        <v>35079.695400000004</v>
       </c>
       <c r="C1393" s="20">
-        <v>7.0000000000000107</v>
+        <v>13.001497088781099</v>
       </c>
       <c r="D1393" s="3"/>
       <c r="T1393" s="8">
@@ -53798,10 +53798,10 @@
         <v>93</v>
       </c>
       <c r="B1394" s="5">
-        <v>33252.937600000005</v>
+        <v>35444.937600000005</v>
       </c>
       <c r="C1394" s="20">
-        <v>8.0000000000000124</v>
+        <v>14.0014970887811</v>
       </c>
       <c r="D1394" s="3"/>
       <c r="T1394" s="8">
@@ -53816,10 +53816,10 @@
         <v>93</v>
       </c>
       <c r="B1395" s="5">
-        <v>33618.179800000005</v>
+        <v>35810.179800000005</v>
       </c>
       <c r="C1395" s="20">
-        <v>9.0000000000000142</v>
+        <v>15.001497088781102</v>
       </c>
       <c r="D1395" s="3"/>
       <c r="T1395" s="8">
@@ -53834,10 +53834,10 @@
         <v>93</v>
       </c>
       <c r="B1396" s="5">
-        <v>33983.422000000006</v>
+        <v>36175.422000000006</v>
       </c>
       <c r="C1396" s="20">
-        <v>10.000000000000016</v>
+        <v>16.001497088781104</v>
       </c>
       <c r="D1396" s="3"/>
       <c r="T1396" s="8">
@@ -53852,10 +53852,10 @@
         <v>93</v>
       </c>
       <c r="B1397" s="5">
-        <v>34348.664200000007</v>
+        <v>36540.664200000007</v>
       </c>
       <c r="C1397" s="20">
-        <v>11.000000000000018</v>
+        <v>17.001497088781104</v>
       </c>
       <c r="D1397" s="3"/>
       <c r="T1397" s="8">
@@ -53870,10 +53870,10 @@
         <v>93</v>
       </c>
       <c r="B1398" s="5">
-        <v>34713.906400000007</v>
+        <v>36905.906400000007</v>
       </c>
       <c r="C1398" s="20">
-        <v>12.00000000000002</v>
+        <v>18.001497088781107</v>
       </c>
       <c r="D1398" s="3"/>
       <c r="T1398" s="8">
@@ -53888,10 +53888,10 @@
         <v>93</v>
       </c>
       <c r="B1399" s="5">
-        <v>35079.148600000008</v>
+        <v>37271.148600000008</v>
       </c>
       <c r="C1399" s="20">
-        <v>13.00000000000002</v>
+        <v>19.001497088781107</v>
       </c>
       <c r="D1399" s="3"/>
       <c r="T1399" s="8">
@@ -53906,10 +53906,10 @@
         <v>94</v>
       </c>
       <c r="B1400" s="5">
-        <v>30331</v>
+        <v>32523</v>
       </c>
       <c r="C1400" s="20">
-        <v>0</v>
+        <v>6.0014970887810879</v>
       </c>
       <c r="D1400" s="3"/>
       <c r="T1400" s="8">
@@ -53924,10 +53924,10 @@
         <v>94</v>
       </c>
       <c r="B1401" s="5">
-        <v>30696.242200000001</v>
+        <v>32888.242200000001</v>
       </c>
       <c r="C1401" s="20">
-        <v>1.0000000000000016</v>
+        <v>7.0014970887810897</v>
       </c>
       <c r="D1401" s="3"/>
       <c r="T1401" s="8">
@@ -53942,10 +53942,10 @@
         <v>94</v>
       </c>
       <c r="B1402" s="5">
-        <v>31061.484400000001</v>
+        <v>33253.484400000001</v>
       </c>
       <c r="C1402" s="20">
-        <v>2.0000000000000031</v>
+        <v>8.0014970887810914</v>
       </c>
       <c r="D1402" s="3"/>
       <c r="T1402" s="8">
@@ -53960,10 +53960,10 @@
         <v>94</v>
       </c>
       <c r="B1403" s="5">
-        <v>31426.726600000002</v>
+        <v>33618.726600000002</v>
       </c>
       <c r="C1403" s="20">
-        <v>3.0000000000000049</v>
+        <v>9.0014970887810932</v>
       </c>
       <c r="D1403" s="3"/>
       <c r="T1403" s="8">
@@ -53978,10 +53978,10 @@
         <v>94</v>
       </c>
       <c r="B1404" s="5">
-        <v>31791.968800000002</v>
+        <v>33983.968800000002</v>
       </c>
       <c r="C1404" s="20">
-        <v>4.0000000000000062</v>
+        <v>10.001497088781093</v>
       </c>
       <c r="D1404" s="3"/>
       <c r="T1404" s="8">
@@ -53996,10 +53996,10 @@
         <v>94</v>
       </c>
       <c r="B1405" s="5">
-        <v>32157.211000000003</v>
+        <v>34349.211000000003</v>
       </c>
       <c r="C1405" s="20">
-        <v>5.000000000000008</v>
+        <v>11.001497088781095</v>
       </c>
       <c r="D1405" s="3"/>
       <c r="T1405" s="8">
@@ -54014,10 +54014,10 @@
         <v>94</v>
       </c>
       <c r="B1406" s="5">
-        <v>32522.453200000004</v>
+        <v>34714.453200000004</v>
       </c>
       <c r="C1406" s="20">
-        <v>6.0000000000000098</v>
+        <v>12.001497088781097</v>
       </c>
       <c r="D1406" s="3"/>
       <c r="T1406" s="8">
@@ -54032,10 +54032,10 @@
         <v>94</v>
       </c>
       <c r="B1407" s="5">
-        <v>32887.695400000004</v>
+        <v>35079.695400000004</v>
       </c>
       <c r="C1407" s="20">
-        <v>7.0000000000000107</v>
+        <v>13.001497088781099</v>
       </c>
       <c r="D1407" s="3"/>
       <c r="T1407" s="8">
@@ -54050,10 +54050,10 @@
         <v>94</v>
       </c>
       <c r="B1408" s="5">
-        <v>33252.937600000005</v>
+        <v>35444.937600000005</v>
       </c>
       <c r="C1408" s="20">
-        <v>8.0000000000000124</v>
+        <v>14.0014970887811</v>
       </c>
       <c r="D1408" s="3"/>
       <c r="T1408" s="8">
@@ -54068,10 +54068,10 @@
         <v>94</v>
       </c>
       <c r="B1409" s="5">
-        <v>33618.179800000005</v>
+        <v>35810.179800000005</v>
       </c>
       <c r="C1409" s="20">
-        <v>9.0000000000000142</v>
+        <v>15.001497088781102</v>
       </c>
       <c r="D1409" s="3"/>
       <c r="T1409" s="8">
@@ -54086,10 +54086,10 @@
         <v>94</v>
       </c>
       <c r="B1410" s="5">
-        <v>33983.422000000006</v>
+        <v>36175.422000000006</v>
       </c>
       <c r="C1410" s="20">
-        <v>10.000000000000016</v>
+        <v>16.001497088781104</v>
       </c>
       <c r="D1410" s="3"/>
       <c r="T1410" s="8">
@@ -54104,10 +54104,10 @@
         <v>94</v>
       </c>
       <c r="B1411" s="5">
-        <v>34348.664200000007</v>
+        <v>36540.664200000007</v>
       </c>
       <c r="C1411" s="20">
-        <v>11.000000000000018</v>
+        <v>17.001497088781104</v>
       </c>
       <c r="D1411" s="3"/>
       <c r="T1411" s="8">
@@ -54122,10 +54122,10 @@
         <v>94</v>
       </c>
       <c r="B1412" s="5">
-        <v>34713.906400000007</v>
+        <v>36905.906400000007</v>
       </c>
       <c r="C1412" s="20">
-        <v>12.00000000000002</v>
+        <v>18.001497088781107</v>
       </c>
       <c r="D1412" s="3"/>
       <c r="T1412" s="8">
@@ -54140,10 +54140,10 @@
         <v>94</v>
       </c>
       <c r="B1413" s="5">
-        <v>35079.148600000008</v>
+        <v>37271.148600000008</v>
       </c>
       <c r="C1413" s="20">
-        <v>13.00000000000002</v>
+        <v>19.001497088781107</v>
       </c>
       <c r="D1413" s="3"/>
       <c r="T1413" s="8">
@@ -54158,10 +54158,10 @@
         <v>95</v>
       </c>
       <c r="B1414" s="5">
-        <v>30331</v>
+        <v>32523</v>
       </c>
       <c r="C1414" s="20">
-        <v>0</v>
+        <v>6.0014970887810879</v>
       </c>
       <c r="D1414" s="3"/>
       <c r="T1414" s="8">
@@ -54176,10 +54176,10 @@
         <v>95</v>
       </c>
       <c r="B1415" s="5">
-        <v>30696.242200000001</v>
+        <v>32888.242200000001</v>
       </c>
       <c r="C1415" s="20">
-        <v>1.0000000000000016</v>
+        <v>7.0014970887810897</v>
       </c>
       <c r="D1415" s="3"/>
       <c r="T1415" s="8">
@@ -54194,10 +54194,10 @@
         <v>95</v>
       </c>
       <c r="B1416" s="5">
-        <v>31061.484400000001</v>
+        <v>33253.484400000001</v>
       </c>
       <c r="C1416" s="20">
-        <v>2.0000000000000031</v>
+        <v>8.0014970887810914</v>
       </c>
       <c r="D1416" s="3"/>
       <c r="T1416" s="8">
@@ -54212,10 +54212,10 @@
         <v>95</v>
       </c>
       <c r="B1417" s="5">
-        <v>31426.726600000002</v>
+        <v>33618.726600000002</v>
       </c>
       <c r="C1417" s="20">
-        <v>3.0000000000000049</v>
+        <v>9.0014970887810932</v>
       </c>
       <c r="D1417" s="3"/>
       <c r="T1417" s="8">
@@ -54230,10 +54230,10 @@
         <v>95</v>
       </c>
       <c r="B1418" s="5">
-        <v>31791.968800000002</v>
+        <v>33983.968800000002</v>
       </c>
       <c r="C1418" s="20">
-        <v>4.0000000000000062</v>
+        <v>10.001497088781093</v>
       </c>
       <c r="D1418" s="3"/>
       <c r="T1418" s="8">
@@ -54248,10 +54248,10 @@
         <v>95</v>
       </c>
       <c r="B1419" s="5">
-        <v>32157.211000000003</v>
+        <v>34349.211000000003</v>
       </c>
       <c r="C1419" s="20">
-        <v>5.000000000000008</v>
+        <v>11.001497088781095</v>
       </c>
       <c r="D1419" s="3"/>
       <c r="T1419" s="8">
@@ -54266,10 +54266,10 @@
         <v>95</v>
       </c>
       <c r="B1420" s="5">
-        <v>32522.453200000004</v>
+        <v>34714.453200000004</v>
       </c>
       <c r="C1420" s="20">
-        <v>6.0000000000000098</v>
+        <v>12.001497088781097</v>
       </c>
       <c r="D1420" s="3"/>
       <c r="T1420" s="8">
@@ -54284,10 +54284,10 @@
         <v>95</v>
       </c>
       <c r="B1421" s="5">
-        <v>32887.695400000004</v>
+        <v>35079.695400000004</v>
       </c>
       <c r="C1421" s="20">
-        <v>7.0000000000000107</v>
+        <v>13.001497088781099</v>
       </c>
       <c r="D1421" s="3"/>
       <c r="T1421" s="8">
@@ -54302,10 +54302,10 @@
         <v>95</v>
       </c>
       <c r="B1422" s="5">
-        <v>33252.937600000005</v>
+        <v>35444.937600000005</v>
       </c>
       <c r="C1422" s="20">
-        <v>8.0000000000000124</v>
+        <v>14.0014970887811</v>
       </c>
       <c r="D1422" s="3"/>
       <c r="T1422" s="8">
@@ -54320,10 +54320,10 @@
         <v>95</v>
       </c>
       <c r="B1423" s="5">
-        <v>33618.179800000005</v>
+        <v>35810.179800000005</v>
       </c>
       <c r="C1423" s="20">
-        <v>9.0000000000000142</v>
+        <v>15.001497088781102</v>
       </c>
       <c r="D1423" s="3"/>
       <c r="T1423" s="8">
@@ -54338,10 +54338,10 @@
         <v>95</v>
       </c>
       <c r="B1424" s="5">
-        <v>33983.422000000006</v>
+        <v>36175.422000000006</v>
       </c>
       <c r="C1424" s="20">
-        <v>10.000000000000016</v>
+        <v>16.001497088781104</v>
       </c>
       <c r="D1424" s="3"/>
       <c r="T1424" s="8">
@@ -54356,10 +54356,10 @@
         <v>95</v>
       </c>
       <c r="B1425" s="5">
-        <v>34348.664200000007</v>
+        <v>36540.664200000007</v>
       </c>
       <c r="C1425" s="20">
-        <v>11.000000000000018</v>
+        <v>17.001497088781104</v>
       </c>
       <c r="D1425" s="3"/>
       <c r="T1425" s="8">
@@ -54374,10 +54374,10 @@
         <v>95</v>
       </c>
       <c r="B1426" s="5">
-        <v>34713.906400000007</v>
+        <v>36905.906400000007</v>
       </c>
       <c r="C1426" s="20">
-        <v>12.00000000000002</v>
+        <v>18.001497088781107</v>
       </c>
       <c r="D1426" s="3"/>
       <c r="T1426" s="8">
@@ -54392,10 +54392,10 @@
         <v>95</v>
       </c>
       <c r="B1427" s="5">
-        <v>35079.148600000008</v>
+        <v>37271.148600000008</v>
       </c>
       <c r="C1427" s="20">
-        <v>13.00000000000002</v>
+        <v>19.001497088781107</v>
       </c>
       <c r="D1427" s="3"/>
       <c r="T1427" s="8">
@@ -54410,10 +54410,10 @@
         <v>96</v>
       </c>
       <c r="B1428" s="5">
-        <v>30331</v>
+        <v>32523</v>
       </c>
       <c r="C1428" s="20">
-        <v>0</v>
+        <v>6.0014970887810879</v>
       </c>
       <c r="D1428" s="3"/>
       <c r="T1428" s="8">
@@ -54428,10 +54428,10 @@
         <v>96</v>
       </c>
       <c r="B1429" s="5">
-        <v>30696.242200000001</v>
+        <v>32888.242200000001</v>
       </c>
       <c r="C1429" s="20">
-        <v>1.0000000000000016</v>
+        <v>7.0014970887810897</v>
       </c>
       <c r="D1429" s="3"/>
       <c r="T1429" s="8">
@@ -54446,10 +54446,10 @@
         <v>96</v>
       </c>
       <c r="B1430" s="5">
-        <v>31061.484400000001</v>
+        <v>33253.484400000001</v>
       </c>
       <c r="C1430" s="20">
-        <v>2.0000000000000031</v>
+        <v>8.0014970887810914</v>
       </c>
       <c r="D1430" s="3"/>
       <c r="T1430" s="8">
@@ -54464,10 +54464,10 @@
         <v>96</v>
       </c>
       <c r="B1431" s="5">
-        <v>31426.726600000002</v>
+        <v>33618.726600000002</v>
       </c>
       <c r="C1431" s="20">
-        <v>3.0000000000000049</v>
+        <v>9.0014970887810932</v>
       </c>
       <c r="D1431" s="3"/>
       <c r="T1431" s="8">
@@ -54482,10 +54482,10 @@
         <v>96</v>
       </c>
       <c r="B1432" s="5">
-        <v>31791.968800000002</v>
+        <v>33983.968800000002</v>
       </c>
       <c r="C1432" s="20">
-        <v>4.0000000000000062</v>
+        <v>10.001497088781093</v>
       </c>
       <c r="D1432" s="3"/>
       <c r="T1432" s="8">
@@ -54500,10 +54500,10 @@
         <v>96</v>
       </c>
       <c r="B1433" s="5">
-        <v>32157.211000000003</v>
+        <v>34349.211000000003</v>
       </c>
       <c r="C1433" s="20">
-        <v>5.000000000000008</v>
+        <v>11.001497088781095</v>
       </c>
       <c r="D1433" s="3"/>
       <c r="T1433" s="8">
@@ -54518,10 +54518,10 @@
         <v>96</v>
       </c>
       <c r="B1434" s="5">
-        <v>32522.453200000004</v>
+        <v>34714.453200000004</v>
       </c>
       <c r="C1434" s="20">
-        <v>6.0000000000000098</v>
+        <v>12.001497088781097</v>
       </c>
       <c r="D1434" s="3"/>
       <c r="T1434" s="8">
@@ -54536,10 +54536,10 @@
         <v>96</v>
       </c>
       <c r="B1435" s="5">
-        <v>32887.695400000004</v>
+        <v>35079.695400000004</v>
       </c>
       <c r="C1435" s="20">
-        <v>7.0000000000000107</v>
+        <v>13.001497088781099</v>
       </c>
       <c r="D1435" s="3"/>
       <c r="T1435" s="8">
@@ -54554,10 +54554,10 @@
         <v>96</v>
       </c>
       <c r="B1436" s="5">
-        <v>33252.937600000005</v>
+        <v>35444.937600000005</v>
       </c>
       <c r="C1436" s="20">
-        <v>8.0000000000000124</v>
+        <v>14.0014970887811</v>
       </c>
       <c r="D1436" s="3"/>
       <c r="T1436" s="8">
@@ -54572,10 +54572,10 @@
         <v>96</v>
       </c>
       <c r="B1437" s="5">
-        <v>33618.179800000005</v>
+        <v>35810.179800000005</v>
       </c>
       <c r="C1437" s="20">
-        <v>9.0000000000000142</v>
+        <v>15.001497088781102</v>
       </c>
       <c r="D1437" s="3"/>
       <c r="T1437" s="8">
@@ -54590,10 +54590,10 @@
         <v>96</v>
       </c>
       <c r="B1438" s="5">
-        <v>33983.422000000006</v>
+        <v>36175.422000000006</v>
       </c>
       <c r="C1438" s="20">
-        <v>10.000000000000016</v>
+        <v>16.001497088781104</v>
       </c>
       <c r="D1438" s="3"/>
       <c r="T1438" s="8">
@@ -54608,10 +54608,10 @@
         <v>96</v>
       </c>
       <c r="B1439" s="5">
-        <v>34348.664200000007</v>
+        <v>36540.664200000007</v>
       </c>
       <c r="C1439" s="20">
-        <v>11.000000000000018</v>
+        <v>17.001497088781104</v>
       </c>
       <c r="D1439" s="3"/>
       <c r="T1439" s="8">
@@ -54626,10 +54626,10 @@
         <v>96</v>
       </c>
       <c r="B1440" s="5">
-        <v>34713.906400000007</v>
+        <v>36905.906400000007</v>
       </c>
       <c r="C1440" s="20">
-        <v>12.00000000000002</v>
+        <v>18.001497088781107</v>
       </c>
       <c r="D1440" s="3"/>
       <c r="T1440" s="8">
@@ -54644,10 +54644,10 @@
         <v>96</v>
       </c>
       <c r="B1441" s="5">
-        <v>35079.148600000008</v>
+        <v>37271.148600000008</v>
       </c>
       <c r="C1441" s="20">
-        <v>13.00000000000002</v>
+        <v>19.001497088781107</v>
       </c>
       <c r="D1441" s="3"/>
       <c r="T1441" s="8">

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DFB8C7-8076-4026-A7E6-470949AB3D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4552B3E-B55C-4F5E-A9BC-2E71EC1F40D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17670" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="6" r:id="rId1"/>
@@ -987,49 +987,49 @@
   <dimension ref="A1:BT1438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="XEG1148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AC1146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1169" sqref="A1169:A1171"/>
+      <selection pane="bottomRight" activeCell="AC1148" sqref="AC1148:AD1159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="3"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="3"/>
-    <col min="8" max="8" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="3"/>
-    <col min="10" max="10" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.28515625" style="3"/>
-    <col min="14" max="14" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.28515625" style="3"/>
-    <col min="17" max="17" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="3"/>
-    <col min="19" max="19" width="5.28515625" style="3" customWidth="1"/>
-    <col min="20" max="21" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.28515625" style="3"/>
-    <col min="24" max="24" width="14.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" style="3"/>
-    <col min="26" max="26" width="17.28515625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" style="3" customWidth="1"/>
-    <col min="30" max="35" width="23.7109375" style="3" customWidth="1"/>
-    <col min="36" max="41" width="17.7109375" style="3" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" style="3" customWidth="1"/>
-    <col min="43" max="44" width="25.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="3"/>
+    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="3"/>
+    <col min="8" max="8" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="3"/>
+    <col min="10" max="10" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.26953125" style="3"/>
+    <col min="14" max="14" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.26953125" style="3"/>
+    <col min="17" max="17" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.26953125" style="3"/>
+    <col min="19" max="19" width="5.26953125" style="3" customWidth="1"/>
+    <col min="20" max="21" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.26953125" style="3"/>
+    <col min="24" max="24" width="14.81640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" style="3"/>
+    <col min="26" max="26" width="17.26953125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="16.1796875" style="3" customWidth="1"/>
+    <col min="28" max="28" width="15.7265625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="17.1796875" style="3" customWidth="1"/>
+    <col min="30" max="35" width="23.7265625" style="3" customWidth="1"/>
+    <col min="36" max="41" width="17.7265625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="15.7265625" style="3" customWidth="1"/>
+    <col min="43" max="44" width="25.54296875" style="3" customWidth="1"/>
     <col min="45" max="45" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="20" style="3" customWidth="1"/>
-    <col min="47" max="47" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.28515625" style="3"/>
+    <col min="47" max="47" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.26953125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="33.75">
+    <row r="1" spans="1:72" ht="30">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -14087,7 +14087,7 @@
       <c r="AS237" s="1"/>
       <c r="AT237" s="1"/>
     </row>
-    <row r="238" spans="1:46" ht="15">
+    <row r="238" spans="1:46" ht="14.5">
       <c r="A238" s="1" t="s">
         <v>4</v>
       </c>
@@ -14123,7 +14123,7 @@
       <c r="AS238" s="9"/>
       <c r="AT238" s="9"/>
     </row>
-    <row r="239" spans="1:46" ht="15">
+    <row r="239" spans="1:46" ht="14.5">
       <c r="A239" s="1" t="s">
         <v>4</v>
       </c>
@@ -14159,7 +14159,7 @@
       <c r="AS239" s="9"/>
       <c r="AT239" s="9"/>
     </row>
-    <row r="240" spans="1:46" ht="15">
+    <row r="240" spans="1:46" ht="14.5">
       <c r="A240" s="1" t="s">
         <v>4</v>
       </c>
@@ -14195,7 +14195,7 @@
       <c r="AS240" s="9"/>
       <c r="AT240" s="9"/>
     </row>
-    <row r="241" spans="1:46" ht="15">
+    <row r="241" spans="1:46" ht="14.5">
       <c r="A241" s="1" t="s">
         <v>4</v>
       </c>
@@ -14236,7 +14236,7 @@
       <c r="AS241" s="9"/>
       <c r="AT241" s="9"/>
     </row>
-    <row r="242" spans="1:46" ht="15">
+    <row r="242" spans="1:46" ht="14.5">
       <c r="A242" s="1" t="s">
         <v>4</v>
       </c>
@@ -14272,7 +14272,7 @@
       <c r="AS242" s="9"/>
       <c r="AT242" s="9"/>
     </row>
-    <row r="243" spans="1:46" ht="15">
+    <row r="243" spans="1:46" ht="14.5">
       <c r="A243" s="1" t="s">
         <v>4</v>
       </c>
@@ -14308,7 +14308,7 @@
       <c r="AS243" s="9"/>
       <c r="AT243" s="9"/>
     </row>
-    <row r="244" spans="1:46" ht="15">
+    <row r="244" spans="1:46" ht="14.5">
       <c r="A244" s="1" t="s">
         <v>4</v>
       </c>
@@ -14344,7 +14344,7 @@
       <c r="AS244" s="9"/>
       <c r="AT244" s="9"/>
     </row>
-    <row r="245" spans="1:46" ht="15">
+    <row r="245" spans="1:46" ht="14.5">
       <c r="A245" s="1" t="s">
         <v>4</v>
       </c>
@@ -14380,7 +14380,7 @@
       <c r="AS245" s="9"/>
       <c r="AT245" s="9"/>
     </row>
-    <row r="246" spans="1:46" ht="15">
+    <row r="246" spans="1:46" ht="14.5">
       <c r="A246" s="1" t="s">
         <v>4</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:46" ht="15">
+    <row r="247" spans="1:46" ht="14.5">
       <c r="A247" s="1" t="s">
         <v>4</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:46" ht="15">
+    <row r="248" spans="1:46" ht="14.5">
       <c r="A248" s="1" t="s">
         <v>4</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:46" ht="15">
+    <row r="249" spans="1:46" ht="14.5">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:46" ht="15">
+    <row r="250" spans="1:46" ht="14.5">
       <c r="A250" s="1" t="s">
         <v>4</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:46" ht="15">
+    <row r="251" spans="1:46" ht="14.5">
       <c r="A251" s="1" t="s">
         <v>4</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:46" ht="15">
+    <row r="252" spans="1:46" ht="14.5">
       <c r="A252" s="1" t="s">
         <v>4</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:46" ht="15">
+    <row r="253" spans="1:46" ht="14.5">
       <c r="A253" s="1" t="s">
         <v>4</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:46" ht="15">
+    <row r="254" spans="1:46" ht="14.5">
       <c r="A254" s="1" t="s">
         <v>4</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:46" ht="15">
+    <row r="255" spans="1:46" ht="14.5">
       <c r="A255" s="1" t="s">
         <v>4</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:46" ht="15">
+    <row r="256" spans="1:46" ht="14.5">
       <c r="A256" s="1" t="s">
         <v>4</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:44" ht="15">
+    <row r="257" spans="1:44" ht="14.5">
       <c r="A257" s="1" t="s">
         <v>4</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:44" ht="15">
+    <row r="258" spans="1:44" ht="14.5">
       <c r="A258" s="1" t="s">
         <v>4</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:44" ht="15">
+    <row r="259" spans="1:44" ht="14.5">
       <c r="A259" s="1" t="s">
         <v>5</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:44" ht="15">
+    <row r="260" spans="1:44" ht="14.5">
       <c r="A260" s="1" t="s">
         <v>5</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:44" ht="15">
+    <row r="261" spans="1:44" ht="14.5">
       <c r="A261" s="1" t="s">
         <v>5</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:44" ht="15">
+    <row r="262" spans="1:44" ht="14.5">
       <c r="A262" s="1" t="s">
         <v>5</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:44" ht="15">
+    <row r="263" spans="1:44" ht="14.5">
       <c r="A263" s="1" t="s">
         <v>5</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:44" ht="15">
+    <row r="264" spans="1:44" ht="14.5">
       <c r="A264" s="1" t="s">
         <v>5</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:44" ht="15">
+    <row r="265" spans="1:44" ht="14.5">
       <c r="A265" s="1" t="s">
         <v>5</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:44" ht="15">
+    <row r="266" spans="1:44" ht="14.5">
       <c r="A266" s="1" t="s">
         <v>5</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:44" ht="15">
+    <row r="267" spans="1:44" ht="14.5">
       <c r="A267" s="1" t="s">
         <v>5</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:44" ht="15">
+    <row r="268" spans="1:44" ht="14.5">
       <c r="A268" s="1" t="s">
         <v>5</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:44" ht="15">
+    <row r="269" spans="1:44" ht="14.5">
       <c r="A269" s="1" t="s">
         <v>5</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:44" ht="15">
+    <row r="270" spans="1:44" ht="14.5">
       <c r="A270" s="1" t="s">
         <v>5</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:44" ht="15">
+    <row r="271" spans="1:44" ht="14.5">
       <c r="A271" s="1" t="s">
         <v>5</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:44" ht="15">
+    <row r="272" spans="1:44" ht="14.5">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:44" ht="15">
+    <row r="273" spans="1:44" ht="14.5">
       <c r="A273" s="1" t="s">
         <v>5</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:44" ht="15">
+    <row r="274" spans="1:44" ht="14.5">
       <c r="A274" s="1" t="s">
         <v>5</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:44" ht="15">
+    <row r="275" spans="1:44" ht="14.5">
       <c r="A275" s="1" t="s">
         <v>5</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:44" ht="15">
+    <row r="276" spans="1:44" ht="14.5">
       <c r="A276" s="1" t="s">
         <v>5</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:44" ht="15">
+    <row r="277" spans="1:44" ht="14.5">
       <c r="A277" s="1" t="s">
         <v>5</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:44" ht="15">
+    <row r="278" spans="1:44" ht="14.5">
       <c r="A278" s="1" t="s">
         <v>5</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:44" ht="15">
+    <row r="279" spans="1:44" ht="14.5">
       <c r="A279" s="1" t="s">
         <v>5</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:44" ht="15">
+    <row r="280" spans="1:44" ht="14.5">
       <c r="A280" s="1" t="s">
         <v>6</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:44" ht="15">
+    <row r="281" spans="1:44" ht="14.5">
       <c r="A281" s="1" t="s">
         <v>6</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:44" ht="15">
+    <row r="282" spans="1:44" ht="14.5">
       <c r="A282" s="1" t="s">
         <v>6</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:44" ht="15">
+    <row r="283" spans="1:44" ht="14.5">
       <c r="A283" s="1" t="s">
         <v>6</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:44" ht="15">
+    <row r="284" spans="1:44" ht="14.5">
       <c r="A284" s="1" t="s">
         <v>6</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:44" ht="15">
+    <row r="285" spans="1:44" ht="14.5">
       <c r="A285" s="1" t="s">
         <v>6</v>
       </c>
@@ -15776,7 +15776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:44" ht="15">
+    <row r="286" spans="1:44" ht="14.5">
       <c r="A286" s="1" t="s">
         <v>6</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:44" ht="15">
+    <row r="287" spans="1:44" ht="14.5">
       <c r="A287" s="1" t="s">
         <v>6</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:44" ht="15">
+    <row r="288" spans="1:44" ht="14.5">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:44" ht="15">
+    <row r="289" spans="1:44" ht="14.5">
       <c r="A289" s="1" t="s">
         <v>6</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:44" ht="15">
+    <row r="290" spans="1:44" ht="14.5">
       <c r="A290" s="1" t="s">
         <v>6</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:44" ht="15">
+    <row r="291" spans="1:44" ht="14.5">
       <c r="A291" s="1" t="s">
         <v>6</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:44" ht="15">
+    <row r="292" spans="1:44" ht="14.5">
       <c r="A292" s="1" t="s">
         <v>6</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:44" ht="15">
+    <row r="293" spans="1:44" ht="14.5">
       <c r="A293" s="1" t="s">
         <v>6</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:44" ht="15">
+    <row r="294" spans="1:44" ht="14.5">
       <c r="A294" s="1" t="s">
         <v>6</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:44" ht="15">
+    <row r="295" spans="1:44" ht="14.5">
       <c r="A295" s="1" t="s">
         <v>6</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:44" ht="15">
+    <row r="296" spans="1:44" ht="14.5">
       <c r="A296" s="1" t="s">
         <v>6</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:44" ht="15">
+    <row r="297" spans="1:44" ht="14.5">
       <c r="A297" s="1" t="s">
         <v>6</v>
       </c>
@@ -16199,7 +16199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:44" ht="15">
+    <row r="298" spans="1:44" ht="14.5">
       <c r="A298" s="1" t="s">
         <v>6</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:44" ht="15">
+    <row r="299" spans="1:44" ht="14.5">
       <c r="A299" s="1" t="s">
         <v>6</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:44" ht="15">
+    <row r="300" spans="1:44" ht="14.5">
       <c r="A300" s="1" t="s">
         <v>6</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:44" ht="15">
+    <row r="301" spans="1:44" ht="14.5">
       <c r="A301" s="1" t="s">
         <v>9</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:44" ht="15">
+    <row r="302" spans="1:44" ht="14.5">
       <c r="A302" s="1" t="s">
         <v>9</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:44" ht="15">
+    <row r="303" spans="1:44" ht="14.5">
       <c r="A303" s="1" t="s">
         <v>9</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:44" ht="15">
+    <row r="304" spans="1:44" ht="14.5">
       <c r="A304" s="1" t="s">
         <v>9</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:44" ht="15">
+    <row r="305" spans="1:44" ht="14.5">
       <c r="A305" s="1" t="s">
         <v>9</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:44" ht="15">
+    <row r="306" spans="1:44" ht="14.5">
       <c r="A306" s="1" t="s">
         <v>9</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:44" ht="15">
+    <row r="307" spans="1:44" ht="14.5">
       <c r="A307" s="1" t="s">
         <v>9</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:44" ht="15">
+    <row r="308" spans="1:44" ht="14.5">
       <c r="A308" s="1" t="s">
         <v>9</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:44" ht="15">
+    <row r="309" spans="1:44" ht="14.5">
       <c r="A309" s="1" t="s">
         <v>9</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:44" ht="15">
+    <row r="310" spans="1:44" ht="14.5">
       <c r="A310" s="1" t="s">
         <v>9</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:44" ht="15">
+    <row r="311" spans="1:44" ht="14.5">
       <c r="A311" s="1" t="s">
         <v>9</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:44" ht="15">
+    <row r="312" spans="1:44" ht="14.5">
       <c r="A312" s="1" t="s">
         <v>9</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:44" ht="15">
+    <row r="313" spans="1:44" ht="14.5">
       <c r="A313" s="1" t="s">
         <v>9</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:44" ht="15">
+    <row r="314" spans="1:44" ht="14.5">
       <c r="A314" s="1" t="s">
         <v>9</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:44" ht="15">
+    <row r="315" spans="1:44" ht="14.5">
       <c r="A315" s="1" t="s">
         <v>9</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:44" ht="15">
+    <row r="316" spans="1:44" ht="14.5">
       <c r="A316" s="1" t="s">
         <v>9</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:44" ht="15">
+    <row r="317" spans="1:44" ht="14.5">
       <c r="A317" s="1" t="s">
         <v>9</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:44" ht="15">
+    <row r="318" spans="1:44" ht="14.5">
       <c r="A318" s="1" t="s">
         <v>9</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:44" ht="15">
+    <row r="319" spans="1:44" ht="14.5">
       <c r="A319" s="1" t="s">
         <v>9</v>
       </c>
@@ -16963,7 +16963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:44" ht="15">
+    <row r="320" spans="1:44" ht="14.5">
       <c r="A320" s="1" t="s">
         <v>9</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:44" ht="15">
+    <row r="321" spans="1:44" ht="14.5">
       <c r="A321" s="1" t="s">
         <v>9</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:44" ht="15">
+    <row r="322" spans="1:44" ht="14.5">
       <c r="A322" s="1" t="s">
         <v>10</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:44" ht="15">
+    <row r="323" spans="1:44" ht="14.5">
       <c r="A323" s="1" t="s">
         <v>10</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:44" ht="15">
+    <row r="324" spans="1:44" ht="14.5">
       <c r="A324" s="1" t="s">
         <v>10</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:44" ht="15">
+    <row r="325" spans="1:44" ht="14.5">
       <c r="A325" s="1" t="s">
         <v>10</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:44" ht="15">
+    <row r="326" spans="1:44" ht="14.5">
       <c r="A326" s="1" t="s">
         <v>10</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:44" ht="15">
+    <row r="327" spans="1:44" ht="14.5">
       <c r="A327" s="1" t="s">
         <v>10</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:44" ht="15">
+    <row r="328" spans="1:44" ht="14.5">
       <c r="A328" s="1" t="s">
         <v>10</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:44" ht="15">
+    <row r="329" spans="1:44" ht="14.5">
       <c r="A329" s="1" t="s">
         <v>10</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:44" ht="15">
+    <row r="330" spans="1:44" ht="14.5">
       <c r="A330" s="1" t="s">
         <v>10</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:44" ht="15">
+    <row r="331" spans="1:44" ht="14.5">
       <c r="A331" s="1" t="s">
         <v>10</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:44" ht="15">
+    <row r="332" spans="1:44" ht="14.5">
       <c r="A332" s="1" t="s">
         <v>10</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:44" ht="15">
+    <row r="333" spans="1:44" ht="14.5">
       <c r="A333" s="1" t="s">
         <v>10</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:44" ht="15">
+    <row r="334" spans="1:44" ht="14.5">
       <c r="A334" s="1" t="s">
         <v>10</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:44" ht="15">
+    <row r="335" spans="1:44" ht="14.5">
       <c r="A335" s="1" t="s">
         <v>10</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:44" ht="15">
+    <row r="336" spans="1:44" ht="14.5">
       <c r="A336" s="1" t="s">
         <v>10</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:44" ht="15">
+    <row r="337" spans="1:44" ht="14.5">
       <c r="A337" s="1" t="s">
         <v>10</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:44" ht="15">
+    <row r="338" spans="1:44" ht="14.5">
       <c r="A338" s="1" t="s">
         <v>10</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:44" ht="15">
+    <row r="339" spans="1:44" ht="14.5">
       <c r="A339" s="1" t="s">
         <v>10</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:44" ht="15">
+    <row r="340" spans="1:44" ht="14.5">
       <c r="A340" s="1" t="s">
         <v>10</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:44" ht="15">
+    <row r="341" spans="1:44" ht="14.5">
       <c r="A341" s="1" t="s">
         <v>10</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:44" ht="15">
+    <row r="342" spans="1:44" ht="14.5">
       <c r="A342" s="1" t="s">
         <v>10</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:44" ht="15">
+    <row r="343" spans="1:44" ht="14.5">
       <c r="A343" s="1" t="s">
         <v>4</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:44" ht="15">
+    <row r="344" spans="1:44" ht="14.5">
       <c r="A344" s="1" t="s">
         <v>4</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:44" ht="15">
+    <row r="345" spans="1:44" ht="14.5">
       <c r="A345" s="1" t="s">
         <v>4</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:44" ht="15">
+    <row r="346" spans="1:44" ht="14.5">
       <c r="A346" s="1" t="s">
         <v>4</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:44" ht="15">
+    <row r="347" spans="1:44" ht="14.5">
       <c r="A347" s="1" t="s">
         <v>4</v>
       </c>
@@ -18075,7 +18075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:44" ht="15">
+    <row r="348" spans="1:44" ht="14.5">
       <c r="A348" s="1" t="s">
         <v>5</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:44" ht="15">
+    <row r="349" spans="1:44" ht="14.5">
       <c r="A349" s="1" t="s">
         <v>5</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:44" ht="15">
+    <row r="350" spans="1:44" ht="14.5">
       <c r="A350" s="1" t="s">
         <v>5</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:44" ht="15">
+    <row r="351" spans="1:44" ht="14.5">
       <c r="A351" s="1" t="s">
         <v>5</v>
       </c>
@@ -18291,7 +18291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:44" ht="15">
+    <row r="352" spans="1:44" ht="14.5">
       <c r="A352" s="1" t="s">
         <v>5</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:44" ht="15">
+    <row r="353" spans="1:44" ht="14.5">
       <c r="A353" s="1" t="s">
         <v>6</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:44" ht="15">
+    <row r="354" spans="1:44" ht="14.5">
       <c r="A354" s="1" t="s">
         <v>6</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:44" ht="15">
+    <row r="355" spans="1:44" ht="14.5">
       <c r="A355" s="1" t="s">
         <v>6</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:44" ht="15">
+    <row r="356" spans="1:44" ht="14.5">
       <c r="A356" s="1" t="s">
         <v>6</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:44" ht="15">
+    <row r="357" spans="1:44" ht="14.5">
       <c r="A357" s="1" t="s">
         <v>6</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:44" ht="15">
+    <row r="358" spans="1:44" ht="14.5">
       <c r="A358" s="1" t="s">
         <v>9</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:44" ht="15">
+    <row r="359" spans="1:44" ht="14.5">
       <c r="A359" s="1" t="s">
         <v>9</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:44" ht="15">
+    <row r="360" spans="1:44" ht="14.5">
       <c r="A360" s="1" t="s">
         <v>9</v>
       </c>
@@ -18777,7 +18777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:44" ht="15">
+    <row r="361" spans="1:44" ht="14.5">
       <c r="A361" s="1" t="s">
         <v>9</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:44" ht="15">
+    <row r="362" spans="1:44" ht="14.5">
       <c r="A362" s="1" t="s">
         <v>9</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:44" ht="15">
+    <row r="363" spans="1:44" ht="14.5">
       <c r="A363" s="1" t="s">
         <v>11</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:44" ht="15">
+    <row r="364" spans="1:44" ht="14.5">
       <c r="A364" s="1" t="s">
         <v>11</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:44" ht="15">
+    <row r="365" spans="1:44" ht="14.5">
       <c r="A365" s="1" t="s">
         <v>11</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:44" ht="15">
+    <row r="366" spans="1:44" ht="14.5">
       <c r="A366" s="1" t="s">
         <v>11</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:44" ht="15">
+    <row r="367" spans="1:44" ht="14.5">
       <c r="A367" s="1" t="s">
         <v>11</v>
       </c>
@@ -19143,7 +19143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:44" ht="15">
+    <row r="368" spans="1:44" ht="14.5">
       <c r="A368" s="1" t="s">
         <v>10</v>
       </c>
@@ -19193,7 +19193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:44" ht="15">
+    <row r="369" spans="1:44" ht="14.5">
       <c r="A369" s="1" t="s">
         <v>10</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:44" ht="15">
+    <row r="370" spans="1:44" ht="14.5">
       <c r="A370" s="1" t="s">
         <v>10</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:44" ht="15">
+    <row r="371" spans="1:44" ht="14.5">
       <c r="A371" s="1" t="s">
         <v>10</v>
       </c>
@@ -19343,7 +19343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:44" ht="15">
+    <row r="372" spans="1:44" ht="14.5">
       <c r="A372" s="1" t="s">
         <v>10</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:44" ht="15">
+    <row r="373" spans="1:44" ht="14.5">
       <c r="A373" s="1" t="s">
         <v>12</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:44" ht="15">
+    <row r="374" spans="1:44" ht="14.5">
       <c r="A374" s="1" t="s">
         <v>12</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:44" ht="15">
+    <row r="375" spans="1:44" ht="14.5">
       <c r="A375" s="1" t="s">
         <v>12</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:44" ht="15">
+    <row r="376" spans="1:44" ht="14.5">
       <c r="A376" s="1" t="s">
         <v>12</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:44" ht="15">
+    <row r="377" spans="1:44" ht="14.5">
       <c r="A377" s="1" t="s">
         <v>12</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:44" ht="15">
+    <row r="378" spans="1:44" ht="14.5">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="1:44" ht="15">
+    <row r="379" spans="1:44" ht="14.5">
       <c r="A379" t="s">
         <v>4</v>
       </c>
@@ -19761,7 +19761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="380" spans="1:44" ht="15">
+    <row r="380" spans="1:44" ht="14.5">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:44" ht="15">
+    <row r="381" spans="1:44" ht="14.5">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:44" ht="15">
+    <row r="382" spans="1:44" ht="14.5">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:44" ht="15">
+    <row r="383" spans="1:44" ht="14.5">
       <c r="A383" t="s">
         <v>4</v>
       </c>
@@ -19990,7 +19990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:44" ht="15">
+    <row r="384" spans="1:44" ht="14.5">
       <c r="A384" t="s">
         <v>4</v>
       </c>
@@ -20044,7 +20044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="385" spans="1:44" ht="15">
+    <row r="385" spans="1:44" ht="14.5">
       <c r="A385" t="s">
         <v>4</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="386" spans="1:44" ht="15">
+    <row r="386" spans="1:44" ht="14.5">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:44" ht="15">
+    <row r="387" spans="1:44" ht="14.5">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:44" ht="15">
+    <row r="388" spans="1:44" ht="14.5">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="389" spans="1:44" ht="15">
+    <row r="389" spans="1:44" ht="14.5">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="1:44" ht="15">
+    <row r="390" spans="1:44" ht="14.5">
       <c r="A390" t="s">
         <v>4</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="391" spans="1:44" ht="15">
+    <row r="391" spans="1:44" ht="14.5">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="392" spans="1:44" ht="15">
+    <row r="392" spans="1:44" ht="14.5">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:44" ht="15">
+    <row r="393" spans="1:44" ht="14.5">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="394" spans="1:44" ht="15">
+    <row r="394" spans="1:44" ht="14.5">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -20531,7 +20531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="395" spans="1:44" ht="15">
+    <row r="395" spans="1:44" ht="14.5">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="396" spans="1:44" ht="15">
+    <row r="396" spans="1:44" ht="14.5">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="397" spans="1:44" ht="15">
+    <row r="397" spans="1:44" ht="14.5">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -20708,7 +20708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="398" spans="1:44" ht="15">
+    <row r="398" spans="1:44" ht="14.5">
       <c r="A398" t="s">
         <v>5</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="399" spans="1:44" ht="15">
+    <row r="399" spans="1:44" ht="14.5">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="400" spans="1:44" ht="15">
+    <row r="400" spans="1:44" ht="14.5">
       <c r="A400" t="s">
         <v>5</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="401" spans="1:44" ht="15">
+    <row r="401" spans="1:44" ht="14.5">
       <c r="A401" t="s">
         <v>5</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:44" ht="15">
+    <row r="402" spans="1:44" ht="14.5">
       <c r="A402" t="s">
         <v>5</v>
       </c>
@@ -20954,7 +20954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="403" spans="1:44" ht="15">
+    <row r="403" spans="1:44" ht="14.5">
       <c r="A403" t="s">
         <v>5</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:44" ht="15">
+    <row r="404" spans="1:44" ht="14.5">
       <c r="A404" t="s">
         <v>5</v>
       </c>
@@ -21042,7 +21042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:44" ht="15">
+    <row r="405" spans="1:44" ht="14.5">
       <c r="A405" t="s">
         <v>5</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="406" spans="1:44" ht="15">
+    <row r="406" spans="1:44" ht="14.5">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -21130,7 +21130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="407" spans="1:44" ht="15">
+    <row r="407" spans="1:44" ht="14.5">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:44" ht="15">
+    <row r="408" spans="1:44" ht="14.5">
       <c r="A408" t="s">
         <v>6</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:44" ht="15">
+    <row r="409" spans="1:44" ht="14.5">
       <c r="A409" t="s">
         <v>6</v>
       </c>
@@ -21292,7 +21292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:44" ht="15">
+    <row r="410" spans="1:44" ht="14.5">
       <c r="A410" t="s">
         <v>6</v>
       </c>
@@ -21351,7 +21351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="411" spans="1:44" ht="15">
+    <row r="411" spans="1:44" ht="14.5">
       <c r="A411" t="s">
         <v>6</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="412" spans="1:44" ht="15">
+    <row r="412" spans="1:44" ht="14.5">
       <c r="A412" t="s">
         <v>6</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="413" spans="1:44" ht="15">
+    <row r="413" spans="1:44" ht="14.5">
       <c r="A413" t="s">
         <v>6</v>
       </c>
@@ -21522,7 +21522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:44" ht="15">
+    <row r="414" spans="1:44" ht="14.5">
       <c r="A414" t="s">
         <v>6</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="415" spans="1:44" ht="15">
+    <row r="415" spans="1:44" ht="14.5">
       <c r="A415" t="s">
         <v>6</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="416" spans="1:44" ht="15">
+    <row r="416" spans="1:44" ht="14.5">
       <c r="A416" t="s">
         <v>6</v>
       </c>
@@ -21682,7 +21682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="417" spans="1:44" ht="15">
+    <row r="417" spans="1:44" ht="14.5">
       <c r="A417" t="s">
         <v>6</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="418" spans="1:44" ht="15">
+    <row r="418" spans="1:44" ht="14.5">
       <c r="A418" t="s">
         <v>6</v>
       </c>
@@ -21770,7 +21770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="419" spans="1:44" ht="15">
+    <row r="419" spans="1:44" ht="14.5">
       <c r="A419" t="s">
         <v>6</v>
       </c>
@@ -21814,7 +21814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="420" spans="1:44" ht="15">
+    <row r="420" spans="1:44" ht="14.5">
       <c r="A420" t="s">
         <v>6</v>
       </c>
@@ -21858,7 +21858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="421" spans="1:44" ht="15">
+    <row r="421" spans="1:44" ht="14.5">
       <c r="A421" t="s">
         <v>6</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="422" spans="1:44" ht="15">
+    <row r="422" spans="1:44" ht="14.5">
       <c r="A422" t="s">
         <v>6</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="423" spans="1:44" ht="15">
+    <row r="423" spans="1:44" ht="14.5">
       <c r="A423" t="s">
         <v>11</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="424" spans="1:44" ht="15">
+    <row r="424" spans="1:44" ht="14.5">
       <c r="A424" t="s">
         <v>11</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="425" spans="1:44" ht="15">
+    <row r="425" spans="1:44" ht="14.5">
       <c r="A425" t="s">
         <v>11</v>
       </c>
@@ -22117,7 +22117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="426" spans="1:44" ht="15">
+    <row r="426" spans="1:44" ht="14.5">
       <c r="A426" t="s">
         <v>11</v>
       </c>
@@ -22174,7 +22174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="427" spans="1:44" ht="15">
+    <row r="427" spans="1:44" ht="14.5">
       <c r="A427" t="s">
         <v>11</v>
       </c>
@@ -22231,7 +22231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="428" spans="1:44" ht="15">
+    <row r="428" spans="1:44" ht="14.5">
       <c r="A428" t="s">
         <v>11</v>
       </c>
@@ -22282,7 +22282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="429" spans="1:44" ht="15">
+    <row r="429" spans="1:44" ht="14.5">
       <c r="A429" t="s">
         <v>11</v>
       </c>
@@ -22332,7 +22332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="430" spans="1:44" ht="15">
+    <row r="430" spans="1:44" ht="14.5">
       <c r="A430" t="s">
         <v>11</v>
       </c>
@@ -22384,7 +22384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="431" spans="1:44" ht="15">
+    <row r="431" spans="1:44" ht="14.5">
       <c r="A431" t="s">
         <v>11</v>
       </c>
@@ -22427,7 +22427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="432" spans="1:44" ht="15">
+    <row r="432" spans="1:44" ht="14.5">
       <c r="A432" t="s">
         <v>11</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="433" spans="1:44" ht="15">
+    <row r="433" spans="1:44" ht="14.5">
       <c r="A433" t="s">
         <v>11</v>
       </c>
@@ -22511,7 +22511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="434" spans="1:44" ht="15">
+    <row r="434" spans="1:44" ht="14.5">
       <c r="A434" t="s">
         <v>11</v>
       </c>
@@ -22553,7 +22553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="435" spans="1:44" ht="15">
+    <row r="435" spans="1:44" ht="14.5">
       <c r="A435" t="s">
         <v>11</v>
       </c>
@@ -22595,7 +22595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="436" spans="1:44" ht="15">
+    <row r="436" spans="1:44" ht="14.5">
       <c r="A436" t="s">
         <v>11</v>
       </c>
@@ -22637,7 +22637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:44" ht="15">
+    <row r="437" spans="1:44" ht="14.5">
       <c r="A437" t="s">
         <v>11</v>
       </c>
@@ -22679,7 +22679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="438" spans="1:44" ht="15">
+    <row r="438" spans="1:44" ht="14.5">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="439" spans="1:44" ht="15">
+    <row r="439" spans="1:44" ht="14.5">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -22793,7 +22793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:44" ht="15">
+    <row r="440" spans="1:44" ht="14.5">
       <c r="A440" t="s">
         <v>9</v>
       </c>
@@ -22850,7 +22850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="441" spans="1:44" ht="15">
+    <row r="441" spans="1:44" ht="14.5">
       <c r="A441" t="s">
         <v>9</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="442" spans="1:44" ht="15">
+    <row r="442" spans="1:44" ht="14.5">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -22964,7 +22964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="443" spans="1:44" ht="15">
+    <row r="443" spans="1:44" ht="14.5">
       <c r="A443" t="s">
         <v>9</v>
       </c>
@@ -23014,7 +23014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="444" spans="1:44" ht="15">
+    <row r="444" spans="1:44" ht="14.5">
       <c r="A444" t="s">
         <v>9</v>
       </c>
@@ -23064,7 +23064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="445" spans="1:44" ht="15">
+    <row r="445" spans="1:44" ht="14.5">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="446" spans="1:44" ht="15">
+    <row r="446" spans="1:44" ht="14.5">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -23156,7 +23156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="447" spans="1:44" ht="15">
+    <row r="447" spans="1:44" ht="14.5">
       <c r="A447" t="s">
         <v>9</v>
       </c>
@@ -23198,7 +23198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="448" spans="1:44" ht="15">
+    <row r="448" spans="1:44" ht="14.5">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -23240,7 +23240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="449" spans="1:44" ht="15">
+    <row r="449" spans="1:44" ht="14.5">
       <c r="A449" t="s">
         <v>9</v>
       </c>
@@ -23282,7 +23282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="450" spans="1:44" ht="15">
+    <row r="450" spans="1:44" ht="14.5">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="451" spans="1:44" ht="15">
+    <row r="451" spans="1:44" ht="14.5">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="452" spans="1:44" ht="15">
+    <row r="452" spans="1:44" ht="14.5">
       <c r="A452" t="s">
         <v>9</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:44" ht="15">
+    <row r="453" spans="1:44" ht="14.5">
       <c r="A453" t="s">
         <v>12</v>
       </c>
@@ -23467,7 +23467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="454" spans="1:44" ht="15">
+    <row r="454" spans="1:44" ht="14.5">
       <c r="A454" t="s">
         <v>12</v>
       </c>
@@ -23526,7 +23526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="455" spans="1:44" ht="15">
+    <row r="455" spans="1:44" ht="14.5">
       <c r="A455" t="s">
         <v>12</v>
       </c>
@@ -23585,7 +23585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="456" spans="1:44" ht="15">
+    <row r="456" spans="1:44" ht="14.5">
       <c r="A456" t="s">
         <v>12</v>
       </c>
@@ -23644,7 +23644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="457" spans="1:44" ht="15">
+    <row r="457" spans="1:44" ht="14.5">
       <c r="A457" t="s">
         <v>12</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="458" spans="1:44" ht="15">
+    <row r="458" spans="1:44" ht="14.5">
       <c r="A458" t="s">
         <v>12</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="459" spans="1:44" ht="15">
+    <row r="459" spans="1:44" ht="14.5">
       <c r="A459" t="s">
         <v>12</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="460" spans="1:44" ht="15">
+    <row r="460" spans="1:44" ht="14.5">
       <c r="A460" t="s">
         <v>12</v>
       </c>
@@ -23872,7 +23872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="461" spans="1:44" ht="15">
+    <row r="461" spans="1:44" ht="14.5">
       <c r="A461" t="s">
         <v>12</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="462" spans="1:44" ht="15">
+    <row r="462" spans="1:44" ht="14.5">
       <c r="A462" t="s">
         <v>12</v>
       </c>
@@ -23962,7 +23962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="463" spans="1:44" ht="15">
+    <row r="463" spans="1:44" ht="14.5">
       <c r="A463" t="s">
         <v>12</v>
       </c>
@@ -24006,7 +24006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="464" spans="1:44" ht="15">
+    <row r="464" spans="1:44" ht="14.5">
       <c r="A464" t="s">
         <v>12</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="465" spans="1:44" ht="15">
+    <row r="465" spans="1:44" ht="14.5">
       <c r="A465" t="s">
         <v>12</v>
       </c>
@@ -24094,7 +24094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="466" spans="1:44" ht="15">
+    <row r="466" spans="1:44" ht="14.5">
       <c r="A466" t="s">
         <v>12</v>
       </c>
@@ -24138,7 +24138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="467" spans="1:44" ht="15">
+    <row r="467" spans="1:44" ht="14.5">
       <c r="A467" t="s">
         <v>12</v>
       </c>
@@ -24182,7 +24182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="468" spans="1:44" ht="15">
+    <row r="468" spans="1:44" ht="14.5">
       <c r="A468" t="s">
         <v>10</v>
       </c>
@@ -24239,7 +24239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="469" spans="1:44" ht="15">
+    <row r="469" spans="1:44" ht="14.5">
       <c r="A469" t="s">
         <v>10</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="470" spans="1:44" ht="15">
+    <row r="470" spans="1:44" ht="14.5">
       <c r="A470" t="s">
         <v>10</v>
       </c>
@@ -24353,7 +24353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="471" spans="1:44" ht="15">
+    <row r="471" spans="1:44" ht="14.5">
       <c r="A471" t="s">
         <v>10</v>
       </c>
@@ -24410,7 +24410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="472" spans="1:44" ht="15">
+    <row r="472" spans="1:44" ht="14.5">
       <c r="A472" t="s">
         <v>10</v>
       </c>
@@ -24467,7 +24467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="473" spans="1:44" ht="15">
+    <row r="473" spans="1:44" ht="14.5">
       <c r="A473" t="s">
         <v>10</v>
       </c>
@@ -24517,7 +24517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="474" spans="1:44" ht="15">
+    <row r="474" spans="1:44" ht="14.5">
       <c r="A474" t="s">
         <v>10</v>
       </c>
@@ -24567,7 +24567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:44" ht="15">
+    <row r="475" spans="1:44" ht="14.5">
       <c r="A475" t="s">
         <v>10</v>
       </c>
@@ -24616,7 +24616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="476" spans="1:44" ht="15">
+    <row r="476" spans="1:44" ht="14.5">
       <c r="A476" t="s">
         <v>10</v>
       </c>
@@ -24658,7 +24658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="477" spans="1:44" ht="15">
+    <row r="477" spans="1:44" ht="14.5">
       <c r="A477" t="s">
         <v>10</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="478" spans="1:44" ht="15">
+    <row r="478" spans="1:44" ht="14.5">
       <c r="A478" t="s">
         <v>10</v>
       </c>
@@ -24742,7 +24742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:44" ht="15">
+    <row r="479" spans="1:44" ht="14.5">
       <c r="A479" t="s">
         <v>10</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:44" ht="15">
+    <row r="480" spans="1:44" ht="14.5">
       <c r="A480" t="s">
         <v>10</v>
       </c>
@@ -24826,7 +24826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="1:44" ht="15">
+    <row r="481" spans="1:44" ht="14.5">
       <c r="A481" t="s">
         <v>10</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="482" spans="1:44" ht="15">
+    <row r="482" spans="1:44" ht="14.5">
       <c r="A482" t="s">
         <v>10</v>
       </c>
@@ -24910,7 +24910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="483" spans="1:44" ht="15">
+    <row r="483" spans="1:44" ht="14.5">
       <c r="A483" s="1" t="s">
         <v>21</v>
       </c>
@@ -24965,7 +24965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:44" ht="15">
+    <row r="484" spans="1:44" ht="14.5">
       <c r="A484" s="1" t="s">
         <v>21</v>
       </c>
@@ -25020,7 +25020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="485" spans="1:44" ht="15">
+    <row r="485" spans="1:44" ht="14.5">
       <c r="A485" s="1" t="s">
         <v>21</v>
       </c>
@@ -25075,7 +25075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:44" ht="15">
+    <row r="486" spans="1:44" ht="14.5">
       <c r="A486" s="1" t="s">
         <v>21</v>
       </c>
@@ -25130,7 +25130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="487" spans="1:44" ht="15">
+    <row r="487" spans="1:44" ht="14.5">
       <c r="A487" s="1" t="s">
         <v>21</v>
       </c>
@@ -25185,7 +25185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="488" spans="1:44" ht="15">
+    <row r="488" spans="1:44" ht="14.5">
       <c r="A488" s="1" t="s">
         <v>21</v>
       </c>
@@ -25234,7 +25234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="489" spans="1:44" ht="15">
+    <row r="489" spans="1:44" ht="14.5">
       <c r="A489" s="1" t="s">
         <v>21</v>
       </c>
@@ -25283,7 +25283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="490" spans="1:44" ht="15">
+    <row r="490" spans="1:44" ht="14.5">
       <c r="A490" s="1" t="s">
         <v>21</v>
       </c>
@@ -25334,7 +25334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:44" ht="15">
+    <row r="491" spans="1:44" ht="14.5">
       <c r="A491" s="1" t="s">
         <v>21</v>
       </c>
@@ -25376,7 +25376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="492" spans="1:44" ht="15">
+    <row r="492" spans="1:44" ht="14.5">
       <c r="A492" s="1" t="s">
         <v>21</v>
       </c>
@@ -25418,7 +25418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="1:44" ht="15">
+    <row r="493" spans="1:44" ht="14.5">
       <c r="A493" s="1" t="s">
         <v>21</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="494" spans="1:44" ht="15">
+    <row r="494" spans="1:44" ht="14.5">
       <c r="A494" s="1" t="s">
         <v>21</v>
       </c>
@@ -25502,7 +25502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="495" spans="1:44" ht="15">
+    <row r="495" spans="1:44" ht="14.5">
       <c r="A495" s="1" t="s">
         <v>21</v>
       </c>
@@ -25544,7 +25544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="496" spans="1:44" ht="15">
+    <row r="496" spans="1:44" ht="14.5">
       <c r="A496" s="1" t="s">
         <v>21</v>
       </c>
@@ -25586,7 +25586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="497" spans="1:44" ht="15">
+    <row r="497" spans="1:44" ht="14.5">
       <c r="A497" s="1" t="s">
         <v>21</v>
       </c>
@@ -25628,7 +25628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="498" spans="1:44" ht="15">
+    <row r="498" spans="1:44" ht="14.5">
       <c r="A498" t="s">
         <v>4</v>
       </c>
@@ -25672,7 +25672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="1:44" ht="15">
+    <row r="499" spans="1:44" ht="14.5">
       <c r="A499" t="s">
         <v>4</v>
       </c>
@@ -25716,7 +25716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:44" ht="15">
+    <row r="500" spans="1:44" ht="14.5">
       <c r="A500" t="s">
         <v>4</v>
       </c>
@@ -25760,7 +25760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:44" ht="15">
+    <row r="501" spans="1:44" ht="14.5">
       <c r="A501" t="s">
         <v>4</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:44" ht="15">
+    <row r="502" spans="1:44" ht="14.5">
       <c r="A502" t="s">
         <v>5</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:44" ht="15">
+    <row r="503" spans="1:44" ht="14.5">
       <c r="A503" t="s">
         <v>5</v>
       </c>
@@ -25892,7 +25892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:44" ht="15">
+    <row r="504" spans="1:44" ht="14.5">
       <c r="A504" t="s">
         <v>5</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:44" ht="15">
+    <row r="505" spans="1:44" ht="14.5">
       <c r="A505" t="s">
         <v>5</v>
       </c>
@@ -25980,7 +25980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:44" ht="15">
+    <row r="506" spans="1:44" ht="14.5">
       <c r="A506" t="s">
         <v>6</v>
       </c>
@@ -26024,7 +26024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:44" ht="15">
+    <row r="507" spans="1:44" ht="14.5">
       <c r="A507" t="s">
         <v>6</v>
       </c>
@@ -26068,7 +26068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:44" ht="15">
+    <row r="508" spans="1:44" ht="14.5">
       <c r="A508" t="s">
         <v>6</v>
       </c>
@@ -26112,7 +26112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:44" ht="15">
+    <row r="509" spans="1:44" ht="14.5">
       <c r="A509" t="s">
         <v>6</v>
       </c>
@@ -26156,7 +26156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:44" ht="15">
+    <row r="510" spans="1:44" ht="14.5">
       <c r="A510" t="s">
         <v>11</v>
       </c>
@@ -26200,7 +26200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:44" ht="15">
+    <row r="511" spans="1:44" ht="14.5">
       <c r="A511" t="s">
         <v>11</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:44" ht="15">
+    <row r="512" spans="1:44" ht="14.5">
       <c r="A512" t="s">
         <v>11</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="1:45" ht="15">
+    <row r="513" spans="1:45" ht="14.5">
       <c r="A513" t="s">
         <v>11</v>
       </c>
@@ -26332,7 +26332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="1:45" ht="15">
+    <row r="514" spans="1:45" ht="14.5">
       <c r="A514" t="s">
         <v>9</v>
       </c>
@@ -26376,7 +26376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:45" ht="15">
+    <row r="515" spans="1:45" ht="14.5">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -26420,7 +26420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="1:45" ht="15">
+    <row r="516" spans="1:45" ht="14.5">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -26464,7 +26464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="1:45" ht="15">
+    <row r="517" spans="1:45" ht="14.5">
       <c r="A517" t="s">
         <v>9</v>
       </c>
@@ -26508,7 +26508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:45" ht="15">
+    <row r="518" spans="1:45" ht="14.5">
       <c r="A518" t="s">
         <v>12</v>
       </c>
@@ -26552,7 +26552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:45" ht="15">
+    <row r="519" spans="1:45" ht="14.5">
       <c r="A519" t="s">
         <v>12</v>
       </c>
@@ -26596,7 +26596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:45" ht="15">
+    <row r="520" spans="1:45" ht="14.5">
       <c r="A520" t="s">
         <v>12</v>
       </c>
@@ -26640,7 +26640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="1:45" ht="15">
+    <row r="521" spans="1:45" ht="14.5">
       <c r="A521" t="s">
         <v>12</v>
       </c>
@@ -26684,7 +26684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:45" ht="15">
+    <row r="522" spans="1:45" ht="14.5">
       <c r="A522" t="s">
         <v>10</v>
       </c>
@@ -26728,7 +26728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="1:45" ht="15">
+    <row r="523" spans="1:45" ht="14.5">
       <c r="A523" t="s">
         <v>10</v>
       </c>
@@ -26773,7 +26773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524" spans="1:45" ht="15">
+    <row r="524" spans="1:45" ht="14.5">
       <c r="A524" t="s">
         <v>10</v>
       </c>
@@ -26818,7 +26818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="1:45" ht="15">
+    <row r="525" spans="1:45" ht="14.5">
       <c r="A525" t="s">
         <v>10</v>
       </c>
@@ -26863,7 +26863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="526" spans="1:45" ht="15">
+    <row r="526" spans="1:45" ht="14.5">
       <c r="A526" s="1" t="s">
         <v>4</v>
       </c>
@@ -26911,7 +26911,7 @@
         <v>273.82</v>
       </c>
     </row>
-    <row r="527" spans="1:45" ht="15">
+    <row r="527" spans="1:45" ht="14.5">
       <c r="A527" s="1" t="s">
         <v>4</v>
       </c>
@@ -26959,7 +26959,7 @@
         <v>268.62</v>
       </c>
     </row>
-    <row r="528" spans="1:45" ht="15">
+    <row r="528" spans="1:45" ht="14.5">
       <c r="A528" s="1" t="s">
         <v>4</v>
       </c>
@@ -27007,7 +27007,7 @@
         <v>269.58999999999997</v>
       </c>
     </row>
-    <row r="529" spans="1:45" ht="15">
+    <row r="529" spans="1:45" ht="14.5">
       <c r="A529" s="1" t="s">
         <v>4</v>
       </c>
@@ -27055,7 +27055,7 @@
         <v>329.11</v>
       </c>
     </row>
-    <row r="530" spans="1:45" ht="15">
+    <row r="530" spans="1:45" ht="14.5">
       <c r="A530" s="1" t="s">
         <v>4</v>
       </c>
@@ -27103,7 +27103,7 @@
         <v>347.97</v>
       </c>
     </row>
-    <row r="531" spans="1:45" ht="15">
+    <row r="531" spans="1:45" ht="14.5">
       <c r="A531" s="1" t="s">
         <v>4</v>
       </c>
@@ -27151,7 +27151,7 @@
         <v>365.53</v>
       </c>
     </row>
-    <row r="532" spans="1:45" ht="15">
+    <row r="532" spans="1:45" ht="14.5">
       <c r="A532" s="1" t="s">
         <v>4</v>
       </c>
@@ -27199,7 +27199,7 @@
         <v>366.18</v>
       </c>
     </row>
-    <row r="533" spans="1:45" ht="15">
+    <row r="533" spans="1:45" ht="14.5">
       <c r="A533" s="1" t="s">
         <v>4</v>
       </c>
@@ -27247,7 +27247,7 @@
         <v>367.15</v>
       </c>
     </row>
-    <row r="534" spans="1:45" ht="15">
+    <row r="534" spans="1:45" ht="14.5">
       <c r="A534" s="1" t="s">
         <v>4</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>333.33</v>
       </c>
     </row>
-    <row r="535" spans="1:45" ht="15">
+    <row r="535" spans="1:45" ht="14.5">
       <c r="A535" s="1" t="s">
         <v>4</v>
       </c>
@@ -27343,7 +27343,7 @@
         <v>293.98</v>
       </c>
     </row>
-    <row r="536" spans="1:45" ht="15">
+    <row r="536" spans="1:45" ht="14.5">
       <c r="A536" s="1" t="s">
         <v>4</v>
       </c>
@@ -27391,7 +27391,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="537" spans="1:45" ht="15">
+    <row r="537" spans="1:45" ht="14.5">
       <c r="A537" s="1" t="s">
         <v>4</v>
       </c>
@@ -27439,7 +27439,7 @@
         <v>246.5</v>
       </c>
     </row>
-    <row r="538" spans="1:45" ht="15">
+    <row r="538" spans="1:45" ht="14.5">
       <c r="A538" s="1" t="s">
         <v>4</v>
       </c>
@@ -27487,7 +27487,7 @@
         <v>220.49</v>
       </c>
     </row>
-    <row r="539" spans="1:45" ht="15">
+    <row r="539" spans="1:45" ht="14.5">
       <c r="A539" s="1" t="s">
         <v>4</v>
       </c>
@@ -27535,7 +27535,7 @@
         <v>202.6</v>
       </c>
     </row>
-    <row r="540" spans="1:45" ht="15">
+    <row r="540" spans="1:45" ht="14.5">
       <c r="A540" s="1" t="s">
         <v>4</v>
       </c>
@@ -27583,7 +27583,7 @@
         <v>189.92</v>
       </c>
     </row>
-    <row r="541" spans="1:45" ht="15">
+    <row r="541" spans="1:45" ht="14.5">
       <c r="A541" s="1" t="s">
         <v>4</v>
       </c>
@@ -27631,7 +27631,7 @@
         <v>175.61</v>
       </c>
     </row>
-    <row r="542" spans="1:45" ht="15">
+    <row r="542" spans="1:45" ht="14.5">
       <c r="A542" s="1" t="s">
         <v>4</v>
       </c>
@@ -27679,7 +27679,7 @@
         <v>171.38</v>
       </c>
     </row>
-    <row r="543" spans="1:45" ht="15">
+    <row r="543" spans="1:45" ht="14.5">
       <c r="A543" s="1" t="s">
         <v>4</v>
       </c>
@@ -27727,7 +27727,7 @@
         <v>163.58000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:45" ht="15">
+    <row r="544" spans="1:45" ht="14.5">
       <c r="A544" s="1" t="s">
         <v>4</v>
       </c>
@@ -27775,7 +27775,7 @@
         <v>155.12</v>
       </c>
     </row>
-    <row r="545" spans="1:45" ht="15">
+    <row r="545" spans="1:45" ht="14.5">
       <c r="A545" s="1" t="s">
         <v>4</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>158.05000000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:45" ht="15">
+    <row r="546" spans="1:45" ht="14.5">
       <c r="A546" s="1" t="s">
         <v>4</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>284.55</v>
       </c>
     </row>
-    <row r="547" spans="1:45" ht="15">
+    <row r="547" spans="1:45" ht="14.5">
       <c r="A547" s="1" t="s">
         <v>4</v>
       </c>
@@ -27919,7 +27919,7 @@
         <v>278.7</v>
       </c>
     </row>
-    <row r="548" spans="1:45" ht="15">
+    <row r="548" spans="1:45" ht="14.5">
       <c r="A548" s="1" t="s">
         <v>4</v>
       </c>
@@ -27967,7 +27967,7 @@
         <v>248.13</v>
       </c>
     </row>
-    <row r="549" spans="1:45" ht="15">
+    <row r="549" spans="1:45" ht="14.5">
       <c r="A549" s="1" t="s">
         <v>4</v>
       </c>
@@ -28015,7 +28015,7 @@
         <v>230.24</v>
       </c>
     </row>
-    <row r="550" spans="1:45" ht="15">
+    <row r="550" spans="1:45" ht="14.5">
       <c r="A550" s="1" t="s">
         <v>4</v>
       </c>
@@ -28063,7 +28063,7 @@
         <v>218.54</v>
       </c>
     </row>
-    <row r="551" spans="1:45" ht="15">
+    <row r="551" spans="1:45" ht="14.5">
       <c r="A551" s="1" t="s">
         <v>4</v>
       </c>
@@ -28111,7 +28111,7 @@
         <v>216.59</v>
       </c>
     </row>
-    <row r="552" spans="1:45" ht="15">
+    <row r="552" spans="1:45" ht="14.5">
       <c r="A552" s="1" t="s">
         <v>4</v>
       </c>
@@ -28159,7 +28159,7 @@
         <v>216.59</v>
       </c>
     </row>
-    <row r="553" spans="1:45" ht="15">
+    <row r="553" spans="1:45" ht="14.5">
       <c r="A553" s="1" t="s">
         <v>4</v>
       </c>
@@ -28207,7 +28207,7 @@
         <v>219.84</v>
       </c>
     </row>
-    <row r="554" spans="1:45" ht="15">
+    <row r="554" spans="1:45" ht="14.5">
       <c r="A554" s="1" t="s">
         <v>4</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>214.63</v>
       </c>
     </row>
-    <row r="555" spans="1:45" ht="15">
+    <row r="555" spans="1:45" ht="14.5">
       <c r="A555" s="1" t="s">
         <v>4</v>
       </c>
@@ -28303,7 +28303,7 @@
         <v>230.57</v>
       </c>
     </row>
-    <row r="556" spans="1:45" ht="15">
+    <row r="556" spans="1:45" ht="14.5">
       <c r="A556" s="1" t="s">
         <v>4</v>
       </c>
@@ -28351,7 +28351,7 @@
         <v>220.81</v>
       </c>
     </row>
-    <row r="557" spans="1:45" ht="15">
+    <row r="557" spans="1:45" ht="14.5">
       <c r="A557" s="1" t="s">
         <v>4</v>
       </c>
@@ -28399,7 +28399,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="558" spans="1:45" ht="15">
+    <row r="558" spans="1:45" ht="14.5">
       <c r="A558" s="1" t="s">
         <v>4</v>
       </c>
@@ -28447,7 +28447,7 @@
         <v>300.49</v>
       </c>
     </row>
-    <row r="559" spans="1:45" ht="15">
+    <row r="559" spans="1:45" ht="14.5">
       <c r="A559" s="1" t="s">
         <v>4</v>
       </c>
@@ -28495,7 +28495,7 @@
         <v>287.8</v>
       </c>
     </row>
-    <row r="560" spans="1:45" ht="15">
+    <row r="560" spans="1:45" ht="14.5">
       <c r="A560" s="1" t="s">
         <v>4</v>
       </c>
@@ -28543,7 +28543,7 @@
         <v>318.7</v>
       </c>
     </row>
-    <row r="561" spans="1:45" ht="15">
+    <row r="561" spans="1:45" ht="14.5">
       <c r="A561" s="1" t="s">
         <v>4</v>
       </c>
@@ -28591,7 +28591,7 @@
         <v>284.88</v>
       </c>
     </row>
-    <row r="562" spans="1:45" ht="15">
+    <row r="562" spans="1:45" ht="14.5">
       <c r="A562" s="1" t="s">
         <v>4</v>
       </c>
@@ -28639,7 +28639,7 @@
         <v>274.8</v>
       </c>
     </row>
-    <row r="563" spans="1:45" ht="15">
+    <row r="563" spans="1:45" ht="14.5">
       <c r="A563" s="1" t="s">
         <v>4</v>
       </c>
@@ -28687,7 +28687,7 @@
         <v>251.06</v>
       </c>
     </row>
-    <row r="564" spans="1:45" ht="15">
+    <row r="564" spans="1:45" ht="14.5">
       <c r="A564" s="1" t="s">
         <v>4</v>
       </c>
@@ -28735,7 +28735,7 @@
         <v>237.4</v>
       </c>
     </row>
-    <row r="565" spans="1:45" ht="15">
+    <row r="565" spans="1:45" ht="14.5">
       <c r="A565" s="1" t="s">
         <v>4</v>
       </c>
@@ -28783,7 +28783,7 @@
         <v>230.89</v>
       </c>
     </row>
-    <row r="566" spans="1:45" ht="15">
+    <row r="566" spans="1:45" ht="14.5">
       <c r="A566" s="1" t="s">
         <v>4</v>
       </c>
@@ -28831,7 +28831,7 @@
         <v>189.92</v>
       </c>
     </row>
-    <row r="567" spans="1:45" ht="15">
+    <row r="567" spans="1:45" ht="14.5">
       <c r="A567" s="1" t="s">
         <v>4</v>
       </c>
@@ -28879,7 +28879,7 @@
         <v>180.16</v>
       </c>
     </row>
-    <row r="568" spans="1:45" ht="15">
+    <row r="568" spans="1:45" ht="14.5">
       <c r="A568" s="1" t="s">
         <v>4</v>
       </c>
@@ -28927,7 +28927,7 @@
         <v>181.79</v>
       </c>
     </row>
-    <row r="569" spans="1:45" ht="15">
+    <row r="569" spans="1:45" ht="14.5">
       <c r="A569" s="1" t="s">
         <v>4</v>
       </c>
@@ -28975,7 +28975,7 @@
         <v>169.11</v>
       </c>
     </row>
-    <row r="570" spans="1:45" ht="15">
+    <row r="570" spans="1:45" ht="14.5">
       <c r="A570" s="1" t="s">
         <v>4</v>
       </c>
@@ -29023,7 +29023,7 @@
         <v>167.8</v>
       </c>
     </row>
-    <row r="571" spans="1:45" ht="15">
+    <row r="571" spans="1:45" ht="14.5">
       <c r="A571" s="1" t="s">
         <v>4</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>159.02000000000001</v>
       </c>
     </row>
-    <row r="572" spans="1:45" ht="15">
+    <row r="572" spans="1:45" ht="14.5">
       <c r="A572" s="1" t="s">
         <v>4</v>
       </c>
@@ -29119,7 +29119,7 @@
         <v>148.29</v>
       </c>
     </row>
-    <row r="573" spans="1:45" ht="15">
+    <row r="573" spans="1:45" ht="14.5">
       <c r="A573" s="1" t="s">
         <v>4</v>
       </c>
@@ -29167,7 +29167,7 @@
         <v>150.24</v>
       </c>
     </row>
-    <row r="574" spans="1:45" ht="15">
+    <row r="574" spans="1:45" ht="14.5">
       <c r="A574" s="1" t="s">
         <v>4</v>
       </c>
@@ -29215,7 +29215,7 @@
         <v>155.77000000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:45" ht="15">
+    <row r="575" spans="1:45" ht="14.5">
       <c r="A575" s="1" t="s">
         <v>4</v>
       </c>
@@ -29263,7 +29263,7 @@
         <v>189.92</v>
       </c>
     </row>
-    <row r="576" spans="1:45" ht="15">
+    <row r="576" spans="1:45" ht="14.5">
       <c r="A576" s="1" t="s">
         <v>4</v>
       </c>
@@ -29311,7 +29311,7 @@
         <v>206.18</v>
       </c>
     </row>
-    <row r="577" spans="1:45" ht="15">
+    <row r="577" spans="1:45" ht="14.5">
       <c r="A577" s="1" t="s">
         <v>4</v>
       </c>
@@ -29359,7 +29359,7 @@
         <v>217.56</v>
       </c>
     </row>
-    <row r="578" spans="1:45" ht="15">
+    <row r="578" spans="1:45" ht="14.5">
       <c r="A578" s="1" t="s">
         <v>4</v>
       </c>
@@ -29407,7 +29407,7 @@
         <v>209.76</v>
       </c>
     </row>
-    <row r="579" spans="1:45" ht="15">
+    <row r="579" spans="1:45" ht="14.5">
       <c r="A579" s="1" t="s">
         <v>4</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>196.75</v>
       </c>
     </row>
-    <row r="580" spans="1:45" ht="15">
+    <row r="580" spans="1:45" ht="14.5">
       <c r="A580" s="1" t="s">
         <v>4</v>
       </c>
@@ -29503,7 +29503,7 @@
         <v>249.76</v>
       </c>
     </row>
-    <row r="581" spans="1:45" ht="15">
+    <row r="581" spans="1:45" ht="14.5">
       <c r="A581" s="1" t="s">
         <v>4</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>295.27999999999997</v>
       </c>
     </row>
-    <row r="582" spans="1:45" ht="15">
+    <row r="582" spans="1:45" ht="14.5">
       <c r="A582" s="1" t="s">
         <v>4</v>
       </c>
@@ -29599,7 +29599,7 @@
         <v>276.75</v>
       </c>
     </row>
-    <row r="583" spans="1:45" ht="15">
+    <row r="583" spans="1:45" ht="14.5">
       <c r="A583" s="1" t="s">
         <v>4</v>
       </c>
@@ -29647,7 +29647,7 @@
         <v>296.26</v>
       </c>
     </row>
-    <row r="584" spans="1:45" ht="15">
+    <row r="584" spans="1:45" ht="14.5">
       <c r="A584" s="1" t="s">
         <v>4</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>273.5</v>
       </c>
     </row>
-    <row r="585" spans="1:45" ht="15">
+    <row r="585" spans="1:45" ht="14.5">
       <c r="A585" s="1" t="s">
         <v>4</v>
       </c>
@@ -29743,7 +29743,7 @@
         <v>269.58999999999997</v>
       </c>
     </row>
-    <row r="586" spans="1:45" ht="15">
+    <row r="586" spans="1:45" ht="14.5">
       <c r="A586" s="1" t="s">
         <v>4</v>
       </c>
@@ -29791,7 +29791,7 @@
         <v>256.91000000000003</v>
       </c>
     </row>
-    <row r="587" spans="1:45" ht="15">
+    <row r="587" spans="1:45" ht="14.5">
       <c r="A587" s="1" t="s">
         <v>4</v>
       </c>
@@ -29839,7 +29839,7 @@
         <v>270.89</v>
       </c>
     </row>
-    <row r="588" spans="1:45" ht="15">
+    <row r="588" spans="1:45" ht="14.5">
       <c r="A588" s="1" t="s">
         <v>4</v>
       </c>
@@ -29887,7 +29887,7 @@
         <v>239.02</v>
       </c>
     </row>
-    <row r="589" spans="1:45" ht="15">
+    <row r="589" spans="1:45" ht="14.5">
       <c r="A589" s="1" t="s">
         <v>4</v>
       </c>
@@ -29935,7 +29935,7 @@
         <v>249.11</v>
       </c>
     </row>
-    <row r="590" spans="1:45" ht="15">
+    <row r="590" spans="1:45" ht="14.5">
       <c r="A590" s="1" t="s">
         <v>4</v>
       </c>
@@ -29983,7 +29983,7 @@
         <v>222.11</v>
       </c>
     </row>
-    <row r="591" spans="1:45" ht="15">
+    <row r="591" spans="1:45" ht="14.5">
       <c r="A591" s="1" t="s">
         <v>4</v>
       </c>
@@ -30031,7 +30031,7 @@
         <v>211.38</v>
       </c>
     </row>
-    <row r="592" spans="1:45" ht="15">
+    <row r="592" spans="1:45" ht="14.5">
       <c r="A592" s="1" t="s">
         <v>4</v>
       </c>
@@ -30079,7 +30079,7 @@
         <v>183.09</v>
       </c>
     </row>
-    <row r="593" spans="1:45" ht="15">
+    <row r="593" spans="1:45" ht="14.5">
       <c r="A593" s="1" t="s">
         <v>4</v>
       </c>
@@ -30127,7 +30127,7 @@
         <v>175.61</v>
       </c>
     </row>
-    <row r="594" spans="1:45" ht="15">
+    <row r="594" spans="1:45" ht="14.5">
       <c r="A594" s="1" t="s">
         <v>4</v>
       </c>
@@ -30175,7 +30175,7 @@
         <v>159.66999999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:45" ht="15">
+    <row r="595" spans="1:45" ht="14.5">
       <c r="A595" s="1" t="s">
         <v>4</v>
       </c>
@@ -30223,7 +30223,7 @@
         <v>172.36</v>
       </c>
     </row>
-    <row r="596" spans="1:45" ht="15">
+    <row r="596" spans="1:45" ht="14.5">
       <c r="A596" s="1" t="s">
         <v>4</v>
       </c>
@@ -30271,7 +30271,7 @@
         <v>165.2</v>
       </c>
     </row>
-    <row r="597" spans="1:45" ht="15">
+    <row r="597" spans="1:45" ht="14.5">
       <c r="A597" s="1" t="s">
         <v>4</v>
       </c>
@@ -30319,7 +30319,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="598" spans="1:45" ht="15">
+    <row r="598" spans="1:45" ht="14.5">
       <c r="A598" s="1" t="s">
         <v>4</v>
       </c>
@@ -30367,7 +30367,7 @@
         <v>150.57</v>
       </c>
     </row>
-    <row r="599" spans="1:45" ht="15">
+    <row r="599" spans="1:45" ht="14.5">
       <c r="A599" s="1" t="s">
         <v>4</v>
       </c>
@@ -30415,7 +30415,7 @@
         <v>151.87</v>
       </c>
     </row>
-    <row r="600" spans="1:45" ht="15">
+    <row r="600" spans="1:45" ht="14.5">
       <c r="A600" s="1" t="s">
         <v>4</v>
       </c>
@@ -30463,7 +30463,7 @@
         <v>157.72</v>
       </c>
     </row>
-    <row r="601" spans="1:45" ht="15">
+    <row r="601" spans="1:45" ht="14.5">
       <c r="A601" s="1" t="s">
         <v>4</v>
       </c>
@@ -30511,7 +30511,7 @@
         <v>164.55</v>
       </c>
     </row>
-    <row r="602" spans="1:45" ht="15">
+    <row r="602" spans="1:45" ht="14.5">
       <c r="A602" s="1" t="s">
         <v>4</v>
       </c>
@@ -30559,7 +30559,7 @@
         <v>161.63</v>
       </c>
     </row>
-    <row r="603" spans="1:45" ht="15">
+    <row r="603" spans="1:45" ht="14.5">
       <c r="A603" s="1" t="s">
         <v>4</v>
       </c>
@@ -30607,7 +30607,7 @@
         <v>186.67</v>
       </c>
     </row>
-    <row r="604" spans="1:45" ht="15">
+    <row r="604" spans="1:45" ht="14.5">
       <c r="A604" s="1" t="s">
         <v>4</v>
       </c>
@@ -30655,7 +30655,7 @@
         <v>185.37</v>
       </c>
     </row>
-    <row r="605" spans="1:45" ht="15">
+    <row r="605" spans="1:45" ht="14.5">
       <c r="A605" s="1" t="s">
         <v>4</v>
       </c>
@@ -30703,7 +30703,7 @@
         <v>178.54</v>
       </c>
     </row>
-    <row r="606" spans="1:45" ht="15">
+    <row r="606" spans="1:45" ht="14.5">
       <c r="A606" s="1" t="s">
         <v>4</v>
       </c>
@@ -30751,7 +30751,7 @@
         <v>198.7</v>
       </c>
     </row>
-    <row r="607" spans="1:45" ht="15">
+    <row r="607" spans="1:45" ht="14.5">
       <c r="A607" s="1" t="s">
         <v>4</v>
       </c>
@@ -30799,7 +30799,7 @@
         <v>200.98</v>
       </c>
     </row>
-    <row r="608" spans="1:45" ht="15">
+    <row r="608" spans="1:45" ht="14.5">
       <c r="A608" s="1" t="s">
         <v>4</v>
       </c>
@@ -30847,7 +30847,7 @@
         <v>194.15</v>
       </c>
     </row>
-    <row r="609" spans="1:45" ht="15">
+    <row r="609" spans="1:45" ht="14.5">
       <c r="A609" s="1" t="s">
         <v>4</v>
       </c>
@@ -30895,7 +30895,7 @@
         <v>174.96</v>
       </c>
     </row>
-    <row r="610" spans="1:45" ht="15">
+    <row r="610" spans="1:45" ht="14.5">
       <c r="A610" s="1" t="s">
         <v>4</v>
       </c>
@@ -30943,7 +30943,7 @@
         <v>169.11</v>
       </c>
     </row>
-    <row r="611" spans="1:45" ht="15">
+    <row r="611" spans="1:45" ht="14.5">
       <c r="A611" s="1" t="s">
         <v>4</v>
       </c>
@@ -30991,7 +30991,7 @@
         <v>156.1</v>
       </c>
     </row>
-    <row r="612" spans="1:45" ht="15">
+    <row r="612" spans="1:45" ht="14.5">
       <c r="A612" s="1" t="s">
         <v>4</v>
       </c>
@@ -31039,7 +31039,7 @@
         <v>166.5</v>
       </c>
     </row>
-    <row r="613" spans="1:45" ht="15">
+    <row r="613" spans="1:45" ht="14.5">
       <c r="A613" s="1" t="s">
         <v>4</v>
       </c>
@@ -31087,7 +31087,7 @@
         <v>167.8</v>
       </c>
     </row>
-    <row r="614" spans="1:45" ht="15">
+    <row r="614" spans="1:45" ht="14.5">
       <c r="A614" s="1" t="s">
         <v>4</v>
       </c>
@@ -31135,7 +31135,7 @@
         <v>159.35</v>
       </c>
     </row>
-    <row r="615" spans="1:45" ht="15">
+    <row r="615" spans="1:45" ht="14.5">
       <c r="A615" s="1" t="s">
         <v>4</v>
       </c>
@@ -31183,7 +31183,7 @@
         <v>153.82</v>
       </c>
     </row>
-    <row r="616" spans="1:45" ht="15">
+    <row r="616" spans="1:45" ht="14.5">
       <c r="A616" s="1" t="s">
         <v>4</v>
       </c>
@@ -31231,7 +31231,7 @@
         <v>163.9</v>
       </c>
     </row>
-    <row r="617" spans="1:45" ht="15">
+    <row r="617" spans="1:45" ht="14.5">
       <c r="A617" s="1" t="s">
         <v>4</v>
       </c>
@@ -31279,7 +31279,7 @@
         <v>153.82</v>
       </c>
     </row>
-    <row r="618" spans="1:45" ht="15">
+    <row r="618" spans="1:45" ht="14.5">
       <c r="A618" s="1" t="s">
         <v>4</v>
       </c>
@@ -31327,7 +31327,7 @@
         <v>153.82</v>
       </c>
     </row>
-    <row r="619" spans="1:45" ht="15">
+    <row r="619" spans="1:45" ht="14.5">
       <c r="A619" s="1" t="s">
         <v>4</v>
       </c>
@@ -31375,7 +31375,7 @@
         <v>171.38</v>
       </c>
     </row>
-    <row r="620" spans="1:45" ht="15">
+    <row r="620" spans="1:45" ht="14.5">
       <c r="A620" s="1" t="s">
         <v>4</v>
       </c>
@@ -31423,7 +31423,7 @@
         <v>154.15</v>
       </c>
     </row>
-    <row r="621" spans="1:45" ht="15">
+    <row r="621" spans="1:45" ht="14.5">
       <c r="A621" s="1" t="s">
         <v>4</v>
       </c>
@@ -31471,7 +31471,7 @@
         <v>151.54</v>
       </c>
     </row>
-    <row r="622" spans="1:45" ht="15">
+    <row r="622" spans="1:45" ht="14.5">
       <c r="A622" s="1" t="s">
         <v>4</v>
       </c>
@@ -31519,7 +31519,7 @@
         <v>147.32</v>
       </c>
     </row>
-    <row r="623" spans="1:45" ht="15">
+    <row r="623" spans="1:45" ht="14.5">
       <c r="A623" s="1" t="s">
         <v>4</v>
       </c>
@@ -31567,7 +31567,7 @@
         <v>148.62</v>
       </c>
     </row>
-    <row r="624" spans="1:45" ht="15">
+    <row r="624" spans="1:45" ht="14.5">
       <c r="A624" s="1" t="s">
         <v>4</v>
       </c>
@@ -31615,7 +31615,7 @@
         <v>160.65</v>
       </c>
     </row>
-    <row r="625" spans="1:45" ht="15">
+    <row r="625" spans="1:45" ht="14.5">
       <c r="A625" s="1" t="s">
         <v>4</v>
       </c>
@@ -31663,7 +31663,7 @@
         <v>206.83</v>
       </c>
     </row>
-    <row r="626" spans="1:45" ht="15">
+    <row r="626" spans="1:45" ht="14.5">
       <c r="A626" s="1" t="s">
         <v>4</v>
       </c>
@@ -31711,7 +31711,7 @@
         <v>239.02</v>
       </c>
     </row>
-    <row r="627" spans="1:45" ht="15">
+    <row r="627" spans="1:45" ht="14.5">
       <c r="A627" s="1" t="s">
         <v>4</v>
       </c>
@@ -31759,7 +31759,7 @@
         <v>252.03</v>
       </c>
     </row>
-    <row r="628" spans="1:45" ht="15">
+    <row r="628" spans="1:45" ht="14.5">
       <c r="A628" s="1" t="s">
         <v>4</v>
       </c>
@@ -31807,7 +31807,7 @@
         <v>284.23</v>
       </c>
     </row>
-    <row r="629" spans="1:45" ht="15">
+    <row r="629" spans="1:45" ht="14.5">
       <c r="A629" s="1" t="s">
         <v>4</v>
       </c>
@@ -31855,7 +31855,7 @@
         <v>288.13</v>
       </c>
     </row>
-    <row r="630" spans="1:45" ht="15">
+    <row r="630" spans="1:45" ht="14.5">
       <c r="A630" s="26" t="s">
         <v>5</v>
       </c>
@@ -31903,7 +31903,7 @@
         <v>323.76816399999996</v>
       </c>
     </row>
-    <row r="631" spans="1:45" ht="15">
+    <row r="631" spans="1:45" ht="14.5">
       <c r="A631" s="26" t="s">
         <v>5</v>
       </c>
@@ -31951,7 +31951,7 @@
         <v>335.32658400000003</v>
       </c>
     </row>
-    <row r="632" spans="1:45" ht="15">
+    <row r="632" spans="1:45" ht="14.5">
       <c r="A632" s="26" t="s">
         <v>5</v>
       </c>
@@ -31999,7 +31999,7 @@
         <v>350.22689500000001</v>
       </c>
     </row>
-    <row r="633" spans="1:45" ht="15">
+    <row r="633" spans="1:45" ht="14.5">
       <c r="A633" s="26" t="s">
         <v>5</v>
       </c>
@@ -32047,7 +32047,7 @@
         <v>363.26780800000006</v>
       </c>
     </row>
-    <row r="634" spans="1:45" ht="15">
+    <row r="634" spans="1:45" ht="14.5">
       <c r="A634" s="26" t="s">
         <v>5</v>
       </c>
@@ -32095,7 +32095,7 @@
         <v>365.152333</v>
       </c>
     </row>
-    <row r="635" spans="1:45" ht="15">
+    <row r="635" spans="1:45" ht="14.5">
       <c r="A635" s="26" t="s">
         <v>5</v>
       </c>
@@ -32143,7 +32143,7 @@
         <v>359.22236099999998</v>
       </c>
     </row>
-    <row r="636" spans="1:45" ht="15">
+    <row r="636" spans="1:45" ht="14.5">
       <c r="A636" s="26" t="s">
         <v>5</v>
       </c>
@@ -32191,7 +32191,7 @@
         <v>353.66929399999998</v>
       </c>
     </row>
-    <row r="637" spans="1:45" ht="15">
+    <row r="637" spans="1:45" ht="14.5">
       <c r="A637" s="26" t="s">
         <v>5</v>
       </c>
@@ -32239,7 +32239,7 @@
         <v>365.62974600000001</v>
       </c>
     </row>
-    <row r="638" spans="1:45" ht="15">
+    <row r="638" spans="1:45" ht="14.5">
       <c r="A638" s="26" t="s">
         <v>5</v>
       </c>
@@ -32287,7 +32287,7 @@
         <v>324.69786299999998</v>
       </c>
     </row>
-    <row r="639" spans="1:45" ht="15">
+    <row r="639" spans="1:45" ht="14.5">
       <c r="A639" s="26" t="s">
         <v>5</v>
       </c>
@@ -32335,7 +32335,7 @@
         <v>365.35334899999998</v>
       </c>
     </row>
-    <row r="640" spans="1:45" ht="15">
+    <row r="640" spans="1:45" ht="14.5">
       <c r="A640" s="26" t="s">
         <v>5</v>
       </c>
@@ -32383,7 +32383,7 @@
         <v>365.805635</v>
       </c>
     </row>
-    <row r="641" spans="1:45" ht="15">
+    <row r="641" spans="1:45" ht="14.5">
       <c r="A641" s="26" t="s">
         <v>5</v>
       </c>
@@ -32431,7 +32431,7 @@
         <v>315.17473000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:45" ht="15">
+    <row r="642" spans="1:45" ht="14.5">
       <c r="A642" s="26" t="s">
         <v>5</v>
       </c>
@@ -32479,7 +32479,7 @@
         <v>300.67645099999999</v>
       </c>
     </row>
-    <row r="643" spans="1:45" ht="15">
+    <row r="643" spans="1:45" ht="14.5">
       <c r="A643" s="26" t="s">
         <v>5</v>
       </c>
@@ -32527,7 +32527,7 @@
         <v>270.17227300000002</v>
       </c>
     </row>
-    <row r="644" spans="1:45" ht="15">
+    <row r="644" spans="1:45" ht="14.5">
       <c r="A644" s="26" t="s">
         <v>5</v>
       </c>
@@ -32575,7 +32575,7 @@
         <v>254.54327900000001</v>
       </c>
     </row>
-    <row r="645" spans="1:45" ht="15">
+    <row r="645" spans="1:45" ht="14.5">
       <c r="A645" s="26" t="s">
         <v>5</v>
       </c>
@@ -32623,7 +32623,7 @@
         <v>234.064774</v>
       </c>
     </row>
-    <row r="646" spans="1:45" ht="15">
+    <row r="646" spans="1:45" ht="14.5">
       <c r="A646" s="26" t="s">
         <v>5</v>
       </c>
@@ -32671,7 +32671,7 @@
         <v>211.77712500000001</v>
       </c>
     </row>
-    <row r="647" spans="1:45" ht="15">
+    <row r="647" spans="1:45" ht="14.5">
       <c r="A647" s="26" t="s">
         <v>5</v>
       </c>
@@ -32719,7 +32719,7 @@
         <v>285.92690200000004</v>
       </c>
     </row>
-    <row r="648" spans="1:45" ht="15">
+    <row r="648" spans="1:45" ht="14.5">
       <c r="A648" s="26" t="s">
         <v>5</v>
       </c>
@@ -32767,7 +32767,7 @@
         <v>280.02205700000002</v>
       </c>
     </row>
-    <row r="649" spans="1:45" ht="15">
+    <row r="649" spans="1:45" ht="14.5">
       <c r="A649" s="26" t="s">
         <v>5</v>
       </c>
@@ -32815,7 +32815,7 @@
         <v>233.88888500000002</v>
       </c>
     </row>
-    <row r="650" spans="1:45" ht="15">
+    <row r="650" spans="1:45" ht="14.5">
       <c r="A650" s="26" t="s">
         <v>5</v>
       </c>
@@ -32863,7 +32863,7 @@
         <v>224.99392699999999</v>
       </c>
     </row>
-    <row r="651" spans="1:45" ht="15">
+    <row r="651" spans="1:45" ht="14.5">
       <c r="A651" s="26" t="s">
         <v>5</v>
       </c>
@@ -32911,7 +32911,7 @@
         <v>216.09896900000001</v>
       </c>
     </row>
-    <row r="652" spans="1:45" ht="15">
+    <row r="652" spans="1:45" ht="14.5">
       <c r="A652" s="26" t="s">
         <v>5</v>
       </c>
@@ -32959,7 +32959,7 @@
         <v>274.644879</v>
       </c>
     </row>
-    <row r="653" spans="1:45" ht="15">
+    <row r="653" spans="1:45" ht="14.5">
       <c r="A653" s="26" t="s">
         <v>5</v>
       </c>
@@ -33007,7 +33007,7 @@
         <v>292.18352500000003</v>
       </c>
     </row>
-    <row r="654" spans="1:45" ht="15">
+    <row r="654" spans="1:45" ht="14.5">
       <c r="A654" s="26" t="s">
         <v>5</v>
       </c>
@@ -33055,7 +33055,7 @@
         <v>320.20013000000006</v>
       </c>
     </row>
-    <row r="655" spans="1:45" ht="15">
+    <row r="655" spans="1:45" ht="14.5">
       <c r="A655" s="26" t="s">
         <v>5</v>
       </c>
@@ -33103,7 +33103,7 @@
         <v>321.33084499999995</v>
       </c>
     </row>
-    <row r="656" spans="1:45" ht="15">
+    <row r="656" spans="1:45" ht="14.5">
       <c r="A656" s="26" t="s">
         <v>5</v>
       </c>
@@ -33151,7 +33151,7 @@
         <v>293.31424000000004</v>
       </c>
     </row>
-    <row r="657" spans="1:45" ht="15">
+    <row r="657" spans="1:45" ht="14.5">
       <c r="A657" s="26" t="s">
         <v>5</v>
       </c>
@@ -33199,7 +33199,7 @@
         <v>267.05652500000002</v>
       </c>
     </row>
-    <row r="658" spans="1:45" ht="15">
+    <row r="658" spans="1:45" ht="14.5">
       <c r="A658" s="26" t="s">
         <v>5</v>
       </c>
@@ -33247,7 +33247,7 @@
         <v>256.251915</v>
       </c>
     </row>
-    <row r="659" spans="1:45" ht="15">
+    <row r="659" spans="1:45" ht="14.5">
       <c r="A659" s="26" t="s">
         <v>5</v>
       </c>
@@ -33295,7 +33295,7 @@
         <v>233.93913900000001</v>
       </c>
     </row>
-    <row r="660" spans="1:45" ht="15">
+    <row r="660" spans="1:45" ht="14.5">
       <c r="A660" s="26" t="s">
         <v>5</v>
       </c>
@@ -33343,7 +33343,7 @@
         <v>158.80940900000002</v>
       </c>
     </row>
-    <row r="661" spans="1:45" ht="15">
+    <row r="661" spans="1:45" ht="14.5">
       <c r="A661" s="26" t="s">
         <v>5</v>
       </c>
@@ -33391,7 +33391,7 @@
         <v>118.731844</v>
       </c>
     </row>
-    <row r="662" spans="1:45" ht="15">
+    <row r="662" spans="1:45" ht="14.5">
       <c r="A662" s="26" t="s">
         <v>5</v>
       </c>
@@ -33439,7 +33439,7 @@
         <v>118.807225</v>
       </c>
     </row>
-    <row r="663" spans="1:45" ht="15">
+    <row r="663" spans="1:45" ht="14.5">
       <c r="A663" s="26" t="s">
         <v>5</v>
       </c>
@@ -33487,7 +33487,7 @@
         <v>292.81169999999997</v>
       </c>
     </row>
-    <row r="664" spans="1:45" ht="15">
+    <row r="664" spans="1:45" ht="14.5">
       <c r="A664" s="26" t="s">
         <v>5</v>
       </c>
@@ -33535,7 +33535,7 @@
         <v>247.40721099999999</v>
       </c>
     </row>
-    <row r="665" spans="1:45" ht="15">
+    <row r="665" spans="1:45" ht="14.5">
       <c r="A665" s="26" t="s">
         <v>5</v>
       </c>
@@ -33583,7 +33583,7 @@
         <v>227.70764300000002</v>
       </c>
     </row>
-    <row r="666" spans="1:45" ht="15">
+    <row r="666" spans="1:45" ht="14.5">
       <c r="A666" s="26" t="s">
         <v>5</v>
       </c>
@@ -33631,7 +33631,7 @@
         <v>213.98830100000001</v>
       </c>
     </row>
-    <row r="667" spans="1:45" ht="15">
+    <row r="667" spans="1:45" ht="14.5">
       <c r="A667" s="26" t="s">
         <v>5</v>
       </c>
@@ -33679,7 +33679,7 @@
         <v>206.60096300000001</v>
       </c>
     </row>
-    <row r="668" spans="1:45" ht="15">
+    <row r="668" spans="1:45" ht="14.5">
       <c r="A668" s="26" t="s">
         <v>5</v>
       </c>
@@ -33727,7 +33727,7 @@
         <v>206.70147099999997</v>
       </c>
     </row>
-    <row r="669" spans="1:45" ht="15">
+    <row r="669" spans="1:45" ht="14.5">
       <c r="A669" s="26" t="s">
         <v>5</v>
       </c>
@@ -33749,7 +33749,7 @@
         <v>201.90221400000001</v>
       </c>
     </row>
-    <row r="670" spans="1:45" ht="15">
+    <row r="670" spans="1:45" ht="14.5">
       <c r="A670" s="26" t="s">
         <v>5</v>
       </c>
@@ -33771,7 +33771,7 @@
         <v>275.75046699999996</v>
       </c>
     </row>
-    <row r="671" spans="1:45" ht="15">
+    <row r="671" spans="1:45" ht="14.5">
       <c r="A671" s="26" t="s">
         <v>5</v>
       </c>
@@ -33792,7 +33792,7 @@
         <v>272.40857600000004</v>
       </c>
     </row>
-    <row r="672" spans="1:45" ht="15">
+    <row r="672" spans="1:45" ht="14.5">
       <c r="A672" s="26" t="s">
         <v>5</v>
       </c>
@@ -33814,7 +33814,7 @@
         <v>273.94132300000001</v>
       </c>
     </row>
-    <row r="673" spans="1:45" ht="15">
+    <row r="673" spans="1:45" ht="14.5">
       <c r="A673" s="26" t="s">
         <v>5</v>
       </c>
@@ -33836,7 +33836,7 @@
         <v>310.82775900000001</v>
       </c>
     </row>
-    <row r="674" spans="1:45" ht="15">
+    <row r="674" spans="1:45" ht="14.5">
       <c r="A674" s="26" t="s">
         <v>5</v>
       </c>
@@ -33857,7 +33857,7 @@
         <v>275.47406999999998</v>
       </c>
     </row>
-    <row r="675" spans="1:45" ht="15">
+    <row r="675" spans="1:45" ht="14.5">
       <c r="A675" s="26" t="s">
         <v>5</v>
       </c>
@@ -33879,7 +33879,7 @@
         <v>243.16074799999998</v>
       </c>
     </row>
-    <row r="676" spans="1:45" ht="15">
+    <row r="676" spans="1:45" ht="14.5">
       <c r="A676" s="26" t="s">
         <v>5</v>
       </c>
@@ -33901,7 +33901,7 @@
         <v>218.96344699999997</v>
       </c>
     </row>
-    <row r="677" spans="1:45" ht="15">
+    <row r="677" spans="1:45" ht="14.5">
       <c r="A677" s="26" t="s">
         <v>5</v>
       </c>
@@ -33922,7 +33922,7 @@
         <v>208.76188500000001</v>
       </c>
     </row>
-    <row r="678" spans="1:45" ht="15">
+    <row r="678" spans="1:45" ht="14.5">
       <c r="A678" s="26" t="s">
         <v>5</v>
       </c>
@@ -33949,7 +33949,7 @@
         <v>169.161733</v>
       </c>
     </row>
-    <row r="679" spans="1:45" ht="15">
+    <row r="679" spans="1:45" ht="14.5">
       <c r="A679" s="26" t="s">
         <v>5</v>
       </c>
@@ -33976,7 +33976,7 @@
         <v>161.39749</v>
       </c>
     </row>
-    <row r="680" spans="1:45" ht="15">
+    <row r="680" spans="1:45" ht="14.5">
       <c r="A680" s="26" t="s">
         <v>5</v>
       </c>
@@ -34003,7 +34003,7 @@
         <v>166.47314399999999</v>
       </c>
     </row>
-    <row r="681" spans="1:45" ht="15">
+    <row r="681" spans="1:45" ht="14.5">
       <c r="A681" s="26" t="s">
         <v>5</v>
       </c>
@@ -34030,7 +34030,7 @@
         <v>153.28146900000002</v>
       </c>
     </row>
-    <row r="682" spans="1:45" ht="15">
+    <row r="682" spans="1:45" ht="14.5">
       <c r="A682" s="26" t="s">
         <v>5</v>
       </c>
@@ -34057,7 +34057,7 @@
         <v>148.08017999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:45" ht="15">
+    <row r="683" spans="1:45" ht="14.5">
       <c r="A683" s="26" t="s">
         <v>5</v>
       </c>
@@ -34084,7 +34084,7 @@
         <v>142.92914500000001</v>
       </c>
     </row>
-    <row r="684" spans="1:45" ht="15">
+    <row r="684" spans="1:45" ht="14.5">
       <c r="A684" s="26" t="s">
         <v>5</v>
       </c>
@@ -34111,7 +34111,7 @@
         <v>131.06920099999999</v>
       </c>
     </row>
-    <row r="685" spans="1:45" ht="15">
+    <row r="685" spans="1:45" ht="14.5">
       <c r="A685" s="26" t="s">
         <v>5</v>
       </c>
@@ -34138,7 +34138,7 @@
         <v>192.30369999999999</v>
       </c>
     </row>
-    <row r="686" spans="1:45" ht="15">
+    <row r="686" spans="1:45" ht="14.5">
       <c r="A686" s="26" t="s">
         <v>5</v>
       </c>
@@ -34165,7 +34165,7 @@
         <v>173.38306900000001</v>
       </c>
     </row>
-    <row r="687" spans="1:45" ht="15">
+    <row r="687" spans="1:45" ht="14.5">
       <c r="A687" s="26" t="s">
         <v>5</v>
       </c>
@@ -34192,7 +34192,7 @@
         <v>224.843165</v>
       </c>
     </row>
-    <row r="688" spans="1:45" ht="15">
+    <row r="688" spans="1:45" ht="14.5">
       <c r="A688" s="26" t="s">
         <v>5</v>
       </c>
@@ -34219,7 +34219,7 @@
         <v>246.12573399999999</v>
       </c>
     </row>
-    <row r="689" spans="1:45" ht="15">
+    <row r="689" spans="1:45" ht="14.5">
       <c r="A689" s="26" t="s">
         <v>5</v>
       </c>
@@ -34246,7 +34246,7 @@
         <v>237.95945900000001</v>
       </c>
     </row>
-    <row r="690" spans="1:45" ht="15">
+    <row r="690" spans="1:45" ht="14.5">
       <c r="A690" s="26" t="s">
         <v>5</v>
       </c>
@@ -34273,7 +34273,7 @@
         <v>253.28692900000001</v>
       </c>
     </row>
-    <row r="691" spans="1:45" ht="15">
+    <row r="691" spans="1:45" ht="14.5">
       <c r="A691" s="26" t="s">
         <v>5</v>
       </c>
@@ -34300,7 +34300,7 @@
         <v>233.96426600000001</v>
       </c>
     </row>
-    <row r="692" spans="1:45" ht="15">
+    <row r="692" spans="1:45" ht="14.5">
       <c r="A692" s="26" t="s">
         <v>5</v>
       </c>
@@ -34327,7 +34327,7 @@
         <v>221.55152800000002</v>
       </c>
     </row>
-    <row r="693" spans="1:45" ht="15">
+    <row r="693" spans="1:45" ht="14.5">
       <c r="A693" s="26" t="s">
         <v>5</v>
       </c>
@@ -34354,7 +34354,7 @@
         <v>229.59216800000002</v>
       </c>
     </row>
-    <row r="694" spans="1:45" ht="15">
+    <row r="694" spans="1:45" ht="14.5">
       <c r="A694" s="26" t="s">
         <v>5</v>
       </c>
@@ -34381,7 +34381,7 @@
         <v>208.41010699999998</v>
       </c>
     </row>
-    <row r="695" spans="1:45" ht="15">
+    <row r="695" spans="1:45" ht="14.5">
       <c r="A695" s="26" t="s">
         <v>5</v>
       </c>
@@ -34408,7 +34408,7 @@
         <v>223.53656100000001</v>
       </c>
     </row>
-    <row r="696" spans="1:45" ht="15">
+    <row r="696" spans="1:45" ht="14.5">
       <c r="A696" s="26" t="s">
         <v>5</v>
       </c>
@@ -34435,7 +34435,7 @@
         <v>203.259072</v>
       </c>
     </row>
-    <row r="697" spans="1:45" ht="15">
+    <row r="697" spans="1:45" ht="14.5">
       <c r="A697" s="26" t="s">
         <v>5</v>
       </c>
@@ -34462,7 +34462,7 @@
         <v>160.492918</v>
       </c>
     </row>
-    <row r="698" spans="1:45" ht="15">
+    <row r="698" spans="1:45" ht="14.5">
       <c r="A698" s="26" t="s">
         <v>5</v>
       </c>
@@ -34489,7 +34489,7 @@
         <v>151.22105499999998</v>
       </c>
     </row>
-    <row r="699" spans="1:45" ht="15">
+    <row r="699" spans="1:45" ht="14.5">
       <c r="A699" s="26" t="s">
         <v>5</v>
       </c>
@@ -34516,7 +34516,7 @@
         <v>136.92379199999999</v>
       </c>
     </row>
-    <row r="700" spans="1:45" ht="15">
+    <row r="700" spans="1:45" ht="14.5">
       <c r="A700" s="26" t="s">
         <v>5</v>
       </c>
@@ -34543,7 +34543,7 @@
         <v>142.92914500000001</v>
       </c>
     </row>
-    <row r="701" spans="1:45" ht="15">
+    <row r="701" spans="1:45" ht="14.5">
       <c r="A701" s="26" t="s">
         <v>5</v>
       </c>
@@ -34570,7 +34570,7 @@
         <v>162.50307800000002</v>
       </c>
     </row>
-    <row r="702" spans="1:45" ht="15">
+    <row r="702" spans="1:45" ht="14.5">
       <c r="A702" s="26" t="s">
         <v>5</v>
       </c>
@@ -34597,7 +34597,7 @@
         <v>153.98502500000001</v>
       </c>
     </row>
-    <row r="703" spans="1:45" ht="15">
+    <row r="703" spans="1:45" ht="14.5">
       <c r="A703" s="26" t="s">
         <v>5</v>
       </c>
@@ -34624,7 +34624,7 @@
         <v>141.37127100000001</v>
       </c>
     </row>
-    <row r="704" spans="1:45" ht="15">
+    <row r="704" spans="1:45" ht="14.5">
       <c r="A704" s="26" t="s">
         <v>5</v>
       </c>
@@ -34651,7 +34651,7 @@
         <v>132.09940799999998</v>
       </c>
     </row>
-    <row r="705" spans="1:45" ht="15">
+    <row r="705" spans="1:45" ht="14.5">
       <c r="A705" s="26" t="s">
         <v>5</v>
       </c>
@@ -34678,7 +34678,7 @@
         <v>131.77275699999998</v>
       </c>
     </row>
-    <row r="706" spans="1:45" ht="15">
+    <row r="706" spans="1:45" ht="14.5">
       <c r="A706" s="26" t="s">
         <v>5</v>
       </c>
@@ -34705,7 +34705,7 @@
         <v>140.36619099999999</v>
       </c>
     </row>
-    <row r="707" spans="1:45" ht="15">
+    <row r="707" spans="1:45" ht="14.5">
       <c r="A707" s="26" t="s">
         <v>5</v>
       </c>
@@ -34732,7 +34732,7 @@
         <v>145.81874999999999</v>
       </c>
     </row>
-    <row r="708" spans="1:45" ht="15">
+    <row r="708" spans="1:45" ht="14.5">
       <c r="A708" s="26" t="s">
         <v>5</v>
       </c>
@@ -34759,7 +34759,7 @@
         <v>143.255796</v>
       </c>
     </row>
-    <row r="709" spans="1:45" ht="15">
+    <row r="709" spans="1:45" ht="14.5">
       <c r="A709" s="26" t="s">
         <v>5</v>
       </c>
@@ -34786,7 +34786,7 @@
         <v>161.724141</v>
       </c>
     </row>
-    <row r="710" spans="1:45" ht="15">
+    <row r="710" spans="1:45" ht="14.5">
       <c r="A710" s="26" t="s">
         <v>5</v>
       </c>
@@ -34813,7 +34813,7 @@
         <v>157.1259</v>
       </c>
     </row>
-    <row r="711" spans="1:45" ht="15">
+    <row r="711" spans="1:45" ht="14.5">
       <c r="A711" s="26" t="s">
         <v>5</v>
       </c>
@@ -34840,7 +34840,7 @@
         <v>175.242467</v>
       </c>
     </row>
-    <row r="712" spans="1:45" ht="15">
+    <row r="712" spans="1:45" ht="14.5">
       <c r="A712" s="26" t="s">
         <v>5</v>
       </c>
@@ -34867,7 +34867,7 @@
         <v>180.89604199999999</v>
       </c>
     </row>
-    <row r="713" spans="1:45" ht="15">
+    <row r="713" spans="1:45" ht="14.5">
       <c r="A713" s="26" t="s">
         <v>5</v>
       </c>
@@ -34894,7 +34894,7 @@
         <v>171.649306</v>
       </c>
     </row>
-    <row r="714" spans="1:45" ht="15">
+    <row r="714" spans="1:45" ht="14.5">
       <c r="A714" s="26" t="s">
         <v>5</v>
       </c>
@@ -34921,7 +34921,7 @@
         <v>153.784009</v>
       </c>
     </row>
-    <row r="715" spans="1:45" ht="15">
+    <row r="715" spans="1:45" ht="14.5">
       <c r="A715" s="26" t="s">
         <v>5</v>
       </c>
@@ -34948,7 +34948,7 @@
         <v>156.07056599999999</v>
       </c>
     </row>
-    <row r="716" spans="1:45" ht="15">
+    <row r="716" spans="1:45" ht="14.5">
       <c r="A716" s="26" t="s">
         <v>5</v>
       </c>
@@ -34975,7 +34975,7 @@
         <v>140.46669900000001</v>
       </c>
     </row>
-    <row r="717" spans="1:45" ht="15">
+    <row r="717" spans="1:45" ht="14.5">
       <c r="A717" s="26" t="s">
         <v>5</v>
       </c>
@@ -35002,7 +35002,7 @@
         <v>153.90964400000001</v>
       </c>
     </row>
-    <row r="718" spans="1:45" ht="15">
+    <row r="718" spans="1:45" ht="14.5">
       <c r="A718" s="26" t="s">
         <v>5</v>
       </c>
@@ -35029,7 +35029,7 @@
         <v>157.67869400000001</v>
       </c>
     </row>
-    <row r="719" spans="1:45" ht="15">
+    <row r="719" spans="1:45" ht="14.5">
       <c r="A719" s="26" t="s">
         <v>5</v>
       </c>
@@ -35056,7 +35056,7 @@
         <v>143.959352</v>
       </c>
     </row>
-    <row r="720" spans="1:45" ht="15">
+    <row r="720" spans="1:45" ht="14.5">
       <c r="A720" s="27" t="s">
         <v>9</v>
       </c>
@@ -35083,7 +35083,7 @@
         <v>323.76816399999996</v>
       </c>
     </row>
-    <row r="721" spans="1:45" ht="15">
+    <row r="721" spans="1:45" ht="14.5">
       <c r="A721" s="27" t="s">
         <v>9</v>
       </c>
@@ -35110,7 +35110,7 @@
         <v>335.32658400000003</v>
       </c>
     </row>
-    <row r="722" spans="1:45" ht="15">
+    <row r="722" spans="1:45" ht="14.5">
       <c r="A722" s="27" t="s">
         <v>9</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>357.31270900000004</v>
       </c>
     </row>
-    <row r="723" spans="1:45" ht="15">
+    <row r="723" spans="1:45" ht="14.5">
       <c r="A723" s="27" t="s">
         <v>9</v>
       </c>
@@ -35164,7 +35164,7 @@
         <v>363.26780800000006</v>
       </c>
     </row>
-    <row r="724" spans="1:45" ht="15">
+    <row r="724" spans="1:45" ht="14.5">
       <c r="A724" s="27" t="s">
         <v>9</v>
       </c>
@@ -45973,9 +45973,6 @@
       <c r="C1136" s="3">
         <v>10</v>
       </c>
-      <c r="AD1136" s="3">
-        <v>102</v>
-      </c>
       <c r="AF1136" s="3">
         <v>132</v>
       </c>
@@ -45996,9 +45993,6 @@
       <c r="C1137" s="3">
         <v>10</v>
       </c>
-      <c r="AD1137" s="3">
-        <v>162</v>
-      </c>
       <c r="AF1137" s="3">
         <v>171</v>
       </c>
@@ -46019,9 +46013,6 @@
       <c r="C1138" s="3">
         <v>10</v>
       </c>
-      <c r="AD1138" s="3">
-        <v>160</v>
-      </c>
       <c r="AF1138" s="3">
         <v>200</v>
       </c>
@@ -46042,9 +46033,6 @@
       <c r="C1139" s="3">
         <v>10</v>
       </c>
-      <c r="AD1139" s="3">
-        <v>158</v>
-      </c>
       <c r="AF1139" s="3">
         <v>189</v>
       </c>
@@ -46065,9 +46053,6 @@
       <c r="C1140" s="3">
         <v>10</v>
       </c>
-      <c r="AD1140" s="3">
-        <v>94</v>
-      </c>
       <c r="AF1140" s="3">
         <v>113</v>
       </c>
@@ -46088,9 +46073,6 @@
       <c r="C1141" s="3">
         <v>10</v>
       </c>
-      <c r="AD1141" s="3">
-        <v>182</v>
-      </c>
       <c r="AF1141" s="3">
         <v>188</v>
       </c>
@@ -46111,9 +46093,6 @@
       <c r="C1142" s="3">
         <v>10</v>
       </c>
-      <c r="AD1142" s="3">
-        <v>151</v>
-      </c>
       <c r="AF1142" s="3">
         <v>169</v>
       </c>
@@ -46134,9 +46113,6 @@
       <c r="C1143" s="3">
         <v>10</v>
       </c>
-      <c r="AD1143" s="3">
-        <v>148</v>
-      </c>
       <c r="AF1143" s="3">
         <v>163</v>
       </c>
@@ -46157,9 +46133,6 @@
       <c r="C1144" s="3">
         <v>10</v>
       </c>
-      <c r="AD1144" s="3">
-        <v>91</v>
-      </c>
       <c r="AF1144" s="3">
         <v>106</v>
       </c>
@@ -46180,9 +46153,6 @@
       <c r="C1145" s="3">
         <v>10</v>
       </c>
-      <c r="AD1145" s="3">
-        <v>149</v>
-      </c>
       <c r="AF1145" s="3">
         <v>142</v>
       </c>
@@ -46203,9 +46173,6 @@
       <c r="C1146" s="3">
         <v>10</v>
       </c>
-      <c r="AD1146" s="3">
-        <v>130</v>
-      </c>
       <c r="AF1146" s="3">
         <v>146</v>
       </c>
@@ -46226,9 +46193,6 @@
       <c r="C1147" s="3">
         <v>10</v>
       </c>
-      <c r="AD1147" s="3">
-        <v>131</v>
-      </c>
       <c r="AF1147" s="3">
         <v>135</v>
       </c>
@@ -46258,11 +46222,8 @@
       <c r="AA1148" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="AD1148" s="3">
-        <v>216</v>
-      </c>
       <c r="AE1148" s="3">
-        <v>11.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AF1148" s="3">
         <v>279</v>
@@ -46293,11 +46254,8 @@
       <c r="AA1149" s="3">
         <v>22</v>
       </c>
-      <c r="AD1149" s="3">
-        <v>321</v>
-      </c>
       <c r="AE1149" s="3">
-        <v>19.399999999999999</v>
+        <v>1.94</v>
       </c>
       <c r="AF1149" s="3">
         <v>340.5</v>
@@ -46328,11 +46286,8 @@
       <c r="AA1150" s="3">
         <v>21.4</v>
       </c>
-      <c r="AD1150" s="3">
-        <v>306</v>
-      </c>
       <c r="AE1150" s="3">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="AF1150" s="3">
         <v>381</v>
@@ -46363,11 +46318,8 @@
       <c r="AA1151" s="3">
         <v>21</v>
       </c>
-      <c r="AD1151" s="3">
-        <v>315</v>
-      </c>
       <c r="AE1151" s="3">
-        <v>14.3</v>
+        <v>1.4300000000000002</v>
       </c>
       <c r="AF1151" s="3">
         <v>376.5</v>
@@ -46398,11 +46350,8 @@
       <c r="AA1152" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="AD1152" s="3">
-        <v>208.5</v>
-      </c>
       <c r="AE1152" s="3">
-        <v>15.7</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="AF1152" s="3">
         <v>252</v>
@@ -46433,11 +46382,8 @@
       <c r="AA1153" s="3">
         <v>22</v>
       </c>
-      <c r="AD1153" s="3">
-        <v>360</v>
-      </c>
       <c r="AE1153" s="3">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="AF1153" s="3">
         <v>373.5</v>
@@ -46468,11 +46414,8 @@
       <c r="AA1154" s="3">
         <v>20.5</v>
       </c>
-      <c r="AD1154" s="3">
-        <v>292.5</v>
-      </c>
       <c r="AE1154" s="3">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="AF1154" s="3">
         <v>330</v>
@@ -46503,11 +46446,8 @@
       <c r="AA1155" s="3">
         <v>21.3</v>
       </c>
-      <c r="AD1155" s="3">
-        <v>298.5</v>
-      </c>
       <c r="AE1155" s="3">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="AF1155" s="3">
         <v>331.5</v>
@@ -46538,11 +46478,8 @@
       <c r="AA1156" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="AD1156" s="3">
-        <v>181.5</v>
-      </c>
       <c r="AE1156" s="3">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="AF1156" s="3">
         <v>211.5</v>
@@ -46573,11 +46510,8 @@
       <c r="AA1157" s="3">
         <v>19.7</v>
       </c>
-      <c r="AD1157" s="3">
-        <v>301.5</v>
-      </c>
       <c r="AE1157" s="3">
-        <v>18.2</v>
+        <v>1.8199999999999998</v>
       </c>
       <c r="AF1157" s="3">
         <v>288</v>
@@ -46608,11 +46542,8 @@
       <c r="AA1158" s="3">
         <v>19.7</v>
       </c>
-      <c r="AD1158" s="3">
-        <v>252</v>
-      </c>
       <c r="AE1158" s="3">
-        <v>16.2</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="AF1158" s="3">
         <v>282</v>
@@ -46643,11 +46574,8 @@
       <c r="AA1159" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="AD1159" s="3">
-        <v>258</v>
-      </c>
       <c r="AE1159" s="3">
-        <v>16.399999999999999</v>
+        <v>1.64</v>
       </c>
       <c r="AF1159" s="3">
         <v>265.5</v>
@@ -47257,7 +47185,7 @@
         <v>15.000000000000002</v>
       </c>
     </row>
-    <row r="1179" spans="1:72" ht="15">
+    <row r="1179" spans="1:72" ht="14.5">
       <c r="A1179" s="3" t="s">
         <v>65</v>
       </c>
@@ -47282,7 +47210,7 @@
         <v>7.4476923076923072</v>
       </c>
     </row>
-    <row r="1180" spans="1:72" ht="15">
+    <row r="1180" spans="1:72" ht="14.5">
       <c r="A1180" s="3" t="s">
         <v>65</v>
       </c>
@@ -47854,7 +47782,7 @@
         <v>1.11E-2</v>
       </c>
     </row>
-    <row r="1197" spans="1:72" ht="15">
+    <row r="1197" spans="1:72" ht="14.5">
       <c r="A1197" s="3" t="s">
         <v>87</v>
       </c>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4552B3E-B55C-4F5E-A9BC-2E71EC1F40D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4DC9AF-E521-47E2-8556-AA038669EA5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,10 +987,10 @@
   <dimension ref="A1:BT1438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AC1146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E1048554" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC1148" sqref="AC1148:AD1159"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.5"/>
@@ -17797,12 +17797,7 @@
       <c r="E343" s="20">
         <v>625</v>
       </c>
-      <c r="I343" s="6">
-        <v>30482.42</v>
-      </c>
-      <c r="J343" s="3">
-        <v>10</v>
-      </c>
+      <c r="I343" s="6"/>
       <c r="L343" s="6"/>
       <c r="Q343" s="36"/>
       <c r="R343" s="6"/>
@@ -17856,12 +17851,7 @@
       <c r="E344" s="20">
         <v>625</v>
       </c>
-      <c r="I344" s="6">
-        <v>32382.68144</v>
-      </c>
-      <c r="J344" s="3">
-        <v>15.2</v>
-      </c>
+      <c r="I344" s="6"/>
       <c r="L344" s="6"/>
       <c r="Q344" s="36"/>
       <c r="R344" s="6"/>
@@ -17915,12 +17905,7 @@
       <c r="E345" s="20">
         <v>275</v>
       </c>
-      <c r="I345" s="6">
-        <v>32601.82676</v>
-      </c>
-      <c r="J345" s="3">
-        <v>15.8</v>
-      </c>
+      <c r="I345" s="6"/>
       <c r="L345" s="6"/>
       <c r="Q345" s="36"/>
       <c r="R345" s="6"/>
@@ -17974,12 +17959,7 @@
       <c r="E346" s="20">
         <v>275</v>
       </c>
-      <c r="I346" s="6">
-        <v>34135.843999999997</v>
-      </c>
-      <c r="J346" s="3">
-        <v>20</v>
-      </c>
+      <c r="I346" s="6"/>
       <c r="L346" s="6"/>
       <c r="Q346" s="36"/>
       <c r="R346" s="6"/>
@@ -18033,12 +18013,7 @@
       <c r="E347" s="20">
         <v>275</v>
       </c>
-      <c r="I347" s="6">
-        <v>37057.781600000002</v>
-      </c>
-      <c r="J347" s="3">
-        <v>28</v>
-      </c>
+      <c r="I347" s="6"/>
       <c r="L347" s="6"/>
       <c r="Q347" s="36"/>
       <c r="R347" s="6"/>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4DC9AF-E521-47E2-8556-AA038669EA5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C02CF-332D-4535-913A-5F3D64C71A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="6" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="113">
   <si>
     <t>SimulationName</t>
   </si>
@@ -386,6 +386,15 @@
   <si>
     <t>Pinus.Cone.Live.NConc</t>
   </si>
+  <si>
+    <t>321GYMBL2TWC</t>
+  </si>
+  <si>
+    <t>0.1-1.2</t>
+  </si>
+  <si>
+    <t>1.2-</t>
+  </si>
 </sst>
 </file>
 
@@ -397,7 +406,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -475,6 +484,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -508,9 +528,58 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -523,7 +592,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -605,6 +674,37 @@
     <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="0.0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -984,52 +1084,52 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:BT1438"/>
+  <dimension ref="A1:BT1451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E1048554" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W1406" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="AA1439" sqref="AA1439:AD1445"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" style="3"/>
-    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="3"/>
-    <col min="8" max="8" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="3"/>
-    <col min="10" max="10" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.26953125" style="3"/>
-    <col min="14" max="14" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.26953125" style="3"/>
-    <col min="17" max="17" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.26953125" style="3"/>
-    <col min="19" max="19" width="5.26953125" style="3" customWidth="1"/>
-    <col min="20" max="21" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.26953125" style="3"/>
-    <col min="24" max="24" width="14.81640625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="9.26953125" style="3"/>
-    <col min="26" max="26" width="17.26953125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="16.1796875" style="3" customWidth="1"/>
-    <col min="28" max="28" width="15.7265625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="17.1796875" style="3" customWidth="1"/>
-    <col min="30" max="35" width="23.7265625" style="3" customWidth="1"/>
-    <col min="36" max="41" width="17.7265625" style="3" customWidth="1"/>
-    <col min="42" max="42" width="15.7265625" style="3" customWidth="1"/>
-    <col min="43" max="44" width="25.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="3"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="3"/>
+    <col min="8" max="8" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="3"/>
+    <col min="10" max="10" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.28515625" style="3"/>
+    <col min="14" max="14" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.28515625" style="3"/>
+    <col min="17" max="17" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="3"/>
+    <col min="19" max="19" width="5.28515625" style="3" customWidth="1"/>
+    <col min="20" max="21" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.28515625" style="3"/>
+    <col min="24" max="24" width="14.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" style="3"/>
+    <col min="26" max="26" width="17.28515625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="3" customWidth="1"/>
+    <col min="30" max="35" width="23.7109375" style="3" customWidth="1"/>
+    <col min="36" max="41" width="17.7109375" style="3" customWidth="1"/>
+    <col min="42" max="42" width="15.7109375" style="3" customWidth="1"/>
+    <col min="43" max="44" width="25.5703125" style="3" customWidth="1"/>
     <col min="45" max="45" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="20" style="3" customWidth="1"/>
-    <col min="47" max="47" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.26953125" style="3"/>
+    <col min="47" max="47" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="30">
+    <row r="1" spans="1:72" ht="33.75">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -14087,7 +14187,7 @@
       <c r="AS237" s="1"/>
       <c r="AT237" s="1"/>
     </row>
-    <row r="238" spans="1:46" ht="14.5">
+    <row r="238" spans="1:46" ht="15">
       <c r="A238" s="1" t="s">
         <v>4</v>
       </c>
@@ -14123,7 +14223,7 @@
       <c r="AS238" s="9"/>
       <c r="AT238" s="9"/>
     </row>
-    <row r="239" spans="1:46" ht="14.5">
+    <row r="239" spans="1:46" ht="15">
       <c r="A239" s="1" t="s">
         <v>4</v>
       </c>
@@ -14159,7 +14259,7 @@
       <c r="AS239" s="9"/>
       <c r="AT239" s="9"/>
     </row>
-    <row r="240" spans="1:46" ht="14.5">
+    <row r="240" spans="1:46" ht="15">
       <c r="A240" s="1" t="s">
         <v>4</v>
       </c>
@@ -14195,7 +14295,7 @@
       <c r="AS240" s="9"/>
       <c r="AT240" s="9"/>
     </row>
-    <row r="241" spans="1:46" ht="14.5">
+    <row r="241" spans="1:46" ht="15">
       <c r="A241" s="1" t="s">
         <v>4</v>
       </c>
@@ -14236,7 +14336,7 @@
       <c r="AS241" s="9"/>
       <c r="AT241" s="9"/>
     </row>
-    <row r="242" spans="1:46" ht="14.5">
+    <row r="242" spans="1:46" ht="15">
       <c r="A242" s="1" t="s">
         <v>4</v>
       </c>
@@ -14272,7 +14372,7 @@
       <c r="AS242" s="9"/>
       <c r="AT242" s="9"/>
     </row>
-    <row r="243" spans="1:46" ht="14.5">
+    <row r="243" spans="1:46" ht="15">
       <c r="A243" s="1" t="s">
         <v>4</v>
       </c>
@@ -14308,7 +14408,7 @@
       <c r="AS243" s="9"/>
       <c r="AT243" s="9"/>
     </row>
-    <row r="244" spans="1:46" ht="14.5">
+    <row r="244" spans="1:46" ht="15">
       <c r="A244" s="1" t="s">
         <v>4</v>
       </c>
@@ -14344,7 +14444,7 @@
       <c r="AS244" s="9"/>
       <c r="AT244" s="9"/>
     </row>
-    <row r="245" spans="1:46" ht="14.5">
+    <row r="245" spans="1:46" ht="15">
       <c r="A245" s="1" t="s">
         <v>4</v>
       </c>
@@ -14380,7 +14480,7 @@
       <c r="AS245" s="9"/>
       <c r="AT245" s="9"/>
     </row>
-    <row r="246" spans="1:46" ht="14.5">
+    <row r="246" spans="1:46" ht="15">
       <c r="A246" s="1" t="s">
         <v>4</v>
       </c>
@@ -14422,7 +14522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:46" ht="14.5">
+    <row r="247" spans="1:46" ht="15">
       <c r="A247" s="1" t="s">
         <v>4</v>
       </c>
@@ -14455,7 +14555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:46" ht="14.5">
+    <row r="248" spans="1:46" ht="15">
       <c r="A248" s="1" t="s">
         <v>4</v>
       </c>
@@ -14488,7 +14588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:46" ht="14.5">
+    <row r="249" spans="1:46" ht="15">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -14521,7 +14621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:46" ht="14.5">
+    <row r="250" spans="1:46" ht="15">
       <c r="A250" s="1" t="s">
         <v>4</v>
       </c>
@@ -14563,7 +14663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:46" ht="14.5">
+    <row r="251" spans="1:46" ht="15">
       <c r="A251" s="1" t="s">
         <v>4</v>
       </c>
@@ -14596,7 +14696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:46" ht="14.5">
+    <row r="252" spans="1:46" ht="15">
       <c r="A252" s="1" t="s">
         <v>4</v>
       </c>
@@ -14629,7 +14729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:46" ht="14.5">
+    <row r="253" spans="1:46" ht="15">
       <c r="A253" s="1" t="s">
         <v>4</v>
       </c>
@@ -14662,7 +14762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:46" ht="14.5">
+    <row r="254" spans="1:46" ht="15">
       <c r="A254" s="1" t="s">
         <v>4</v>
       </c>
@@ -14704,7 +14804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:46" ht="14.5">
+    <row r="255" spans="1:46" ht="15">
       <c r="A255" s="1" t="s">
         <v>4</v>
       </c>
@@ -14737,7 +14837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:46" ht="14.5">
+    <row r="256" spans="1:46" ht="15">
       <c r="A256" s="1" t="s">
         <v>4</v>
       </c>
@@ -14770,7 +14870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:44" ht="14.5">
+    <row r="257" spans="1:44" ht="15">
       <c r="A257" s="1" t="s">
         <v>4</v>
       </c>
@@ -14803,7 +14903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:44" ht="14.5">
+    <row r="258" spans="1:44" ht="15">
       <c r="A258" s="1" t="s">
         <v>4</v>
       </c>
@@ -14842,7 +14942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:44" ht="14.5">
+    <row r="259" spans="1:44" ht="15">
       <c r="A259" s="1" t="s">
         <v>5</v>
       </c>
@@ -14875,7 +14975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:44" ht="14.5">
+    <row r="260" spans="1:44" ht="15">
       <c r="A260" s="1" t="s">
         <v>5</v>
       </c>
@@ -14908,7 +15008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:44" ht="14.5">
+    <row r="261" spans="1:44" ht="15">
       <c r="A261" s="1" t="s">
         <v>5</v>
       </c>
@@ -14941,7 +15041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:44" ht="14.5">
+    <row r="262" spans="1:44" ht="15">
       <c r="A262" s="1" t="s">
         <v>5</v>
       </c>
@@ -14979,7 +15079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:44" ht="14.5">
+    <row r="263" spans="1:44" ht="15">
       <c r="A263" s="1" t="s">
         <v>5</v>
       </c>
@@ -15012,7 +15112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:44" ht="14.5">
+    <row r="264" spans="1:44" ht="15">
       <c r="A264" s="1" t="s">
         <v>5</v>
       </c>
@@ -15045,7 +15145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:44" ht="14.5">
+    <row r="265" spans="1:44" ht="15">
       <c r="A265" s="1" t="s">
         <v>5</v>
       </c>
@@ -15078,7 +15178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:44" ht="14.5">
+    <row r="266" spans="1:44" ht="15">
       <c r="A266" s="1" t="s">
         <v>5</v>
       </c>
@@ -15111,7 +15211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:44" ht="14.5">
+    <row r="267" spans="1:44" ht="15">
       <c r="A267" s="1" t="s">
         <v>5</v>
       </c>
@@ -15153,7 +15253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:44" ht="14.5">
+    <row r="268" spans="1:44" ht="15">
       <c r="A268" s="1" t="s">
         <v>5</v>
       </c>
@@ -15186,7 +15286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:44" ht="14.5">
+    <row r="269" spans="1:44" ht="15">
       <c r="A269" s="1" t="s">
         <v>5</v>
       </c>
@@ -15219,7 +15319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:44" ht="14.5">
+    <row r="270" spans="1:44" ht="15">
       <c r="A270" s="1" t="s">
         <v>5</v>
       </c>
@@ -15252,7 +15352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:44" ht="14.5">
+    <row r="271" spans="1:44" ht="15">
       <c r="A271" s="1" t="s">
         <v>5</v>
       </c>
@@ -15294,7 +15394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:44" ht="14.5">
+    <row r="272" spans="1:44" ht="15">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
@@ -15327,7 +15427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:44" ht="14.5">
+    <row r="273" spans="1:44" ht="15">
       <c r="A273" s="1" t="s">
         <v>5</v>
       </c>
@@ -15360,7 +15460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:44" ht="14.5">
+    <row r="274" spans="1:44" ht="15">
       <c r="A274" s="1" t="s">
         <v>5</v>
       </c>
@@ -15393,7 +15493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:44" ht="14.5">
+    <row r="275" spans="1:44" ht="15">
       <c r="A275" s="1" t="s">
         <v>5</v>
       </c>
@@ -15435,7 +15535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:44" ht="14.5">
+    <row r="276" spans="1:44" ht="15">
       <c r="A276" s="1" t="s">
         <v>5</v>
       </c>
@@ -15468,7 +15568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:44" ht="14.5">
+    <row r="277" spans="1:44" ht="15">
       <c r="A277" s="1" t="s">
         <v>5</v>
       </c>
@@ -15501,7 +15601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:44" ht="14.5">
+    <row r="278" spans="1:44" ht="15">
       <c r="A278" s="1" t="s">
         <v>5</v>
       </c>
@@ -15534,7 +15634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:44" ht="14.5">
+    <row r="279" spans="1:44" ht="15">
       <c r="A279" s="1" t="s">
         <v>5</v>
       </c>
@@ -15573,7 +15673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:44" ht="14.5">
+    <row r="280" spans="1:44" ht="15">
       <c r="A280" s="1" t="s">
         <v>6</v>
       </c>
@@ -15606,7 +15706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:44" ht="14.5">
+    <row r="281" spans="1:44" ht="15">
       <c r="A281" s="1" t="s">
         <v>6</v>
       </c>
@@ -15639,7 +15739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:44" ht="14.5">
+    <row r="282" spans="1:44" ht="15">
       <c r="A282" s="1" t="s">
         <v>6</v>
       </c>
@@ -15672,7 +15772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:44" ht="14.5">
+    <row r="283" spans="1:44" ht="15">
       <c r="A283" s="1" t="s">
         <v>6</v>
       </c>
@@ -15710,7 +15810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:44" ht="14.5">
+    <row r="284" spans="1:44" ht="15">
       <c r="A284" s="1" t="s">
         <v>6</v>
       </c>
@@ -15743,7 +15843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:44" ht="14.5">
+    <row r="285" spans="1:44" ht="15">
       <c r="A285" s="1" t="s">
         <v>6</v>
       </c>
@@ -15776,7 +15876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:44" ht="14.5">
+    <row r="286" spans="1:44" ht="15">
       <c r="A286" s="1" t="s">
         <v>6</v>
       </c>
@@ -15809,7 +15909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:44" ht="14.5">
+    <row r="287" spans="1:44" ht="15">
       <c r="A287" s="1" t="s">
         <v>6</v>
       </c>
@@ -15842,7 +15942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:44" ht="14.5">
+    <row r="288" spans="1:44" ht="15">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -15884,7 +15984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:44" ht="14.5">
+    <row r="289" spans="1:44" ht="15">
       <c r="A289" s="1" t="s">
         <v>6</v>
       </c>
@@ -15917,7 +16017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:44" ht="14.5">
+    <row r="290" spans="1:44" ht="15">
       <c r="A290" s="1" t="s">
         <v>6</v>
       </c>
@@ -15950,7 +16050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:44" ht="14.5">
+    <row r="291" spans="1:44" ht="15">
       <c r="A291" s="1" t="s">
         <v>6</v>
       </c>
@@ -15983,7 +16083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:44" ht="14.5">
+    <row r="292" spans="1:44" ht="15">
       <c r="A292" s="1" t="s">
         <v>6</v>
       </c>
@@ -16025,7 +16125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:44" ht="14.5">
+    <row r="293" spans="1:44" ht="15">
       <c r="A293" s="1" t="s">
         <v>6</v>
       </c>
@@ -16058,7 +16158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:44" ht="14.5">
+    <row r="294" spans="1:44" ht="15">
       <c r="A294" s="1" t="s">
         <v>6</v>
       </c>
@@ -16091,7 +16191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:44" ht="14.5">
+    <row r="295" spans="1:44" ht="15">
       <c r="A295" s="1" t="s">
         <v>6</v>
       </c>
@@ -16124,7 +16224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:44" ht="14.5">
+    <row r="296" spans="1:44" ht="15">
       <c r="A296" s="1" t="s">
         <v>6</v>
       </c>
@@ -16166,7 +16266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:44" ht="14.5">
+    <row r="297" spans="1:44" ht="15">
       <c r="A297" s="1" t="s">
         <v>6</v>
       </c>
@@ -16199,7 +16299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:44" ht="14.5">
+    <row r="298" spans="1:44" ht="15">
       <c r="A298" s="1" t="s">
         <v>6</v>
       </c>
@@ -16232,7 +16332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:44" ht="14.5">
+    <row r="299" spans="1:44" ht="15">
       <c r="A299" s="1" t="s">
         <v>6</v>
       </c>
@@ -16265,7 +16365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:44" ht="14.5">
+    <row r="300" spans="1:44" ht="15">
       <c r="A300" s="1" t="s">
         <v>6</v>
       </c>
@@ -16304,7 +16404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:44" ht="14.5">
+    <row r="301" spans="1:44" ht="15">
       <c r="A301" s="1" t="s">
         <v>9</v>
       </c>
@@ -16337,7 +16437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:44" ht="14.5">
+    <row r="302" spans="1:44" ht="15">
       <c r="A302" s="1" t="s">
         <v>9</v>
       </c>
@@ -16370,7 +16470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:44" ht="14.5">
+    <row r="303" spans="1:44" ht="15">
       <c r="A303" s="1" t="s">
         <v>9</v>
       </c>
@@ -16403,7 +16503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:44" ht="14.5">
+    <row r="304" spans="1:44" ht="15">
       <c r="A304" s="1" t="s">
         <v>9</v>
       </c>
@@ -16436,7 +16536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:44" ht="14.5">
+    <row r="305" spans="1:44" ht="15">
       <c r="A305" s="1" t="s">
         <v>9</v>
       </c>
@@ -16469,7 +16569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:44" ht="14.5">
+    <row r="306" spans="1:44" ht="15">
       <c r="A306" s="1" t="s">
         <v>9</v>
       </c>
@@ -16502,7 +16602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:44" ht="14.5">
+    <row r="307" spans="1:44" ht="15">
       <c r="A307" s="1" t="s">
         <v>9</v>
       </c>
@@ -16535,7 +16635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:44" ht="14.5">
+    <row r="308" spans="1:44" ht="15">
       <c r="A308" s="1" t="s">
         <v>9</v>
       </c>
@@ -16573,7 +16673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:44" ht="14.5">
+    <row r="309" spans="1:44" ht="15">
       <c r="A309" s="1" t="s">
         <v>9</v>
       </c>
@@ -16615,7 +16715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:44" ht="14.5">
+    <row r="310" spans="1:44" ht="15">
       <c r="A310" s="1" t="s">
         <v>9</v>
       </c>
@@ -16648,7 +16748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:44" ht="14.5">
+    <row r="311" spans="1:44" ht="15">
       <c r="A311" s="1" t="s">
         <v>9</v>
       </c>
@@ -16681,7 +16781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:44" ht="14.5">
+    <row r="312" spans="1:44" ht="15">
       <c r="A312" s="1" t="s">
         <v>9</v>
       </c>
@@ -16714,7 +16814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:44" ht="14.5">
+    <row r="313" spans="1:44" ht="15">
       <c r="A313" s="1" t="s">
         <v>9</v>
       </c>
@@ -16756,7 +16856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:44" ht="14.5">
+    <row r="314" spans="1:44" ht="15">
       <c r="A314" s="1" t="s">
         <v>9</v>
       </c>
@@ -16789,7 +16889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:44" ht="14.5">
+    <row r="315" spans="1:44" ht="15">
       <c r="A315" s="1" t="s">
         <v>9</v>
       </c>
@@ -16822,7 +16922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:44" ht="14.5">
+    <row r="316" spans="1:44" ht="15">
       <c r="A316" s="1" t="s">
         <v>9</v>
       </c>
@@ -16855,7 +16955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:44" ht="14.5">
+    <row r="317" spans="1:44" ht="15">
       <c r="A317" s="1" t="s">
         <v>9</v>
       </c>
@@ -16897,7 +16997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:44" ht="14.5">
+    <row r="318" spans="1:44" ht="15">
       <c r="A318" s="1" t="s">
         <v>9</v>
       </c>
@@ -16930,7 +17030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:44" ht="14.5">
+    <row r="319" spans="1:44" ht="15">
       <c r="A319" s="1" t="s">
         <v>9</v>
       </c>
@@ -16963,7 +17063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:44" ht="14.5">
+    <row r="320" spans="1:44" ht="15">
       <c r="A320" s="1" t="s">
         <v>9</v>
       </c>
@@ -16996,7 +17096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:44" ht="14.5">
+    <row r="321" spans="1:44" ht="15">
       <c r="A321" s="1" t="s">
         <v>9</v>
       </c>
@@ -17035,7 +17135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:44" ht="14.5">
+    <row r="322" spans="1:44" ht="15">
       <c r="A322" s="1" t="s">
         <v>10</v>
       </c>
@@ -17068,7 +17168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:44" ht="14.5">
+    <row r="323" spans="1:44" ht="15">
       <c r="A323" s="1" t="s">
         <v>10</v>
       </c>
@@ -17101,7 +17201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:44" ht="14.5">
+    <row r="324" spans="1:44" ht="15">
       <c r="A324" s="1" t="s">
         <v>10</v>
       </c>
@@ -17134,7 +17234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:44" ht="14.5">
+    <row r="325" spans="1:44" ht="15">
       <c r="A325" s="1" t="s">
         <v>10</v>
       </c>
@@ -17167,7 +17267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:44" ht="14.5">
+    <row r="326" spans="1:44" ht="15">
       <c r="A326" s="1" t="s">
         <v>10</v>
       </c>
@@ -17200,7 +17300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:44" ht="14.5">
+    <row r="327" spans="1:44" ht="15">
       <c r="A327" s="1" t="s">
         <v>10</v>
       </c>
@@ -17233,7 +17333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:44" ht="14.5">
+    <row r="328" spans="1:44" ht="15">
       <c r="A328" s="1" t="s">
         <v>10</v>
       </c>
@@ -17266,7 +17366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:44" ht="14.5">
+    <row r="329" spans="1:44" ht="15">
       <c r="A329" s="1" t="s">
         <v>10</v>
       </c>
@@ -17300,7 +17400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:44" ht="14.5">
+    <row r="330" spans="1:44" ht="15">
       <c r="A330" s="1" t="s">
         <v>10</v>
       </c>
@@ -17343,7 +17443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:44" ht="14.5">
+    <row r="331" spans="1:44" ht="15">
       <c r="A331" s="1" t="s">
         <v>10</v>
       </c>
@@ -17377,7 +17477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:44" ht="14.5">
+    <row r="332" spans="1:44" ht="15">
       <c r="A332" s="1" t="s">
         <v>10</v>
       </c>
@@ -17411,7 +17511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:44" ht="14.5">
+    <row r="333" spans="1:44" ht="15">
       <c r="A333" s="1" t="s">
         <v>10</v>
       </c>
@@ -17445,7 +17545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:44" ht="14.5">
+    <row r="334" spans="1:44" ht="15">
       <c r="A334" s="1" t="s">
         <v>10</v>
       </c>
@@ -17488,7 +17588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:44" ht="14.5">
+    <row r="335" spans="1:44" ht="15">
       <c r="A335" s="1" t="s">
         <v>10</v>
       </c>
@@ -17522,7 +17622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:44" ht="14.5">
+    <row r="336" spans="1:44" ht="15">
       <c r="A336" s="1" t="s">
         <v>10</v>
       </c>
@@ -17556,7 +17656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:44" ht="14.5">
+    <row r="337" spans="1:44" ht="15">
       <c r="A337" s="1" t="s">
         <v>10</v>
       </c>
@@ -17590,7 +17690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:44" ht="14.5">
+    <row r="338" spans="1:44" ht="15">
       <c r="A338" s="1" t="s">
         <v>10</v>
       </c>
@@ -17633,7 +17733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:44" ht="14.5">
+    <row r="339" spans="1:44" ht="15">
       <c r="A339" s="1" t="s">
         <v>10</v>
       </c>
@@ -17667,7 +17767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:44" ht="14.5">
+    <row r="340" spans="1:44" ht="15">
       <c r="A340" s="1" t="s">
         <v>10</v>
       </c>
@@ -17701,7 +17801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:44" ht="14.5">
+    <row r="341" spans="1:44" ht="15">
       <c r="A341" s="1" t="s">
         <v>10</v>
       </c>
@@ -17740,7 +17840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:44" ht="14.5">
+    <row r="342" spans="1:44" ht="15">
       <c r="A342" s="1" t="s">
         <v>10</v>
       </c>
@@ -17780,7 +17880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:44" ht="14.5">
+    <row r="343" spans="1:44" ht="15">
       <c r="A343" s="1" t="s">
         <v>4</v>
       </c>
@@ -17834,7 +17934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:44" ht="14.5">
+    <row r="344" spans="1:44" ht="15">
       <c r="A344" s="1" t="s">
         <v>4</v>
       </c>
@@ -17888,7 +17988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:44" ht="14.5">
+    <row r="345" spans="1:44" ht="15">
       <c r="A345" s="1" t="s">
         <v>4</v>
       </c>
@@ -17942,7 +18042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:44" ht="14.5">
+    <row r="346" spans="1:44" ht="15">
       <c r="A346" s="1" t="s">
         <v>4</v>
       </c>
@@ -17996,7 +18096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:44" ht="14.5">
+    <row r="347" spans="1:44" ht="15">
       <c r="A347" s="1" t="s">
         <v>4</v>
       </c>
@@ -18050,7 +18150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:44" ht="14.5">
+    <row r="348" spans="1:44" ht="15">
       <c r="A348" s="1" t="s">
         <v>5</v>
       </c>
@@ -18104,7 +18204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:44" ht="14.5">
+    <row r="349" spans="1:44" ht="15">
       <c r="A349" s="1" t="s">
         <v>5</v>
       </c>
@@ -18158,7 +18258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:44" ht="14.5">
+    <row r="350" spans="1:44" ht="15">
       <c r="A350" s="1" t="s">
         <v>5</v>
       </c>
@@ -18212,7 +18312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:44" ht="14.5">
+    <row r="351" spans="1:44" ht="15">
       <c r="A351" s="1" t="s">
         <v>5</v>
       </c>
@@ -18266,7 +18366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:44" ht="14.5">
+    <row r="352" spans="1:44" ht="15">
       <c r="A352" s="1" t="s">
         <v>5</v>
       </c>
@@ -18320,7 +18420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:44" ht="14.5">
+    <row r="353" spans="1:44" ht="15">
       <c r="A353" s="1" t="s">
         <v>6</v>
       </c>
@@ -18374,7 +18474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:44" ht="14.5">
+    <row r="354" spans="1:44" ht="15">
       <c r="A354" s="1" t="s">
         <v>6</v>
       </c>
@@ -18428,7 +18528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:44" ht="14.5">
+    <row r="355" spans="1:44" ht="15">
       <c r="A355" s="1" t="s">
         <v>6</v>
       </c>
@@ -18482,7 +18582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:44" ht="14.5">
+    <row r="356" spans="1:44" ht="15">
       <c r="A356" s="1" t="s">
         <v>6</v>
       </c>
@@ -18536,7 +18636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:44" ht="14.5">
+    <row r="357" spans="1:44" ht="15">
       <c r="A357" s="1" t="s">
         <v>6</v>
       </c>
@@ -18590,7 +18690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:44" ht="14.5">
+    <row r="358" spans="1:44" ht="15">
       <c r="A358" s="1" t="s">
         <v>9</v>
       </c>
@@ -18644,7 +18744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:44" ht="14.5">
+    <row r="359" spans="1:44" ht="15">
       <c r="A359" s="1" t="s">
         <v>9</v>
       </c>
@@ -18698,7 +18798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:44" ht="14.5">
+    <row r="360" spans="1:44" ht="15">
       <c r="A360" s="1" t="s">
         <v>9</v>
       </c>
@@ -18752,7 +18852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:44" ht="14.5">
+    <row r="361" spans="1:44" ht="15">
       <c r="A361" s="1" t="s">
         <v>9</v>
       </c>
@@ -18806,7 +18906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:44" ht="14.5">
+    <row r="362" spans="1:44" ht="15">
       <c r="A362" s="1" t="s">
         <v>9</v>
       </c>
@@ -18860,7 +18960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:44" ht="14.5">
+    <row r="363" spans="1:44" ht="15">
       <c r="A363" s="1" t="s">
         <v>11</v>
       </c>
@@ -18914,7 +19014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:44" ht="14.5">
+    <row r="364" spans="1:44" ht="15">
       <c r="A364" s="1" t="s">
         <v>11</v>
       </c>
@@ -18968,7 +19068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:44" ht="14.5">
+    <row r="365" spans="1:44" ht="15">
       <c r="A365" s="1" t="s">
         <v>11</v>
       </c>
@@ -19018,7 +19118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:44" ht="14.5">
+    <row r="366" spans="1:44" ht="15">
       <c r="A366" s="1" t="s">
         <v>11</v>
       </c>
@@ -19068,7 +19168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:44" ht="14.5">
+    <row r="367" spans="1:44" ht="15">
       <c r="A367" s="1" t="s">
         <v>11</v>
       </c>
@@ -19118,7 +19218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:44" ht="14.5">
+    <row r="368" spans="1:44" ht="15">
       <c r="A368" s="1" t="s">
         <v>10</v>
       </c>
@@ -19168,7 +19268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:44" ht="14.5">
+    <row r="369" spans="1:44" ht="15">
       <c r="A369" s="1" t="s">
         <v>10</v>
       </c>
@@ -19218,7 +19318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:44" ht="14.5">
+    <row r="370" spans="1:44" ht="15">
       <c r="A370" s="1" t="s">
         <v>10</v>
       </c>
@@ -19268,7 +19368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:44" ht="14.5">
+    <row r="371" spans="1:44" ht="15">
       <c r="A371" s="1" t="s">
         <v>10</v>
       </c>
@@ -19318,7 +19418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:44" ht="14.5">
+    <row r="372" spans="1:44" ht="15">
       <c r="A372" s="1" t="s">
         <v>10</v>
       </c>
@@ -19368,7 +19468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:44" ht="14.5">
+    <row r="373" spans="1:44" ht="15">
       <c r="A373" s="1" t="s">
         <v>12</v>
       </c>
@@ -19418,7 +19518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:44" ht="14.5">
+    <row r="374" spans="1:44" ht="15">
       <c r="A374" s="1" t="s">
         <v>12</v>
       </c>
@@ -19468,7 +19568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:44" ht="14.5">
+    <row r="375" spans="1:44" ht="15">
       <c r="A375" s="1" t="s">
         <v>12</v>
       </c>
@@ -19518,7 +19618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:44" ht="14.5">
+    <row r="376" spans="1:44" ht="15">
       <c r="A376" s="1" t="s">
         <v>12</v>
       </c>
@@ -19568,7 +19668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:44" ht="14.5">
+    <row r="377" spans="1:44" ht="15">
       <c r="A377" s="1" t="s">
         <v>12</v>
       </c>
@@ -19618,7 +19718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:44" ht="14.5">
+    <row r="378" spans="1:44" ht="15">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -19677,7 +19777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="1:44" ht="14.5">
+    <row r="379" spans="1:44" ht="15">
       <c r="A379" t="s">
         <v>4</v>
       </c>
@@ -19736,7 +19836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="380" spans="1:44" ht="14.5">
+    <row r="380" spans="1:44" ht="15">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -19795,7 +19895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:44" ht="14.5">
+    <row r="381" spans="1:44" ht="15">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -19854,7 +19954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:44" ht="14.5">
+    <row r="382" spans="1:44" ht="15">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -19913,7 +20013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:44" ht="14.5">
+    <row r="383" spans="1:44" ht="15">
       <c r="A383" t="s">
         <v>4</v>
       </c>
@@ -19965,7 +20065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:44" ht="14.5">
+    <row r="384" spans="1:44" ht="15">
       <c r="A384" t="s">
         <v>4</v>
       </c>
@@ -20019,7 +20119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="385" spans="1:44" ht="14.5">
+    <row r="385" spans="1:44" ht="15">
       <c r="A385" t="s">
         <v>4</v>
       </c>
@@ -20080,7 +20180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="386" spans="1:44" ht="14.5">
+    <row r="386" spans="1:44" ht="15">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -20124,7 +20224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:44" ht="14.5">
+    <row r="387" spans="1:44" ht="15">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -20168,7 +20268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:44" ht="14.5">
+    <row r="388" spans="1:44" ht="15">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -20212,7 +20312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="389" spans="1:44" ht="14.5">
+    <row r="389" spans="1:44" ht="15">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -20256,7 +20356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="1:44" ht="14.5">
+    <row r="390" spans="1:44" ht="15">
       <c r="A390" t="s">
         <v>4</v>
       </c>
@@ -20300,7 +20400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="391" spans="1:44" ht="14.5">
+    <row r="391" spans="1:44" ht="15">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -20344,7 +20444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="392" spans="1:44" ht="14.5">
+    <row r="392" spans="1:44" ht="15">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -20388,7 +20488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:44" ht="14.5">
+    <row r="393" spans="1:44" ht="15">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -20447,7 +20547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="394" spans="1:44" ht="14.5">
+    <row r="394" spans="1:44" ht="15">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -20506,7 +20606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="395" spans="1:44" ht="14.5">
+    <row r="395" spans="1:44" ht="15">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -20565,7 +20665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="396" spans="1:44" ht="14.5">
+    <row r="396" spans="1:44" ht="15">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -20624,7 +20724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="397" spans="1:44" ht="14.5">
+    <row r="397" spans="1:44" ht="15">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -20683,7 +20783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="398" spans="1:44" ht="14.5">
+    <row r="398" spans="1:44" ht="15">
       <c r="A398" t="s">
         <v>5</v>
       </c>
@@ -20735,7 +20835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="399" spans="1:44" ht="14.5">
+    <row r="399" spans="1:44" ht="15">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -20787,7 +20887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="400" spans="1:44" ht="14.5">
+    <row r="400" spans="1:44" ht="15">
       <c r="A400" t="s">
         <v>5</v>
       </c>
@@ -20841,7 +20941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="401" spans="1:44" ht="14.5">
+    <row r="401" spans="1:44" ht="15">
       <c r="A401" t="s">
         <v>5</v>
       </c>
@@ -20885,7 +20985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:44" ht="14.5">
+    <row r="402" spans="1:44" ht="15">
       <c r="A402" t="s">
         <v>5</v>
       </c>
@@ -20929,7 +21029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="403" spans="1:44" ht="14.5">
+    <row r="403" spans="1:44" ht="15">
       <c r="A403" t="s">
         <v>5</v>
       </c>
@@ -20973,7 +21073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:44" ht="14.5">
+    <row r="404" spans="1:44" ht="15">
       <c r="A404" t="s">
         <v>5</v>
       </c>
@@ -21017,7 +21117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:44" ht="14.5">
+    <row r="405" spans="1:44" ht="15">
       <c r="A405" t="s">
         <v>5</v>
       </c>
@@ -21061,7 +21161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="406" spans="1:44" ht="14.5">
+    <row r="406" spans="1:44" ht="15">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -21105,7 +21205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="407" spans="1:44" ht="14.5">
+    <row r="407" spans="1:44" ht="15">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -21149,7 +21249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:44" ht="14.5">
+    <row r="408" spans="1:44" ht="15">
       <c r="A408" t="s">
         <v>6</v>
       </c>
@@ -21208,7 +21308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:44" ht="14.5">
+    <row r="409" spans="1:44" ht="15">
       <c r="A409" t="s">
         <v>6</v>
       </c>
@@ -21267,7 +21367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:44" ht="14.5">
+    <row r="410" spans="1:44" ht="15">
       <c r="A410" t="s">
         <v>6</v>
       </c>
@@ -21326,7 +21426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="411" spans="1:44" ht="14.5">
+    <row r="411" spans="1:44" ht="15">
       <c r="A411" t="s">
         <v>6</v>
       </c>
@@ -21385,7 +21485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="412" spans="1:44" ht="14.5">
+    <row r="412" spans="1:44" ht="15">
       <c r="A412" t="s">
         <v>6</v>
       </c>
@@ -21444,7 +21544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="413" spans="1:44" ht="14.5">
+    <row r="413" spans="1:44" ht="15">
       <c r="A413" t="s">
         <v>6</v>
       </c>
@@ -21497,7 +21597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:44" ht="14.5">
+    <row r="414" spans="1:44" ht="15">
       <c r="A414" t="s">
         <v>6</v>
       </c>
@@ -21552,7 +21652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="415" spans="1:44" ht="14.5">
+    <row r="415" spans="1:44" ht="15">
       <c r="A415" t="s">
         <v>6</v>
       </c>
@@ -21613,7 +21713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="416" spans="1:44" ht="14.5">
+    <row r="416" spans="1:44" ht="15">
       <c r="A416" t="s">
         <v>6</v>
       </c>
@@ -21657,7 +21757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="417" spans="1:44" ht="14.5">
+    <row r="417" spans="1:44" ht="15">
       <c r="A417" t="s">
         <v>6</v>
       </c>
@@ -21701,7 +21801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="418" spans="1:44" ht="14.5">
+    <row r="418" spans="1:44" ht="15">
       <c r="A418" t="s">
         <v>6</v>
       </c>
@@ -21745,7 +21845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="419" spans="1:44" ht="14.5">
+    <row r="419" spans="1:44" ht="15">
       <c r="A419" t="s">
         <v>6</v>
       </c>
@@ -21789,7 +21889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="420" spans="1:44" ht="14.5">
+    <row r="420" spans="1:44" ht="15">
       <c r="A420" t="s">
         <v>6</v>
       </c>
@@ -21833,7 +21933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="421" spans="1:44" ht="14.5">
+    <row r="421" spans="1:44" ht="15">
       <c r="A421" t="s">
         <v>6</v>
       </c>
@@ -21877,7 +21977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="422" spans="1:44" ht="14.5">
+    <row r="422" spans="1:44" ht="15">
       <c r="A422" t="s">
         <v>6</v>
       </c>
@@ -21921,7 +22021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="423" spans="1:44" ht="14.5">
+    <row r="423" spans="1:44" ht="15">
       <c r="A423" t="s">
         <v>11</v>
       </c>
@@ -21978,7 +22078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="424" spans="1:44" ht="14.5">
+    <row r="424" spans="1:44" ht="15">
       <c r="A424" t="s">
         <v>11</v>
       </c>
@@ -22035,7 +22135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="425" spans="1:44" ht="14.5">
+    <row r="425" spans="1:44" ht="15">
       <c r="A425" t="s">
         <v>11</v>
       </c>
@@ -22092,7 +22192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="426" spans="1:44" ht="14.5">
+    <row r="426" spans="1:44" ht="15">
       <c r="A426" t="s">
         <v>11</v>
       </c>
@@ -22149,7 +22249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="427" spans="1:44" ht="14.5">
+    <row r="427" spans="1:44" ht="15">
       <c r="A427" t="s">
         <v>11</v>
       </c>
@@ -22206,7 +22306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="428" spans="1:44" ht="14.5">
+    <row r="428" spans="1:44" ht="15">
       <c r="A428" t="s">
         <v>11</v>
       </c>
@@ -22257,7 +22357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="429" spans="1:44" ht="14.5">
+    <row r="429" spans="1:44" ht="15">
       <c r="A429" t="s">
         <v>11</v>
       </c>
@@ -22307,7 +22407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="430" spans="1:44" ht="14.5">
+    <row r="430" spans="1:44" ht="15">
       <c r="A430" t="s">
         <v>11</v>
       </c>
@@ -22359,7 +22459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="431" spans="1:44" ht="14.5">
+    <row r="431" spans="1:44" ht="15">
       <c r="A431" t="s">
         <v>11</v>
       </c>
@@ -22402,7 +22502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="432" spans="1:44" ht="14.5">
+    <row r="432" spans="1:44" ht="15">
       <c r="A432" t="s">
         <v>11</v>
       </c>
@@ -22444,7 +22544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="433" spans="1:44" ht="14.5">
+    <row r="433" spans="1:44" ht="15">
       <c r="A433" t="s">
         <v>11</v>
       </c>
@@ -22486,7 +22586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="434" spans="1:44" ht="14.5">
+    <row r="434" spans="1:44" ht="15">
       <c r="A434" t="s">
         <v>11</v>
       </c>
@@ -22528,7 +22628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="435" spans="1:44" ht="14.5">
+    <row r="435" spans="1:44" ht="15">
       <c r="A435" t="s">
         <v>11</v>
       </c>
@@ -22570,7 +22670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="436" spans="1:44" ht="14.5">
+    <row r="436" spans="1:44" ht="15">
       <c r="A436" t="s">
         <v>11</v>
       </c>
@@ -22612,7 +22712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:44" ht="14.5">
+    <row r="437" spans="1:44" ht="15">
       <c r="A437" t="s">
         <v>11</v>
       </c>
@@ -22654,7 +22754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="438" spans="1:44" ht="14.5">
+    <row r="438" spans="1:44" ht="15">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -22711,7 +22811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="439" spans="1:44" ht="14.5">
+    <row r="439" spans="1:44" ht="15">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -22768,7 +22868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:44" ht="14.5">
+    <row r="440" spans="1:44" ht="15">
       <c r="A440" t="s">
         <v>9</v>
       </c>
@@ -22825,7 +22925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="441" spans="1:44" ht="14.5">
+    <row r="441" spans="1:44" ht="15">
       <c r="A441" t="s">
         <v>9</v>
       </c>
@@ -22882,7 +22982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="442" spans="1:44" ht="14.5">
+    <row r="442" spans="1:44" ht="15">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -22939,7 +23039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="443" spans="1:44" ht="14.5">
+    <row r="443" spans="1:44" ht="15">
       <c r="A443" t="s">
         <v>9</v>
       </c>
@@ -22989,7 +23089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="444" spans="1:44" ht="14.5">
+    <row r="444" spans="1:44" ht="15">
       <c r="A444" t="s">
         <v>9</v>
       </c>
@@ -23039,7 +23139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="445" spans="1:44" ht="14.5">
+    <row r="445" spans="1:44" ht="15">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -23089,7 +23189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="446" spans="1:44" ht="14.5">
+    <row r="446" spans="1:44" ht="15">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -23131,7 +23231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="447" spans="1:44" ht="14.5">
+    <row r="447" spans="1:44" ht="15">
       <c r="A447" t="s">
         <v>9</v>
       </c>
@@ -23173,7 +23273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="448" spans="1:44" ht="14.5">
+    <row r="448" spans="1:44" ht="15">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -23215,7 +23315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="449" spans="1:44" ht="14.5">
+    <row r="449" spans="1:44" ht="15">
       <c r="A449" t="s">
         <v>9</v>
       </c>
@@ -23257,7 +23357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="450" spans="1:44" ht="14.5">
+    <row r="450" spans="1:44" ht="15">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -23299,7 +23399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="451" spans="1:44" ht="14.5">
+    <row r="451" spans="1:44" ht="15">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -23341,7 +23441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="452" spans="1:44" ht="14.5">
+    <row r="452" spans="1:44" ht="15">
       <c r="A452" t="s">
         <v>9</v>
       </c>
@@ -23383,7 +23483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:44" ht="14.5">
+    <row r="453" spans="1:44" ht="15">
       <c r="A453" t="s">
         <v>12</v>
       </c>
@@ -23442,7 +23542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="454" spans="1:44" ht="14.5">
+    <row r="454" spans="1:44" ht="15">
       <c r="A454" t="s">
         <v>12</v>
       </c>
@@ -23501,7 +23601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="455" spans="1:44" ht="14.5">
+    <row r="455" spans="1:44" ht="15">
       <c r="A455" t="s">
         <v>12</v>
       </c>
@@ -23560,7 +23660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="456" spans="1:44" ht="14.5">
+    <row r="456" spans="1:44" ht="15">
       <c r="A456" t="s">
         <v>12</v>
       </c>
@@ -23619,7 +23719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="457" spans="1:44" ht="14.5">
+    <row r="457" spans="1:44" ht="15">
       <c r="A457" t="s">
         <v>12</v>
       </c>
@@ -23678,7 +23778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="458" spans="1:44" ht="14.5">
+    <row r="458" spans="1:44" ht="15">
       <c r="A458" t="s">
         <v>12</v>
       </c>
@@ -23731,7 +23831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="459" spans="1:44" ht="14.5">
+    <row r="459" spans="1:44" ht="15">
       <c r="A459" t="s">
         <v>12</v>
       </c>
@@ -23786,7 +23886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="460" spans="1:44" ht="14.5">
+    <row r="460" spans="1:44" ht="15">
       <c r="A460" t="s">
         <v>12</v>
       </c>
@@ -23847,7 +23947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="461" spans="1:44" ht="14.5">
+    <row r="461" spans="1:44" ht="15">
       <c r="A461" t="s">
         <v>12</v>
       </c>
@@ -23893,7 +23993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="462" spans="1:44" ht="14.5">
+    <row r="462" spans="1:44" ht="15">
       <c r="A462" t="s">
         <v>12</v>
       </c>
@@ -23937,7 +24037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="463" spans="1:44" ht="14.5">
+    <row r="463" spans="1:44" ht="15">
       <c r="A463" t="s">
         <v>12</v>
       </c>
@@ -23981,7 +24081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="464" spans="1:44" ht="14.5">
+    <row r="464" spans="1:44" ht="15">
       <c r="A464" t="s">
         <v>12</v>
       </c>
@@ -24025,7 +24125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="465" spans="1:44" ht="14.5">
+    <row r="465" spans="1:44" ht="15">
       <c r="A465" t="s">
         <v>12</v>
       </c>
@@ -24069,7 +24169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="466" spans="1:44" ht="14.5">
+    <row r="466" spans="1:44" ht="15">
       <c r="A466" t="s">
         <v>12</v>
       </c>
@@ -24113,7 +24213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="467" spans="1:44" ht="14.5">
+    <row r="467" spans="1:44" ht="15">
       <c r="A467" t="s">
         <v>12</v>
       </c>
@@ -24157,7 +24257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="468" spans="1:44" ht="14.5">
+    <row r="468" spans="1:44" ht="15">
       <c r="A468" t="s">
         <v>10</v>
       </c>
@@ -24214,7 +24314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="469" spans="1:44" ht="14.5">
+    <row r="469" spans="1:44" ht="15">
       <c r="A469" t="s">
         <v>10</v>
       </c>
@@ -24271,7 +24371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="470" spans="1:44" ht="14.5">
+    <row r="470" spans="1:44" ht="15">
       <c r="A470" t="s">
         <v>10</v>
       </c>
@@ -24328,7 +24428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="471" spans="1:44" ht="14.5">
+    <row r="471" spans="1:44" ht="15">
       <c r="A471" t="s">
         <v>10</v>
       </c>
@@ -24385,7 +24485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="472" spans="1:44" ht="14.5">
+    <row r="472" spans="1:44" ht="15">
       <c r="A472" t="s">
         <v>10</v>
       </c>
@@ -24442,7 +24542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="473" spans="1:44" ht="14.5">
+    <row r="473" spans="1:44" ht="15">
       <c r="A473" t="s">
         <v>10</v>
       </c>
@@ -24492,7 +24592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="474" spans="1:44" ht="14.5">
+    <row r="474" spans="1:44" ht="15">
       <c r="A474" t="s">
         <v>10</v>
       </c>
@@ -24542,7 +24642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:44" ht="14.5">
+    <row r="475" spans="1:44" ht="15">
       <c r="A475" t="s">
         <v>10</v>
       </c>
@@ -24591,7 +24691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="476" spans="1:44" ht="14.5">
+    <row r="476" spans="1:44" ht="15">
       <c r="A476" t="s">
         <v>10</v>
       </c>
@@ -24633,7 +24733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="477" spans="1:44" ht="14.5">
+    <row r="477" spans="1:44" ht="15">
       <c r="A477" t="s">
         <v>10</v>
       </c>
@@ -24675,7 +24775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="478" spans="1:44" ht="14.5">
+    <row r="478" spans="1:44" ht="15">
       <c r="A478" t="s">
         <v>10</v>
       </c>
@@ -24717,7 +24817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:44" ht="14.5">
+    <row r="479" spans="1:44" ht="15">
       <c r="A479" t="s">
         <v>10</v>
       </c>
@@ -24759,7 +24859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:44" ht="14.5">
+    <row r="480" spans="1:44" ht="15">
       <c r="A480" t="s">
         <v>10</v>
       </c>
@@ -24801,7 +24901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="1:44" ht="14.5">
+    <row r="481" spans="1:44" ht="15">
       <c r="A481" t="s">
         <v>10</v>
       </c>
@@ -24843,7 +24943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="482" spans="1:44" ht="14.5">
+    <row r="482" spans="1:44" ht="15">
       <c r="A482" t="s">
         <v>10</v>
       </c>
@@ -24885,7 +24985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="483" spans="1:44" ht="14.5">
+    <row r="483" spans="1:44" ht="15">
       <c r="A483" s="1" t="s">
         <v>21</v>
       </c>
@@ -24940,7 +25040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:44" ht="14.5">
+    <row r="484" spans="1:44" ht="15">
       <c r="A484" s="1" t="s">
         <v>21</v>
       </c>
@@ -24995,7 +25095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="485" spans="1:44" ht="14.5">
+    <row r="485" spans="1:44" ht="15">
       <c r="A485" s="1" t="s">
         <v>21</v>
       </c>
@@ -25050,7 +25150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:44" ht="14.5">
+    <row r="486" spans="1:44" ht="15">
       <c r="A486" s="1" t="s">
         <v>21</v>
       </c>
@@ -25105,7 +25205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="487" spans="1:44" ht="14.5">
+    <row r="487" spans="1:44" ht="15">
       <c r="A487" s="1" t="s">
         <v>21</v>
       </c>
@@ -25160,7 +25260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="488" spans="1:44" ht="14.5">
+    <row r="488" spans="1:44" ht="15">
       <c r="A488" s="1" t="s">
         <v>21</v>
       </c>
@@ -25209,7 +25309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="489" spans="1:44" ht="14.5">
+    <row r="489" spans="1:44" ht="15">
       <c r="A489" s="1" t="s">
         <v>21</v>
       </c>
@@ -25258,7 +25358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="490" spans="1:44" ht="14.5">
+    <row r="490" spans="1:44" ht="15">
       <c r="A490" s="1" t="s">
         <v>21</v>
       </c>
@@ -25309,7 +25409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:44" ht="14.5">
+    <row r="491" spans="1:44" ht="15">
       <c r="A491" s="1" t="s">
         <v>21</v>
       </c>
@@ -25351,7 +25451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="492" spans="1:44" ht="14.5">
+    <row r="492" spans="1:44" ht="15">
       <c r="A492" s="1" t="s">
         <v>21</v>
       </c>
@@ -25393,7 +25493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="1:44" ht="14.5">
+    <row r="493" spans="1:44" ht="15">
       <c r="A493" s="1" t="s">
         <v>21</v>
       </c>
@@ -25435,7 +25535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="494" spans="1:44" ht="14.5">
+    <row r="494" spans="1:44" ht="15">
       <c r="A494" s="1" t="s">
         <v>21</v>
       </c>
@@ -25477,7 +25577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="495" spans="1:44" ht="14.5">
+    <row r="495" spans="1:44" ht="15">
       <c r="A495" s="1" t="s">
         <v>21</v>
       </c>
@@ -25519,7 +25619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="496" spans="1:44" ht="14.5">
+    <row r="496" spans="1:44" ht="15">
       <c r="A496" s="1" t="s">
         <v>21</v>
       </c>
@@ -25561,7 +25661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="497" spans="1:44" ht="14.5">
+    <row r="497" spans="1:44" ht="15">
       <c r="A497" s="1" t="s">
         <v>21</v>
       </c>
@@ -25603,7 +25703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="498" spans="1:44" ht="14.5">
+    <row r="498" spans="1:44" ht="15">
       <c r="A498" t="s">
         <v>4</v>
       </c>
@@ -25647,7 +25747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="1:44" ht="14.5">
+    <row r="499" spans="1:44" ht="15">
       <c r="A499" t="s">
         <v>4</v>
       </c>
@@ -25691,7 +25791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:44" ht="14.5">
+    <row r="500" spans="1:44" ht="15">
       <c r="A500" t="s">
         <v>4</v>
       </c>
@@ -25735,7 +25835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:44" ht="14.5">
+    <row r="501" spans="1:44" ht="15">
       <c r="A501" t="s">
         <v>4</v>
       </c>
@@ -25779,7 +25879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:44" ht="14.5">
+    <row r="502" spans="1:44" ht="15">
       <c r="A502" t="s">
         <v>5</v>
       </c>
@@ -25823,7 +25923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:44" ht="14.5">
+    <row r="503" spans="1:44" ht="15">
       <c r="A503" t="s">
         <v>5</v>
       </c>
@@ -25867,7 +25967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:44" ht="14.5">
+    <row r="504" spans="1:44" ht="15">
       <c r="A504" t="s">
         <v>5</v>
       </c>
@@ -25911,7 +26011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:44" ht="14.5">
+    <row r="505" spans="1:44" ht="15">
       <c r="A505" t="s">
         <v>5</v>
       </c>
@@ -25955,7 +26055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:44" ht="14.5">
+    <row r="506" spans="1:44" ht="15">
       <c r="A506" t="s">
         <v>6</v>
       </c>
@@ -25999,7 +26099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:44" ht="14.5">
+    <row r="507" spans="1:44" ht="15">
       <c r="A507" t="s">
         <v>6</v>
       </c>
@@ -26043,7 +26143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:44" ht="14.5">
+    <row r="508" spans="1:44" ht="15">
       <c r="A508" t="s">
         <v>6</v>
       </c>
@@ -26087,7 +26187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:44" ht="14.5">
+    <row r="509" spans="1:44" ht="15">
       <c r="A509" t="s">
         <v>6</v>
       </c>
@@ -26131,7 +26231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:44" ht="14.5">
+    <row r="510" spans="1:44" ht="15">
       <c r="A510" t="s">
         <v>11</v>
       </c>
@@ -26175,7 +26275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:44" ht="14.5">
+    <row r="511" spans="1:44" ht="15">
       <c r="A511" t="s">
         <v>11</v>
       </c>
@@ -26219,7 +26319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:44" ht="14.5">
+    <row r="512" spans="1:44" ht="15">
       <c r="A512" t="s">
         <v>11</v>
       </c>
@@ -26263,7 +26363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="1:45" ht="14.5">
+    <row r="513" spans="1:45" ht="15">
       <c r="A513" t="s">
         <v>11</v>
       </c>
@@ -26307,7 +26407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="1:45" ht="14.5">
+    <row r="514" spans="1:45" ht="15">
       <c r="A514" t="s">
         <v>9</v>
       </c>
@@ -26351,7 +26451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:45" ht="14.5">
+    <row r="515" spans="1:45" ht="15">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -26395,7 +26495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="1:45" ht="14.5">
+    <row r="516" spans="1:45" ht="15">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -26439,7 +26539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="1:45" ht="14.5">
+    <row r="517" spans="1:45" ht="15">
       <c r="A517" t="s">
         <v>9</v>
       </c>
@@ -26483,7 +26583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:45" ht="14.5">
+    <row r="518" spans="1:45" ht="15">
       <c r="A518" t="s">
         <v>12</v>
       </c>
@@ -26527,7 +26627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:45" ht="14.5">
+    <row r="519" spans="1:45" ht="15">
       <c r="A519" t="s">
         <v>12</v>
       </c>
@@ -26571,7 +26671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:45" ht="14.5">
+    <row r="520" spans="1:45" ht="15">
       <c r="A520" t="s">
         <v>12</v>
       </c>
@@ -26615,7 +26715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="1:45" ht="14.5">
+    <row r="521" spans="1:45" ht="15">
       <c r="A521" t="s">
         <v>12</v>
       </c>
@@ -26659,7 +26759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:45" ht="14.5">
+    <row r="522" spans="1:45" ht="15">
       <c r="A522" t="s">
         <v>10</v>
       </c>
@@ -26703,7 +26803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="1:45" ht="14.5">
+    <row r="523" spans="1:45" ht="15">
       <c r="A523" t="s">
         <v>10</v>
       </c>
@@ -26748,7 +26848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524" spans="1:45" ht="14.5">
+    <row r="524" spans="1:45" ht="15">
       <c r="A524" t="s">
         <v>10</v>
       </c>
@@ -26793,7 +26893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="1:45" ht="14.5">
+    <row r="525" spans="1:45" ht="15">
       <c r="A525" t="s">
         <v>10</v>
       </c>
@@ -26838,7 +26938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="526" spans="1:45" ht="14.5">
+    <row r="526" spans="1:45" ht="15">
       <c r="A526" s="1" t="s">
         <v>4</v>
       </c>
@@ -26886,7 +26986,7 @@
         <v>273.82</v>
       </c>
     </row>
-    <row r="527" spans="1:45" ht="14.5">
+    <row r="527" spans="1:45" ht="15">
       <c r="A527" s="1" t="s">
         <v>4</v>
       </c>
@@ -26934,7 +27034,7 @@
         <v>268.62</v>
       </c>
     </row>
-    <row r="528" spans="1:45" ht="14.5">
+    <row r="528" spans="1:45" ht="15">
       <c r="A528" s="1" t="s">
         <v>4</v>
       </c>
@@ -26982,7 +27082,7 @@
         <v>269.58999999999997</v>
       </c>
     </row>
-    <row r="529" spans="1:45" ht="14.5">
+    <row r="529" spans="1:45" ht="15">
       <c r="A529" s="1" t="s">
         <v>4</v>
       </c>
@@ -27030,7 +27130,7 @@
         <v>329.11</v>
       </c>
     </row>
-    <row r="530" spans="1:45" ht="14.5">
+    <row r="530" spans="1:45" ht="15">
       <c r="A530" s="1" t="s">
         <v>4</v>
       </c>
@@ -27078,7 +27178,7 @@
         <v>347.97</v>
       </c>
     </row>
-    <row r="531" spans="1:45" ht="14.5">
+    <row r="531" spans="1:45" ht="15">
       <c r="A531" s="1" t="s">
         <v>4</v>
       </c>
@@ -27126,7 +27226,7 @@
         <v>365.53</v>
       </c>
     </row>
-    <row r="532" spans="1:45" ht="14.5">
+    <row r="532" spans="1:45" ht="15">
       <c r="A532" s="1" t="s">
         <v>4</v>
       </c>
@@ -27174,7 +27274,7 @@
         <v>366.18</v>
       </c>
     </row>
-    <row r="533" spans="1:45" ht="14.5">
+    <row r="533" spans="1:45" ht="15">
       <c r="A533" s="1" t="s">
         <v>4</v>
       </c>
@@ -27222,7 +27322,7 @@
         <v>367.15</v>
       </c>
     </row>
-    <row r="534" spans="1:45" ht="14.5">
+    <row r="534" spans="1:45" ht="15">
       <c r="A534" s="1" t="s">
         <v>4</v>
       </c>
@@ -27270,7 +27370,7 @@
         <v>333.33</v>
       </c>
     </row>
-    <row r="535" spans="1:45" ht="14.5">
+    <row r="535" spans="1:45" ht="15">
       <c r="A535" s="1" t="s">
         <v>4</v>
       </c>
@@ -27318,7 +27418,7 @@
         <v>293.98</v>
       </c>
     </row>
-    <row r="536" spans="1:45" ht="14.5">
+    <row r="536" spans="1:45" ht="15">
       <c r="A536" s="1" t="s">
         <v>4</v>
       </c>
@@ -27366,7 +27466,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="537" spans="1:45" ht="14.5">
+    <row r="537" spans="1:45" ht="15">
       <c r="A537" s="1" t="s">
         <v>4</v>
       </c>
@@ -27414,7 +27514,7 @@
         <v>246.5</v>
       </c>
     </row>
-    <row r="538" spans="1:45" ht="14.5">
+    <row r="538" spans="1:45" ht="15">
       <c r="A538" s="1" t="s">
         <v>4</v>
       </c>
@@ -27462,7 +27562,7 @@
         <v>220.49</v>
       </c>
     </row>
-    <row r="539" spans="1:45" ht="14.5">
+    <row r="539" spans="1:45" ht="15">
       <c r="A539" s="1" t="s">
         <v>4</v>
       </c>
@@ -27510,7 +27610,7 @@
         <v>202.6</v>
       </c>
     </row>
-    <row r="540" spans="1:45" ht="14.5">
+    <row r="540" spans="1:45" ht="15">
       <c r="A540" s="1" t="s">
         <v>4</v>
       </c>
@@ -27558,7 +27658,7 @@
         <v>189.92</v>
       </c>
     </row>
-    <row r="541" spans="1:45" ht="14.5">
+    <row r="541" spans="1:45" ht="15">
       <c r="A541" s="1" t="s">
         <v>4</v>
       </c>
@@ -27606,7 +27706,7 @@
         <v>175.61</v>
       </c>
     </row>
-    <row r="542" spans="1:45" ht="14.5">
+    <row r="542" spans="1:45" ht="15">
       <c r="A542" s="1" t="s">
         <v>4</v>
       </c>
@@ -27654,7 +27754,7 @@
         <v>171.38</v>
       </c>
     </row>
-    <row r="543" spans="1:45" ht="14.5">
+    <row r="543" spans="1:45" ht="15">
       <c r="A543" s="1" t="s">
         <v>4</v>
       </c>
@@ -27702,7 +27802,7 @@
         <v>163.58000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:45" ht="14.5">
+    <row r="544" spans="1:45" ht="15">
       <c r="A544" s="1" t="s">
         <v>4</v>
       </c>
@@ -27750,7 +27850,7 @@
         <v>155.12</v>
       </c>
     </row>
-    <row r="545" spans="1:45" ht="14.5">
+    <row r="545" spans="1:45" ht="15">
       <c r="A545" s="1" t="s">
         <v>4</v>
       </c>
@@ -27798,7 +27898,7 @@
         <v>158.05000000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:45" ht="14.5">
+    <row r="546" spans="1:45" ht="15">
       <c r="A546" s="1" t="s">
         <v>4</v>
       </c>
@@ -27846,7 +27946,7 @@
         <v>284.55</v>
       </c>
     </row>
-    <row r="547" spans="1:45" ht="14.5">
+    <row r="547" spans="1:45" ht="15">
       <c r="A547" s="1" t="s">
         <v>4</v>
       </c>
@@ -27894,7 +27994,7 @@
         <v>278.7</v>
       </c>
     </row>
-    <row r="548" spans="1:45" ht="14.5">
+    <row r="548" spans="1:45" ht="15">
       <c r="A548" s="1" t="s">
         <v>4</v>
       </c>
@@ -27942,7 +28042,7 @@
         <v>248.13</v>
       </c>
     </row>
-    <row r="549" spans="1:45" ht="14.5">
+    <row r="549" spans="1:45" ht="15">
       <c r="A549" s="1" t="s">
         <v>4</v>
       </c>
@@ -27990,7 +28090,7 @@
         <v>230.24</v>
       </c>
     </row>
-    <row r="550" spans="1:45" ht="14.5">
+    <row r="550" spans="1:45" ht="15">
       <c r="A550" s="1" t="s">
         <v>4</v>
       </c>
@@ -28038,7 +28138,7 @@
         <v>218.54</v>
       </c>
     </row>
-    <row r="551" spans="1:45" ht="14.5">
+    <row r="551" spans="1:45" ht="15">
       <c r="A551" s="1" t="s">
         <v>4</v>
       </c>
@@ -28086,7 +28186,7 @@
         <v>216.59</v>
       </c>
     </row>
-    <row r="552" spans="1:45" ht="14.5">
+    <row r="552" spans="1:45" ht="15">
       <c r="A552" s="1" t="s">
         <v>4</v>
       </c>
@@ -28134,7 +28234,7 @@
         <v>216.59</v>
       </c>
     </row>
-    <row r="553" spans="1:45" ht="14.5">
+    <row r="553" spans="1:45" ht="15">
       <c r="A553" s="1" t="s">
         <v>4</v>
       </c>
@@ -28182,7 +28282,7 @@
         <v>219.84</v>
       </c>
     </row>
-    <row r="554" spans="1:45" ht="14.5">
+    <row r="554" spans="1:45" ht="15">
       <c r="A554" s="1" t="s">
         <v>4</v>
       </c>
@@ -28230,7 +28330,7 @@
         <v>214.63</v>
       </c>
     </row>
-    <row r="555" spans="1:45" ht="14.5">
+    <row r="555" spans="1:45" ht="15">
       <c r="A555" s="1" t="s">
         <v>4</v>
       </c>
@@ -28278,7 +28378,7 @@
         <v>230.57</v>
       </c>
     </row>
-    <row r="556" spans="1:45" ht="14.5">
+    <row r="556" spans="1:45" ht="15">
       <c r="A556" s="1" t="s">
         <v>4</v>
       </c>
@@ -28326,7 +28426,7 @@
         <v>220.81</v>
       </c>
     </row>
-    <row r="557" spans="1:45" ht="14.5">
+    <row r="557" spans="1:45" ht="15">
       <c r="A557" s="1" t="s">
         <v>4</v>
       </c>
@@ -28374,7 +28474,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="558" spans="1:45" ht="14.5">
+    <row r="558" spans="1:45" ht="15">
       <c r="A558" s="1" t="s">
         <v>4</v>
       </c>
@@ -28422,7 +28522,7 @@
         <v>300.49</v>
       </c>
     </row>
-    <row r="559" spans="1:45" ht="14.5">
+    <row r="559" spans="1:45" ht="15">
       <c r="A559" s="1" t="s">
         <v>4</v>
       </c>
@@ -28470,7 +28570,7 @@
         <v>287.8</v>
       </c>
     </row>
-    <row r="560" spans="1:45" ht="14.5">
+    <row r="560" spans="1:45" ht="15">
       <c r="A560" s="1" t="s">
         <v>4</v>
       </c>
@@ -28518,7 +28618,7 @@
         <v>318.7</v>
       </c>
     </row>
-    <row r="561" spans="1:45" ht="14.5">
+    <row r="561" spans="1:45" ht="15">
       <c r="A561" s="1" t="s">
         <v>4</v>
       </c>
@@ -28566,7 +28666,7 @@
         <v>284.88</v>
       </c>
     </row>
-    <row r="562" spans="1:45" ht="14.5">
+    <row r="562" spans="1:45" ht="15">
       <c r="A562" s="1" t="s">
         <v>4</v>
       </c>
@@ -28614,7 +28714,7 @@
         <v>274.8</v>
       </c>
     </row>
-    <row r="563" spans="1:45" ht="14.5">
+    <row r="563" spans="1:45" ht="15">
       <c r="A563" s="1" t="s">
         <v>4</v>
       </c>
@@ -28662,7 +28762,7 @@
         <v>251.06</v>
       </c>
     </row>
-    <row r="564" spans="1:45" ht="14.5">
+    <row r="564" spans="1:45" ht="15">
       <c r="A564" s="1" t="s">
         <v>4</v>
       </c>
@@ -28710,7 +28810,7 @@
         <v>237.4</v>
       </c>
     </row>
-    <row r="565" spans="1:45" ht="14.5">
+    <row r="565" spans="1:45" ht="15">
       <c r="A565" s="1" t="s">
         <v>4</v>
       </c>
@@ -28758,7 +28858,7 @@
         <v>230.89</v>
       </c>
     </row>
-    <row r="566" spans="1:45" ht="14.5">
+    <row r="566" spans="1:45" ht="15">
       <c r="A566" s="1" t="s">
         <v>4</v>
       </c>
@@ -28806,7 +28906,7 @@
         <v>189.92</v>
       </c>
     </row>
-    <row r="567" spans="1:45" ht="14.5">
+    <row r="567" spans="1:45" ht="15">
       <c r="A567" s="1" t="s">
         <v>4</v>
       </c>
@@ -28854,7 +28954,7 @@
         <v>180.16</v>
       </c>
     </row>
-    <row r="568" spans="1:45" ht="14.5">
+    <row r="568" spans="1:45" ht="15">
       <c r="A568" s="1" t="s">
         <v>4</v>
       </c>
@@ -28902,7 +29002,7 @@
         <v>181.79</v>
       </c>
     </row>
-    <row r="569" spans="1:45" ht="14.5">
+    <row r="569" spans="1:45" ht="15">
       <c r="A569" s="1" t="s">
         <v>4</v>
       </c>
@@ -28950,7 +29050,7 @@
         <v>169.11</v>
       </c>
     </row>
-    <row r="570" spans="1:45" ht="14.5">
+    <row r="570" spans="1:45" ht="15">
       <c r="A570" s="1" t="s">
         <v>4</v>
       </c>
@@ -28998,7 +29098,7 @@
         <v>167.8</v>
       </c>
     </row>
-    <row r="571" spans="1:45" ht="14.5">
+    <row r="571" spans="1:45" ht="15">
       <c r="A571" s="1" t="s">
         <v>4</v>
       </c>
@@ -29046,7 +29146,7 @@
         <v>159.02000000000001</v>
       </c>
     </row>
-    <row r="572" spans="1:45" ht="14.5">
+    <row r="572" spans="1:45" ht="15">
       <c r="A572" s="1" t="s">
         <v>4</v>
       </c>
@@ -29094,7 +29194,7 @@
         <v>148.29</v>
       </c>
     </row>
-    <row r="573" spans="1:45" ht="14.5">
+    <row r="573" spans="1:45" ht="15">
       <c r="A573" s="1" t="s">
         <v>4</v>
       </c>
@@ -29142,7 +29242,7 @@
         <v>150.24</v>
       </c>
     </row>
-    <row r="574" spans="1:45" ht="14.5">
+    <row r="574" spans="1:45" ht="15">
       <c r="A574" s="1" t="s">
         <v>4</v>
       </c>
@@ -29190,7 +29290,7 @@
         <v>155.77000000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:45" ht="14.5">
+    <row r="575" spans="1:45" ht="15">
       <c r="A575" s="1" t="s">
         <v>4</v>
       </c>
@@ -29238,7 +29338,7 @@
         <v>189.92</v>
       </c>
     </row>
-    <row r="576" spans="1:45" ht="14.5">
+    <row r="576" spans="1:45" ht="15">
       <c r="A576" s="1" t="s">
         <v>4</v>
       </c>
@@ -29286,7 +29386,7 @@
         <v>206.18</v>
       </c>
     </row>
-    <row r="577" spans="1:45" ht="14.5">
+    <row r="577" spans="1:45" ht="15">
       <c r="A577" s="1" t="s">
         <v>4</v>
       </c>
@@ -29334,7 +29434,7 @@
         <v>217.56</v>
       </c>
     </row>
-    <row r="578" spans="1:45" ht="14.5">
+    <row r="578" spans="1:45" ht="15">
       <c r="A578" s="1" t="s">
         <v>4</v>
       </c>
@@ -29382,7 +29482,7 @@
         <v>209.76</v>
       </c>
     </row>
-    <row r="579" spans="1:45" ht="14.5">
+    <row r="579" spans="1:45" ht="15">
       <c r="A579" s="1" t="s">
         <v>4</v>
       </c>
@@ -29430,7 +29530,7 @@
         <v>196.75</v>
       </c>
     </row>
-    <row r="580" spans="1:45" ht="14.5">
+    <row r="580" spans="1:45" ht="15">
       <c r="A580" s="1" t="s">
         <v>4</v>
       </c>
@@ -29478,7 +29578,7 @@
         <v>249.76</v>
       </c>
     </row>
-    <row r="581" spans="1:45" ht="14.5">
+    <row r="581" spans="1:45" ht="15">
       <c r="A581" s="1" t="s">
         <v>4</v>
       </c>
@@ -29526,7 +29626,7 @@
         <v>295.27999999999997</v>
       </c>
     </row>
-    <row r="582" spans="1:45" ht="14.5">
+    <row r="582" spans="1:45" ht="15">
       <c r="A582" s="1" t="s">
         <v>4</v>
       </c>
@@ -29574,7 +29674,7 @@
         <v>276.75</v>
       </c>
     </row>
-    <row r="583" spans="1:45" ht="14.5">
+    <row r="583" spans="1:45" ht="15">
       <c r="A583" s="1" t="s">
         <v>4</v>
       </c>
@@ -29622,7 +29722,7 @@
         <v>296.26</v>
       </c>
     </row>
-    <row r="584" spans="1:45" ht="14.5">
+    <row r="584" spans="1:45" ht="15">
       <c r="A584" s="1" t="s">
         <v>4</v>
       </c>
@@ -29670,7 +29770,7 @@
         <v>273.5</v>
       </c>
     </row>
-    <row r="585" spans="1:45" ht="14.5">
+    <row r="585" spans="1:45" ht="15">
       <c r="A585" s="1" t="s">
         <v>4</v>
       </c>
@@ -29718,7 +29818,7 @@
         <v>269.58999999999997</v>
       </c>
     </row>
-    <row r="586" spans="1:45" ht="14.5">
+    <row r="586" spans="1:45" ht="15">
       <c r="A586" s="1" t="s">
         <v>4</v>
       </c>
@@ -29766,7 +29866,7 @@
         <v>256.91000000000003</v>
       </c>
     </row>
-    <row r="587" spans="1:45" ht="14.5">
+    <row r="587" spans="1:45" ht="15">
       <c r="A587" s="1" t="s">
         <v>4</v>
       </c>
@@ -29814,7 +29914,7 @@
         <v>270.89</v>
       </c>
     </row>
-    <row r="588" spans="1:45" ht="14.5">
+    <row r="588" spans="1:45" ht="15">
       <c r="A588" s="1" t="s">
         <v>4</v>
       </c>
@@ -29862,7 +29962,7 @@
         <v>239.02</v>
       </c>
     </row>
-    <row r="589" spans="1:45" ht="14.5">
+    <row r="589" spans="1:45" ht="15">
       <c r="A589" s="1" t="s">
         <v>4</v>
       </c>
@@ -29910,7 +30010,7 @@
         <v>249.11</v>
       </c>
     </row>
-    <row r="590" spans="1:45" ht="14.5">
+    <row r="590" spans="1:45" ht="15">
       <c r="A590" s="1" t="s">
         <v>4</v>
       </c>
@@ -29958,7 +30058,7 @@
         <v>222.11</v>
       </c>
     </row>
-    <row r="591" spans="1:45" ht="14.5">
+    <row r="591" spans="1:45" ht="15">
       <c r="A591" s="1" t="s">
         <v>4</v>
       </c>
@@ -30006,7 +30106,7 @@
         <v>211.38</v>
       </c>
     </row>
-    <row r="592" spans="1:45" ht="14.5">
+    <row r="592" spans="1:45" ht="15">
       <c r="A592" s="1" t="s">
         <v>4</v>
       </c>
@@ -30054,7 +30154,7 @@
         <v>183.09</v>
       </c>
     </row>
-    <row r="593" spans="1:45" ht="14.5">
+    <row r="593" spans="1:45" ht="15">
       <c r="A593" s="1" t="s">
         <v>4</v>
       </c>
@@ -30102,7 +30202,7 @@
         <v>175.61</v>
       </c>
     </row>
-    <row r="594" spans="1:45" ht="14.5">
+    <row r="594" spans="1:45" ht="15">
       <c r="A594" s="1" t="s">
         <v>4</v>
       </c>
@@ -30150,7 +30250,7 @@
         <v>159.66999999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:45" ht="14.5">
+    <row r="595" spans="1:45" ht="15">
       <c r="A595" s="1" t="s">
         <v>4</v>
       </c>
@@ -30198,7 +30298,7 @@
         <v>172.36</v>
       </c>
     </row>
-    <row r="596" spans="1:45" ht="14.5">
+    <row r="596" spans="1:45" ht="15">
       <c r="A596" s="1" t="s">
         <v>4</v>
       </c>
@@ -30246,7 +30346,7 @@
         <v>165.2</v>
       </c>
     </row>
-    <row r="597" spans="1:45" ht="14.5">
+    <row r="597" spans="1:45" ht="15">
       <c r="A597" s="1" t="s">
         <v>4</v>
       </c>
@@ -30294,7 +30394,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="598" spans="1:45" ht="14.5">
+    <row r="598" spans="1:45" ht="15">
       <c r="A598" s="1" t="s">
         <v>4</v>
       </c>
@@ -30342,7 +30442,7 @@
         <v>150.57</v>
       </c>
     </row>
-    <row r="599" spans="1:45" ht="14.5">
+    <row r="599" spans="1:45" ht="15">
       <c r="A599" s="1" t="s">
         <v>4</v>
       </c>
@@ -30390,7 +30490,7 @@
         <v>151.87</v>
       </c>
     </row>
-    <row r="600" spans="1:45" ht="14.5">
+    <row r="600" spans="1:45" ht="15">
       <c r="A600" s="1" t="s">
         <v>4</v>
       </c>
@@ -30438,7 +30538,7 @@
         <v>157.72</v>
       </c>
     </row>
-    <row r="601" spans="1:45" ht="14.5">
+    <row r="601" spans="1:45" ht="15">
       <c r="A601" s="1" t="s">
         <v>4</v>
       </c>
@@ -30486,7 +30586,7 @@
         <v>164.55</v>
       </c>
     </row>
-    <row r="602" spans="1:45" ht="14.5">
+    <row r="602" spans="1:45" ht="15">
       <c r="A602" s="1" t="s">
         <v>4</v>
       </c>
@@ -30534,7 +30634,7 @@
         <v>161.63</v>
       </c>
     </row>
-    <row r="603" spans="1:45" ht="14.5">
+    <row r="603" spans="1:45" ht="15">
       <c r="A603" s="1" t="s">
         <v>4</v>
       </c>
@@ -30582,7 +30682,7 @@
         <v>186.67</v>
       </c>
     </row>
-    <row r="604" spans="1:45" ht="14.5">
+    <row r="604" spans="1:45" ht="15">
       <c r="A604" s="1" t="s">
         <v>4</v>
       </c>
@@ -30630,7 +30730,7 @@
         <v>185.37</v>
       </c>
     </row>
-    <row r="605" spans="1:45" ht="14.5">
+    <row r="605" spans="1:45" ht="15">
       <c r="A605" s="1" t="s">
         <v>4</v>
       </c>
@@ -30678,7 +30778,7 @@
         <v>178.54</v>
       </c>
     </row>
-    <row r="606" spans="1:45" ht="14.5">
+    <row r="606" spans="1:45" ht="15">
       <c r="A606" s="1" t="s">
         <v>4</v>
       </c>
@@ -30726,7 +30826,7 @@
         <v>198.7</v>
       </c>
     </row>
-    <row r="607" spans="1:45" ht="14.5">
+    <row r="607" spans="1:45" ht="15">
       <c r="A607" s="1" t="s">
         <v>4</v>
       </c>
@@ -30774,7 +30874,7 @@
         <v>200.98</v>
       </c>
     </row>
-    <row r="608" spans="1:45" ht="14.5">
+    <row r="608" spans="1:45" ht="15">
       <c r="A608" s="1" t="s">
         <v>4</v>
       </c>
@@ -30822,7 +30922,7 @@
         <v>194.15</v>
       </c>
     </row>
-    <row r="609" spans="1:45" ht="14.5">
+    <row r="609" spans="1:45" ht="15">
       <c r="A609" s="1" t="s">
         <v>4</v>
       </c>
@@ -30870,7 +30970,7 @@
         <v>174.96</v>
       </c>
     </row>
-    <row r="610" spans="1:45" ht="14.5">
+    <row r="610" spans="1:45" ht="15">
       <c r="A610" s="1" t="s">
         <v>4</v>
       </c>
@@ -30918,7 +31018,7 @@
         <v>169.11</v>
       </c>
     </row>
-    <row r="611" spans="1:45" ht="14.5">
+    <row r="611" spans="1:45" ht="15">
       <c r="A611" s="1" t="s">
         <v>4</v>
       </c>
@@ -30966,7 +31066,7 @@
         <v>156.1</v>
       </c>
     </row>
-    <row r="612" spans="1:45" ht="14.5">
+    <row r="612" spans="1:45" ht="15">
       <c r="A612" s="1" t="s">
         <v>4</v>
       </c>
@@ -31014,7 +31114,7 @@
         <v>166.5</v>
       </c>
     </row>
-    <row r="613" spans="1:45" ht="14.5">
+    <row r="613" spans="1:45" ht="15">
       <c r="A613" s="1" t="s">
         <v>4</v>
       </c>
@@ -31062,7 +31162,7 @@
         <v>167.8</v>
       </c>
     </row>
-    <row r="614" spans="1:45" ht="14.5">
+    <row r="614" spans="1:45" ht="15">
       <c r="A614" s="1" t="s">
         <v>4</v>
       </c>
@@ -31110,7 +31210,7 @@
         <v>159.35</v>
       </c>
     </row>
-    <row r="615" spans="1:45" ht="14.5">
+    <row r="615" spans="1:45" ht="15">
       <c r="A615" s="1" t="s">
         <v>4</v>
       </c>
@@ -31158,7 +31258,7 @@
         <v>153.82</v>
       </c>
     </row>
-    <row r="616" spans="1:45" ht="14.5">
+    <row r="616" spans="1:45" ht="15">
       <c r="A616" s="1" t="s">
         <v>4</v>
       </c>
@@ -31206,7 +31306,7 @@
         <v>163.9</v>
       </c>
     </row>
-    <row r="617" spans="1:45" ht="14.5">
+    <row r="617" spans="1:45" ht="15">
       <c r="A617" s="1" t="s">
         <v>4</v>
       </c>
@@ -31254,7 +31354,7 @@
         <v>153.82</v>
       </c>
     </row>
-    <row r="618" spans="1:45" ht="14.5">
+    <row r="618" spans="1:45" ht="15">
       <c r="A618" s="1" t="s">
         <v>4</v>
       </c>
@@ -31302,7 +31402,7 @@
         <v>153.82</v>
       </c>
     </row>
-    <row r="619" spans="1:45" ht="14.5">
+    <row r="619" spans="1:45" ht="15">
       <c r="A619" s="1" t="s">
         <v>4</v>
       </c>
@@ -31350,7 +31450,7 @@
         <v>171.38</v>
       </c>
     </row>
-    <row r="620" spans="1:45" ht="14.5">
+    <row r="620" spans="1:45" ht="15">
       <c r="A620" s="1" t="s">
         <v>4</v>
       </c>
@@ -31398,7 +31498,7 @@
         <v>154.15</v>
       </c>
     </row>
-    <row r="621" spans="1:45" ht="14.5">
+    <row r="621" spans="1:45" ht="15">
       <c r="A621" s="1" t="s">
         <v>4</v>
       </c>
@@ -31446,7 +31546,7 @@
         <v>151.54</v>
       </c>
     </row>
-    <row r="622" spans="1:45" ht="14.5">
+    <row r="622" spans="1:45" ht="15">
       <c r="A622" s="1" t="s">
         <v>4</v>
       </c>
@@ -31494,7 +31594,7 @@
         <v>147.32</v>
       </c>
     </row>
-    <row r="623" spans="1:45" ht="14.5">
+    <row r="623" spans="1:45" ht="15">
       <c r="A623" s="1" t="s">
         <v>4</v>
       </c>
@@ -31542,7 +31642,7 @@
         <v>148.62</v>
       </c>
     </row>
-    <row r="624" spans="1:45" ht="14.5">
+    <row r="624" spans="1:45" ht="15">
       <c r="A624" s="1" t="s">
         <v>4</v>
       </c>
@@ -31590,7 +31690,7 @@
         <v>160.65</v>
       </c>
     </row>
-    <row r="625" spans="1:45" ht="14.5">
+    <row r="625" spans="1:45" ht="15">
       <c r="A625" s="1" t="s">
         <v>4</v>
       </c>
@@ -31638,7 +31738,7 @@
         <v>206.83</v>
       </c>
     </row>
-    <row r="626" spans="1:45" ht="14.5">
+    <row r="626" spans="1:45" ht="15">
       <c r="A626" s="1" t="s">
         <v>4</v>
       </c>
@@ -31686,7 +31786,7 @@
         <v>239.02</v>
       </c>
     </row>
-    <row r="627" spans="1:45" ht="14.5">
+    <row r="627" spans="1:45" ht="15">
       <c r="A627" s="1" t="s">
         <v>4</v>
       </c>
@@ -31734,7 +31834,7 @@
         <v>252.03</v>
       </c>
     </row>
-    <row r="628" spans="1:45" ht="14.5">
+    <row r="628" spans="1:45" ht="15">
       <c r="A628" s="1" t="s">
         <v>4</v>
       </c>
@@ -31782,7 +31882,7 @@
         <v>284.23</v>
       </c>
     </row>
-    <row r="629" spans="1:45" ht="14.5">
+    <row r="629" spans="1:45" ht="15">
       <c r="A629" s="1" t="s">
         <v>4</v>
       </c>
@@ -31830,7 +31930,7 @@
         <v>288.13</v>
       </c>
     </row>
-    <row r="630" spans="1:45" ht="14.5">
+    <row r="630" spans="1:45" ht="15">
       <c r="A630" s="26" t="s">
         <v>5</v>
       </c>
@@ -31878,7 +31978,7 @@
         <v>323.76816399999996</v>
       </c>
     </row>
-    <row r="631" spans="1:45" ht="14.5">
+    <row r="631" spans="1:45" ht="15">
       <c r="A631" s="26" t="s">
         <v>5</v>
       </c>
@@ -31926,7 +32026,7 @@
         <v>335.32658400000003</v>
       </c>
     </row>
-    <row r="632" spans="1:45" ht="14.5">
+    <row r="632" spans="1:45" ht="15">
       <c r="A632" s="26" t="s">
         <v>5</v>
       </c>
@@ -31974,7 +32074,7 @@
         <v>350.22689500000001</v>
       </c>
     </row>
-    <row r="633" spans="1:45" ht="14.5">
+    <row r="633" spans="1:45" ht="15">
       <c r="A633" s="26" t="s">
         <v>5</v>
       </c>
@@ -32022,7 +32122,7 @@
         <v>363.26780800000006</v>
       </c>
     </row>
-    <row r="634" spans="1:45" ht="14.5">
+    <row r="634" spans="1:45" ht="15">
       <c r="A634" s="26" t="s">
         <v>5</v>
       </c>
@@ -32070,7 +32170,7 @@
         <v>365.152333</v>
       </c>
     </row>
-    <row r="635" spans="1:45" ht="14.5">
+    <row r="635" spans="1:45" ht="15">
       <c r="A635" s="26" t="s">
         <v>5</v>
       </c>
@@ -32118,7 +32218,7 @@
         <v>359.22236099999998</v>
       </c>
     </row>
-    <row r="636" spans="1:45" ht="14.5">
+    <row r="636" spans="1:45" ht="15">
       <c r="A636" s="26" t="s">
         <v>5</v>
       </c>
@@ -32166,7 +32266,7 @@
         <v>353.66929399999998</v>
       </c>
     </row>
-    <row r="637" spans="1:45" ht="14.5">
+    <row r="637" spans="1:45" ht="15">
       <c r="A637" s="26" t="s">
         <v>5</v>
       </c>
@@ -32214,7 +32314,7 @@
         <v>365.62974600000001</v>
       </c>
     </row>
-    <row r="638" spans="1:45" ht="14.5">
+    <row r="638" spans="1:45" ht="15">
       <c r="A638" s="26" t="s">
         <v>5</v>
       </c>
@@ -32262,7 +32362,7 @@
         <v>324.69786299999998</v>
       </c>
     </row>
-    <row r="639" spans="1:45" ht="14.5">
+    <row r="639" spans="1:45" ht="15">
       <c r="A639" s="26" t="s">
         <v>5</v>
       </c>
@@ -32310,7 +32410,7 @@
         <v>365.35334899999998</v>
       </c>
     </row>
-    <row r="640" spans="1:45" ht="14.5">
+    <row r="640" spans="1:45" ht="15">
       <c r="A640" s="26" t="s">
         <v>5</v>
       </c>
@@ -32358,7 +32458,7 @@
         <v>365.805635</v>
       </c>
     </row>
-    <row r="641" spans="1:45" ht="14.5">
+    <row r="641" spans="1:45" ht="15">
       <c r="A641" s="26" t="s">
         <v>5</v>
       </c>
@@ -32406,7 +32506,7 @@
         <v>315.17473000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:45" ht="14.5">
+    <row r="642" spans="1:45" ht="15">
       <c r="A642" s="26" t="s">
         <v>5</v>
       </c>
@@ -32454,7 +32554,7 @@
         <v>300.67645099999999</v>
       </c>
     </row>
-    <row r="643" spans="1:45" ht="14.5">
+    <row r="643" spans="1:45" ht="15">
       <c r="A643" s="26" t="s">
         <v>5</v>
       </c>
@@ -32502,7 +32602,7 @@
         <v>270.17227300000002</v>
       </c>
     </row>
-    <row r="644" spans="1:45" ht="14.5">
+    <row r="644" spans="1:45" ht="15">
       <c r="A644" s="26" t="s">
         <v>5</v>
       </c>
@@ -32550,7 +32650,7 @@
         <v>254.54327900000001</v>
       </c>
     </row>
-    <row r="645" spans="1:45" ht="14.5">
+    <row r="645" spans="1:45" ht="15">
       <c r="A645" s="26" t="s">
         <v>5</v>
       </c>
@@ -32598,7 +32698,7 @@
         <v>234.064774</v>
       </c>
     </row>
-    <row r="646" spans="1:45" ht="14.5">
+    <row r="646" spans="1:45" ht="15">
       <c r="A646" s="26" t="s">
         <v>5</v>
       </c>
@@ -32646,7 +32746,7 @@
         <v>211.77712500000001</v>
       </c>
     </row>
-    <row r="647" spans="1:45" ht="14.5">
+    <row r="647" spans="1:45" ht="15">
       <c r="A647" s="26" t="s">
         <v>5</v>
       </c>
@@ -32694,7 +32794,7 @@
         <v>285.92690200000004</v>
       </c>
     </row>
-    <row r="648" spans="1:45" ht="14.5">
+    <row r="648" spans="1:45" ht="15">
       <c r="A648" s="26" t="s">
         <v>5</v>
       </c>
@@ -32742,7 +32842,7 @@
         <v>280.02205700000002</v>
       </c>
     </row>
-    <row r="649" spans="1:45" ht="14.5">
+    <row r="649" spans="1:45" ht="15">
       <c r="A649" s="26" t="s">
         <v>5</v>
       </c>
@@ -32790,7 +32890,7 @@
         <v>233.88888500000002</v>
       </c>
     </row>
-    <row r="650" spans="1:45" ht="14.5">
+    <row r="650" spans="1:45" ht="15">
       <c r="A650" s="26" t="s">
         <v>5</v>
       </c>
@@ -32838,7 +32938,7 @@
         <v>224.99392699999999</v>
       </c>
     </row>
-    <row r="651" spans="1:45" ht="14.5">
+    <row r="651" spans="1:45" ht="15">
       <c r="A651" s="26" t="s">
         <v>5</v>
       </c>
@@ -32886,7 +32986,7 @@
         <v>216.09896900000001</v>
       </c>
     </row>
-    <row r="652" spans="1:45" ht="14.5">
+    <row r="652" spans="1:45" ht="15">
       <c r="A652" s="26" t="s">
         <v>5</v>
       </c>
@@ -32934,7 +33034,7 @@
         <v>274.644879</v>
       </c>
     </row>
-    <row r="653" spans="1:45" ht="14.5">
+    <row r="653" spans="1:45" ht="15">
       <c r="A653" s="26" t="s">
         <v>5</v>
       </c>
@@ -32982,7 +33082,7 @@
         <v>292.18352500000003</v>
       </c>
     </row>
-    <row r="654" spans="1:45" ht="14.5">
+    <row r="654" spans="1:45" ht="15">
       <c r="A654" s="26" t="s">
         <v>5</v>
       </c>
@@ -33030,7 +33130,7 @@
         <v>320.20013000000006</v>
       </c>
     </row>
-    <row r="655" spans="1:45" ht="14.5">
+    <row r="655" spans="1:45" ht="15">
       <c r="A655" s="26" t="s">
         <v>5</v>
       </c>
@@ -33078,7 +33178,7 @@
         <v>321.33084499999995</v>
       </c>
     </row>
-    <row r="656" spans="1:45" ht="14.5">
+    <row r="656" spans="1:45" ht="15">
       <c r="A656" s="26" t="s">
         <v>5</v>
       </c>
@@ -33126,7 +33226,7 @@
         <v>293.31424000000004</v>
       </c>
     </row>
-    <row r="657" spans="1:45" ht="14.5">
+    <row r="657" spans="1:45" ht="15">
       <c r="A657" s="26" t="s">
         <v>5</v>
       </c>
@@ -33174,7 +33274,7 @@
         <v>267.05652500000002</v>
       </c>
     </row>
-    <row r="658" spans="1:45" ht="14.5">
+    <row r="658" spans="1:45" ht="15">
       <c r="A658" s="26" t="s">
         <v>5</v>
       </c>
@@ -33222,7 +33322,7 @@
         <v>256.251915</v>
       </c>
     </row>
-    <row r="659" spans="1:45" ht="14.5">
+    <row r="659" spans="1:45" ht="15">
       <c r="A659" s="26" t="s">
         <v>5</v>
       </c>
@@ -33270,7 +33370,7 @@
         <v>233.93913900000001</v>
       </c>
     </row>
-    <row r="660" spans="1:45" ht="14.5">
+    <row r="660" spans="1:45" ht="15">
       <c r="A660" s="26" t="s">
         <v>5</v>
       </c>
@@ -33318,7 +33418,7 @@
         <v>158.80940900000002</v>
       </c>
     </row>
-    <row r="661" spans="1:45" ht="14.5">
+    <row r="661" spans="1:45" ht="15">
       <c r="A661" s="26" t="s">
         <v>5</v>
       </c>
@@ -33366,7 +33466,7 @@
         <v>118.731844</v>
       </c>
     </row>
-    <row r="662" spans="1:45" ht="14.5">
+    <row r="662" spans="1:45" ht="15">
       <c r="A662" s="26" t="s">
         <v>5</v>
       </c>
@@ -33414,7 +33514,7 @@
         <v>118.807225</v>
       </c>
     </row>
-    <row r="663" spans="1:45" ht="14.5">
+    <row r="663" spans="1:45" ht="15">
       <c r="A663" s="26" t="s">
         <v>5</v>
       </c>
@@ -33462,7 +33562,7 @@
         <v>292.81169999999997</v>
       </c>
     </row>
-    <row r="664" spans="1:45" ht="14.5">
+    <row r="664" spans="1:45" ht="15">
       <c r="A664" s="26" t="s">
         <v>5</v>
       </c>
@@ -33510,7 +33610,7 @@
         <v>247.40721099999999</v>
       </c>
     </row>
-    <row r="665" spans="1:45" ht="14.5">
+    <row r="665" spans="1:45" ht="15">
       <c r="A665" s="26" t="s">
         <v>5</v>
       </c>
@@ -33558,7 +33658,7 @@
         <v>227.70764300000002</v>
       </c>
     </row>
-    <row r="666" spans="1:45" ht="14.5">
+    <row r="666" spans="1:45" ht="15">
       <c r="A666" s="26" t="s">
         <v>5</v>
       </c>
@@ -33606,7 +33706,7 @@
         <v>213.98830100000001</v>
       </c>
     </row>
-    <row r="667" spans="1:45" ht="14.5">
+    <row r="667" spans="1:45" ht="15">
       <c r="A667" s="26" t="s">
         <v>5</v>
       </c>
@@ -33654,7 +33754,7 @@
         <v>206.60096300000001</v>
       </c>
     </row>
-    <row r="668" spans="1:45" ht="14.5">
+    <row r="668" spans="1:45" ht="15">
       <c r="A668" s="26" t="s">
         <v>5</v>
       </c>
@@ -33702,7 +33802,7 @@
         <v>206.70147099999997</v>
       </c>
     </row>
-    <row r="669" spans="1:45" ht="14.5">
+    <row r="669" spans="1:45" ht="15">
       <c r="A669" s="26" t="s">
         <v>5</v>
       </c>
@@ -33724,7 +33824,7 @@
         <v>201.90221400000001</v>
       </c>
     </row>
-    <row r="670" spans="1:45" ht="14.5">
+    <row r="670" spans="1:45" ht="15">
       <c r="A670" s="26" t="s">
         <v>5</v>
       </c>
@@ -33746,7 +33846,7 @@
         <v>275.75046699999996</v>
       </c>
     </row>
-    <row r="671" spans="1:45" ht="14.5">
+    <row r="671" spans="1:45" ht="15">
       <c r="A671" s="26" t="s">
         <v>5</v>
       </c>
@@ -33767,7 +33867,7 @@
         <v>272.40857600000004</v>
       </c>
     </row>
-    <row r="672" spans="1:45" ht="14.5">
+    <row r="672" spans="1:45" ht="15">
       <c r="A672" s="26" t="s">
         <v>5</v>
       </c>
@@ -33789,7 +33889,7 @@
         <v>273.94132300000001</v>
       </c>
     </row>
-    <row r="673" spans="1:45" ht="14.5">
+    <row r="673" spans="1:45" ht="15">
       <c r="A673" s="26" t="s">
         <v>5</v>
       </c>
@@ -33811,7 +33911,7 @@
         <v>310.82775900000001</v>
       </c>
     </row>
-    <row r="674" spans="1:45" ht="14.5">
+    <row r="674" spans="1:45" ht="15">
       <c r="A674" s="26" t="s">
         <v>5</v>
       </c>
@@ -33832,7 +33932,7 @@
         <v>275.47406999999998</v>
       </c>
     </row>
-    <row r="675" spans="1:45" ht="14.5">
+    <row r="675" spans="1:45" ht="15">
       <c r="A675" s="26" t="s">
         <v>5</v>
       </c>
@@ -33854,7 +33954,7 @@
         <v>243.16074799999998</v>
       </c>
     </row>
-    <row r="676" spans="1:45" ht="14.5">
+    <row r="676" spans="1:45" ht="15">
       <c r="A676" s="26" t="s">
         <v>5</v>
       </c>
@@ -33876,7 +33976,7 @@
         <v>218.96344699999997</v>
       </c>
     </row>
-    <row r="677" spans="1:45" ht="14.5">
+    <row r="677" spans="1:45" ht="15">
       <c r="A677" s="26" t="s">
         <v>5</v>
       </c>
@@ -33897,7 +33997,7 @@
         <v>208.76188500000001</v>
       </c>
     </row>
-    <row r="678" spans="1:45" ht="14.5">
+    <row r="678" spans="1:45" ht="15">
       <c r="A678" s="26" t="s">
         <v>5</v>
       </c>
@@ -33924,7 +34024,7 @@
         <v>169.161733</v>
       </c>
     </row>
-    <row r="679" spans="1:45" ht="14.5">
+    <row r="679" spans="1:45" ht="15">
       <c r="A679" s="26" t="s">
         <v>5</v>
       </c>
@@ -33951,7 +34051,7 @@
         <v>161.39749</v>
       </c>
     </row>
-    <row r="680" spans="1:45" ht="14.5">
+    <row r="680" spans="1:45" ht="15">
       <c r="A680" s="26" t="s">
         <v>5</v>
       </c>
@@ -33978,7 +34078,7 @@
         <v>166.47314399999999</v>
       </c>
     </row>
-    <row r="681" spans="1:45" ht="14.5">
+    <row r="681" spans="1:45" ht="15">
       <c r="A681" s="26" t="s">
         <v>5</v>
       </c>
@@ -34005,7 +34105,7 @@
         <v>153.28146900000002</v>
       </c>
     </row>
-    <row r="682" spans="1:45" ht="14.5">
+    <row r="682" spans="1:45" ht="15">
       <c r="A682" s="26" t="s">
         <v>5</v>
       </c>
@@ -34032,7 +34132,7 @@
         <v>148.08017999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:45" ht="14.5">
+    <row r="683" spans="1:45" ht="15">
       <c r="A683" s="26" t="s">
         <v>5</v>
       </c>
@@ -34059,7 +34159,7 @@
         <v>142.92914500000001</v>
       </c>
     </row>
-    <row r="684" spans="1:45" ht="14.5">
+    <row r="684" spans="1:45" ht="15">
       <c r="A684" s="26" t="s">
         <v>5</v>
       </c>
@@ -34086,7 +34186,7 @@
         <v>131.06920099999999</v>
       </c>
     </row>
-    <row r="685" spans="1:45" ht="14.5">
+    <row r="685" spans="1:45" ht="15">
       <c r="A685" s="26" t="s">
         <v>5</v>
       </c>
@@ -34113,7 +34213,7 @@
         <v>192.30369999999999</v>
       </c>
     </row>
-    <row r="686" spans="1:45" ht="14.5">
+    <row r="686" spans="1:45" ht="15">
       <c r="A686" s="26" t="s">
         <v>5</v>
       </c>
@@ -34140,7 +34240,7 @@
         <v>173.38306900000001</v>
       </c>
     </row>
-    <row r="687" spans="1:45" ht="14.5">
+    <row r="687" spans="1:45" ht="15">
       <c r="A687" s="26" t="s">
         <v>5</v>
       </c>
@@ -34167,7 +34267,7 @@
         <v>224.843165</v>
       </c>
     </row>
-    <row r="688" spans="1:45" ht="14.5">
+    <row r="688" spans="1:45" ht="15">
       <c r="A688" s="26" t="s">
         <v>5</v>
       </c>
@@ -34194,7 +34294,7 @@
         <v>246.12573399999999</v>
       </c>
     </row>
-    <row r="689" spans="1:45" ht="14.5">
+    <row r="689" spans="1:45" ht="15">
       <c r="A689" s="26" t="s">
         <v>5</v>
       </c>
@@ -34221,7 +34321,7 @@
         <v>237.95945900000001</v>
       </c>
     </row>
-    <row r="690" spans="1:45" ht="14.5">
+    <row r="690" spans="1:45" ht="15">
       <c r="A690" s="26" t="s">
         <v>5</v>
       </c>
@@ -34248,7 +34348,7 @@
         <v>253.28692900000001</v>
       </c>
     </row>
-    <row r="691" spans="1:45" ht="14.5">
+    <row r="691" spans="1:45" ht="15">
       <c r="A691" s="26" t="s">
         <v>5</v>
       </c>
@@ -34275,7 +34375,7 @@
         <v>233.96426600000001</v>
       </c>
     </row>
-    <row r="692" spans="1:45" ht="14.5">
+    <row r="692" spans="1:45" ht="15">
       <c r="A692" s="26" t="s">
         <v>5</v>
       </c>
@@ -34302,7 +34402,7 @@
         <v>221.55152800000002</v>
       </c>
     </row>
-    <row r="693" spans="1:45" ht="14.5">
+    <row r="693" spans="1:45" ht="15">
       <c r="A693" s="26" t="s">
         <v>5</v>
       </c>
@@ -34329,7 +34429,7 @@
         <v>229.59216800000002</v>
       </c>
     </row>
-    <row r="694" spans="1:45" ht="14.5">
+    <row r="694" spans="1:45" ht="15">
       <c r="A694" s="26" t="s">
         <v>5</v>
       </c>
@@ -34356,7 +34456,7 @@
         <v>208.41010699999998</v>
       </c>
     </row>
-    <row r="695" spans="1:45" ht="14.5">
+    <row r="695" spans="1:45" ht="15">
       <c r="A695" s="26" t="s">
         <v>5</v>
       </c>
@@ -34383,7 +34483,7 @@
         <v>223.53656100000001</v>
       </c>
     </row>
-    <row r="696" spans="1:45" ht="14.5">
+    <row r="696" spans="1:45" ht="15">
       <c r="A696" s="26" t="s">
         <v>5</v>
       </c>
@@ -34410,7 +34510,7 @@
         <v>203.259072</v>
       </c>
     </row>
-    <row r="697" spans="1:45" ht="14.5">
+    <row r="697" spans="1:45" ht="15">
       <c r="A697" s="26" t="s">
         <v>5</v>
       </c>
@@ -34437,7 +34537,7 @@
         <v>160.492918</v>
       </c>
     </row>
-    <row r="698" spans="1:45" ht="14.5">
+    <row r="698" spans="1:45" ht="15">
       <c r="A698" s="26" t="s">
         <v>5</v>
       </c>
@@ -34464,7 +34564,7 @@
         <v>151.22105499999998</v>
       </c>
     </row>
-    <row r="699" spans="1:45" ht="14.5">
+    <row r="699" spans="1:45" ht="15">
       <c r="A699" s="26" t="s">
         <v>5</v>
       </c>
@@ -34491,7 +34591,7 @@
         <v>136.92379199999999</v>
       </c>
     </row>
-    <row r="700" spans="1:45" ht="14.5">
+    <row r="700" spans="1:45" ht="15">
       <c r="A700" s="26" t="s">
         <v>5</v>
       </c>
@@ -34518,7 +34618,7 @@
         <v>142.92914500000001</v>
       </c>
     </row>
-    <row r="701" spans="1:45" ht="14.5">
+    <row r="701" spans="1:45" ht="15">
       <c r="A701" s="26" t="s">
         <v>5</v>
       </c>
@@ -34545,7 +34645,7 @@
         <v>162.50307800000002</v>
       </c>
     </row>
-    <row r="702" spans="1:45" ht="14.5">
+    <row r="702" spans="1:45" ht="15">
       <c r="A702" s="26" t="s">
         <v>5</v>
       </c>
@@ -34572,7 +34672,7 @@
         <v>153.98502500000001</v>
       </c>
     </row>
-    <row r="703" spans="1:45" ht="14.5">
+    <row r="703" spans="1:45" ht="15">
       <c r="A703" s="26" t="s">
         <v>5</v>
       </c>
@@ -34599,7 +34699,7 @@
         <v>141.37127100000001</v>
       </c>
     </row>
-    <row r="704" spans="1:45" ht="14.5">
+    <row r="704" spans="1:45" ht="15">
       <c r="A704" s="26" t="s">
         <v>5</v>
       </c>
@@ -34626,7 +34726,7 @@
         <v>132.09940799999998</v>
       </c>
     </row>
-    <row r="705" spans="1:45" ht="14.5">
+    <row r="705" spans="1:45" ht="15">
       <c r="A705" s="26" t="s">
         <v>5</v>
       </c>
@@ -34653,7 +34753,7 @@
         <v>131.77275699999998</v>
       </c>
     </row>
-    <row r="706" spans="1:45" ht="14.5">
+    <row r="706" spans="1:45" ht="15">
       <c r="A706" s="26" t="s">
         <v>5</v>
       </c>
@@ -34680,7 +34780,7 @@
         <v>140.36619099999999</v>
       </c>
     </row>
-    <row r="707" spans="1:45" ht="14.5">
+    <row r="707" spans="1:45" ht="15">
       <c r="A707" s="26" t="s">
         <v>5</v>
       </c>
@@ -34707,7 +34807,7 @@
         <v>145.81874999999999</v>
       </c>
     </row>
-    <row r="708" spans="1:45" ht="14.5">
+    <row r="708" spans="1:45" ht="15">
       <c r="A708" s="26" t="s">
         <v>5</v>
       </c>
@@ -34734,7 +34834,7 @@
         <v>143.255796</v>
       </c>
     </row>
-    <row r="709" spans="1:45" ht="14.5">
+    <row r="709" spans="1:45" ht="15">
       <c r="A709" s="26" t="s">
         <v>5</v>
       </c>
@@ -34761,7 +34861,7 @@
         <v>161.724141</v>
       </c>
     </row>
-    <row r="710" spans="1:45" ht="14.5">
+    <row r="710" spans="1:45" ht="15">
       <c r="A710" s="26" t="s">
         <v>5</v>
       </c>
@@ -34788,7 +34888,7 @@
         <v>157.1259</v>
       </c>
     </row>
-    <row r="711" spans="1:45" ht="14.5">
+    <row r="711" spans="1:45" ht="15">
       <c r="A711" s="26" t="s">
         <v>5</v>
       </c>
@@ -34815,7 +34915,7 @@
         <v>175.242467</v>
       </c>
     </row>
-    <row r="712" spans="1:45" ht="14.5">
+    <row r="712" spans="1:45" ht="15">
       <c r="A712" s="26" t="s">
         <v>5</v>
       </c>
@@ -34842,7 +34942,7 @@
         <v>180.89604199999999</v>
       </c>
     </row>
-    <row r="713" spans="1:45" ht="14.5">
+    <row r="713" spans="1:45" ht="15">
       <c r="A713" s="26" t="s">
         <v>5</v>
       </c>
@@ -34869,7 +34969,7 @@
         <v>171.649306</v>
       </c>
     </row>
-    <row r="714" spans="1:45" ht="14.5">
+    <row r="714" spans="1:45" ht="15">
       <c r="A714" s="26" t="s">
         <v>5</v>
       </c>
@@ -34896,7 +34996,7 @@
         <v>153.784009</v>
       </c>
     </row>
-    <row r="715" spans="1:45" ht="14.5">
+    <row r="715" spans="1:45" ht="15">
       <c r="A715" s="26" t="s">
         <v>5</v>
       </c>
@@ -34923,7 +35023,7 @@
         <v>156.07056599999999</v>
       </c>
     </row>
-    <row r="716" spans="1:45" ht="14.5">
+    <row r="716" spans="1:45" ht="15">
       <c r="A716" s="26" t="s">
         <v>5</v>
       </c>
@@ -34950,7 +35050,7 @@
         <v>140.46669900000001</v>
       </c>
     </row>
-    <row r="717" spans="1:45" ht="14.5">
+    <row r="717" spans="1:45" ht="15">
       <c r="A717" s="26" t="s">
         <v>5</v>
       </c>
@@ -34977,7 +35077,7 @@
         <v>153.90964400000001</v>
       </c>
     </row>
-    <row r="718" spans="1:45" ht="14.5">
+    <row r="718" spans="1:45" ht="15">
       <c r="A718" s="26" t="s">
         <v>5</v>
       </c>
@@ -35004,7 +35104,7 @@
         <v>157.67869400000001</v>
       </c>
     </row>
-    <row r="719" spans="1:45" ht="14.5">
+    <row r="719" spans="1:45" ht="15">
       <c r="A719" s="26" t="s">
         <v>5</v>
       </c>
@@ -35031,7 +35131,7 @@
         <v>143.959352</v>
       </c>
     </row>
-    <row r="720" spans="1:45" ht="14.5">
+    <row r="720" spans="1:45" ht="15">
       <c r="A720" s="27" t="s">
         <v>9</v>
       </c>
@@ -35058,7 +35158,7 @@
         <v>323.76816399999996</v>
       </c>
     </row>
-    <row r="721" spans="1:45" ht="14.5">
+    <row r="721" spans="1:45" ht="15">
       <c r="A721" s="27" t="s">
         <v>9</v>
       </c>
@@ -35085,7 +35185,7 @@
         <v>335.32658400000003</v>
       </c>
     </row>
-    <row r="722" spans="1:45" ht="14.5">
+    <row r="722" spans="1:45" ht="15">
       <c r="A722" s="27" t="s">
         <v>9</v>
       </c>
@@ -35112,7 +35212,7 @@
         <v>357.31270900000004</v>
       </c>
     </row>
-    <row r="723" spans="1:45" ht="14.5">
+    <row r="723" spans="1:45" ht="15">
       <c r="A723" s="27" t="s">
         <v>9</v>
       </c>
@@ -35139,7 +35239,7 @@
         <v>363.26780800000006</v>
       </c>
     </row>
-    <row r="724" spans="1:45" ht="14.5">
+    <row r="724" spans="1:45" ht="15">
       <c r="A724" s="27" t="s">
         <v>9</v>
       </c>
@@ -47160,7 +47260,7 @@
         <v>15.000000000000002</v>
       </c>
     </row>
-    <row r="1179" spans="1:72" ht="14.5">
+    <row r="1179" spans="1:72" ht="15">
       <c r="A1179" s="3" t="s">
         <v>65</v>
       </c>
@@ -47185,7 +47285,7 @@
         <v>7.4476923076923072</v>
       </c>
     </row>
-    <row r="1180" spans="1:72" ht="14.5">
+    <row r="1180" spans="1:72" ht="15">
       <c r="A1180" s="3" t="s">
         <v>65</v>
       </c>
@@ -47757,7 +47857,7 @@
         <v>1.11E-2</v>
       </c>
     </row>
-    <row r="1197" spans="1:72" ht="14.5">
+    <row r="1197" spans="1:72" ht="15">
       <c r="A1197" s="3" t="s">
         <v>87</v>
       </c>
@@ -54305,7 +54405,7 @@
         <v>3.4134625460356065</v>
       </c>
     </row>
-    <row r="1425" spans="1:21" s="20" customFormat="1">
+    <row r="1425" spans="1:30" s="20" customFormat="1">
       <c r="A1425" s="3" t="s">
         <v>95</v>
       </c>
@@ -54323,7 +54423,7 @@
         <v>3.0882959666920256</v>
       </c>
     </row>
-    <row r="1426" spans="1:21" s="20" customFormat="1">
+    <row r="1426" spans="1:30" s="20" customFormat="1">
       <c r="A1426" s="3" t="s">
         <v>95</v>
       </c>
@@ -54341,7 +54441,7 @@
         <v>3.5115735057725548</v>
       </c>
     </row>
-    <row r="1427" spans="1:21" s="20" customFormat="1">
+    <row r="1427" spans="1:30" s="20" customFormat="1">
       <c r="A1427" s="3" t="s">
         <v>95</v>
       </c>
@@ -54359,7 +54459,7 @@
         <v>3.609737152206367</v>
       </c>
     </row>
-    <row r="1428" spans="1:21" s="20" customFormat="1">
+    <row r="1428" spans="1:30" s="20" customFormat="1">
       <c r="A1428" s="3" t="s">
         <v>95</v>
       </c>
@@ -54377,7 +54477,7 @@
         <v>3.4273198412268946</v>
       </c>
     </row>
-    <row r="1429" spans="1:21" s="20" customFormat="1">
+    <row r="1429" spans="1:30" s="20" customFormat="1">
       <c r="A1429" s="3" t="s">
         <v>95</v>
       </c>
@@ -54395,7 +54495,7 @@
         <v>3.3539979087022815</v>
       </c>
     </row>
-    <row r="1430" spans="1:21" s="20" customFormat="1">
+    <row r="1430" spans="1:30" s="20" customFormat="1">
       <c r="A1430" s="3" t="s">
         <v>95</v>
       </c>
@@ -54413,7 +54513,7 @@
         <v>3.095527916118908</v>
       </c>
     </row>
-    <row r="1431" spans="1:21" s="20" customFormat="1">
+    <row r="1431" spans="1:30" s="20" customFormat="1">
       <c r="A1431" s="3" t="s">
         <v>95</v>
       </c>
@@ -54431,7 +54531,7 @@
         <v>3.0734037490570061</v>
       </c>
     </row>
-    <row r="1432" spans="1:21" s="20" customFormat="1">
+    <row r="1432" spans="1:30" s="20" customFormat="1">
       <c r="A1432" s="3" t="s">
         <v>95</v>
       </c>
@@ -54449,7 +54549,7 @@
         <v>3.1669236272078791</v>
       </c>
     </row>
-    <row r="1433" spans="1:21" s="20" customFormat="1">
+    <row r="1433" spans="1:30" s="20" customFormat="1">
       <c r="A1433" s="3" t="s">
         <v>95</v>
       </c>
@@ -54467,7 +54567,7 @@
         <v>3.0647651832352412</v>
       </c>
     </row>
-    <row r="1434" spans="1:21" s="20" customFormat="1">
+    <row r="1434" spans="1:30" s="20" customFormat="1">
       <c r="A1434" s="3" t="s">
         <v>95</v>
       </c>
@@ -54485,7 +54585,7 @@
         <v>2.9888129265753967</v>
       </c>
     </row>
-    <row r="1435" spans="1:21" s="20" customFormat="1">
+    <row r="1435" spans="1:30" s="20" customFormat="1">
       <c r="A1435" s="3" t="s">
         <v>95</v>
       </c>
@@ -54503,7 +54603,7 @@
         <v>3.4361000130507162</v>
       </c>
     </row>
-    <row r="1436" spans="1:21" s="20" customFormat="1">
+    <row r="1436" spans="1:30" s="20" customFormat="1">
       <c r="A1436" s="3" t="s">
         <v>95</v>
       </c>
@@ -54521,7 +54621,7 @@
         <v>3.4429713648184519</v>
       </c>
     </row>
-    <row r="1437" spans="1:21" s="20" customFormat="1">
+    <row r="1437" spans="1:30" s="20" customFormat="1">
       <c r="A1437" s="3" t="s">
         <v>95</v>
       </c>
@@ -54539,7 +54639,7 @@
         <v>4.1673846841885798</v>
       </c>
     </row>
-    <row r="1438" spans="1:21" s="20" customFormat="1">
+    <row r="1438" spans="1:30" s="20" customFormat="1">
       <c r="A1438" s="3" t="s">
         <v>95</v>
       </c>
@@ -54556,14 +54656,294 @@
       <c r="U1438" s="8">
         <v>4.1904467960491347</v>
       </c>
+    </row>
+    <row r="1439" spans="1:30">
+      <c r="A1439" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1439" s="5">
+        <v>35200</v>
+      </c>
+      <c r="C1439" s="19">
+        <v>0</v>
+      </c>
+      <c r="D1439" s="3">
+        <v>100</v>
+      </c>
+      <c r="E1439" s="3">
+        <v>1111</v>
+      </c>
+      <c r="AA1439" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="AB1439" s="58"/>
+      <c r="AC1439" s="58"/>
+      <c r="AD1439" s="58"/>
+    </row>
+    <row r="1440" spans="1:30">
+      <c r="A1440" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1440" s="5">
+        <f>B$1439+365.25*C1440</f>
+        <v>35638.300000000003</v>
+      </c>
+      <c r="C1440" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="D1440" s="3">
+        <v>99</v>
+      </c>
+      <c r="E1440" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA1440" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="AB1440" s="58"/>
+      <c r="AC1440" s="58"/>
+      <c r="AD1440" s="58"/>
+    </row>
+    <row r="1441" spans="1:35">
+      <c r="A1441" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1441" s="5">
+        <f t="shared" ref="B1441:B1445" si="18">B$1439+365.25*C1441</f>
+        <v>36076.6</v>
+      </c>
+      <c r="C1441" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="D1441" s="3">
+        <v>99</v>
+      </c>
+      <c r="E1441" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA1441" s="58">
+        <v>3.5</v>
+      </c>
+      <c r="AB1441" s="58"/>
+      <c r="AC1441" s="58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD1441" s="58"/>
+    </row>
+    <row r="1442" spans="1:35">
+      <c r="A1442" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1442" s="5">
+        <f t="shared" si="18"/>
+        <v>36441.85</v>
+      </c>
+      <c r="C1442" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="D1442" s="3">
+        <v>99</v>
+      </c>
+      <c r="E1442" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA1442" s="58">
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="AB1442" s="58"/>
+      <c r="AC1442" s="58">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AD1442" s="58">
+        <v>15.813229999999999</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:35">
+      <c r="A1443" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1443" s="5">
+        <f t="shared" si="18"/>
+        <v>36807.1</v>
+      </c>
+      <c r="C1443" s="23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D1443" s="3">
+        <v>99</v>
+      </c>
+      <c r="E1443" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA1443" s="58">
+        <v>8.4000000000000021</v>
+      </c>
+      <c r="AB1443" s="58"/>
+      <c r="AC1443" s="58">
+        <v>19.2</v>
+      </c>
+      <c r="AD1443" s="58">
+        <v>42.705189999999995</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:35">
+      <c r="A1444" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1444" s="5">
+        <f t="shared" si="18"/>
+        <v>37062.775000000001</v>
+      </c>
+      <c r="C1444" s="23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D1444" s="3">
+        <v>99</v>
+      </c>
+      <c r="E1444" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA1444" s="58">
+        <v>9.9000000000000021</v>
+      </c>
+      <c r="AB1444" s="58"/>
+      <c r="AC1444" s="58">
+        <v>24.2</v>
+      </c>
+      <c r="AD1444" s="58">
+        <v>56.908689999999993</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:35">
+      <c r="A1445" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1445" s="5">
+        <f t="shared" si="18"/>
+        <v>37537.599999999999</v>
+      </c>
+      <c r="C1445" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="D1445" s="3">
+        <v>99</v>
+      </c>
+      <c r="E1445" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA1445" s="59">
+        <v>11.1</v>
+      </c>
+      <c r="AB1445" s="59">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AC1445" s="59">
+        <v>27.3</v>
+      </c>
+      <c r="AD1445" s="59">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:35" ht="13.5" thickBot="1"/>
+    <row r="1447" spans="1:35">
+      <c r="U1447" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1447" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1447" s="55"/>
+      <c r="X1447" s="55"/>
+      <c r="Y1447" s="55"/>
+      <c r="Z1447" s="55"/>
+      <c r="AA1447" s="55"/>
+      <c r="AB1447" s="55"/>
+      <c r="AC1447" s="55"/>
+      <c r="AD1447" s="55"/>
+      <c r="AE1447" s="55"/>
+      <c r="AF1447" s="55"/>
+      <c r="AG1447" s="55"/>
+      <c r="AH1447" s="55"/>
+      <c r="AI1447" s="56"/>
+    </row>
+    <row r="1448" spans="1:35" ht="13.5" thickBot="1">
+      <c r="U1448" s="52"/>
+      <c r="V1448" s="50">
+        <v>2.4</v>
+      </c>
+      <c r="W1448" s="55"/>
+      <c r="X1448" s="55"/>
+      <c r="Y1448" s="55"/>
+      <c r="Z1448" s="55"/>
+      <c r="AA1448" s="55"/>
+      <c r="AB1448" s="55"/>
+      <c r="AC1448" s="55"/>
+      <c r="AD1448" s="55"/>
+      <c r="AE1448" s="55"/>
+      <c r="AF1448" s="55"/>
+      <c r="AG1448" s="55"/>
+      <c r="AH1448" s="55"/>
+      <c r="AI1448" s="56"/>
+    </row>
+    <row r="1449" spans="1:35">
+      <c r="U1449" s="53">
+        <v>1.2</v>
+      </c>
+      <c r="V1449" s="54">
+        <v>2</v>
+      </c>
+      <c r="W1449" s="57"/>
+      <c r="X1449" s="57"/>
+      <c r="Y1449" s="57"/>
+      <c r="Z1449" s="57"/>
+      <c r="AA1449" s="57"/>
+      <c r="AB1449" s="57"/>
+      <c r="AC1449" s="57"/>
+      <c r="AD1449" s="57"/>
+      <c r="AE1449" s="57"/>
+      <c r="AF1449" s="57"/>
+      <c r="AG1449" s="57"/>
+      <c r="AH1449" s="57"/>
+      <c r="AI1449" s="56"/>
+    </row>
+    <row r="1450" spans="1:35">
+      <c r="U1450" s="3">
+        <f>U1449</f>
+        <v>1.2</v>
+      </c>
+      <c r="V1450" s="3">
+        <f>U1450+V1449</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:35">
+      <c r="U1451" s="3">
+        <f>U1450+0.3</f>
+        <v>1.5</v>
+      </c>
+      <c r="V1451" s="3">
+        <f t="shared" ref="V1451:Z1451" si="19">V1450+0.3</f>
+        <v>3.5</v>
+      </c>
+      <c r="AA1451" s="1"/>
+      <c r="AB1451" s="1"/>
+      <c r="AC1451" s="1"/>
+      <c r="AD1451" s="1"/>
+      <c r="AE1451" s="1"/>
+      <c r="AF1451" s="1"/>
+      <c r="AG1451" s="1"/>
+      <c r="AH1451" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A238:BK627">
     <sortCondition ref="A268:A627"/>
     <sortCondition ref="C268:C627"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="U1447:U1448"/>
+  </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C02CF-332D-4535-913A-5F3D64C71A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437DF84-DE40-44FF-9A70-5F3ED9D8A804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="112">
   <si>
     <t>SimulationName</t>
   </si>
@@ -390,10 +390,7 @@
     <t>321GYMBL2TWC</t>
   </si>
   <si>
-    <t>0.1-1.2</t>
-  </si>
-  <si>
-    <t>1.2-</t>
+    <t>321GYMR1</t>
   </si>
 </sst>
 </file>
@@ -528,58 +525,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -592,7 +540,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -674,24 +622,6 @@
     <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,6 +635,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="0.0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1084,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:BT1451"/>
+  <dimension ref="A1:BT1455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W1406" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F1406" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA1439" sqref="AA1439:AD1445"/>
+      <selection pane="bottomRight" activeCell="F1447" sqref="F1447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -54405,7 +54336,7 @@
         <v>3.4134625460356065</v>
       </c>
     </row>
-    <row r="1425" spans="1:30" s="20" customFormat="1">
+    <row r="1425" spans="1:21" s="20" customFormat="1">
       <c r="A1425" s="3" t="s">
         <v>95</v>
       </c>
@@ -54423,7 +54354,7 @@
         <v>3.0882959666920256</v>
       </c>
     </row>
-    <row r="1426" spans="1:30" s="20" customFormat="1">
+    <row r="1426" spans="1:21" s="20" customFormat="1">
       <c r="A1426" s="3" t="s">
         <v>95</v>
       </c>
@@ -54441,7 +54372,7 @@
         <v>3.5115735057725548</v>
       </c>
     </row>
-    <row r="1427" spans="1:30" s="20" customFormat="1">
+    <row r="1427" spans="1:21" s="20" customFormat="1">
       <c r="A1427" s="3" t="s">
         <v>95</v>
       </c>
@@ -54459,7 +54390,7 @@
         <v>3.609737152206367</v>
       </c>
     </row>
-    <row r="1428" spans="1:30" s="20" customFormat="1">
+    <row r="1428" spans="1:21" s="20" customFormat="1">
       <c r="A1428" s="3" t="s">
         <v>95</v>
       </c>
@@ -54477,7 +54408,7 @@
         <v>3.4273198412268946</v>
       </c>
     </row>
-    <row r="1429" spans="1:30" s="20" customFormat="1">
+    <row r="1429" spans="1:21" s="20" customFormat="1">
       <c r="A1429" s="3" t="s">
         <v>95</v>
       </c>
@@ -54495,7 +54426,7 @@
         <v>3.3539979087022815</v>
       </c>
     </row>
-    <row r="1430" spans="1:30" s="20" customFormat="1">
+    <row r="1430" spans="1:21" s="20" customFormat="1">
       <c r="A1430" s="3" t="s">
         <v>95</v>
       </c>
@@ -54513,7 +54444,7 @@
         <v>3.095527916118908</v>
       </c>
     </row>
-    <row r="1431" spans="1:30" s="20" customFormat="1">
+    <row r="1431" spans="1:21" s="20" customFormat="1">
       <c r="A1431" s="3" t="s">
         <v>95</v>
       </c>
@@ -54531,7 +54462,7 @@
         <v>3.0734037490570061</v>
       </c>
     </row>
-    <row r="1432" spans="1:30" s="20" customFormat="1">
+    <row r="1432" spans="1:21" s="20" customFormat="1">
       <c r="A1432" s="3" t="s">
         <v>95</v>
       </c>
@@ -54549,7 +54480,7 @@
         <v>3.1669236272078791</v>
       </c>
     </row>
-    <row r="1433" spans="1:30" s="20" customFormat="1">
+    <row r="1433" spans="1:21" s="20" customFormat="1">
       <c r="A1433" s="3" t="s">
         <v>95</v>
       </c>
@@ -54567,7 +54498,7 @@
         <v>3.0647651832352412</v>
       </c>
     </row>
-    <row r="1434" spans="1:30" s="20" customFormat="1">
+    <row r="1434" spans="1:21" s="20" customFormat="1">
       <c r="A1434" s="3" t="s">
         <v>95</v>
       </c>
@@ -54585,7 +54516,7 @@
         <v>2.9888129265753967</v>
       </c>
     </row>
-    <row r="1435" spans="1:30" s="20" customFormat="1">
+    <row r="1435" spans="1:21" s="20" customFormat="1">
       <c r="A1435" s="3" t="s">
         <v>95</v>
       </c>
@@ -54603,7 +54534,7 @@
         <v>3.4361000130507162</v>
       </c>
     </row>
-    <row r="1436" spans="1:30" s="20" customFormat="1">
+    <row r="1436" spans="1:21" s="20" customFormat="1">
       <c r="A1436" s="3" t="s">
         <v>95</v>
       </c>
@@ -54621,7 +54552,7 @@
         <v>3.4429713648184519</v>
       </c>
     </row>
-    <row r="1437" spans="1:30" s="20" customFormat="1">
+    <row r="1437" spans="1:21" s="20" customFormat="1">
       <c r="A1437" s="3" t="s">
         <v>95</v>
       </c>
@@ -54639,7 +54570,7 @@
         <v>4.1673846841885798</v>
       </c>
     </row>
-    <row r="1438" spans="1:30" s="20" customFormat="1">
+    <row r="1438" spans="1:21" s="20" customFormat="1">
       <c r="A1438" s="3" t="s">
         <v>95</v>
       </c>
@@ -54657,12 +54588,12 @@
         <v>4.1904467960491347</v>
       </c>
     </row>
-    <row r="1439" spans="1:30">
+    <row r="1439" spans="1:21" s="20" customFormat="1">
       <c r="A1439" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1439" s="5">
-        <v>35200</v>
+        <v>24303</v>
       </c>
       <c r="C1439" s="19">
         <v>0</v>
@@ -54670,278 +54601,422 @@
       <c r="D1439" s="3">
         <v>100</v>
       </c>
-      <c r="E1439" s="3">
-        <v>1111</v>
-      </c>
-      <c r="AA1439" s="58">
-        <v>0.3</v>
-      </c>
-      <c r="AB1439" s="58"/>
-      <c r="AC1439" s="58"/>
-      <c r="AD1439" s="58"/>
-    </row>
-    <row r="1440" spans="1:30">
+      <c r="E1439" s="20">
+        <v>1234</v>
+      </c>
+      <c r="T1439" s="8"/>
+      <c r="U1439" s="8"/>
+    </row>
+    <row r="1440" spans="1:21" s="20" customFormat="1">
       <c r="A1440" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1440" s="5">
         <f>B$1439+365.25*C1440</f>
-        <v>35638.300000000003</v>
-      </c>
-      <c r="C1440" s="23">
-        <v>1.2</v>
+        <v>30000.9</v>
+      </c>
+      <c r="C1440" s="20">
+        <v>15.6</v>
       </c>
       <c r="D1440" s="3">
-        <v>99</v>
-      </c>
-      <c r="E1440" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AA1440" s="58">
-        <v>1.5</v>
-      </c>
-      <c r="AB1440" s="58"/>
-      <c r="AC1440" s="58"/>
-      <c r="AD1440" s="58"/>
-    </row>
-    <row r="1441" spans="1:35">
+        <f>E1440/E$1439*100</f>
+        <v>55.024311183144249</v>
+      </c>
+      <c r="E1440" s="20">
+        <v>679</v>
+      </c>
+      <c r="T1440" s="8"/>
+      <c r="U1440" s="8"/>
+    </row>
+    <row r="1441" spans="1:36" s="20" customFormat="1">
       <c r="A1441" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1441" s="5">
-        <f t="shared" ref="B1441:B1445" si="18">B$1439+365.25*C1441</f>
-        <v>36076.6</v>
-      </c>
-      <c r="C1441" s="23">
-        <v>2.4</v>
+        <f>B$1439+365.25*C1441</f>
+        <v>35041.35</v>
+      </c>
+      <c r="C1441" s="20">
+        <v>29.4</v>
       </c>
       <c r="D1441" s="3">
-        <v>99</v>
-      </c>
-      <c r="E1441" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AA1441" s="58">
-        <v>3.5</v>
-      </c>
-      <c r="AB1441" s="58"/>
-      <c r="AC1441" s="58">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AD1441" s="58"/>
-    </row>
-    <row r="1442" spans="1:35">
+        <f>E1441/E$1439*100</f>
+        <v>55.024311183144249</v>
+      </c>
+      <c r="E1441" s="20">
+        <v>679</v>
+      </c>
+      <c r="F1441" s="20">
+        <v>26500</v>
+      </c>
+      <c r="H1441" s="20">
+        <v>203</v>
+      </c>
+      <c r="J1441" s="20">
+        <v>2420</v>
+      </c>
+      <c r="N1441" s="20">
+        <v>23870</v>
+      </c>
+      <c r="P1441" s="20">
+        <v>3090</v>
+      </c>
+      <c r="T1441" s="8"/>
+      <c r="U1441" s="8"/>
+      <c r="V1441" s="20">
+        <v>29</v>
+      </c>
+      <c r="Z1441" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AA1441" s="20">
+        <v>23.7</v>
+      </c>
+      <c r="AC1441" s="20">
+        <v>39.6</v>
+      </c>
+      <c r="AD1441" s="20">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:36">
       <c r="A1442" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B1442" s="5">
+        <v>35200</v>
+      </c>
+      <c r="C1442" s="19">
+        <v>0</v>
+      </c>
+      <c r="D1442" s="3">
+        <v>100</v>
+      </c>
+      <c r="E1442" s="3">
+        <v>1111</v>
+      </c>
+      <c r="AA1442" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="AB1442" s="52"/>
+      <c r="AC1442" s="52"/>
+      <c r="AD1442" s="52"/>
+    </row>
+    <row r="1443" spans="1:36">
+      <c r="A1443" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1443" s="5">
+        <f>B$1442+365.25*C1443</f>
+        <v>35638.300000000003</v>
+      </c>
+      <c r="C1443" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="D1443" s="3">
+        <v>99</v>
+      </c>
+      <c r="E1443" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA1443" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="AB1443" s="52"/>
+      <c r="AC1443" s="52"/>
+      <c r="AD1443" s="52"/>
+    </row>
+    <row r="1444" spans="1:36">
+      <c r="A1444" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1444" s="5">
+        <f t="shared" ref="B1444:B1449" si="18">B$1442+365.25*C1444</f>
+        <v>36076.6</v>
+      </c>
+      <c r="C1444" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="D1444" s="3">
+        <v>99</v>
+      </c>
+      <c r="E1444" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA1444" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="AB1444" s="52"/>
+      <c r="AC1444" s="52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD1444" s="52"/>
+      <c r="AJ1444" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:36">
+      <c r="A1445" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1445" s="5">
+        <f t="shared" ref="B1445" si="19">B$1442+365.25*C1445</f>
+        <v>36387.0625</v>
+      </c>
+      <c r="C1445" s="23">
+        <v>3.25</v>
+      </c>
+      <c r="D1445" s="3">
+        <v>99</v>
+      </c>
+      <c r="E1445" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F1445" s="3">
+        <v>2392.0000000000005</v>
+      </c>
+      <c r="H1445" s="3">
+        <v>685.17300056721501</v>
+      </c>
+      <c r="J1445" s="3">
+        <v>260.50141803743628</v>
+      </c>
+      <c r="L1445" s="3">
+        <v>373.11401020986955</v>
+      </c>
+      <c r="M1445" s="3">
+        <v>1073.2115711854794</v>
+      </c>
+      <c r="N1445" s="3">
+        <v>1446.325581395349</v>
+      </c>
+      <c r="V1445" s="3">
+        <v>5.4600000000000009</v>
+      </c>
+      <c r="AA1445" s="52"/>
+      <c r="AB1445" s="52"/>
+      <c r="AC1445" s="52"/>
+      <c r="AD1445" s="52"/>
+      <c r="AJ1445" s="3">
+        <v>5.6999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:36">
+      <c r="A1446" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1446" s="5">
         <f t="shared" si="18"/>
         <v>36441.85</v>
       </c>
-      <c r="C1442" s="23">
+      <c r="C1446" s="23">
         <v>3.4</v>
       </c>
-      <c r="D1442" s="3">
-        <v>99</v>
-      </c>
-      <c r="E1442" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AA1442" s="58">
+      <c r="D1446" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="E1446" s="3">
+        <v>694</v>
+      </c>
+      <c r="F1446" s="3">
+        <v>1719.0000000000002</v>
+      </c>
+      <c r="H1446" s="3">
+        <v>492.39648326715837</v>
+      </c>
+      <c r="J1446" s="3">
+        <v>187.20816789563244</v>
+      </c>
+      <c r="L1446" s="3">
+        <v>268.13669880884862</v>
+      </c>
+      <c r="M1446" s="3">
+        <v>771.25865002836088</v>
+      </c>
+      <c r="N1446" s="3">
+        <v>1039.3953488372094</v>
+      </c>
+      <c r="V1446" s="3">
+        <v>3.9299999999999997</v>
+      </c>
+      <c r="AA1446" s="52">
         <v>6.1000000000000005</v>
       </c>
-      <c r="AB1442" s="58"/>
-      <c r="AC1442" s="58">
+      <c r="AB1446" s="52">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AD1442" s="58">
+      <c r="AC1446" s="52">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AD1446" s="52">
         <v>15.813229999999999</v>
       </c>
-    </row>
-    <row r="1443" spans="1:35">
-      <c r="A1443" s="1" t="s">
+      <c r="AJ1446" s="3">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:36">
+      <c r="A1447" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1443" s="5">
+      <c r="B1447" s="5">
         <f t="shared" si="18"/>
         <v>36807.1</v>
       </c>
-      <c r="C1443" s="23">
+      <c r="C1447" s="23">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D1443" s="3">
-        <v>99</v>
-      </c>
-      <c r="E1443" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AA1443" s="58">
+      <c r="D1447" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="E1447" s="3">
+        <v>694</v>
+      </c>
+      <c r="AA1447" s="52">
         <v>8.4000000000000021</v>
       </c>
-      <c r="AB1443" s="58"/>
-      <c r="AC1443" s="58">
+      <c r="AB1447" s="52"/>
+      <c r="AC1447" s="52">
         <v>19.2</v>
       </c>
-      <c r="AD1443" s="58">
+      <c r="AD1447" s="52">
         <v>42.705189999999995</v>
       </c>
-    </row>
-    <row r="1444" spans="1:35">
-      <c r="A1444" s="1" t="s">
+      <c r="AJ1447" s="3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:36">
+      <c r="A1448" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1444" s="5">
+      <c r="B1448" s="5">
         <f t="shared" si="18"/>
         <v>37062.775000000001</v>
       </c>
-      <c r="C1444" s="23">
+      <c r="C1448" s="23">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D1444" s="3">
-        <v>99</v>
-      </c>
-      <c r="E1444" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AA1444" s="58">
+      <c r="D1448" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="E1448" s="3">
+        <v>694</v>
+      </c>
+      <c r="AA1448" s="52">
         <v>9.9000000000000021</v>
       </c>
-      <c r="AB1444" s="58"/>
-      <c r="AC1444" s="58">
+      <c r="AB1448" s="52"/>
+      <c r="AC1448" s="52">
         <v>24.2</v>
       </c>
-      <c r="AD1444" s="58">
+      <c r="AD1448" s="52">
         <v>56.908689999999993</v>
       </c>
-    </row>
-    <row r="1445" spans="1:35">
-      <c r="A1445" s="1" t="s">
+      <c r="AJ1448" s="3">
+        <v>8.199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:36">
+      <c r="A1449" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1445" s="5">
+      <c r="B1449" s="5">
         <f t="shared" si="18"/>
         <v>37537.599999999999</v>
       </c>
-      <c r="C1445" s="1">
+      <c r="C1449" s="1">
         <v>6.4</v>
       </c>
-      <c r="D1445" s="3">
-        <v>99</v>
-      </c>
-      <c r="E1445" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AA1445" s="59">
+      <c r="D1449" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="E1449" s="3">
+        <v>694</v>
+      </c>
+      <c r="AA1449" s="53">
         <v>11.1</v>
       </c>
-      <c r="AB1445" s="59">
+      <c r="AB1449" s="53">
         <v>18.899999999999999</v>
       </c>
-      <c r="AC1445" s="59">
+      <c r="AC1449" s="53">
         <v>27.3</v>
       </c>
-      <c r="AD1445" s="59">
+      <c r="AD1449" s="53">
         <v>76.7</v>
       </c>
-    </row>
-    <row r="1446" spans="1:35" ht="13.5" thickBot="1"/>
-    <row r="1447" spans="1:35">
-      <c r="U1447" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="V1447" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1447" s="55"/>
-      <c r="X1447" s="55"/>
-      <c r="Y1447" s="55"/>
-      <c r="Z1447" s="55"/>
-      <c r="AA1447" s="55"/>
-      <c r="AB1447" s="55"/>
-      <c r="AC1447" s="55"/>
-      <c r="AD1447" s="55"/>
-      <c r="AE1447" s="55"/>
-      <c r="AF1447" s="55"/>
-      <c r="AG1447" s="55"/>
-      <c r="AH1447" s="55"/>
-      <c r="AI1447" s="56"/>
-    </row>
-    <row r="1448" spans="1:35" ht="13.5" thickBot="1">
-      <c r="U1448" s="52"/>
-      <c r="V1448" s="50">
-        <v>2.4</v>
-      </c>
-      <c r="W1448" s="55"/>
-      <c r="X1448" s="55"/>
-      <c r="Y1448" s="55"/>
-      <c r="Z1448" s="55"/>
-      <c r="AA1448" s="55"/>
-      <c r="AB1448" s="55"/>
-      <c r="AC1448" s="55"/>
-      <c r="AD1448" s="55"/>
-      <c r="AE1448" s="55"/>
-      <c r="AF1448" s="55"/>
-      <c r="AG1448" s="55"/>
-      <c r="AH1448" s="55"/>
-      <c r="AI1448" s="56"/>
-    </row>
-    <row r="1449" spans="1:35">
-      <c r="U1449" s="53">
-        <v>1.2</v>
-      </c>
-      <c r="V1449" s="54">
-        <v>2</v>
-      </c>
-      <c r="W1449" s="57"/>
-      <c r="X1449" s="57"/>
-      <c r="Y1449" s="57"/>
-      <c r="Z1449" s="57"/>
-      <c r="AA1449" s="57"/>
-      <c r="AB1449" s="57"/>
-      <c r="AC1449" s="57"/>
-      <c r="AD1449" s="57"/>
-      <c r="AE1449" s="57"/>
-      <c r="AF1449" s="57"/>
-      <c r="AG1449" s="57"/>
-      <c r="AH1449" s="57"/>
-      <c r="AI1449" s="56"/>
-    </row>
-    <row r="1450" spans="1:35">
-      <c r="U1450" s="3">
-        <f>U1449</f>
-        <v>1.2</v>
-      </c>
-      <c r="V1450" s="3">
-        <f>U1450+V1449</f>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:35">
-      <c r="U1451" s="3">
-        <f>U1450+0.3</f>
-        <v>1.5</v>
-      </c>
-      <c r="V1451" s="3">
-        <f t="shared" ref="V1451:Z1451" si="19">V1450+0.3</f>
-        <v>3.5</v>
-      </c>
-      <c r="AA1451" s="1"/>
-      <c r="AB1451" s="1"/>
-      <c r="AC1451" s="1"/>
-      <c r="AD1451" s="1"/>
-      <c r="AE1451" s="1"/>
-      <c r="AF1451" s="1"/>
-      <c r="AG1451" s="1"/>
-      <c r="AH1451" s="1"/>
+      <c r="AJ1449" s="3">
+        <v>7.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:36">
+      <c r="B1450" s="54"/>
+      <c r="C1450" s="23"/>
+    </row>
+    <row r="1451" spans="1:36">
+      <c r="W1451" s="49"/>
+      <c r="X1451" s="49"/>
+      <c r="Y1451" s="49"/>
+      <c r="Z1451" s="49"/>
+      <c r="AA1451" s="49"/>
+      <c r="AB1451" s="49"/>
+      <c r="AC1451" s="49"/>
+      <c r="AD1451" s="49"/>
+      <c r="AE1451" s="49"/>
+      <c r="AF1451" s="49"/>
+      <c r="AG1451" s="49"/>
+      <c r="AH1451" s="49"/>
+      <c r="AI1451" s="50"/>
+    </row>
+    <row r="1452" spans="1:36">
+      <c r="W1452" s="49"/>
+      <c r="X1452" s="49"/>
+      <c r="Y1452" s="49"/>
+      <c r="Z1452" s="49"/>
+      <c r="AA1452" s="49"/>
+      <c r="AB1452" s="49"/>
+      <c r="AC1452" s="49"/>
+      <c r="AD1452" s="49"/>
+      <c r="AE1452" s="49"/>
+      <c r="AF1452" s="49"/>
+      <c r="AG1452" s="49"/>
+      <c r="AH1452" s="49"/>
+      <c r="AI1452" s="50"/>
+    </row>
+    <row r="1453" spans="1:36">
+      <c r="T1453" s="50"/>
+      <c r="U1453" s="51"/>
+      <c r="V1453" s="51"/>
+      <c r="W1453" s="51"/>
+      <c r="X1453" s="51"/>
+      <c r="Y1453" s="51"/>
+      <c r="Z1453" s="51"/>
+      <c r="AA1453" s="51"/>
+      <c r="AB1453" s="51"/>
+      <c r="AC1453" s="51"/>
+      <c r="AD1453" s="51"/>
+      <c r="AE1453" s="51"/>
+      <c r="AF1453" s="51"/>
+      <c r="AG1453" s="51"/>
+      <c r="AH1453" s="51"/>
+      <c r="AI1453" s="50"/>
+    </row>
+    <row r="1455" spans="1:36">
+      <c r="AA1455" s="1"/>
+      <c r="AB1455" s="1"/>
+      <c r="AC1455" s="1"/>
+      <c r="AD1455" s="1"/>
+      <c r="AE1455" s="1"/>
+      <c r="AF1455" s="1"/>
+      <c r="AG1455" s="1"/>
+      <c r="AH1455" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A238:BK627">
     <sortCondition ref="A268:A627"/>
     <sortCondition ref="C268:C627"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="U1447:U1448"/>
-  </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437DF84-DE40-44FF-9A70-5F3ED9D8A804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276604AB-B48F-40A3-B886-8C03C6C96BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="115">
   <si>
     <t>SimulationName</t>
   </si>
@@ -392,6 +392,15 @@
   <si>
     <t>321GYMR1</t>
   </si>
+  <si>
+    <t>248MBRF1ContainerLargeMound</t>
+  </si>
+  <si>
+    <t>251MBRF1MB6</t>
+  </si>
+  <si>
+    <t>350GYMHighFWC</t>
+  </si>
 </sst>
 </file>
 
@@ -403,7 +412,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -492,6 +501,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -540,7 +554,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -636,6 +650,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="0.0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1015,13 +1033,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:BT1455"/>
+  <dimension ref="A1:BT1463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F1406" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AA1418" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1447" sqref="F1447"/>
+      <selection pane="bottomRight" activeCell="B1458" sqref="B1458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -54951,18 +54969,47 @@
       </c>
     </row>
     <row r="1450" spans="1:36">
-      <c r="B1450" s="54"/>
-      <c r="C1450" s="23"/>
+      <c r="A1450" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1450" s="54">
+        <v>36600</v>
+      </c>
+      <c r="C1450" s="23">
+        <v>0</v>
+      </c>
+      <c r="D1450" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1450" s="1">
+        <v>833</v>
+      </c>
     </row>
     <row r="1451" spans="1:36">
+      <c r="A1451" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1451" s="5">
+        <f>B$1450+365.25*C1451</f>
+        <v>37421.8125</v>
+      </c>
+      <c r="C1451" s="23">
+        <v>2.25</v>
+      </c>
+      <c r="D1451" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1451" s="1">
+        <v>833</v>
+      </c>
       <c r="W1451" s="49"/>
       <c r="X1451" s="49"/>
       <c r="Y1451" s="49"/>
       <c r="Z1451" s="49"/>
-      <c r="AA1451" s="49"/>
-      <c r="AB1451" s="49"/>
-      <c r="AC1451" s="49"/>
-      <c r="AD1451" s="49"/>
+      <c r="AA1451" s="53"/>
+      <c r="AB1451" s="53"/>
+      <c r="AC1451" s="53"/>
+      <c r="AD1451" s="53"/>
       <c r="AE1451" s="49"/>
       <c r="AF1451" s="49"/>
       <c r="AG1451" s="49"/>
@@ -54970,14 +55017,30 @@
       <c r="AI1451" s="50"/>
     </row>
     <row r="1452" spans="1:36">
+      <c r="A1452" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1452" s="5">
+        <f t="shared" ref="B1452:B1455" si="20">B$1450+365.25*C1452</f>
+        <v>37798.019999999997</v>
+      </c>
+      <c r="C1452" s="23">
+        <v>3.28</v>
+      </c>
+      <c r="D1452" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1452" s="1">
+        <v>833</v>
+      </c>
       <c r="W1452" s="49"/>
       <c r="X1452" s="49"/>
       <c r="Y1452" s="49"/>
       <c r="Z1452" s="49"/>
-      <c r="AA1452" s="49"/>
-      <c r="AB1452" s="49"/>
-      <c r="AC1452" s="49"/>
-      <c r="AD1452" s="49"/>
+      <c r="AA1452" s="53"/>
+      <c r="AB1452" s="53"/>
+      <c r="AC1452" s="53"/>
+      <c r="AD1452" s="53"/>
       <c r="AE1452" s="49"/>
       <c r="AF1452" s="49"/>
       <c r="AG1452" s="49"/>
@@ -54985,6 +55048,22 @@
       <c r="AI1452" s="50"/>
     </row>
     <row r="1453" spans="1:36">
+      <c r="A1453" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1453" s="5">
+        <f t="shared" si="20"/>
+        <v>38981.43</v>
+      </c>
+      <c r="C1453" s="23">
+        <v>6.52</v>
+      </c>
+      <c r="D1453" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1453" s="1">
+        <v>833</v>
+      </c>
       <c r="T1453" s="50"/>
       <c r="U1453" s="51"/>
       <c r="V1453" s="51"/>
@@ -54992,25 +55071,259 @@
       <c r="X1453" s="51"/>
       <c r="Y1453" s="51"/>
       <c r="Z1453" s="51"/>
-      <c r="AA1453" s="51"/>
-      <c r="AB1453" s="51"/>
-      <c r="AC1453" s="51"/>
-      <c r="AD1453" s="51"/>
+      <c r="AA1453" s="53"/>
+      <c r="AB1453" s="53"/>
+      <c r="AD1453" s="53"/>
       <c r="AE1453" s="51"/>
       <c r="AF1453" s="51"/>
       <c r="AG1453" s="51"/>
       <c r="AH1453" s="51"/>
       <c r="AI1453" s="50"/>
     </row>
+    <row r="1454" spans="1:36">
+      <c r="A1454" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1454" s="5">
+        <f t="shared" si="20"/>
+        <v>40712.714999999997</v>
+      </c>
+      <c r="C1454" s="23">
+        <v>11.26</v>
+      </c>
+      <c r="D1454" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1454" s="1">
+        <v>833</v>
+      </c>
+      <c r="AA1454" s="55"/>
+      <c r="AB1454" s="55"/>
+      <c r="AD1454" s="55"/>
+    </row>
     <row r="1455" spans="1:36">
-      <c r="AA1455" s="1"/>
-      <c r="AB1455" s="1"/>
-      <c r="AC1455" s="1"/>
-      <c r="AD1455" s="1"/>
+      <c r="A1455" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1455" s="5">
+        <f t="shared" si="20"/>
+        <v>42126.232499999998</v>
+      </c>
+      <c r="C1455" s="23">
+        <v>15.13</v>
+      </c>
+      <c r="D1455" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1455" s="1">
+        <v>833</v>
+      </c>
+      <c r="AA1455" s="55"/>
+      <c r="AB1455" s="55"/>
       <c r="AE1455" s="1"/>
-      <c r="AF1455" s="1"/>
+      <c r="AF1455" s="55">
+        <v>414.5</v>
+      </c>
       <c r="AG1455" s="1"/>
       <c r="AH1455" s="1"/>
+    </row>
+    <row r="1456" spans="1:36">
+      <c r="A1456" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1456" s="54">
+        <v>37408</v>
+      </c>
+      <c r="C1456" s="23">
+        <v>0</v>
+      </c>
+      <c r="D1456" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1456" s="1">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:32">
+      <c r="A1457" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1457" s="54">
+        <f>B$1456+365.25*C1457</f>
+        <v>42156.25</v>
+      </c>
+      <c r="C1457" s="23">
+        <v>13</v>
+      </c>
+      <c r="D1457" s="3">
+        <f>E1457/E1456*100</f>
+        <v>97.858942065491178</v>
+      </c>
+      <c r="E1457" s="1">
+        <v>777</v>
+      </c>
+      <c r="AB1457" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="AD1457" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:32">
+      <c r="A1458" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1458" s="5">
+        <v>36285</v>
+      </c>
+      <c r="C1458" s="23">
+        <v>0</v>
+      </c>
+      <c r="D1458" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1458" s="19">
+        <v>833.3</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:32">
+      <c r="A1459" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1459" s="54">
+        <f>B$1458+365.25*C1459</f>
+        <v>36504.15</v>
+      </c>
+      <c r="C1459" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="D1459" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="E1459" s="20">
+        <f>E$1458*D1459/100</f>
+        <v>819.13390000000004</v>
+      </c>
+      <c r="F1459" s="7"/>
+      <c r="AA1459" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:32">
+      <c r="A1460" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1460" s="54">
+        <f t="shared" ref="B1460" si="21">B$1458+365.25*C1460</f>
+        <v>37307.699999999997</v>
+      </c>
+      <c r="C1460" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="D1460" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="E1460" s="20">
+        <f t="shared" ref="E1460:E1463" si="22">E$1458*D1460/100</f>
+        <v>809.13429999999994</v>
+      </c>
+      <c r="F1460" s="7"/>
+      <c r="AA1460" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB1460" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="AC1460" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AF1460" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:32">
+      <c r="A1461" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1461" s="54">
+        <f>B$1458+365.25*C1461</f>
+        <v>37782.525000000001</v>
+      </c>
+      <c r="C1461" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D1461" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="E1461" s="20">
+        <f t="shared" si="22"/>
+        <v>804.1345</v>
+      </c>
+      <c r="F1461" s="7"/>
+      <c r="AA1461" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="AB1461" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="AC1461" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="AF1461" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:32">
+      <c r="A1462" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1462" s="54">
+        <f>B$1458+365.25*C1462</f>
+        <v>38878.275000000001</v>
+      </c>
+      <c r="C1462" s="23">
+        <v>7.1</v>
+      </c>
+      <c r="D1462" s="1">
+        <v>96</v>
+      </c>
+      <c r="E1462" s="20">
+        <f t="shared" si="22"/>
+        <v>799.96799999999985</v>
+      </c>
+      <c r="F1462" s="7"/>
+    </row>
+    <row r="1463" spans="1:32">
+      <c r="A1463" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1463" s="54">
+        <f>B$1458+365.25*C1463</f>
+        <v>39243.525000000001</v>
+      </c>
+      <c r="C1463" s="23">
+        <v>8.1</v>
+      </c>
+      <c r="D1463" s="1">
+        <v>96</v>
+      </c>
+      <c r="E1463" s="20">
+        <f t="shared" si="22"/>
+        <v>799.96799999999985</v>
+      </c>
+      <c r="F1463" s="7"/>
+      <c r="AA1463" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="AB1463" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="AC1463" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="AF1463" s="1">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A238:BK627">

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276604AB-B48F-40A3-B886-8C03C6C96BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C5034D-B96F-4C32-B707-81A69B5B5D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="117">
   <si>
     <t>SimulationName</t>
   </si>
@@ -387,32 +387,40 @@
     <t>Pinus.Cone.Live.NConc</t>
   </si>
   <si>
-    <t>321GYMBL2TWC</t>
+    <t>HQP248MBRF1ContainerLargeMound</t>
   </si>
   <si>
-    <t>321GYMR1</t>
+    <t>HQP251MBRF1MB6</t>
   </si>
   <si>
-    <t>248MBRF1ContainerLargeMound</t>
+    <t>HQP3HQP21GYMR1</t>
   </si>
   <si>
-    <t>251MBRF1MB6</t>
+    <t>HQP3HQP21GYMBLHQP2TWC</t>
   </si>
   <si>
-    <t>350GYMHighFWC</t>
+    <t>HQP350GYMHighFWC</t>
+  </si>
+  <si>
+    <t>FSA703A</t>
+  </si>
+  <si>
+    <t>FSA704</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -506,6 +514,22 @@
       <color rgb="FF000000"/>
       <name val="Monospace"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -548,13 +572,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -654,9 +679,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="0.0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal_FM_data" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1033,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:BT1463"/>
+  <dimension ref="A1:BT1505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AA1418" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D1461" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1458" sqref="B1458"/>
+      <selection pane="bottomRight" activeCell="D1482" sqref="D1482:D1505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -1047,7 +1081,7 @@
     <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="3"/>
+    <col min="4" max="4" width="9.28515625" style="62"/>
     <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="3"/>
@@ -1272,6 +1306,7 @@
       <c r="C2" s="43">
         <v>10.25</v>
       </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -1327,6 +1362,7 @@
       <c r="C3" s="43">
         <v>10.5</v>
       </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -1382,6 +1418,7 @@
       <c r="C4" s="43">
         <v>10.75</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
@@ -1437,6 +1474,7 @@
       <c r="C5" s="43">
         <v>11</v>
       </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
@@ -1492,6 +1530,7 @@
       <c r="C6" s="43">
         <v>11.25</v>
       </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -1547,6 +1586,7 @@
       <c r="C7" s="43">
         <v>11.5</v>
       </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -1602,6 +1642,7 @@
       <c r="C8" s="43">
         <v>11.75</v>
       </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
@@ -1657,6 +1698,7 @@
       <c r="C9" s="43">
         <v>12</v>
       </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -1712,6 +1754,7 @@
       <c r="C10" s="43">
         <v>12.25</v>
       </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
@@ -1767,6 +1810,7 @@
       <c r="C11" s="43">
         <v>12.5</v>
       </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -1822,6 +1866,7 @@
       <c r="C12" s="43">
         <v>12.75</v>
       </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -1877,6 +1922,7 @@
       <c r="C13" s="43">
         <v>13</v>
       </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
@@ -1932,6 +1978,7 @@
       <c r="C14" s="43">
         <v>13.25</v>
       </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -1987,6 +2034,7 @@
       <c r="C15" s="43">
         <v>13.5</v>
       </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -2042,6 +2090,7 @@
       <c r="C16" s="43">
         <v>13.75</v>
       </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -2097,6 +2146,7 @@
       <c r="C17" s="43">
         <v>14</v>
       </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -2152,6 +2202,7 @@
       <c r="C18" s="43">
         <v>14.25</v>
       </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -2207,6 +2258,7 @@
       <c r="C19" s="43">
         <v>14.5</v>
       </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -2262,6 +2314,7 @@
       <c r="C20" s="43">
         <v>14.75</v>
       </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -2317,6 +2370,7 @@
       <c r="C21" s="43">
         <v>15</v>
       </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
@@ -2372,6 +2426,7 @@
       <c r="C22" s="43">
         <v>15.25</v>
       </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
@@ -2427,6 +2482,7 @@
       <c r="C23" s="43">
         <v>15.5</v>
       </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -2480,6 +2536,7 @@
       <c r="C24" s="43">
         <v>15.75</v>
       </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -2535,6 +2592,7 @@
       <c r="C25" s="43">
         <v>16</v>
       </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -2590,6 +2648,7 @@
       <c r="C26" s="43">
         <v>16.25</v>
       </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -2645,6 +2704,7 @@
       <c r="C27" s="43">
         <v>16.5</v>
       </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
@@ -2700,6 +2760,7 @@
       <c r="C28" s="43">
         <v>16.75</v>
       </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -2755,6 +2816,7 @@
       <c r="C29" s="43">
         <v>17</v>
       </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -2810,6 +2872,7 @@
       <c r="C30" s="43">
         <v>17.25</v>
       </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -2865,6 +2928,7 @@
       <c r="C31" s="43">
         <v>17.5</v>
       </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
@@ -2920,6 +2984,7 @@
       <c r="C32" s="43">
         <v>17.75</v>
       </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -2975,6 +3040,7 @@
       <c r="C33" s="43">
         <v>18</v>
       </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
@@ -3030,6 +3096,7 @@
       <c r="C34" s="43">
         <v>18.25</v>
       </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
@@ -3085,6 +3152,7 @@
       <c r="C35" s="43">
         <v>18.5</v>
       </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
@@ -3138,6 +3206,7 @@
       <c r="C36" s="43">
         <v>18.75</v>
       </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -3193,6 +3262,7 @@
       <c r="C37" s="43">
         <v>19</v>
       </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
@@ -3248,6 +3318,7 @@
       <c r="C38" s="43">
         <v>20</v>
       </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
@@ -3303,6 +3374,7 @@
       <c r="C39" s="43">
         <v>10.25</v>
       </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
@@ -3358,6 +3430,7 @@
       <c r="C40" s="43">
         <v>10.5</v>
       </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
@@ -3413,6 +3486,7 @@
       <c r="C41" s="43">
         <v>10.75</v>
       </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
@@ -3468,6 +3542,7 @@
       <c r="C42" s="43">
         <v>11</v>
       </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
@@ -3523,6 +3598,7 @@
       <c r="C43" s="43">
         <v>11.25</v>
       </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
@@ -3578,6 +3654,7 @@
       <c r="C44" s="43">
         <v>11.5</v>
       </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
@@ -3633,6 +3710,7 @@
       <c r="C45" s="43">
         <v>11.75</v>
       </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
@@ -3688,6 +3766,7 @@
       <c r="C46" s="43">
         <v>12</v>
       </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
@@ -3743,6 +3822,7 @@
       <c r="C47" s="43">
         <v>12.25</v>
       </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
@@ -3798,6 +3878,7 @@
       <c r="C48" s="43">
         <v>12.5</v>
       </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
@@ -3853,6 +3934,7 @@
       <c r="C49" s="43">
         <v>12.75</v>
       </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
@@ -3908,6 +3990,7 @@
       <c r="C50" s="43">
         <v>13</v>
       </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="29"/>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
@@ -3963,6 +4046,7 @@
       <c r="C51" s="43">
         <v>13.25</v>
       </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
@@ -4018,6 +4102,7 @@
       <c r="C52" s="43">
         <v>13.5</v>
       </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
@@ -4073,6 +4158,7 @@
       <c r="C53" s="43">
         <v>13.75</v>
       </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
@@ -4128,6 +4214,7 @@
       <c r="C54" s="43">
         <v>14</v>
       </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
@@ -4183,6 +4270,7 @@
       <c r="C55" s="43">
         <v>14.25</v>
       </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
@@ -4238,6 +4326,7 @@
       <c r="C56" s="43">
         <v>14.5</v>
       </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
@@ -4293,6 +4382,7 @@
       <c r="C57" s="43">
         <v>14.75</v>
       </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
@@ -4348,6 +4438,7 @@
       <c r="C58" s="43">
         <v>15</v>
       </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
@@ -4403,6 +4494,7 @@
       <c r="C59" s="43">
         <v>15.25</v>
       </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="29"/>
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
@@ -4458,6 +4550,7 @@
       <c r="C60" s="43">
         <v>15.5</v>
       </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="29"/>
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
@@ -4511,6 +4604,7 @@
       <c r="C61" s="43">
         <v>15.75</v>
       </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
@@ -4566,6 +4660,7 @@
       <c r="C62" s="43">
         <v>16</v>
       </c>
+      <c r="D62" s="3"/>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
@@ -4621,6 +4716,7 @@
       <c r="C63" s="43">
         <v>16.25</v>
       </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="29"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
@@ -4676,6 +4772,7 @@
       <c r="C64" s="43">
         <v>16.5</v>
       </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
@@ -4731,6 +4828,7 @@
       <c r="C65" s="43">
         <v>16.75</v>
       </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="29"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
@@ -4786,6 +4884,7 @@
       <c r="C66" s="43">
         <v>17</v>
       </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
@@ -4841,6 +4940,7 @@
       <c r="C67" s="43">
         <v>17.25</v>
       </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
@@ -4896,6 +4996,7 @@
       <c r="C68" s="43">
         <v>17.5</v>
       </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="29"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
@@ -4951,6 +5052,7 @@
       <c r="C69" s="43">
         <v>17.75</v>
       </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
@@ -5006,6 +5108,7 @@
       <c r="C70" s="43">
         <v>18</v>
       </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="29"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
@@ -5061,6 +5164,7 @@
       <c r="C71" s="43">
         <v>18.25</v>
       </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
@@ -5116,6 +5220,7 @@
       <c r="C72" s="43">
         <v>18.5</v>
       </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="29"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
@@ -5169,6 +5274,7 @@
       <c r="C73" s="43">
         <v>18.75</v>
       </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -5224,6 +5330,7 @@
       <c r="C74" s="43">
         <v>19</v>
       </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="29"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
@@ -5279,6 +5386,7 @@
       <c r="C75" s="43">
         <v>20</v>
       </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
@@ -5332,6 +5440,7 @@
       <c r="C76" s="43">
         <v>10.25</v>
       </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
@@ -5387,6 +5496,7 @@
       <c r="C77" s="43">
         <v>10.5</v>
       </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
@@ -5442,6 +5552,7 @@
       <c r="C78" s="43">
         <v>10.75</v>
       </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
@@ -5497,6 +5608,7 @@
       <c r="C79" s="43">
         <v>11</v>
       </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="29"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
@@ -5552,6 +5664,7 @@
       <c r="C80" s="43">
         <v>11.25</v>
       </c>
+      <c r="D80" s="3"/>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
@@ -5607,6 +5720,7 @@
       <c r="C81" s="43">
         <v>11.5</v>
       </c>
+      <c r="D81" s="3"/>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
@@ -5662,6 +5776,7 @@
       <c r="C82" s="43">
         <v>11.75</v>
       </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
@@ -5717,6 +5832,7 @@
       <c r="C83" s="43">
         <v>12</v>
       </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
@@ -5772,6 +5888,7 @@
       <c r="C84" s="43">
         <v>12.25</v>
       </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
@@ -5827,6 +5944,7 @@
       <c r="C85" s="43">
         <v>12.5</v>
       </c>
+      <c r="D85" s="3"/>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
@@ -5882,6 +6000,7 @@
       <c r="C86" s="43">
         <v>12.75</v>
       </c>
+      <c r="D86" s="3"/>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
@@ -5937,6 +6056,7 @@
       <c r="C87" s="43">
         <v>13</v>
       </c>
+      <c r="D87" s="3"/>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
@@ -5992,6 +6112,7 @@
       <c r="C88" s="43">
         <v>13.25</v>
       </c>
+      <c r="D88" s="3"/>
       <c r="E88" s="29"/>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
@@ -6047,6 +6168,7 @@
       <c r="C89" s="43">
         <v>13.5</v>
       </c>
+      <c r="D89" s="3"/>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
@@ -6102,6 +6224,7 @@
       <c r="C90" s="43">
         <v>13.75</v>
       </c>
+      <c r="D90" s="3"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
@@ -6157,6 +6280,7 @@
       <c r="C91" s="43">
         <v>14</v>
       </c>
+      <c r="D91" s="3"/>
       <c r="E91" s="29"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
@@ -6212,6 +6336,7 @@
       <c r="C92" s="43">
         <v>14.25</v>
       </c>
+      <c r="D92" s="3"/>
       <c r="E92" s="29"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
@@ -6267,6 +6392,7 @@
       <c r="C93" s="43">
         <v>14.5</v>
       </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="29"/>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
@@ -6322,6 +6448,7 @@
       <c r="C94" s="43">
         <v>14.75</v>
       </c>
+      <c r="D94" s="3"/>
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -6377,6 +6504,7 @@
       <c r="C95" s="43">
         <v>15</v>
       </c>
+      <c r="D95" s="3"/>
       <c r="E95" s="29"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -6432,6 +6560,7 @@
       <c r="C96" s="43">
         <v>15.25</v>
       </c>
+      <c r="D96" s="3"/>
       <c r="E96" s="29"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
@@ -6487,6 +6616,7 @@
       <c r="C97" s="43">
         <v>15.5</v>
       </c>
+      <c r="D97" s="3"/>
       <c r="E97" s="29"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
@@ -6540,6 +6670,7 @@
       <c r="C98" s="43">
         <v>15.75</v>
       </c>
+      <c r="D98" s="3"/>
       <c r="E98" s="29"/>
       <c r="F98" s="29"/>
       <c r="G98" s="29"/>
@@ -6595,6 +6726,7 @@
       <c r="C99" s="43">
         <v>16</v>
       </c>
+      <c r="D99" s="3"/>
       <c r="E99" s="29"/>
       <c r="F99" s="29"/>
       <c r="G99" s="29"/>
@@ -6650,6 +6782,7 @@
       <c r="C100" s="43">
         <v>16.25</v>
       </c>
+      <c r="D100" s="3"/>
       <c r="E100" s="29"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -6705,6 +6838,7 @@
       <c r="C101" s="43">
         <v>16.5</v>
       </c>
+      <c r="D101" s="3"/>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
@@ -6760,6 +6894,7 @@
       <c r="C102" s="43">
         <v>16.75</v>
       </c>
+      <c r="D102" s="3"/>
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -6815,6 +6950,7 @@
       <c r="C103" s="43">
         <v>17</v>
       </c>
+      <c r="D103" s="3"/>
       <c r="E103" s="29"/>
       <c r="F103" s="29"/>
       <c r="G103" s="29"/>
@@ -6870,6 +7006,7 @@
       <c r="C104" s="43">
         <v>17.25</v>
       </c>
+      <c r="D104" s="3"/>
       <c r="E104" s="29"/>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
@@ -6925,6 +7062,7 @@
       <c r="C105" s="43">
         <v>17.5</v>
       </c>
+      <c r="D105" s="3"/>
       <c r="E105" s="29"/>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
@@ -6980,6 +7118,7 @@
       <c r="C106" s="43">
         <v>17.75</v>
       </c>
+      <c r="D106" s="3"/>
       <c r="E106" s="29"/>
       <c r="F106" s="29"/>
       <c r="G106" s="29"/>
@@ -7035,6 +7174,7 @@
       <c r="C107" s="43">
         <v>18</v>
       </c>
+      <c r="D107" s="3"/>
       <c r="E107" s="29"/>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -7090,6 +7230,7 @@
       <c r="C108" s="43">
         <v>18.25</v>
       </c>
+      <c r="D108" s="3"/>
       <c r="E108" s="29"/>
       <c r="F108" s="29"/>
       <c r="G108" s="29"/>
@@ -7145,6 +7286,7 @@
       <c r="C109" s="43">
         <v>18.5</v>
       </c>
+      <c r="D109" s="3"/>
       <c r="E109" s="29"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
@@ -7198,6 +7340,7 @@
       <c r="C110" s="43">
         <v>18.75</v>
       </c>
+      <c r="D110" s="3"/>
       <c r="E110" s="29"/>
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
@@ -7253,6 +7396,7 @@
       <c r="C111" s="43">
         <v>19</v>
       </c>
+      <c r="D111" s="3"/>
       <c r="E111" s="29"/>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
@@ -7308,6 +7452,7 @@
       <c r="C112" s="43">
         <v>20</v>
       </c>
+      <c r="D112" s="3"/>
       <c r="E112" s="29"/>
       <c r="F112" s="29"/>
       <c r="G112" s="29"/>
@@ -7363,6 +7508,7 @@
       <c r="C113" s="43">
         <v>10.25</v>
       </c>
+      <c r="D113" s="3"/>
       <c r="E113" s="29"/>
       <c r="F113" s="29"/>
       <c r="G113" s="29"/>
@@ -7418,6 +7564,7 @@
       <c r="C114" s="43">
         <v>10.5</v>
       </c>
+      <c r="D114" s="3"/>
       <c r="E114" s="29"/>
       <c r="F114" s="29"/>
       <c r="G114" s="29"/>
@@ -7473,6 +7620,7 @@
       <c r="C115" s="43">
         <v>10.75</v>
       </c>
+      <c r="D115" s="3"/>
       <c r="E115" s="29"/>
       <c r="F115" s="29"/>
       <c r="G115" s="29"/>
@@ -7528,6 +7676,7 @@
       <c r="C116" s="43">
         <v>11</v>
       </c>
+      <c r="D116" s="3"/>
       <c r="E116" s="29"/>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
@@ -7583,6 +7732,7 @@
       <c r="C117" s="43">
         <v>11.25</v>
       </c>
+      <c r="D117" s="3"/>
       <c r="E117" s="29"/>
       <c r="F117" s="29"/>
       <c r="G117" s="29"/>
@@ -7638,6 +7788,7 @@
       <c r="C118" s="43">
         <v>11.5</v>
       </c>
+      <c r="D118" s="3"/>
       <c r="E118" s="29"/>
       <c r="F118" s="29"/>
       <c r="G118" s="29"/>
@@ -7693,6 +7844,7 @@
       <c r="C119" s="43">
         <v>11.75</v>
       </c>
+      <c r="D119" s="3"/>
       <c r="E119" s="29"/>
       <c r="F119" s="29"/>
       <c r="G119" s="29"/>
@@ -7748,6 +7900,7 @@
       <c r="C120" s="43">
         <v>12</v>
       </c>
+      <c r="D120" s="3"/>
       <c r="E120" s="29"/>
       <c r="F120" s="29"/>
       <c r="G120" s="29"/>
@@ -7803,6 +7956,7 @@
       <c r="C121" s="43">
         <v>12.25</v>
       </c>
+      <c r="D121" s="3"/>
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
@@ -7858,6 +8012,7 @@
       <c r="C122" s="43">
         <v>12.5</v>
       </c>
+      <c r="D122" s="3"/>
       <c r="E122" s="29"/>
       <c r="F122" s="29"/>
       <c r="G122" s="29"/>
@@ -7913,6 +8068,7 @@
       <c r="C123" s="43">
         <v>12.75</v>
       </c>
+      <c r="D123" s="3"/>
       <c r="E123" s="29"/>
       <c r="F123" s="29"/>
       <c r="G123" s="29"/>
@@ -7968,6 +8124,7 @@
       <c r="C124" s="43">
         <v>13</v>
       </c>
+      <c r="D124" s="3"/>
       <c r="E124" s="29"/>
       <c r="F124" s="29"/>
       <c r="G124" s="29"/>
@@ -8023,6 +8180,7 @@
       <c r="C125" s="43">
         <v>13.25</v>
       </c>
+      <c r="D125" s="3"/>
       <c r="E125" s="29"/>
       <c r="F125" s="29"/>
       <c r="G125" s="29"/>
@@ -8078,6 +8236,7 @@
       <c r="C126" s="43">
         <v>13.5</v>
       </c>
+      <c r="D126" s="3"/>
       <c r="E126" s="29"/>
       <c r="F126" s="29"/>
       <c r="G126" s="29"/>
@@ -8133,6 +8292,7 @@
       <c r="C127" s="43">
         <v>13.75</v>
       </c>
+      <c r="D127" s="3"/>
       <c r="E127" s="29"/>
       <c r="F127" s="29"/>
       <c r="G127" s="29"/>
@@ -8188,6 +8348,7 @@
       <c r="C128" s="43">
         <v>14</v>
       </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
       <c r="G128" s="29"/>
@@ -8243,6 +8404,7 @@
       <c r="C129" s="43">
         <v>14.25</v>
       </c>
+      <c r="D129" s="3"/>
       <c r="E129" s="29"/>
       <c r="F129" s="29"/>
       <c r="G129" s="29"/>
@@ -8298,6 +8460,7 @@
       <c r="C130" s="43">
         <v>14.5</v>
       </c>
+      <c r="D130" s="3"/>
       <c r="E130" s="29"/>
       <c r="F130" s="29"/>
       <c r="G130" s="29"/>
@@ -8353,6 +8516,7 @@
       <c r="C131" s="43">
         <v>14.75</v>
       </c>
+      <c r="D131" s="3"/>
       <c r="E131" s="29"/>
       <c r="F131" s="29"/>
       <c r="G131" s="29"/>
@@ -8408,6 +8572,7 @@
       <c r="C132" s="43">
         <v>15</v>
       </c>
+      <c r="D132" s="3"/>
       <c r="E132" s="29"/>
       <c r="F132" s="29"/>
       <c r="G132" s="29"/>
@@ -8463,6 +8628,7 @@
       <c r="C133" s="43">
         <v>15.25</v>
       </c>
+      <c r="D133" s="3"/>
       <c r="E133" s="29"/>
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
@@ -8518,6 +8684,7 @@
       <c r="C134" s="43">
         <v>15.5</v>
       </c>
+      <c r="D134" s="3"/>
       <c r="E134" s="29"/>
       <c r="F134" s="29"/>
       <c r="G134" s="29"/>
@@ -8571,6 +8738,7 @@
       <c r="C135" s="43">
         <v>15.75</v>
       </c>
+      <c r="D135" s="3"/>
       <c r="E135" s="29"/>
       <c r="F135" s="29"/>
       <c r="G135" s="29"/>
@@ -8626,6 +8794,7 @@
       <c r="C136" s="43">
         <v>16</v>
       </c>
+      <c r="D136" s="3"/>
       <c r="E136" s="29"/>
       <c r="F136" s="29"/>
       <c r="G136" s="29"/>
@@ -8681,6 +8850,7 @@
       <c r="C137" s="43">
         <v>16.25</v>
       </c>
+      <c r="D137" s="3"/>
       <c r="E137" s="29"/>
       <c r="F137" s="29"/>
       <c r="G137" s="29"/>
@@ -8736,6 +8906,7 @@
       <c r="C138" s="43">
         <v>16.5</v>
       </c>
+      <c r="D138" s="3"/>
       <c r="E138" s="29"/>
       <c r="F138" s="29"/>
       <c r="G138" s="29"/>
@@ -8791,6 +8962,7 @@
       <c r="C139" s="43">
         <v>16.75</v>
       </c>
+      <c r="D139" s="3"/>
       <c r="E139" s="29"/>
       <c r="F139" s="29"/>
       <c r="G139" s="29"/>
@@ -8846,6 +9018,7 @@
       <c r="C140" s="43">
         <v>17</v>
       </c>
+      <c r="D140" s="3"/>
       <c r="E140" s="29"/>
       <c r="F140" s="29"/>
       <c r="G140" s="29"/>
@@ -8901,6 +9074,7 @@
       <c r="C141" s="43">
         <v>17.25</v>
       </c>
+      <c r="D141" s="3"/>
       <c r="E141" s="29"/>
       <c r="F141" s="29"/>
       <c r="G141" s="29"/>
@@ -8956,6 +9130,7 @@
       <c r="C142" s="43">
         <v>17.5</v>
       </c>
+      <c r="D142" s="3"/>
       <c r="E142" s="29"/>
       <c r="F142" s="29"/>
       <c r="G142" s="29"/>
@@ -9011,6 +9186,7 @@
       <c r="C143" s="43">
         <v>17.75</v>
       </c>
+      <c r="D143" s="3"/>
       <c r="E143" s="29"/>
       <c r="F143" s="29"/>
       <c r="G143" s="29"/>
@@ -9066,6 +9242,7 @@
       <c r="C144" s="43">
         <v>18</v>
       </c>
+      <c r="D144" s="3"/>
       <c r="E144" s="29"/>
       <c r="F144" s="29"/>
       <c r="G144" s="29"/>
@@ -9121,6 +9298,7 @@
       <c r="C145" s="43">
         <v>18.25</v>
       </c>
+      <c r="D145" s="3"/>
       <c r="E145" s="29"/>
       <c r="F145" s="29"/>
       <c r="G145" s="29"/>
@@ -9176,6 +9354,7 @@
       <c r="C146" s="43">
         <v>18.5</v>
       </c>
+      <c r="D146" s="3"/>
       <c r="E146" s="29"/>
       <c r="F146" s="29"/>
       <c r="G146" s="29"/>
@@ -9229,6 +9408,7 @@
       <c r="C147" s="43">
         <v>18.75</v>
       </c>
+      <c r="D147" s="3"/>
       <c r="E147" s="29"/>
       <c r="F147" s="29"/>
       <c r="G147" s="29"/>
@@ -9284,6 +9464,7 @@
       <c r="C148" s="43">
         <v>19</v>
       </c>
+      <c r="D148" s="3"/>
       <c r="E148" s="29"/>
       <c r="F148" s="29"/>
       <c r="G148" s="29"/>
@@ -9339,6 +9520,7 @@
       <c r="C149" s="43">
         <v>20</v>
       </c>
+      <c r="D149" s="3"/>
       <c r="E149" s="29"/>
       <c r="F149" s="29"/>
       <c r="G149" s="29"/>
@@ -9392,6 +9574,7 @@
       <c r="C150" s="43">
         <v>10.25</v>
       </c>
+      <c r="D150" s="3"/>
       <c r="E150" s="29"/>
       <c r="F150" s="29"/>
       <c r="G150" s="29"/>
@@ -9447,6 +9630,7 @@
       <c r="C151" s="43">
         <v>10.5</v>
       </c>
+      <c r="D151" s="3"/>
       <c r="E151" s="29"/>
       <c r="F151" s="29"/>
       <c r="G151" s="29"/>
@@ -9502,6 +9686,7 @@
       <c r="C152" s="43">
         <v>10.75</v>
       </c>
+      <c r="D152" s="3"/>
       <c r="E152" s="29"/>
       <c r="F152" s="29"/>
       <c r="G152" s="29"/>
@@ -9557,6 +9742,7 @@
       <c r="C153" s="43">
         <v>11</v>
       </c>
+      <c r="D153" s="3"/>
       <c r="E153" s="29"/>
       <c r="F153" s="29"/>
       <c r="G153" s="29"/>
@@ -9612,6 +9798,7 @@
       <c r="C154" s="43">
         <v>11.25</v>
       </c>
+      <c r="D154" s="3"/>
       <c r="E154" s="29"/>
       <c r="F154" s="29"/>
       <c r="G154" s="29"/>
@@ -9667,6 +9854,7 @@
       <c r="C155" s="43">
         <v>11.5</v>
       </c>
+      <c r="D155" s="3"/>
       <c r="E155" s="29"/>
       <c r="F155" s="29"/>
       <c r="G155" s="29"/>
@@ -9722,6 +9910,7 @@
       <c r="C156" s="43">
         <v>11.75</v>
       </c>
+      <c r="D156" s="3"/>
       <c r="E156" s="29"/>
       <c r="F156" s="29"/>
       <c r="G156" s="29"/>
@@ -9777,6 +9966,7 @@
       <c r="C157" s="43">
         <v>12</v>
       </c>
+      <c r="D157" s="3"/>
       <c r="E157" s="29"/>
       <c r="F157" s="29"/>
       <c r="G157" s="29"/>
@@ -9832,6 +10022,7 @@
       <c r="C158" s="43">
         <v>12.25</v>
       </c>
+      <c r="D158" s="3"/>
       <c r="E158" s="29"/>
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
@@ -9887,6 +10078,7 @@
       <c r="C159" s="43">
         <v>12.5</v>
       </c>
+      <c r="D159" s="3"/>
       <c r="E159" s="29"/>
       <c r="F159" s="29"/>
       <c r="G159" s="29"/>
@@ -9942,6 +10134,7 @@
       <c r="C160" s="43">
         <v>12.75</v>
       </c>
+      <c r="D160" s="3"/>
       <c r="E160" s="29"/>
       <c r="F160" s="29"/>
       <c r="G160" s="29"/>
@@ -9997,6 +10190,7 @@
       <c r="C161" s="43">
         <v>13</v>
       </c>
+      <c r="D161" s="3"/>
       <c r="E161" s="29"/>
       <c r="F161" s="29"/>
       <c r="G161" s="29"/>
@@ -10052,6 +10246,7 @@
       <c r="C162" s="43">
         <v>13.25</v>
       </c>
+      <c r="D162" s="3"/>
       <c r="E162" s="29"/>
       <c r="F162" s="29"/>
       <c r="G162" s="29"/>
@@ -10107,6 +10302,7 @@
       <c r="C163" s="43">
         <v>13.5</v>
       </c>
+      <c r="D163" s="3"/>
       <c r="E163" s="29"/>
       <c r="F163" s="29"/>
       <c r="G163" s="29"/>
@@ -10162,6 +10358,7 @@
       <c r="C164" s="43">
         <v>13.75</v>
       </c>
+      <c r="D164" s="3"/>
       <c r="E164" s="29"/>
       <c r="F164" s="29"/>
       <c r="G164" s="29"/>
@@ -10217,6 +10414,7 @@
       <c r="C165" s="43">
         <v>14</v>
       </c>
+      <c r="D165" s="3"/>
       <c r="E165" s="29"/>
       <c r="F165" s="29"/>
       <c r="G165" s="29"/>
@@ -10272,6 +10470,7 @@
       <c r="C166" s="43">
         <v>14.25</v>
       </c>
+      <c r="D166" s="3"/>
       <c r="E166" s="29"/>
       <c r="F166" s="29"/>
       <c r="G166" s="29"/>
@@ -10327,6 +10526,7 @@
       <c r="C167" s="43">
         <v>14.5</v>
       </c>
+      <c r="D167" s="3"/>
       <c r="E167" s="29"/>
       <c r="F167" s="29"/>
       <c r="G167" s="29"/>
@@ -10382,6 +10582,7 @@
       <c r="C168" s="43">
         <v>14.75</v>
       </c>
+      <c r="D168" s="3"/>
       <c r="E168" s="29"/>
       <c r="F168" s="29"/>
       <c r="G168" s="29"/>
@@ -10437,6 +10638,7 @@
       <c r="C169" s="43">
         <v>15</v>
       </c>
+      <c r="D169" s="3"/>
       <c r="E169" s="29"/>
       <c r="F169" s="29"/>
       <c r="G169" s="29"/>
@@ -10492,6 +10694,7 @@
       <c r="C170" s="43">
         <v>15.25</v>
       </c>
+      <c r="D170" s="3"/>
       <c r="E170" s="29"/>
       <c r="F170" s="29"/>
       <c r="G170" s="29"/>
@@ -10547,6 +10750,7 @@
       <c r="C171" s="43">
         <v>15.5</v>
       </c>
+      <c r="D171" s="3"/>
       <c r="E171" s="29"/>
       <c r="F171" s="29"/>
       <c r="G171" s="29"/>
@@ -10600,6 +10804,7 @@
       <c r="C172" s="43">
         <v>15.75</v>
       </c>
+      <c r="D172" s="3"/>
       <c r="E172" s="29"/>
       <c r="F172" s="29"/>
       <c r="G172" s="29"/>
@@ -10655,6 +10860,7 @@
       <c r="C173" s="43">
         <v>16</v>
       </c>
+      <c r="D173" s="3"/>
       <c r="E173" s="29"/>
       <c r="F173" s="29"/>
       <c r="G173" s="29"/>
@@ -10710,6 +10916,7 @@
       <c r="C174" s="43">
         <v>16.25</v>
       </c>
+      <c r="D174" s="3"/>
       <c r="E174" s="29"/>
       <c r="F174" s="29"/>
       <c r="G174" s="29"/>
@@ -10765,6 +10972,7 @@
       <c r="C175" s="43">
         <v>16.5</v>
       </c>
+      <c r="D175" s="3"/>
       <c r="E175" s="29"/>
       <c r="F175" s="29"/>
       <c r="G175" s="29"/>
@@ -10820,6 +11028,7 @@
       <c r="C176" s="43">
         <v>16.75</v>
       </c>
+      <c r="D176" s="3"/>
       <c r="E176" s="29"/>
       <c r="F176" s="29"/>
       <c r="G176" s="29"/>
@@ -10875,6 +11084,7 @@
       <c r="C177" s="43">
         <v>17</v>
       </c>
+      <c r="D177" s="3"/>
       <c r="E177" s="29"/>
       <c r="F177" s="29"/>
       <c r="G177" s="29"/>
@@ -10930,6 +11140,7 @@
       <c r="C178" s="43">
         <v>17.25</v>
       </c>
+      <c r="D178" s="3"/>
       <c r="E178" s="29"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29"/>
@@ -10985,6 +11196,7 @@
       <c r="C179" s="43">
         <v>17.5</v>
       </c>
+      <c r="D179" s="3"/>
       <c r="E179" s="29"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29"/>
@@ -11040,6 +11252,7 @@
       <c r="C180" s="43">
         <v>17.75</v>
       </c>
+      <c r="D180" s="3"/>
       <c r="E180" s="29"/>
       <c r="F180" s="29"/>
       <c r="G180" s="29"/>
@@ -11095,6 +11308,7 @@
       <c r="C181" s="43">
         <v>18</v>
       </c>
+      <c r="D181" s="3"/>
       <c r="E181" s="29"/>
       <c r="F181" s="29"/>
       <c r="G181" s="29"/>
@@ -11150,6 +11364,7 @@
       <c r="C182" s="43">
         <v>18.25</v>
       </c>
+      <c r="D182" s="3"/>
       <c r="E182" s="29"/>
       <c r="F182" s="29"/>
       <c r="G182" s="29"/>
@@ -11205,6 +11420,7 @@
       <c r="C183" s="43">
         <v>18.5</v>
       </c>
+      <c r="D183" s="3"/>
       <c r="E183" s="29"/>
       <c r="F183" s="29"/>
       <c r="G183" s="29"/>
@@ -11258,6 +11474,7 @@
       <c r="C184" s="43">
         <v>18.75</v>
       </c>
+      <c r="D184" s="3"/>
       <c r="E184" s="29"/>
       <c r="F184" s="29"/>
       <c r="G184" s="29"/>
@@ -11313,6 +11530,7 @@
       <c r="C185" s="43">
         <v>19</v>
       </c>
+      <c r="D185" s="3"/>
       <c r="E185" s="29"/>
       <c r="F185" s="29"/>
       <c r="G185" s="29"/>
@@ -11368,6 +11586,7 @@
       <c r="C186" s="43">
         <v>20</v>
       </c>
+      <c r="D186" s="3"/>
       <c r="E186" s="29"/>
       <c r="F186" s="29"/>
       <c r="G186" s="29"/>
@@ -11423,6 +11642,7 @@
       <c r="C187" s="43">
         <v>10.25</v>
       </c>
+      <c r="D187" s="3"/>
       <c r="E187" s="29"/>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
@@ -11478,6 +11698,7 @@
       <c r="C188" s="43">
         <v>10.5</v>
       </c>
+      <c r="D188" s="3"/>
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="29"/>
@@ -11533,6 +11754,7 @@
       <c r="C189" s="43">
         <v>10.75</v>
       </c>
+      <c r="D189" s="3"/>
       <c r="E189" s="29"/>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
@@ -11588,6 +11810,7 @@
       <c r="C190" s="43">
         <v>11</v>
       </c>
+      <c r="D190" s="3"/>
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
@@ -11643,6 +11866,7 @@
       <c r="C191" s="43">
         <v>11.25</v>
       </c>
+      <c r="D191" s="3"/>
       <c r="E191" s="29"/>
       <c r="F191" s="29"/>
       <c r="G191" s="29"/>
@@ -11698,6 +11922,7 @@
       <c r="C192" s="43">
         <v>11.5</v>
       </c>
+      <c r="D192" s="3"/>
       <c r="E192" s="29"/>
       <c r="F192" s="29"/>
       <c r="G192" s="29"/>
@@ -11753,6 +11978,7 @@
       <c r="C193" s="43">
         <v>11.75</v>
       </c>
+      <c r="D193" s="3"/>
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
       <c r="G193" s="29"/>
@@ -11808,6 +12034,7 @@
       <c r="C194" s="43">
         <v>12</v>
       </c>
+      <c r="D194" s="3"/>
       <c r="E194" s="29"/>
       <c r="F194" s="29"/>
       <c r="G194" s="29"/>
@@ -11863,6 +12090,7 @@
       <c r="C195" s="43">
         <v>12.25</v>
       </c>
+      <c r="D195" s="3"/>
       <c r="E195" s="29"/>
       <c r="F195" s="29"/>
       <c r="G195" s="29"/>
@@ -11918,6 +12146,7 @@
       <c r="C196" s="43">
         <v>12.5</v>
       </c>
+      <c r="D196" s="3"/>
       <c r="E196" s="29"/>
       <c r="F196" s="29"/>
       <c r="G196" s="29"/>
@@ -11973,6 +12202,7 @@
       <c r="C197" s="43">
         <v>12.75</v>
       </c>
+      <c r="D197" s="3"/>
       <c r="E197" s="29"/>
       <c r="F197" s="29"/>
       <c r="G197" s="29"/>
@@ -12028,6 +12258,7 @@
       <c r="C198" s="43">
         <v>13</v>
       </c>
+      <c r="D198" s="3"/>
       <c r="E198" s="29"/>
       <c r="F198" s="29"/>
       <c r="G198" s="29"/>
@@ -12083,6 +12314,7 @@
       <c r="C199" s="43">
         <v>13.25</v>
       </c>
+      <c r="D199" s="3"/>
       <c r="E199" s="29"/>
       <c r="F199" s="29"/>
       <c r="G199" s="29"/>
@@ -12138,6 +12370,7 @@
       <c r="C200" s="43">
         <v>13.5</v>
       </c>
+      <c r="D200" s="3"/>
       <c r="E200" s="29"/>
       <c r="F200" s="29"/>
       <c r="G200" s="29"/>
@@ -12193,6 +12426,7 @@
       <c r="C201" s="43">
         <v>13.75</v>
       </c>
+      <c r="D201" s="3"/>
       <c r="E201" s="29"/>
       <c r="F201" s="29"/>
       <c r="G201" s="29"/>
@@ -12248,6 +12482,7 @@
       <c r="C202" s="43">
         <v>14</v>
       </c>
+      <c r="D202" s="3"/>
       <c r="E202" s="29"/>
       <c r="F202" s="29"/>
       <c r="G202" s="29"/>
@@ -12303,6 +12538,7 @@
       <c r="C203" s="43">
         <v>14.25</v>
       </c>
+      <c r="D203" s="3"/>
       <c r="E203" s="29"/>
       <c r="F203" s="29"/>
       <c r="G203" s="29"/>
@@ -12358,6 +12594,7 @@
       <c r="C204" s="43">
         <v>14.5</v>
       </c>
+      <c r="D204" s="3"/>
       <c r="E204" s="29"/>
       <c r="F204" s="29"/>
       <c r="G204" s="29"/>
@@ -12413,6 +12650,7 @@
       <c r="C205" s="43">
         <v>14.75</v>
       </c>
+      <c r="D205" s="3"/>
       <c r="E205" s="29"/>
       <c r="F205" s="29"/>
       <c r="G205" s="29"/>
@@ -12468,6 +12706,7 @@
       <c r="C206" s="43">
         <v>15</v>
       </c>
+      <c r="D206" s="3"/>
       <c r="E206" s="29"/>
       <c r="F206" s="29"/>
       <c r="G206" s="29"/>
@@ -12523,6 +12762,7 @@
       <c r="C207" s="43">
         <v>15.25</v>
       </c>
+      <c r="D207" s="3"/>
       <c r="E207" s="29"/>
       <c r="F207" s="29"/>
       <c r="G207" s="29"/>
@@ -12578,6 +12818,7 @@
       <c r="C208" s="43">
         <v>15.5</v>
       </c>
+      <c r="D208" s="3"/>
       <c r="E208" s="29"/>
       <c r="F208" s="29"/>
       <c r="G208" s="29"/>
@@ -12631,6 +12872,7 @@
       <c r="C209" s="43">
         <v>15.75</v>
       </c>
+      <c r="D209" s="3"/>
       <c r="E209" s="29"/>
       <c r="F209" s="29"/>
       <c r="G209" s="29"/>
@@ -12686,6 +12928,7 @@
       <c r="C210" s="43">
         <v>16</v>
       </c>
+      <c r="D210" s="3"/>
       <c r="E210" s="29"/>
       <c r="F210" s="29"/>
       <c r="G210" s="29"/>
@@ -12741,6 +12984,7 @@
       <c r="C211" s="43">
         <v>16.25</v>
       </c>
+      <c r="D211" s="3"/>
       <c r="E211" s="29"/>
       <c r="F211" s="29"/>
       <c r="G211" s="29"/>
@@ -12796,6 +13040,7 @@
       <c r="C212" s="43">
         <v>16.5</v>
       </c>
+      <c r="D212" s="3"/>
       <c r="E212" s="29"/>
       <c r="F212" s="29"/>
       <c r="G212" s="29"/>
@@ -12851,6 +13096,7 @@
       <c r="C213" s="43">
         <v>16.75</v>
       </c>
+      <c r="D213" s="3"/>
       <c r="E213" s="29"/>
       <c r="F213" s="29"/>
       <c r="G213" s="29"/>
@@ -12906,6 +13152,7 @@
       <c r="C214" s="43">
         <v>17</v>
       </c>
+      <c r="D214" s="3"/>
       <c r="E214" s="29"/>
       <c r="F214" s="29"/>
       <c r="G214" s="29"/>
@@ -12961,6 +13208,7 @@
       <c r="C215" s="43">
         <v>17.25</v>
       </c>
+      <c r="D215" s="3"/>
       <c r="E215" s="29"/>
       <c r="F215" s="29"/>
       <c r="G215" s="29"/>
@@ -13016,6 +13264,7 @@
       <c r="C216" s="43">
         <v>17.5</v>
       </c>
+      <c r="D216" s="3"/>
       <c r="E216" s="29"/>
       <c r="F216" s="29"/>
       <c r="G216" s="29"/>
@@ -13071,6 +13320,7 @@
       <c r="C217" s="43">
         <v>17.75</v>
       </c>
+      <c r="D217" s="3"/>
       <c r="E217" s="29"/>
       <c r="F217" s="29"/>
       <c r="G217" s="29"/>
@@ -13126,6 +13376,7 @@
       <c r="C218" s="43">
         <v>18</v>
       </c>
+      <c r="D218" s="3"/>
       <c r="E218" s="29"/>
       <c r="F218" s="29"/>
       <c r="G218" s="29"/>
@@ -13181,6 +13432,7 @@
       <c r="C219" s="43">
         <v>18.25</v>
       </c>
+      <c r="D219" s="3"/>
       <c r="E219" s="29"/>
       <c r="F219" s="29"/>
       <c r="G219" s="29"/>
@@ -13236,6 +13488,7 @@
       <c r="C220" s="43">
         <v>18.5</v>
       </c>
+      <c r="D220" s="3"/>
       <c r="E220" s="29"/>
       <c r="F220" s="29"/>
       <c r="G220" s="29"/>
@@ -13289,6 +13542,7 @@
       <c r="C221" s="43">
         <v>18.75</v>
       </c>
+      <c r="D221" s="3"/>
       <c r="E221" s="29"/>
       <c r="F221" s="29"/>
       <c r="G221" s="29"/>
@@ -13344,6 +13598,7 @@
       <c r="C222" s="43">
         <v>19</v>
       </c>
+      <c r="D222" s="3"/>
       <c r="E222" s="29"/>
       <c r="F222" s="29"/>
       <c r="G222" s="29"/>
@@ -13399,6 +13654,7 @@
       <c r="C223" s="43">
         <v>20</v>
       </c>
+      <c r="D223" s="3"/>
       <c r="E223" s="29"/>
       <c r="F223" s="29"/>
       <c r="G223" s="29"/>
@@ -14006,6 +14262,7 @@
       <c r="C235" s="23">
         <v>10</v>
       </c>
+      <c r="D235" s="3"/>
       <c r="G235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -14101,6 +14358,7 @@
       <c r="C237" s="23">
         <v>10</v>
       </c>
+      <c r="D237" s="3"/>
       <c r="E237" s="20"/>
       <c r="G237" s="1"/>
       <c r="I237" s="1"/>
@@ -33761,6 +34019,7 @@
       <c r="C669" s="8">
         <v>12.157499972775947</v>
       </c>
+      <c r="D669" s="3"/>
       <c r="X669" s="8">
         <v>201.90221400000001</v>
       </c>
@@ -33783,6 +34042,7 @@
       <c r="C670" s="8">
         <v>12.239359972775956</v>
       </c>
+      <c r="D670" s="3"/>
       <c r="X670" s="8">
         <v>275.75046699999996</v>
       </c>
@@ -33805,6 +34065,7 @@
       <c r="C671" s="8">
         <v>12.262748544204488</v>
       </c>
+      <c r="D671" s="3"/>
       <c r="X671" s="8">
         <v>272.40857600000004</v>
       </c>
@@ -33826,6 +34087,7 @@
       <c r="C672" s="8">
         <v>12.286137115633029</v>
       </c>
+      <c r="D672" s="3"/>
       <c r="X672" s="8">
         <v>273.94132300000001</v>
       </c>
@@ -33848,6 +34110,7 @@
       <c r="C673" s="8">
         <v>12.309525687061569</v>
       </c>
+      <c r="D673" s="3"/>
       <c r="X673" s="8">
         <v>310.82775900000001</v>
       </c>
@@ -33870,6 +34133,7 @@
       <c r="C674" s="8">
         <v>12.344608544204268</v>
       </c>
+      <c r="D674" s="3"/>
       <c r="X674" s="8">
         <v>275.47406999999998</v>
       </c>
@@ -33891,6 +34155,7 @@
       <c r="C675" s="8">
         <v>12.426468544204276</v>
       </c>
+      <c r="D675" s="3"/>
       <c r="X675" s="8">
         <v>243.16074799999998</v>
       </c>
@@ -33913,6 +34178,7 @@
       <c r="C676" s="8">
         <v>12.461551401347432</v>
       </c>
+      <c r="D676" s="3"/>
       <c r="X676" s="8">
         <v>218.96344699999997</v>
       </c>
@@ -33935,6 +34201,7 @@
       <c r="C677" s="8">
         <v>12.496634258490129</v>
       </c>
+      <c r="D677" s="3"/>
       <c r="X677" s="8">
         <v>208.76188500000001</v>
       </c>
@@ -33956,6 +34223,7 @@
       <c r="C678" s="8">
         <v>12.566799972775753</v>
       </c>
+      <c r="D678" s="3"/>
       <c r="X678" s="8">
         <v>169.161733</v>
       </c>
@@ -33983,6 +34251,7 @@
       <c r="C679" s="8">
         <v>12.613577115632825</v>
       </c>
+      <c r="D679" s="3"/>
       <c r="X679" s="8">
         <v>161.39749</v>
       </c>
@@ -34010,6 +34279,7 @@
       <c r="C680" s="8">
         <v>12.660354258489908</v>
       </c>
+      <c r="D680" s="3"/>
       <c r="X680" s="8">
         <v>166.47314399999999</v>
       </c>
@@ -34037,6 +34307,7 @@
       <c r="C681" s="8">
         <v>12.695437115632835</v>
       </c>
+      <c r="D681" s="3"/>
       <c r="X681" s="8">
         <v>153.28146900000002</v>
       </c>
@@ -34064,6 +34335,7 @@
       <c r="C682" s="8">
         <v>12.718825687061377</v>
       </c>
+      <c r="D682" s="3"/>
       <c r="X682" s="8">
         <v>148.08017999999998</v>
       </c>
@@ -34091,6 +34363,7 @@
       <c r="C683" s="8">
         <v>12.777297115633074</v>
       </c>
+      <c r="D683" s="3"/>
       <c r="X683" s="8">
         <v>142.92914500000001</v>
       </c>
@@ -34118,6 +34391,7 @@
       <c r="C684" s="8">
         <v>12.824074258490146</v>
       </c>
+      <c r="D684" s="3"/>
       <c r="X684" s="8">
         <v>131.06920099999999</v>
       </c>
@@ -34145,6 +34419,7 @@
       <c r="C685" s="8">
         <v>12.987794258489936</v>
       </c>
+      <c r="D685" s="3"/>
       <c r="X685" s="8">
         <v>192.30369999999999</v>
       </c>
@@ -34172,6 +34447,7 @@
       <c r="C686" s="8">
         <v>13.069654258490173</v>
       </c>
+      <c r="D686" s="3"/>
       <c r="X686" s="8">
         <v>173.38306900000001</v>
       </c>
@@ -34199,6 +34475,7 @@
       <c r="C687" s="8">
         <v>13.104737115633091</v>
       </c>
+      <c r="D687" s="3"/>
       <c r="X687" s="8">
         <v>224.843165</v>
       </c>
@@ -34226,6 +34503,7 @@
       <c r="C688" s="8">
         <v>13.151514258490172</v>
       </c>
+      <c r="D688" s="3"/>
       <c r="X688" s="8">
         <v>246.12573399999999</v>
       </c>
@@ -34253,6 +34531,7 @@
       <c r="C689" s="8">
         <v>13.186597115632869</v>
       </c>
+      <c r="D689" s="3"/>
       <c r="X689" s="8">
         <v>237.95945900000001</v>
       </c>
@@ -34280,6 +34559,7 @@
       <c r="C690" s="8">
         <v>13.233374258489953</v>
       </c>
+      <c r="D690" s="3"/>
       <c r="X690" s="8">
         <v>253.28692900000001</v>
       </c>
@@ -34307,6 +34587,7 @@
       <c r="C691" s="8">
         <v>13.280151401347036</v>
       </c>
+      <c r="D691" s="3"/>
       <c r="X691" s="8">
         <v>233.96426600000001</v>
       </c>
@@ -34334,6 +34615,7 @@
       <c r="C692" s="8">
         <v>13.350317115633107</v>
       </c>
+      <c r="D692" s="3"/>
       <c r="X692" s="8">
         <v>221.55152800000002</v>
       </c>
@@ -34361,6 +34643,7 @@
       <c r="C693" s="8">
         <v>13.37370568706165</v>
       </c>
+      <c r="D693" s="3"/>
       <c r="X693" s="8">
         <v>229.59216800000002</v>
       </c>
@@ -34388,6 +34671,7 @@
       <c r="C694" s="8">
         <v>13.432177115632888</v>
       </c>
+      <c r="D694" s="3"/>
       <c r="X694" s="8">
         <v>208.41010699999998</v>
       </c>
@@ -34415,6 +34699,7 @@
       <c r="C695" s="8">
         <v>13.467259972775814</v>
       </c>
+      <c r="D695" s="3"/>
       <c r="X695" s="8">
         <v>223.53656100000001</v>
       </c>
@@ -34442,6 +34727,7 @@
       <c r="C696" s="8">
         <v>13.514037115632897</v>
       </c>
+      <c r="D696" s="3"/>
       <c r="X696" s="8">
         <v>203.259072</v>
       </c>
@@ -34469,6 +34755,7 @@
       <c r="C697" s="8">
         <v>13.560814258489978</v>
       </c>
+      <c r="D697" s="3"/>
       <c r="X697" s="8">
         <v>160.492918</v>
       </c>
@@ -34496,6 +34783,7 @@
       <c r="C698" s="8">
         <v>13.619285687061666</v>
       </c>
+      <c r="D698" s="3"/>
       <c r="X698" s="8">
         <v>151.22105499999998</v>
       </c>
@@ -34523,6 +34811,7 @@
       <c r="C699" s="8">
         <v>13.654368544204363</v>
       </c>
+      <c r="D699" s="3"/>
       <c r="X699" s="8">
         <v>136.92379199999999</v>
       </c>
@@ -34550,6 +34839,7 @@
       <c r="C700" s="8">
         <v>13.68945140134729</v>
       </c>
+      <c r="D700" s="3"/>
       <c r="X700" s="8">
         <v>142.92914500000001</v>
       </c>
@@ -34577,6 +34867,7 @@
       <c r="C701" s="8">
         <v>13.724534258490216</v>
       </c>
+      <c r="D701" s="3"/>
       <c r="X701" s="8">
         <v>162.50307800000002</v>
       </c>
@@ -34604,6 +34895,7 @@
       <c r="C702" s="8">
         <v>13.783005687061456</v>
       </c>
+      <c r="D702" s="3"/>
       <c r="X702" s="8">
         <v>153.98502500000001</v>
       </c>
@@ -34631,6 +34923,7 @@
       <c r="C703" s="8">
         <v>13.818088544204382</v>
       </c>
+      <c r="D703" s="3"/>
       <c r="X703" s="8">
         <v>141.37127100000001</v>
       </c>
@@ -34658,6 +34951,7 @@
       <c r="C704" s="8">
         <v>13.864865687061464</v>
       </c>
+      <c r="D704" s="3"/>
       <c r="X704" s="8">
         <v>132.09940799999998</v>
       </c>
@@ -34685,6 +34979,7 @@
       <c r="C705" s="8">
         <v>13.911642829918767</v>
       </c>
+      <c r="D705" s="3"/>
       <c r="X705" s="8">
         <v>131.77275699999998</v>
       </c>
@@ -34712,6 +35007,7 @@
       <c r="C706" s="8">
         <v>13.935031401347308</v>
       </c>
+      <c r="D706" s="3"/>
       <c r="X706" s="8">
         <v>140.36619099999999</v>
       </c>
@@ -34739,6 +35035,7 @@
       <c r="C707" s="8">
         <v>13.981808544204391</v>
       </c>
+      <c r="D707" s="3"/>
       <c r="X707" s="8">
         <v>145.81874999999999</v>
       </c>
@@ -34766,6 +35063,7 @@
       <c r="C708" s="8">
         <v>14.016891401347317</v>
       </c>
+      <c r="D708" s="3"/>
       <c r="X708" s="8">
         <v>143.255796</v>
       </c>
@@ -34793,6 +35091,7 @@
       <c r="C709" s="8">
         <v>14.063668544204399</v>
       </c>
+      <c r="D709" s="3"/>
       <c r="X709" s="8">
         <v>161.724141</v>
       </c>
@@ -34820,6 +35119,7 @@
       <c r="C710" s="8">
         <v>14.122139972775638</v>
       </c>
+      <c r="D710" s="3"/>
       <c r="X710" s="8">
         <v>157.1259</v>
       </c>
@@ -34847,6 +35147,7 @@
       <c r="C711" s="8">
         <v>14.16891711563272</v>
       </c>
+      <c r="D711" s="3"/>
       <c r="X711" s="8">
         <v>175.242467</v>
       </c>
@@ -34874,6 +35175,7 @@
       <c r="C712" s="8">
         <v>14.239082829918793</v>
       </c>
+      <c r="D712" s="3"/>
       <c r="X712" s="8">
         <v>180.89604199999999</v>
       </c>
@@ -34901,6 +35203,7 @@
       <c r="C713" s="8">
         <v>14.297554258490031</v>
       </c>
+      <c r="D713" s="3"/>
       <c r="X713" s="8">
         <v>171.649306</v>
       </c>
@@ -34928,6 +35231,7 @@
       <c r="C714" s="8">
         <v>14.309248544204417</v>
       </c>
+      <c r="D714" s="3"/>
       <c r="X714" s="8">
         <v>153.784009</v>
       </c>
@@ -34955,6 +35259,7 @@
       <c r="C715" s="8">
         <v>14.3560256870615</v>
       </c>
+      <c r="D715" s="3"/>
       <c r="X715" s="8">
         <v>156.07056599999999</v>
       </c>
@@ -34982,6 +35287,7 @@
       <c r="C716" s="8">
         <v>14.402802829918581</v>
       </c>
+      <c r="D716" s="3"/>
       <c r="X716" s="8">
         <v>140.46669900000001</v>
       </c>
@@ -35009,6 +35315,7 @@
       <c r="C717" s="8">
         <v>14.437885687061508</v>
       </c>
+      <c r="D717" s="3"/>
       <c r="X717" s="8">
         <v>153.90964400000001</v>
       </c>
@@ -35036,6 +35343,7 @@
       <c r="C718" s="8">
         <v>14.472968544204205</v>
       </c>
+      <c r="D718" s="3"/>
       <c r="X718" s="8">
         <v>157.67869400000001</v>
       </c>
@@ -35063,6 +35371,7 @@
       <c r="C719" s="8">
         <v>14.543134258490278</v>
       </c>
+      <c r="D719" s="3"/>
       <c r="X719" s="8">
         <v>143.959352</v>
       </c>
@@ -35090,6 +35399,7 @@
       <c r="C720" s="8">
         <v>10.368274258489972</v>
       </c>
+      <c r="D720" s="3"/>
       <c r="X720" s="8">
         <v>323.76816399999996</v>
       </c>
@@ -35117,6 +35427,7 @@
       <c r="C721" s="8">
         <v>10.368274258489972</v>
       </c>
+      <c r="D721" s="3"/>
       <c r="X721" s="8">
         <v>335.32658400000003</v>
       </c>
@@ -35144,6 +35455,7 @@
       <c r="C722" s="8">
         <v>10.368274258489972</v>
       </c>
+      <c r="D722" s="3"/>
       <c r="X722" s="8">
         <v>357.31270900000004</v>
       </c>
@@ -35171,6 +35483,7 @@
       <c r="C723" s="8">
         <v>10.379968544204358</v>
       </c>
+      <c r="D723" s="3"/>
       <c r="X723" s="8">
         <v>363.26780800000006</v>
       </c>
@@ -35198,6 +35511,7 @@
       <c r="C724" s="8">
         <v>10.379968544204358</v>
       </c>
+      <c r="D724" s="3"/>
       <c r="X724" s="8">
         <v>365.152333</v>
       </c>
@@ -35225,6 +35539,7 @@
       <c r="C725" s="8">
         <v>10.426745687061659</v>
       </c>
+      <c r="D725" s="3"/>
       <c r="X725" s="8">
         <v>359.22236099999998</v>
       </c>
@@ -35245,6 +35560,7 @@
       <c r="C726" s="8">
         <v>10.461828544204357</v>
       </c>
+      <c r="D726" s="3"/>
       <c r="X726" s="8">
         <v>353.66929399999998</v>
       </c>
@@ -35265,6 +35581,7 @@
       <c r="C727" s="8">
         <v>10.496911401347283</v>
       </c>
+      <c r="D727" s="3"/>
       <c r="X727" s="8">
         <v>365.62974600000001</v>
       </c>
@@ -35285,6 +35602,7 @@
       <c r="C728" s="8">
         <v>10.543688544204366</v>
       </c>
+      <c r="D728" s="3"/>
       <c r="X728" s="8">
         <v>355.80508899999995</v>
       </c>
@@ -35305,6 +35623,7 @@
       <c r="C729" s="8">
         <v>10.590465687061448</v>
       </c>
+      <c r="D729" s="3"/>
       <c r="X729" s="8">
         <v>365.35334899999998</v>
       </c>
@@ -35325,6 +35644,7 @@
       <c r="C730" s="8">
         <v>10.660631401347072</v>
       </c>
+      <c r="D730" s="3"/>
       <c r="X730" s="8">
         <v>365.805635</v>
       </c>
@@ -35345,6 +35665,7 @@
       <c r="C731" s="8">
         <v>10.707408544204373</v>
       </c>
+      <c r="D731" s="3"/>
       <c r="X731" s="8">
         <v>341.25655600000005</v>
       </c>
@@ -35365,6 +35686,7 @@
       <c r="C732" s="8">
         <v>10.7424914013473</v>
       </c>
+      <c r="D732" s="3"/>
       <c r="X732" s="8">
         <v>319.32068500000003</v>
       </c>
@@ -35385,6 +35707,7 @@
       <c r="C733" s="8">
         <v>10.765879972775842</v>
       </c>
+      <c r="D733" s="3"/>
       <c r="X733" s="8">
         <v>299.97289499999999</v>
       </c>
@@ -35405,6 +35728,7 @@
       <c r="C734" s="8">
         <v>10.777574258490226</v>
       </c>
+      <c r="D734" s="3"/>
       <c r="X734" s="8">
         <v>289.92209500000001</v>
       </c>
@@ -35425,6 +35749,7 @@
       <c r="C735" s="8">
         <v>10.800962829918769</v>
       </c>
+      <c r="D735" s="3"/>
       <c r="X735" s="8">
         <v>276.90630900000002</v>
       </c>
@@ -35445,6 +35770,7 @@
       <c r="C736" s="8">
         <v>10.847739972775852</v>
       </c>
+      <c r="D736" s="3"/>
       <c r="X736" s="8">
         <v>252.73413500000001</v>
       </c>
@@ -35465,6 +35791,7 @@
       <c r="C737" s="8">
         <v>10.871128544204392</v>
       </c>
+      <c r="D737" s="3"/>
       <c r="X737" s="8">
         <v>285.92690200000004</v>
       </c>
@@ -35485,6 +35812,7 @@
       <c r="C738" s="8">
         <v>10.882822829918549</v>
       </c>
+      <c r="D738" s="3"/>
       <c r="X738" s="8">
         <v>314.99884099999997</v>
       </c>
@@ -35505,6 +35833,7 @@
       <c r="C739" s="8">
         <v>10.92959997277563</v>
       </c>
+      <c r="D739" s="3"/>
       <c r="X739" s="8">
         <v>304.21935800000006</v>
       </c>
@@ -35525,6 +35854,7 @@
       <c r="C740" s="8">
         <v>10.999765687061704</v>
       </c>
+      <c r="D740" s="3"/>
       <c r="X740" s="8">
         <v>276.73041999999998</v>
       </c>
@@ -35545,6 +35875,7 @@
       <c r="C741" s="8">
         <v>11.046542829918785</v>
       </c>
+      <c r="D741" s="3"/>
       <c r="X741" s="8">
         <v>264.11666600000001</v>
       </c>
@@ -35565,6 +35896,7 @@
       <c r="C742" s="8">
         <v>11.081625687061482</v>
       </c>
+      <c r="D742" s="3"/>
       <c r="X742" s="8">
         <v>262.65930000000003</v>
       </c>
@@ -35585,6 +35917,7 @@
       <c r="C743" s="8">
         <v>11.151791401347108</v>
       </c>
+      <c r="D743" s="3"/>
       <c r="X743" s="8">
         <v>300.72670500000004</v>
       </c>
@@ -35605,6 +35938,7 @@
       <c r="C744" s="8">
         <v>11.163485687061492</v>
       </c>
+      <c r="D744" s="3"/>
       <c r="X744" s="8">
         <v>314.52142800000001</v>
       </c>
@@ -35625,6 +35959,7 @@
       <c r="C745" s="8">
         <v>11.245345687061491</v>
       </c>
+      <c r="D745" s="3"/>
       <c r="X745" s="8">
         <v>361.18226700000002</v>
       </c>
@@ -35645,6 +35980,7 @@
       <c r="C746" s="8">
         <v>11.268734258490033</v>
       </c>
+      <c r="D746" s="3"/>
       <c r="X746" s="8">
         <v>364.17238000000003</v>
       </c>
@@ -35665,6 +36001,7 @@
       <c r="C747" s="8">
         <v>11.362288544204427</v>
       </c>
+      <c r="D747" s="3"/>
       <c r="X747" s="8">
         <v>345.452765</v>
       </c>
@@ -35685,6 +36022,7 @@
       <c r="C748" s="8">
         <v>11.373982829918583</v>
       </c>
+      <c r="D748" s="3"/>
       <c r="X748" s="8">
         <v>342.48777899999999</v>
       </c>
@@ -35705,6 +36043,7 @@
       <c r="C749" s="8">
         <v>11.420759972775894</v>
       </c>
+      <c r="D749" s="3"/>
       <c r="X749" s="8">
         <v>342.53803300000004</v>
       </c>
@@ -35725,6 +36064,7 @@
       <c r="C750" s="8">
         <v>11.502619972775674</v>
       </c>
+      <c r="D750" s="3"/>
       <c r="X750" s="8">
         <v>273.13725899999997</v>
       </c>
@@ -35745,6 +36085,7 @@
       <c r="C751" s="8">
         <v>11.526008544204206</v>
       </c>
+      <c r="D751" s="3"/>
       <c r="X751" s="8">
         <v>270.54917799999998</v>
       </c>
@@ -35765,6 +36106,7 @@
       <c r="C752" s="8">
         <v>11.619562829918829</v>
       </c>
+      <c r="D752" s="3"/>
       <c r="X752" s="8">
         <v>247.557973</v>
       </c>
@@ -35785,6 +36127,7 @@
       <c r="C753" s="8">
         <v>11.666339972775912</v>
       </c>
+      <c r="D753" s="3"/>
       <c r="X753" s="8">
         <v>242.93460499999998</v>
       </c>
@@ -35805,6 +36148,7 @@
       <c r="C754" s="8">
         <v>11.689728544204453</v>
       </c>
+      <c r="D754" s="3"/>
       <c r="X754" s="8">
         <v>234.59244100000001</v>
       </c>
@@ -35825,6 +36169,7 @@
       <c r="C755" s="8">
         <v>11.72481140134715</v>
       </c>
+      <c r="D755" s="3"/>
       <c r="X755" s="8">
         <v>231.82847099999998</v>
       </c>
@@ -35845,6 +36190,7 @@
       <c r="C756" s="8">
         <v>11.783282829918608</v>
       </c>
+      <c r="D756" s="3"/>
       <c r="X756" s="8">
         <v>240.271143</v>
       </c>
@@ -35865,6 +36211,7 @@
       <c r="C757" s="8">
         <v>11.783282829918608</v>
       </c>
+      <c r="D757" s="3"/>
       <c r="X757" s="8">
         <v>279.77078700000004</v>
       </c>
@@ -35885,6 +36232,7 @@
       <c r="C758" s="8">
         <v>11.794977115632765</v>
       </c>
+      <c r="D758" s="3"/>
       <c r="X758" s="8">
         <v>307.71201100000002</v>
       </c>
@@ -35905,6 +36253,7 @@
       <c r="C759" s="8">
         <v>11.818365687061306</v>
       </c>
+      <c r="D759" s="3"/>
       <c r="X759" s="8">
         <v>359.14698000000004</v>
       </c>
@@ -35925,6 +36274,7 @@
       <c r="C760" s="8">
         <v>11.876837115633004</v>
       </c>
+      <c r="D760" s="3"/>
       <c r="X760" s="8">
         <v>304.06859600000001</v>
       </c>
@@ -35945,6 +36295,7 @@
       <c r="C761" s="8">
         <v>11.935308544204471</v>
       </c>
+      <c r="D761" s="3"/>
       <c r="X761" s="8">
         <v>297.05816300000004</v>
       </c>
@@ -35965,6 +36316,7 @@
       <c r="C762" s="8">
         <v>11.970391401347168</v>
       </c>
+      <c r="D762" s="3"/>
       <c r="X762" s="8">
         <v>297.63608399999998</v>
       </c>
@@ -35985,6 +36337,7 @@
       <c r="C763" s="8">
         <v>12.005474258490095</v>
       </c>
+      <c r="D763" s="3"/>
       <c r="X763" s="8">
         <v>288.54011000000003</v>
       </c>
@@ -36005,6 +36358,7 @@
       <c r="C764" s="8">
         <v>12.052251401347167</v>
       </c>
+      <c r="D764" s="3"/>
       <c r="X764" s="8">
         <v>281.32866100000001</v>
       </c>
@@ -36025,6 +36379,7 @@
       <c r="C765" s="8">
         <v>12.087334258490094</v>
       </c>
+      <c r="D765" s="3"/>
       <c r="X765" s="8">
         <v>268.13698599999998</v>
       </c>
@@ -36045,6 +36400,7 @@
       <c r="C766" s="8">
         <v>12.122417115632791</v>
       </c>
+      <c r="D766" s="3"/>
       <c r="X766" s="8">
         <v>276.37864200000001</v>
       </c>
@@ -36065,6 +36421,7 @@
       <c r="C767" s="8">
         <v>12.157499972775947</v>
       </c>
+      <c r="D767" s="3"/>
       <c r="X767" s="8">
         <v>272.68497300000001</v>
       </c>
@@ -36085,6 +36442,7 @@
       <c r="C768" s="8">
         <v>12.22766568706157</v>
       </c>
+      <c r="D768" s="3"/>
       <c r="X768" s="8">
         <v>314.84807899999998</v>
       </c>
@@ -36105,6 +36463,7 @@
       <c r="C769" s="8">
         <v>12.251054258490113</v>
       </c>
+      <c r="D769" s="3"/>
       <c r="X769" s="8">
         <v>322.13490899999999</v>
       </c>
@@ -36125,6 +36484,7 @@
       <c r="C770" s="8">
         <v>12.286137115633029</v>
       </c>
+      <c r="D770" s="3"/>
       <c r="X770" s="8">
         <v>321.60724199999999</v>
       </c>
@@ -36145,6 +36505,7 @@
       <c r="C771" s="8">
         <v>12.309525687061569</v>
       </c>
+      <c r="D771" s="3"/>
       <c r="X771" s="8">
         <v>340.62838099999999</v>
       </c>
@@ -36165,6 +36526,7 @@
       <c r="C772" s="8">
         <v>12.356302829918652</v>
       </c>
+      <c r="D772" s="3"/>
       <c r="X772" s="8">
         <v>327.28594399999997</v>
       </c>
@@ -36185,6 +36547,7 @@
       <c r="C773" s="8">
         <v>12.379691401347195</v>
       </c>
+      <c r="D773" s="3"/>
       <c r="X773" s="8">
         <v>328.793564</v>
       </c>
@@ -36205,6 +36568,7 @@
       <c r="C774" s="8">
         <v>12.426468544204276</v>
       </c>
+      <c r="D774" s="3"/>
       <c r="X774" s="8">
         <v>321.38109900000006</v>
       </c>
@@ -36225,6 +36589,7 @@
       <c r="C775" s="8">
         <v>12.449857115633048</v>
       </c>
+      <c r="D775" s="3"/>
       <c r="X775" s="8">
         <v>315.82803200000001</v>
       </c>
@@ -36245,6 +36610,7 @@
       <c r="C776" s="8">
         <v>12.496634258490129</v>
       </c>
+      <c r="D776" s="3"/>
       <c r="X776" s="8">
         <v>316.25519099999997</v>
       </c>
@@ -36265,6 +36631,7 @@
       <c r="C777" s="8">
         <v>12.566799972775753</v>
       </c>
+      <c r="D777" s="3"/>
       <c r="X777" s="8">
         <v>296.93252800000005</v>
       </c>
@@ -36285,6 +36652,7 @@
       <c r="C778" s="8">
         <v>12.613577115632825</v>
       </c>
+      <c r="D778" s="3"/>
       <c r="X778" s="8">
         <v>296.05308300000002</v>
       </c>
@@ -36305,6 +36673,7 @@
       <c r="C779" s="8">
         <v>12.648659972775752</v>
       </c>
+      <c r="D779" s="3"/>
       <c r="X779" s="8">
         <v>294.24393899999995</v>
       </c>
@@ -36325,6 +36694,7 @@
       <c r="C780" s="8">
         <v>12.68374282991868</v>
       </c>
+      <c r="D780" s="3"/>
       <c r="X780" s="8">
         <v>292.20865200000003</v>
       </c>
@@ -36345,6 +36715,7 @@
       <c r="C781" s="8">
         <v>12.707131401347221</v>
       </c>
+      <c r="D781" s="3"/>
       <c r="X781" s="8">
         <v>291.30408</v>
       </c>
@@ -36365,6 +36736,7 @@
       <c r="C782" s="8">
         <v>12.730519972775761</v>
       </c>
+      <c r="D782" s="3"/>
       <c r="X782" s="8">
         <v>299.34472</v>
       </c>
@@ -36385,6 +36757,7 @@
       <c r="C783" s="8">
         <v>12.777297115633074</v>
       </c>
+      <c r="D783" s="3"/>
       <c r="X783" s="8">
         <v>291.37946099999999</v>
       </c>
@@ -36405,6 +36778,7 @@
       <c r="C784" s="8">
         <v>12.812379972775771</v>
       </c>
+      <c r="D784" s="3"/>
       <c r="X784" s="8">
         <v>290.85179399999998</v>
       </c>
@@ -36425,6 +36799,7 @@
       <c r="C785" s="8">
         <v>12.847462829918687</v>
       </c>
+      <c r="D785" s="3"/>
       <c r="X785" s="8">
         <v>282.685519</v>
       </c>
@@ -36445,6 +36820,7 @@
       <c r="C786" s="8">
         <v>12.870851401347229</v>
       </c>
+      <c r="D786" s="3"/>
       <c r="X786" s="8">
         <v>298.74167199999999</v>
       </c>
@@ -36465,6 +36841,7 @@
       <c r="C787" s="8">
         <v>12.917628544204311</v>
       </c>
+      <c r="D787" s="3"/>
       <c r="X787" s="8">
         <v>303.99321500000002</v>
       </c>
@@ -36485,6 +36862,7 @@
       <c r="C788" s="8">
         <v>12.99948854420432</v>
       </c>
+      <c r="D788" s="3"/>
       <c r="X788" s="8">
         <v>307.05870900000002</v>
       </c>
@@ -36505,6 +36883,7 @@
       <c r="C789" s="8">
         <v>13.046265687061632</v>
       </c>
+      <c r="D789" s="3"/>
       <c r="X789" s="8">
         <v>295.75155900000004</v>
       </c>
@@ -36525,6 +36904,7 @@
       <c r="C790" s="8">
         <v>13.069654258490173</v>
       </c>
+      <c r="D790" s="3"/>
       <c r="X790" s="8">
         <v>282.73577299999999</v>
       </c>
@@ -36545,6 +36925,7 @@
       <c r="C791" s="8">
         <v>13.104737115633091</v>
       </c>
+      <c r="D791" s="3"/>
       <c r="X791" s="8">
         <v>316.10442899999998</v>
       </c>
@@ -36565,6 +36946,7 @@
       <c r="C792" s="8">
         <v>13.151514258490172</v>
       </c>
+      <c r="D792" s="3"/>
       <c r="X792" s="8">
         <v>332.91439200000002</v>
       </c>
@@ -36585,6 +36967,7 @@
       <c r="C793" s="8">
         <v>13.186597115632869</v>
       </c>
+      <c r="D793" s="3"/>
       <c r="X793" s="8">
         <v>331.45702599999998</v>
       </c>
@@ -36605,6 +36988,7 @@
       <c r="C794" s="8">
         <v>13.233374258489953</v>
       </c>
+      <c r="D794" s="3"/>
       <c r="X794" s="8">
         <v>338.21618899999999</v>
       </c>
@@ -36625,6 +37009,7 @@
       <c r="C795" s="8">
         <v>13.280151401347036</v>
       </c>
+      <c r="D795" s="3"/>
       <c r="X795" s="8">
         <v>327.46183300000007</v>
       </c>
@@ -36645,6 +37030,7 @@
       <c r="C796" s="8">
         <v>13.303539972775576</v>
       </c>
+      <c r="D796" s="3"/>
       <c r="X796" s="8">
         <v>331.20575600000001</v>
       </c>
@@ -36665,6 +37051,7 @@
       <c r="C797" s="8">
         <v>13.338622829918732</v>
       </c>
+      <c r="D797" s="3"/>
       <c r="X797" s="8">
         <v>331.63291500000003</v>
       </c>
@@ -36685,6 +37072,7 @@
       <c r="C798" s="8">
         <v>13.37370568706165</v>
       </c>
+      <c r="D798" s="3"/>
       <c r="X798" s="8">
         <v>333.140535</v>
       </c>
@@ -36705,6 +37093,7 @@
       <c r="C799" s="8">
         <v>13.432177115632888</v>
       </c>
+      <c r="D799" s="3"/>
       <c r="X799" s="8">
         <v>303.39016700000002</v>
       </c>
@@ -36725,6 +37114,7 @@
       <c r="C800" s="8">
         <v>13.455565687061428</v>
       </c>
+      <c r="D800" s="3"/>
       <c r="X800" s="8">
         <v>344.59844700000002</v>
       </c>
@@ -36745,6 +37135,7 @@
       <c r="C801" s="8">
         <v>13.478954258489971</v>
       </c>
+      <c r="D801" s="3"/>
       <c r="X801" s="8">
         <v>353.74467500000003</v>
       </c>
@@ -36765,6 +37156,7 @@
       <c r="C802" s="8">
         <v>13.502342829918511</v>
       </c>
+      <c r="D802" s="3"/>
       <c r="X802" s="8">
         <v>350.402784</v>
       </c>
@@ -36785,6 +37177,7 @@
       <c r="C803" s="8">
         <v>13.525731401347281</v>
       </c>
+      <c r="D803" s="3"/>
       <c r="X803" s="8">
         <v>345.60352699999999</v>
       </c>
@@ -36805,6 +37198,7 @@
       <c r="C804" s="8">
         <v>13.549119972775824</v>
       </c>
+      <c r="D804" s="3"/>
       <c r="X804" s="8">
         <v>345.98043200000001</v>
       </c>
@@ -36825,6 +37219,7 @@
       <c r="C805" s="8">
         <v>13.560814258489978</v>
       </c>
+      <c r="D805" s="3"/>
       <c r="X805" s="8">
         <v>341.156048</v>
       </c>
@@ -36845,6 +37240,7 @@
       <c r="C806" s="8">
         <v>13.607591401347062</v>
       </c>
+      <c r="D806" s="3"/>
       <c r="X806" s="8">
         <v>331.884185</v>
       </c>
@@ -36865,6 +37261,7 @@
       <c r="C807" s="8">
         <v>13.642674258490208</v>
       </c>
+      <c r="D807" s="3"/>
       <c r="X807" s="8">
         <v>334.346631</v>
       </c>
@@ -36885,6 +37282,7 @@
       <c r="C808" s="8">
         <v>13.677757115632906</v>
       </c>
+      <c r="D808" s="3"/>
       <c r="X808" s="8">
         <v>338.49258600000002</v>
       </c>
@@ -36905,6 +37303,7 @@
       <c r="C809" s="8">
         <v>13.724534258490216</v>
       </c>
+      <c r="D809" s="3"/>
       <c r="X809" s="8">
         <v>343.19133499999998</v>
       </c>
@@ -36925,6 +37324,7 @@
       <c r="C810" s="8">
         <v>13.771311401347299</v>
       </c>
+      <c r="D810" s="3"/>
       <c r="X810" s="8">
         <v>334.67328199999997</v>
       </c>
@@ -36945,6 +37345,7 @@
       <c r="C811" s="8">
         <v>13.806394258489997</v>
       </c>
+      <c r="D811" s="3"/>
       <c r="X811" s="8">
         <v>318.31560500000001</v>
       </c>
@@ -36965,6 +37366,7 @@
       <c r="C812" s="8">
         <v>13.864865687061464</v>
       </c>
+      <c r="D812" s="3"/>
       <c r="X812" s="8">
         <v>301.60615000000001</v>
       </c>
@@ -36985,6 +37387,7 @@
       <c r="C813" s="8">
         <v>13.899948544204161</v>
       </c>
+      <c r="D813" s="3"/>
       <c r="X813" s="8">
         <v>299.59599000000003</v>
       </c>
@@ -37005,6 +37408,7 @@
       <c r="C814" s="8">
         <v>13.935031401347308</v>
       </c>
+      <c r="D814" s="3"/>
       <c r="X814" s="8">
         <v>307.08383600000002</v>
       </c>
@@ -37025,6 +37429,7 @@
       <c r="C815" s="8">
         <v>13.970114258490234</v>
       </c>
+      <c r="D815" s="3"/>
       <c r="X815" s="8">
         <v>309.722171</v>
       </c>
@@ -37045,6 +37450,7 @@
       <c r="C816" s="8">
         <v>14.016891401347317</v>
       </c>
+      <c r="D816" s="3"/>
       <c r="X816" s="8">
         <v>306.78231200000005</v>
       </c>
@@ -37065,6 +37471,7 @@
       <c r="C817" s="8">
         <v>14.063668544204399</v>
       </c>
+      <c r="D817" s="3"/>
       <c r="X817" s="8">
         <v>320.04936800000002</v>
       </c>
@@ -37085,6 +37492,7 @@
       <c r="C818" s="8">
         <v>14.098751401347096</v>
       </c>
+      <c r="D818" s="3"/>
       <c r="X818" s="8">
         <v>318.59200200000004</v>
       </c>
@@ -37105,6 +37513,7 @@
       <c r="C819" s="8">
         <v>14.157222829918565</v>
       </c>
+      <c r="D819" s="3"/>
       <c r="X819" s="8">
         <v>333.56769399999996</v>
       </c>
@@ -37125,6 +37534,7 @@
       <c r="C820" s="8">
         <v>14.215694258490251</v>
       </c>
+      <c r="D820" s="3"/>
       <c r="X820" s="8">
         <v>339.57304699999997</v>
       </c>
@@ -37145,6 +37555,7 @@
       <c r="C821" s="8">
         <v>14.285859972775876</v>
       </c>
+      <c r="D821" s="3"/>
       <c r="X821" s="8">
         <v>340.40223800000001</v>
       </c>
@@ -37165,6 +37576,7 @@
       <c r="C822" s="8">
         <v>14.297554258490031</v>
       </c>
+      <c r="D822" s="3"/>
       <c r="X822" s="8">
         <v>336.68344200000001</v>
       </c>
@@ -37185,6 +37597,7 @@
       <c r="C823" s="8">
         <v>14.320942829918573</v>
       </c>
+      <c r="D823" s="3"/>
       <c r="X823" s="8">
         <v>331.859058</v>
       </c>
@@ -37205,6 +37618,7 @@
       <c r="C824" s="8">
         <v>14.367719972775884</v>
       </c>
+      <c r="D824" s="3"/>
       <c r="X824" s="8">
         <v>334.321504</v>
       </c>
@@ -37225,6 +37639,7 @@
       <c r="C825" s="8">
         <v>14.414497115632967</v>
       </c>
+      <c r="D825" s="3"/>
       <c r="X825" s="8">
         <v>332.51236</v>
       </c>
@@ -37245,6 +37660,7 @@
       <c r="C826" s="8">
         <v>14.437885687061508</v>
       </c>
+      <c r="D826" s="3"/>
       <c r="X826" s="8">
         <v>342.03549299999997</v>
       </c>
@@ -37265,6 +37681,7 @@
       <c r="C827" s="8">
         <v>14.531439972775892</v>
       </c>
+      <c r="D827" s="3"/>
       <c r="X827" s="8">
         <v>340.65350799999999</v>
       </c>
@@ -37285,6 +37702,7 @@
       <c r="C828" s="17">
         <v>10.25</v>
       </c>
+      <c r="D828" s="3"/>
       <c r="T828" s="17"/>
       <c r="U828" s="17"/>
       <c r="V828" s="17"/>
@@ -37303,6 +37721,7 @@
       <c r="C829" s="17">
         <v>10.5</v>
       </c>
+      <c r="D829" s="3"/>
       <c r="T829" s="17"/>
       <c r="U829" s="17"/>
       <c r="V829" s="17"/>
@@ -37321,6 +37740,7 @@
       <c r="C830" s="17">
         <v>10.75</v>
       </c>
+      <c r="D830" s="3"/>
       <c r="T830" s="17"/>
       <c r="U830" s="17"/>
       <c r="V830" s="17"/>
@@ -37339,6 +37759,7 @@
       <c r="C831" s="17">
         <v>11</v>
       </c>
+      <c r="D831" s="3"/>
       <c r="T831" s="17"/>
       <c r="U831" s="17"/>
       <c r="V831" s="17"/>
@@ -37357,6 +37778,7 @@
       <c r="C832" s="17">
         <v>11.25</v>
       </c>
+      <c r="D832" s="3"/>
       <c r="T832" s="17"/>
       <c r="U832" s="17"/>
       <c r="V832" s="17"/>
@@ -37375,6 +37797,7 @@
       <c r="C833" s="17">
         <v>11.5</v>
       </c>
+      <c r="D833" s="3"/>
       <c r="T833" s="17"/>
       <c r="U833" s="17"/>
       <c r="V833" s="17"/>
@@ -37393,6 +37816,7 @@
       <c r="C834" s="17">
         <v>11.75</v>
       </c>
+      <c r="D834" s="3"/>
       <c r="T834" s="17"/>
       <c r="U834" s="17"/>
       <c r="V834" s="17"/>
@@ -37411,6 +37835,7 @@
       <c r="C835" s="17">
         <v>12</v>
       </c>
+      <c r="D835" s="3"/>
       <c r="T835" s="17"/>
       <c r="U835" s="17"/>
       <c r="V835" s="17"/>
@@ -37429,6 +37854,7 @@
       <c r="C836" s="17">
         <v>12.25</v>
       </c>
+      <c r="D836" s="3"/>
       <c r="T836" s="17"/>
       <c r="U836" s="17"/>
       <c r="V836" s="17"/>
@@ -37447,6 +37873,7 @@
       <c r="C837" s="17">
         <v>12.5</v>
       </c>
+      <c r="D837" s="3"/>
       <c r="T837" s="17"/>
       <c r="U837" s="17"/>
       <c r="V837" s="17"/>
@@ -37465,6 +37892,7 @@
       <c r="C838" s="17">
         <v>12.75</v>
       </c>
+      <c r="D838" s="3"/>
       <c r="T838" s="17"/>
       <c r="U838" s="17"/>
       <c r="V838" s="17"/>
@@ -37483,6 +37911,7 @@
       <c r="C839" s="17">
         <v>13</v>
       </c>
+      <c r="D839" s="3"/>
       <c r="T839" s="17"/>
       <c r="U839" s="17"/>
       <c r="V839" s="17"/>
@@ -37501,6 +37930,7 @@
       <c r="C840" s="17">
         <v>13.25</v>
       </c>
+      <c r="D840" s="3"/>
       <c r="T840" s="17"/>
       <c r="U840" s="17"/>
       <c r="V840" s="17"/>
@@ -37519,6 +37949,7 @@
       <c r="C841" s="17">
         <v>13.5</v>
       </c>
+      <c r="D841" s="3"/>
       <c r="T841" s="17"/>
       <c r="U841" s="17"/>
       <c r="V841" s="17"/>
@@ -37537,6 +37968,7 @@
       <c r="C842" s="17">
         <v>13.75</v>
       </c>
+      <c r="D842" s="3"/>
       <c r="T842" s="17"/>
       <c r="U842" s="17"/>
       <c r="V842" s="17"/>
@@ -37555,6 +37987,7 @@
       <c r="C843" s="17">
         <v>14</v>
       </c>
+      <c r="D843" s="3"/>
       <c r="T843" s="17"/>
       <c r="U843" s="17"/>
       <c r="V843" s="17"/>
@@ -37573,6 +38006,7 @@
       <c r="C844" s="17">
         <v>14.25</v>
       </c>
+      <c r="D844" s="3"/>
       <c r="T844" s="17"/>
       <c r="U844" s="17"/>
       <c r="V844" s="17"/>
@@ -37591,6 +38025,7 @@
       <c r="C845" s="17">
         <v>14.5</v>
       </c>
+      <c r="D845" s="3"/>
       <c r="T845" s="17"/>
       <c r="U845" s="17"/>
       <c r="V845" s="17"/>
@@ -37609,6 +38044,7 @@
       <c r="C846" s="17">
         <v>14.75</v>
       </c>
+      <c r="D846" s="3"/>
       <c r="T846" s="17"/>
       <c r="U846" s="17"/>
       <c r="V846" s="17"/>
@@ -37627,6 +38063,7 @@
       <c r="C847" s="17">
         <v>15</v>
       </c>
+      <c r="D847" s="3"/>
       <c r="T847" s="17"/>
       <c r="U847" s="17"/>
       <c r="V847" s="17"/>
@@ -37645,6 +38082,7 @@
       <c r="C848" s="17">
         <v>15.25</v>
       </c>
+      <c r="D848" s="3"/>
       <c r="T848" s="17"/>
       <c r="U848" s="17"/>
       <c r="V848" s="17"/>
@@ -37663,6 +38101,7 @@
       <c r="C849" s="17">
         <v>15.5</v>
       </c>
+      <c r="D849" s="3"/>
       <c r="T849" s="17"/>
       <c r="U849" s="17"/>
       <c r="V849" s="17"/>
@@ -37681,6 +38120,7 @@
       <c r="C850" s="17">
         <v>15.75</v>
       </c>
+      <c r="D850" s="3"/>
       <c r="T850" s="17"/>
       <c r="U850" s="17"/>
       <c r="V850" s="17"/>
@@ -37699,6 +38139,7 @@
       <c r="C851" s="17">
         <v>16</v>
       </c>
+      <c r="D851" s="3"/>
       <c r="T851" s="17"/>
       <c r="U851" s="17"/>
       <c r="V851" s="17"/>
@@ -37717,6 +38158,7 @@
       <c r="C852" s="17">
         <v>16.25</v>
       </c>
+      <c r="D852" s="3"/>
       <c r="T852" s="17"/>
       <c r="U852" s="17"/>
       <c r="V852" s="17"/>
@@ -37735,6 +38177,7 @@
       <c r="C853" s="17">
         <v>16.5</v>
       </c>
+      <c r="D853" s="3"/>
       <c r="T853" s="17"/>
       <c r="U853" s="17"/>
       <c r="V853" s="17"/>
@@ -37753,6 +38196,7 @@
       <c r="C854" s="17">
         <v>16.75</v>
       </c>
+      <c r="D854" s="3"/>
       <c r="T854" s="17"/>
       <c r="U854" s="17"/>
       <c r="V854" s="17"/>
@@ -37771,6 +38215,7 @@
       <c r="C855" s="17">
         <v>17</v>
       </c>
+      <c r="D855" s="3"/>
       <c r="T855" s="17"/>
       <c r="U855" s="17"/>
       <c r="V855" s="17"/>
@@ -37789,6 +38234,7 @@
       <c r="C856" s="17">
         <v>17.25</v>
       </c>
+      <c r="D856" s="3"/>
       <c r="T856" s="17"/>
       <c r="U856" s="17"/>
       <c r="V856" s="17"/>
@@ -37807,6 +38253,7 @@
       <c r="C857" s="17">
         <v>17.5</v>
       </c>
+      <c r="D857" s="3"/>
       <c r="T857" s="17"/>
       <c r="U857" s="17"/>
       <c r="V857" s="17"/>
@@ -37825,6 +38272,7 @@
       <c r="C858" s="17">
         <v>17.75</v>
       </c>
+      <c r="D858" s="3"/>
       <c r="T858" s="17"/>
       <c r="U858" s="17"/>
       <c r="V858" s="17"/>
@@ -37843,6 +38291,7 @@
       <c r="C859" s="17">
         <v>18</v>
       </c>
+      <c r="D859" s="3"/>
       <c r="T859" s="17"/>
       <c r="U859" s="17"/>
       <c r="V859" s="17"/>
@@ -37861,6 +38310,7 @@
       <c r="C860" s="17">
         <v>18.25</v>
       </c>
+      <c r="D860" s="3"/>
       <c r="T860" s="17"/>
       <c r="U860" s="17"/>
       <c r="V860" s="17"/>
@@ -37879,6 +38329,7 @@
       <c r="C861" s="17">
         <v>18.5</v>
       </c>
+      <c r="D861" s="3"/>
       <c r="T861" s="17"/>
       <c r="U861" s="17"/>
       <c r="V861" s="17"/>
@@ -37897,6 +38348,7 @@
       <c r="C862" s="17">
         <v>18.75</v>
       </c>
+      <c r="D862" s="3"/>
       <c r="T862" s="17"/>
       <c r="U862" s="17"/>
       <c r="V862" s="17"/>
@@ -37915,6 +38367,7 @@
       <c r="C863" s="17">
         <v>19</v>
       </c>
+      <c r="D863" s="3"/>
       <c r="T863" s="17"/>
       <c r="U863" s="17"/>
       <c r="V863" s="17"/>
@@ -37933,6 +38386,7 @@
       <c r="C864" s="17">
         <v>20</v>
       </c>
+      <c r="D864" s="3"/>
       <c r="T864" s="17"/>
       <c r="U864" s="17"/>
       <c r="V864" s="17"/>
@@ -37951,6 +38405,7 @@
       <c r="C865" s="17">
         <v>10.25</v>
       </c>
+      <c r="D865" s="3"/>
       <c r="T865" s="17"/>
       <c r="U865" s="17"/>
       <c r="V865" s="17"/>
@@ -37969,6 +38424,7 @@
       <c r="C866" s="17">
         <v>10.5</v>
       </c>
+      <c r="D866" s="3"/>
       <c r="T866" s="17"/>
       <c r="U866" s="17"/>
       <c r="V866" s="17"/>
@@ -37987,6 +38443,7 @@
       <c r="C867" s="17">
         <v>10.75</v>
       </c>
+      <c r="D867" s="3"/>
       <c r="T867" s="17"/>
       <c r="U867" s="17"/>
       <c r="V867" s="17"/>
@@ -38005,6 +38462,7 @@
       <c r="C868" s="17">
         <v>11</v>
       </c>
+      <c r="D868" s="3"/>
       <c r="T868" s="17"/>
       <c r="U868" s="17"/>
       <c r="V868" s="17"/>
@@ -38023,6 +38481,7 @@
       <c r="C869" s="17">
         <v>11.25</v>
       </c>
+      <c r="D869" s="3"/>
       <c r="T869" s="17"/>
       <c r="U869" s="17"/>
       <c r="V869" s="17"/>
@@ -38041,6 +38500,7 @@
       <c r="C870" s="17">
         <v>11.5</v>
       </c>
+      <c r="D870" s="3"/>
       <c r="T870" s="17"/>
       <c r="U870" s="17"/>
       <c r="V870" s="17"/>
@@ -38059,6 +38519,7 @@
       <c r="C871" s="17">
         <v>11.75</v>
       </c>
+      <c r="D871" s="3"/>
       <c r="T871" s="17"/>
       <c r="U871" s="17"/>
       <c r="V871" s="17"/>
@@ -38077,6 +38538,7 @@
       <c r="C872" s="17">
         <v>12</v>
       </c>
+      <c r="D872" s="3"/>
       <c r="T872" s="17"/>
       <c r="U872" s="17"/>
       <c r="V872" s="17"/>
@@ -38095,6 +38557,7 @@
       <c r="C873" s="17">
         <v>12.25</v>
       </c>
+      <c r="D873" s="3"/>
       <c r="T873" s="17"/>
       <c r="U873" s="17"/>
       <c r="V873" s="17"/>
@@ -38113,6 +38576,7 @@
       <c r="C874" s="17">
         <v>12.5</v>
       </c>
+      <c r="D874" s="3"/>
       <c r="T874" s="17"/>
       <c r="U874" s="17"/>
       <c r="V874" s="17"/>
@@ -38131,6 +38595,7 @@
       <c r="C875" s="17">
         <v>12.75</v>
       </c>
+      <c r="D875" s="3"/>
       <c r="T875" s="17"/>
       <c r="U875" s="17"/>
       <c r="V875" s="17"/>
@@ -38149,6 +38614,7 @@
       <c r="C876" s="17">
         <v>13</v>
       </c>
+      <c r="D876" s="3"/>
       <c r="T876" s="17"/>
       <c r="U876" s="17"/>
       <c r="V876" s="17"/>
@@ -38167,6 +38633,7 @@
       <c r="C877" s="17">
         <v>13.25</v>
       </c>
+      <c r="D877" s="3"/>
       <c r="T877" s="17"/>
       <c r="U877" s="17"/>
       <c r="V877" s="17"/>
@@ -38185,6 +38652,7 @@
       <c r="C878" s="17">
         <v>13.5</v>
       </c>
+      <c r="D878" s="3"/>
       <c r="T878" s="17"/>
       <c r="U878" s="17"/>
       <c r="V878" s="17"/>
@@ -38203,6 +38671,7 @@
       <c r="C879" s="17">
         <v>13.75</v>
       </c>
+      <c r="D879" s="3"/>
       <c r="T879" s="17"/>
       <c r="U879" s="17"/>
       <c r="V879" s="17"/>
@@ -38221,6 +38690,7 @@
       <c r="C880" s="17">
         <v>14</v>
       </c>
+      <c r="D880" s="3"/>
       <c r="T880" s="17"/>
       <c r="U880" s="17"/>
       <c r="V880" s="17"/>
@@ -38239,6 +38709,7 @@
       <c r="C881" s="17">
         <v>14.25</v>
       </c>
+      <c r="D881" s="3"/>
       <c r="T881" s="17"/>
       <c r="U881" s="17"/>
       <c r="V881" s="17"/>
@@ -38257,6 +38728,7 @@
       <c r="C882" s="17">
         <v>14.5</v>
       </c>
+      <c r="D882" s="3"/>
       <c r="T882" s="17"/>
       <c r="U882" s="17"/>
       <c r="V882" s="17"/>
@@ -38275,6 +38747,7 @@
       <c r="C883" s="17">
         <v>14.75</v>
       </c>
+      <c r="D883" s="3"/>
       <c r="T883" s="17"/>
       <c r="U883" s="17"/>
       <c r="V883" s="17"/>
@@ -38293,6 +38766,7 @@
       <c r="C884" s="17">
         <v>15</v>
       </c>
+      <c r="D884" s="3"/>
       <c r="T884" s="17"/>
       <c r="U884" s="17"/>
       <c r="V884" s="17"/>
@@ -38311,6 +38785,7 @@
       <c r="C885" s="17">
         <v>15.25</v>
       </c>
+      <c r="D885" s="3"/>
       <c r="T885" s="17"/>
       <c r="U885" s="17"/>
       <c r="V885" s="17"/>
@@ -38329,6 +38804,7 @@
       <c r="C886" s="17">
         <v>15.5</v>
       </c>
+      <c r="D886" s="3"/>
       <c r="T886" s="17"/>
       <c r="U886" s="17"/>
       <c r="V886" s="17"/>
@@ -38347,6 +38823,7 @@
       <c r="C887" s="17">
         <v>15.75</v>
       </c>
+      <c r="D887" s="3"/>
       <c r="T887" s="17"/>
       <c r="U887" s="17"/>
       <c r="V887" s="17"/>
@@ -38365,6 +38842,7 @@
       <c r="C888" s="17">
         <v>16</v>
       </c>
+      <c r="D888" s="3"/>
       <c r="T888" s="17"/>
       <c r="U888" s="17"/>
       <c r="V888" s="17"/>
@@ -38383,6 +38861,7 @@
       <c r="C889" s="17">
         <v>16.25</v>
       </c>
+      <c r="D889" s="3"/>
       <c r="T889" s="17"/>
       <c r="U889" s="17"/>
       <c r="V889" s="17"/>
@@ -38401,6 +38880,7 @@
       <c r="C890" s="17">
         <v>16.5</v>
       </c>
+      <c r="D890" s="3"/>
       <c r="T890" s="17"/>
       <c r="U890" s="17"/>
       <c r="V890" s="17"/>
@@ -38419,6 +38899,7 @@
       <c r="C891" s="17">
         <v>16.75</v>
       </c>
+      <c r="D891" s="3"/>
       <c r="T891" s="17"/>
       <c r="U891" s="17"/>
       <c r="V891" s="17"/>
@@ -38437,6 +38918,7 @@
       <c r="C892" s="17">
         <v>17</v>
       </c>
+      <c r="D892" s="3"/>
       <c r="T892" s="17"/>
       <c r="U892" s="17"/>
       <c r="V892" s="17"/>
@@ -38455,6 +38937,7 @@
       <c r="C893" s="17">
         <v>17.25</v>
       </c>
+      <c r="D893" s="3"/>
       <c r="T893" s="17"/>
       <c r="U893" s="17"/>
       <c r="V893" s="17"/>
@@ -38473,6 +38956,7 @@
       <c r="C894" s="17">
         <v>17.5</v>
       </c>
+      <c r="D894" s="3"/>
       <c r="T894" s="17"/>
       <c r="U894" s="17"/>
       <c r="V894" s="17"/>
@@ -38491,6 +38975,7 @@
       <c r="C895" s="17">
         <v>17.75</v>
       </c>
+      <c r="D895" s="3"/>
       <c r="T895" s="17"/>
       <c r="U895" s="17"/>
       <c r="V895" s="17"/>
@@ -38509,6 +38994,7 @@
       <c r="C896" s="17">
         <v>18</v>
       </c>
+      <c r="D896" s="3"/>
       <c r="T896" s="17"/>
       <c r="U896" s="17"/>
       <c r="V896" s="17"/>
@@ -38527,6 +39013,7 @@
       <c r="C897" s="17">
         <v>18.25</v>
       </c>
+      <c r="D897" s="3"/>
       <c r="T897" s="17"/>
       <c r="U897" s="17"/>
       <c r="V897" s="17"/>
@@ -38545,6 +39032,7 @@
       <c r="C898" s="17">
         <v>18.5</v>
       </c>
+      <c r="D898" s="3"/>
       <c r="T898" s="17"/>
       <c r="U898" s="17"/>
       <c r="V898" s="17"/>
@@ -38563,6 +39051,7 @@
       <c r="C899" s="17">
         <v>18.75</v>
       </c>
+      <c r="D899" s="3"/>
       <c r="T899" s="17"/>
       <c r="U899" s="17"/>
       <c r="V899" s="17"/>
@@ -38581,6 +39070,7 @@
       <c r="C900" s="17">
         <v>19</v>
       </c>
+      <c r="D900" s="3"/>
       <c r="T900" s="17"/>
       <c r="U900" s="17"/>
       <c r="V900" s="17"/>
@@ -38599,6 +39089,7 @@
       <c r="C901" s="17">
         <v>20</v>
       </c>
+      <c r="D901" s="3"/>
       <c r="T901" s="17"/>
       <c r="U901" s="17"/>
       <c r="V901" s="17"/>
@@ -38617,6 +39108,7 @@
       <c r="C902" s="17">
         <v>10.25</v>
       </c>
+      <c r="D902" s="3"/>
       <c r="T902" s="17"/>
       <c r="U902" s="17"/>
       <c r="V902" s="17"/>
@@ -38635,6 +39127,7 @@
       <c r="C903" s="17">
         <v>10.5</v>
       </c>
+      <c r="D903" s="3"/>
       <c r="T903" s="17"/>
       <c r="U903" s="17"/>
       <c r="V903" s="17"/>
@@ -38653,6 +39146,7 @@
       <c r="C904" s="17">
         <v>10.75</v>
       </c>
+      <c r="D904" s="3"/>
       <c r="T904" s="17"/>
       <c r="U904" s="17"/>
       <c r="V904" s="17"/>
@@ -38671,6 +39165,7 @@
       <c r="C905" s="17">
         <v>11</v>
       </c>
+      <c r="D905" s="3"/>
       <c r="T905" s="17"/>
       <c r="U905" s="17"/>
       <c r="V905" s="17"/>
@@ -38689,6 +39184,7 @@
       <c r="C906" s="17">
         <v>11.25</v>
       </c>
+      <c r="D906" s="3"/>
       <c r="T906" s="17"/>
       <c r="U906" s="17"/>
       <c r="V906" s="17"/>
@@ -38707,6 +39203,7 @@
       <c r="C907" s="17">
         <v>11.5</v>
       </c>
+      <c r="D907" s="3"/>
       <c r="T907" s="17"/>
       <c r="U907" s="17"/>
       <c r="V907" s="17"/>
@@ -38725,6 +39222,7 @@
       <c r="C908" s="17">
         <v>11.75</v>
       </c>
+      <c r="D908" s="3"/>
       <c r="T908" s="17"/>
       <c r="U908" s="17"/>
       <c r="V908" s="17"/>
@@ -38743,6 +39241,7 @@
       <c r="C909" s="17">
         <v>12</v>
       </c>
+      <c r="D909" s="3"/>
       <c r="T909" s="17"/>
       <c r="U909" s="17"/>
       <c r="V909" s="17"/>
@@ -38761,6 +39260,7 @@
       <c r="C910" s="17">
         <v>12.25</v>
       </c>
+      <c r="D910" s="3"/>
       <c r="T910" s="17"/>
       <c r="U910" s="17"/>
       <c r="V910" s="17"/>
@@ -38779,6 +39279,7 @@
       <c r="C911" s="17">
         <v>12.5</v>
       </c>
+      <c r="D911" s="3"/>
       <c r="T911" s="17"/>
       <c r="U911" s="17"/>
       <c r="V911" s="17"/>
@@ -38797,6 +39298,7 @@
       <c r="C912" s="17">
         <v>12.75</v>
       </c>
+      <c r="D912" s="3"/>
       <c r="T912" s="17"/>
       <c r="U912" s="17"/>
       <c r="V912" s="17"/>
@@ -38815,6 +39317,7 @@
       <c r="C913" s="17">
         <v>13</v>
       </c>
+      <c r="D913" s="3"/>
       <c r="T913" s="17"/>
       <c r="U913" s="17"/>
       <c r="V913" s="17"/>
@@ -38833,6 +39336,7 @@
       <c r="C914" s="17">
         <v>13.25</v>
       </c>
+      <c r="D914" s="3"/>
       <c r="T914" s="17"/>
       <c r="U914" s="17"/>
       <c r="V914" s="17"/>
@@ -38851,6 +39355,7 @@
       <c r="C915" s="17">
         <v>13.5</v>
       </c>
+      <c r="D915" s="3"/>
       <c r="T915" s="17"/>
       <c r="U915" s="17"/>
       <c r="V915" s="17"/>
@@ -38869,6 +39374,7 @@
       <c r="C916" s="17">
         <v>13.75</v>
       </c>
+      <c r="D916" s="3"/>
       <c r="T916" s="17"/>
       <c r="U916" s="17"/>
       <c r="V916" s="17"/>
@@ -38887,6 +39393,7 @@
       <c r="C917" s="17">
         <v>14</v>
       </c>
+      <c r="D917" s="3"/>
       <c r="T917" s="17"/>
       <c r="U917" s="17"/>
       <c r="V917" s="17"/>
@@ -38905,6 +39412,7 @@
       <c r="C918" s="17">
         <v>14.25</v>
       </c>
+      <c r="D918" s="3"/>
       <c r="T918" s="17"/>
       <c r="U918" s="17"/>
       <c r="V918" s="17"/>
@@ -38923,6 +39431,7 @@
       <c r="C919" s="17">
         <v>14.5</v>
       </c>
+      <c r="D919" s="3"/>
       <c r="T919" s="17"/>
       <c r="U919" s="17"/>
       <c r="V919" s="17"/>
@@ -38941,6 +39450,7 @@
       <c r="C920" s="17">
         <v>14.75</v>
       </c>
+      <c r="D920" s="3"/>
       <c r="T920" s="17"/>
       <c r="U920" s="17"/>
       <c r="V920" s="17"/>
@@ -38959,6 +39469,7 @@
       <c r="C921" s="17">
         <v>15</v>
       </c>
+      <c r="D921" s="3"/>
       <c r="T921" s="17"/>
       <c r="U921" s="17"/>
       <c r="V921" s="17"/>
@@ -38977,6 +39488,7 @@
       <c r="C922" s="17">
         <v>15.25</v>
       </c>
+      <c r="D922" s="3"/>
       <c r="T922" s="17"/>
       <c r="U922" s="17"/>
       <c r="V922" s="17"/>
@@ -38995,6 +39507,7 @@
       <c r="C923" s="17">
         <v>15.5</v>
       </c>
+      <c r="D923" s="3"/>
       <c r="T923" s="17"/>
       <c r="U923" s="17"/>
       <c r="V923" s="17"/>
@@ -39013,6 +39526,7 @@
       <c r="C924" s="17">
         <v>15.75</v>
       </c>
+      <c r="D924" s="3"/>
       <c r="T924" s="17"/>
       <c r="U924" s="17"/>
       <c r="V924" s="17"/>
@@ -39031,6 +39545,7 @@
       <c r="C925" s="17">
         <v>16</v>
       </c>
+      <c r="D925" s="3"/>
       <c r="T925" s="17"/>
       <c r="U925" s="17"/>
       <c r="V925" s="17"/>
@@ -39049,6 +39564,7 @@
       <c r="C926" s="17">
         <v>16.25</v>
       </c>
+      <c r="D926" s="3"/>
       <c r="T926" s="17"/>
       <c r="U926" s="17"/>
       <c r="V926" s="17"/>
@@ -39067,6 +39583,7 @@
       <c r="C927" s="17">
         <v>16.5</v>
       </c>
+      <c r="D927" s="3"/>
       <c r="T927" s="17"/>
       <c r="U927" s="17"/>
       <c r="V927" s="17"/>
@@ -39085,6 +39602,7 @@
       <c r="C928" s="17">
         <v>16.75</v>
       </c>
+      <c r="D928" s="3"/>
       <c r="T928" s="17"/>
       <c r="U928" s="17"/>
       <c r="V928" s="17"/>
@@ -39103,6 +39621,7 @@
       <c r="C929" s="17">
         <v>17</v>
       </c>
+      <c r="D929" s="3"/>
       <c r="T929" s="17"/>
       <c r="U929" s="17"/>
       <c r="V929" s="17"/>
@@ -39121,6 +39640,7 @@
       <c r="C930" s="17">
         <v>17.25</v>
       </c>
+      <c r="D930" s="3"/>
       <c r="T930" s="17"/>
       <c r="U930" s="17"/>
       <c r="V930" s="17"/>
@@ -39139,6 +39659,7 @@
       <c r="C931" s="17">
         <v>17.5</v>
       </c>
+      <c r="D931" s="3"/>
       <c r="T931" s="17"/>
       <c r="U931" s="17"/>
       <c r="V931" s="17"/>
@@ -39157,6 +39678,7 @@
       <c r="C932" s="17">
         <v>17.75</v>
       </c>
+      <c r="D932" s="3"/>
       <c r="T932" s="17"/>
       <c r="U932" s="17"/>
       <c r="V932" s="17"/>
@@ -39175,6 +39697,7 @@
       <c r="C933" s="17">
         <v>18</v>
       </c>
+      <c r="D933" s="3"/>
       <c r="T933" s="17"/>
       <c r="U933" s="17"/>
       <c r="V933" s="17"/>
@@ -39193,6 +39716,7 @@
       <c r="C934" s="17">
         <v>18.25</v>
       </c>
+      <c r="D934" s="3"/>
       <c r="T934" s="17"/>
       <c r="U934" s="17"/>
       <c r="V934" s="17"/>
@@ -39211,6 +39735,7 @@
       <c r="C935" s="17">
         <v>18.5</v>
       </c>
+      <c r="D935" s="3"/>
       <c r="T935" s="17"/>
       <c r="U935" s="17"/>
       <c r="V935" s="17"/>
@@ -39229,6 +39754,7 @@
       <c r="C936" s="17">
         <v>18.75</v>
       </c>
+      <c r="D936" s="3"/>
       <c r="T936" s="17"/>
       <c r="U936" s="17"/>
       <c r="V936" s="17"/>
@@ -39247,6 +39773,7 @@
       <c r="C937" s="17">
         <v>19</v>
       </c>
+      <c r="D937" s="3"/>
       <c r="T937" s="17"/>
       <c r="U937" s="17"/>
       <c r="V937" s="17"/>
@@ -39265,6 +39792,7 @@
       <c r="C938" s="17">
         <v>20</v>
       </c>
+      <c r="D938" s="3"/>
       <c r="T938" s="17"/>
       <c r="U938" s="17"/>
       <c r="V938" s="17"/>
@@ -39283,6 +39811,7 @@
       <c r="C939" s="17">
         <v>10.25</v>
       </c>
+      <c r="D939" s="3"/>
       <c r="T939" s="17"/>
       <c r="U939" s="17"/>
       <c r="V939" s="17"/>
@@ -39301,6 +39830,7 @@
       <c r="C940" s="17">
         <v>10.5</v>
       </c>
+      <c r="D940" s="3"/>
       <c r="T940" s="17"/>
       <c r="U940" s="17"/>
       <c r="V940" s="17"/>
@@ -39319,6 +39849,7 @@
       <c r="C941" s="17">
         <v>10.75</v>
       </c>
+      <c r="D941" s="3"/>
       <c r="T941" s="17"/>
       <c r="U941" s="17"/>
       <c r="V941" s="17"/>
@@ -39337,6 +39868,7 @@
       <c r="C942" s="17">
         <v>11</v>
       </c>
+      <c r="D942" s="3"/>
       <c r="T942" s="17"/>
       <c r="U942" s="17"/>
       <c r="V942" s="17"/>
@@ -39355,6 +39887,7 @@
       <c r="C943" s="17">
         <v>11.25</v>
       </c>
+      <c r="D943" s="3"/>
       <c r="T943" s="17"/>
       <c r="U943" s="17"/>
       <c r="V943" s="17"/>
@@ -39373,6 +39906,7 @@
       <c r="C944" s="17">
         <v>11.5</v>
       </c>
+      <c r="D944" s="3"/>
       <c r="T944" s="17"/>
       <c r="U944" s="17"/>
       <c r="V944" s="17"/>
@@ -39391,6 +39925,7 @@
       <c r="C945" s="17">
         <v>11.75</v>
       </c>
+      <c r="D945" s="3"/>
       <c r="T945" s="17"/>
       <c r="U945" s="17"/>
       <c r="V945" s="17"/>
@@ -39409,6 +39944,7 @@
       <c r="C946" s="17">
         <v>12</v>
       </c>
+      <c r="D946" s="3"/>
       <c r="T946" s="17"/>
       <c r="U946" s="17"/>
       <c r="V946" s="17"/>
@@ -39427,6 +39963,7 @@
       <c r="C947" s="17">
         <v>12.25</v>
       </c>
+      <c r="D947" s="3"/>
       <c r="T947" s="17"/>
       <c r="U947" s="17"/>
       <c r="V947" s="17"/>
@@ -39445,6 +39982,7 @@
       <c r="C948" s="17">
         <v>12.5</v>
       </c>
+      <c r="D948" s="3"/>
       <c r="T948" s="17"/>
       <c r="U948" s="17"/>
       <c r="V948" s="17"/>
@@ -39463,6 +40001,7 @@
       <c r="C949" s="17">
         <v>12.75</v>
       </c>
+      <c r="D949" s="3"/>
       <c r="T949" s="17"/>
       <c r="U949" s="17"/>
       <c r="V949" s="17"/>
@@ -39481,6 +40020,7 @@
       <c r="C950" s="17">
         <v>13</v>
       </c>
+      <c r="D950" s="3"/>
       <c r="T950" s="17"/>
       <c r="U950" s="17"/>
       <c r="V950" s="17"/>
@@ -39499,6 +40039,7 @@
       <c r="C951" s="17">
         <v>13.25</v>
       </c>
+      <c r="D951" s="3"/>
       <c r="T951" s="17"/>
       <c r="U951" s="17"/>
       <c r="V951" s="17"/>
@@ -39517,6 +40058,7 @@
       <c r="C952" s="17">
         <v>13.5</v>
       </c>
+      <c r="D952" s="3"/>
       <c r="T952" s="17"/>
       <c r="U952" s="17"/>
       <c r="V952" s="17"/>
@@ -39535,6 +40077,7 @@
       <c r="C953" s="17">
         <v>13.75</v>
       </c>
+      <c r="D953" s="3"/>
       <c r="T953" s="17"/>
       <c r="U953" s="17"/>
       <c r="V953" s="17"/>
@@ -39553,6 +40096,7 @@
       <c r="C954" s="17">
         <v>14</v>
       </c>
+      <c r="D954" s="3"/>
       <c r="T954" s="17"/>
       <c r="U954" s="17"/>
       <c r="V954" s="17"/>
@@ -39571,6 +40115,7 @@
       <c r="C955" s="17">
         <v>14.25</v>
       </c>
+      <c r="D955" s="3"/>
       <c r="T955" s="17"/>
       <c r="U955" s="17"/>
       <c r="V955" s="17"/>
@@ -39589,6 +40134,7 @@
       <c r="C956" s="17">
         <v>14.5</v>
       </c>
+      <c r="D956" s="3"/>
       <c r="T956" s="17"/>
       <c r="U956" s="17"/>
       <c r="V956" s="17"/>
@@ -39607,6 +40153,7 @@
       <c r="C957" s="17">
         <v>14.75</v>
       </c>
+      <c r="D957" s="3"/>
       <c r="T957" s="17"/>
       <c r="U957" s="17"/>
       <c r="V957" s="17"/>
@@ -39625,6 +40172,7 @@
       <c r="C958" s="17">
         <v>15</v>
       </c>
+      <c r="D958" s="3"/>
       <c r="T958" s="17"/>
       <c r="U958" s="17"/>
       <c r="V958" s="17"/>
@@ -39643,6 +40191,7 @@
       <c r="C959" s="17">
         <v>15.25</v>
       </c>
+      <c r="D959" s="3"/>
       <c r="T959" s="17"/>
       <c r="U959" s="17"/>
       <c r="V959" s="17"/>
@@ -39661,6 +40210,7 @@
       <c r="C960" s="17">
         <v>15.5</v>
       </c>
+      <c r="D960" s="3"/>
       <c r="T960" s="17"/>
       <c r="U960" s="17"/>
       <c r="V960" s="17"/>
@@ -39679,6 +40229,7 @@
       <c r="C961" s="17">
         <v>15.75</v>
       </c>
+      <c r="D961" s="3"/>
       <c r="T961" s="17"/>
       <c r="U961" s="17"/>
       <c r="V961" s="17"/>
@@ -39697,6 +40248,7 @@
       <c r="C962" s="17">
         <v>16</v>
       </c>
+      <c r="D962" s="3"/>
       <c r="T962" s="17"/>
       <c r="U962" s="17"/>
       <c r="V962" s="17"/>
@@ -39715,6 +40267,7 @@
       <c r="C963" s="17">
         <v>16.25</v>
       </c>
+      <c r="D963" s="3"/>
       <c r="T963" s="17"/>
       <c r="U963" s="17"/>
       <c r="V963" s="17"/>
@@ -39733,6 +40286,7 @@
       <c r="C964" s="17">
         <v>16.5</v>
       </c>
+      <c r="D964" s="3"/>
       <c r="T964" s="17"/>
       <c r="U964" s="17"/>
       <c r="V964" s="17"/>
@@ -39751,6 +40305,7 @@
       <c r="C965" s="17">
         <v>16.75</v>
       </c>
+      <c r="D965" s="3"/>
       <c r="T965" s="17"/>
       <c r="U965" s="17"/>
       <c r="V965" s="17"/>
@@ -39769,6 +40324,7 @@
       <c r="C966" s="17">
         <v>17</v>
       </c>
+      <c r="D966" s="3"/>
       <c r="T966" s="17"/>
       <c r="U966" s="17"/>
       <c r="V966" s="17"/>
@@ -39787,6 +40343,7 @@
       <c r="C967" s="17">
         <v>17.25</v>
       </c>
+      <c r="D967" s="3"/>
       <c r="T967" s="17"/>
       <c r="U967" s="17"/>
       <c r="V967" s="17"/>
@@ -39805,6 +40362,7 @@
       <c r="C968" s="17">
         <v>17.5</v>
       </c>
+      <c r="D968" s="3"/>
       <c r="T968" s="17"/>
       <c r="U968" s="17"/>
       <c r="V968" s="17"/>
@@ -39823,6 +40381,7 @@
       <c r="C969" s="17">
         <v>17.75</v>
       </c>
+      <c r="D969" s="3"/>
       <c r="T969" s="17"/>
       <c r="U969" s="17"/>
       <c r="V969" s="17"/>
@@ -39841,6 +40400,7 @@
       <c r="C970" s="17">
         <v>18</v>
       </c>
+      <c r="D970" s="3"/>
       <c r="T970" s="17"/>
       <c r="U970" s="17"/>
       <c r="V970" s="17"/>
@@ -39859,6 +40419,7 @@
       <c r="C971" s="17">
         <v>18.25</v>
       </c>
+      <c r="D971" s="3"/>
       <c r="T971" s="17"/>
       <c r="U971" s="17"/>
       <c r="V971" s="17"/>
@@ -39877,6 +40438,7 @@
       <c r="C972" s="17">
         <v>18.5</v>
       </c>
+      <c r="D972" s="3"/>
       <c r="T972" s="17"/>
       <c r="U972" s="17"/>
       <c r="V972" s="17"/>
@@ -39895,6 +40457,7 @@
       <c r="C973" s="17">
         <v>18.75</v>
       </c>
+      <c r="D973" s="3"/>
       <c r="T973" s="17"/>
       <c r="U973" s="17"/>
       <c r="V973" s="17"/>
@@ -39913,6 +40476,7 @@
       <c r="C974" s="17">
         <v>19</v>
       </c>
+      <c r="D974" s="3"/>
       <c r="T974" s="17"/>
       <c r="U974" s="17"/>
       <c r="V974" s="17"/>
@@ -39931,6 +40495,7 @@
       <c r="C975" s="17">
         <v>20</v>
       </c>
+      <c r="D975" s="3"/>
       <c r="T975"/>
       <c r="U975"/>
       <c r="V975"/>
@@ -39949,6 +40514,7 @@
       <c r="C976" s="17">
         <v>10.25</v>
       </c>
+      <c r="D976" s="3"/>
       <c r="T976" s="17"/>
       <c r="U976" s="17"/>
       <c r="V976" s="17"/>
@@ -39967,6 +40533,7 @@
       <c r="C977" s="17">
         <v>10.5</v>
       </c>
+      <c r="D977" s="3"/>
       <c r="T977" s="17"/>
       <c r="U977" s="17"/>
       <c r="V977" s="17"/>
@@ -39985,6 +40552,7 @@
       <c r="C978" s="17">
         <v>10.75</v>
       </c>
+      <c r="D978" s="3"/>
       <c r="T978" s="17"/>
       <c r="U978" s="17"/>
       <c r="V978" s="17"/>
@@ -40003,6 +40571,7 @@
       <c r="C979" s="17">
         <v>11</v>
       </c>
+      <c r="D979" s="3"/>
       <c r="T979" s="17"/>
       <c r="U979" s="17"/>
       <c r="V979" s="17"/>
@@ -40021,6 +40590,7 @@
       <c r="C980" s="17">
         <v>11.25</v>
       </c>
+      <c r="D980" s="3"/>
       <c r="T980" s="17"/>
       <c r="U980" s="17"/>
       <c r="V980" s="17"/>
@@ -40039,6 +40609,7 @@
       <c r="C981" s="17">
         <v>11.5</v>
       </c>
+      <c r="D981" s="3"/>
       <c r="T981" s="17"/>
       <c r="U981" s="17"/>
       <c r="V981" s="17"/>
@@ -40057,6 +40628,7 @@
       <c r="C982" s="17">
         <v>11.75</v>
       </c>
+      <c r="D982" s="3"/>
       <c r="T982" s="17"/>
       <c r="U982" s="17"/>
       <c r="V982" s="17"/>
@@ -40075,6 +40647,7 @@
       <c r="C983" s="17">
         <v>12</v>
       </c>
+      <c r="D983" s="3"/>
       <c r="T983" s="17"/>
       <c r="U983" s="17"/>
       <c r="V983" s="17"/>
@@ -40093,6 +40666,7 @@
       <c r="C984" s="17">
         <v>12.25</v>
       </c>
+      <c r="D984" s="3"/>
       <c r="T984" s="17"/>
       <c r="U984" s="17"/>
       <c r="V984" s="17"/>
@@ -40111,6 +40685,7 @@
       <c r="C985" s="17">
         <v>12.5</v>
       </c>
+      <c r="D985" s="3"/>
       <c r="T985" s="17"/>
       <c r="U985" s="17"/>
       <c r="V985" s="17"/>
@@ -40129,6 +40704,7 @@
       <c r="C986" s="17">
         <v>12.75</v>
       </c>
+      <c r="D986" s="3"/>
       <c r="T986" s="17"/>
       <c r="U986" s="17"/>
       <c r="V986" s="17"/>
@@ -40147,6 +40723,7 @@
       <c r="C987" s="17">
         <v>13</v>
       </c>
+      <c r="D987" s="3"/>
       <c r="T987" s="17"/>
       <c r="U987" s="17"/>
       <c r="V987" s="17"/>
@@ -40165,6 +40742,7 @@
       <c r="C988" s="17">
         <v>13.25</v>
       </c>
+      <c r="D988" s="3"/>
       <c r="T988" s="17"/>
       <c r="U988" s="17"/>
       <c r="V988" s="17"/>
@@ -40183,6 +40761,7 @@
       <c r="C989" s="17">
         <v>13.5</v>
       </c>
+      <c r="D989" s="3"/>
       <c r="T989" s="17"/>
       <c r="U989" s="17"/>
       <c r="V989" s="17"/>
@@ -40201,6 +40780,7 @@
       <c r="C990" s="17">
         <v>13.75</v>
       </c>
+      <c r="D990" s="3"/>
       <c r="T990" s="17"/>
       <c r="U990" s="17"/>
       <c r="V990" s="17"/>
@@ -40219,6 +40799,7 @@
       <c r="C991" s="17">
         <v>14</v>
       </c>
+      <c r="D991" s="3"/>
       <c r="T991" s="17"/>
       <c r="U991" s="17"/>
       <c r="V991" s="17"/>
@@ -40237,6 +40818,7 @@
       <c r="C992" s="17">
         <v>14.25</v>
       </c>
+      <c r="D992" s="3"/>
       <c r="T992" s="17"/>
       <c r="U992" s="17"/>
       <c r="V992" s="17"/>
@@ -40255,6 +40837,7 @@
       <c r="C993" s="17">
         <v>14.5</v>
       </c>
+      <c r="D993" s="3"/>
       <c r="T993" s="17"/>
       <c r="U993" s="17"/>
       <c r="V993" s="17"/>
@@ -40273,6 +40856,7 @@
       <c r="C994" s="17">
         <v>14.75</v>
       </c>
+      <c r="D994" s="3"/>
       <c r="T994" s="17"/>
       <c r="U994" s="17"/>
       <c r="V994" s="17"/>
@@ -40291,6 +40875,7 @@
       <c r="C995" s="17">
         <v>15</v>
       </c>
+      <c r="D995" s="3"/>
       <c r="T995" s="17"/>
       <c r="U995" s="17"/>
       <c r="V995" s="17"/>
@@ -40309,6 +40894,7 @@
       <c r="C996" s="17">
         <v>15.25</v>
       </c>
+      <c r="D996" s="3"/>
       <c r="T996" s="17"/>
       <c r="U996" s="17"/>
       <c r="V996" s="17"/>
@@ -40327,6 +40913,7 @@
       <c r="C997" s="17">
         <v>15.5</v>
       </c>
+      <c r="D997" s="3"/>
       <c r="T997" s="17"/>
       <c r="U997" s="17"/>
       <c r="V997" s="17"/>
@@ -40345,6 +40932,7 @@
       <c r="C998" s="17">
         <v>15.75</v>
       </c>
+      <c r="D998" s="3"/>
       <c r="T998" s="17"/>
       <c r="U998" s="17"/>
       <c r="V998" s="17"/>
@@ -40363,6 +40951,7 @@
       <c r="C999" s="17">
         <v>16</v>
       </c>
+      <c r="D999" s="3"/>
       <c r="T999" s="17"/>
       <c r="U999" s="17"/>
       <c r="V999" s="17"/>
@@ -40381,6 +40970,7 @@
       <c r="C1000" s="17">
         <v>16.25</v>
       </c>
+      <c r="D1000" s="3"/>
       <c r="T1000" s="17"/>
       <c r="U1000" s="17"/>
       <c r="V1000" s="17"/>
@@ -40399,6 +40989,7 @@
       <c r="C1001" s="17">
         <v>16.5</v>
       </c>
+      <c r="D1001" s="3"/>
       <c r="T1001" s="17"/>
       <c r="U1001" s="17"/>
       <c r="V1001" s="17"/>
@@ -40417,6 +41008,7 @@
       <c r="C1002" s="17">
         <v>16.75</v>
       </c>
+      <c r="D1002" s="3"/>
       <c r="T1002" s="17"/>
       <c r="U1002" s="17"/>
       <c r="V1002" s="17"/>
@@ -40435,6 +41027,7 @@
       <c r="C1003" s="17">
         <v>17</v>
       </c>
+      <c r="D1003" s="3"/>
       <c r="T1003" s="17"/>
       <c r="U1003" s="17"/>
       <c r="V1003" s="17"/>
@@ -40453,6 +41046,7 @@
       <c r="C1004" s="17">
         <v>17.25</v>
       </c>
+      <c r="D1004" s="3"/>
       <c r="T1004" s="17"/>
       <c r="U1004" s="17"/>
       <c r="V1004" s="17"/>
@@ -40471,6 +41065,7 @@
       <c r="C1005" s="17">
         <v>17.5</v>
       </c>
+      <c r="D1005" s="3"/>
       <c r="T1005" s="17"/>
       <c r="U1005" s="17"/>
       <c r="V1005" s="17"/>
@@ -40489,6 +41084,7 @@
       <c r="C1006" s="17">
         <v>17.75</v>
       </c>
+      <c r="D1006" s="3"/>
       <c r="T1006" s="17"/>
       <c r="U1006" s="17"/>
       <c r="V1006" s="17"/>
@@ -40507,6 +41103,7 @@
       <c r="C1007" s="17">
         <v>18</v>
       </c>
+      <c r="D1007" s="3"/>
       <c r="T1007" s="17"/>
       <c r="U1007" s="17"/>
       <c r="V1007" s="17"/>
@@ -40525,6 +41122,7 @@
       <c r="C1008" s="17">
         <v>18.25</v>
       </c>
+      <c r="D1008" s="3"/>
       <c r="T1008" s="17"/>
       <c r="U1008" s="17"/>
       <c r="V1008" s="17"/>
@@ -40543,6 +41141,7 @@
       <c r="C1009" s="17">
         <v>18.5</v>
       </c>
+      <c r="D1009" s="3"/>
       <c r="T1009" s="17"/>
       <c r="U1009" s="17"/>
       <c r="V1009" s="17"/>
@@ -40561,6 +41160,7 @@
       <c r="C1010" s="17">
         <v>18.75</v>
       </c>
+      <c r="D1010" s="3"/>
       <c r="T1010" s="17"/>
       <c r="U1010" s="17"/>
       <c r="V1010" s="17"/>
@@ -40579,6 +41179,7 @@
       <c r="C1011" s="17">
         <v>19</v>
       </c>
+      <c r="D1011" s="3"/>
       <c r="T1011" s="17"/>
       <c r="U1011" s="17"/>
       <c r="V1011" s="17"/>
@@ -40597,6 +41198,7 @@
       <c r="C1012" s="17">
         <v>20</v>
       </c>
+      <c r="D1012" s="3"/>
       <c r="T1012" s="17"/>
       <c r="U1012" s="17"/>
       <c r="V1012" s="17"/>
@@ -40615,6 +41217,7 @@
       <c r="C1013" s="17">
         <v>10.25</v>
       </c>
+      <c r="D1013" s="3"/>
       <c r="T1013" s="17"/>
       <c r="U1013" s="17"/>
       <c r="V1013" s="17"/>
@@ -40633,6 +41236,7 @@
       <c r="C1014" s="17">
         <v>10.5</v>
       </c>
+      <c r="D1014" s="3"/>
       <c r="T1014" s="17"/>
       <c r="U1014" s="17"/>
       <c r="V1014" s="17"/>
@@ -40651,6 +41255,7 @@
       <c r="C1015" s="17">
         <v>10.75</v>
       </c>
+      <c r="D1015" s="3"/>
       <c r="T1015" s="17"/>
       <c r="U1015" s="17"/>
       <c r="V1015" s="17"/>
@@ -40669,6 +41274,7 @@
       <c r="C1016" s="17">
         <v>11</v>
       </c>
+      <c r="D1016" s="3"/>
       <c r="T1016" s="17"/>
       <c r="U1016" s="17"/>
       <c r="V1016" s="17"/>
@@ -40687,6 +41293,7 @@
       <c r="C1017" s="17">
         <v>11.25</v>
       </c>
+      <c r="D1017" s="3"/>
       <c r="T1017" s="17"/>
       <c r="U1017" s="17"/>
       <c r="V1017" s="17"/>
@@ -40705,6 +41312,7 @@
       <c r="C1018" s="17">
         <v>11.5</v>
       </c>
+      <c r="D1018" s="3"/>
       <c r="T1018" s="17"/>
       <c r="U1018" s="17"/>
       <c r="V1018" s="17"/>
@@ -40723,6 +41331,7 @@
       <c r="C1019" s="17">
         <v>11.75</v>
       </c>
+      <c r="D1019" s="3"/>
       <c r="T1019" s="17"/>
       <c r="U1019" s="17"/>
       <c r="V1019" s="17"/>
@@ -40741,6 +41350,7 @@
       <c r="C1020" s="17">
         <v>12</v>
       </c>
+      <c r="D1020" s="3"/>
       <c r="T1020" s="17"/>
       <c r="U1020" s="17"/>
       <c r="V1020" s="17"/>
@@ -40759,6 +41369,7 @@
       <c r="C1021" s="17">
         <v>12.25</v>
       </c>
+      <c r="D1021" s="3"/>
       <c r="T1021" s="17"/>
       <c r="U1021" s="17"/>
       <c r="V1021" s="17"/>
@@ -40777,6 +41388,7 @@
       <c r="C1022" s="17">
         <v>12.5</v>
       </c>
+      <c r="D1022" s="3"/>
       <c r="T1022" s="17"/>
       <c r="U1022" s="17"/>
       <c r="V1022" s="17"/>
@@ -40795,6 +41407,7 @@
       <c r="C1023" s="17">
         <v>12.75</v>
       </c>
+      <c r="D1023" s="3"/>
       <c r="T1023" s="17"/>
       <c r="U1023" s="17"/>
       <c r="V1023" s="17"/>
@@ -40813,6 +41426,7 @@
       <c r="C1024" s="17">
         <v>13</v>
       </c>
+      <c r="D1024" s="3"/>
       <c r="T1024" s="17"/>
       <c r="U1024" s="17"/>
       <c r="V1024" s="17"/>
@@ -40831,6 +41445,7 @@
       <c r="C1025" s="17">
         <v>13.25</v>
       </c>
+      <c r="D1025" s="3"/>
       <c r="T1025" s="17"/>
       <c r="U1025" s="17"/>
       <c r="V1025" s="17"/>
@@ -40849,6 +41464,7 @@
       <c r="C1026" s="17">
         <v>13.5</v>
       </c>
+      <c r="D1026" s="3"/>
       <c r="T1026" s="17"/>
       <c r="U1026" s="17"/>
       <c r="V1026" s="17"/>
@@ -40867,6 +41483,7 @@
       <c r="C1027" s="17">
         <v>13.75</v>
       </c>
+      <c r="D1027" s="3"/>
       <c r="T1027" s="17"/>
       <c r="U1027" s="17"/>
       <c r="V1027" s="17"/>
@@ -40885,6 +41502,7 @@
       <c r="C1028" s="17">
         <v>14</v>
       </c>
+      <c r="D1028" s="3"/>
       <c r="T1028" s="17"/>
       <c r="U1028" s="17"/>
       <c r="V1028" s="17"/>
@@ -40903,6 +41521,7 @@
       <c r="C1029" s="17">
         <v>14.25</v>
       </c>
+      <c r="D1029" s="3"/>
       <c r="T1029" s="17"/>
       <c r="U1029" s="17"/>
       <c r="V1029" s="17"/>
@@ -40921,6 +41540,7 @@
       <c r="C1030" s="17">
         <v>14.5</v>
       </c>
+      <c r="D1030" s="3"/>
       <c r="T1030" s="17"/>
       <c r="U1030" s="17"/>
       <c r="V1030" s="17"/>
@@ -40939,6 +41559,7 @@
       <c r="C1031" s="17">
         <v>14.75</v>
       </c>
+      <c r="D1031" s="3"/>
       <c r="T1031" s="17"/>
       <c r="U1031" s="17"/>
       <c r="V1031" s="17"/>
@@ -40957,6 +41578,7 @@
       <c r="C1032" s="17">
         <v>15</v>
       </c>
+      <c r="D1032" s="3"/>
       <c r="T1032" s="17"/>
       <c r="U1032" s="17"/>
       <c r="V1032" s="17"/>
@@ -40975,6 +41597,7 @@
       <c r="C1033" s="17">
         <v>15.25</v>
       </c>
+      <c r="D1033" s="3"/>
       <c r="T1033" s="17"/>
       <c r="U1033" s="17"/>
       <c r="V1033" s="17"/>
@@ -40993,6 +41616,7 @@
       <c r="C1034" s="17">
         <v>15.5</v>
       </c>
+      <c r="D1034" s="3"/>
       <c r="T1034" s="17"/>
       <c r="U1034" s="17"/>
       <c r="V1034" s="17"/>
@@ -41011,6 +41635,7 @@
       <c r="C1035" s="17">
         <v>15.75</v>
       </c>
+      <c r="D1035" s="3"/>
       <c r="T1035" s="17"/>
       <c r="U1035" s="17"/>
       <c r="V1035" s="17"/>
@@ -41029,6 +41654,7 @@
       <c r="C1036" s="17">
         <v>16</v>
       </c>
+      <c r="D1036" s="3"/>
       <c r="T1036" s="17"/>
       <c r="U1036" s="17"/>
       <c r="V1036" s="17"/>
@@ -41047,6 +41673,7 @@
       <c r="C1037" s="17">
         <v>16.25</v>
       </c>
+      <c r="D1037" s="3"/>
       <c r="T1037" s="17"/>
       <c r="U1037" s="17"/>
       <c r="V1037" s="17"/>
@@ -41065,6 +41692,7 @@
       <c r="C1038" s="17">
         <v>16.5</v>
       </c>
+      <c r="D1038" s="3"/>
       <c r="T1038" s="17"/>
       <c r="U1038" s="17"/>
       <c r="V1038" s="17"/>
@@ -41083,6 +41711,7 @@
       <c r="C1039" s="17">
         <v>16.75</v>
       </c>
+      <c r="D1039" s="3"/>
       <c r="T1039" s="17"/>
       <c r="U1039" s="17"/>
       <c r="V1039" s="17"/>
@@ -41101,6 +41730,7 @@
       <c r="C1040" s="17">
         <v>17</v>
       </c>
+      <c r="D1040" s="3"/>
       <c r="T1040" s="17"/>
       <c r="U1040" s="17"/>
       <c r="V1040" s="17"/>
@@ -41119,6 +41749,7 @@
       <c r="C1041" s="17">
         <v>17.25</v>
       </c>
+      <c r="D1041" s="3"/>
       <c r="T1041" s="17"/>
       <c r="U1041" s="17"/>
       <c r="V1041" s="17"/>
@@ -41137,6 +41768,7 @@
       <c r="C1042" s="17">
         <v>17.5</v>
       </c>
+      <c r="D1042" s="3"/>
       <c r="T1042" s="17"/>
       <c r="U1042" s="17"/>
       <c r="V1042" s="17"/>
@@ -41155,6 +41787,7 @@
       <c r="C1043" s="17">
         <v>17.75</v>
       </c>
+      <c r="D1043" s="3"/>
       <c r="T1043" s="17"/>
       <c r="U1043" s="17"/>
       <c r="V1043" s="17"/>
@@ -41173,6 +41806,7 @@
       <c r="C1044" s="17">
         <v>18</v>
       </c>
+      <c r="D1044" s="3"/>
       <c r="T1044" s="17"/>
       <c r="U1044" s="17"/>
       <c r="V1044" s="17"/>
@@ -41191,6 +41825,7 @@
       <c r="C1045" s="17">
         <v>18.25</v>
       </c>
+      <c r="D1045" s="3"/>
       <c r="T1045" s="17"/>
       <c r="U1045" s="17"/>
       <c r="V1045" s="17"/>
@@ -41209,6 +41844,7 @@
       <c r="C1046" s="17">
         <v>18.5</v>
       </c>
+      <c r="D1046" s="3"/>
       <c r="T1046" s="17"/>
       <c r="U1046" s="17"/>
       <c r="V1046" s="17"/>
@@ -41227,6 +41863,7 @@
       <c r="C1047" s="17">
         <v>18.75</v>
       </c>
+      <c r="D1047" s="3"/>
       <c r="T1047" s="17"/>
       <c r="U1047" s="17"/>
       <c r="V1047" s="17"/>
@@ -41245,6 +41882,7 @@
       <c r="C1048" s="17">
         <v>19</v>
       </c>
+      <c r="D1048" s="3"/>
       <c r="T1048" s="17"/>
       <c r="U1048" s="17"/>
       <c r="V1048" s="17"/>
@@ -41263,6 +41901,7 @@
       <c r="C1049" s="17">
         <v>20</v>
       </c>
+      <c r="D1049" s="3"/>
       <c r="T1049"/>
       <c r="U1049"/>
       <c r="V1049"/>
@@ -43818,6 +44457,7 @@
       <c r="C1080" s="3">
         <v>0</v>
       </c>
+      <c r="D1080" s="3"/>
       <c r="E1080" s="3">
         <v>1667</v>
       </c>
@@ -45997,6 +46637,7 @@
       <c r="C1136" s="3">
         <v>10</v>
       </c>
+      <c r="D1136" s="3"/>
       <c r="AF1136" s="3">
         <v>132</v>
       </c>
@@ -46017,6 +46658,7 @@
       <c r="C1137" s="3">
         <v>10</v>
       </c>
+      <c r="D1137" s="3"/>
       <c r="AF1137" s="3">
         <v>171</v>
       </c>
@@ -46037,6 +46679,7 @@
       <c r="C1138" s="3">
         <v>10</v>
       </c>
+      <c r="D1138" s="3"/>
       <c r="AF1138" s="3">
         <v>200</v>
       </c>
@@ -46057,6 +46700,7 @@
       <c r="C1139" s="3">
         <v>10</v>
       </c>
+      <c r="D1139" s="3"/>
       <c r="AF1139" s="3">
         <v>189</v>
       </c>
@@ -46077,6 +46721,7 @@
       <c r="C1140" s="3">
         <v>10</v>
       </c>
+      <c r="D1140" s="3"/>
       <c r="AF1140" s="3">
         <v>113</v>
       </c>
@@ -46097,6 +46742,7 @@
       <c r="C1141" s="3">
         <v>10</v>
       </c>
+      <c r="D1141" s="3"/>
       <c r="AF1141" s="3">
         <v>188</v>
       </c>
@@ -46117,6 +46763,7 @@
       <c r="C1142" s="3">
         <v>10</v>
       </c>
+      <c r="D1142" s="3"/>
       <c r="AF1142" s="3">
         <v>169</v>
       </c>
@@ -46137,6 +46784,7 @@
       <c r="C1143" s="3">
         <v>10</v>
       </c>
+      <c r="D1143" s="3"/>
       <c r="AF1143" s="3">
         <v>163</v>
       </c>
@@ -46157,6 +46805,7 @@
       <c r="C1144" s="3">
         <v>10</v>
       </c>
+      <c r="D1144" s="3"/>
       <c r="AF1144" s="3">
         <v>106</v>
       </c>
@@ -46177,6 +46826,7 @@
       <c r="C1145" s="3">
         <v>10</v>
       </c>
+      <c r="D1145" s="3"/>
       <c r="AF1145" s="3">
         <v>142</v>
       </c>
@@ -46197,6 +46847,7 @@
       <c r="C1146" s="3">
         <v>10</v>
       </c>
+      <c r="D1146" s="3"/>
       <c r="AF1146" s="3">
         <v>146</v>
       </c>
@@ -46217,6 +46868,7 @@
       <c r="C1147" s="3">
         <v>10</v>
       </c>
+      <c r="D1147" s="3"/>
       <c r="AF1147" s="3">
         <v>135</v>
       </c>
@@ -54608,7 +55260,7 @@
     </row>
     <row r="1439" spans="1:21" s="20" customFormat="1">
       <c r="A1439" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1439" s="5">
         <v>24303</v>
@@ -54627,7 +55279,7 @@
     </row>
     <row r="1440" spans="1:21" s="20" customFormat="1">
       <c r="A1440" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1440" s="5">
         <f>B$1439+365.25*C1440</f>
@@ -54648,7 +55300,7 @@
     </row>
     <row r="1441" spans="1:36" s="20" customFormat="1">
       <c r="A1441" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1441" s="5">
         <f>B$1439+365.25*C1441</f>
@@ -54699,7 +55351,7 @@
     </row>
     <row r="1442" spans="1:36">
       <c r="A1442" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1442" s="5">
         <v>35200</v>
@@ -54722,7 +55374,7 @@
     </row>
     <row r="1443" spans="1:36">
       <c r="A1443" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1443" s="5">
         <f>B$1442+365.25*C1443</f>
@@ -54746,7 +55398,7 @@
     </row>
     <row r="1444" spans="1:36">
       <c r="A1444" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1444" s="5">
         <f t="shared" ref="B1444:B1449" si="18">B$1442+365.25*C1444</f>
@@ -54775,7 +55427,7 @@
     </row>
     <row r="1445" spans="1:36">
       <c r="A1445" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1445" s="5">
         <f t="shared" ref="B1445" si="19">B$1442+365.25*C1445</f>
@@ -54821,7 +55473,7 @@
     </row>
     <row r="1446" spans="1:36">
       <c r="A1446" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1446" s="5">
         <f t="shared" si="18"/>
@@ -54875,7 +55527,7 @@
     </row>
     <row r="1447" spans="1:36">
       <c r="A1447" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1447" s="5">
         <f t="shared" si="18"/>
@@ -54906,7 +55558,7 @@
     </row>
     <row r="1448" spans="1:36">
       <c r="A1448" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1448" s="5">
         <f t="shared" si="18"/>
@@ -54937,7 +55589,7 @@
     </row>
     <row r="1449" spans="1:36">
       <c r="A1449" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1449" s="5">
         <f t="shared" si="18"/>
@@ -54970,7 +55622,7 @@
     </row>
     <row r="1450" spans="1:36">
       <c r="A1450" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1450" s="54">
         <v>36600</v>
@@ -54987,7 +55639,7 @@
     </row>
     <row r="1451" spans="1:36">
       <c r="A1451" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1451" s="5">
         <f>B$1450+365.25*C1451</f>
@@ -55018,7 +55670,7 @@
     </row>
     <row r="1452" spans="1:36">
       <c r="A1452" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1452" s="5">
         <f t="shared" ref="B1452:B1455" si="20">B$1450+365.25*C1452</f>
@@ -55049,7 +55701,7 @@
     </row>
     <row r="1453" spans="1:36">
       <c r="A1453" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1453" s="5">
         <f t="shared" si="20"/>
@@ -55082,7 +55734,7 @@
     </row>
     <row r="1454" spans="1:36">
       <c r="A1454" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1454" s="5">
         <f t="shared" si="20"/>
@@ -55103,7 +55755,7 @@
     </row>
     <row r="1455" spans="1:36">
       <c r="A1455" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1455" s="5">
         <f t="shared" si="20"/>
@@ -55129,7 +55781,7 @@
     </row>
     <row r="1456" spans="1:36">
       <c r="A1456" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1456" s="54">
         <v>37408</v>
@@ -55146,7 +55798,7 @@
     </row>
     <row r="1457" spans="1:32">
       <c r="A1457" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1457" s="54">
         <f>B$1456+365.25*C1457</f>
@@ -55323,6 +55975,1009 @@
       </c>
       <c r="AF1463" s="1">
         <v>130</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:32">
+      <c r="A1464" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1464" s="54">
+        <v>13346</v>
+      </c>
+      <c r="C1464" s="23">
+        <v>0</v>
+      </c>
+      <c r="D1464" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1464" s="19">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:32">
+      <c r="A1465" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1465" s="54">
+        <f>B$1464+365.25*C1465</f>
+        <v>17729</v>
+      </c>
+      <c r="C1465" s="57">
+        <v>12</v>
+      </c>
+      <c r="D1465" s="59">
+        <f>E1465*100/E$1464</f>
+        <v>88.928571428571431</v>
+      </c>
+      <c r="E1465" s="58">
+        <v>1245</v>
+      </c>
+      <c r="AC1465" s="60">
+        <v>20.09</v>
+      </c>
+      <c r="AD1465" s="57">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:32">
+      <c r="A1466" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1466" s="54">
+        <f t="shared" ref="B1466:B1481" si="23">B$1464+365.25*C1466</f>
+        <v>18459.5</v>
+      </c>
+      <c r="C1466" s="57">
+        <v>14</v>
+      </c>
+      <c r="D1466" s="59">
+        <f t="shared" ref="D1466:D1482" si="24">E1466*100/E$1464</f>
+        <v>86.285714285714292</v>
+      </c>
+      <c r="E1466" s="58">
+        <v>1208</v>
+      </c>
+      <c r="AC1466" s="60">
+        <v>25.37</v>
+      </c>
+      <c r="AD1466" s="57">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:32">
+      <c r="A1467" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1467" s="54">
+        <f t="shared" si="23"/>
+        <v>19190</v>
+      </c>
+      <c r="C1467" s="57">
+        <v>16</v>
+      </c>
+      <c r="D1467" s="59">
+        <f t="shared" si="24"/>
+        <v>71.5</v>
+      </c>
+      <c r="E1467" s="58">
+        <v>1001</v>
+      </c>
+      <c r="AC1467" s="60">
+        <v>25.11</v>
+      </c>
+      <c r="AD1467" s="57">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:32">
+      <c r="A1468" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1468" s="54">
+        <f t="shared" si="23"/>
+        <v>19920.5</v>
+      </c>
+      <c r="C1468" s="57">
+        <v>18</v>
+      </c>
+      <c r="D1468" s="59">
+        <f t="shared" si="24"/>
+        <v>71.5</v>
+      </c>
+      <c r="E1468" s="58">
+        <v>1001</v>
+      </c>
+      <c r="AC1468" s="60">
+        <v>29.13</v>
+      </c>
+      <c r="AD1468" s="57">
+        <v>147.4</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:32">
+      <c r="A1469" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1469" s="54">
+        <f t="shared" si="23"/>
+        <v>21746.75</v>
+      </c>
+      <c r="C1469" s="57">
+        <v>23</v>
+      </c>
+      <c r="D1469" s="59">
+        <f t="shared" si="24"/>
+        <v>70.071428571428569</v>
+      </c>
+      <c r="E1469" s="58">
+        <v>981</v>
+      </c>
+      <c r="AC1469" s="60">
+        <v>36.11</v>
+      </c>
+      <c r="AD1469" s="57">
+        <v>207.7</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:32">
+      <c r="A1470" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1470" s="54">
+        <f t="shared" si="23"/>
+        <v>23573</v>
+      </c>
+      <c r="C1470" s="57">
+        <v>28</v>
+      </c>
+      <c r="D1470" s="59">
+        <f t="shared" si="24"/>
+        <v>68.642857142857139</v>
+      </c>
+      <c r="E1470" s="58">
+        <v>961</v>
+      </c>
+      <c r="AC1470" s="60">
+        <v>42.58</v>
+      </c>
+      <c r="AD1470" s="57">
+        <v>260.60000000000002</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:32">
+      <c r="A1471" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1471" s="54">
+        <f t="shared" si="23"/>
+        <v>25034</v>
+      </c>
+      <c r="C1471" s="57">
+        <v>32</v>
+      </c>
+      <c r="D1471" s="59">
+        <f t="shared" si="24"/>
+        <v>68.642857142857139</v>
+      </c>
+      <c r="E1471" s="58">
+        <v>961</v>
+      </c>
+      <c r="AC1471" s="60">
+        <v>47.52</v>
+      </c>
+      <c r="AD1471" s="57"/>
+    </row>
+    <row r="1472" spans="1:32">
+      <c r="A1472" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1472" s="54">
+        <f t="shared" si="23"/>
+        <v>25399.25</v>
+      </c>
+      <c r="C1472" s="57">
+        <v>33</v>
+      </c>
+      <c r="D1472" s="59">
+        <f t="shared" si="24"/>
+        <v>68.642857142857139</v>
+      </c>
+      <c r="E1472" s="58">
+        <v>961</v>
+      </c>
+      <c r="AC1472" s="60">
+        <v>49.17</v>
+      </c>
+      <c r="AD1472" s="57">
+        <v>337.6</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:30">
+      <c r="A1473" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1473" s="54">
+        <f t="shared" si="23"/>
+        <v>26129.75</v>
+      </c>
+      <c r="C1473" s="57">
+        <v>35</v>
+      </c>
+      <c r="D1473" s="59">
+        <f t="shared" si="24"/>
+        <v>67.428571428571431</v>
+      </c>
+      <c r="E1473" s="58">
+        <v>944</v>
+      </c>
+      <c r="AC1473" s="60">
+        <v>51.29</v>
+      </c>
+      <c r="AD1473" s="57"/>
+    </row>
+    <row r="1474" spans="1:30">
+      <c r="A1474" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1474" s="54">
+        <f t="shared" si="23"/>
+        <v>27225.5</v>
+      </c>
+      <c r="C1474" s="57">
+        <v>38</v>
+      </c>
+      <c r="D1474" s="59">
+        <f t="shared" si="24"/>
+        <v>64.428571428571431</v>
+      </c>
+      <c r="E1474" s="58">
+        <v>902</v>
+      </c>
+      <c r="AC1474" s="60">
+        <v>54.35</v>
+      </c>
+      <c r="AD1474" s="57"/>
+    </row>
+    <row r="1475" spans="1:30">
+      <c r="A1475" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1475" s="54">
+        <f t="shared" si="23"/>
+        <v>28686.5</v>
+      </c>
+      <c r="C1475" s="57">
+        <v>42</v>
+      </c>
+      <c r="D1475" s="59">
+        <f t="shared" si="24"/>
+        <v>60.428571428571431</v>
+      </c>
+      <c r="E1475" s="58">
+        <v>846</v>
+      </c>
+      <c r="AC1475" s="60">
+        <v>57.31</v>
+      </c>
+      <c r="AD1475" s="57">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:30">
+      <c r="A1476" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1476" s="54">
+        <f t="shared" si="23"/>
+        <v>30147.5</v>
+      </c>
+      <c r="C1476" s="57">
+        <v>46</v>
+      </c>
+      <c r="D1476" s="59">
+        <f t="shared" si="24"/>
+        <v>53.714285714285715</v>
+      </c>
+      <c r="E1476" s="58">
+        <v>752</v>
+      </c>
+      <c r="AC1476" s="60">
+        <v>57.26</v>
+      </c>
+      <c r="AD1476" s="57"/>
+    </row>
+    <row r="1477" spans="1:30">
+      <c r="A1477" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1477" s="54">
+        <f t="shared" si="23"/>
+        <v>31608.5</v>
+      </c>
+      <c r="C1477" s="57">
+        <v>50</v>
+      </c>
+      <c r="D1477" s="59">
+        <f t="shared" si="24"/>
+        <v>49.642857142857146</v>
+      </c>
+      <c r="E1477" s="58">
+        <v>695</v>
+      </c>
+      <c r="AC1477" s="60">
+        <v>58.6</v>
+      </c>
+      <c r="AD1477" s="57">
+        <v>498.2</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:30">
+      <c r="A1478" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1478" s="54">
+        <f t="shared" si="23"/>
+        <v>32339</v>
+      </c>
+      <c r="C1478" s="57">
+        <v>52</v>
+      </c>
+      <c r="D1478" s="59">
+        <f t="shared" si="24"/>
+        <v>49.642857142857146</v>
+      </c>
+      <c r="E1478" s="58">
+        <v>695</v>
+      </c>
+      <c r="AC1478" s="60">
+        <v>61.89</v>
+      </c>
+      <c r="AD1478" s="57"/>
+    </row>
+    <row r="1479" spans="1:30">
+      <c r="A1479" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1479" s="54">
+        <f t="shared" si="23"/>
+        <v>33069.5</v>
+      </c>
+      <c r="C1479" s="57">
+        <v>54</v>
+      </c>
+      <c r="D1479" s="59">
+        <f t="shared" si="24"/>
+        <v>47</v>
+      </c>
+      <c r="E1479" s="58">
+        <v>658</v>
+      </c>
+      <c r="AC1479" s="60">
+        <v>62.61</v>
+      </c>
+      <c r="AD1479" s="57"/>
+    </row>
+    <row r="1480" spans="1:30">
+      <c r="A1480" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1480" s="54">
+        <f t="shared" si="23"/>
+        <v>33800</v>
+      </c>
+      <c r="C1480" s="57">
+        <v>56</v>
+      </c>
+      <c r="D1480" s="59">
+        <f t="shared" si="24"/>
+        <v>44.285714285714285</v>
+      </c>
+      <c r="E1480" s="58">
+        <v>620</v>
+      </c>
+      <c r="AC1480" s="60">
+        <v>63.27</v>
+      </c>
+      <c r="AD1480" s="57">
+        <v>569.29999999999995</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:30">
+      <c r="A1481" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1481" s="54">
+        <f t="shared" si="23"/>
+        <v>13346</v>
+      </c>
+      <c r="C1481" s="57">
+        <v>0</v>
+      </c>
+      <c r="D1481" s="62">
+        <v>100</v>
+      </c>
+      <c r="E1481" s="61">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:30">
+      <c r="A1482" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1482" s="54">
+        <f>B$1481+365.25*C1482</f>
+        <v>17729</v>
+      </c>
+      <c r="C1482" s="57">
+        <v>12</v>
+      </c>
+      <c r="D1482" s="59">
+        <f>E1482*100/E$1481</f>
+        <v>97.571428571428569</v>
+      </c>
+      <c r="E1482" s="58">
+        <v>1366</v>
+      </c>
+      <c r="AC1482" s="60">
+        <v>46.05</v>
+      </c>
+      <c r="AD1482" s="57">
+        <v>294.8</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:30">
+      <c r="A1483" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1483" s="54">
+        <f t="shared" ref="B1483:B1505" si="25">B$1481+365.25*C1483</f>
+        <v>18459.5</v>
+      </c>
+      <c r="C1483" s="57">
+        <v>14</v>
+      </c>
+      <c r="D1483" s="59">
+        <f t="shared" ref="D1483:D1505" si="26">E1483*100/E$1481</f>
+        <v>97.571428571428569</v>
+      </c>
+      <c r="E1483" s="58">
+        <v>1366</v>
+      </c>
+      <c r="AC1483" s="60">
+        <v>52.46</v>
+      </c>
+      <c r="AD1483" s="57">
+        <v>389.4</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:30">
+      <c r="A1484" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1484" s="54">
+        <f t="shared" si="25"/>
+        <v>19190</v>
+      </c>
+      <c r="C1484" s="57">
+        <v>16</v>
+      </c>
+      <c r="D1484" s="59">
+        <f t="shared" si="26"/>
+        <v>68.285714285714292</v>
+      </c>
+      <c r="E1484" s="58">
+        <v>956</v>
+      </c>
+      <c r="AC1484" s="60">
+        <v>45.91</v>
+      </c>
+      <c r="AD1484" s="57">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:30">
+      <c r="A1485" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1485" s="54">
+        <f t="shared" si="25"/>
+        <v>20285.75</v>
+      </c>
+      <c r="C1485" s="57">
+        <v>19</v>
+      </c>
+      <c r="D1485" s="59">
+        <f t="shared" si="26"/>
+        <v>67.428571428571431</v>
+      </c>
+      <c r="E1485" s="58">
+        <v>944</v>
+      </c>
+      <c r="AC1485" s="60">
+        <v>51.4</v>
+      </c>
+      <c r="AD1485" s="57">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:30">
+      <c r="A1486" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1486" s="54">
+        <f t="shared" si="25"/>
+        <v>21016.25</v>
+      </c>
+      <c r="C1486" s="57">
+        <v>21</v>
+      </c>
+      <c r="D1486" s="59">
+        <f t="shared" si="26"/>
+        <v>35.142857142857146</v>
+      </c>
+      <c r="E1486" s="58">
+        <v>492</v>
+      </c>
+      <c r="AC1486" s="60">
+        <v>34.18</v>
+      </c>
+      <c r="AD1486" s="57">
+        <v>349.4</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:30">
+      <c r="A1487" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1487" s="54">
+        <f t="shared" si="25"/>
+        <v>21746.75</v>
+      </c>
+      <c r="C1487" s="57">
+        <v>23</v>
+      </c>
+      <c r="D1487" s="59">
+        <f t="shared" si="26"/>
+        <v>34.214285714285715</v>
+      </c>
+      <c r="E1487" s="58">
+        <v>479</v>
+      </c>
+      <c r="AC1487" s="60">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="AD1487" s="57"/>
+    </row>
+    <row r="1488" spans="1:30">
+      <c r="A1488" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1488" s="54">
+        <f t="shared" si="25"/>
+        <v>22477.25</v>
+      </c>
+      <c r="C1488" s="57">
+        <v>25</v>
+      </c>
+      <c r="D1488" s="59">
+        <f t="shared" si="26"/>
+        <v>34.214285714285715</v>
+      </c>
+      <c r="E1488" s="58">
+        <v>479</v>
+      </c>
+      <c r="AC1488" s="60">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="AD1488" s="57">
+        <v>434.1</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:30">
+      <c r="A1489" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1489" s="54">
+        <f t="shared" si="25"/>
+        <v>23573</v>
+      </c>
+      <c r="C1489" s="57">
+        <v>28</v>
+      </c>
+      <c r="D1489" s="59">
+        <f t="shared" si="26"/>
+        <v>22.785714285714285</v>
+      </c>
+      <c r="E1489" s="58">
+        <v>319</v>
+      </c>
+      <c r="AC1489" s="60">
+        <v>34.18</v>
+      </c>
+      <c r="AD1489" s="57"/>
+    </row>
+    <row r="1490" spans="1:30">
+      <c r="A1490" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1490" s="54">
+        <f t="shared" si="25"/>
+        <v>24303.5</v>
+      </c>
+      <c r="C1490" s="57">
+        <v>30</v>
+      </c>
+      <c r="D1490" s="59">
+        <f t="shared" si="26"/>
+        <v>21.857142857142858</v>
+      </c>
+      <c r="E1490" s="58">
+        <v>306</v>
+      </c>
+      <c r="AC1490" s="60">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="AD1490" s="57"/>
+    </row>
+    <row r="1491" spans="1:30">
+      <c r="A1491" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1491" s="54">
+        <f t="shared" si="25"/>
+        <v>24668.75</v>
+      </c>
+      <c r="C1491" s="57">
+        <v>31</v>
+      </c>
+      <c r="D1491" s="59">
+        <f t="shared" si="26"/>
+        <v>21.857142857142858</v>
+      </c>
+      <c r="E1491" s="58">
+        <v>306</v>
+      </c>
+      <c r="AC1491" s="60">
+        <v>38.25</v>
+      </c>
+      <c r="AD1491" s="57">
+        <v>409.1</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:30">
+      <c r="A1492" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1492" s="54">
+        <f t="shared" si="25"/>
+        <v>25399.25</v>
+      </c>
+      <c r="C1492" s="57">
+        <v>33</v>
+      </c>
+      <c r="D1492" s="59">
+        <f t="shared" si="26"/>
+        <v>15.214285714285714</v>
+      </c>
+      <c r="E1492" s="58">
+        <v>213</v>
+      </c>
+      <c r="AC1492" s="60">
+        <v>31.06</v>
+      </c>
+      <c r="AD1492" s="57"/>
+    </row>
+    <row r="1493" spans="1:30">
+      <c r="A1493" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1493" s="54">
+        <f t="shared" si="25"/>
+        <v>26129.75</v>
+      </c>
+      <c r="C1493" s="57">
+        <v>35</v>
+      </c>
+      <c r="D1493" s="59">
+        <f t="shared" si="26"/>
+        <v>15.214285714285714</v>
+      </c>
+      <c r="E1493" s="58">
+        <v>213</v>
+      </c>
+      <c r="AC1493" s="60">
+        <v>34.5</v>
+      </c>
+      <c r="AD1493" s="57"/>
+    </row>
+    <row r="1494" spans="1:30">
+      <c r="A1494" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1494" s="54">
+        <f t="shared" si="25"/>
+        <v>26860.25</v>
+      </c>
+      <c r="C1494" s="57">
+        <v>37</v>
+      </c>
+      <c r="D1494" s="59">
+        <f t="shared" si="26"/>
+        <v>15.214285714285714</v>
+      </c>
+      <c r="E1494" s="58">
+        <v>213</v>
+      </c>
+      <c r="AC1494" s="60">
+        <v>38.479999999999997</v>
+      </c>
+      <c r="AD1494" s="57">
+        <v>432.9</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:30">
+      <c r="A1495" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1495" s="54">
+        <f t="shared" si="25"/>
+        <v>27956</v>
+      </c>
+      <c r="C1495" s="57">
+        <v>40</v>
+      </c>
+      <c r="D1495" s="59">
+        <f t="shared" si="26"/>
+        <v>10.428571428571429</v>
+      </c>
+      <c r="E1495" s="58">
+        <v>146</v>
+      </c>
+      <c r="AC1495" s="60">
+        <v>30.13</v>
+      </c>
+      <c r="AD1495" s="57">
+        <v>349.1</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:30">
+      <c r="A1496" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1496" s="54">
+        <f t="shared" si="25"/>
+        <v>29051.75</v>
+      </c>
+      <c r="C1496" s="57">
+        <v>43</v>
+      </c>
+      <c r="D1496" s="59">
+        <f t="shared" si="26"/>
+        <v>10.428571428571429</v>
+      </c>
+      <c r="E1496" s="58">
+        <v>146</v>
+      </c>
+      <c r="AC1496" s="60">
+        <v>33.35</v>
+      </c>
+      <c r="AD1496" s="57">
+        <v>395.5</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:30">
+      <c r="A1497" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1497" s="54">
+        <f t="shared" si="25"/>
+        <v>29782.25</v>
+      </c>
+      <c r="C1497" s="57">
+        <v>45</v>
+      </c>
+      <c r="D1497" s="59">
+        <f t="shared" si="26"/>
+        <v>6.6428571428571432</v>
+      </c>
+      <c r="E1497" s="58">
+        <v>93</v>
+      </c>
+      <c r="AC1497" s="60">
+        <v>24.99</v>
+      </c>
+      <c r="AD1497" s="57"/>
+    </row>
+    <row r="1498" spans="1:30">
+      <c r="A1498" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1498" s="54">
+        <f t="shared" si="25"/>
+        <v>30512.75</v>
+      </c>
+      <c r="C1498" s="57">
+        <v>47</v>
+      </c>
+      <c r="D1498" s="59">
+        <f t="shared" si="26"/>
+        <v>6.6428571428571432</v>
+      </c>
+      <c r="E1498" s="58">
+        <v>93</v>
+      </c>
+      <c r="AC1498" s="60">
+        <v>26.44</v>
+      </c>
+      <c r="AD1498" s="57">
+        <v>326.2</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:30">
+      <c r="A1499" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1499" s="54">
+        <f t="shared" si="25"/>
+        <v>31608.5</v>
+      </c>
+      <c r="C1499" s="57">
+        <v>50</v>
+      </c>
+      <c r="D1499" s="59">
+        <f t="shared" si="26"/>
+        <v>6.6428571428571432</v>
+      </c>
+      <c r="E1499" s="58">
+        <v>93</v>
+      </c>
+      <c r="AC1499" s="60">
+        <v>29.04</v>
+      </c>
+      <c r="AD1499" s="57">
+        <v>357.5</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:30">
+      <c r="A1500" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1500" s="54">
+        <f t="shared" si="25"/>
+        <v>32339</v>
+      </c>
+      <c r="C1500" s="57">
+        <v>52</v>
+      </c>
+      <c r="D1500" s="59">
+        <f t="shared" si="26"/>
+        <v>6.6428571428571432</v>
+      </c>
+      <c r="E1500" s="58">
+        <v>93</v>
+      </c>
+      <c r="AC1500" s="60">
+        <v>30.91</v>
+      </c>
+      <c r="AD1500" s="57"/>
+    </row>
+    <row r="1501" spans="1:30">
+      <c r="A1501" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1501" s="54">
+        <f t="shared" si="25"/>
+        <v>33069.5</v>
+      </c>
+      <c r="C1501" s="57">
+        <v>54</v>
+      </c>
+      <c r="D1501" s="59">
+        <f t="shared" si="26"/>
+        <v>6.6428571428571432</v>
+      </c>
+      <c r="E1501" s="58">
+        <v>93</v>
+      </c>
+      <c r="AC1501" s="60">
+        <v>32.24</v>
+      </c>
+      <c r="AD1501" s="57"/>
+    </row>
+    <row r="1502" spans="1:30">
+      <c r="A1502" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1502" s="54">
+        <f t="shared" si="25"/>
+        <v>33434.75</v>
+      </c>
+      <c r="C1502" s="57">
+        <v>55</v>
+      </c>
+      <c r="D1502" s="59">
+        <f t="shared" si="26"/>
+        <v>6.6428571428571432</v>
+      </c>
+      <c r="E1502" s="58">
+        <v>93</v>
+      </c>
+      <c r="AC1502" s="60">
+        <v>32.78</v>
+      </c>
+      <c r="AD1502" s="57"/>
+    </row>
+    <row r="1503" spans="1:30">
+      <c r="A1503" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1503" s="54">
+        <f t="shared" si="25"/>
+        <v>33800</v>
+      </c>
+      <c r="C1503" s="57">
+        <v>56</v>
+      </c>
+      <c r="D1503" s="59">
+        <f t="shared" si="26"/>
+        <v>6.6428571428571432</v>
+      </c>
+      <c r="E1503" s="58">
+        <v>93</v>
+      </c>
+      <c r="AC1503" s="60">
+        <v>33.54</v>
+      </c>
+      <c r="AD1503" s="57">
+        <v>417.2</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:30">
+      <c r="A1504" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1504" s="54">
+        <f t="shared" si="25"/>
+        <v>34530.5</v>
+      </c>
+      <c r="C1504" s="57">
+        <v>58</v>
+      </c>
+      <c r="D1504" s="59">
+        <f t="shared" si="26"/>
+        <v>3.7857142857142856</v>
+      </c>
+      <c r="E1504" s="58">
+        <v>53</v>
+      </c>
+      <c r="AC1504" s="60">
+        <v>22.16</v>
+      </c>
+      <c r="AD1504" s="57"/>
+    </row>
+    <row r="1505" spans="1:30">
+      <c r="A1505" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1505" s="54">
+        <f t="shared" si="25"/>
+        <v>34895.75</v>
+      </c>
+      <c r="C1505" s="57">
+        <v>59</v>
+      </c>
+      <c r="D1505" s="59">
+        <f t="shared" si="26"/>
+        <v>3.7857142857142856</v>
+      </c>
+      <c r="E1505" s="58">
+        <v>53</v>
+      </c>
+      <c r="AC1505" s="60">
+        <v>22.66</v>
+      </c>
+      <c r="AD1505" s="57">
+        <v>295.8</v>
       </c>
     </row>
   </sheetData>

--- a/Prototypes/Pinus/Observed.xlsx
+++ b/Prototypes/Pinus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Prototypes\Pinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C5034D-B96F-4C32-B707-81A69B5B5D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F8242E-E833-4580-AA6D-175A34C2A6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,12 +393,6 @@
     <t>HQP251MBRF1MB6</t>
   </si>
   <si>
-    <t>HQP3HQP21GYMR1</t>
-  </si>
-  <si>
-    <t>HQP3HQP21GYMBLHQP2TWC</t>
-  </si>
-  <si>
     <t>HQP350GYMHighFWC</t>
   </si>
   <si>
@@ -406,6 +400,12 @@
   </si>
   <si>
     <t>FSA704</t>
+  </si>
+  <si>
+    <t>HQP321GYMR1</t>
+  </si>
+  <si>
+    <t>HQP321GYMBL2TWC</t>
   </si>
 </sst>
 </file>
@@ -1070,15 +1070,15 @@
   <dimension ref="A1:BT1505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D1461" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D1430" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1482" sqref="D1482:D1505"/>
+      <selection pane="bottomRight" activeCell="A1437" sqref="A1437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="62"/>
@@ -55260,7 +55260,7 @@
     </row>
     <row r="1439" spans="1:21" s="20" customFormat="1">
       <c r="A1439" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B1439" s="5">
         <v>24303</v>
@@ -55279,7 +55279,7 @@
     </row>
     <row r="1440" spans="1:21" s="20" customFormat="1">
       <c r="A1440" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B1440" s="5">
         <f>B$1439+365.25*C1440</f>
@@ -55300,7 +55300,7 @@
     </row>
     <row r="1441" spans="1:36" s="20" customFormat="1">
       <c r="A1441" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B1441" s="5">
         <f>B$1439+365.25*C1441</f>
@@ -55351,7 +55351,7 @@
     </row>
     <row r="1442" spans="1:36">
       <c r="A1442" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1442" s="5">
         <v>35200</v>
@@ -55374,7 +55374,7 @@
     </row>
     <row r="1443" spans="1:36">
       <c r="A1443" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1443" s="5">
         <f>B$1442+365.25*C1443</f>
@@ -55398,7 +55398,7 @@
     </row>
     <row r="1444" spans="1:36">
       <c r="A1444" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1444" s="5">
         <f t="shared" ref="B1444:B1449" si="18">B$1442+365.25*C1444</f>
@@ -55427,7 +55427,7 @@
     </row>
     <row r="1445" spans="1:36">
       <c r="A1445" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1445" s="5">
         <f t="shared" ref="B1445" si="19">B$1442+365.25*C1445</f>
@@ -55473,7 +55473,7 @@
     </row>
     <row r="1446" spans="1:36">
       <c r="A1446" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1446" s="5">
         <f t="shared" si="18"/>
@@ -55527,7 +55527,7 @@
     </row>
     <row r="1447" spans="1:36">
       <c r="A1447" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1447" s="5">
         <f t="shared" si="18"/>
@@ -55558,7 +55558,7 @@
     </row>
     <row r="1448" spans="1:36">
       <c r="A1448" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1448" s="5">
         <f t="shared" si="18"/>
@@ -55589,7 +55589,7 @@
     </row>
     <row r="1449" spans="1:36">
       <c r="A1449" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1449" s="5">
         <f t="shared" si="18"/>
@@ -55823,7 +55823,7 @@
     </row>
     <row r="1458" spans="1:32">
       <c r="A1458" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1458" s="5">
         <v>36285</v>
@@ -55840,7 +55840,7 @@
     </row>
     <row r="1459" spans="1:32">
       <c r="A1459" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1459" s="54">
         <f>B$1458+365.25*C1459</f>
@@ -55863,7 +55863,7 @@
     </row>
     <row r="1460" spans="1:32">
       <c r="A1460" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1460" s="54">
         <f t="shared" ref="B1460" si="21">B$1458+365.25*C1460</f>
@@ -55895,7 +55895,7 @@
     </row>
     <row r="1461" spans="1:32">
       <c r="A1461" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1461" s="54">
         <f>B$1458+365.25*C1461</f>
@@ -55927,7 +55927,7 @@
     </row>
     <row r="1462" spans="1:32">
       <c r="A1462" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1462" s="54">
         <f>B$1458+365.25*C1462</f>
@@ -55947,7 +55947,7 @@
     </row>
     <row r="1463" spans="1:32">
       <c r="A1463" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1463" s="54">
         <f>B$1458+365.25*C1463</f>
@@ -55979,7 +55979,7 @@
     </row>
     <row r="1464" spans="1:32">
       <c r="A1464" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1464" s="54">
         <v>13346</v>
@@ -55996,7 +55996,7 @@
     </row>
     <row r="1465" spans="1:32">
       <c r="A1465" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1465" s="54">
         <f>B$1464+365.25*C1465</f>
@@ -56021,7 +56021,7 @@
     </row>
     <row r="1466" spans="1:32">
       <c r="A1466" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1466" s="54">
         <f t="shared" ref="B1466:B1481" si="23">B$1464+365.25*C1466</f>
@@ -56031,7 +56031,7 @@
         <v>14</v>
       </c>
       <c r="D1466" s="59">
-        <f t="shared" ref="D1466:D1482" si="24">E1466*100/E$1464</f>
+        <f t="shared" ref="D1466:D1480" si="24">E1466*100/E$1464</f>
         <v>86.285714285714292</v>
       </c>
       <c r="E1466" s="58">
@@ -56046,7 +56046,7 @@
     </row>
     <row r="1467" spans="1:32">
       <c r="A1467" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1467" s="54">
         <f t="shared" si="23"/>
@@ -56071,7 +56071,7 @@
     </row>
     <row r="1468" spans="1:32">
       <c r="A1468" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1468" s="54">
         <f t="shared" si="23"/>
@@ -56096,7 +56096,7 @@
     </row>
     <row r="1469" spans="1:32">
       <c r="A1469" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1469" s="54">
         <f t="shared" si="23"/>
@@ -56121,7 +56121,7 @@
     </row>
     <row r="1470" spans="1:32">
       <c r="A1470" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1470" s="54">
         <f t="shared" si="23"/>
@@ -56146,7 +56146,7 @@
     </row>
     <row r="1471" spans="1:32">
       <c r="A1471" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1471" s="54">
         <f t="shared" si="23"/>
@@ -56169,7 +56169,7 @@
     </row>
     <row r="1472" spans="1:32">
       <c r="A1472" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1472" s="54">
         <f t="shared" si="23"/>
@@ -56194,7 +56194,7 @@
     </row>
     <row r="1473" spans="1:30">
       <c r="A1473" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1473" s="54">
         <f t="shared" si="23"/>
@@ -56217,7 +56217,7 @@
     </row>
     <row r="1474" spans="1:30">
       <c r="A1474" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1474" s="54">
         <f t="shared" si="23"/>
@@ -56240,7 +56240,7 @@
     </row>
     <row r="1475" spans="1:30">
       <c r="A1475" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1475" s="54">
         <f t="shared" si="23"/>
@@ -56265,7 +56265,7 @@
     </row>
     <row r="1476" spans="1:30">
       <c r="A1476" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1476" s="54">
         <f t="shared" si="23"/>
@@ -56288,7 +56288,7 @@
     </row>
     <row r="1477" spans="1:30">
       <c r="A1477" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1477" s="54">
         <f t="shared" si="23"/>
@@ -56313,7 +56313,7 @@
     </row>
     <row r="1478" spans="1:30">
       <c r="A1478" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1478" s="54">
         <f t="shared" si="23"/>
@@ -56336,7 +56336,7 @@
     </row>
     <row r="1479" spans="1:30">
       <c r="A1479" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1479" s="54">
         <f t="shared" si="23"/>
@@ -56359,7 +56359,7 @@
     </row>
     <row r="1480" spans="1:30">
       <c r="A1480" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1480" s="54">
         <f t="shared" si="23"/>
@@ -56384,7 +56384,7 @@
     </row>
     <row r="1481" spans="1:30">
       <c r="A1481" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1481" s="54">
         <f t="shared" si="23"/>
@@ -56402,7 +56402,7 @@
     </row>
     <row r="1482" spans="1:30">
       <c r="A1482" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1482" s="54">
         <f>B$1481+365.25*C1482</f>
@@ -56427,7 +56427,7 @@
     </row>
     <row r="1483" spans="1:30">
       <c r="A1483" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1483" s="54">
         <f t="shared" ref="B1483:B1505" si="25">B$1481+365.25*C1483</f>
@@ -56452,7 +56452,7 @@
     </row>
     <row r="1484" spans="1:30">
       <c r="A1484" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1484" s="54">
         <f t="shared" si="25"/>
@@ -56477,7 +56477,7 @@
     </row>
     <row r="1485" spans="1:30">
       <c r="A1485" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1485" s="54">
         <f t="shared" si="25"/>
@@ -56502,7 +56502,7 @@
     </row>
     <row r="1486" spans="1:30">
       <c r="A1486" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1486" s="54">
         <f t="shared" si="25"/>
@@ -56527,7 +56527,7 @@
     </row>
     <row r="1487" spans="1:30">
       <c r="A1487" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1487" s="54">
         <f t="shared" si="25"/>
@@ -56550,7 +56550,7 @@
     </row>
     <row r="1488" spans="1:30">
       <c r="A1488" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1488" s="54">
         <f t="shared" si="25"/>
@@ -56575,7 +56575,7 @@
     </row>
     <row r="1489" spans="1:30">
       <c r="A1489" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1489" s="54">
         <f t="shared" si="25"/>
@@ -56598,7 +56598,7 @@
     </row>
     <row r="1490" spans="1:30">
       <c r="A1490" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1490" s="54">
         <f t="shared" si="25"/>
@@ -56621,7 +56621,7 @@
     </row>
     <row r="1491" spans="1:30">
       <c r="A1491" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1491" s="54">
         <f t="shared" si="25"/>
@@ -56646,7 +56646,7 @@
     </row>
     <row r="1492" spans="1:30">
       <c r="A1492" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1492" s="54">
         <f t="shared" si="25"/>
@@ -56669,7 +56669,7 @@
     </row>
     <row r="1493" spans="1:30">
       <c r="A1493" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1493" s="54">
         <f t="shared" si="25"/>
@@ -56692,7 +56692,7 @@
     </row>
     <row r="1494" spans="1:30">
       <c r="A1494" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1494" s="54">
         <f t="shared" si="25"/>
@@ -56717,7 +56717,7 @@
     </row>
     <row r="1495" spans="1:30">
       <c r="A1495" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1495" s="54">
         <f t="shared" si="25"/>
@@ -56742,7 +56742,7 @@
     </row>
     <row r="1496" spans="1:30">
       <c r="A1496" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1496" s="54">
         <f t="shared" si="25"/>
@@ -56767,7 +56767,7 @@
     </row>
     <row r="1497" spans="1:30">
       <c r="A1497" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1497" s="54">
         <f t="shared" si="25"/>
@@ -56790,7 +56790,7 @@
     </row>
     <row r="1498" spans="1:30">
       <c r="A1498" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1498" s="54">
         <f t="shared" si="25"/>
@@ -56815,7 +56815,7 @@
     </row>
     <row r="1499" spans="1:30">
       <c r="A1499" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1499" s="54">
         <f t="shared" si="25"/>
@@ -56840,7 +56840,7 @@
     </row>
     <row r="1500" spans="1:30">
       <c r="A1500" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1500" s="54">
         <f t="shared" si="25"/>
@@ -56863,7 +56863,7 @@
     </row>
     <row r="1501" spans="1:30">
       <c r="A1501" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1501" s="54">
         <f t="shared" si="25"/>
@@ -56886,7 +56886,7 @@
     </row>
     <row r="1502" spans="1:30">
       <c r="A1502" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1502" s="54">
         <f t="shared" si="25"/>
@@ -56909,7 +56909,7 @@
     </row>
     <row r="1503" spans="1:30">
       <c r="A1503" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1503" s="54">
         <f t="shared" si="25"/>
@@ -56934,7 +56934,7 @@
     </row>
     <row r="1504" spans="1:30">
       <c r="A1504" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1504" s="54">
         <f t="shared" si="25"/>
@@ -56957,7 +56957,7 @@
     </row>
     <row r="1505" spans="1:30">
       <c r="A1505" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1505" s="54">
         <f t="shared" si="25"/>
